--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC185"/>
+  <dimension ref="A1:AC188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>90.38229166666666</v>
+        <v>90.87375</v>
       </c>
       <c r="D2" t="n">
         <v>74.16666666666667</v>
@@ -8497,7 +8497,7 @@
         <v>63.6</v>
       </c>
       <c r="K114" t="n">
-        <v>75.5</v>
+        <v>75.34531250000001</v>
       </c>
       <c r="L114" t="n">
         <v>71.5</v>
@@ -8580,7 +8580,7 @@
         <v>63.6</v>
       </c>
       <c r="K115" t="n">
-        <v>75.5</v>
+        <v>75.34531250000001</v>
       </c>
       <c r="L115" t="n">
         <v>71.5</v>
@@ -8663,7 +8663,7 @@
         <v>63.6</v>
       </c>
       <c r="K116" t="n">
-        <v>75.5</v>
+        <v>75.34531250000001</v>
       </c>
       <c r="L116" t="n">
         <v>71.5</v>
@@ -8746,7 +8746,7 @@
         <v>63.6</v>
       </c>
       <c r="K117" t="n">
-        <v>75.5</v>
+        <v>75.34531250000001</v>
       </c>
       <c r="L117" t="n">
         <v>71.5</v>
@@ -8829,7 +8829,7 @@
         <v>63.6</v>
       </c>
       <c r="K118" t="n">
-        <v>75.5</v>
+        <v>75.34531250000001</v>
       </c>
       <c r="L118" t="n">
         <v>71.5</v>
@@ -8912,7 +8912,7 @@
         <v>63.6</v>
       </c>
       <c r="K119" t="n">
-        <v>75.5</v>
+        <v>75.34531250000001</v>
       </c>
       <c r="L119" t="n">
         <v>71.5</v>
@@ -10316,7 +10316,7 @@
         <v>77</v>
       </c>
       <c r="AC135" t="n">
-        <v>75.625</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136">
@@ -10403,7 +10403,7 @@
         <v>76.40000000000001</v>
       </c>
       <c r="AC136" t="n">
-        <v>75.625</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137">
@@ -10490,7 +10490,7 @@
         <v>77.7</v>
       </c>
       <c r="AC137" t="n">
-        <v>75.625</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138">
@@ -10577,7 +10577,7 @@
         <v>77.7</v>
       </c>
       <c r="AC138" t="n">
-        <v>75.625</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139">
@@ -10664,7 +10664,7 @@
         <v>77.7</v>
       </c>
       <c r="AC139" t="n">
-        <v>75.625</v>
+        <v>75</v>
       </c>
     </row>
     <row r="140">
@@ -10751,7 +10751,7 @@
         <v>77.7</v>
       </c>
       <c r="AC140" t="n">
-        <v>75.625</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141">
@@ -10791,7 +10791,7 @@
         <v>73</v>
       </c>
       <c r="L141" t="n">
-        <v>82.75</v>
+        <v>84</v>
       </c>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="n">
@@ -10838,7 +10838,7 @@
         <v>77.7</v>
       </c>
       <c r="AC141" t="n">
-        <v>75.625</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142">
@@ -10878,7 +10878,7 @@
         <v>73</v>
       </c>
       <c r="L142" t="n">
-        <v>82.75</v>
+        <v>84</v>
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="n">
@@ -10925,7 +10925,7 @@
         <v>77.7</v>
       </c>
       <c r="AC142" t="n">
-        <v>75.625</v>
+        <v>75</v>
       </c>
     </row>
     <row r="143">
@@ -10965,7 +10965,7 @@
         <v>71.5</v>
       </c>
       <c r="L143" t="n">
-        <v>82.75</v>
+        <v>84</v>
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="n">
@@ -11052,7 +11052,7 @@
         <v>69.22857142857143</v>
       </c>
       <c r="L144" t="n">
-        <v>82.75</v>
+        <v>84</v>
       </c>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="n">
@@ -11886,7 +11886,7 @@
         <v>0.08926470588235294</v>
       </c>
       <c r="Y153" t="n">
-        <v>5.149999999999999</v>
+        <v>4.024999999999999</v>
       </c>
       <c r="Z153" t="inlineStr"/>
       <c r="AA153" t="n">
@@ -11975,7 +11975,7 @@
         <v>-0.08800000000000001</v>
       </c>
       <c r="Y154" t="n">
-        <v>5.149999999999999</v>
+        <v>4.024999999999999</v>
       </c>
       <c r="Z154" t="inlineStr"/>
       <c r="AA154" t="n">
@@ -12064,7 +12064,7 @@
         <v>0.025</v>
       </c>
       <c r="Y155" t="n">
-        <v>5.149999999999999</v>
+        <v>4.024999999999999</v>
       </c>
       <c r="Z155" t="inlineStr"/>
       <c r="AA155" t="n">
@@ -12153,7 +12153,7 @@
         <v>0.7</v>
       </c>
       <c r="Y156" t="n">
-        <v>5.149999999999999</v>
+        <v>4.024999999999999</v>
       </c>
       <c r="Z156" t="inlineStr"/>
       <c r="AA156" t="n">
@@ -12242,7 +12242,7 @@
         <v>0.7</v>
       </c>
       <c r="Y157" t="n">
-        <v>5.149999999999999</v>
+        <v>4.024999999999999</v>
       </c>
       <c r="Z157" t="inlineStr"/>
       <c r="AA157" t="n">
@@ -13434,7 +13434,7 @@
         <v>130.6666666666667</v>
       </c>
       <c r="G171" t="n">
-        <v>132.1125</v>
+        <v>135</v>
       </c>
       <c r="H171" t="n">
         <v>69</v>
@@ -13523,7 +13523,7 @@
         <v>130.6666666666667</v>
       </c>
       <c r="G172" t="n">
-        <v>132.1125</v>
+        <v>135</v>
       </c>
       <c r="H172" t="n">
         <v>69</v>
@@ -13612,7 +13612,7 @@
         <v>133.25</v>
       </c>
       <c r="G173" t="n">
-        <v>132.1125</v>
+        <v>135</v>
       </c>
       <c r="H173" t="n">
         <v>69</v>
@@ -13701,7 +13701,7 @@
         <v>133.25</v>
       </c>
       <c r="G174" t="n">
-        <v>132.1125</v>
+        <v>135</v>
       </c>
       <c r="H174" t="n">
         <v>69</v>
@@ -13790,7 +13790,7 @@
         <v>137.995</v>
       </c>
       <c r="G175" t="n">
-        <v>132.1125</v>
+        <v>135</v>
       </c>
       <c r="H175" t="n">
         <v>69</v>
@@ -13881,7 +13881,7 @@
         <v>144.5</v>
       </c>
       <c r="G176" t="n">
-        <v>132.1125</v>
+        <v>135</v>
       </c>
       <c r="H176" t="n">
         <v>69</v>
@@ -13896,7 +13896,7 @@
         <v>70.40454545454546</v>
       </c>
       <c r="L176" t="n">
-        <v>82.75</v>
+        <v>84</v>
       </c>
       <c r="M176" t="n">
         <v>105.2714285714286</v>
@@ -13972,7 +13972,7 @@
         <v>144.6666666666667</v>
       </c>
       <c r="G177" t="n">
-        <v>132.1125</v>
+        <v>136.95</v>
       </c>
       <c r="H177" t="n">
         <v>68.5</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="AA177" t="n">
-        <v>65.75</v>
+        <v>64.41089285714285</v>
       </c>
       <c r="AB177" t="n">
         <v>69.38857142857142</v>
@@ -14063,7 +14063,7 @@
         <v>141.8333333333333</v>
       </c>
       <c r="G178" t="n">
-        <v>132.1125</v>
+        <v>136.95</v>
       </c>
       <c r="H178" t="n">
         <v>68.5</v>
@@ -14123,7 +14123,7 @@
         <v>0.58125</v>
       </c>
       <c r="AA178" t="n">
-        <v>65.75</v>
+        <v>64.58499999999999</v>
       </c>
       <c r="AB178" t="n">
         <v>67.6837837837838</v>
@@ -14154,7 +14154,7 @@
         <v>141.8333333333333</v>
       </c>
       <c r="G179" t="n">
-        <v>132.1125</v>
+        <v>136.95</v>
       </c>
       <c r="H179" t="n">
         <v>68.5</v>
@@ -14214,7 +14214,7 @@
         <v>0.6</v>
       </c>
       <c r="AA179" t="n">
-        <v>65.75</v>
+        <v>64.52</v>
       </c>
       <c r="AB179" t="n">
         <v>68.375</v>
@@ -14245,7 +14245,7 @@
         <v>141.8333333333333</v>
       </c>
       <c r="G180" t="n">
-        <v>132.1125</v>
+        <v>136.95</v>
       </c>
       <c r="H180" t="n">
         <v>68.5</v>
@@ -14305,7 +14305,7 @@
         <v>0</v>
       </c>
       <c r="AA180" t="n">
-        <v>65.75</v>
+        <v>64.56206896551724</v>
       </c>
       <c r="AB180" t="n">
         <v>67.97999999999999</v>
@@ -14336,7 +14336,7 @@
         <v>139.3333333333333</v>
       </c>
       <c r="G181" t="n">
-        <v>132.1125</v>
+        <v>136.95</v>
       </c>
       <c r="H181" t="n">
         <v>66</v>
@@ -14396,13 +14396,13 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="AA181" t="n">
-        <v>65.75</v>
+        <v>64.2233718487395</v>
       </c>
       <c r="AB181" t="n">
         <v>66.19466666666668</v>
       </c>
       <c r="AC181" t="n">
-        <v>66.72851851851853</v>
+        <v>67</v>
       </c>
     </row>
     <row r="182">
@@ -14427,7 +14427,7 @@
         <v>140</v>
       </c>
       <c r="G182" t="n">
-        <v>132.1125</v>
+        <v>136.95</v>
       </c>
       <c r="H182" t="n">
         <v>67</v>
@@ -14487,13 +14487,13 @@
         <v>0.67375</v>
       </c>
       <c r="AA182" t="n">
-        <v>65.75</v>
+        <v>64.2233718487395</v>
       </c>
       <c r="AB182" t="n">
         <v>66.32871794871795</v>
       </c>
       <c r="AC182" t="n">
-        <v>66.75833333333334</v>
+        <v>67</v>
       </c>
     </row>
     <row r="183">
@@ -14518,7 +14518,7 @@
         <v>136.0666666666667</v>
       </c>
       <c r="G183" t="n">
-        <v>132.1125</v>
+        <v>136.95</v>
       </c>
       <c r="H183" t="n">
         <v>67</v>
@@ -14578,13 +14578,13 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="AA183" t="n">
-        <v>65.75</v>
+        <v>64.2233718487395</v>
       </c>
       <c r="AB183" t="n">
         <v>64.53727272727272</v>
       </c>
       <c r="AC183" t="n">
-        <v>66.625</v>
+        <v>67</v>
       </c>
     </row>
     <row r="184">
@@ -14609,7 +14609,7 @@
         <v>135</v>
       </c>
       <c r="G184" t="n">
-        <v>132.1125</v>
+        <v>136.95</v>
       </c>
       <c r="H184" t="n">
         <v>67</v>
@@ -14669,13 +14669,13 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="AA184" t="n">
-        <v>65.75</v>
+        <v>64.2233718487395</v>
       </c>
       <c r="AB184" t="n">
         <v>64.09999999999999</v>
       </c>
       <c r="AC184" t="n">
-        <v>66.625</v>
+        <v>67</v>
       </c>
     </row>
     <row r="185">
@@ -14691,40 +14691,40 @@
         <v>78</v>
       </c>
       <c r="D185" t="n">
-        <v>119</v>
+        <v>119.8415789473684</v>
       </c>
       <c r="E185" t="n">
-        <v>123.4</v>
+        <v>135.5833333333333</v>
       </c>
       <c r="F185" t="n">
-        <v>138.25</v>
+        <v>140.5</v>
       </c>
       <c r="G185" t="n">
-        <v>132.1125</v>
+        <v>136.95</v>
       </c>
       <c r="H185" t="n">
         <v>67</v>
       </c>
       <c r="I185" t="n">
-        <v>89.73266666666667</v>
+        <v>90.68212765957448</v>
       </c>
       <c r="J185" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K185" t="n">
-        <v>66.90416666666667</v>
+        <v>67.98076923076923</v>
       </c>
       <c r="L185" t="n">
-        <v>80.16666666666667</v>
+        <v>80.73218749999999</v>
       </c>
       <c r="M185" t="n">
-        <v>98.75</v>
+        <v>99.001875</v>
       </c>
       <c r="N185" t="n">
         <v>108.5</v>
       </c>
       <c r="O185" t="n">
-        <v>145.9333333333333</v>
+        <v>151</v>
       </c>
       <c r="P185" t="n">
         <v>151.15</v>
@@ -14757,16 +14757,289 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="Z185" t="n">
-        <v>0.6</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="AA185" t="n">
-        <v>65.75</v>
+        <v>64.2233718487395</v>
       </c>
       <c r="AB185" t="n">
-        <v>64.09999999999999</v>
+        <v>64.60640000000001</v>
       </c>
       <c r="AC185" t="n">
-        <v>66.625</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>81.33333333333333</v>
+      </c>
+      <c r="D186" t="n">
+        <v>123.84</v>
+      </c>
+      <c r="E186" t="n">
+        <v>139.1428571428571</v>
+      </c>
+      <c r="F186" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="G186" t="n">
+        <v>136.95</v>
+      </c>
+      <c r="H186" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="I186" t="n">
+        <v>96.72918367346938</v>
+      </c>
+      <c r="J186" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K186" t="n">
+        <v>68.72222222222223</v>
+      </c>
+      <c r="L186" t="n">
+        <v>84</v>
+      </c>
+      <c r="M186" t="n">
+        <v>107.1055172413793</v>
+      </c>
+      <c r="N186" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="O186" t="n">
+        <v>158</v>
+      </c>
+      <c r="P186" t="n">
+        <v>151.15</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>134</v>
+      </c>
+      <c r="R186" t="n">
+        <v>145</v>
+      </c>
+      <c r="S186" t="n">
+        <v>99</v>
+      </c>
+      <c r="T186" t="n">
+        <v>119</v>
+      </c>
+      <c r="U186" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V186" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="W186" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="X186" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>64.2233718487395</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>65.325</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>80.75</v>
+      </c>
+      <c r="D187" t="n">
+        <v>125.218125</v>
+      </c>
+      <c r="E187" t="n">
+        <v>140.8125</v>
+      </c>
+      <c r="F187" t="n">
+        <v>145</v>
+      </c>
+      <c r="G187" t="n">
+        <v>136.95</v>
+      </c>
+      <c r="H187" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I187" t="n">
+        <v>95.73343749999999</v>
+      </c>
+      <c r="J187" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K187" t="n">
+        <v>67</v>
+      </c>
+      <c r="L187" t="n">
+        <v>83.93205128205128</v>
+      </c>
+      <c r="M187" t="n">
+        <v>107.6188888888889</v>
+      </c>
+      <c r="N187" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="O187" t="n">
+        <v>158</v>
+      </c>
+      <c r="P187" t="n">
+        <v>151.15</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>137.75</v>
+      </c>
+      <c r="R187" t="n">
+        <v>145</v>
+      </c>
+      <c r="S187" t="n">
+        <v>99</v>
+      </c>
+      <c r="T187" t="n">
+        <v>119</v>
+      </c>
+      <c r="U187" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V187" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="W187" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="X187" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>64.2233718487395</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>25/01/2024</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>127.4607142857143</v>
+      </c>
+      <c r="E188" t="n">
+        <v>142.03</v>
+      </c>
+      <c r="F188" t="n">
+        <v>144.43</v>
+      </c>
+      <c r="G188" t="n">
+        <v>136.95</v>
+      </c>
+      <c r="H188" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I188" t="n">
+        <v>98.6365625</v>
+      </c>
+      <c r="J188" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K188" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="L188" t="n">
+        <v>84</v>
+      </c>
+      <c r="M188" t="n">
+        <v>110.7355555555555</v>
+      </c>
+      <c r="N188" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="O188" t="n">
+        <v>158</v>
+      </c>
+      <c r="P188" t="n">
+        <v>151.15</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>137.75</v>
+      </c>
+      <c r="R188" t="n">
+        <v>145</v>
+      </c>
+      <c r="S188" t="n">
+        <v>99</v>
+      </c>
+      <c r="T188" t="n">
+        <v>119</v>
+      </c>
+      <c r="U188" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V188" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="W188" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="X188" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>64.2233718487395</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC188"/>
+  <dimension ref="A1:AC189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>90.87375</v>
+        <v>91.02044642857143</v>
       </c>
       <c r="D2" t="n">
         <v>74.16666666666667</v>
@@ -8497,7 +8497,7 @@
         <v>63.6</v>
       </c>
       <c r="K114" t="n">
-        <v>75.34531250000001</v>
+        <v>75.29375000000002</v>
       </c>
       <c r="L114" t="n">
         <v>71.5</v>
@@ -8580,7 +8580,7 @@
         <v>63.6</v>
       </c>
       <c r="K115" t="n">
-        <v>75.34531250000001</v>
+        <v>75.29375000000002</v>
       </c>
       <c r="L115" t="n">
         <v>71.5</v>
@@ -8663,7 +8663,7 @@
         <v>63.6</v>
       </c>
       <c r="K116" t="n">
-        <v>75.34531250000001</v>
+        <v>75.29375000000002</v>
       </c>
       <c r="L116" t="n">
         <v>71.5</v>
@@ -8746,7 +8746,7 @@
         <v>63.6</v>
       </c>
       <c r="K117" t="n">
-        <v>75.34531250000001</v>
+        <v>75.29375000000002</v>
       </c>
       <c r="L117" t="n">
         <v>71.5</v>
@@ -8829,7 +8829,7 @@
         <v>63.6</v>
       </c>
       <c r="K118" t="n">
-        <v>75.34531250000001</v>
+        <v>75.29375000000002</v>
       </c>
       <c r="L118" t="n">
         <v>71.5</v>
@@ -8912,7 +8912,7 @@
         <v>63.6</v>
       </c>
       <c r="K119" t="n">
-        <v>75.34531250000001</v>
+        <v>75.29375000000002</v>
       </c>
       <c r="L119" t="n">
         <v>71.5</v>
@@ -11886,7 +11886,7 @@
         <v>0.08926470588235294</v>
       </c>
       <c r="Y153" t="n">
-        <v>4.024999999999999</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="Z153" t="inlineStr"/>
       <c r="AA153" t="n">
@@ -11975,7 +11975,7 @@
         <v>-0.08800000000000001</v>
       </c>
       <c r="Y154" t="n">
-        <v>4.024999999999999</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="Z154" t="inlineStr"/>
       <c r="AA154" t="n">
@@ -12064,7 +12064,7 @@
         <v>0.025</v>
       </c>
       <c r="Y155" t="n">
-        <v>4.024999999999999</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="Z155" t="inlineStr"/>
       <c r="AA155" t="n">
@@ -12153,7 +12153,7 @@
         <v>0.7</v>
       </c>
       <c r="Y156" t="n">
-        <v>4.024999999999999</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="Z156" t="inlineStr"/>
       <c r="AA156" t="n">
@@ -12242,7 +12242,7 @@
         <v>0.7</v>
       </c>
       <c r="Y157" t="n">
-        <v>4.024999999999999</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="Z157" t="inlineStr"/>
       <c r="AA157" t="n">
@@ -13996,10 +13996,10 @@
         <v>118.75</v>
       </c>
       <c r="O177" t="n">
-        <v>161.625</v>
+        <v>161.71875</v>
       </c>
       <c r="P177" t="n">
-        <v>151.15</v>
+        <v>174</v>
       </c>
       <c r="Q177" t="n">
         <v>134</v>
@@ -14087,10 +14087,10 @@
         <v>118.75</v>
       </c>
       <c r="O178" t="n">
-        <v>161.625</v>
+        <v>161.71875</v>
       </c>
       <c r="P178" t="n">
-        <v>151.15</v>
+        <v>174</v>
       </c>
       <c r="Q178" t="n">
         <v>134</v>
@@ -14181,7 +14181,7 @@
         <v>153.5</v>
       </c>
       <c r="P179" t="n">
-        <v>151.15</v>
+        <v>174</v>
       </c>
       <c r="Q179" t="n">
         <v>134</v>
@@ -14272,7 +14272,7 @@
         <v>155</v>
       </c>
       <c r="P180" t="n">
-        <v>151.15</v>
+        <v>174</v>
       </c>
       <c r="Q180" t="n">
         <v>134</v>
@@ -14363,7 +14363,7 @@
         <v>145</v>
       </c>
       <c r="P181" t="n">
-        <v>151.15</v>
+        <v>174</v>
       </c>
       <c r="Q181" t="n">
         <v>134</v>
@@ -14396,7 +14396,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="AA181" t="n">
-        <v>64.2233718487395</v>
+        <v>64.09027777777777</v>
       </c>
       <c r="AB181" t="n">
         <v>66.19466666666668</v>
@@ -14454,7 +14454,7 @@
         <v>150.5</v>
       </c>
       <c r="P182" t="n">
-        <v>151.15</v>
+        <v>174</v>
       </c>
       <c r="Q182" t="n">
         <v>134</v>
@@ -14487,7 +14487,7 @@
         <v>0.67375</v>
       </c>
       <c r="AA182" t="n">
-        <v>64.2233718487395</v>
+        <v>63.67666666666667</v>
       </c>
       <c r="AB182" t="n">
         <v>66.32871794871795</v>
@@ -14545,7 +14545,7 @@
         <v>145.9333333333333</v>
       </c>
       <c r="P183" t="n">
-        <v>151.15</v>
+        <v>174</v>
       </c>
       <c r="Q183" t="n">
         <v>134</v>
@@ -14578,7 +14578,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="AA183" t="n">
-        <v>64.2233718487395</v>
+        <v>62.584375</v>
       </c>
       <c r="AB183" t="n">
         <v>64.53727272727272</v>
@@ -14636,7 +14636,7 @@
         <v>145.9333333333333</v>
       </c>
       <c r="P184" t="n">
-        <v>151.15</v>
+        <v>174</v>
       </c>
       <c r="Q184" t="n">
         <v>134</v>
@@ -14669,7 +14669,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="AA184" t="n">
-        <v>64.2233718487395</v>
+        <v>62.15</v>
       </c>
       <c r="AB184" t="n">
         <v>64.09999999999999</v>
@@ -14727,7 +14727,7 @@
         <v>151</v>
       </c>
       <c r="P185" t="n">
-        <v>151.15</v>
+        <v>174</v>
       </c>
       <c r="Q185" t="n">
         <v>134</v>
@@ -14760,7 +14760,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="AA185" t="n">
-        <v>64.2233718487395</v>
+        <v>63</v>
       </c>
       <c r="AB185" t="n">
         <v>64.60640000000001</v>
@@ -14818,7 +14818,7 @@
         <v>158</v>
       </c>
       <c r="P186" t="n">
-        <v>151.15</v>
+        <v>174</v>
       </c>
       <c r="Q186" t="n">
         <v>134</v>
@@ -14851,7 +14851,7 @@
         <v>0.7</v>
       </c>
       <c r="AA186" t="n">
-        <v>64.2233718487395</v>
+        <v>62.17285714285714</v>
       </c>
       <c r="AB186" t="n">
         <v>65.325</v>
@@ -14909,7 +14909,7 @@
         <v>158</v>
       </c>
       <c r="P187" t="n">
-        <v>151.15</v>
+        <v>174</v>
       </c>
       <c r="Q187" t="n">
         <v>137.75</v>
@@ -14942,7 +14942,7 @@
         <v>0.625</v>
       </c>
       <c r="AA187" t="n">
-        <v>64.2233718487395</v>
+        <v>62.01984126984126</v>
       </c>
       <c r="AB187" t="n">
         <v>64.2</v>
@@ -14961,16 +14961,16 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>82.5</v>
+        <v>82.53333333333333</v>
       </c>
       <c r="D188" t="n">
-        <v>127.4607142857143</v>
+        <v>128.2357692307692</v>
       </c>
       <c r="E188" t="n">
-        <v>142.03</v>
+        <v>142.1371428571429</v>
       </c>
       <c r="F188" t="n">
-        <v>144.43</v>
+        <v>143.5725</v>
       </c>
       <c r="G188" t="n">
         <v>136.95</v>
@@ -14979,19 +14979,19 @@
         <v>64.75</v>
       </c>
       <c r="I188" t="n">
-        <v>98.6365625</v>
+        <v>99.5244776119403</v>
       </c>
       <c r="J188" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K188" t="n">
-        <v>68.09999999999999</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="L188" t="n">
         <v>84</v>
       </c>
       <c r="M188" t="n">
-        <v>110.7355555555555</v>
+        <v>113.0117948717949</v>
       </c>
       <c r="N188" t="n">
         <v>108.5</v>
@@ -15000,13 +15000,13 @@
         <v>158</v>
       </c>
       <c r="P188" t="n">
-        <v>151.15</v>
+        <v>171</v>
       </c>
       <c r="Q188" t="n">
         <v>137.75</v>
       </c>
       <c r="R188" t="n">
-        <v>145</v>
+        <v>147.85</v>
       </c>
       <c r="S188" t="n">
         <v>99</v>
@@ -15030,15 +15030,106 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="Z188" t="n">
-        <v>0.65</v>
+        <v>0.575</v>
       </c>
       <c r="AA188" t="n">
-        <v>64.2233718487395</v>
+        <v>62.01984126984126</v>
       </c>
       <c r="AB188" t="n">
-        <v>64.2</v>
+        <v>64.13333333333334</v>
       </c>
       <c r="AC188" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>82.53333333333333</v>
+      </c>
+      <c r="D189" t="n">
+        <v>133.2177631578948</v>
+      </c>
+      <c r="E189" t="n">
+        <v>148.5625</v>
+      </c>
+      <c r="F189" t="n">
+        <v>143.5725</v>
+      </c>
+      <c r="G189" t="n">
+        <v>136.95</v>
+      </c>
+      <c r="H189" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I189" t="n">
+        <v>106.01046875</v>
+      </c>
+      <c r="J189" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K189" t="n">
+        <v>68.33333333333333</v>
+      </c>
+      <c r="L189" t="n">
+        <v>84</v>
+      </c>
+      <c r="M189" t="n">
+        <v>123.7700520833333</v>
+      </c>
+      <c r="N189" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="O189" t="n">
+        <v>158</v>
+      </c>
+      <c r="P189" t="n">
+        <v>171</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>137.75</v>
+      </c>
+      <c r="R189" t="n">
+        <v>147.85</v>
+      </c>
+      <c r="S189" t="n">
+        <v>99</v>
+      </c>
+      <c r="T189" t="n">
+        <v>119</v>
+      </c>
+      <c r="U189" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V189" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="W189" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="X189" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>62.01984126984126</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>64.13333333333334</v>
+      </c>
+      <c r="AC189" t="n">
         <v>67</v>
       </c>
     </row>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -15052,7 +15052,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>82.53333333333333</v>
+        <v>84</v>
       </c>
       <c r="D189" t="n">
         <v>133.2177631578948</v>
@@ -15076,7 +15076,7 @@
         <v>67.83799999999999</v>
       </c>
       <c r="K189" t="n">
-        <v>68.33333333333333</v>
+        <v>70.33333333333333</v>
       </c>
       <c r="L189" t="n">
         <v>84</v>
@@ -15091,7 +15091,7 @@
         <v>158</v>
       </c>
       <c r="P189" t="n">
-        <v>171</v>
+        <v>178.3375</v>
       </c>
       <c r="Q189" t="n">
         <v>137.75</v>
@@ -15121,7 +15121,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="Z189" t="n">
-        <v>0.575</v>
+        <v>0.7</v>
       </c>
       <c r="AA189" t="n">
         <v>62.01984126984126</v>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC189"/>
+  <dimension ref="A1:AC191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>91.02044642857143</v>
+        <v>90.98964285714285</v>
       </c>
       <c r="D2" t="n">
         <v>74.16666666666667</v>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>118.75</v>
+        <v>119.8125</v>
       </c>
       <c r="O38" t="n">
         <v>125</v>
@@ -3988,7 +3988,7 @@
         <v>2.3</v>
       </c>
       <c r="Y55" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
@@ -4065,7 +4065,7 @@
         <v>2.3</v>
       </c>
       <c r="Y56" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
@@ -4142,7 +4142,7 @@
         <v>2.3</v>
       </c>
       <c r="Y57" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
@@ -4219,7 +4219,7 @@
         <v>2.3</v>
       </c>
       <c r="Y58" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
         <v>2.3</v>
       </c>
       <c r="Y59" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
@@ -4373,7 +4373,7 @@
         <v>2.3</v>
       </c>
       <c r="Y60" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
@@ -4450,7 +4450,7 @@
         <v>2.3</v>
       </c>
       <c r="Y61" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
@@ -4527,7 +4527,7 @@
         <v>2.3</v>
       </c>
       <c r="Y62" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
@@ -4604,7 +4604,7 @@
         <v>2.3</v>
       </c>
       <c r="Y63" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
         <v>2.3</v>
       </c>
       <c r="Y64" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
@@ -4758,7 +4758,7 @@
         <v>2.3</v>
       </c>
       <c r="Y65" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
@@ -4835,7 +4835,7 @@
         <v>2.3</v>
       </c>
       <c r="Y66" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
@@ -4912,7 +4912,7 @@
         <v>2.3</v>
       </c>
       <c r="Y67" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
@@ -4989,7 +4989,7 @@
         <v>2.3</v>
       </c>
       <c r="Y68" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
@@ -5066,7 +5066,7 @@
         <v>2.3</v>
       </c>
       <c r="Y69" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
@@ -5143,7 +5143,7 @@
         <v>2.3</v>
       </c>
       <c r="Y70" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
@@ -5220,7 +5220,7 @@
         <v>2.3</v>
       </c>
       <c r="Y71" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
@@ -5297,7 +5297,7 @@
         <v>2.3</v>
       </c>
       <c r="Y72" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
@@ -5374,7 +5374,7 @@
         <v>2.3</v>
       </c>
       <c r="Y73" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
@@ -5451,7 +5451,7 @@
         <v>2.3</v>
       </c>
       <c r="Y74" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
@@ -5528,7 +5528,7 @@
         <v>2.3</v>
       </c>
       <c r="Y75" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
@@ -5605,7 +5605,7 @@
         <v>2.3</v>
       </c>
       <c r="Y76" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
@@ -5682,7 +5682,7 @@
         <v>2.3</v>
       </c>
       <c r="Y77" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
@@ -5759,7 +5759,7 @@
         <v>2.3</v>
       </c>
       <c r="Y78" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
@@ -5836,7 +5836,7 @@
         <v>2.3</v>
       </c>
       <c r="Y79" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
@@ -5913,7 +5913,7 @@
         <v>2.3</v>
       </c>
       <c r="Y80" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
@@ -5990,7 +5990,7 @@
         <v>2.3</v>
       </c>
       <c r="Y81" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
@@ -6067,7 +6067,7 @@
         <v>2.3</v>
       </c>
       <c r="Y82" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
@@ -6144,7 +6144,7 @@
         <v>2.3</v>
       </c>
       <c r="Y83" t="n">
-        <v>2.3</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
@@ -6221,7 +6221,7 @@
         <v>2.3</v>
       </c>
       <c r="Y84" t="n">
-        <v>0</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
@@ -6298,7 +6298,7 @@
         <v>2.3</v>
       </c>
       <c r="Y85" t="n">
-        <v>0</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
@@ -6375,7 +6375,7 @@
         <v>2.3</v>
       </c>
       <c r="Y86" t="n">
-        <v>0</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
@@ -6452,7 +6452,7 @@
         <v>2.3</v>
       </c>
       <c r="Y87" t="n">
-        <v>0</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
@@ -6529,7 +6529,7 @@
         <v>2.3</v>
       </c>
       <c r="Y88" t="n">
-        <v>0</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
@@ -6606,7 +6606,7 @@
         <v>2.3</v>
       </c>
       <c r="Y89" t="n">
-        <v>0</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
@@ -6683,7 +6683,7 @@
         <v>2.3</v>
       </c>
       <c r="Y90" t="n">
-        <v>0</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
@@ -6760,7 +6760,7 @@
         <v>2.3</v>
       </c>
       <c r="Y91" t="n">
-        <v>0</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr"/>
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="Y92" t="n">
-        <v>0</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr"/>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="Y93" t="n">
-        <v>0</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="Y94" t="n">
-        <v>0</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr"/>
@@ -7068,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="Y95" t="n">
-        <v>0</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="inlineStr"/>
@@ -8497,7 +8497,7 @@
         <v>63.6</v>
       </c>
       <c r="K114" t="n">
-        <v>75.29375000000002</v>
+        <v>74.65255681818181</v>
       </c>
       <c r="L114" t="n">
         <v>71.5</v>
@@ -8580,7 +8580,7 @@
         <v>63.6</v>
       </c>
       <c r="K115" t="n">
-        <v>75.29375000000002</v>
+        <v>74.65255681818181</v>
       </c>
       <c r="L115" t="n">
         <v>71.5</v>
@@ -8663,7 +8663,7 @@
         <v>63.6</v>
       </c>
       <c r="K116" t="n">
-        <v>75.29375000000002</v>
+        <v>74.65255681818181</v>
       </c>
       <c r="L116" t="n">
         <v>71.5</v>
@@ -8746,7 +8746,7 @@
         <v>63.6</v>
       </c>
       <c r="K117" t="n">
-        <v>75.29375000000002</v>
+        <v>74.65255681818181</v>
       </c>
       <c r="L117" t="n">
         <v>71.5</v>
@@ -8829,7 +8829,7 @@
         <v>63.6</v>
       </c>
       <c r="K118" t="n">
-        <v>75.29375000000002</v>
+        <v>74.65255681818181</v>
       </c>
       <c r="L118" t="n">
         <v>71.5</v>
@@ -8912,7 +8912,7 @@
         <v>63.6</v>
       </c>
       <c r="K119" t="n">
-        <v>75.29375000000002</v>
+        <v>74.65255681818181</v>
       </c>
       <c r="L119" t="n">
         <v>71.5</v>
@@ -10316,7 +10316,7 @@
         <v>77</v>
       </c>
       <c r="AC135" t="n">
-        <v>75</v>
+        <v>75.84375</v>
       </c>
     </row>
     <row r="136">
@@ -10403,7 +10403,7 @@
         <v>76.40000000000001</v>
       </c>
       <c r="AC136" t="n">
-        <v>75</v>
+        <v>75.84375</v>
       </c>
     </row>
     <row r="137">
@@ -10490,7 +10490,7 @@
         <v>77.7</v>
       </c>
       <c r="AC137" t="n">
-        <v>75</v>
+        <v>75.84375</v>
       </c>
     </row>
     <row r="138">
@@ -10577,7 +10577,7 @@
         <v>77.7</v>
       </c>
       <c r="AC138" t="n">
-        <v>75</v>
+        <v>75.84375</v>
       </c>
     </row>
     <row r="139">
@@ -10664,7 +10664,7 @@
         <v>77.7</v>
       </c>
       <c r="AC139" t="n">
-        <v>75</v>
+        <v>75.84375</v>
       </c>
     </row>
     <row r="140">
@@ -10751,7 +10751,7 @@
         <v>77.7</v>
       </c>
       <c r="AC140" t="n">
-        <v>75</v>
+        <v>75.84375</v>
       </c>
     </row>
     <row r="141">
@@ -10791,7 +10791,7 @@
         <v>73</v>
       </c>
       <c r="L141" t="n">
-        <v>84</v>
+        <v>85.25</v>
       </c>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="n">
@@ -10838,7 +10838,7 @@
         <v>77.7</v>
       </c>
       <c r="AC141" t="n">
-        <v>75</v>
+        <v>75.84375</v>
       </c>
     </row>
     <row r="142">
@@ -10878,7 +10878,7 @@
         <v>73</v>
       </c>
       <c r="L142" t="n">
-        <v>84</v>
+        <v>85.25</v>
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="n">
@@ -10925,7 +10925,7 @@
         <v>77.7</v>
       </c>
       <c r="AC142" t="n">
-        <v>75</v>
+        <v>75.84375</v>
       </c>
     </row>
     <row r="143">
@@ -10965,7 +10965,7 @@
         <v>71.5</v>
       </c>
       <c r="L143" t="n">
-        <v>84</v>
+        <v>85.25</v>
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="n">
@@ -11886,7 +11886,7 @@
         <v>0.08926470588235294</v>
       </c>
       <c r="Y153" t="n">
-        <v>2.899999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z153" t="inlineStr"/>
       <c r="AA153" t="n">
@@ -11975,7 +11975,7 @@
         <v>-0.08800000000000001</v>
       </c>
       <c r="Y154" t="n">
-        <v>2.899999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z154" t="inlineStr"/>
       <c r="AA154" t="n">
@@ -12064,7 +12064,7 @@
         <v>0.025</v>
       </c>
       <c r="Y155" t="n">
-        <v>2.899999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z155" t="inlineStr"/>
       <c r="AA155" t="n">
@@ -12153,7 +12153,7 @@
         <v>0.7</v>
       </c>
       <c r="Y156" t="n">
-        <v>2.899999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z156" t="inlineStr"/>
       <c r="AA156" t="n">
@@ -12227,7 +12227,7 @@
         <v>98</v>
       </c>
       <c r="T157" t="n">
-        <v>110</v>
+        <v>110.9375</v>
       </c>
       <c r="U157" t="n">
         <v>1.16</v>
@@ -12242,7 +12242,7 @@
         <v>0.7</v>
       </c>
       <c r="Y157" t="n">
-        <v>2.899999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z157" t="inlineStr"/>
       <c r="AA157" t="n">
@@ -12316,7 +12316,7 @@
         <v>98</v>
       </c>
       <c r="T158" t="n">
-        <v>110</v>
+        <v>110.9375</v>
       </c>
       <c r="U158" t="n">
         <v>1.16</v>
@@ -12331,7 +12331,7 @@
         <v>0.7</v>
       </c>
       <c r="Y158" t="n">
-        <v>0.2</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z158" t="inlineStr"/>
       <c r="AA158" t="n">
@@ -12405,7 +12405,7 @@
         <v>98</v>
       </c>
       <c r="T159" t="n">
-        <v>110</v>
+        <v>110.9375</v>
       </c>
       <c r="U159" t="n">
         <v>1.16</v>
@@ -12420,7 +12420,7 @@
         <v>0.7</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.2</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z159" t="inlineStr"/>
       <c r="AA159" t="n">
@@ -12494,7 +12494,7 @@
         <v>98</v>
       </c>
       <c r="T160" t="n">
-        <v>110</v>
+        <v>110.9375</v>
       </c>
       <c r="U160" t="n">
         <v>1.16</v>
@@ -12509,7 +12509,7 @@
         <v>0.7</v>
       </c>
       <c r="Y160" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z160" t="inlineStr"/>
       <c r="AA160" t="n">
@@ -12583,7 +12583,7 @@
         <v>98</v>
       </c>
       <c r="T161" t="n">
-        <v>110</v>
+        <v>110.9375</v>
       </c>
       <c r="U161" t="n">
         <v>1.16</v>
@@ -12598,7 +12598,7 @@
         <v>0.7</v>
       </c>
       <c r="Y161" t="n">
-        <v>0.1</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z161" t="inlineStr"/>
       <c r="AA161" t="n">
@@ -12672,7 +12672,7 @@
         <v>98</v>
       </c>
       <c r="T162" t="n">
-        <v>110</v>
+        <v>110.9375</v>
       </c>
       <c r="U162" t="n">
         <v>1.16</v>
@@ -12687,7 +12687,7 @@
         <v>0.7</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.1</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z162" t="inlineStr"/>
       <c r="AA162" t="n">
@@ -12761,7 +12761,7 @@
         <v>98</v>
       </c>
       <c r="T163" t="n">
-        <v>110</v>
+        <v>110.9375</v>
       </c>
       <c r="U163" t="n">
         <v>1.16</v>
@@ -12850,7 +12850,7 @@
         <v>98</v>
       </c>
       <c r="T164" t="n">
-        <v>110</v>
+        <v>110.9375</v>
       </c>
       <c r="U164" t="n">
         <v>1.16</v>
@@ -12939,7 +12939,7 @@
         <v>98</v>
       </c>
       <c r="T165" t="n">
-        <v>110</v>
+        <v>110.9375</v>
       </c>
       <c r="U165" t="n">
         <v>1.16</v>
@@ -12954,7 +12954,7 @@
         <v>0.7</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.23</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z165" t="inlineStr"/>
       <c r="AA165" t="n">
@@ -13028,7 +13028,7 @@
         <v>98</v>
       </c>
       <c r="T166" t="n">
-        <v>110</v>
+        <v>110.9375</v>
       </c>
       <c r="U166" t="n">
         <v>1.16</v>
@@ -13117,7 +13117,7 @@
         <v>98</v>
       </c>
       <c r="T167" t="n">
-        <v>110</v>
+        <v>110.9375</v>
       </c>
       <c r="U167" t="n">
         <v>1.16</v>
@@ -13132,7 +13132,7 @@
         <v>0.7</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.21</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z167" t="inlineStr"/>
       <c r="AA167" t="n">
@@ -13206,7 +13206,7 @@
         <v>98</v>
       </c>
       <c r="T168" t="n">
-        <v>110</v>
+        <v>110.9375</v>
       </c>
       <c r="U168" t="n">
         <v>1.16</v>
@@ -13295,7 +13295,7 @@
         <v>98</v>
       </c>
       <c r="T169" t="n">
-        <v>110</v>
+        <v>110.9375</v>
       </c>
       <c r="U169" t="n">
         <v>1.16</v>
@@ -13384,7 +13384,7 @@
         <v>98</v>
       </c>
       <c r="T170" t="n">
-        <v>110</v>
+        <v>110.9375</v>
       </c>
       <c r="U170" t="n">
         <v>1.16</v>
@@ -13473,7 +13473,7 @@
         <v>98</v>
       </c>
       <c r="T171" t="n">
-        <v>110</v>
+        <v>110.9375</v>
       </c>
       <c r="U171" t="n">
         <v>1.16</v>
@@ -13488,7 +13488,7 @@
         <v>0.7</v>
       </c>
       <c r="Y171" t="n">
-        <v>0.1959183673469388</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z171" t="inlineStr"/>
       <c r="AA171" t="n">
@@ -13562,7 +13562,7 @@
         <v>98</v>
       </c>
       <c r="T172" t="n">
-        <v>110</v>
+        <v>110.9375</v>
       </c>
       <c r="U172" t="n">
         <v>1.16</v>
@@ -13577,7 +13577,7 @@
         <v>0.7</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.1403191489361702</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z172" t="inlineStr"/>
       <c r="AA172" t="n">
@@ -13651,7 +13651,7 @@
         <v>98</v>
       </c>
       <c r="T173" t="n">
-        <v>110</v>
+        <v>110.9375</v>
       </c>
       <c r="U173" t="n">
         <v>1.16</v>
@@ -13666,7 +13666,7 @@
         <v>0.7</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.1748717948717949</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z173" t="inlineStr"/>
       <c r="AA173" t="n">
@@ -13740,7 +13740,7 @@
         <v>98</v>
       </c>
       <c r="T174" t="n">
-        <v>110</v>
+        <v>110.9375</v>
       </c>
       <c r="U174" t="n">
         <v>1.16</v>
@@ -13829,7 +13829,7 @@
         <v>98</v>
       </c>
       <c r="T175" t="n">
-        <v>110</v>
+        <v>110.9375</v>
       </c>
       <c r="U175" t="n">
         <v>1.16</v>
@@ -13844,10 +13844,10 @@
         <v>0.7</v>
       </c>
       <c r="Y175" t="n">
-        <v>0.2388888888888889</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="Z175" t="n">
-        <v>0</v>
+        <v>0.06830357142857141</v>
       </c>
       <c r="AA175" t="n">
         <v>68.37586206896552</v>
@@ -13896,7 +13896,7 @@
         <v>70.40454545454546</v>
       </c>
       <c r="L176" t="n">
-        <v>84</v>
+        <v>84.95</v>
       </c>
       <c r="M176" t="n">
         <v>105.2714285714286</v>
@@ -13938,7 +13938,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="Z176" t="n">
-        <v>0</v>
+        <v>0.06830357142857141</v>
       </c>
       <c r="AA176" t="n">
         <v>66.03888888888889</v>
@@ -13993,10 +13993,10 @@
         <v>106.87375</v>
       </c>
       <c r="N177" t="n">
-        <v>118.75</v>
+        <v>119.8125</v>
       </c>
       <c r="O177" t="n">
-        <v>161.71875</v>
+        <v>161.75</v>
       </c>
       <c r="P177" t="n">
         <v>174</v>
@@ -14029,7 +14029,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="Z177" t="n">
-        <v>0</v>
+        <v>0.06830357142857141</v>
       </c>
       <c r="AA177" t="n">
         <v>64.41089285714285</v>
@@ -14084,10 +14084,10 @@
         <v>100.9090909090909</v>
       </c>
       <c r="N178" t="n">
-        <v>118.75</v>
+        <v>119.8125</v>
       </c>
       <c r="O178" t="n">
-        <v>161.71875</v>
+        <v>161.75</v>
       </c>
       <c r="P178" t="n">
         <v>174</v>
@@ -14193,7 +14193,7 @@
         <v>99</v>
       </c>
       <c r="T179" t="n">
-        <v>125</v>
+        <v>124.4375</v>
       </c>
       <c r="U179" t="n">
         <v>1.16</v>
@@ -14284,7 +14284,7 @@
         <v>99</v>
       </c>
       <c r="T180" t="n">
-        <v>125</v>
+        <v>124.4375</v>
       </c>
       <c r="U180" t="n">
         <v>1.16</v>
@@ -14302,7 +14302,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="Z180" t="n">
-        <v>0</v>
+        <v>0.06830357142857141</v>
       </c>
       <c r="AA180" t="n">
         <v>64.56206896551724</v>
@@ -14402,7 +14402,7 @@
         <v>66.19466666666668</v>
       </c>
       <c r="AC181" t="n">
-        <v>67</v>
+        <v>66.72851851851853</v>
       </c>
     </row>
     <row r="182">
@@ -14493,7 +14493,7 @@
         <v>66.32871794871795</v>
       </c>
       <c r="AC182" t="n">
-        <v>67</v>
+        <v>66.75833333333334</v>
       </c>
     </row>
     <row r="183">
@@ -14584,7 +14584,7 @@
         <v>64.53727272727272</v>
       </c>
       <c r="AC183" t="n">
-        <v>67</v>
+        <v>65.87709677419355</v>
       </c>
     </row>
     <row r="184">
@@ -14675,7 +14675,7 @@
         <v>64.09999999999999</v>
       </c>
       <c r="AC184" t="n">
-        <v>67</v>
+        <v>65.59375</v>
       </c>
     </row>
     <row r="185">
@@ -14766,7 +14766,7 @@
         <v>64.60640000000001</v>
       </c>
       <c r="AC185" t="n">
-        <v>67</v>
+        <v>65.69642857142857</v>
       </c>
     </row>
     <row r="186">
@@ -14806,7 +14806,7 @@
         <v>68.72222222222223</v>
       </c>
       <c r="L186" t="n">
-        <v>84</v>
+        <v>84.36428571428571</v>
       </c>
       <c r="M186" t="n">
         <v>107.1055172413793</v>
@@ -14857,7 +14857,7 @@
         <v>65.325</v>
       </c>
       <c r="AC186" t="n">
-        <v>67</v>
+        <v>66.55833333333334</v>
       </c>
     </row>
     <row r="187">
@@ -14942,13 +14942,13 @@
         <v>0.625</v>
       </c>
       <c r="AA187" t="n">
-        <v>62.01984126984126</v>
+        <v>61.98333333333333</v>
       </c>
       <c r="AB187" t="n">
         <v>64.2</v>
       </c>
       <c r="AC187" t="n">
-        <v>67</v>
+        <v>65.59375</v>
       </c>
     </row>
     <row r="188">
@@ -14988,7 +14988,7 @@
         <v>68.33333333333333</v>
       </c>
       <c r="L188" t="n">
-        <v>84</v>
+        <v>85.25</v>
       </c>
       <c r="M188" t="n">
         <v>113.0117948717949</v>
@@ -15033,13 +15033,13 @@
         <v>0.575</v>
       </c>
       <c r="AA188" t="n">
-        <v>62.01984126984126</v>
+        <v>62</v>
       </c>
       <c r="AB188" t="n">
         <v>64.13333333333334</v>
       </c>
       <c r="AC188" t="n">
-        <v>67</v>
+        <v>65.59375</v>
       </c>
     </row>
     <row r="189">
@@ -15055,13 +15055,13 @@
         <v>84</v>
       </c>
       <c r="D189" t="n">
-        <v>133.2177631578948</v>
+        <v>133.69375</v>
       </c>
       <c r="E189" t="n">
-        <v>148.5625</v>
+        <v>148.375</v>
       </c>
       <c r="F189" t="n">
-        <v>143.5725</v>
+        <v>152</v>
       </c>
       <c r="G189" t="n">
         <v>136.95</v>
@@ -15070,28 +15070,28 @@
         <v>64.75</v>
       </c>
       <c r="I189" t="n">
-        <v>106.01046875</v>
+        <v>106.364375</v>
       </c>
       <c r="J189" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K189" t="n">
-        <v>70.33333333333333</v>
+        <v>69.905</v>
       </c>
       <c r="L189" t="n">
-        <v>84</v>
+        <v>85.25</v>
       </c>
       <c r="M189" t="n">
-        <v>123.7700520833333</v>
+        <v>125.5366666666667</v>
       </c>
       <c r="N189" t="n">
         <v>108.5</v>
       </c>
       <c r="O189" t="n">
-        <v>158</v>
+        <v>161.75</v>
       </c>
       <c r="P189" t="n">
-        <v>178.3375</v>
+        <v>183.25</v>
       </c>
       <c r="Q189" t="n">
         <v>137.75</v>
@@ -15121,16 +15121,198 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="Z189" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>62</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>66.995</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>84</v>
+      </c>
+      <c r="D190" t="n">
+        <v>133.69375</v>
+      </c>
+      <c r="E190" t="n">
+        <v>148.375</v>
+      </c>
+      <c r="F190" t="n">
+        <v>152</v>
+      </c>
+      <c r="G190" t="n">
+        <v>136.95</v>
+      </c>
+      <c r="H190" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I190" t="n">
+        <v>106.364375</v>
+      </c>
+      <c r="J190" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K190" t="n">
+        <v>69.905</v>
+      </c>
+      <c r="L190" t="n">
+        <v>85.25</v>
+      </c>
+      <c r="M190" t="n">
+        <v>125.5366666666667</v>
+      </c>
+      <c r="N190" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="O190" t="n">
+        <v>161.75</v>
+      </c>
+      <c r="P190" t="n">
+        <v>183.25</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>137.75</v>
+      </c>
+      <c r="R190" t="n">
+        <v>147.85</v>
+      </c>
+      <c r="S190" t="n">
+        <v>99</v>
+      </c>
+      <c r="T190" t="n">
+        <v>119</v>
+      </c>
+      <c r="U190" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V190" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="W190" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="X190" t="n">
         <v>0.7</v>
       </c>
-      <c r="AA189" t="n">
-        <v>62.01984126984126</v>
-      </c>
-      <c r="AB189" t="n">
-        <v>64.13333333333334</v>
-      </c>
-      <c r="AC189" t="n">
-        <v>67</v>
+      <c r="Y190" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>0.66875</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>62</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>66.995</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>29/01/2024</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>84</v>
+      </c>
+      <c r="D191" t="n">
+        <v>131</v>
+      </c>
+      <c r="E191" t="n">
+        <v>148.375</v>
+      </c>
+      <c r="F191" t="n">
+        <v>152</v>
+      </c>
+      <c r="G191" t="n">
+        <v>136.95</v>
+      </c>
+      <c r="H191" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I191" t="n">
+        <v>106.364375</v>
+      </c>
+      <c r="J191" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K191" t="n">
+        <v>69.905</v>
+      </c>
+      <c r="L191" t="n">
+        <v>85.25</v>
+      </c>
+      <c r="M191" t="n">
+        <v>125.5366666666667</v>
+      </c>
+      <c r="N191" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="O191" t="n">
+        <v>161.75</v>
+      </c>
+      <c r="P191" t="n">
+        <v>183.25</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>137.75</v>
+      </c>
+      <c r="R191" t="n">
+        <v>147.85</v>
+      </c>
+      <c r="S191" t="n">
+        <v>99</v>
+      </c>
+      <c r="T191" t="n">
+        <v>119</v>
+      </c>
+      <c r="U191" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V191" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="W191" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="X191" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>66.995</v>
       </c>
     </row>
   </sheetData>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>90.98964285714285</v>
+        <v>92</v>
       </c>
       <c r="D2" t="n">
         <v>74.16666666666667</v>
@@ -664,10 +664,10 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>127.75</v>
+        <v>121.9</v>
       </c>
       <c r="R3" t="n">
-        <v>140.25</v>
+        <v>132.5</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -723,10 +723,10 @@
         <v>109.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>127.75</v>
+        <v>121.9</v>
       </c>
       <c r="R4" t="n">
-        <v>140.25</v>
+        <v>132.5</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -782,10 +782,10 @@
         <v>109.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>127.75</v>
+        <v>121.9</v>
       </c>
       <c r="R5" t="n">
-        <v>140.25</v>
+        <v>132.5</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -841,10 +841,10 @@
         <v>109.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>127.75</v>
+        <v>121.9</v>
       </c>
       <c r="R6" t="n">
-        <v>140.25</v>
+        <v>132.5</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -900,10 +900,10 @@
         <v>109.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>127.75</v>
+        <v>121.9</v>
       </c>
       <c r="R7" t="n">
-        <v>140.25</v>
+        <v>132.5</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -959,10 +959,10 @@
         <v>113</v>
       </c>
       <c r="Q8" t="n">
-        <v>127.75</v>
+        <v>121.9</v>
       </c>
       <c r="R8" t="n">
-        <v>140.25</v>
+        <v>132.5</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1020,10 +1020,10 @@
         <v>116.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>127.75</v>
+        <v>121.9</v>
       </c>
       <c r="R9" t="n">
-        <v>140.25</v>
+        <v>132.5</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1081,10 +1081,10 @@
         <v>116.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>127.75</v>
+        <v>121.9</v>
       </c>
       <c r="R10" t="n">
-        <v>140.25</v>
+        <v>132.5</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1142,10 +1142,10 @@
         <v>116.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>127.75</v>
+        <v>121.9</v>
       </c>
       <c r="R11" t="n">
-        <v>140.25</v>
+        <v>132.5</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1203,10 +1203,10 @@
         <v>116.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>127.75</v>
+        <v>127.5</v>
       </c>
       <c r="R12" t="n">
-        <v>140.25</v>
+        <v>136</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -1264,10 +1264,10 @@
         <v>116.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.75</v>
+        <v>127.5</v>
       </c>
       <c r="R13" t="n">
-        <v>140.25</v>
+        <v>136</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1325,10 +1325,10 @@
         <v>118</v>
       </c>
       <c r="Q14" t="n">
-        <v>127.75</v>
+        <v>127.5</v>
       </c>
       <c r="R14" t="n">
-        <v>140.25</v>
+        <v>136</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1386,10 +1386,10 @@
         <v>118</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.75</v>
+        <v>127.5</v>
       </c>
       <c r="R15" t="n">
-        <v>140.25</v>
+        <v>136</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1447,10 +1447,10 @@
         <v>118</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.75</v>
+        <v>127.5</v>
       </c>
       <c r="R16" t="n">
-        <v>140.25</v>
+        <v>136</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -1508,10 +1508,10 @@
         <v>118</v>
       </c>
       <c r="Q17" t="n">
-        <v>127.75</v>
+        <v>127.5</v>
       </c>
       <c r="R17" t="n">
-        <v>140.25</v>
+        <v>136</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -1569,10 +1569,10 @@
         <v>118</v>
       </c>
       <c r="Q18" t="n">
-        <v>127.75</v>
+        <v>127.5</v>
       </c>
       <c r="R18" t="n">
-        <v>140.25</v>
+        <v>136</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -1630,10 +1630,10 @@
         <v>118</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.75</v>
+        <v>127.5</v>
       </c>
       <c r="R19" t="n">
-        <v>140.25</v>
+        <v>136</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -1691,10 +1691,10 @@
         <v>118</v>
       </c>
       <c r="Q20" t="n">
-        <v>127.75</v>
+        <v>127.5</v>
       </c>
       <c r="R20" t="n">
-        <v>140.25</v>
+        <v>136</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -1752,10 +1752,10 @@
         <v>124</v>
       </c>
       <c r="Q21" t="n">
-        <v>127.75</v>
+        <v>127.5</v>
       </c>
       <c r="R21" t="n">
-        <v>140.25</v>
+        <v>136</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -1813,10 +1813,10 @@
         <v>124</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.75</v>
+        <v>127.5</v>
       </c>
       <c r="R22" t="n">
-        <v>140.25</v>
+        <v>136</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -1874,10 +1874,10 @@
         <v>128</v>
       </c>
       <c r="Q23" t="n">
-        <v>127.75</v>
+        <v>127.5</v>
       </c>
       <c r="R23" t="n">
-        <v>140.25</v>
+        <v>136</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -1938,7 +1938,7 @@
         <v>134</v>
       </c>
       <c r="R24" t="n">
-        <v>140.25</v>
+        <v>136</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2001,7 +2001,7 @@
         <v>131.8</v>
       </c>
       <c r="R25" t="n">
-        <v>140.25</v>
+        <v>137</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2064,7 +2064,7 @@
         <v>131.8</v>
       </c>
       <c r="R26" t="n">
-        <v>140.25</v>
+        <v>137</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2129,7 +2129,7 @@
         <v>131.8</v>
       </c>
       <c r="R27" t="n">
-        <v>140.25</v>
+        <v>137</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -2519,7 +2519,7 @@
         <v>128.5</v>
       </c>
       <c r="R33" t="n">
-        <v>140.25</v>
+        <v>139.5</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -2584,7 +2584,7 @@
         <v>128.5</v>
       </c>
       <c r="R34" t="n">
-        <v>140.25</v>
+        <v>139.5</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -2649,7 +2649,7 @@
         <v>128.5</v>
       </c>
       <c r="R35" t="n">
-        <v>140.25</v>
+        <v>139.5</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -2714,7 +2714,7 @@
         <v>128.5</v>
       </c>
       <c r="R36" t="n">
-        <v>140.25</v>
+        <v>139.5</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -2779,7 +2779,7 @@
         <v>128.5</v>
       </c>
       <c r="R37" t="n">
-        <v>140.25</v>
+        <v>139.5</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>119.8125</v>
+        <v>125</v>
       </c>
       <c r="O38" t="n">
         <v>125</v>
@@ -2844,7 +2844,7 @@
         <v>128.5</v>
       </c>
       <c r="R38" t="n">
-        <v>140.25</v>
+        <v>139.5</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -2909,7 +2909,7 @@
         <v>128.5</v>
       </c>
       <c r="R39" t="n">
-        <v>140.25</v>
+        <v>139.5</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -2974,7 +2974,7 @@
         <v>128.5</v>
       </c>
       <c r="R40" t="n">
-        <v>140.25</v>
+        <v>139.5</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
@@ -3039,7 +3039,7 @@
         <v>128.5</v>
       </c>
       <c r="R41" t="n">
-        <v>140.25</v>
+        <v>139.5</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -3104,7 +3104,7 @@
         <v>128.5</v>
       </c>
       <c r="R42" t="n">
-        <v>140.25</v>
+        <v>139.5</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -3169,7 +3169,7 @@
         <v>128.5</v>
       </c>
       <c r="R43" t="n">
-        <v>140.25</v>
+        <v>139.5</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -3234,7 +3234,7 @@
         <v>128.5</v>
       </c>
       <c r="R44" t="n">
-        <v>140.25</v>
+        <v>139.5</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -3299,7 +3299,7 @@
         <v>128.5</v>
       </c>
       <c r="R45" t="n">
-        <v>140.25</v>
+        <v>139.5</v>
       </c>
       <c r="S45" t="n">
         <v>101.95</v>
@@ -3366,7 +3366,7 @@
         <v>128.5</v>
       </c>
       <c r="R46" t="n">
-        <v>140.25</v>
+        <v>139.5</v>
       </c>
       <c r="S46" t="n">
         <v>101.95</v>
@@ -3433,7 +3433,7 @@
         <v>128.5</v>
       </c>
       <c r="R47" t="n">
-        <v>140.25</v>
+        <v>139.5</v>
       </c>
       <c r="S47" t="n">
         <v>101.95</v>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>1.16</v>
+        <v>2.3</v>
       </c>
       <c r="V55" t="n">
         <v>2.3</v>
@@ -3988,7 +3988,7 @@
         <v>2.3</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>1.16</v>
+        <v>2.3</v>
       </c>
       <c r="V56" t="n">
         <v>2.3</v>
@@ -4065,7 +4065,7 @@
         <v>2.3</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
@@ -4120,7 +4120,7 @@
         <v>130</v>
       </c>
       <c r="Q57" t="n">
-        <v>137.75</v>
+        <v>140</v>
       </c>
       <c r="R57" t="n">
         <v>143.1</v>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>1.16</v>
+        <v>2.3</v>
       </c>
       <c r="V57" t="n">
         <v>2.3</v>
@@ -4142,7 +4142,7 @@
         <v>2.3</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="n">
-        <v>1.16</v>
+        <v>2.3</v>
       </c>
       <c r="V58" t="n">
         <v>2.3</v>
@@ -4219,7 +4219,7 @@
         <v>2.3</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="n">
-        <v>1.16</v>
+        <v>2.1</v>
       </c>
       <c r="V59" t="n">
         <v>2.3</v>
@@ -4296,7 +4296,7 @@
         <v>2.3</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>1.16</v>
+        <v>2.1</v>
       </c>
       <c r="V60" t="n">
         <v>2.3</v>
@@ -4373,7 +4373,7 @@
         <v>2.3</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="n">
-        <v>1.16</v>
+        <v>2.1</v>
       </c>
       <c r="V61" t="n">
         <v>2.3</v>
@@ -4450,7 +4450,7 @@
         <v>2.3</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="n">
-        <v>1.16</v>
+        <v>2.1</v>
       </c>
       <c r="V62" t="n">
         <v>2.3</v>
@@ -4527,7 +4527,7 @@
         <v>2.3</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="n">
-        <v>1.16</v>
+        <v>2.1</v>
       </c>
       <c r="V63" t="n">
         <v>2.3</v>
@@ -4604,7 +4604,7 @@
         <v>2.3</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="n">
-        <v>1.16</v>
+        <v>2.1</v>
       </c>
       <c r="V64" t="n">
         <v>2.3</v>
@@ -4681,7 +4681,7 @@
         <v>2.3</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="n">
-        <v>1.16</v>
+        <v>2.1</v>
       </c>
       <c r="V65" t="n">
         <v>2.3</v>
@@ -4758,7 +4758,7 @@
         <v>2.3</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="n">
-        <v>1.16</v>
+        <v>2.1</v>
       </c>
       <c r="V66" t="n">
         <v>2.3</v>
@@ -4835,7 +4835,7 @@
         <v>2.3</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>1.16</v>
+        <v>2.1</v>
       </c>
       <c r="V67" t="n">
         <v>2.3</v>
@@ -4912,7 +4912,7 @@
         <v>2.3</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="n">
-        <v>1.16</v>
+        <v>2.1</v>
       </c>
       <c r="V68" t="n">
         <v>2.3</v>
@@ -4989,7 +4989,7 @@
         <v>2.3</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
@@ -5054,7 +5054,7 @@
       </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="V69" t="n">
         <v>2.3</v>
@@ -5066,7 +5066,7 @@
         <v>2.3</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>1.16</v>
+        <v>0.8</v>
       </c>
       <c r="V70" t="n">
         <v>2.3</v>
@@ -5143,7 +5143,7 @@
         <v>2.3</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
@@ -5198,7 +5198,7 @@
         <v>131</v>
       </c>
       <c r="Q71" t="n">
-        <v>137.75</v>
+        <v>140</v>
       </c>
       <c r="R71" t="n">
         <v>143.1</v>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>1.16</v>
+        <v>0.8</v>
       </c>
       <c r="V71" t="n">
         <v>2.3</v>
@@ -5220,7 +5220,7 @@
         <v>2.3</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
@@ -5275,7 +5275,7 @@
         <v>131</v>
       </c>
       <c r="Q72" t="n">
-        <v>137.75</v>
+        <v>140</v>
       </c>
       <c r="R72" t="n">
         <v>143.1</v>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="n">
-        <v>1.16</v>
+        <v>0.8</v>
       </c>
       <c r="V72" t="n">
         <v>2.3</v>
@@ -5297,7 +5297,7 @@
         <v>2.3</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
@@ -5352,7 +5352,7 @@
         <v>131</v>
       </c>
       <c r="Q73" t="n">
-        <v>137.75</v>
+        <v>140</v>
       </c>
       <c r="R73" t="n">
         <v>143.1</v>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="n">
-        <v>1.16</v>
+        <v>0.8</v>
       </c>
       <c r="V73" t="n">
         <v>1</v>
@@ -5374,7 +5374,7 @@
         <v>2.3</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
@@ -5429,7 +5429,7 @@
         <v>129.75</v>
       </c>
       <c r="Q74" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R74" t="n">
         <v>145</v>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="n">
-        <v>1.16</v>
+        <v>0.8</v>
       </c>
       <c r="V74" t="n">
         <v>1</v>
@@ -5451,7 +5451,7 @@
         <v>2.3</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
@@ -5506,7 +5506,7 @@
         <v>129.75</v>
       </c>
       <c r="Q75" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R75" t="n">
         <v>145</v>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>1.16</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="V75" t="n">
         <v>1</v>
@@ -5528,7 +5528,7 @@
         <v>2.3</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
@@ -5583,7 +5583,7 @@
         <v>129.75</v>
       </c>
       <c r="Q76" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R76" t="n">
         <v>145</v>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="n">
-        <v>1.16</v>
+        <v>0.7526666666666666</v>
       </c>
       <c r="V76" t="n">
         <v>1</v>
@@ -5605,7 +5605,7 @@
         <v>2.3</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
@@ -5660,7 +5660,7 @@
         <v>129.75</v>
       </c>
       <c r="Q77" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R77" t="n">
         <v>145</v>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>1.16</v>
+        <v>0.6375</v>
       </c>
       <c r="V77" t="n">
         <v>1</v>
@@ -5682,7 +5682,7 @@
         <v>2.3</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
@@ -5737,7 +5737,7 @@
         <v>129.75</v>
       </c>
       <c r="Q78" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R78" t="n">
         <v>145</v>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>1.16</v>
+        <v>0.6214285714285713</v>
       </c>
       <c r="V78" t="n">
         <v>1</v>
@@ -5759,7 +5759,7 @@
         <v>2.3</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
@@ -5814,7 +5814,7 @@
         <v>129.75</v>
       </c>
       <c r="Q79" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R79" t="n">
         <v>145</v>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="n">
-        <v>1.16</v>
+        <v>0.53</v>
       </c>
       <c r="V79" t="n">
         <v>1</v>
@@ -5836,7 +5836,7 @@
         <v>2.3</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
@@ -5891,7 +5891,7 @@
         <v>129.75</v>
       </c>
       <c r="Q80" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R80" t="n">
         <v>145</v>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>1.16</v>
+        <v>0.4681818181818182</v>
       </c>
       <c r="V80" t="n">
         <v>1</v>
@@ -5913,7 +5913,7 @@
         <v>2.3</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
@@ -5968,7 +5968,7 @@
         <v>129.75</v>
       </c>
       <c r="Q81" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R81" t="n">
         <v>145</v>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>1.16</v>
+        <v>0.3505</v>
       </c>
       <c r="V81" t="n">
         <v>1</v>
@@ -5990,7 +5990,7 @@
         <v>2.3</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         <v>129.75</v>
       </c>
       <c r="Q82" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R82" t="n">
         <v>145</v>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>1.16</v>
+        <v>0.2268</v>
       </c>
       <c r="V82" t="n">
         <v>1</v>
@@ -6067,7 +6067,7 @@
         <v>2.3</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
@@ -6122,7 +6122,7 @@
         <v>118.99</v>
       </c>
       <c r="Q83" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R83" t="n">
         <v>145</v>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="n">
-        <v>1.16</v>
+        <v>0.1751282051282051</v>
       </c>
       <c r="V83" t="n">
         <v>1</v>
@@ -6144,7 +6144,7 @@
         <v>2.3</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.6499999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
@@ -6199,7 +6199,7 @@
         <v>118.99</v>
       </c>
       <c r="Q84" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R84" t="n">
         <v>145</v>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
-        <v>1.16</v>
+        <v>0.1175</v>
       </c>
       <c r="V84" t="n">
         <v>1</v>
@@ -6221,7 +6221,7 @@
         <v>2.3</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.2500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
@@ -6276,7 +6276,7 @@
         <v>118.99</v>
       </c>
       <c r="Q85" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R85" t="n">
         <v>145</v>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>1.16</v>
+        <v>0.1690909090909091</v>
       </c>
       <c r="V85" t="n">
         <v>1</v>
@@ -6298,7 +6298,7 @@
         <v>2.3</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.2500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
@@ -6353,7 +6353,7 @@
         <v>118.99</v>
       </c>
       <c r="Q86" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R86" t="n">
         <v>145</v>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>1.16</v>
+        <v>0.1414705882352941</v>
       </c>
       <c r="V86" t="n">
         <v>1</v>
@@ -6375,7 +6375,7 @@
         <v>2.3</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.2500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
@@ -6430,7 +6430,7 @@
         <v>118.99</v>
       </c>
       <c r="Q87" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R87" t="n">
         <v>145</v>
@@ -6440,7 +6440,7 @@
       </c>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="n">
-        <v>1.16</v>
+        <v>0.127</v>
       </c>
       <c r="V87" t="n">
         <v>1</v>
@@ -6452,7 +6452,7 @@
         <v>2.3</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.2500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
@@ -6507,7 +6507,7 @@
         <v>118.99</v>
       </c>
       <c r="Q88" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R88" t="n">
         <v>145</v>
@@ -6517,7 +6517,7 @@
       </c>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="n">
-        <v>1.16</v>
+        <v>0.124</v>
       </c>
       <c r="V88" t="n">
         <v>1</v>
@@ -6529,7 +6529,7 @@
         <v>2.3</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.2500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
@@ -6584,7 +6584,7 @@
         <v>118.99</v>
       </c>
       <c r="Q89" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R89" t="n">
         <v>145</v>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="n">
-        <v>1.16</v>
+        <v>0.03031746031746032</v>
       </c>
       <c r="V89" t="n">
         <v>1</v>
@@ -6606,7 +6606,7 @@
         <v>2.3</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.2500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
@@ -6661,7 +6661,7 @@
         <v>118.99</v>
       </c>
       <c r="Q90" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R90" t="n">
         <v>145</v>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="n">
-        <v>1.16</v>
+        <v>0.05947368421052631</v>
       </c>
       <c r="V90" t="n">
         <v>1</v>
@@ -6683,7 +6683,7 @@
         <v>2.3</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.2500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
@@ -6738,7 +6738,7 @@
         <v>118.99</v>
       </c>
       <c r="Q91" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R91" t="n">
         <v>145</v>
@@ -6748,7 +6748,7 @@
       </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="n">
-        <v>1.16</v>
+        <v>0.09016666666666667</v>
       </c>
       <c r="V91" t="n">
         <v>1</v>
@@ -6760,7 +6760,7 @@
         <v>2.3</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.2500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr"/>
@@ -6815,7 +6815,7 @@
         <v>118.99</v>
       </c>
       <c r="Q92" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R92" t="n">
         <v>145</v>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="n">
-        <v>1.16</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="V92" t="n">
         <v>1</v>
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.2500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr"/>
@@ -6892,7 +6892,7 @@
         <v>118.99</v>
       </c>
       <c r="Q93" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R93" t="n">
         <v>145</v>
@@ -6902,7 +6902,7 @@
       </c>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="n">
-        <v>1.16</v>
+        <v>0.4272727272727273</v>
       </c>
       <c r="V93" t="n">
         <v>1</v>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.2500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
@@ -6969,7 +6969,7 @@
         <v>118.99</v>
       </c>
       <c r="Q94" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R94" t="n">
         <v>145</v>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.2500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr"/>
@@ -7046,7 +7046,7 @@
         <v>118.99</v>
       </c>
       <c r="Q95" t="n">
-        <v>137.75</v>
+        <v>138</v>
       </c>
       <c r="R95" t="n">
         <v>145</v>
@@ -7068,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.2500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="inlineStr"/>
@@ -8497,7 +8497,7 @@
         <v>63.6</v>
       </c>
       <c r="K114" t="n">
-        <v>74.65255681818181</v>
+        <v>77.3</v>
       </c>
       <c r="L114" t="n">
         <v>71.5</v>
@@ -8580,7 +8580,7 @@
         <v>63.6</v>
       </c>
       <c r="K115" t="n">
-        <v>74.65255681818181</v>
+        <v>76</v>
       </c>
       <c r="L115" t="n">
         <v>71.5</v>
@@ -8663,7 +8663,7 @@
         <v>63.6</v>
       </c>
       <c r="K116" t="n">
-        <v>74.65255681818181</v>
+        <v>76</v>
       </c>
       <c r="L116" t="n">
         <v>71.5</v>
@@ -8746,7 +8746,7 @@
         <v>63.6</v>
       </c>
       <c r="K117" t="n">
-        <v>74.65255681818181</v>
+        <v>76</v>
       </c>
       <c r="L117" t="n">
         <v>71.5</v>
@@ -8829,7 +8829,7 @@
         <v>63.6</v>
       </c>
       <c r="K118" t="n">
-        <v>74.65255681818181</v>
+        <v>76</v>
       </c>
       <c r="L118" t="n">
         <v>71.5</v>
@@ -8912,7 +8912,7 @@
         <v>63.6</v>
       </c>
       <c r="K119" t="n">
-        <v>74.65255681818181</v>
+        <v>76</v>
       </c>
       <c r="L119" t="n">
         <v>71.5</v>
@@ -10316,7 +10316,7 @@
         <v>77</v>
       </c>
       <c r="AC135" t="n">
-        <v>75.84375</v>
+        <v>77</v>
       </c>
     </row>
     <row r="136">
@@ -10403,7 +10403,7 @@
         <v>76.40000000000001</v>
       </c>
       <c r="AC136" t="n">
-        <v>75.84375</v>
+        <v>77</v>
       </c>
     </row>
     <row r="137">
@@ -10490,7 +10490,7 @@
         <v>77.7</v>
       </c>
       <c r="AC137" t="n">
-        <v>75.84375</v>
+        <v>77</v>
       </c>
     </row>
     <row r="138">
@@ -10577,7 +10577,7 @@
         <v>77.7</v>
       </c>
       <c r="AC138" t="n">
-        <v>75.84375</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139">
@@ -10664,7 +10664,7 @@
         <v>77.7</v>
       </c>
       <c r="AC139" t="n">
-        <v>75.84375</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140">
@@ -10751,7 +10751,7 @@
         <v>77.7</v>
       </c>
       <c r="AC140" t="n">
-        <v>75.84375</v>
+        <v>77</v>
       </c>
     </row>
     <row r="141">
@@ -10791,7 +10791,7 @@
         <v>73</v>
       </c>
       <c r="L141" t="n">
-        <v>85.25</v>
+        <v>88</v>
       </c>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="n">
@@ -10838,7 +10838,7 @@
         <v>77.7</v>
       </c>
       <c r="AC141" t="n">
-        <v>75.84375</v>
+        <v>77</v>
       </c>
     </row>
     <row r="142">
@@ -10878,7 +10878,7 @@
         <v>73</v>
       </c>
       <c r="L142" t="n">
-        <v>85.25</v>
+        <v>88</v>
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="n">
@@ -10925,7 +10925,7 @@
         <v>77.7</v>
       </c>
       <c r="AC142" t="n">
-        <v>75.84375</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143">
@@ -10965,7 +10965,7 @@
         <v>71.5</v>
       </c>
       <c r="L143" t="n">
-        <v>85.25</v>
+        <v>88</v>
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="n">
@@ -11886,7 +11886,7 @@
         <v>0.08926470588235294</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.6499999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="Z153" t="inlineStr"/>
       <c r="AA153" t="n">
@@ -11975,7 +11975,7 @@
         <v>-0.08800000000000001</v>
       </c>
       <c r="Y154" t="n">
-        <v>0.6499999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="Z154" t="inlineStr"/>
       <c r="AA154" t="n">
@@ -12064,7 +12064,7 @@
         <v>0.025</v>
       </c>
       <c r="Y155" t="n">
-        <v>0.6499999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="Z155" t="inlineStr"/>
       <c r="AA155" t="n">
@@ -12153,7 +12153,7 @@
         <v>0.7</v>
       </c>
       <c r="Y156" t="n">
-        <v>0.6499999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="Z156" t="inlineStr"/>
       <c r="AA156" t="n">
@@ -12227,7 +12227,7 @@
         <v>98</v>
       </c>
       <c r="T157" t="n">
-        <v>110.9375</v>
+        <v>110</v>
       </c>
       <c r="U157" t="n">
         <v>1.16</v>
@@ -12242,7 +12242,7 @@
         <v>0.7</v>
       </c>
       <c r="Y157" t="n">
-        <v>0.6499999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="Z157" t="inlineStr"/>
       <c r="AA157" t="n">
@@ -12316,7 +12316,7 @@
         <v>98</v>
       </c>
       <c r="T158" t="n">
-        <v>110.9375</v>
+        <v>110</v>
       </c>
       <c r="U158" t="n">
         <v>1.16</v>
@@ -12331,7 +12331,7 @@
         <v>0.7</v>
       </c>
       <c r="Y158" t="n">
-        <v>0.2500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="Z158" t="inlineStr"/>
       <c r="AA158" t="n">
@@ -12405,7 +12405,7 @@
         <v>98</v>
       </c>
       <c r="T159" t="n">
-        <v>110.9375</v>
+        <v>110</v>
       </c>
       <c r="U159" t="n">
         <v>1.16</v>
@@ -12420,7 +12420,7 @@
         <v>0.7</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.2500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="Z159" t="inlineStr"/>
       <c r="AA159" t="n">
@@ -12494,7 +12494,7 @@
         <v>98</v>
       </c>
       <c r="T160" t="n">
-        <v>110.9375</v>
+        <v>110</v>
       </c>
       <c r="U160" t="n">
         <v>1.16</v>
@@ -12509,7 +12509,7 @@
         <v>0.7</v>
       </c>
       <c r="Y160" t="n">
-        <v>0.2500000000000001</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="Z160" t="inlineStr"/>
       <c r="AA160" t="n">
@@ -12583,7 +12583,7 @@
         <v>98</v>
       </c>
       <c r="T161" t="n">
-        <v>110.9375</v>
+        <v>110</v>
       </c>
       <c r="U161" t="n">
         <v>1.16</v>
@@ -12598,7 +12598,7 @@
         <v>0.7</v>
       </c>
       <c r="Y161" t="n">
-        <v>0.2500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="Z161" t="inlineStr"/>
       <c r="AA161" t="n">
@@ -12672,7 +12672,7 @@
         <v>98</v>
       </c>
       <c r="T162" t="n">
-        <v>110.9375</v>
+        <v>110</v>
       </c>
       <c r="U162" t="n">
         <v>1.16</v>
@@ -12687,7 +12687,7 @@
         <v>0.7</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.2500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="Z162" t="inlineStr"/>
       <c r="AA162" t="n">
@@ -12761,7 +12761,7 @@
         <v>98</v>
       </c>
       <c r="T163" t="n">
-        <v>110.9375</v>
+        <v>110</v>
       </c>
       <c r="U163" t="n">
         <v>1.16</v>
@@ -12850,7 +12850,7 @@
         <v>98</v>
       </c>
       <c r="T164" t="n">
-        <v>110.9375</v>
+        <v>110</v>
       </c>
       <c r="U164" t="n">
         <v>1.16</v>
@@ -12939,7 +12939,7 @@
         <v>98</v>
       </c>
       <c r="T165" t="n">
-        <v>110.9375</v>
+        <v>110</v>
       </c>
       <c r="U165" t="n">
         <v>1.16</v>
@@ -12954,7 +12954,7 @@
         <v>0.7</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.2500000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="Z165" t="inlineStr"/>
       <c r="AA165" t="n">
@@ -13028,7 +13028,7 @@
         <v>98</v>
       </c>
       <c r="T166" t="n">
-        <v>110.9375</v>
+        <v>110</v>
       </c>
       <c r="U166" t="n">
         <v>1.16</v>
@@ -13117,7 +13117,7 @@
         <v>98</v>
       </c>
       <c r="T167" t="n">
-        <v>110.9375</v>
+        <v>110</v>
       </c>
       <c r="U167" t="n">
         <v>1.16</v>
@@ -13132,7 +13132,7 @@
         <v>0.7</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.2500000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="Z167" t="inlineStr"/>
       <c r="AA167" t="n">
@@ -13206,7 +13206,7 @@
         <v>98</v>
       </c>
       <c r="T168" t="n">
-        <v>110.9375</v>
+        <v>110</v>
       </c>
       <c r="U168" t="n">
         <v>1.16</v>
@@ -13295,7 +13295,7 @@
         <v>98</v>
       </c>
       <c r="T169" t="n">
-        <v>110.9375</v>
+        <v>110</v>
       </c>
       <c r="U169" t="n">
         <v>1.16</v>
@@ -13384,7 +13384,7 @@
         <v>98</v>
       </c>
       <c r="T170" t="n">
-        <v>110.9375</v>
+        <v>110</v>
       </c>
       <c r="U170" t="n">
         <v>1.16</v>
@@ -13473,7 +13473,7 @@
         <v>98</v>
       </c>
       <c r="T171" t="n">
-        <v>110.9375</v>
+        <v>110</v>
       </c>
       <c r="U171" t="n">
         <v>1.16</v>
@@ -13488,7 +13488,7 @@
         <v>0.7</v>
       </c>
       <c r="Y171" t="n">
-        <v>0.2500000000000001</v>
+        <v>0.1959183673469388</v>
       </c>
       <c r="Z171" t="inlineStr"/>
       <c r="AA171" t="n">
@@ -13562,7 +13562,7 @@
         <v>98</v>
       </c>
       <c r="T172" t="n">
-        <v>110.9375</v>
+        <v>110</v>
       </c>
       <c r="U172" t="n">
         <v>1.16</v>
@@ -13577,7 +13577,7 @@
         <v>0.7</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.2500000000000001</v>
+        <v>0.1403191489361702</v>
       </c>
       <c r="Z172" t="inlineStr"/>
       <c r="AA172" t="n">
@@ -13651,7 +13651,7 @@
         <v>98</v>
       </c>
       <c r="T173" t="n">
-        <v>110.9375</v>
+        <v>110</v>
       </c>
       <c r="U173" t="n">
         <v>1.16</v>
@@ -13666,7 +13666,7 @@
         <v>0.7</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.2500000000000001</v>
+        <v>0.1748717948717949</v>
       </c>
       <c r="Z173" t="inlineStr"/>
       <c r="AA173" t="n">
@@ -13740,7 +13740,7 @@
         <v>98</v>
       </c>
       <c r="T174" t="n">
-        <v>110.9375</v>
+        <v>110</v>
       </c>
       <c r="U174" t="n">
         <v>1.16</v>
@@ -13829,7 +13829,7 @@
         <v>98</v>
       </c>
       <c r="T175" t="n">
-        <v>110.9375</v>
+        <v>110</v>
       </c>
       <c r="U175" t="n">
         <v>1.16</v>
@@ -13844,10 +13844,10 @@
         <v>0.7</v>
       </c>
       <c r="Y175" t="n">
-        <v>0.2500000000000001</v>
+        <v>0.2388888888888889</v>
       </c>
       <c r="Z175" t="n">
-        <v>0.06830357142857141</v>
+        <v>0</v>
       </c>
       <c r="AA175" t="n">
         <v>68.37586206896552</v>
@@ -13938,7 +13938,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="Z176" t="n">
-        <v>0.06830357142857141</v>
+        <v>0</v>
       </c>
       <c r="AA176" t="n">
         <v>66.03888888888889</v>
@@ -13972,7 +13972,7 @@
         <v>144.6666666666667</v>
       </c>
       <c r="G177" t="n">
-        <v>136.95</v>
+        <v>149.51</v>
       </c>
       <c r="H177" t="n">
         <v>68.5</v>
@@ -13993,10 +13993,10 @@
         <v>106.87375</v>
       </c>
       <c r="N177" t="n">
-        <v>119.8125</v>
+        <v>159.325</v>
       </c>
       <c r="O177" t="n">
-        <v>161.75</v>
+        <v>174.825</v>
       </c>
       <c r="P177" t="n">
         <v>174</v>
@@ -14029,7 +14029,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="Z177" t="n">
-        <v>0.06830357142857141</v>
+        <v>0</v>
       </c>
       <c r="AA177" t="n">
         <v>64.41089285714285</v>
@@ -14063,7 +14063,7 @@
         <v>141.8333333333333</v>
       </c>
       <c r="G178" t="n">
-        <v>136.95</v>
+        <v>145.5</v>
       </c>
       <c r="H178" t="n">
         <v>68.5</v>
@@ -14084,10 +14084,10 @@
         <v>100.9090909090909</v>
       </c>
       <c r="N178" t="n">
-        <v>119.8125</v>
+        <v>159.325</v>
       </c>
       <c r="O178" t="n">
-        <v>161.75</v>
+        <v>174.825</v>
       </c>
       <c r="P178" t="n">
         <v>174</v>
@@ -14154,7 +14154,7 @@
         <v>141.8333333333333</v>
       </c>
       <c r="G179" t="n">
-        <v>136.95</v>
+        <v>145.5</v>
       </c>
       <c r="H179" t="n">
         <v>68.5</v>
@@ -14193,7 +14193,7 @@
         <v>99</v>
       </c>
       <c r="T179" t="n">
-        <v>124.4375</v>
+        <v>125</v>
       </c>
       <c r="U179" t="n">
         <v>1.16</v>
@@ -14245,7 +14245,7 @@
         <v>141.8333333333333</v>
       </c>
       <c r="G180" t="n">
-        <v>136.95</v>
+        <v>145</v>
       </c>
       <c r="H180" t="n">
         <v>68.5</v>
@@ -14284,7 +14284,7 @@
         <v>99</v>
       </c>
       <c r="T180" t="n">
-        <v>124.4375</v>
+        <v>125</v>
       </c>
       <c r="U180" t="n">
         <v>1.16</v>
@@ -14302,7 +14302,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="Z180" t="n">
-        <v>0.06830357142857141</v>
+        <v>0</v>
       </c>
       <c r="AA180" t="n">
         <v>64.56206896551724</v>
@@ -14336,7 +14336,7 @@
         <v>139.3333333333333</v>
       </c>
       <c r="G181" t="n">
-        <v>136.95</v>
+        <v>145</v>
       </c>
       <c r="H181" t="n">
         <v>66</v>
@@ -14427,7 +14427,7 @@
         <v>140</v>
       </c>
       <c r="G182" t="n">
-        <v>136.95</v>
+        <v>145</v>
       </c>
       <c r="H182" t="n">
         <v>67</v>
@@ -14518,7 +14518,7 @@
         <v>136.0666666666667</v>
       </c>
       <c r="G183" t="n">
-        <v>136.95</v>
+        <v>145</v>
       </c>
       <c r="H183" t="n">
         <v>67</v>
@@ -14609,7 +14609,7 @@
         <v>135</v>
       </c>
       <c r="G184" t="n">
-        <v>136.95</v>
+        <v>145</v>
       </c>
       <c r="H184" t="n">
         <v>67</v>
@@ -14675,7 +14675,7 @@
         <v>64.09999999999999</v>
       </c>
       <c r="AC184" t="n">
-        <v>65.59375</v>
+        <v>65.14285714285714</v>
       </c>
     </row>
     <row r="185">
@@ -14700,7 +14700,7 @@
         <v>140.5</v>
       </c>
       <c r="G185" t="n">
-        <v>136.95</v>
+        <v>145</v>
       </c>
       <c r="H185" t="n">
         <v>67</v>
@@ -14791,7 +14791,7 @@
         <v>141.5</v>
       </c>
       <c r="G186" t="n">
-        <v>136.95</v>
+        <v>145</v>
       </c>
       <c r="H186" t="n">
         <v>68.5</v>
@@ -14882,7 +14882,7 @@
         <v>145</v>
       </c>
       <c r="G187" t="n">
-        <v>136.95</v>
+        <v>145</v>
       </c>
       <c r="H187" t="n">
         <v>64.75</v>
@@ -14912,7 +14912,7 @@
         <v>174</v>
       </c>
       <c r="Q187" t="n">
-        <v>137.75</v>
+        <v>181.25</v>
       </c>
       <c r="R187" t="n">
         <v>145</v>
@@ -14948,7 +14948,7 @@
         <v>64.2</v>
       </c>
       <c r="AC187" t="n">
-        <v>65.59375</v>
+        <v>65.33333333333333</v>
       </c>
     </row>
     <row r="188">
@@ -14973,7 +14973,7 @@
         <v>143.5725</v>
       </c>
       <c r="G188" t="n">
-        <v>136.95</v>
+        <v>148.5166666666667</v>
       </c>
       <c r="H188" t="n">
         <v>64.75</v>
@@ -14988,7 +14988,7 @@
         <v>68.33333333333333</v>
       </c>
       <c r="L188" t="n">
-        <v>85.25</v>
+        <v>85.8155</v>
       </c>
       <c r="M188" t="n">
         <v>113.0117948717949</v>
@@ -15003,10 +15003,10 @@
         <v>171</v>
       </c>
       <c r="Q188" t="n">
-        <v>137.75</v>
+        <v>173</v>
       </c>
       <c r="R188" t="n">
-        <v>147.85</v>
+        <v>174</v>
       </c>
       <c r="S188" t="n">
         <v>99</v>
@@ -15039,7 +15039,7 @@
         <v>64.13333333333334</v>
       </c>
       <c r="AC188" t="n">
-        <v>65.59375</v>
+        <v>65.25</v>
       </c>
     </row>
     <row r="189">
@@ -15055,22 +15055,22 @@
         <v>84</v>
       </c>
       <c r="D189" t="n">
-        <v>133.69375</v>
+        <v>135.400985915493</v>
       </c>
       <c r="E189" t="n">
-        <v>148.375</v>
+        <v>148.9295238095238</v>
       </c>
       <c r="F189" t="n">
         <v>152</v>
       </c>
       <c r="G189" t="n">
-        <v>136.95</v>
+        <v>152</v>
       </c>
       <c r="H189" t="n">
         <v>64.75</v>
       </c>
       <c r="I189" t="n">
-        <v>106.364375</v>
+        <v>111.270875</v>
       </c>
       <c r="J189" t="n">
         <v>67.83799999999999</v>
@@ -15079,25 +15079,25 @@
         <v>69.905</v>
       </c>
       <c r="L189" t="n">
-        <v>85.25</v>
+        <v>91.09575757575757</v>
       </c>
       <c r="M189" t="n">
-        <v>125.5366666666667</v>
+        <v>125.8727884615385</v>
       </c>
       <c r="N189" t="n">
         <v>108.5</v>
       </c>
       <c r="O189" t="n">
-        <v>161.75</v>
+        <v>168</v>
       </c>
       <c r="P189" t="n">
         <v>183.25</v>
       </c>
       <c r="Q189" t="n">
-        <v>137.75</v>
+        <v>173</v>
       </c>
       <c r="R189" t="n">
-        <v>147.85</v>
+        <v>174</v>
       </c>
       <c r="S189" t="n">
         <v>99</v>
@@ -15146,22 +15146,22 @@
         <v>84</v>
       </c>
       <c r="D190" t="n">
-        <v>133.69375</v>
+        <v>134</v>
       </c>
       <c r="E190" t="n">
-        <v>148.375</v>
+        <v>148.9295238095238</v>
       </c>
       <c r="F190" t="n">
         <v>152</v>
       </c>
       <c r="G190" t="n">
-        <v>136.95</v>
+        <v>152</v>
       </c>
       <c r="H190" t="n">
         <v>64.75</v>
       </c>
       <c r="I190" t="n">
-        <v>106.364375</v>
+        <v>111.270875</v>
       </c>
       <c r="J190" t="n">
         <v>67.83799999999999</v>
@@ -15170,25 +15170,25 @@
         <v>69.905</v>
       </c>
       <c r="L190" t="n">
-        <v>85.25</v>
+        <v>91.09575757575757</v>
       </c>
       <c r="M190" t="n">
-        <v>125.5366666666667</v>
+        <v>125.8727884615385</v>
       </c>
       <c r="N190" t="n">
         <v>108.5</v>
       </c>
       <c r="O190" t="n">
-        <v>161.75</v>
+        <v>168</v>
       </c>
       <c r="P190" t="n">
         <v>183.25</v>
       </c>
       <c r="Q190" t="n">
-        <v>137.75</v>
+        <v>173</v>
       </c>
       <c r="R190" t="n">
-        <v>147.85</v>
+        <v>174</v>
       </c>
       <c r="S190" t="n">
         <v>99</v>
@@ -15240,19 +15240,19 @@
         <v>131</v>
       </c>
       <c r="E191" t="n">
-        <v>148.375</v>
+        <v>148.9295238095238</v>
       </c>
       <c r="F191" t="n">
         <v>152</v>
       </c>
       <c r="G191" t="n">
-        <v>136.95</v>
+        <v>152</v>
       </c>
       <c r="H191" t="n">
         <v>64.75</v>
       </c>
       <c r="I191" t="n">
-        <v>106.364375</v>
+        <v>109.875</v>
       </c>
       <c r="J191" t="n">
         <v>67.83799999999999</v>
@@ -15261,25 +15261,25 @@
         <v>69.905</v>
       </c>
       <c r="L191" t="n">
-        <v>85.25</v>
+        <v>91.16666666666667</v>
       </c>
       <c r="M191" t="n">
-        <v>125.5366666666667</v>
+        <v>126</v>
       </c>
       <c r="N191" t="n">
         <v>108.5</v>
       </c>
       <c r="O191" t="n">
-        <v>161.75</v>
+        <v>168</v>
       </c>
       <c r="P191" t="n">
         <v>183.25</v>
       </c>
       <c r="Q191" t="n">
-        <v>137.75</v>
+        <v>173</v>
       </c>
       <c r="R191" t="n">
-        <v>147.85</v>
+        <v>174</v>
       </c>
       <c r="S191" t="n">
         <v>99</v>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -15070,7 +15070,7 @@
         <v>64.75</v>
       </c>
       <c r="I189" t="n">
-        <v>111.270875</v>
+        <v>111.2851572327044</v>
       </c>
       <c r="J189" t="n">
         <v>67.83799999999999</v>
@@ -15161,7 +15161,7 @@
         <v>64.75</v>
       </c>
       <c r="I190" t="n">
-        <v>111.270875</v>
+        <v>111.2851572327044</v>
       </c>
       <c r="J190" t="n">
         <v>67.83799999999999</v>
@@ -15234,16 +15234,16 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>84</v>
+        <v>89.5</v>
       </c>
       <c r="D191" t="n">
-        <v>131</v>
+        <v>139.1095454545454</v>
       </c>
       <c r="E191" t="n">
-        <v>148.9295238095238</v>
+        <v>149.9285714285714</v>
       </c>
       <c r="F191" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G191" t="n">
         <v>152</v>
@@ -15252,22 +15252,22 @@
         <v>64.75</v>
       </c>
       <c r="I191" t="n">
-        <v>109.875</v>
+        <v>110.4358333333333</v>
       </c>
       <c r="J191" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K191" t="n">
-        <v>69.905</v>
+        <v>69.935</v>
       </c>
       <c r="L191" t="n">
-        <v>91.16666666666667</v>
+        <v>92.15555555555555</v>
       </c>
       <c r="M191" t="n">
-        <v>126</v>
+        <v>130.1497619047619</v>
       </c>
       <c r="N191" t="n">
-        <v>108.5</v>
+        <v>120</v>
       </c>
       <c r="O191" t="n">
         <v>168</v>
@@ -15303,16 +15303,16 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="Z191" t="n">
-        <v>0.7</v>
+        <v>0.6863636363636364</v>
       </c>
       <c r="AA191" t="n">
-        <v>62.1</v>
+        <v>62.06</v>
       </c>
       <c r="AB191" t="n">
-        <v>64.7</v>
+        <v>64.64</v>
       </c>
       <c r="AC191" t="n">
-        <v>66.995</v>
+        <v>66.02500000000001</v>
       </c>
     </row>
   </sheetData>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC191"/>
+  <dimension ref="A1:AC192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15237,13 +15237,13 @@
         <v>89.5</v>
       </c>
       <c r="D191" t="n">
-        <v>139.1095454545454</v>
+        <v>139.2049206349206</v>
       </c>
       <c r="E191" t="n">
-        <v>149.9285714285714</v>
+        <v>149.8333333333333</v>
       </c>
       <c r="F191" t="n">
-        <v>153</v>
+        <v>152.3</v>
       </c>
       <c r="G191" t="n">
         <v>152</v>
@@ -15252,31 +15252,31 @@
         <v>64.75</v>
       </c>
       <c r="I191" t="n">
-        <v>110.4358333333333</v>
+        <v>110.9675</v>
       </c>
       <c r="J191" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K191" t="n">
-        <v>69.935</v>
+        <v>69.94333333333334</v>
       </c>
       <c r="L191" t="n">
-        <v>92.15555555555555</v>
+        <v>92.2030303030303</v>
       </c>
       <c r="M191" t="n">
-        <v>130.1497619047619</v>
+        <v>130.7754716981132</v>
       </c>
       <c r="N191" t="n">
         <v>120</v>
       </c>
       <c r="O191" t="n">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="P191" t="n">
-        <v>183.25</v>
+        <v>185</v>
       </c>
       <c r="Q191" t="n">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="R191" t="n">
         <v>174</v>
@@ -15306,12 +15306,103 @@
         <v>0.6863636363636364</v>
       </c>
       <c r="AA191" t="n">
-        <v>62.06</v>
+        <v>62.075</v>
       </c>
       <c r="AB191" t="n">
         <v>64.64</v>
       </c>
       <c r="AC191" t="n">
+        <v>66.02500000000001</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>30/01/2024</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="D192" t="n">
+        <v>138</v>
+      </c>
+      <c r="E192" t="n">
+        <v>149.8333333333333</v>
+      </c>
+      <c r="F192" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="G192" t="n">
+        <v>152</v>
+      </c>
+      <c r="H192" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I192" t="n">
+        <v>108.5333333333333</v>
+      </c>
+      <c r="J192" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K192" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="L192" t="n">
+        <v>89.58571428571429</v>
+      </c>
+      <c r="M192" t="n">
+        <v>128.6052631578947</v>
+      </c>
+      <c r="N192" t="n">
+        <v>120</v>
+      </c>
+      <c r="O192" t="n">
+        <v>175</v>
+      </c>
+      <c r="P192" t="n">
+        <v>185</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>188</v>
+      </c>
+      <c r="R192" t="n">
+        <v>174</v>
+      </c>
+      <c r="S192" t="n">
+        <v>99</v>
+      </c>
+      <c r="T192" t="n">
+        <v>119</v>
+      </c>
+      <c r="U192" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V192" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="W192" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="X192" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>0.6863636363636364</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>62.075</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>64.64</v>
+      </c>
+      <c r="AC192" t="n">
         <v>66.02500000000001</v>
       </c>
     </row>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -15325,16 +15325,16 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>88.7</v>
+        <v>87.46666666666665</v>
       </c>
       <c r="D192" t="n">
-        <v>138</v>
+        <v>138.562</v>
       </c>
       <c r="E192" t="n">
-        <v>149.8333333333333</v>
+        <v>146.5</v>
       </c>
       <c r="F192" t="n">
-        <v>152.3</v>
+        <v>150</v>
       </c>
       <c r="G192" t="n">
         <v>152</v>
@@ -15343,19 +15343,19 @@
         <v>64.75</v>
       </c>
       <c r="I192" t="n">
-        <v>108.5333333333333</v>
+        <v>108.7214285714286</v>
       </c>
       <c r="J192" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K192" t="n">
-        <v>68.7</v>
+        <v>69.08571428571429</v>
       </c>
       <c r="L192" t="n">
-        <v>89.58571428571429</v>
+        <v>89.32953488372094</v>
       </c>
       <c r="M192" t="n">
-        <v>128.6052631578947</v>
+        <v>129.1318421052632</v>
       </c>
       <c r="N192" t="n">
         <v>120</v>
@@ -15394,16 +15394,16 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="Z192" t="n">
-        <v>0.6863636363636364</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="AA192" t="n">
-        <v>62.075</v>
+        <v>62</v>
       </c>
       <c r="AB192" t="n">
-        <v>64.64</v>
+        <v>64</v>
       </c>
       <c r="AC192" t="n">
-        <v>66.02500000000001</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -15328,7 +15328,7 @@
         <v>87.46666666666665</v>
       </c>
       <c r="D192" t="n">
-        <v>138.562</v>
+        <v>138.4707692307692</v>
       </c>
       <c r="E192" t="n">
         <v>146.5</v>
@@ -15343,7 +15343,7 @@
         <v>64.75</v>
       </c>
       <c r="I192" t="n">
-        <v>108.7214285714286</v>
+        <v>108.7291666666667</v>
       </c>
       <c r="J192" t="n">
         <v>67.83799999999999</v>
@@ -15352,10 +15352,10 @@
         <v>69.08571428571429</v>
       </c>
       <c r="L192" t="n">
-        <v>89.32953488372094</v>
+        <v>89.28795454545455</v>
       </c>
       <c r="M192" t="n">
-        <v>129.1318421052632</v>
+        <v>129.0980487804878</v>
       </c>
       <c r="N192" t="n">
         <v>120</v>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC192"/>
+  <dimension ref="A1:AC195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15325,16 +15325,16 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>87.46666666666665</v>
+        <v>86.58</v>
       </c>
       <c r="D192" t="n">
-        <v>138.4707692307692</v>
+        <v>137.0495555555555</v>
       </c>
       <c r="E192" t="n">
-        <v>146.5</v>
+        <v>144.8125</v>
       </c>
       <c r="F192" t="n">
-        <v>150</v>
+        <v>148.125</v>
       </c>
       <c r="G192" t="n">
         <v>152</v>
@@ -15343,19 +15343,19 @@
         <v>64.75</v>
       </c>
       <c r="I192" t="n">
-        <v>108.7291666666667</v>
+        <v>107.7653947368421</v>
       </c>
       <c r="J192" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K192" t="n">
-        <v>69.08571428571429</v>
+        <v>69.15323529411765</v>
       </c>
       <c r="L192" t="n">
-        <v>89.28795454545455</v>
+        <v>88.65657142857143</v>
       </c>
       <c r="M192" t="n">
-        <v>129.0980487804878</v>
+        <v>127.7072413793103</v>
       </c>
       <c r="N192" t="n">
         <v>120</v>
@@ -15394,16 +15394,289 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="Z192" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="AA192" t="n">
         <v>62</v>
       </c>
       <c r="AB192" t="n">
-        <v>64</v>
+        <v>63.73363636363637</v>
       </c>
       <c r="AC192" t="n">
-        <v>66</v>
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>31/01/2024</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>85.625</v>
+      </c>
+      <c r="D193" t="n">
+        <v>136.2977272727273</v>
+      </c>
+      <c r="E193" t="n">
+        <v>146</v>
+      </c>
+      <c r="F193" t="n">
+        <v>148.3333333333333</v>
+      </c>
+      <c r="G193" t="n">
+        <v>150.0066666666667</v>
+      </c>
+      <c r="H193" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I193" t="n">
+        <v>106.7851219512195</v>
+      </c>
+      <c r="J193" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K193" t="n">
+        <v>68.97057142857142</v>
+      </c>
+      <c r="L193" t="n">
+        <v>88.10166666666667</v>
+      </c>
+      <c r="M193" t="n">
+        <v>126.2587804878049</v>
+      </c>
+      <c r="N193" t="n">
+        <v>120</v>
+      </c>
+      <c r="O193" t="n">
+        <v>170.75</v>
+      </c>
+      <c r="P193" t="n">
+        <v>185</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>188</v>
+      </c>
+      <c r="R193" t="n">
+        <v>174</v>
+      </c>
+      <c r="S193" t="n">
+        <v>99</v>
+      </c>
+      <c r="T193" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="U193" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V193" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="W193" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="X193" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>0.6115625</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>63.06</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>64.26666666666667</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>66.42761904761905</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>88.41666666666667</v>
+      </c>
+      <c r="D194" t="n">
+        <v>137.2878947368421</v>
+      </c>
+      <c r="E194" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="F194" t="n">
+        <v>148</v>
+      </c>
+      <c r="G194" t="n">
+        <v>150.0066666666667</v>
+      </c>
+      <c r="H194" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I194" t="n">
+        <v>109.2476811594203</v>
+      </c>
+      <c r="J194" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K194" t="n">
+        <v>70.49163265306123</v>
+      </c>
+      <c r="L194" t="n">
+        <v>89.99432432432432</v>
+      </c>
+      <c r="M194" t="n">
+        <v>128.4413461538462</v>
+      </c>
+      <c r="N194" t="n">
+        <v>120</v>
+      </c>
+      <c r="O194" t="n">
+        <v>174</v>
+      </c>
+      <c r="P194" t="n">
+        <v>182</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>188</v>
+      </c>
+      <c r="R194" t="n">
+        <v>174</v>
+      </c>
+      <c r="S194" t="n">
+        <v>99</v>
+      </c>
+      <c r="T194" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="U194" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V194" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="W194" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="X194" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>0.5764077669902913</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>62</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>64.9375</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>65.62857142857142</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>02/02/2024</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>88.41666666666667</v>
+      </c>
+      <c r="D195" t="n">
+        <v>141.6666666666667</v>
+      </c>
+      <c r="E195" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>148</v>
+      </c>
+      <c r="G195" t="n">
+        <v>150.0066666666667</v>
+      </c>
+      <c r="H195" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I195" t="n">
+        <v>114.25</v>
+      </c>
+      <c r="J195" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K195" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="L195" t="n">
+        <v>92.92307692307692</v>
+      </c>
+      <c r="M195" t="n">
+        <v>134.0769230769231</v>
+      </c>
+      <c r="N195" t="n">
+        <v>120</v>
+      </c>
+      <c r="O195" t="n">
+        <v>174</v>
+      </c>
+      <c r="P195" t="n">
+        <v>182</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>188</v>
+      </c>
+      <c r="R195" t="n">
+        <v>174</v>
+      </c>
+      <c r="S195" t="n">
+        <v>99</v>
+      </c>
+      <c r="T195" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="U195" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V195" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="W195" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="X195" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>0.6749999999999999</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>62</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>64.9375</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>65.62857142857142</v>
       </c>
     </row>
   </sheetData>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC155"/>
+  <dimension ref="A1:AC156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11532,7 +11532,7 @@
         <v>0.67375</v>
       </c>
       <c r="AA139" t="n">
-        <v>63.67666666666667</v>
+        <v>63.6355</v>
       </c>
       <c r="AB139" t="n">
         <v>66.32871794871795</v>
@@ -12919,10 +12919,10 @@
         <v>111</v>
       </c>
       <c r="D155" t="n">
-        <v>173.1736538461539</v>
+        <v>173.07</v>
       </c>
       <c r="E155" t="n">
-        <v>169.0621621621622</v>
+        <v>164.275</v>
       </c>
       <c r="F155" t="n">
         <v>160</v>
@@ -12934,19 +12934,19 @@
         <v>64.75</v>
       </c>
       <c r="I155" t="n">
-        <v>157.7298717948718</v>
+        <v>157.9772093023256</v>
       </c>
       <c r="J155" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K155" t="n">
-        <v>73.10033898305085</v>
+        <v>73.33879999999999</v>
       </c>
       <c r="L155" t="n">
-        <v>139.8579069767442</v>
+        <v>140.0048905109489</v>
       </c>
       <c r="M155" t="n">
-        <v>178.7537142857143</v>
+        <v>179.4702197802198</v>
       </c>
       <c r="N155" t="n">
         <v>120</v>
@@ -12985,16 +12985,107 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="Z155" t="n">
-        <v>0.5205405405405404</v>
+        <v>0.5236585365853659</v>
       </c>
       <c r="AA155" t="n">
         <v>60</v>
       </c>
       <c r="AB155" t="n">
-        <v>63.13352941176471</v>
+        <v>63.33</v>
       </c>
       <c r="AC155" t="n">
-        <v>65.44</v>
+        <v>65.752</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>08/02/2024</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>111</v>
+      </c>
+      <c r="D156" t="n">
+        <v>169.4857142857143</v>
+      </c>
+      <c r="E156" t="n">
+        <v>162</v>
+      </c>
+      <c r="F156" t="n">
+        <v>160</v>
+      </c>
+      <c r="G156" t="n">
+        <v>158</v>
+      </c>
+      <c r="H156" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I156" t="n">
+        <v>157.75</v>
+      </c>
+      <c r="J156" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K156" t="n">
+        <v>75.12619047619049</v>
+      </c>
+      <c r="L156" t="n">
+        <v>138.8968421052631</v>
+      </c>
+      <c r="M156" t="n">
+        <v>176.6322222222222</v>
+      </c>
+      <c r="N156" t="n">
+        <v>120</v>
+      </c>
+      <c r="O156" t="n">
+        <v>213</v>
+      </c>
+      <c r="P156" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>199</v>
+      </c>
+      <c r="R156" t="n">
+        <v>174</v>
+      </c>
+      <c r="S156" t="n">
+        <v>99</v>
+      </c>
+      <c r="T156" t="n">
+        <v>200</v>
+      </c>
+      <c r="U156" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V156" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="W156" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="X156" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>63.33</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>65.752</v>
       </c>
     </row>
   </sheetData>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC156"/>
+  <dimension ref="A1:AC157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13010,34 +13010,34 @@
         <v>111</v>
       </c>
       <c r="D156" t="n">
-        <v>169.4857142857143</v>
+        <v>168.5291111111111</v>
       </c>
       <c r="E156" t="n">
-        <v>162</v>
+        <v>158.3928571428571</v>
       </c>
       <c r="F156" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G156" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H156" t="n">
         <v>64.75</v>
       </c>
       <c r="I156" t="n">
-        <v>157.75</v>
+        <v>157.9139393939394</v>
       </c>
       <c r="J156" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K156" t="n">
-        <v>75.12619047619049</v>
+        <v>75.88549019607842</v>
       </c>
       <c r="L156" t="n">
-        <v>138.8968421052631</v>
+        <v>138.9766666666667</v>
       </c>
       <c r="M156" t="n">
-        <v>176.6322222222222</v>
+        <v>177.5528787878788</v>
       </c>
       <c r="N156" t="n">
         <v>120</v>
@@ -13058,7 +13058,7 @@
         <v>99</v>
       </c>
       <c r="T156" t="n">
-        <v>200</v>
+        <v>194.5</v>
       </c>
       <c r="U156" t="n">
         <v>1.16</v>
@@ -13076,16 +13076,107 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="Z156" t="n">
-        <v>0.55</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="AA156" t="n">
         <v>60</v>
       </c>
       <c r="AB156" t="n">
-        <v>63.33</v>
+        <v>63.69923076923077</v>
       </c>
       <c r="AC156" t="n">
-        <v>65.752</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>09/02/2024</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>111</v>
+      </c>
+      <c r="D157" t="n">
+        <v>166</v>
+      </c>
+      <c r="E157" t="n">
+        <v>158.3928571428571</v>
+      </c>
+      <c r="F157" t="n">
+        <v>155</v>
+      </c>
+      <c r="G157" t="n">
+        <v>155</v>
+      </c>
+      <c r="H157" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I157" t="n">
+        <v>155.4772727272727</v>
+      </c>
+      <c r="J157" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K157" t="n">
+        <v>75.44444444444444</v>
+      </c>
+      <c r="L157" t="n">
+        <v>136.7772727272727</v>
+      </c>
+      <c r="M157" t="n">
+        <v>175.125</v>
+      </c>
+      <c r="N157" t="n">
+        <v>120</v>
+      </c>
+      <c r="O157" t="n">
+        <v>213</v>
+      </c>
+      <c r="P157" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>199</v>
+      </c>
+      <c r="R157" t="n">
+        <v>174</v>
+      </c>
+      <c r="S157" t="n">
+        <v>99</v>
+      </c>
+      <c r="T157" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="U157" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V157" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="W157" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="X157" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC157"/>
+  <dimension ref="A1:AC159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13101,34 +13101,34 @@
         <v>111</v>
       </c>
       <c r="D157" t="n">
-        <v>166</v>
+        <v>163.4818181818182</v>
       </c>
       <c r="E157" t="n">
-        <v>158.3928571428571</v>
+        <v>153.75</v>
       </c>
       <c r="F157" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G157" t="n">
-        <v>155</v>
+        <v>154.25</v>
       </c>
       <c r="H157" t="n">
         <v>64.75</v>
       </c>
       <c r="I157" t="n">
-        <v>155.4772727272727</v>
+        <v>154.9448148148148</v>
       </c>
       <c r="J157" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K157" t="n">
-        <v>75.44444444444444</v>
+        <v>74.9148275862069</v>
       </c>
       <c r="L157" t="n">
-        <v>136.7772727272727</v>
+        <v>135.4209433962264</v>
       </c>
       <c r="M157" t="n">
-        <v>175.125</v>
+        <v>174.2733333333333</v>
       </c>
       <c r="N157" t="n">
         <v>120</v>
@@ -13170,13 +13170,195 @@
         <v>0.3192307692307693</v>
       </c>
       <c r="AA157" t="n">
-        <v>60</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="AB157" t="n">
-        <v>63.4</v>
+        <v>63.09111111111112</v>
       </c>
       <c r="AC157" t="n">
-        <v>65</v>
+        <v>66.08333333333333</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>14/02/2024</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>111</v>
+      </c>
+      <c r="D158" t="n">
+        <v>157.709375</v>
+      </c>
+      <c r="E158" t="n">
+        <v>148.875</v>
+      </c>
+      <c r="F158" t="n">
+        <v>154</v>
+      </c>
+      <c r="G158" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="H158" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I158" t="n">
+        <v>147.1722222222222</v>
+      </c>
+      <c r="J158" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K158" t="n">
+        <v>74.16111111111111</v>
+      </c>
+      <c r="L158" t="n">
+        <v>128.6016666666667</v>
+      </c>
+      <c r="M158" t="n">
+        <v>167.19046875</v>
+      </c>
+      <c r="N158" t="n">
+        <v>120</v>
+      </c>
+      <c r="O158" t="n">
+        <v>213</v>
+      </c>
+      <c r="P158" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>199</v>
+      </c>
+      <c r="R158" t="n">
+        <v>174</v>
+      </c>
+      <c r="S158" t="n">
+        <v>99</v>
+      </c>
+      <c r="T158" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="U158" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V158" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="W158" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="X158" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>62.57000000000001</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>66.08333333333333</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>15/02/2024</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>111</v>
+      </c>
+      <c r="D159" t="n">
+        <v>163.65</v>
+      </c>
+      <c r="E159" t="n">
+        <v>148.875</v>
+      </c>
+      <c r="F159" t="n">
+        <v>154</v>
+      </c>
+      <c r="G159" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="H159" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I159" t="n">
+        <v>157.784</v>
+      </c>
+      <c r="J159" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K159" t="n">
+        <v>75.84999999999999</v>
+      </c>
+      <c r="L159" t="n">
+        <v>134.6708602150538</v>
+      </c>
+      <c r="M159" t="n">
+        <v>179.2840579710145</v>
+      </c>
+      <c r="N159" t="n">
+        <v>120</v>
+      </c>
+      <c r="O159" t="n">
+        <v>213</v>
+      </c>
+      <c r="P159" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>199</v>
+      </c>
+      <c r="R159" t="n">
+        <v>174</v>
+      </c>
+      <c r="S159" t="n">
+        <v>99</v>
+      </c>
+      <c r="T159" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="U159" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V159" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="W159" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="X159" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>64</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>66.08333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC139"/>
+  <dimension ref="A1:AC140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11679,40 +11679,40 @@
         <v>111</v>
       </c>
       <c r="D139" t="n">
-        <v>174.985</v>
+        <v>173.6476923076923</v>
       </c>
       <c r="E139" t="n">
-        <v>161.5</v>
+        <v>159.651</v>
       </c>
       <c r="F139" t="n">
-        <v>159</v>
+        <v>156.8</v>
       </c>
       <c r="G139" t="n">
-        <v>154.25</v>
+        <v>152</v>
       </c>
       <c r="H139" t="n">
         <v>64.75</v>
       </c>
       <c r="I139" t="n">
-        <v>165.949</v>
+        <v>164.5596</v>
       </c>
       <c r="J139" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>78.58181818181818</v>
+        <v>77.45294117647059</v>
       </c>
       <c r="L139" t="n">
-        <v>146.9656923076923</v>
+        <v>146.2514503816794</v>
       </c>
       <c r="M139" t="n">
-        <v>188.25</v>
+        <v>186.4590909090909</v>
       </c>
       <c r="N139" t="n">
         <v>120</v>
       </c>
       <c r="O139" t="n">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P139" t="n">
         <v>197</v>
@@ -11751,9 +11751,100 @@
         <v>64.48999999999999</v>
       </c>
       <c r="AB139" t="n">
-        <v>63.33333333333334</v>
+        <v>62.58222222222222</v>
       </c>
       <c r="AC139" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>19/02/2024</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>111</v>
+      </c>
+      <c r="D140" t="n">
+        <v>169.6666666666667</v>
+      </c>
+      <c r="E140" t="n">
+        <v>159.651</v>
+      </c>
+      <c r="F140" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="G140" t="n">
+        <v>152</v>
+      </c>
+      <c r="H140" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I140" t="n">
+        <v>164.5596</v>
+      </c>
+      <c r="J140" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K140" t="n">
+        <v>75</v>
+      </c>
+      <c r="L140" t="n">
+        <v>142.4166666666667</v>
+      </c>
+      <c r="M140" t="n">
+        <v>186.4590909090909</v>
+      </c>
+      <c r="N140" t="n">
+        <v>120</v>
+      </c>
+      <c r="O140" t="n">
+        <v>209</v>
+      </c>
+      <c r="P140" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>199</v>
+      </c>
+      <c r="R140" t="n">
+        <v>174</v>
+      </c>
+      <c r="S140" t="n">
+        <v>99</v>
+      </c>
+      <c r="T140" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="U140" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V140" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="W140" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>62.58222222222222</v>
+      </c>
+      <c r="AC140" t="n">
         <v>65</v>
       </c>
     </row>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10144,10 +10144,10 @@
         <v>111</v>
       </c>
       <c r="D120" t="n">
-        <v>154.5688372093023</v>
+        <v>153.492027027027</v>
       </c>
       <c r="E120" t="n">
-        <v>146.9166666666667</v>
+        <v>146.1777777777778</v>
       </c>
       <c r="F120" t="n">
         <v>153.4</v>
@@ -10159,19 +10159,19 @@
         <v>64.75</v>
       </c>
       <c r="I120" t="n">
-        <v>139.3130882352941</v>
+        <v>138.2097247706422</v>
       </c>
       <c r="J120" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K120" t="n">
-        <v>71.42319999999999</v>
+        <v>71.17588235294117</v>
       </c>
       <c r="L120" t="n">
-        <v>121.5861940298507</v>
+        <v>120.6092352941176</v>
       </c>
       <c r="M120" t="n">
-        <v>159.4379411764706</v>
+        <v>157.9024369747899</v>
       </c>
       <c r="N120" t="n">
         <v>120</v>
@@ -10219,7 +10219,189 @@
         <v>61.7</v>
       </c>
       <c r="AC120" t="n">
-        <v>63.11428571428571</v>
+        <v>62.51</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>23/02/2024</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>111</v>
+      </c>
+      <c r="D121" t="n">
+        <v>152.2510447761194</v>
+      </c>
+      <c r="E121" t="n">
+        <v>149.1153846153846</v>
+      </c>
+      <c r="F121" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="G121" t="n">
+        <v>144.75</v>
+      </c>
+      <c r="H121" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I121" t="n">
+        <v>140.6379411764706</v>
+      </c>
+      <c r="J121" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K121" t="n">
+        <v>72.4875</v>
+      </c>
+      <c r="L121" t="n">
+        <v>116.7217647058824</v>
+      </c>
+      <c r="M121" t="n">
+        <v>157.9007692307692</v>
+      </c>
+      <c r="N121" t="n">
+        <v>120</v>
+      </c>
+      <c r="O121" t="n">
+        <v>186.26</v>
+      </c>
+      <c r="P121" t="n">
+        <v>185</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>184</v>
+      </c>
+      <c r="R121" t="n">
+        <v>184</v>
+      </c>
+      <c r="S121" t="n">
+        <v>99</v>
+      </c>
+      <c r="T121" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="U121" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V121" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="W121" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="X121" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>62</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>26/02/2024</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>111</v>
+      </c>
+      <c r="D122" t="n">
+        <v>152.2510447761194</v>
+      </c>
+      <c r="E122" t="n">
+        <v>149.1153846153846</v>
+      </c>
+      <c r="F122" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="G122" t="n">
+        <v>144.75</v>
+      </c>
+      <c r="H122" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I122" t="n">
+        <v>138.9990909090909</v>
+      </c>
+      <c r="J122" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K122" t="n">
+        <v>72.4875</v>
+      </c>
+      <c r="L122" t="n">
+        <v>118.60625</v>
+      </c>
+      <c r="M122" t="n">
+        <v>158.75</v>
+      </c>
+      <c r="N122" t="n">
+        <v>120</v>
+      </c>
+      <c r="O122" t="n">
+        <v>186.26</v>
+      </c>
+      <c r="P122" t="n">
+        <v>185</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>184</v>
+      </c>
+      <c r="R122" t="n">
+        <v>184</v>
+      </c>
+      <c r="S122" t="n">
+        <v>99</v>
+      </c>
+      <c r="T122" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="U122" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V122" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="W122" t="n">
+        <v>0.6583333333333333</v>
+      </c>
+      <c r="X122" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>62</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X102"/>
+  <dimension ref="A1:X108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7263,40 +7263,40 @@
         <v>111</v>
       </c>
       <c r="D102" t="n">
-        <v>155</v>
+        <v>153.6804761904762</v>
       </c>
       <c r="E102" t="n">
-        <v>146.75</v>
+        <v>149.7666666666667</v>
       </c>
       <c r="F102" t="n">
-        <v>148</v>
+        <v>148.875</v>
       </c>
       <c r="G102" t="n">
-        <v>144.75</v>
+        <v>145</v>
       </c>
       <c r="H102" t="n">
         <v>64.75</v>
       </c>
       <c r="I102" t="n">
-        <v>147.6166666666667</v>
+        <v>145.7759259259259</v>
       </c>
       <c r="J102" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K102" t="n">
-        <v>74.73333333333333</v>
+        <v>75.36481481481481</v>
       </c>
       <c r="L102" t="n">
-        <v>126.287037037037</v>
+        <v>124.7240909090909</v>
       </c>
       <c r="M102" t="n">
-        <v>169.3</v>
+        <v>165.749012345679</v>
       </c>
       <c r="N102" t="n">
         <v>120</v>
       </c>
       <c r="O102" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P102" t="n">
         <v>185</v>
@@ -7320,10 +7320,466 @@
         <v>64.48999999999999</v>
       </c>
       <c r="W102" t="n">
-        <v>62.116</v>
+        <v>62.3175</v>
       </c>
       <c r="X102" t="n">
-        <v>66.98999999999999</v>
+        <v>66.18892857142858</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>28/02/2024</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>111</v>
+      </c>
+      <c r="D103" t="n">
+        <v>155.2923076923077</v>
+      </c>
+      <c r="E103" t="n">
+        <v>149.8333333333333</v>
+      </c>
+      <c r="F103" t="n">
+        <v>150</v>
+      </c>
+      <c r="G103" t="n">
+        <v>145</v>
+      </c>
+      <c r="H103" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I103" t="n">
+        <v>147.5516129032258</v>
+      </c>
+      <c r="J103" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K103" t="n">
+        <v>77.15555555555555</v>
+      </c>
+      <c r="L103" t="n">
+        <v>126.9850574712644</v>
+      </c>
+      <c r="M103" t="n">
+        <v>167.8631428571429</v>
+      </c>
+      <c r="N103" t="n">
+        <v>120</v>
+      </c>
+      <c r="O103" t="n">
+        <v>192</v>
+      </c>
+      <c r="P103" t="n">
+        <v>185</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>184</v>
+      </c>
+      <c r="R103" t="n">
+        <v>184</v>
+      </c>
+      <c r="S103" t="n">
+        <v>99</v>
+      </c>
+      <c r="T103" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="V103" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="W103" t="n">
+        <v>62.53571428571428</v>
+      </c>
+      <c r="X103" t="n">
+        <v>66.18607142857142</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>29/02/2024</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>111</v>
+      </c>
+      <c r="D104" t="n">
+        <v>158.4117647058823</v>
+      </c>
+      <c r="E104" t="n">
+        <v>152.2871428571429</v>
+      </c>
+      <c r="F104" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="G104" t="n">
+        <v>145</v>
+      </c>
+      <c r="H104" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I104" t="n">
+        <v>151.2335294117647</v>
+      </c>
+      <c r="J104" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K104" t="n">
+        <v>79.78918918918919</v>
+      </c>
+      <c r="L104" t="n">
+        <v>130.3195161290323</v>
+      </c>
+      <c r="M104" t="n">
+        <v>171.5811111111111</v>
+      </c>
+      <c r="N104" t="n">
+        <v>120</v>
+      </c>
+      <c r="O104" t="n">
+        <v>193.3266666666667</v>
+      </c>
+      <c r="P104" t="n">
+        <v>182.99</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>184</v>
+      </c>
+      <c r="R104" t="n">
+        <v>184</v>
+      </c>
+      <c r="S104" t="n">
+        <v>99</v>
+      </c>
+      <c r="T104" t="n">
+        <v>190</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="V104" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="W104" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="X104" t="n">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>111</v>
+      </c>
+      <c r="D105" t="n">
+        <v>159.7727272727273</v>
+      </c>
+      <c r="E105" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="F105" t="n">
+        <v>148.8333333333333</v>
+      </c>
+      <c r="G105" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="H105" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I105" t="n">
+        <v>153.5968965517241</v>
+      </c>
+      <c r="J105" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K105" t="n">
+        <v>79.30921052631579</v>
+      </c>
+      <c r="L105" t="n">
+        <v>132.2443548387097</v>
+      </c>
+      <c r="M105" t="n">
+        <v>171.4761904761905</v>
+      </c>
+      <c r="N105" t="n">
+        <v>120</v>
+      </c>
+      <c r="O105" t="n">
+        <v>193.3266666666667</v>
+      </c>
+      <c r="P105" t="n">
+        <v>182.99</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>184</v>
+      </c>
+      <c r="R105" t="n">
+        <v>184</v>
+      </c>
+      <c r="S105" t="n">
+        <v>99</v>
+      </c>
+      <c r="T105" t="n">
+        <v>190</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="V105" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="W105" t="n">
+        <v>117.67</v>
+      </c>
+      <c r="X105" t="n">
+        <v>65.41363636363636</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>04/03/2024</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>111</v>
+      </c>
+      <c r="D106" t="n">
+        <v>158.0625</v>
+      </c>
+      <c r="E106" t="n">
+        <v>156</v>
+      </c>
+      <c r="F106" t="n">
+        <v>148.8333333333333</v>
+      </c>
+      <c r="G106" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="H106" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I106" t="n">
+        <v>148.94</v>
+      </c>
+      <c r="J106" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K106" t="n">
+        <v>78.44533333333334</v>
+      </c>
+      <c r="L106" t="n">
+        <v>126.4451282051282</v>
+      </c>
+      <c r="M106" t="n">
+        <v>169.0246153846154</v>
+      </c>
+      <c r="N106" t="n">
+        <v>120</v>
+      </c>
+      <c r="O106" t="n">
+        <v>193.3266666666667</v>
+      </c>
+      <c r="P106" t="n">
+        <v>182.99</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>184</v>
+      </c>
+      <c r="R106" t="n">
+        <v>184</v>
+      </c>
+      <c r="S106" t="n">
+        <v>99</v>
+      </c>
+      <c r="T106" t="n">
+        <v>190</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="V106" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="W106" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="X106" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>05/03/2024</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>111</v>
+      </c>
+      <c r="D107" t="n">
+        <v>154.9533333333333</v>
+      </c>
+      <c r="E107" t="n">
+        <v>152</v>
+      </c>
+      <c r="F107" t="n">
+        <v>148.25</v>
+      </c>
+      <c r="G107" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="H107" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I107" t="n">
+        <v>147.294375</v>
+      </c>
+      <c r="J107" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K107" t="n">
+        <v>79.29857142857144</v>
+      </c>
+      <c r="L107" t="n">
+        <v>126.9923684210526</v>
+      </c>
+      <c r="M107" t="n">
+        <v>167.2823076923077</v>
+      </c>
+      <c r="N107" t="n">
+        <v>120</v>
+      </c>
+      <c r="O107" t="n">
+        <v>193.3266666666667</v>
+      </c>
+      <c r="P107" t="n">
+        <v>182.99</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>184</v>
+      </c>
+      <c r="R107" t="n">
+        <v>184</v>
+      </c>
+      <c r="S107" t="n">
+        <v>99</v>
+      </c>
+      <c r="T107" t="n">
+        <v>190</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="V107" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="W107" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="X107" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>06/03/2024</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>111</v>
+      </c>
+      <c r="D108" t="n">
+        <v>155</v>
+      </c>
+      <c r="E108" t="n">
+        <v>156</v>
+      </c>
+      <c r="F108" t="n">
+        <v>148.25</v>
+      </c>
+      <c r="G108" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="H108" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="I108" t="n">
+        <v>152.3026315789474</v>
+      </c>
+      <c r="J108" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="K108" t="n">
+        <v>80.81125</v>
+      </c>
+      <c r="L108" t="n">
+        <v>132.680701754386</v>
+      </c>
+      <c r="M108" t="n">
+        <v>171.5392156862745</v>
+      </c>
+      <c r="N108" t="n">
+        <v>120</v>
+      </c>
+      <c r="O108" t="n">
+        <v>193.3266666666667</v>
+      </c>
+      <c r="P108" t="n">
+        <v>182.99</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>184</v>
+      </c>
+      <c r="R108" t="n">
+        <v>184</v>
+      </c>
+      <c r="S108" t="n">
+        <v>99</v>
+      </c>
+      <c r="T108" t="n">
+        <v>190</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="V108" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="W108" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="X108" t="n">
+        <v>63.5</v>
       </c>
     </row>
   </sheetData>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:X93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,24 +556,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>02/10/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>69.5</v>
+        <v>76.57142857142857</v>
       </c>
       <c r="D2" t="n">
-        <v>83</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>106.325</v>
-      </c>
+        <v>94.75</v>
+      </c>
+      <c r="E2" t="n">
+        <v>105</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>71.25</v>
+      </c>
+      <c r="I2" t="n">
+        <v>81.6875</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -586,7 +588,9 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>72.75</v>
+      </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
     </row>
@@ -596,33 +600,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>03/10/2023</t>
+          <t>03/11/2023</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69.875</v>
+        <v>76.57142857142857</v>
       </c>
       <c r="D3" t="n">
-        <v>82.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>93</v>
-      </c>
-      <c r="F3" t="n">
         <v>105</v>
       </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>71.25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>82.75</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>103</v>
-      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -630,7 +632,9 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>71.75</v>
+      </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
     </row>
@@ -640,49 +644,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>04/10/2023</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>70.94285714285715</v>
+        <v>76</v>
       </c>
       <c r="D4" t="n">
-        <v>87.27777777777777</v>
+        <v>96.875</v>
       </c>
       <c r="E4" t="n">
-        <v>97.3</v>
+        <v>106</v>
       </c>
       <c r="F4" t="n">
-        <v>107.75</v>
+        <v>116.5</v>
       </c>
       <c r="G4" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>69</v>
+        <v>71.25</v>
       </c>
       <c r="I4" t="n">
-        <v>78</v>
+        <v>82.75</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>108</v>
-      </c>
-      <c r="O4" t="n">
-        <v>120.5</v>
-      </c>
-      <c r="P4" t="n">
-        <v>130.5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>71.75</v>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
     </row>
@@ -692,51 +694,49 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>05/10/2023</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>76.62142857142858</v>
+        <v>76.83333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>88.5</v>
+        <v>97.66666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>98.5</v>
+        <v>108.5</v>
       </c>
       <c r="F5" t="n">
-        <v>107.75</v>
+        <v>117.5</v>
       </c>
       <c r="G5" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H5" t="n">
-        <v>74.40000000000001</v>
+        <v>72.75</v>
       </c>
       <c r="I5" t="n">
-        <v>78</v>
+        <v>84.75</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>73.90000000000001</v>
+        <v>74</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>108</v>
-      </c>
-      <c r="O5" t="n">
-        <v>120.5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>130.5</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>71.75</v>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
     </row>
@@ -746,57 +746,57 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>06/10/2023</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>82.19918918918918</v>
+        <v>79.83631578947369</v>
       </c>
       <c r="D6" t="n">
-        <v>94.4959375</v>
+        <v>100.0777777777778</v>
       </c>
       <c r="E6" t="n">
-        <v>102.198</v>
+        <v>112.5</v>
       </c>
       <c r="F6" t="n">
-        <v>110</v>
+        <v>117.9333333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H6" t="n">
-        <v>78.73999999999999</v>
+        <v>75.11125</v>
       </c>
       <c r="I6" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>77.3</v>
+        <v>74</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>117.745</v>
+        <v>111.7</v>
       </c>
       <c r="O6" t="n">
-        <v>127</v>
-      </c>
-      <c r="P6" t="n">
-        <v>133</v>
-      </c>
+        <v>132.45</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="n">
-        <v>116</v>
-      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>78</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+        <v>77</v>
+      </c>
+      <c r="W6" t="n">
+        <v>77</v>
+      </c>
+      <c r="X6" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -804,57 +804,57 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>81</v>
+        <v>81.08333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>94</v>
+        <v>100.9821428571429</v>
       </c>
       <c r="E7" t="n">
-        <v>104.9</v>
+        <v>112.5</v>
       </c>
       <c r="F7" t="n">
-        <v>110</v>
+        <v>119.625</v>
       </c>
       <c r="G7" t="n">
-        <v>118.5</v>
+        <v>120</v>
       </c>
       <c r="H7" t="n">
-        <v>76.5</v>
+        <v>74.88499999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>84</v>
+        <v>86.33333333333333</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>106</v>
+        <v>111.7</v>
       </c>
       <c r="O7" t="n">
-        <v>127</v>
-      </c>
-      <c r="P7" t="n">
-        <v>133</v>
-      </c>
+        <v>132.45</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="n">
-        <v>116</v>
-      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>78</v>
-      </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
+        <v>77</v>
+      </c>
+      <c r="W7" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="X7" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -862,57 +862,57 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>78.55</v>
+        <v>87.515</v>
       </c>
       <c r="D8" t="n">
-        <v>92.7</v>
+        <v>101.4</v>
       </c>
       <c r="E8" t="n">
-        <v>103.5</v>
+        <v>112.5</v>
       </c>
       <c r="F8" t="n">
-        <v>112.5</v>
+        <v>119.625</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6275</v>
+        <v>112</v>
       </c>
       <c r="H8" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I8" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>106</v>
+        <v>114.78</v>
       </c>
       <c r="O8" t="n">
-        <v>127</v>
-      </c>
-      <c r="P8" t="n">
-        <v>133</v>
-      </c>
+        <v>132.45</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="n">
-        <v>116</v>
-      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="n">
-        <v>78</v>
-      </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+        <v>77.7</v>
+      </c>
+      <c r="W8" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -920,57 +920,57 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>80.431</v>
+        <v>80.80500000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>93.84363636363636</v>
+        <v>103.25</v>
       </c>
       <c r="E9" t="n">
-        <v>100.2</v>
+        <v>114.1666666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>112.5</v>
+        <v>119.625</v>
       </c>
       <c r="G9" t="n">
-        <v>117.6275</v>
+        <v>112</v>
       </c>
       <c r="H9" t="n">
-        <v>75</v>
+        <v>75.375</v>
       </c>
       <c r="I9" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>106</v>
+        <v>114.78</v>
       </c>
       <c r="O9" t="n">
-        <v>127</v>
-      </c>
-      <c r="P9" t="n">
-        <v>133</v>
-      </c>
+        <v>132.45</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="n">
-        <v>116</v>
-      </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="n">
-        <v>79</v>
-      </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
+        <v>77.7</v>
+      </c>
+      <c r="W9" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="X9" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -978,57 +978,57 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>80.431</v>
+        <v>80.49666666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>94.83333333333333</v>
+        <v>104.84</v>
       </c>
       <c r="E10" t="n">
-        <v>100.2</v>
+        <v>115.84</v>
       </c>
       <c r="F10" t="n">
-        <v>115.3</v>
+        <v>120</v>
       </c>
       <c r="G10" t="n">
-        <v>117.6275</v>
+        <v>122.58</v>
       </c>
       <c r="H10" t="n">
-        <v>75</v>
+        <v>74.515</v>
       </c>
       <c r="I10" t="n">
-        <v>84</v>
+        <v>85.85000000000001</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>106</v>
+        <v>114.78</v>
       </c>
       <c r="O10" t="n">
-        <v>127</v>
-      </c>
-      <c r="P10" t="n">
-        <v>133</v>
-      </c>
+        <v>132.45</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
-        <v>116</v>
-      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
-        <v>79</v>
-      </c>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+        <v>77.7</v>
+      </c>
+      <c r="W10" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="X10" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1036,57 +1036,57 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16/10/2023</t>
+          <t>16/11/2023</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>78.33333333333333</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>93.375</v>
+        <v>105.8823529411765</v>
       </c>
       <c r="E11" t="n">
-        <v>100.2</v>
+        <v>116.75</v>
       </c>
       <c r="F11" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G11" t="n">
-        <v>117</v>
+        <v>122.58</v>
       </c>
       <c r="H11" t="n">
-        <v>72.59999999999999</v>
+        <v>74</v>
       </c>
       <c r="I11" t="n">
-        <v>80.2</v>
+        <v>86</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>111.25</v>
+        <v>113.1</v>
       </c>
       <c r="O11" t="n">
-        <v>127</v>
-      </c>
-      <c r="P11" t="n">
-        <v>133</v>
-      </c>
+        <v>132.45</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
-        <v>116</v>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
-        <v>73</v>
-      </c>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
+        <v>76.75</v>
+      </c>
+      <c r="W11" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="X11" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1094,57 +1094,61 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17/10/2023</t>
+          <t>17/11/2023</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>75.48157894736842</v>
+        <v>80.765</v>
       </c>
       <c r="D12" t="n">
-        <v>90.85000000000001</v>
+        <v>107.8775</v>
       </c>
       <c r="E12" t="n">
-        <v>100.3333333333333</v>
+        <v>116.41</v>
       </c>
       <c r="F12" t="n">
-        <v>114.5</v>
+        <v>122.95</v>
       </c>
       <c r="G12" t="n">
-        <v>115.75</v>
+        <v>122.58</v>
       </c>
       <c r="H12" t="n">
-        <v>70.84999999999999</v>
+        <v>74.32727272727273</v>
       </c>
       <c r="I12" t="n">
-        <v>79.34999999999999</v>
+        <v>87.625</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
+        <v>73</v>
+      </c>
+      <c r="L12" t="n">
+        <v>88</v>
+      </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>110</v>
+        <v>114.5</v>
       </c>
       <c r="O12" t="n">
-        <v>127</v>
-      </c>
-      <c r="P12" t="n">
-        <v>133</v>
-      </c>
+        <v>132.45</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="n">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
+        <v>78.09999999999999</v>
+      </c>
+      <c r="W12" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="X12" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1152,57 +1156,61 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>20/11/2023</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>74.7</v>
+        <v>80.765</v>
       </c>
       <c r="D13" t="n">
-        <v>90.7</v>
+        <v>107.8775</v>
       </c>
       <c r="E13" t="n">
-        <v>102</v>
+        <v>116.41</v>
       </c>
       <c r="F13" t="n">
-        <v>113</v>
+        <v>122.95</v>
       </c>
       <c r="G13" t="n">
-        <v>115.75</v>
+        <v>122.58</v>
       </c>
       <c r="H13" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I13" t="n">
-        <v>79.5</v>
+        <v>87.625</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>69</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
+        <v>73</v>
+      </c>
+      <c r="L13" t="n">
+        <v>88</v>
+      </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>109</v>
+        <v>114.5</v>
       </c>
       <c r="O13" t="n">
-        <v>127</v>
-      </c>
-      <c r="P13" t="n">
-        <v>133</v>
-      </c>
+        <v>132.45</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="n">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
+        <v>78.09999999999999</v>
+      </c>
+      <c r="W13" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="X13" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1210,56 +1218,60 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>19/10/2023</t>
+          <t>21/11/2023</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>75.30444444444444</v>
+        <v>79.16666666666667</v>
       </c>
       <c r="D14" t="n">
-        <v>90.875</v>
+        <v>107.3125</v>
       </c>
       <c r="E14" t="n">
-        <v>106</v>
+        <v>117.5</v>
       </c>
       <c r="F14" t="n">
-        <v>113.75</v>
+        <v>122.95</v>
       </c>
       <c r="G14" t="n">
-        <v>115.75</v>
+        <v>122.58</v>
       </c>
       <c r="H14" t="n">
-        <v>70.48571428571428</v>
+        <v>73.42</v>
       </c>
       <c r="I14" t="n">
-        <v>80.36142857142856</v>
+        <v>86</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>69</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
+        <v>71.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>88</v>
+      </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>109</v>
+        <v>114.5</v>
       </c>
       <c r="O14" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="P14" t="n">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="n">
-        <v>72.66666666666667</v>
-      </c>
-      <c r="W14" t="inlineStr"/>
+        <v>78.32857142857142</v>
+      </c>
+      <c r="W14" t="n">
+        <v>77.7</v>
+      </c>
       <c r="X14" t="n">
         <v>72</v>
       </c>
@@ -1270,56 +1282,60 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20/10/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>76.25</v>
+        <v>77.71666666666667</v>
       </c>
       <c r="D15" t="n">
-        <v>92.5</v>
+        <v>107.15</v>
       </c>
       <c r="E15" t="n">
-        <v>104.25</v>
+        <v>118.4</v>
       </c>
       <c r="F15" t="n">
-        <v>113.75</v>
+        <v>126.5</v>
       </c>
       <c r="G15" t="n">
-        <v>115.75</v>
+        <v>122.58</v>
       </c>
       <c r="H15" t="n">
-        <v>70.48571428571428</v>
+        <v>71.63888888888889</v>
       </c>
       <c r="I15" t="n">
-        <v>81.25</v>
+        <v>84.55</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>69</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
+        <v>69.22857142857143</v>
+      </c>
+      <c r="L15" t="n">
+        <v>84</v>
+      </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>109</v>
+        <v>111.5</v>
       </c>
       <c r="O15" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="P15" t="n">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="n">
-        <v>72.66666666666667</v>
-      </c>
-      <c r="W15" t="inlineStr"/>
+        <v>77.06</v>
+      </c>
+      <c r="W15" t="n">
+        <v>77.7</v>
+      </c>
       <c r="X15" t="n">
         <v>72</v>
       </c>
@@ -1330,56 +1346,60 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>23/11/2023</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>80</v>
+        <v>74.31923076923077</v>
       </c>
       <c r="D16" t="n">
-        <v>95.25</v>
+        <v>102.9266666666667</v>
       </c>
       <c r="E16" t="n">
-        <v>104.25</v>
+        <v>114.6</v>
       </c>
       <c r="F16" t="n">
-        <v>113.75</v>
+        <v>122.8333333333333</v>
       </c>
       <c r="G16" t="n">
-        <v>115.75</v>
+        <v>128.6666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>76.5</v>
+        <v>71.63888888888889</v>
       </c>
       <c r="I16" t="n">
-        <v>81.25</v>
+        <v>79.47666666666667</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>69</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
+        <v>67.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>79</v>
+      </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>109</v>
+        <v>111.5</v>
       </c>
       <c r="O16" t="n">
-        <v>127</v>
+        <v>136.3333333333333</v>
       </c>
       <c r="P16" t="n">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="n">
-        <v>72.66666666666667</v>
-      </c>
-      <c r="W16" t="inlineStr"/>
+        <v>72.842</v>
+      </c>
+      <c r="W16" t="n">
+        <v>77.7</v>
+      </c>
       <c r="X16" t="n">
         <v>72</v>
       </c>
@@ -1390,56 +1410,62 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>24/11/2023</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>80.7225</v>
+        <v>74.8125</v>
       </c>
       <c r="D17" t="n">
-        <v>95.625</v>
+        <v>100.3811764705882</v>
       </c>
       <c r="E17" t="n">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F17" t="n">
-        <v>113.75</v>
+        <v>122.0833333333333</v>
       </c>
       <c r="G17" t="n">
-        <v>115.75</v>
+        <v>129</v>
       </c>
       <c r="H17" t="n">
-        <v>76.5</v>
+        <v>70.26666666666667</v>
       </c>
       <c r="I17" t="n">
-        <v>81.25</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>79.065</v>
+      </c>
+      <c r="J17" t="n">
+        <v>71.5</v>
+      </c>
       <c r="K17" t="n">
-        <v>69</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
+        <v>67.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>77.5</v>
+      </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>109</v>
+        <v>111.5</v>
       </c>
       <c r="O17" t="n">
-        <v>127</v>
+        <v>136.3333333333333</v>
       </c>
       <c r="P17" t="n">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="n">
-        <v>72.66666666666667</v>
-      </c>
-      <c r="W17" t="inlineStr"/>
+        <v>74.59999999999999</v>
+      </c>
+      <c r="W17" t="n">
+        <v>77.7</v>
+      </c>
       <c r="X17" t="n">
         <v>72</v>
       </c>
@@ -1450,56 +1476,64 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>25/10/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>80.5</v>
+        <v>74.578</v>
       </c>
       <c r="D18" t="n">
-        <v>96.125</v>
+        <v>101.4983333333333</v>
       </c>
       <c r="E18" t="n">
-        <v>106.6666666666667</v>
+        <v>114.5</v>
       </c>
       <c r="F18" t="n">
-        <v>115</v>
+        <v>123.5</v>
       </c>
       <c r="G18" t="n">
-        <v>115.75</v>
+        <v>129</v>
       </c>
       <c r="H18" t="n">
-        <v>74</v>
+        <v>70.5</v>
       </c>
       <c r="I18" t="n">
-        <v>86.25</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>79.098</v>
+      </c>
+      <c r="J18" t="n">
+        <v>71.5</v>
+      </c>
       <c r="K18" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+        <v>68</v>
+      </c>
+      <c r="L18" t="n">
+        <v>77.33333333333333</v>
+      </c>
+      <c r="M18" t="n">
+        <v>80</v>
+      </c>
       <c r="N18" t="n">
-        <v>109</v>
+        <v>111.5</v>
       </c>
       <c r="O18" t="n">
-        <v>127</v>
+        <v>136.3333333333333</v>
       </c>
       <c r="P18" t="n">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="n">
-        <v>75</v>
-      </c>
-      <c r="W18" t="inlineStr"/>
+        <v>74.09999999999999</v>
+      </c>
+      <c r="W18" t="n">
+        <v>77.7</v>
+      </c>
       <c r="X18" t="n">
         <v>72</v>
       </c>
@@ -1510,58 +1544,66 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>26/10/2023</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="C19" t="n">
+        <v>74.30714285714285</v>
+      </c>
+      <c r="D19" t="n">
+        <v>103.2833333333333</v>
+      </c>
+      <c r="E19" t="n">
+        <v>116</v>
+      </c>
+      <c r="F19" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>127.285</v>
+      </c>
+      <c r="H19" t="n">
+        <v>70</v>
+      </c>
+      <c r="I19" t="n">
+        <v>79.25</v>
+      </c>
+      <c r="J19" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>68</v>
+      </c>
+      <c r="L19" t="n">
+        <v>77.33333333333333</v>
+      </c>
+      <c r="M19" t="n">
         <v>80</v>
       </c>
-      <c r="D19" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="E19" t="n">
-        <v>108.75</v>
-      </c>
-      <c r="F19" t="n">
-        <v>117</v>
-      </c>
-      <c r="G19" t="n">
-        <v>115.75</v>
-      </c>
-      <c r="H19" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="I19" t="n">
-        <v>84.5</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>109</v>
+        <v>111.5</v>
       </c>
       <c r="O19" t="n">
-        <v>127</v>
+        <v>136.3333333333333</v>
       </c>
       <c r="P19" t="n">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="n">
-        <v>75</v>
-      </c>
-      <c r="W19" t="inlineStr"/>
+        <v>73.55499999999999</v>
+      </c>
+      <c r="W19" t="n">
+        <v>76</v>
+      </c>
       <c r="X19" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
@@ -1570,58 +1612,66 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>27/10/2023</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>79.625</v>
+        <v>73.90833333333333</v>
       </c>
       <c r="D20" t="n">
-        <v>96.78999999999999</v>
+        <v>101.5</v>
       </c>
       <c r="E20" t="n">
-        <v>107.3230769230769</v>
+        <v>116</v>
       </c>
       <c r="F20" t="n">
-        <v>117.42</v>
+        <v>123.5</v>
       </c>
       <c r="G20" t="n">
-        <v>120</v>
+        <v>127.285</v>
       </c>
       <c r="H20" t="n">
-        <v>73.325</v>
+        <v>70.625</v>
       </c>
       <c r="I20" t="n">
-        <v>87.75</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>79.25</v>
+      </c>
+      <c r="J20" t="n">
+        <v>71.5</v>
+      </c>
       <c r="K20" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+        <v>68.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>77.33333333333333</v>
+      </c>
+      <c r="M20" t="n">
+        <v>80</v>
+      </c>
       <c r="N20" t="n">
-        <v>112.25</v>
+        <v>107</v>
       </c>
       <c r="O20" t="n">
-        <v>127</v>
+        <v>134.5</v>
       </c>
       <c r="P20" t="n">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="n">
-        <v>75</v>
-      </c>
-      <c r="W20" t="inlineStr"/>
+        <v>71.62</v>
+      </c>
+      <c r="W20" t="n">
+        <v>71</v>
+      </c>
       <c r="X20" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -1630,58 +1680,66 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>30/10/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>77.625</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>95.72222222222223</v>
+        <v>101.7285714285714</v>
       </c>
       <c r="E21" t="n">
-        <v>106.625</v>
+        <v>115</v>
       </c>
       <c r="F21" t="n">
-        <v>116</v>
+        <v>123.5</v>
       </c>
       <c r="G21" t="n">
-        <v>120</v>
+        <v>127.285</v>
       </c>
       <c r="H21" t="n">
-        <v>72.40000000000001</v>
+        <v>70.625</v>
       </c>
       <c r="I21" t="n">
-        <v>85</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>77.995</v>
+      </c>
+      <c r="J21" t="n">
+        <v>72.5</v>
+      </c>
       <c r="K21" t="n">
-        <v>70</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+        <v>68.16666666666667</v>
+      </c>
+      <c r="L21" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>80</v>
+      </c>
       <c r="N21" t="n">
-        <v>112.25</v>
+        <v>107</v>
       </c>
       <c r="O21" t="n">
-        <v>127</v>
+        <v>132.5</v>
       </c>
       <c r="P21" t="n">
-        <v>133</v>
+        <v>147.5</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="n">
-        <v>75</v>
-      </c>
-      <c r="W21" t="inlineStr"/>
+        <v>71.8</v>
+      </c>
+      <c r="W21" t="n">
+        <v>74.5</v>
+      </c>
       <c r="X21" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -1690,58 +1748,66 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>31/10/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>76.72857142857143</v>
+        <v>73.625</v>
       </c>
       <c r="D22" t="n">
-        <v>94.92</v>
+        <v>103</v>
       </c>
       <c r="E22" t="n">
-        <v>106.625</v>
+        <v>115</v>
       </c>
       <c r="F22" t="n">
-        <v>116</v>
+        <v>123.5</v>
       </c>
       <c r="G22" t="n">
-        <v>120</v>
+        <v>127.285</v>
       </c>
       <c r="H22" t="n">
-        <v>73</v>
+        <v>70.625</v>
       </c>
       <c r="I22" t="n">
-        <v>83.8</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>77.995</v>
+      </c>
+      <c r="J22" t="n">
+        <v>72.5</v>
+      </c>
       <c r="K22" t="n">
-        <v>70</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+        <v>68.16666666666667</v>
+      </c>
+      <c r="L22" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>80</v>
+      </c>
       <c r="N22" t="n">
-        <v>112.25</v>
+        <v>105</v>
       </c>
       <c r="O22" t="n">
-        <v>129</v>
+        <v>132.5</v>
       </c>
       <c r="P22" t="n">
-        <v>133</v>
+        <v>147.5</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="n">
-        <v>73.25</v>
-      </c>
-      <c r="W22" t="inlineStr"/>
+        <v>71.2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>73</v>
+      </c>
       <c r="X22" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -1750,58 +1816,66 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/11/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>76.57142857142857</v>
+        <v>74.16666666666667</v>
       </c>
       <c r="D23" t="n">
-        <v>94.75</v>
+        <v>103.25</v>
       </c>
       <c r="E23" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F23" t="n">
-        <v>116</v>
+        <v>123.5</v>
       </c>
       <c r="G23" t="n">
-        <v>120</v>
+        <v>127.285</v>
       </c>
       <c r="H23" t="n">
-        <v>71.25</v>
+        <v>70</v>
       </c>
       <c r="I23" t="n">
-        <v>81.6875</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>77.995</v>
+      </c>
+      <c r="J23" t="n">
+        <v>72.5</v>
+      </c>
       <c r="K23" t="n">
-        <v>70</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+        <v>68.16666666666667</v>
+      </c>
+      <c r="L23" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>80</v>
+      </c>
       <c r="N23" t="n">
-        <v>112.25</v>
+        <v>106.25</v>
       </c>
       <c r="O23" t="n">
-        <v>129</v>
+        <v>132.5</v>
       </c>
       <c r="P23" t="n">
-        <v>133</v>
+        <v>147.5</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="n">
-        <v>72.75</v>
-      </c>
-      <c r="W23" t="inlineStr"/>
+        <v>72.36666666666666</v>
+      </c>
+      <c r="W23" t="n">
+        <v>72.33333333333333</v>
+      </c>
       <c r="X23" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -1810,58 +1884,66 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>03/11/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>76.57142857142857</v>
+        <v>76.31666666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>96</v>
+        <v>103.5</v>
       </c>
       <c r="E24" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F24" t="n">
-        <v>116</v>
+        <v>123.5</v>
       </c>
       <c r="G24" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H24" t="n">
-        <v>71.25</v>
+        <v>70</v>
       </c>
       <c r="I24" t="n">
-        <v>82.75</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>77.995</v>
+      </c>
+      <c r="J24" t="n">
+        <v>72.5</v>
+      </c>
       <c r="K24" t="n">
-        <v>70</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>77</v>
+      </c>
+      <c r="M24" t="n">
+        <v>82</v>
+      </c>
       <c r="N24" t="n">
-        <v>112.25</v>
+        <v>104.25</v>
       </c>
       <c r="O24" t="n">
-        <v>129</v>
+        <v>132.75</v>
       </c>
       <c r="P24" t="n">
-        <v>133</v>
+        <v>147.5</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="n">
-        <v>71.75</v>
-      </c>
-      <c r="W24" t="inlineStr"/>
+        <v>71.67</v>
+      </c>
+      <c r="W24" t="n">
+        <v>72.33333333333333</v>
+      </c>
       <c r="X24" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
@@ -1870,58 +1952,66 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>76</v>
+        <v>74.19388888888889</v>
       </c>
       <c r="D25" t="n">
-        <v>96.875</v>
+        <v>105.3636363636364</v>
       </c>
       <c r="E25" t="n">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F25" t="n">
-        <v>116.5</v>
+        <v>124</v>
       </c>
       <c r="G25" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H25" t="n">
-        <v>71.25</v>
+        <v>69.25</v>
       </c>
       <c r="I25" t="n">
-        <v>82.75</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>79.33333333333333</v>
+      </c>
+      <c r="J25" t="n">
+        <v>72.5</v>
+      </c>
       <c r="K25" t="n">
-        <v>70</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+        <v>66.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>77</v>
+      </c>
+      <c r="M25" t="n">
+        <v>82</v>
+      </c>
       <c r="N25" t="n">
-        <v>109</v>
+        <v>105.375</v>
       </c>
       <c r="O25" t="n">
-        <v>129</v>
+        <v>132.75</v>
       </c>
       <c r="P25" t="n">
-        <v>133</v>
+        <v>147.5</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="n">
-        <v>71.75</v>
-      </c>
-      <c r="W25" t="inlineStr"/>
+        <v>72.27692307692308</v>
+      </c>
+      <c r="W25" t="n">
+        <v>72.33333333333333</v>
+      </c>
       <c r="X25" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
@@ -1930,56 +2020,64 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>76.83333333333333</v>
+        <v>74.95</v>
       </c>
       <c r="D26" t="n">
-        <v>97.66666666666667</v>
+        <v>107.2142857142857</v>
       </c>
       <c r="E26" t="n">
-        <v>108.5</v>
+        <v>119</v>
       </c>
       <c r="F26" t="n">
-        <v>117.5</v>
+        <v>125</v>
       </c>
       <c r="G26" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H26" t="n">
-        <v>72.75</v>
+        <v>69.25</v>
       </c>
       <c r="I26" t="n">
-        <v>84.75</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>79.75</v>
+      </c>
+      <c r="J26" t="n">
+        <v>72.5</v>
+      </c>
       <c r="K26" t="n">
-        <v>74</v>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+        <v>67.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>76</v>
+      </c>
+      <c r="M26" t="n">
+        <v>82</v>
+      </c>
       <c r="N26" t="n">
-        <v>110</v>
+        <v>105.375</v>
       </c>
       <c r="O26" t="n">
-        <v>129</v>
+        <v>132.75</v>
       </c>
       <c r="P26" t="n">
-        <v>133</v>
+        <v>147.5</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="n">
-        <v>71.75</v>
-      </c>
-      <c r="W26" t="inlineStr"/>
+        <v>71.81526315789473</v>
+      </c>
+      <c r="W26" t="n">
+        <v>72</v>
+      </c>
       <c r="X26" t="n">
         <v>72</v>
       </c>
@@ -1990,60 +2088,66 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>79.83631578947369</v>
+        <v>74</v>
       </c>
       <c r="D27" t="n">
-        <v>100.0777777777778</v>
+        <v>106.1</v>
       </c>
       <c r="E27" t="n">
-        <v>112.5</v>
+        <v>118.3333333333333</v>
       </c>
       <c r="F27" t="n">
-        <v>117.9333333333333</v>
+        <v>124</v>
       </c>
       <c r="G27" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H27" t="n">
-        <v>75.11125</v>
+        <v>68.875</v>
       </c>
       <c r="I27" t="n">
-        <v>85</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>79</v>
+      </c>
+      <c r="J27" t="n">
+        <v>72.5</v>
+      </c>
       <c r="K27" t="n">
-        <v>74</v>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+        <v>67.95</v>
+      </c>
+      <c r="L27" t="n">
+        <v>76</v>
+      </c>
+      <c r="M27" t="n">
+        <v>82</v>
+      </c>
       <c r="N27" t="n">
-        <v>111.7</v>
+        <v>104.25</v>
       </c>
       <c r="O27" t="n">
-        <v>132.45</v>
+        <v>145</v>
       </c>
       <c r="P27" t="n">
-        <v>133</v>
+        <v>147.5</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="n">
-        <v>77</v>
+        <v>70.21428571428571</v>
       </c>
       <c r="W27" t="n">
-        <v>77</v>
+        <v>70.625</v>
       </c>
       <c r="X27" t="n">
-        <v>77</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="28">
@@ -2052,60 +2156,66 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>81.08333333333333</v>
+        <v>74.75</v>
       </c>
       <c r="D28" t="n">
-        <v>100.9821428571429</v>
+        <v>106.94</v>
       </c>
       <c r="E28" t="n">
-        <v>112.5</v>
+        <v>119.65</v>
       </c>
       <c r="F28" t="n">
-        <v>119.625</v>
+        <v>127.3</v>
       </c>
       <c r="G28" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H28" t="n">
-        <v>74.88499999999999</v>
+        <v>70</v>
       </c>
       <c r="I28" t="n">
-        <v>86.33333333333333</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>79.66666666666667</v>
+      </c>
+      <c r="J28" t="n">
+        <v>72.5</v>
+      </c>
       <c r="K28" t="n">
-        <v>74</v>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+        <v>68</v>
+      </c>
+      <c r="L28" t="n">
+        <v>76</v>
+      </c>
+      <c r="M28" t="n">
+        <v>82</v>
+      </c>
       <c r="N28" t="n">
-        <v>111.7</v>
+        <v>104.25</v>
       </c>
       <c r="O28" t="n">
-        <v>132.45</v>
+        <v>145</v>
       </c>
       <c r="P28" t="n">
-        <v>133</v>
+        <v>147.5</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="n">
-        <v>77</v>
+        <v>72.09736842105262</v>
       </c>
       <c r="W28" t="n">
-        <v>76.40000000000001</v>
+        <v>71.75</v>
       </c>
       <c r="X28" t="n">
-        <v>77</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="29">
@@ -2114,60 +2224,66 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>87.515</v>
+        <v>75.21428571428571</v>
       </c>
       <c r="D29" t="n">
-        <v>101.4</v>
+        <v>107.4222222222222</v>
       </c>
       <c r="E29" t="n">
-        <v>112.5</v>
+        <v>116</v>
       </c>
       <c r="F29" t="n">
-        <v>119.625</v>
+        <v>127.3</v>
       </c>
       <c r="G29" t="n">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="H29" t="n">
-        <v>74</v>
+        <v>70.55</v>
       </c>
       <c r="I29" t="n">
-        <v>86</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>80.75</v>
+      </c>
+      <c r="J29" t="n">
+        <v>72.5</v>
+      </c>
       <c r="K29" t="n">
-        <v>71</v>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+        <v>68</v>
+      </c>
+      <c r="L29" t="n">
+        <v>76</v>
+      </c>
+      <c r="M29" t="n">
+        <v>82</v>
+      </c>
       <c r="N29" t="n">
-        <v>114.78</v>
+        <v>106.5</v>
       </c>
       <c r="O29" t="n">
-        <v>132.45</v>
+        <v>141</v>
       </c>
       <c r="P29" t="n">
-        <v>133</v>
+        <v>147.5</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="n">
-        <v>77.7</v>
+        <v>74.65890909090909</v>
       </c>
       <c r="W29" t="n">
-        <v>77.7</v>
+        <v>73.5</v>
       </c>
       <c r="X29" t="n">
-        <v>77</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="30">
@@ -2176,60 +2292,66 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>80.80500000000001</v>
+        <v>75.5</v>
       </c>
       <c r="D30" t="n">
-        <v>103.25</v>
+        <v>107.8316666666667</v>
       </c>
       <c r="E30" t="n">
-        <v>114.1666666666667</v>
+        <v>120</v>
       </c>
       <c r="F30" t="n">
-        <v>119.625</v>
+        <v>127</v>
       </c>
       <c r="G30" t="n">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="H30" t="n">
-        <v>75.375</v>
+        <v>70.25</v>
       </c>
       <c r="I30" t="n">
-        <v>86</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J30" t="n">
+        <v>72.5</v>
+      </c>
       <c r="K30" t="n">
-        <v>71</v>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+        <v>69.5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>76</v>
+      </c>
+      <c r="M30" t="n">
+        <v>82</v>
+      </c>
       <c r="N30" t="n">
-        <v>114.78</v>
+        <v>103.1333333333333</v>
       </c>
       <c r="O30" t="n">
-        <v>132.45</v>
+        <v>141.5</v>
       </c>
       <c r="P30" t="n">
-        <v>133</v>
+        <v>147.5</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="n">
-        <v>77.7</v>
+        <v>73.82222222222222</v>
       </c>
       <c r="W30" t="n">
-        <v>77.7</v>
+        <v>73.5</v>
       </c>
       <c r="X30" t="n">
-        <v>77</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="31">
@@ -2238,60 +2360,66 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>80.49666666666667</v>
+        <v>74.7475</v>
       </c>
       <c r="D31" t="n">
-        <v>104.84</v>
+        <v>108.5</v>
       </c>
       <c r="E31" t="n">
-        <v>115.84</v>
+        <v>121</v>
       </c>
       <c r="F31" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G31" t="n">
-        <v>122.58</v>
+        <v>130</v>
       </c>
       <c r="H31" t="n">
-        <v>74.515</v>
+        <v>71</v>
       </c>
       <c r="I31" t="n">
-        <v>85.85000000000001</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>83</v>
+      </c>
+      <c r="J31" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K31" t="n">
-        <v>71</v>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+        <v>69.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>76</v>
+      </c>
+      <c r="M31" t="n">
+        <v>82</v>
+      </c>
       <c r="N31" t="n">
-        <v>114.78</v>
+        <v>102.325</v>
       </c>
       <c r="O31" t="n">
-        <v>132.45</v>
+        <v>141.5</v>
       </c>
       <c r="P31" t="n">
-        <v>133</v>
+        <v>147.5</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="n">
-        <v>77.7</v>
+        <v>74.15833333333333</v>
       </c>
       <c r="W31" t="n">
-        <v>77.7</v>
+        <v>73.5</v>
       </c>
       <c r="X31" t="n">
-        <v>77</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="32">
@@ -2300,60 +2428,66 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16/11/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>79.40000000000001</v>
+        <v>76</v>
       </c>
       <c r="D32" t="n">
-        <v>105.8823529411765</v>
+        <v>108.5</v>
       </c>
       <c r="E32" t="n">
-        <v>116.75</v>
+        <v>121</v>
       </c>
       <c r="F32" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G32" t="n">
-        <v>122.58</v>
+        <v>130</v>
       </c>
       <c r="H32" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I32" t="n">
-        <v>86</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>82.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K32" t="n">
-        <v>70</v>
-      </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+        <v>69.5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>82</v>
+      </c>
       <c r="N32" t="n">
-        <v>113.1</v>
+        <v>102.325</v>
       </c>
       <c r="O32" t="n">
-        <v>132.45</v>
+        <v>154.2</v>
       </c>
       <c r="P32" t="n">
-        <v>133</v>
+        <v>147.5</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="n">
-        <v>76.75</v>
+        <v>72.89999999999999</v>
       </c>
       <c r="W32" t="n">
-        <v>77.7</v>
+        <v>73.5</v>
       </c>
       <c r="X32" t="n">
-        <v>77</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="33">
@@ -2362,62 +2496,66 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>17/11/2023</t>
+          <t>18/12/2023</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>80.765</v>
+        <v>73</v>
       </c>
       <c r="D33" t="n">
-        <v>107.8775</v>
+        <v>110.6818181818182</v>
       </c>
       <c r="E33" t="n">
-        <v>116.41</v>
+        <v>123</v>
       </c>
       <c r="F33" t="n">
-        <v>122.95</v>
+        <v>130</v>
       </c>
       <c r="G33" t="n">
-        <v>122.58</v>
+        <v>130</v>
       </c>
       <c r="H33" t="n">
-        <v>74.32727272727273</v>
+        <v>71.46666666666667</v>
       </c>
       <c r="I33" t="n">
-        <v>87.625</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>84.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K33" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L33" t="n">
-        <v>88</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="M33" t="n">
+        <v>82</v>
+      </c>
       <c r="N33" t="n">
-        <v>114.5</v>
+        <v>102.325</v>
       </c>
       <c r="O33" t="n">
-        <v>132.45</v>
+        <v>154.2</v>
       </c>
       <c r="P33" t="n">
-        <v>133</v>
+        <v>147.5</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="n">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="n">
-        <v>78.09999999999999</v>
+        <v>76.56812499999999</v>
       </c>
       <c r="W33" t="n">
-        <v>77.7</v>
+        <v>74.714</v>
       </c>
       <c r="X33" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
@@ -2426,62 +2564,66 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>20/11/2023</t>
+          <t>19/12/2023</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>80.765</v>
+        <v>74.34</v>
       </c>
       <c r="D34" t="n">
-        <v>107.8775</v>
+        <v>107.5625</v>
       </c>
       <c r="E34" t="n">
-        <v>116.41</v>
+        <v>122.9166666666667</v>
       </c>
       <c r="F34" t="n">
-        <v>122.95</v>
+        <v>130</v>
       </c>
       <c r="G34" t="n">
-        <v>122.58</v>
+        <v>130</v>
       </c>
       <c r="H34" t="n">
-        <v>77</v>
+        <v>69.97777777777777</v>
       </c>
       <c r="I34" t="n">
-        <v>87.625</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>80.755</v>
+      </c>
+      <c r="J34" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K34" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L34" t="n">
-        <v>88</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>77.96666666666667</v>
+      </c>
+      <c r="M34" t="n">
+        <v>84</v>
+      </c>
       <c r="N34" t="n">
-        <v>114.5</v>
+        <v>102.325</v>
       </c>
       <c r="O34" t="n">
-        <v>132.45</v>
+        <v>141</v>
       </c>
       <c r="P34" t="n">
-        <v>133</v>
+        <v>147.5</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="n">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="n">
-        <v>78.09999999999999</v>
+        <v>71.16441176470589</v>
       </c>
       <c r="W34" t="n">
-        <v>77.7</v>
+        <v>71.25</v>
       </c>
       <c r="X34" t="n">
-        <v>77</v>
+        <v>70.41666666666667</v>
       </c>
     </row>
     <row r="35">
@@ -2490,62 +2632,66 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>21/11/2023</t>
+          <t>20/12/2023</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>79.16666666666667</v>
+        <v>75.5</v>
       </c>
       <c r="D35" t="n">
-        <v>107.3125</v>
+        <v>109.0555555555556</v>
       </c>
       <c r="E35" t="n">
-        <v>117.5</v>
+        <v>120.5</v>
       </c>
       <c r="F35" t="n">
-        <v>122.95</v>
+        <v>130</v>
       </c>
       <c r="G35" t="n">
-        <v>122.58</v>
+        <v>130</v>
       </c>
       <c r="H35" t="n">
-        <v>73.42</v>
+        <v>71.5</v>
       </c>
       <c r="I35" t="n">
-        <v>86</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>82.93625</v>
+      </c>
+      <c r="J35" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K35" t="n">
-        <v>71.5</v>
+        <v>68.88888888888889</v>
       </c>
       <c r="L35" t="n">
-        <v>88</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>77.96666666666667</v>
+      </c>
+      <c r="M35" t="n">
+        <v>84</v>
+      </c>
       <c r="N35" t="n">
-        <v>114.5</v>
+        <v>107</v>
       </c>
       <c r="O35" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P35" t="n">
-        <v>150</v>
+        <v>147.5</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="n">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="n">
-        <v>78.32857142857142</v>
+        <v>72.9825</v>
       </c>
       <c r="W35" t="n">
-        <v>77.7</v>
+        <v>72</v>
       </c>
       <c r="X35" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
@@ -2554,62 +2700,66 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>21/12/2023</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>77.71666666666667</v>
+        <v>76.42857142857143</v>
       </c>
       <c r="D36" t="n">
-        <v>107.15</v>
+        <v>106.3875</v>
       </c>
       <c r="E36" t="n">
-        <v>118.4</v>
+        <v>121.75</v>
       </c>
       <c r="F36" t="n">
-        <v>126.5</v>
+        <v>131</v>
       </c>
       <c r="G36" t="n">
-        <v>122.58</v>
+        <v>130</v>
       </c>
       <c r="H36" t="n">
-        <v>71.63888888888889</v>
+        <v>70.83333333333333</v>
       </c>
       <c r="I36" t="n">
-        <v>84.55</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>82.7</v>
+      </c>
+      <c r="J36" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K36" t="n">
-        <v>69.22857142857143</v>
+        <v>68.875</v>
       </c>
       <c r="L36" t="n">
+        <v>80</v>
+      </c>
+      <c r="M36" t="n">
         <v>84</v>
       </c>
-      <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>111.5</v>
+        <v>107</v>
       </c>
       <c r="O36" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P36" t="n">
-        <v>150</v>
+        <v>147.5</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="n">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="n">
-        <v>77.06</v>
+        <v>72.28571428571429</v>
       </c>
       <c r="W36" t="n">
-        <v>77.7</v>
+        <v>72</v>
       </c>
       <c r="X36" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
@@ -2618,62 +2768,66 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>23/11/2023</t>
+          <t>22/12/2023</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>74.31923076923077</v>
+        <v>76.8</v>
       </c>
       <c r="D37" t="n">
-        <v>102.9266666666667</v>
+        <v>106.4444444444444</v>
       </c>
       <c r="E37" t="n">
-        <v>114.6</v>
+        <v>118.5</v>
       </c>
       <c r="F37" t="n">
-        <v>122.8333333333333</v>
+        <v>130</v>
       </c>
       <c r="G37" t="n">
-        <v>128.6666666666667</v>
+        <v>130</v>
       </c>
       <c r="H37" t="n">
-        <v>71.63888888888889</v>
+        <v>70.83333333333333</v>
       </c>
       <c r="I37" t="n">
-        <v>79.47666666666667</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>83.47555555555556</v>
+      </c>
+      <c r="J37" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="K37" t="n">
-        <v>67.5</v>
+        <v>69.16666666666667</v>
       </c>
       <c r="L37" t="n">
-        <v>79</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>79.75</v>
+      </c>
+      <c r="M37" t="n">
+        <v>84</v>
+      </c>
       <c r="N37" t="n">
-        <v>111.5</v>
+        <v>107.5</v>
       </c>
       <c r="O37" t="n">
-        <v>136.3333333333333</v>
+        <v>138.6</v>
       </c>
       <c r="P37" t="n">
-        <v>150</v>
+        <v>147.5</v>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="n">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="n">
-        <v>72.842</v>
+        <v>73.31588235294117</v>
       </c>
       <c r="W37" t="n">
-        <v>77.7</v>
+        <v>71.75</v>
       </c>
       <c r="X37" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -2682,64 +2836,66 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>24/11/2023</t>
+          <t>26/12/2023</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>74.8125</v>
+        <v>75.83333333333333</v>
       </c>
       <c r="D38" t="n">
-        <v>100.3811764705882</v>
+        <v>106.4333333333333</v>
       </c>
       <c r="E38" t="n">
-        <v>115</v>
+        <v>117.4666666666667</v>
       </c>
       <c r="F38" t="n">
-        <v>122.0833333333333</v>
+        <v>121.8</v>
       </c>
       <c r="G38" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H38" t="n">
-        <v>70.26666666666667</v>
+        <v>70.83333333333333</v>
       </c>
       <c r="I38" t="n">
-        <v>79.065</v>
+        <v>83.995</v>
       </c>
       <c r="J38" t="n">
-        <v>71.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>67.2</v>
+        <v>69.16666666666667</v>
       </c>
       <c r="L38" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>79.75</v>
+      </c>
+      <c r="M38" t="n">
+        <v>84</v>
+      </c>
       <c r="N38" t="n">
-        <v>111.5</v>
+        <v>107.5</v>
       </c>
       <c r="O38" t="n">
-        <v>136.3333333333333</v>
+        <v>138.6</v>
       </c>
       <c r="P38" t="n">
-        <v>150</v>
+        <v>147.5</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="n">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="n">
-        <v>74.59999999999999</v>
+        <v>73.16666666666667</v>
       </c>
       <c r="W38" t="n">
-        <v>77.7</v>
+        <v>71.75</v>
       </c>
       <c r="X38" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -2748,66 +2904,66 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>27/12/2023</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>74.578</v>
+        <v>72</v>
       </c>
       <c r="D39" t="n">
-        <v>101.4983333333333</v>
+        <v>105.9375</v>
       </c>
       <c r="E39" t="n">
-        <v>114.5</v>
+        <v>119.03</v>
       </c>
       <c r="F39" t="n">
-        <v>123.5</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="G39" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H39" t="n">
-        <v>70.5</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>79.098</v>
+        <v>83.995</v>
       </c>
       <c r="J39" t="n">
-        <v>71.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L39" t="n">
-        <v>77.33333333333333</v>
+        <v>79</v>
       </c>
       <c r="M39" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N39" t="n">
-        <v>111.5</v>
+        <v>107.5</v>
       </c>
       <c r="O39" t="n">
-        <v>136.3333333333333</v>
+        <v>138.6</v>
       </c>
       <c r="P39" t="n">
-        <v>150</v>
+        <v>147.5</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="n">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="n">
-        <v>74.09999999999999</v>
+        <v>73.1875</v>
       </c>
       <c r="W39" t="n">
-        <v>77.7</v>
+        <v>72.80769230769231</v>
       </c>
       <c r="X39" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
@@ -2816,66 +2972,66 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>74.30714285714285</v>
+        <v>72</v>
       </c>
       <c r="D40" t="n">
-        <v>103.2833333333333</v>
+        <v>106</v>
       </c>
       <c r="E40" t="n">
-        <v>116</v>
+        <v>120.5</v>
       </c>
       <c r="F40" t="n">
-        <v>123.5</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="G40" t="n">
-        <v>127.285</v>
+        <v>130</v>
       </c>
       <c r="H40" t="n">
-        <v>70</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>79.25</v>
+        <v>83.995</v>
       </c>
       <c r="J40" t="n">
-        <v>71.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L40" t="n">
-        <v>77.33333333333333</v>
+        <v>79</v>
       </c>
       <c r="M40" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N40" t="n">
-        <v>111.5</v>
+        <v>107.5</v>
       </c>
       <c r="O40" t="n">
-        <v>136.3333333333333</v>
+        <v>138.6</v>
       </c>
       <c r="P40" t="n">
-        <v>150</v>
+        <v>147.5</v>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="n">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="n">
-        <v>73.55499999999999</v>
+        <v>72.27000000000001</v>
       </c>
       <c r="W40" t="n">
-        <v>76</v>
+        <v>72.125</v>
       </c>
       <c r="X40" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
@@ -2884,66 +3040,66 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>29/12/2023</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>73.90833333333333</v>
+        <v>72</v>
       </c>
       <c r="D41" t="n">
-        <v>101.5</v>
+        <v>105</v>
       </c>
       <c r="E41" t="n">
+        <v>125</v>
+      </c>
+      <c r="F41" t="n">
+        <v>130.6666666666667</v>
+      </c>
+      <c r="G41" t="n">
         <v>116</v>
       </c>
-      <c r="F41" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="G41" t="n">
-        <v>127.285</v>
-      </c>
       <c r="H41" t="n">
-        <v>70.625</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>79.25</v>
+        <v>83.995</v>
       </c>
       <c r="J41" t="n">
-        <v>71.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>68.5</v>
+        <v>69</v>
       </c>
       <c r="L41" t="n">
-        <v>77.33333333333333</v>
+        <v>79</v>
       </c>
       <c r="M41" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N41" t="n">
-        <v>107</v>
+        <v>107.5</v>
       </c>
       <c r="O41" t="n">
-        <v>134.5</v>
+        <v>138.6</v>
       </c>
       <c r="P41" t="n">
-        <v>150</v>
+        <v>147.5</v>
       </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="n">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="n">
-        <v>71.62</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="W41" t="n">
-        <v>71</v>
+        <v>71.4375</v>
       </c>
       <c r="X41" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
@@ -2952,47 +3108,47 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>02/01/2024</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>72.34999999999999</v>
+        <v>75.66666666666667</v>
       </c>
       <c r="D42" t="n">
-        <v>101.7285714285714</v>
+        <v>106.3</v>
       </c>
       <c r="E42" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F42" t="n">
-        <v>123.5</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="G42" t="n">
-        <v>127.285</v>
+        <v>135</v>
       </c>
       <c r="H42" t="n">
-        <v>70.625</v>
+        <v>69</v>
       </c>
       <c r="I42" t="n">
-        <v>77.995</v>
+        <v>83.125</v>
       </c>
       <c r="J42" t="n">
-        <v>72.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K42" t="n">
-        <v>68.16666666666667</v>
+        <v>68.39999999999999</v>
       </c>
       <c r="L42" t="n">
-        <v>76.5</v>
+        <v>79</v>
       </c>
       <c r="M42" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N42" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O42" t="n">
-        <v>132.5</v>
+        <v>138.6</v>
       </c>
       <c r="P42" t="n">
         <v>147.5</v>
@@ -3001,17 +3157,17 @@
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="n">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="n">
-        <v>71.8</v>
+        <v>68.58888888888889</v>
       </c>
       <c r="W42" t="n">
-        <v>74.5</v>
+        <v>69.551</v>
       </c>
       <c r="X42" t="n">
-        <v>73</v>
+        <v>69.25</v>
       </c>
     </row>
     <row r="43">
@@ -3020,47 +3176,47 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>03/01/2024</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>73.625</v>
+        <v>75.66666666666667</v>
       </c>
       <c r="D43" t="n">
-        <v>103</v>
+        <v>107.5726315789474</v>
       </c>
       <c r="E43" t="n">
-        <v>115</v>
+        <v>123.7</v>
       </c>
       <c r="F43" t="n">
-        <v>123.5</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="G43" t="n">
-        <v>127.285</v>
+        <v>135</v>
       </c>
       <c r="H43" t="n">
-        <v>70.625</v>
+        <v>69</v>
       </c>
       <c r="I43" t="n">
-        <v>77.995</v>
+        <v>84.11111111111111</v>
       </c>
       <c r="J43" t="n">
-        <v>72.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K43" t="n">
-        <v>68.16666666666667</v>
+        <v>64.5</v>
       </c>
       <c r="L43" t="n">
-        <v>76.5</v>
+        <v>79.40909090909091</v>
       </c>
       <c r="M43" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N43" t="n">
         <v>105</v>
       </c>
       <c r="O43" t="n">
-        <v>132.5</v>
+        <v>138.6</v>
       </c>
       <c r="P43" t="n">
         <v>147.5</v>
@@ -3069,17 +3225,17 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="n">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="n">
-        <v>71.2</v>
+        <v>68.3625</v>
       </c>
       <c r="W43" t="n">
-        <v>73</v>
+        <v>70.23888888888888</v>
       </c>
       <c r="X43" t="n">
-        <v>73</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="44">
@@ -3088,47 +3244,47 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>04/01/2024</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>74.16666666666667</v>
+        <v>76.58</v>
       </c>
       <c r="D44" t="n">
-        <v>103.25</v>
+        <v>110.1666666666667</v>
       </c>
       <c r="E44" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F44" t="n">
-        <v>123.5</v>
+        <v>133.25</v>
       </c>
       <c r="G44" t="n">
-        <v>127.285</v>
+        <v>135</v>
       </c>
       <c r="H44" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I44" t="n">
-        <v>77.995</v>
+        <v>85.92999999999999</v>
       </c>
       <c r="J44" t="n">
-        <v>72.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>68.16666666666667</v>
+        <v>68.05500000000001</v>
       </c>
       <c r="L44" t="n">
-        <v>76.5</v>
+        <v>80.79400000000001</v>
       </c>
       <c r="M44" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N44" t="n">
-        <v>106.25</v>
+        <v>97</v>
       </c>
       <c r="O44" t="n">
-        <v>132.5</v>
+        <v>138.6</v>
       </c>
       <c r="P44" t="n">
         <v>147.5</v>
@@ -3137,17 +3293,17 @@
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="n">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="n">
-        <v>72.36666666666666</v>
+        <v>68.26875</v>
       </c>
       <c r="W44" t="n">
-        <v>72.33333333333333</v>
+        <v>70.55</v>
       </c>
       <c r="X44" t="n">
-        <v>73</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="45">
@@ -3156,47 +3312,47 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>05/01/2024</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>76.31666666666666</v>
+        <v>77.02888888888889</v>
       </c>
       <c r="D45" t="n">
-        <v>103.5</v>
+        <v>110.7177272727273</v>
       </c>
       <c r="E45" t="n">
-        <v>115</v>
+        <v>126.6666666666667</v>
       </c>
       <c r="F45" t="n">
-        <v>123.5</v>
+        <v>133.25</v>
       </c>
       <c r="G45" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H45" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I45" t="n">
-        <v>77.995</v>
+        <v>86.98466666666667</v>
       </c>
       <c r="J45" t="n">
-        <v>72.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>66.5</v>
+        <v>68</v>
       </c>
       <c r="L45" t="n">
-        <v>77</v>
+        <v>81.3</v>
       </c>
       <c r="M45" t="n">
-        <v>82</v>
+        <v>94.25</v>
       </c>
       <c r="N45" t="n">
-        <v>104.25</v>
+        <v>97</v>
       </c>
       <c r="O45" t="n">
-        <v>132.75</v>
+        <v>138.6</v>
       </c>
       <c r="P45" t="n">
         <v>147.5</v>
@@ -3205,17 +3361,17 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="n">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="n">
-        <v>71.67</v>
+        <v>67.01875</v>
       </c>
       <c r="W45" t="n">
-        <v>72.33333333333333</v>
+        <v>69.00909090909092</v>
       </c>
       <c r="X45" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46">
@@ -3224,47 +3380,47 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>74.19388888888889</v>
+        <v>78.45</v>
       </c>
       <c r="D46" t="n">
-        <v>105.3636363636364</v>
+        <v>114.1496428571429</v>
       </c>
       <c r="E46" t="n">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F46" t="n">
-        <v>124</v>
+        <v>137.995</v>
       </c>
       <c r="G46" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H46" t="n">
-        <v>69.25</v>
+        <v>69</v>
       </c>
       <c r="I46" t="n">
-        <v>79.33333333333333</v>
+        <v>88.643125</v>
       </c>
       <c r="J46" t="n">
-        <v>72.5</v>
+        <v>70</v>
       </c>
       <c r="K46" t="n">
-        <v>66.5</v>
+        <v>68</v>
       </c>
       <c r="L46" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M46" t="n">
-        <v>82</v>
+        <v>98.41416666666667</v>
       </c>
       <c r="N46" t="n">
-        <v>105.375</v>
+        <v>97</v>
       </c>
       <c r="O46" t="n">
-        <v>132.75</v>
+        <v>138.6</v>
       </c>
       <c r="P46" t="n">
         <v>147.5</v>
@@ -3273,17 +3429,19 @@
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="n">
-        <v>122</v>
-      </c>
-      <c r="U46" t="inlineStr"/>
+        <v>110</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
       <c r="V46" t="n">
-        <v>72.27692307692308</v>
+        <v>68.37586206896552</v>
       </c>
       <c r="W46" t="n">
-        <v>72.33333333333333</v>
+        <v>70.75473684210526</v>
       </c>
       <c r="X46" t="n">
-        <v>73</v>
+        <v>70.4375</v>
       </c>
     </row>
     <row r="47">
@@ -3292,47 +3450,47 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>74.95</v>
+        <v>81.22071428571428</v>
       </c>
       <c r="D47" t="n">
-        <v>107.2142857142857</v>
+        <v>123.7875</v>
       </c>
       <c r="E47" t="n">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="F47" t="n">
-        <v>125</v>
+        <v>144.5</v>
       </c>
       <c r="G47" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H47" t="n">
-        <v>69.25</v>
+        <v>69</v>
       </c>
       <c r="I47" t="n">
-        <v>79.75</v>
+        <v>95.61658536585367</v>
       </c>
       <c r="J47" t="n">
-        <v>72.5</v>
+        <v>70</v>
       </c>
       <c r="K47" t="n">
-        <v>67.5</v>
+        <v>70.40454545454546</v>
       </c>
       <c r="L47" t="n">
-        <v>76</v>
+        <v>84.95</v>
       </c>
       <c r="M47" t="n">
-        <v>82</v>
+        <v>105.2714285714286</v>
       </c>
       <c r="N47" t="n">
-        <v>105.375</v>
+        <v>110</v>
       </c>
       <c r="O47" t="n">
-        <v>132.75</v>
+        <v>151</v>
       </c>
       <c r="P47" t="n">
         <v>147.5</v>
@@ -3341,17 +3499,19 @@
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="n">
-        <v>122</v>
-      </c>
-      <c r="U47" t="inlineStr"/>
+        <v>119.5</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
       <c r="V47" t="n">
-        <v>71.81526315789473</v>
+        <v>66.03888888888889</v>
       </c>
       <c r="W47" t="n">
-        <v>72</v>
+        <v>71.17966666666666</v>
       </c>
       <c r="X47" t="n">
-        <v>72</v>
+        <v>70.4375</v>
       </c>
     </row>
     <row r="48">
@@ -3360,66 +3520,68 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>74</v>
+        <v>81.19166666666666</v>
       </c>
       <c r="D48" t="n">
-        <v>106.1</v>
+        <v>124.8271111111111</v>
       </c>
       <c r="E48" t="n">
-        <v>118.3333333333333</v>
+        <v>139.7652941176471</v>
       </c>
       <c r="F48" t="n">
-        <v>124</v>
+        <v>144.6666666666667</v>
       </c>
       <c r="G48" t="n">
-        <v>130</v>
+        <v>149.51</v>
       </c>
       <c r="H48" t="n">
-        <v>68.875</v>
+        <v>68.5</v>
       </c>
       <c r="I48" t="n">
-        <v>79</v>
+        <v>96.73131147540983</v>
       </c>
       <c r="J48" t="n">
-        <v>72.5</v>
+        <v>70</v>
       </c>
       <c r="K48" t="n">
-        <v>67.95</v>
+        <v>70.9175</v>
       </c>
       <c r="L48" t="n">
-        <v>76</v>
+        <v>82.38</v>
       </c>
       <c r="M48" t="n">
-        <v>82</v>
+        <v>106.87375</v>
       </c>
       <c r="N48" t="n">
-        <v>104.25</v>
+        <v>159.325</v>
       </c>
       <c r="O48" t="n">
-        <v>145</v>
+        <v>174.825</v>
       </c>
       <c r="P48" t="n">
-        <v>147.5</v>
+        <v>174</v>
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="n">
-        <v>118</v>
-      </c>
-      <c r="U48" t="inlineStr"/>
+        <v>119.5</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
       <c r="V48" t="n">
-        <v>70.21428571428571</v>
+        <v>64.41089285714285</v>
       </c>
       <c r="W48" t="n">
-        <v>70.625</v>
+        <v>69.38857142857142</v>
       </c>
       <c r="X48" t="n">
-        <v>70.5</v>
+        <v>69.13500000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3428,66 +3590,70 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>74.75</v>
+        <v>78.57142857142857</v>
       </c>
       <c r="D49" t="n">
-        <v>106.94</v>
+        <v>117.5280769230769</v>
       </c>
       <c r="E49" t="n">
-        <v>119.65</v>
+        <v>136.9993333333333</v>
       </c>
       <c r="F49" t="n">
-        <v>127.3</v>
+        <v>141.8333333333333</v>
       </c>
       <c r="G49" t="n">
-        <v>130</v>
+        <v>145.5</v>
       </c>
       <c r="H49" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>90.24947368421053</v>
+      </c>
+      <c r="J49" t="n">
         <v>70</v>
       </c>
-      <c r="I49" t="n">
-        <v>79.66666666666667</v>
-      </c>
-      <c r="J49" t="n">
-        <v>72.5</v>
-      </c>
       <c r="K49" t="n">
-        <v>68</v>
+        <v>69.05555555555556</v>
       </c>
       <c r="L49" t="n">
-        <v>76</v>
+        <v>79.57045454545454</v>
       </c>
       <c r="M49" t="n">
-        <v>82</v>
+        <v>100.9090909090909</v>
       </c>
       <c r="N49" t="n">
-        <v>104.25</v>
+        <v>159.325</v>
       </c>
       <c r="O49" t="n">
-        <v>145</v>
+        <v>174.825</v>
       </c>
       <c r="P49" t="n">
-        <v>147.5</v>
+        <v>174</v>
       </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="S49" t="n">
+        <v>99</v>
+      </c>
       <c r="T49" t="n">
-        <v>110</v>
-      </c>
-      <c r="U49" t="inlineStr"/>
+        <v>120.8333333333333</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.58125</v>
+      </c>
       <c r="V49" t="n">
-        <v>72.09736842105262</v>
+        <v>64.58499999999999</v>
       </c>
       <c r="W49" t="n">
-        <v>71.75</v>
+        <v>67.6837837837838</v>
       </c>
       <c r="X49" t="n">
-        <v>70.5</v>
+        <v>68.1152</v>
       </c>
     </row>
     <row r="50">
@@ -3496,66 +3662,70 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>12/01/2024</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>75.21428571428571</v>
+        <v>80.16666666666667</v>
       </c>
       <c r="D50" t="n">
-        <v>107.4222222222222</v>
+        <v>123.0051282051282</v>
       </c>
       <c r="E50" t="n">
-        <v>116</v>
+        <v>138.6666666666667</v>
       </c>
       <c r="F50" t="n">
-        <v>127.3</v>
+        <v>141.8333333333333</v>
       </c>
       <c r="G50" t="n">
-        <v>130</v>
+        <v>145.5</v>
       </c>
       <c r="H50" t="n">
-        <v>70.55</v>
+        <v>68.5</v>
       </c>
       <c r="I50" t="n">
-        <v>80.75</v>
+        <v>93.6430303030303</v>
       </c>
       <c r="J50" t="n">
-        <v>72.5</v>
+        <v>70</v>
       </c>
       <c r="K50" t="n">
-        <v>68</v>
+        <v>69.6225</v>
       </c>
       <c r="L50" t="n">
-        <v>76</v>
+        <v>82.19090909090909</v>
       </c>
       <c r="M50" t="n">
-        <v>82</v>
+        <v>105.5</v>
       </c>
       <c r="N50" t="n">
-        <v>106.5</v>
+        <v>106</v>
       </c>
       <c r="O50" t="n">
-        <v>141</v>
+        <v>153.5</v>
       </c>
       <c r="P50" t="n">
-        <v>147.5</v>
+        <v>174</v>
       </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="S50" t="n">
+        <v>99</v>
+      </c>
       <c r="T50" t="n">
-        <v>110</v>
-      </c>
-      <c r="U50" t="inlineStr"/>
+        <v>125</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.6</v>
+      </c>
       <c r="V50" t="n">
-        <v>74.65890909090909</v>
+        <v>64.52</v>
       </c>
       <c r="W50" t="n">
-        <v>73.5</v>
+        <v>68.375</v>
       </c>
       <c r="X50" t="n">
-        <v>70.5</v>
+        <v>68.73166666666667</v>
       </c>
     </row>
     <row r="51">
@@ -3564,66 +3734,70 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>15/01/2024</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>75.5</v>
+        <v>80.72375</v>
       </c>
       <c r="D51" t="n">
-        <v>107.8316666666667</v>
+        <v>122.6718181818182</v>
       </c>
       <c r="E51" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F51" t="n">
-        <v>127</v>
+        <v>141.8333333333333</v>
       </c>
       <c r="G51" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="H51" t="n">
-        <v>70.25</v>
+        <v>68.5</v>
       </c>
       <c r="I51" t="n">
-        <v>81.40000000000001</v>
+        <v>93.85981818181818</v>
       </c>
       <c r="J51" t="n">
-        <v>72.5</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K51" t="n">
-        <v>69.5</v>
+        <v>69.34307692307692</v>
       </c>
       <c r="L51" t="n">
-        <v>76</v>
+        <v>82.565</v>
       </c>
       <c r="M51" t="n">
-        <v>82</v>
+        <v>105.5833333333333</v>
       </c>
       <c r="N51" t="n">
-        <v>103.1333333333333</v>
+        <v>106</v>
       </c>
       <c r="O51" t="n">
-        <v>141.5</v>
+        <v>155</v>
       </c>
       <c r="P51" t="n">
-        <v>147.5</v>
+        <v>174</v>
       </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="S51" t="n">
+        <v>99</v>
+      </c>
       <c r="T51" t="n">
-        <v>110</v>
-      </c>
-      <c r="U51" t="inlineStr"/>
+        <v>125</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
       <c r="V51" t="n">
-        <v>73.82222222222222</v>
+        <v>64.56206896551724</v>
       </c>
       <c r="W51" t="n">
-        <v>73.5</v>
+        <v>67.97999999999999</v>
       </c>
       <c r="X51" t="n">
-        <v>70.5</v>
+        <v>68.22222222222223</v>
       </c>
     </row>
     <row r="52">
@@ -3632,66 +3806,70 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>16/01/2024</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>74.7475</v>
+        <v>77.39749999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>108.5</v>
+        <v>117.7789795918367</v>
       </c>
       <c r="E52" t="n">
-        <v>121</v>
+        <v>136.5833333333333</v>
       </c>
       <c r="F52" t="n">
-        <v>130</v>
+        <v>139.3333333333333</v>
       </c>
       <c r="G52" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="H52" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I52" t="n">
-        <v>83</v>
+        <v>89.77933333333334</v>
       </c>
       <c r="J52" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K52" t="n">
-        <v>69.5</v>
+        <v>67.46428571428571</v>
       </c>
       <c r="L52" t="n">
-        <v>76</v>
+        <v>80.7590625</v>
       </c>
       <c r="M52" t="n">
-        <v>82</v>
+        <v>99.41466666666666</v>
       </c>
       <c r="N52" t="n">
-        <v>102.325</v>
+        <v>111</v>
       </c>
       <c r="O52" t="n">
-        <v>141.5</v>
+        <v>145</v>
       </c>
       <c r="P52" t="n">
-        <v>147.5</v>
+        <v>174</v>
       </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
+      <c r="S52" t="n">
+        <v>99</v>
+      </c>
       <c r="T52" t="n">
-        <v>110</v>
-      </c>
-      <c r="U52" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.5666666666666667</v>
+      </c>
       <c r="V52" t="n">
-        <v>74.15833333333333</v>
+        <v>64.09027777777777</v>
       </c>
       <c r="W52" t="n">
-        <v>73.5</v>
+        <v>66.19466666666668</v>
       </c>
       <c r="X52" t="n">
-        <v>70.5</v>
+        <v>66.72851851851853</v>
       </c>
     </row>
     <row r="53">
@@ -3700,66 +3878,70 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>17/01/2024</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>76</v>
+        <v>77.39749999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>108.5</v>
+        <v>116.4174285714286</v>
       </c>
       <c r="E53" t="n">
-        <v>121</v>
+        <v>134.625</v>
       </c>
       <c r="F53" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G53" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="H53" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I53" t="n">
-        <v>82.5</v>
+        <v>88.87617647058823</v>
       </c>
       <c r="J53" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>69.5</v>
+        <v>67.78571428571429</v>
       </c>
       <c r="L53" t="n">
-        <v>77.5</v>
+        <v>79.7769387755102</v>
       </c>
       <c r="M53" t="n">
-        <v>82</v>
+        <v>97.48</v>
       </c>
       <c r="N53" t="n">
-        <v>102.325</v>
+        <v>111</v>
       </c>
       <c r="O53" t="n">
-        <v>154.2</v>
+        <v>150.5</v>
       </c>
       <c r="P53" t="n">
-        <v>147.5</v>
+        <v>174</v>
       </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="S53" t="n">
+        <v>99</v>
+      </c>
       <c r="T53" t="n">
-        <v>110</v>
-      </c>
-      <c r="U53" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.67375</v>
+      </c>
       <c r="V53" t="n">
-        <v>72.89999999999999</v>
+        <v>63.6355</v>
       </c>
       <c r="W53" t="n">
-        <v>73.5</v>
+        <v>66.32871794871795</v>
       </c>
       <c r="X53" t="n">
-        <v>70.5</v>
+        <v>66.75833333333334</v>
       </c>
     </row>
     <row r="54">
@@ -3768,66 +3950,70 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>18/12/2023</t>
+          <t>18/01/2024</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>73</v>
+        <v>75.75</v>
       </c>
       <c r="D54" t="n">
-        <v>110.6818181818182</v>
+        <v>111.5074576271186</v>
       </c>
       <c r="E54" t="n">
-        <v>123</v>
+        <v>130.9282608695652</v>
       </c>
       <c r="F54" t="n">
-        <v>130</v>
+        <v>136.0666666666667</v>
       </c>
       <c r="G54" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="H54" t="n">
-        <v>71.46666666666667</v>
+        <v>67</v>
       </c>
       <c r="I54" t="n">
-        <v>84.5</v>
+        <v>85.05632352941177</v>
       </c>
       <c r="J54" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K54" t="n">
-        <v>68</v>
+        <v>66.80833333333334</v>
       </c>
       <c r="L54" t="n">
-        <v>81</v>
+        <v>77.65283333333333</v>
       </c>
       <c r="M54" t="n">
-        <v>82</v>
+        <v>92.89999999999999</v>
       </c>
       <c r="N54" t="n">
-        <v>102.325</v>
+        <v>103</v>
       </c>
       <c r="O54" t="n">
-        <v>154.2</v>
+        <v>145.9333333333333</v>
       </c>
       <c r="P54" t="n">
-        <v>147.5</v>
+        <v>174</v>
       </c>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
+      <c r="S54" t="n">
+        <v>99</v>
+      </c>
       <c r="T54" t="n">
-        <v>110</v>
-      </c>
-      <c r="U54" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.5555555555555556</v>
+      </c>
       <c r="V54" t="n">
-        <v>76.56812499999999</v>
+        <v>62.584375</v>
       </c>
       <c r="W54" t="n">
-        <v>74.714</v>
+        <v>64.53727272727272</v>
       </c>
       <c r="X54" t="n">
-        <v>74</v>
+        <v>65.87709677419355</v>
       </c>
     </row>
     <row r="55">
@@ -3836,66 +4022,70 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>19/12/2023</t>
+          <t>19/01/2024</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>74.34</v>
+        <v>75.75</v>
       </c>
       <c r="D55" t="n">
-        <v>107.5625</v>
+        <v>114.1885714285714</v>
       </c>
       <c r="E55" t="n">
-        <v>122.9166666666667</v>
+        <v>123.4</v>
       </c>
       <c r="F55" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G55" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="H55" t="n">
-        <v>69.97777777777777</v>
+        <v>67</v>
       </c>
       <c r="I55" t="n">
-        <v>80.755</v>
+        <v>86.12666666666668</v>
       </c>
       <c r="J55" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K55" t="n">
-        <v>68</v>
+        <v>66.90416666666667</v>
       </c>
       <c r="L55" t="n">
-        <v>77.96666666666667</v>
+        <v>77.41666666666667</v>
       </c>
       <c r="M55" t="n">
-        <v>84</v>
+        <v>95.25</v>
       </c>
       <c r="N55" t="n">
-        <v>102.325</v>
+        <v>108.5</v>
       </c>
       <c r="O55" t="n">
-        <v>141</v>
+        <v>145.9333333333333</v>
       </c>
       <c r="P55" t="n">
-        <v>147.5</v>
+        <v>174</v>
       </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
+      <c r="S55" t="n">
+        <v>99</v>
+      </c>
       <c r="T55" t="n">
-        <v>110</v>
-      </c>
-      <c r="U55" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.4285714285714285</v>
+      </c>
       <c r="V55" t="n">
-        <v>71.16441176470589</v>
+        <v>62.15</v>
       </c>
       <c r="W55" t="n">
-        <v>71.25</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="X55" t="n">
-        <v>70.41666666666667</v>
+        <v>65.14285714285714</v>
       </c>
     </row>
     <row r="56">
@@ -3904,66 +4094,70 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>20/12/2023</t>
+          <t>22/01/2024</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>75.5</v>
+        <v>78</v>
       </c>
       <c r="D56" t="n">
-        <v>109.0555555555556</v>
+        <v>119.8415789473684</v>
       </c>
       <c r="E56" t="n">
-        <v>120.5</v>
+        <v>135.5833333333333</v>
       </c>
       <c r="F56" t="n">
-        <v>130</v>
+        <v>140.5</v>
       </c>
       <c r="G56" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="H56" t="n">
-        <v>71.5</v>
+        <v>67</v>
       </c>
       <c r="I56" t="n">
-        <v>82.93625</v>
+        <v>90.68212765957448</v>
       </c>
       <c r="J56" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K56" t="n">
-        <v>68.88888888888889</v>
+        <v>67.98076923076923</v>
       </c>
       <c r="L56" t="n">
-        <v>77.96666666666667</v>
+        <v>80.73218749999999</v>
       </c>
       <c r="M56" t="n">
-        <v>84</v>
+        <v>99.001875</v>
       </c>
       <c r="N56" t="n">
-        <v>107</v>
+        <v>108.5</v>
       </c>
       <c r="O56" t="n">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="P56" t="n">
-        <v>147.5</v>
+        <v>174</v>
       </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+      <c r="S56" t="n">
+        <v>99</v>
+      </c>
       <c r="T56" t="n">
-        <v>110</v>
-      </c>
-      <c r="U56" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.6333333333333333</v>
+      </c>
       <c r="V56" t="n">
-        <v>72.9825</v>
+        <v>63</v>
       </c>
       <c r="W56" t="n">
-        <v>72</v>
+        <v>64.60640000000001</v>
       </c>
       <c r="X56" t="n">
-        <v>70</v>
+        <v>65.69642857142857</v>
       </c>
     </row>
     <row r="57">
@@ -3972,66 +4166,70 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>21/12/2023</t>
+          <t>23/01/2024</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>76.42857142857143</v>
+        <v>81.33333333333333</v>
       </c>
       <c r="D57" t="n">
-        <v>106.3875</v>
+        <v>123.84</v>
       </c>
       <c r="E57" t="n">
-        <v>121.75</v>
+        <v>139.1428571428571</v>
       </c>
       <c r="F57" t="n">
-        <v>131</v>
+        <v>141.5</v>
       </c>
       <c r="G57" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="H57" t="n">
-        <v>70.83333333333333</v>
+        <v>68.5</v>
       </c>
       <c r="I57" t="n">
-        <v>82.7</v>
+        <v>96.72918367346938</v>
       </c>
       <c r="J57" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>68.875</v>
+        <v>68.72222222222223</v>
       </c>
       <c r="L57" t="n">
-        <v>80</v>
+        <v>84.36428571428571</v>
       </c>
       <c r="M57" t="n">
-        <v>84</v>
+        <v>107.1055172413793</v>
       </c>
       <c r="N57" t="n">
-        <v>107</v>
+        <v>108.5</v>
       </c>
       <c r="O57" t="n">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="P57" t="n">
-        <v>147.5</v>
+        <v>174</v>
       </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
+      <c r="S57" t="n">
+        <v>99</v>
+      </c>
       <c r="T57" t="n">
-        <v>110</v>
-      </c>
-      <c r="U57" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.7</v>
+      </c>
       <c r="V57" t="n">
-        <v>72.28571428571429</v>
+        <v>62.17285714285714</v>
       </c>
       <c r="W57" t="n">
-        <v>72</v>
+        <v>65.325</v>
       </c>
       <c r="X57" t="n">
-        <v>70</v>
+        <v>66.55833333333334</v>
       </c>
     </row>
     <row r="58">
@@ -4040,66 +4238,72 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>22/12/2023</t>
+          <t>24/01/2024</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>76.8</v>
+        <v>80.75</v>
       </c>
       <c r="D58" t="n">
-        <v>106.4444444444444</v>
+        <v>125.218125</v>
       </c>
       <c r="E58" t="n">
-        <v>118.5</v>
+        <v>140.8125</v>
       </c>
       <c r="F58" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G58" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="H58" t="n">
-        <v>70.83333333333333</v>
+        <v>64.75</v>
       </c>
       <c r="I58" t="n">
-        <v>83.47555555555556</v>
+        <v>95.73343749999999</v>
       </c>
       <c r="J58" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>69.16666666666667</v>
+        <v>67</v>
       </c>
       <c r="L58" t="n">
-        <v>79.75</v>
+        <v>83.93205128205128</v>
       </c>
       <c r="M58" t="n">
-        <v>84</v>
+        <v>107.6188888888889</v>
       </c>
       <c r="N58" t="n">
-        <v>107.5</v>
+        <v>108.5</v>
       </c>
       <c r="O58" t="n">
-        <v>138.6</v>
+        <v>158</v>
       </c>
       <c r="P58" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="Q58" t="inlineStr"/>
+        <v>174</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>181.25</v>
+      </c>
       <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="S58" t="n">
+        <v>99</v>
+      </c>
       <c r="T58" t="n">
-        <v>110</v>
-      </c>
-      <c r="U58" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.625</v>
+      </c>
       <c r="V58" t="n">
-        <v>73.31588235294117</v>
+        <v>61.98333333333333</v>
       </c>
       <c r="W58" t="n">
-        <v>71.75</v>
+        <v>64.2</v>
       </c>
       <c r="X58" t="n">
-        <v>70</v>
+        <v>65.33333333333333</v>
       </c>
     </row>
     <row r="59">
@@ -4108,66 +4312,74 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>26/12/2023</t>
+          <t>25/01/2024</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>75.83333333333333</v>
+        <v>82.53333333333333</v>
       </c>
       <c r="D59" t="n">
-        <v>106.4333333333333</v>
+        <v>128.2357692307692</v>
       </c>
       <c r="E59" t="n">
-        <v>117.4666666666667</v>
+        <v>142.1371428571429</v>
       </c>
       <c r="F59" t="n">
-        <v>121.8</v>
+        <v>143.5725</v>
       </c>
       <c r="G59" t="n">
-        <v>130</v>
+        <v>148.5166666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>70.83333333333333</v>
+        <v>64.75</v>
       </c>
       <c r="I59" t="n">
-        <v>83.995</v>
+        <v>99.5244776119403</v>
       </c>
       <c r="J59" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K59" t="n">
-        <v>69.16666666666667</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="L59" t="n">
-        <v>79.75</v>
+        <v>85.8155</v>
       </c>
       <c r="M59" t="n">
-        <v>84</v>
+        <v>113.0117948717949</v>
       </c>
       <c r="N59" t="n">
-        <v>107.5</v>
+        <v>108.5</v>
       </c>
       <c r="O59" t="n">
-        <v>138.6</v>
+        <v>158</v>
       </c>
       <c r="P59" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
+        <v>171</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>173</v>
+      </c>
+      <c r="R59" t="n">
+        <v>174</v>
+      </c>
+      <c r="S59" t="n">
+        <v>99</v>
+      </c>
       <c r="T59" t="n">
-        <v>110</v>
-      </c>
-      <c r="U59" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.575</v>
+      </c>
       <c r="V59" t="n">
-        <v>73.16666666666667</v>
+        <v>62</v>
       </c>
       <c r="W59" t="n">
-        <v>71.75</v>
+        <v>64.13333333333334</v>
       </c>
       <c r="X59" t="n">
-        <v>70</v>
+        <v>65.25</v>
       </c>
     </row>
     <row r="60">
@@ -4176,66 +4388,74 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>27/12/2023</t>
+          <t>26/01/2024</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D60" t="n">
-        <v>105.9375</v>
+        <v>135.400985915493</v>
       </c>
       <c r="E60" t="n">
-        <v>119.03</v>
+        <v>148.9295238095238</v>
       </c>
       <c r="F60" t="n">
-        <v>130.6666666666667</v>
+        <v>152</v>
       </c>
       <c r="G60" t="n">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="H60" t="n">
-        <v>70.43000000000001</v>
+        <v>64.75</v>
       </c>
       <c r="I60" t="n">
-        <v>83.995</v>
+        <v>111.2851572327044</v>
       </c>
       <c r="J60" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>69</v>
+        <v>69.905</v>
       </c>
       <c r="L60" t="n">
-        <v>79</v>
+        <v>91.09575757575757</v>
       </c>
       <c r="M60" t="n">
-        <v>84</v>
+        <v>125.8727884615385</v>
       </c>
       <c r="N60" t="n">
-        <v>107.5</v>
+        <v>108.5</v>
       </c>
       <c r="O60" t="n">
-        <v>138.6</v>
+        <v>168</v>
       </c>
       <c r="P60" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
+        <v>183.25</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>173</v>
+      </c>
+      <c r="R60" t="n">
+        <v>174</v>
+      </c>
+      <c r="S60" t="n">
+        <v>99</v>
+      </c>
       <c r="T60" t="n">
-        <v>110</v>
-      </c>
-      <c r="U60" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.66875</v>
+      </c>
       <c r="V60" t="n">
-        <v>73.1875</v>
+        <v>62</v>
       </c>
       <c r="W60" t="n">
-        <v>72.80769230769231</v>
+        <v>64.7</v>
       </c>
       <c r="X60" t="n">
-        <v>70</v>
+        <v>66.995</v>
       </c>
     </row>
     <row r="61">
@@ -4244,66 +4464,74 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>28/12/2023</t>
+          <t>27/01/2024</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D61" t="n">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E61" t="n">
-        <v>120.5</v>
+        <v>148.9295238095238</v>
       </c>
       <c r="F61" t="n">
-        <v>130.6666666666667</v>
+        <v>152</v>
       </c>
       <c r="G61" t="n">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="H61" t="n">
-        <v>70.43000000000001</v>
+        <v>64.75</v>
       </c>
       <c r="I61" t="n">
-        <v>83.995</v>
+        <v>111.2851572327044</v>
       </c>
       <c r="J61" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K61" t="n">
-        <v>69</v>
+        <v>69.905</v>
       </c>
       <c r="L61" t="n">
-        <v>79</v>
+        <v>91.09575757575757</v>
       </c>
       <c r="M61" t="n">
-        <v>84</v>
+        <v>125.8727884615385</v>
       </c>
       <c r="N61" t="n">
-        <v>107.5</v>
+        <v>108.5</v>
       </c>
       <c r="O61" t="n">
-        <v>138.6</v>
+        <v>168</v>
       </c>
       <c r="P61" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
+        <v>183.25</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>173</v>
+      </c>
+      <c r="R61" t="n">
+        <v>174</v>
+      </c>
+      <c r="S61" t="n">
+        <v>99</v>
+      </c>
       <c r="T61" t="n">
-        <v>110</v>
-      </c>
-      <c r="U61" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.66875</v>
+      </c>
       <c r="V61" t="n">
-        <v>72.27000000000001</v>
+        <v>62</v>
       </c>
       <c r="W61" t="n">
-        <v>72.125</v>
+        <v>64.7</v>
       </c>
       <c r="X61" t="n">
-        <v>70</v>
+        <v>66.995</v>
       </c>
     </row>
     <row r="62">
@@ -4312,66 +4540,74 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>29/01/2024</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>72</v>
+        <v>89.5</v>
       </c>
       <c r="D62" t="n">
-        <v>105</v>
+        <v>139.2049206349206</v>
       </c>
       <c r="E62" t="n">
-        <v>125</v>
+        <v>149.8333333333333</v>
       </c>
       <c r="F62" t="n">
-        <v>130.6666666666667</v>
+        <v>152.3</v>
       </c>
       <c r="G62" t="n">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="H62" t="n">
-        <v>70.43000000000001</v>
+        <v>64.75</v>
       </c>
       <c r="I62" t="n">
-        <v>83.995</v>
+        <v>110.9675</v>
       </c>
       <c r="J62" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>69</v>
+        <v>69.94333333333334</v>
       </c>
       <c r="L62" t="n">
-        <v>79</v>
+        <v>92.2030303030303</v>
       </c>
       <c r="M62" t="n">
-        <v>84</v>
+        <v>130.7754716981132</v>
       </c>
       <c r="N62" t="n">
-        <v>107.5</v>
+        <v>120</v>
       </c>
       <c r="O62" t="n">
-        <v>138.6</v>
+        <v>175</v>
       </c>
       <c r="P62" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
+        <v>185</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>188</v>
+      </c>
+      <c r="R62" t="n">
+        <v>174</v>
+      </c>
+      <c r="S62" t="n">
+        <v>99</v>
+      </c>
       <c r="T62" t="n">
-        <v>110</v>
-      </c>
-      <c r="U62" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.6863636363636364</v>
+      </c>
       <c r="V62" t="n">
-        <v>71.33333333333333</v>
+        <v>62.075</v>
       </c>
       <c r="W62" t="n">
-        <v>71.4375</v>
+        <v>64.64</v>
       </c>
       <c r="X62" t="n">
-        <v>70</v>
+        <v>66.02500000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4380,66 +4616,74 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>02/01/2024</t>
+          <t>30/01/2024</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>75.66666666666667</v>
+        <v>86.58</v>
       </c>
       <c r="D63" t="n">
-        <v>106.3</v>
+        <v>137.0495555555555</v>
       </c>
       <c r="E63" t="n">
-        <v>125</v>
+        <v>144.8125</v>
       </c>
       <c r="F63" t="n">
-        <v>130.6666666666667</v>
+        <v>148.125</v>
       </c>
       <c r="G63" t="n">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="H63" t="n">
-        <v>69</v>
+        <v>64.75</v>
       </c>
       <c r="I63" t="n">
-        <v>83.125</v>
+        <v>107.7653947368421</v>
       </c>
       <c r="J63" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>68.39999999999999</v>
+        <v>69.15323529411765</v>
       </c>
       <c r="L63" t="n">
-        <v>79</v>
+        <v>88.65657142857143</v>
       </c>
       <c r="M63" t="n">
-        <v>84</v>
+        <v>127.7072413793103</v>
       </c>
       <c r="N63" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="O63" t="n">
-        <v>138.6</v>
+        <v>175</v>
       </c>
       <c r="P63" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
+        <v>185</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>188</v>
+      </c>
+      <c r="R63" t="n">
+        <v>174</v>
+      </c>
+      <c r="S63" t="n">
+        <v>99</v>
+      </c>
       <c r="T63" t="n">
-        <v>110</v>
-      </c>
-      <c r="U63" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.6333333333333333</v>
+      </c>
       <c r="V63" t="n">
-        <v>68.58888888888889</v>
+        <v>62</v>
       </c>
       <c r="W63" t="n">
-        <v>69.551</v>
+        <v>63.73363636363637</v>
       </c>
       <c r="X63" t="n">
-        <v>69.25</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="64">
@@ -4448,66 +4692,74 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>03/01/2024</t>
+          <t>31/01/2024</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>75.66666666666667</v>
+        <v>85.625</v>
       </c>
       <c r="D64" t="n">
-        <v>107.5726315789474</v>
+        <v>136.2977272727273</v>
       </c>
       <c r="E64" t="n">
-        <v>123.7</v>
+        <v>146</v>
       </c>
       <c r="F64" t="n">
-        <v>130.6666666666667</v>
+        <v>148.3333333333333</v>
       </c>
       <c r="G64" t="n">
-        <v>135</v>
+        <v>150.0066666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>69</v>
+        <v>64.75</v>
       </c>
       <c r="I64" t="n">
-        <v>84.11111111111111</v>
+        <v>106.7851219512195</v>
       </c>
       <c r="J64" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K64" t="n">
-        <v>64.5</v>
+        <v>68.97057142857142</v>
       </c>
       <c r="L64" t="n">
-        <v>79.40909090909091</v>
+        <v>88.10166666666667</v>
       </c>
       <c r="M64" t="n">
-        <v>84</v>
+        <v>126.2587804878049</v>
       </c>
       <c r="N64" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="O64" t="n">
-        <v>138.6</v>
+        <v>170.75</v>
       </c>
       <c r="P64" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
+        <v>185</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>188</v>
+      </c>
+      <c r="R64" t="n">
+        <v>174</v>
+      </c>
+      <c r="S64" t="n">
+        <v>99</v>
+      </c>
       <c r="T64" t="n">
-        <v>110</v>
-      </c>
-      <c r="U64" t="inlineStr"/>
+        <v>136.5</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.6115625</v>
+      </c>
       <c r="V64" t="n">
-        <v>68.3625</v>
+        <v>63.06</v>
       </c>
       <c r="W64" t="n">
-        <v>70.23888888888888</v>
+        <v>64.26666666666667</v>
       </c>
       <c r="X64" t="n">
-        <v>68.8</v>
+        <v>66.42761904761905</v>
       </c>
     </row>
     <row r="65">
@@ -4516,66 +4768,74 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>04/01/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>76.58</v>
+        <v>88.41666666666667</v>
       </c>
       <c r="D65" t="n">
-        <v>110.1666666666667</v>
+        <v>137.2878947368421</v>
       </c>
       <c r="E65" t="n">
-        <v>127</v>
+        <v>135.5</v>
       </c>
       <c r="F65" t="n">
-        <v>133.25</v>
+        <v>148</v>
       </c>
       <c r="G65" t="n">
-        <v>135</v>
+        <v>150.0066666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>69</v>
+        <v>64.75</v>
       </c>
       <c r="I65" t="n">
-        <v>85.92999999999999</v>
+        <v>109.2476811594203</v>
       </c>
       <c r="J65" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K65" t="n">
-        <v>68.05500000000001</v>
+        <v>70.49163265306123</v>
       </c>
       <c r="L65" t="n">
-        <v>80.79400000000001</v>
+        <v>89.99432432432432</v>
       </c>
       <c r="M65" t="n">
-        <v>90</v>
+        <v>128.4413461538462</v>
       </c>
       <c r="N65" t="n">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="O65" t="n">
-        <v>138.6</v>
+        <v>174</v>
       </c>
       <c r="P65" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
+        <v>182</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>188</v>
+      </c>
+      <c r="R65" t="n">
+        <v>174</v>
+      </c>
+      <c r="S65" t="n">
+        <v>99</v>
+      </c>
       <c r="T65" t="n">
-        <v>110</v>
-      </c>
-      <c r="U65" t="inlineStr"/>
+        <v>136.5</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.5764077669902913</v>
+      </c>
       <c r="V65" t="n">
-        <v>68.26875</v>
+        <v>62</v>
       </c>
       <c r="W65" t="n">
-        <v>70.55</v>
+        <v>64.9375</v>
       </c>
       <c r="X65" t="n">
-        <v>70.5</v>
+        <v>65.62857142857142</v>
       </c>
     </row>
     <row r="66">
@@ -4584,66 +4844,74 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>05/01/2024</t>
+          <t>02/02/2024</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>77.02888888888889</v>
+        <v>91</v>
       </c>
       <c r="D66" t="n">
-        <v>110.7177272727273</v>
+        <v>143.1755102040816</v>
       </c>
       <c r="E66" t="n">
-        <v>126.6666666666667</v>
+        <v>150.515</v>
       </c>
       <c r="F66" t="n">
-        <v>133.25</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="G66" t="n">
-        <v>135</v>
+        <v>151.125</v>
       </c>
       <c r="H66" t="n">
-        <v>69</v>
+        <v>64.75</v>
       </c>
       <c r="I66" t="n">
-        <v>86.98466666666667</v>
+        <v>115.3198765432099</v>
       </c>
       <c r="J66" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K66" t="n">
-        <v>68</v>
+        <v>70.52352941176471</v>
       </c>
       <c r="L66" t="n">
-        <v>81.3</v>
+        <v>95.02445945945946</v>
       </c>
       <c r="M66" t="n">
-        <v>94.25</v>
+        <v>134.3290607734807</v>
       </c>
       <c r="N66" t="n">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="O66" t="n">
-        <v>138.6</v>
+        <v>174</v>
       </c>
       <c r="P66" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
+        <v>185.75</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>188</v>
+      </c>
+      <c r="R66" t="n">
+        <v>174</v>
+      </c>
+      <c r="S66" t="n">
+        <v>99</v>
+      </c>
       <c r="T66" t="n">
-        <v>110</v>
-      </c>
-      <c r="U66" t="inlineStr"/>
+        <v>136.5</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.6796153846153846</v>
+      </c>
       <c r="V66" t="n">
-        <v>67.01875</v>
+        <v>62</v>
       </c>
       <c r="W66" t="n">
-        <v>69.00909090909092</v>
+        <v>64</v>
       </c>
       <c r="X66" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67">
@@ -4652,68 +4920,74 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>05/02/2024</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>78.45</v>
+        <v>99.7</v>
       </c>
       <c r="D67" t="n">
-        <v>114.1496428571429</v>
+        <v>158.7576315789474</v>
       </c>
       <c r="E67" t="n">
-        <v>131</v>
+        <v>160.18125</v>
       </c>
       <c r="F67" t="n">
-        <v>137.995</v>
+        <v>158.6125</v>
       </c>
       <c r="G67" t="n">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="H67" t="n">
-        <v>69</v>
+        <v>64.75</v>
       </c>
       <c r="I67" t="n">
-        <v>88.643125</v>
+        <v>134.9989583333333</v>
       </c>
       <c r="J67" t="n">
-        <v>70</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K67" t="n">
-        <v>68</v>
+        <v>74.10395833333332</v>
       </c>
       <c r="L67" t="n">
-        <v>81</v>
+        <v>113.6128099173554</v>
       </c>
       <c r="M67" t="n">
-        <v>98.41416666666667</v>
+        <v>158.9619230769231</v>
       </c>
       <c r="N67" t="n">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="O67" t="n">
-        <v>138.6</v>
+        <v>197</v>
       </c>
       <c r="P67" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
+        <v>197</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>199</v>
+      </c>
+      <c r="R67" t="n">
+        <v>174</v>
+      </c>
+      <c r="S67" t="n">
+        <v>99</v>
+      </c>
       <c r="T67" t="n">
-        <v>110</v>
+        <v>136.5</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>0.4512962962962963</v>
       </c>
       <c r="V67" t="n">
-        <v>68.37586206896552</v>
+        <v>60</v>
       </c>
       <c r="W67" t="n">
-        <v>70.75473684210526</v>
+        <v>63.5</v>
       </c>
       <c r="X67" t="n">
-        <v>70.4375</v>
+        <v>68.14583333333333</v>
       </c>
     </row>
     <row r="68">
@@ -4722,68 +4996,74 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>09/01/2024</t>
+          <t>06/02/2024</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>81.22071428571428</v>
+        <v>116.8</v>
       </c>
       <c r="D68" t="n">
-        <v>123.7875</v>
+        <v>175.6537704918033</v>
       </c>
       <c r="E68" t="n">
-        <v>141</v>
+        <v>169.0621621621622</v>
       </c>
       <c r="F68" t="n">
-        <v>144.5</v>
+        <v>166.4045454545455</v>
       </c>
       <c r="G68" t="n">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="H68" t="n">
-        <v>69</v>
+        <v>64.75</v>
       </c>
       <c r="I68" t="n">
-        <v>95.61658536585367</v>
+        <v>166.6695726495726</v>
       </c>
       <c r="J68" t="n">
-        <v>70</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>70.40454545454546</v>
+        <v>76.63704918032786</v>
       </c>
       <c r="L68" t="n">
-        <v>84.95</v>
+        <v>146.1977659574468</v>
       </c>
       <c r="M68" t="n">
-        <v>105.2714285714286</v>
+        <v>184.10796875</v>
       </c>
       <c r="N68" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O68" t="n">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="P68" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
+        <v>197</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>199</v>
+      </c>
+      <c r="R68" t="n">
+        <v>174</v>
+      </c>
+      <c r="S68" t="n">
+        <v>99</v>
+      </c>
       <c r="T68" t="n">
-        <v>119.5</v>
+        <v>200</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>0.6175757575757576</v>
       </c>
       <c r="V68" t="n">
-        <v>66.03888888888889</v>
+        <v>60</v>
       </c>
       <c r="W68" t="n">
-        <v>71.17966666666666</v>
+        <v>63.66666666666666</v>
       </c>
       <c r="X68" t="n">
-        <v>70.4375</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="69">
@@ -4792,68 +5072,74 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>07/02/2024</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>81.19166666666666</v>
+        <v>111</v>
       </c>
       <c r="D69" t="n">
-        <v>124.8271111111111</v>
+        <v>173.07</v>
       </c>
       <c r="E69" t="n">
-        <v>139.7652941176471</v>
+        <v>164.275</v>
       </c>
       <c r="F69" t="n">
-        <v>144.6666666666667</v>
+        <v>160</v>
       </c>
       <c r="G69" t="n">
-        <v>149.51</v>
+        <v>158</v>
       </c>
       <c r="H69" t="n">
-        <v>68.5</v>
+        <v>64.75</v>
       </c>
       <c r="I69" t="n">
-        <v>96.73131147540983</v>
+        <v>157.9772093023256</v>
       </c>
       <c r="J69" t="n">
-        <v>70</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K69" t="n">
-        <v>70.9175</v>
+        <v>73.33879999999999</v>
       </c>
       <c r="L69" t="n">
-        <v>82.38</v>
+        <v>140.0048905109489</v>
       </c>
       <c r="M69" t="n">
-        <v>106.87375</v>
+        <v>179.4702197802198</v>
       </c>
       <c r="N69" t="n">
-        <v>159.325</v>
+        <v>120</v>
       </c>
       <c r="O69" t="n">
-        <v>174.825</v>
+        <v>213</v>
       </c>
       <c r="P69" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>199</v>
+      </c>
+      <c r="R69" t="n">
         <v>174</v>
       </c>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
+      <c r="S69" t="n">
+        <v>99</v>
+      </c>
       <c r="T69" t="n">
-        <v>119.5</v>
+        <v>200</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>0.5236585365853659</v>
       </c>
       <c r="V69" t="n">
-        <v>64.41089285714285</v>
+        <v>60</v>
       </c>
       <c r="W69" t="n">
-        <v>69.38857142857142</v>
+        <v>63.33</v>
       </c>
       <c r="X69" t="n">
-        <v>69.13500000000001</v>
+        <v>65.752</v>
       </c>
     </row>
     <row r="70">
@@ -4862,70 +5148,74 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>78.57142857142857</v>
+        <v>111</v>
       </c>
       <c r="D70" t="n">
-        <v>117.5280769230769</v>
+        <v>168.5291111111111</v>
       </c>
       <c r="E70" t="n">
-        <v>136.9993333333333</v>
+        <v>158.3928571428571</v>
       </c>
       <c r="F70" t="n">
-        <v>141.8333333333333</v>
+        <v>155</v>
       </c>
       <c r="G70" t="n">
-        <v>145.5</v>
+        <v>155</v>
       </c>
       <c r="H70" t="n">
-        <v>68.5</v>
+        <v>64.75</v>
       </c>
       <c r="I70" t="n">
-        <v>90.24947368421053</v>
+        <v>157.9139393939394</v>
       </c>
       <c r="J70" t="n">
-        <v>70</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K70" t="n">
-        <v>69.05555555555556</v>
+        <v>75.88549019607842</v>
       </c>
       <c r="L70" t="n">
-        <v>79.57045454545454</v>
+        <v>138.9766666666667</v>
       </c>
       <c r="M70" t="n">
-        <v>100.9090909090909</v>
+        <v>177.5528787878788</v>
       </c>
       <c r="N70" t="n">
-        <v>159.325</v>
+        <v>120</v>
       </c>
       <c r="O70" t="n">
-        <v>174.825</v>
+        <v>213</v>
       </c>
       <c r="P70" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>199</v>
+      </c>
+      <c r="R70" t="n">
         <v>174</v>
       </c>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
       <c r="S70" t="n">
         <v>99</v>
       </c>
       <c r="T70" t="n">
-        <v>120.8333333333333</v>
+        <v>194.5</v>
       </c>
       <c r="U70" t="n">
-        <v>0.58125</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V70" t="n">
-        <v>64.58499999999999</v>
+        <v>60</v>
       </c>
       <c r="W70" t="n">
-        <v>67.6837837837838</v>
+        <v>63.69923076923077</v>
       </c>
       <c r="X70" t="n">
-        <v>68.1152</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71">
@@ -4934,70 +5224,74 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>12/01/2024</t>
+          <t>09/02/2024</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>80.16666666666667</v>
+        <v>111</v>
       </c>
       <c r="D71" t="n">
-        <v>123.0051282051282</v>
+        <v>163.4818181818182</v>
       </c>
       <c r="E71" t="n">
-        <v>138.6666666666667</v>
+        <v>153.75</v>
       </c>
       <c r="F71" t="n">
-        <v>141.8333333333333</v>
+        <v>154</v>
       </c>
       <c r="G71" t="n">
-        <v>145.5</v>
+        <v>154.25</v>
       </c>
       <c r="H71" t="n">
-        <v>68.5</v>
+        <v>64.75</v>
       </c>
       <c r="I71" t="n">
-        <v>93.6430303030303</v>
+        <v>154.9448148148148</v>
       </c>
       <c r="J71" t="n">
-        <v>70</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="K71" t="n">
-        <v>69.6225</v>
+        <v>74.9148275862069</v>
       </c>
       <c r="L71" t="n">
-        <v>82.19090909090909</v>
+        <v>135.4209433962264</v>
       </c>
       <c r="M71" t="n">
-        <v>105.5</v>
+        <v>174.2733333333333</v>
       </c>
       <c r="N71" t="n">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="O71" t="n">
-        <v>153.5</v>
+        <v>213</v>
       </c>
       <c r="P71" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>199</v>
+      </c>
+      <c r="R71" t="n">
         <v>174</v>
       </c>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
       <c r="S71" t="n">
         <v>99</v>
       </c>
       <c r="T71" t="n">
-        <v>125</v>
+        <v>194.5</v>
       </c>
       <c r="U71" t="n">
-        <v>0.6</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V71" t="n">
-        <v>64.52</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W71" t="n">
-        <v>68.375</v>
+        <v>63.09111111111112</v>
       </c>
       <c r="X71" t="n">
-        <v>68.73166666666667</v>
+        <v>66.08333333333333</v>
       </c>
     </row>
     <row r="72">
@@ -5006,70 +5300,74 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>15/01/2024</t>
+          <t>14/02/2024</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>80.72375</v>
+        <v>111</v>
       </c>
       <c r="D72" t="n">
-        <v>122.6718181818182</v>
+        <v>157.709375</v>
       </c>
       <c r="E72" t="n">
-        <v>140</v>
+        <v>148.875</v>
       </c>
       <c r="F72" t="n">
-        <v>141.8333333333333</v>
+        <v>154</v>
       </c>
       <c r="G72" t="n">
-        <v>145</v>
+        <v>154.25</v>
       </c>
       <c r="H72" t="n">
-        <v>68.5</v>
+        <v>64.75</v>
       </c>
       <c r="I72" t="n">
-        <v>93.85981818181818</v>
+        <v>147.1722222222222</v>
       </c>
       <c r="J72" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>69.34307692307692</v>
+        <v>74.16111111111111</v>
       </c>
       <c r="L72" t="n">
-        <v>82.565</v>
+        <v>128.6016666666667</v>
       </c>
       <c r="M72" t="n">
-        <v>105.5833333333333</v>
+        <v>167.19046875</v>
       </c>
       <c r="N72" t="n">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="O72" t="n">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="P72" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>199</v>
+      </c>
+      <c r="R72" t="n">
         <v>174</v>
       </c>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
       <c r="S72" t="n">
         <v>99</v>
       </c>
       <c r="T72" t="n">
-        <v>125</v>
+        <v>194.5</v>
       </c>
       <c r="U72" t="n">
-        <v>0</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V72" t="n">
-        <v>64.56206896551724</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W72" t="n">
-        <v>67.97999999999999</v>
+        <v>62.57000000000001</v>
       </c>
       <c r="X72" t="n">
-        <v>68.22222222222223</v>
+        <v>66.08333333333333</v>
       </c>
     </row>
     <row r="73">
@@ -5078,70 +5376,74 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16/01/2024</t>
+          <t>15/02/2024</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>77.39749999999999</v>
+        <v>111</v>
       </c>
       <c r="D73" t="n">
-        <v>117.7789795918367</v>
+        <v>167.3490566037736</v>
       </c>
       <c r="E73" t="n">
-        <v>136.5833333333333</v>
+        <v>158.1625</v>
       </c>
       <c r="F73" t="n">
-        <v>139.3333333333333</v>
+        <v>152</v>
       </c>
       <c r="G73" t="n">
-        <v>145</v>
+        <v>154.25</v>
       </c>
       <c r="H73" t="n">
-        <v>66</v>
+        <v>64.75</v>
       </c>
       <c r="I73" t="n">
-        <v>89.77933333333334</v>
+        <v>158.4319444444444</v>
       </c>
       <c r="J73" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>67.46428571428571</v>
+        <v>75.8592</v>
       </c>
       <c r="L73" t="n">
-        <v>80.7590625</v>
+        <v>136.0265100671141</v>
       </c>
       <c r="M73" t="n">
-        <v>99.41466666666666</v>
+        <v>179.9542857142857</v>
       </c>
       <c r="N73" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O73" t="n">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="P73" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>199</v>
+      </c>
+      <c r="R73" t="n">
         <v>174</v>
       </c>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
       <c r="S73" t="n">
         <v>99</v>
       </c>
       <c r="T73" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="U73" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V73" t="n">
-        <v>64.09027777777777</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W73" t="n">
-        <v>66.19466666666668</v>
+        <v>63.33333333333334</v>
       </c>
       <c r="X73" t="n">
-        <v>66.72851851851853</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74">
@@ -5150,70 +5452,74 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>17/01/2024</t>
+          <t>16/02/2024</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>77.39749999999999</v>
+        <v>111</v>
       </c>
       <c r="D74" t="n">
-        <v>116.4174285714286</v>
+        <v>173.6476923076923</v>
       </c>
       <c r="E74" t="n">
-        <v>134.625</v>
+        <v>159.651</v>
       </c>
       <c r="F74" t="n">
-        <v>140</v>
+        <v>156.8</v>
       </c>
       <c r="G74" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H74" t="n">
-        <v>67</v>
+        <v>64.75</v>
       </c>
       <c r="I74" t="n">
-        <v>88.87617647058823</v>
+        <v>164.5596</v>
       </c>
       <c r="J74" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K74" t="n">
-        <v>67.78571428571429</v>
+        <v>77.45294117647059</v>
       </c>
       <c r="L74" t="n">
-        <v>79.7769387755102</v>
+        <v>146.2514503816794</v>
       </c>
       <c r="M74" t="n">
-        <v>97.48</v>
+        <v>186.4590909090909</v>
       </c>
       <c r="N74" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O74" t="n">
-        <v>150.5</v>
+        <v>209</v>
       </c>
       <c r="P74" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>199</v>
+      </c>
+      <c r="R74" t="n">
         <v>174</v>
       </c>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
       <c r="S74" t="n">
         <v>99</v>
       </c>
       <c r="T74" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="U74" t="n">
-        <v>0.67375</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V74" t="n">
-        <v>63.6355</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W74" t="n">
-        <v>66.32871794871795</v>
+        <v>62.58222222222222</v>
       </c>
       <c r="X74" t="n">
-        <v>66.75833333333334</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75">
@@ -5222,70 +5528,74 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>18/01/2024</t>
+          <t>19/02/2024</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>75.75</v>
+        <v>111</v>
       </c>
       <c r="D75" t="n">
-        <v>111.5074576271186</v>
+        <v>170.8975</v>
       </c>
       <c r="E75" t="n">
-        <v>130.9282608695652</v>
+        <v>159</v>
       </c>
       <c r="F75" t="n">
-        <v>136.0666666666667</v>
+        <v>153.75</v>
       </c>
       <c r="G75" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H75" t="n">
-        <v>67</v>
+        <v>64.75</v>
       </c>
       <c r="I75" t="n">
-        <v>85.05632352941177</v>
+        <v>159.7632</v>
       </c>
       <c r="J75" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K75" t="n">
-        <v>66.80833333333334</v>
+        <v>76.13925925925926</v>
       </c>
       <c r="L75" t="n">
-        <v>77.65283333333333</v>
+        <v>139.6658536585366</v>
       </c>
       <c r="M75" t="n">
-        <v>92.89999999999999</v>
+        <v>180.0119512195122</v>
       </c>
       <c r="N75" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="O75" t="n">
-        <v>145.9333333333333</v>
+        <v>209</v>
       </c>
       <c r="P75" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>199</v>
+      </c>
+      <c r="R75" t="n">
         <v>174</v>
       </c>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
       <c r="S75" t="n">
         <v>99</v>
       </c>
       <c r="T75" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="U75" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V75" t="n">
-        <v>62.584375</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W75" t="n">
-        <v>64.53727272727272</v>
+        <v>62.36142857142857</v>
       </c>
       <c r="X75" t="n">
-        <v>65.87709677419355</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="76">
@@ -5294,70 +5604,74 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>19/01/2024</t>
+          <t>20/02/2024</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>75.75</v>
+        <v>111</v>
       </c>
       <c r="D76" t="n">
-        <v>114.1885714285714</v>
+        <v>171</v>
       </c>
       <c r="E76" t="n">
-        <v>123.4</v>
+        <v>158.125</v>
       </c>
       <c r="F76" t="n">
-        <v>135</v>
+        <v>153.75</v>
       </c>
       <c r="G76" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H76" t="n">
-        <v>67</v>
+        <v>64.75</v>
       </c>
       <c r="I76" t="n">
-        <v>86.12666666666668</v>
+        <v>162.12</v>
       </c>
       <c r="J76" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K76" t="n">
-        <v>66.90416666666667</v>
+        <v>76.6557142857143</v>
       </c>
       <c r="L76" t="n">
-        <v>77.41666666666667</v>
+        <v>140.4725925925926</v>
       </c>
       <c r="M76" t="n">
-        <v>95.25</v>
+        <v>182.1969444444445</v>
       </c>
       <c r="N76" t="n">
-        <v>108.5</v>
+        <v>120</v>
       </c>
       <c r="O76" t="n">
-        <v>145.9333333333333</v>
+        <v>209</v>
       </c>
       <c r="P76" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>199</v>
+      </c>
+      <c r="R76" t="n">
         <v>174</v>
       </c>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
       <c r="S76" t="n">
         <v>99</v>
       </c>
       <c r="T76" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="U76" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V76" t="n">
-        <v>62.15</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W76" t="n">
-        <v>64.09999999999999</v>
+        <v>65</v>
       </c>
       <c r="X76" t="n">
-        <v>65.14285714285714</v>
+        <v>64.125</v>
       </c>
     </row>
     <row r="77">
@@ -5366,70 +5680,74 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>22/01/2024</t>
+          <t>21/02/2024</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D77" t="n">
-        <v>119.8415789473684</v>
+        <v>165.1740625</v>
       </c>
       <c r="E77" t="n">
-        <v>135.5833333333333</v>
+        <v>154.012</v>
       </c>
       <c r="F77" t="n">
-        <v>140.5</v>
+        <v>153.4</v>
       </c>
       <c r="G77" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H77" t="n">
-        <v>67</v>
+        <v>64.75</v>
       </c>
       <c r="I77" t="n">
-        <v>90.68212765957448</v>
+        <v>153.6395833333333</v>
       </c>
       <c r="J77" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K77" t="n">
-        <v>67.98076923076923</v>
+        <v>74.26666666666667</v>
       </c>
       <c r="L77" t="n">
-        <v>80.73218749999999</v>
+        <v>134.1602608695652</v>
       </c>
       <c r="M77" t="n">
-        <v>99.001875</v>
+        <v>174.3914457831325</v>
       </c>
       <c r="N77" t="n">
-        <v>108.5</v>
+        <v>120</v>
       </c>
       <c r="O77" t="n">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="P77" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>199</v>
+      </c>
+      <c r="R77" t="n">
         <v>174</v>
       </c>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
       <c r="S77" t="n">
         <v>99</v>
       </c>
       <c r="T77" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="U77" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V77" t="n">
-        <v>63</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W77" t="n">
-        <v>64.60640000000001</v>
+        <v>62.13</v>
       </c>
       <c r="X77" t="n">
-        <v>65.69642857142857</v>
+        <v>63.11428571428571</v>
       </c>
     </row>
     <row r="78">
@@ -5438,70 +5756,74 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>23/01/2024</t>
+          <t>22/02/2024</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>81.33333333333333</v>
+        <v>111</v>
       </c>
       <c r="D78" t="n">
-        <v>123.84</v>
+        <v>153.492027027027</v>
       </c>
       <c r="E78" t="n">
-        <v>139.1428571428571</v>
+        <v>146.1777777777778</v>
       </c>
       <c r="F78" t="n">
-        <v>141.5</v>
+        <v>153.4</v>
       </c>
       <c r="G78" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H78" t="n">
-        <v>68.5</v>
+        <v>64.75</v>
       </c>
       <c r="I78" t="n">
-        <v>96.72918367346938</v>
+        <v>138.2097247706422</v>
       </c>
       <c r="J78" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>68.72222222222223</v>
+        <v>71.17588235294117</v>
       </c>
       <c r="L78" t="n">
-        <v>84.36428571428571</v>
+        <v>120.6092352941176</v>
       </c>
       <c r="M78" t="n">
-        <v>107.1055172413793</v>
+        <v>157.9024369747899</v>
       </c>
       <c r="N78" t="n">
-        <v>108.5</v>
+        <v>120</v>
       </c>
       <c r="O78" t="n">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="P78" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>199</v>
+      </c>
+      <c r="R78" t="n">
         <v>174</v>
       </c>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
       <c r="S78" t="n">
         <v>99</v>
       </c>
       <c r="T78" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="U78" t="n">
-        <v>0.7</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V78" t="n">
-        <v>62.17285714285714</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W78" t="n">
-        <v>65.325</v>
+        <v>61.7</v>
       </c>
       <c r="X78" t="n">
-        <v>66.55833333333334</v>
+        <v>62.51</v>
       </c>
     </row>
     <row r="79">
@@ -5510,72 +5832,74 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>24/01/2024</t>
+          <t>23/02/2024</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>80.75</v>
+        <v>111</v>
       </c>
       <c r="D79" t="n">
-        <v>125.218125</v>
+        <v>152.2510447761194</v>
       </c>
       <c r="E79" t="n">
-        <v>140.8125</v>
+        <v>149.1153846153846</v>
       </c>
       <c r="F79" t="n">
-        <v>145</v>
+        <v>145.5</v>
       </c>
       <c r="G79" t="n">
-        <v>145</v>
+        <v>144.75</v>
       </c>
       <c r="H79" t="n">
         <v>64.75</v>
       </c>
       <c r="I79" t="n">
-        <v>95.73343749999999</v>
+        <v>140.6379411764706</v>
       </c>
       <c r="J79" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K79" t="n">
-        <v>67</v>
+        <v>72.4875</v>
       </c>
       <c r="L79" t="n">
-        <v>83.93205128205128</v>
+        <v>116.7217647058824</v>
       </c>
       <c r="M79" t="n">
-        <v>107.6188888888889</v>
+        <v>157.9007692307692</v>
       </c>
       <c r="N79" t="n">
-        <v>108.5</v>
+        <v>120</v>
       </c>
       <c r="O79" t="n">
-        <v>158</v>
+        <v>186.26</v>
       </c>
       <c r="P79" t="n">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="Q79" t="n">
-        <v>181.25</v>
-      </c>
-      <c r="R79" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="R79" t="n">
+        <v>184</v>
+      </c>
       <c r="S79" t="n">
         <v>99</v>
       </c>
       <c r="T79" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="U79" t="n">
-        <v>0.625</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V79" t="n">
-        <v>61.98333333333333</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W79" t="n">
-        <v>64.2</v>
+        <v>62</v>
       </c>
       <c r="X79" t="n">
-        <v>65.33333333333333</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="80">
@@ -5584,74 +5908,74 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>25/01/2024</t>
+          <t>26/02/2024</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>82.53333333333333</v>
+        <v>111</v>
       </c>
       <c r="D80" t="n">
-        <v>128.2357692307692</v>
+        <v>148.9651724137931</v>
       </c>
       <c r="E80" t="n">
-        <v>142.1371428571429</v>
+        <v>146.75</v>
       </c>
       <c r="F80" t="n">
-        <v>143.5725</v>
+        <v>148.5</v>
       </c>
       <c r="G80" t="n">
-        <v>148.5166666666667</v>
+        <v>144.75</v>
       </c>
       <c r="H80" t="n">
         <v>64.75</v>
       </c>
       <c r="I80" t="n">
-        <v>99.5244776119403</v>
+        <v>138.61</v>
       </c>
       <c r="J80" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K80" t="n">
-        <v>68.33333333333333</v>
+        <v>72.205</v>
       </c>
       <c r="L80" t="n">
-        <v>85.8155</v>
+        <v>117.1116379310345</v>
       </c>
       <c r="M80" t="n">
-        <v>113.0117948717949</v>
+        <v>157.5224444444445</v>
       </c>
       <c r="N80" t="n">
-        <v>108.5</v>
+        <v>120</v>
       </c>
       <c r="O80" t="n">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="P80" t="n">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="Q80" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="R80" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="S80" t="n">
         <v>99</v>
       </c>
       <c r="T80" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="U80" t="n">
-        <v>0.575</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V80" t="n">
-        <v>62</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W80" t="n">
-        <v>64.13333333333334</v>
+        <v>62.116</v>
       </c>
       <c r="X80" t="n">
-        <v>65.25</v>
+        <v>62.96666666666667</v>
       </c>
     </row>
     <row r="81">
@@ -5660,74 +5984,74 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>26/01/2024</t>
+          <t>27/02/2024</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="D81" t="n">
-        <v>135.400985915493</v>
+        <v>153.6804761904762</v>
       </c>
       <c r="E81" t="n">
-        <v>148.9295238095238</v>
+        <v>149.7666666666667</v>
       </c>
       <c r="F81" t="n">
-        <v>152</v>
+        <v>148.875</v>
       </c>
       <c r="G81" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H81" t="n">
         <v>64.75</v>
       </c>
       <c r="I81" t="n">
-        <v>111.2851572327044</v>
+        <v>145.7759259259259</v>
       </c>
       <c r="J81" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>69.905</v>
+        <v>75.36481481481481</v>
       </c>
       <c r="L81" t="n">
-        <v>91.09575757575757</v>
+        <v>124.7240909090909</v>
       </c>
       <c r="M81" t="n">
-        <v>125.8727884615385</v>
+        <v>165.749012345679</v>
       </c>
       <c r="N81" t="n">
-        <v>108.5</v>
+        <v>120</v>
       </c>
       <c r="O81" t="n">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="P81" t="n">
-        <v>183.25</v>
+        <v>185</v>
       </c>
       <c r="Q81" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="R81" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="S81" t="n">
         <v>99</v>
       </c>
       <c r="T81" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="U81" t="n">
-        <v>0.66875</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V81" t="n">
-        <v>62</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W81" t="n">
-        <v>64.7</v>
+        <v>62.3175</v>
       </c>
       <c r="X81" t="n">
-        <v>66.995</v>
+        <v>66.18892857142858</v>
       </c>
     </row>
     <row r="82">
@@ -5736,74 +6060,74 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>27/01/2024</t>
+          <t>28/02/2024</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="D82" t="n">
-        <v>134</v>
+        <v>155.2923076923077</v>
       </c>
       <c r="E82" t="n">
-        <v>148.9295238095238</v>
+        <v>149.8333333333333</v>
       </c>
       <c r="F82" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G82" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H82" t="n">
         <v>64.75</v>
       </c>
       <c r="I82" t="n">
-        <v>111.2851572327044</v>
+        <v>147.5516129032258</v>
       </c>
       <c r="J82" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K82" t="n">
-        <v>69.905</v>
+        <v>77.15555555555555</v>
       </c>
       <c r="L82" t="n">
-        <v>91.09575757575757</v>
+        <v>126.9850574712644</v>
       </c>
       <c r="M82" t="n">
-        <v>125.8727884615385</v>
+        <v>167.8631428571429</v>
       </c>
       <c r="N82" t="n">
-        <v>108.5</v>
+        <v>120</v>
       </c>
       <c r="O82" t="n">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="P82" t="n">
-        <v>183.25</v>
+        <v>185</v>
       </c>
       <c r="Q82" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="R82" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="S82" t="n">
         <v>99</v>
       </c>
       <c r="T82" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="U82" t="n">
-        <v>0.66875</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V82" t="n">
-        <v>62</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W82" t="n">
-        <v>64.7</v>
+        <v>62.53571428571428</v>
       </c>
       <c r="X82" t="n">
-        <v>66.995</v>
+        <v>66.18607142857142</v>
       </c>
     </row>
     <row r="83">
@@ -5812,74 +6136,74 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>29/01/2024</t>
+          <t>29/02/2024</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>89.5</v>
+        <v>111</v>
       </c>
       <c r="D83" t="n">
-        <v>139.2049206349206</v>
+        <v>158.4117647058823</v>
       </c>
       <c r="E83" t="n">
-        <v>149.8333333333333</v>
+        <v>152.2871428571429</v>
       </c>
       <c r="F83" t="n">
-        <v>152.3</v>
+        <v>150.5</v>
       </c>
       <c r="G83" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H83" t="n">
         <v>64.75</v>
       </c>
       <c r="I83" t="n">
-        <v>110.9675</v>
+        <v>151.2335294117647</v>
       </c>
       <c r="J83" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K83" t="n">
-        <v>69.94333333333334</v>
+        <v>79.78918918918919</v>
       </c>
       <c r="L83" t="n">
-        <v>92.2030303030303</v>
+        <v>130.3195161290323</v>
       </c>
       <c r="M83" t="n">
-        <v>130.7754716981132</v>
+        <v>171.5811111111111</v>
       </c>
       <c r="N83" t="n">
         <v>120</v>
       </c>
       <c r="O83" t="n">
-        <v>175</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="P83" t="n">
-        <v>185</v>
+        <v>182.99</v>
       </c>
       <c r="Q83" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="R83" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="S83" t="n">
         <v>99</v>
       </c>
       <c r="T83" t="n">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="U83" t="n">
-        <v>0.6863636363636364</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V83" t="n">
-        <v>62.075</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W83" t="n">
-        <v>64.64</v>
+        <v>65.5</v>
       </c>
       <c r="X83" t="n">
-        <v>66.02500000000001</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="84">
@@ -5888,74 +6212,74 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>30/01/2024</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>86.58</v>
+        <v>111</v>
       </c>
       <c r="D84" t="n">
-        <v>137.0495555555555</v>
+        <v>159.7727272727273</v>
       </c>
       <c r="E84" t="n">
-        <v>144.8125</v>
+        <v>156.3</v>
       </c>
       <c r="F84" t="n">
-        <v>148.125</v>
+        <v>148.8333333333333</v>
       </c>
       <c r="G84" t="n">
-        <v>152</v>
+        <v>141.5</v>
       </c>
       <c r="H84" t="n">
         <v>64.75</v>
       </c>
       <c r="I84" t="n">
-        <v>107.7653947368421</v>
+        <v>153.5968965517241</v>
       </c>
       <c r="J84" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K84" t="n">
-        <v>69.15323529411765</v>
+        <v>79.30921052631579</v>
       </c>
       <c r="L84" t="n">
-        <v>88.65657142857143</v>
+        <v>132.2443548387097</v>
       </c>
       <c r="M84" t="n">
-        <v>127.7072413793103</v>
+        <v>171.4761904761905</v>
       </c>
       <c r="N84" t="n">
         <v>120</v>
       </c>
       <c r="O84" t="n">
-        <v>175</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="P84" t="n">
-        <v>185</v>
+        <v>182.99</v>
       </c>
       <c r="Q84" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="R84" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="S84" t="n">
         <v>99</v>
       </c>
       <c r="T84" t="n">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="U84" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V84" t="n">
-        <v>62</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W84" t="n">
-        <v>63.73363636363637</v>
+        <v>117.67</v>
       </c>
       <c r="X84" t="n">
-        <v>66.5</v>
+        <v>65.41363636363636</v>
       </c>
     </row>
     <row r="85">
@@ -5964,74 +6288,74 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>31/01/2024</t>
+          <t>04/03/2024</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>85.625</v>
+        <v>111</v>
       </c>
       <c r="D85" t="n">
-        <v>136.2977272727273</v>
+        <v>158.0625</v>
       </c>
       <c r="E85" t="n">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F85" t="n">
-        <v>148.3333333333333</v>
+        <v>148.8333333333333</v>
       </c>
       <c r="G85" t="n">
-        <v>150.0066666666667</v>
+        <v>141.5</v>
       </c>
       <c r="H85" t="n">
         <v>64.75</v>
       </c>
       <c r="I85" t="n">
-        <v>106.7851219512195</v>
+        <v>148.94</v>
       </c>
       <c r="J85" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K85" t="n">
-        <v>68.97057142857142</v>
+        <v>78.44533333333334</v>
       </c>
       <c r="L85" t="n">
-        <v>88.10166666666667</v>
+        <v>126.4451282051282</v>
       </c>
       <c r="M85" t="n">
-        <v>126.2587804878049</v>
+        <v>169.0246153846154</v>
       </c>
       <c r="N85" t="n">
         <v>120</v>
       </c>
       <c r="O85" t="n">
-        <v>170.75</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="P85" t="n">
-        <v>185</v>
+        <v>182.99</v>
       </c>
       <c r="Q85" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="R85" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="S85" t="n">
         <v>99</v>
       </c>
       <c r="T85" t="n">
-        <v>136.5</v>
+        <v>190</v>
       </c>
       <c r="U85" t="n">
-        <v>0.6115625</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V85" t="n">
-        <v>63.06</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W85" t="n">
-        <v>64.26666666666667</v>
+        <v>62.2</v>
       </c>
       <c r="X85" t="n">
-        <v>66.42761904761905</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86">
@@ -6040,74 +6364,74 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>05/03/2024</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>88.41666666666667</v>
+        <v>111</v>
       </c>
       <c r="D86" t="n">
-        <v>137.2878947368421</v>
+        <v>154.9533333333333</v>
       </c>
       <c r="E86" t="n">
-        <v>135.5</v>
+        <v>152</v>
       </c>
       <c r="F86" t="n">
-        <v>148</v>
+        <v>148.25</v>
       </c>
       <c r="G86" t="n">
-        <v>150.0066666666667</v>
+        <v>141.5</v>
       </c>
       <c r="H86" t="n">
         <v>64.75</v>
       </c>
       <c r="I86" t="n">
-        <v>109.2476811594203</v>
+        <v>147.294375</v>
       </c>
       <c r="J86" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K86" t="n">
-        <v>70.49163265306123</v>
+        <v>79.29857142857144</v>
       </c>
       <c r="L86" t="n">
-        <v>89.99432432432432</v>
+        <v>126.9923684210526</v>
       </c>
       <c r="M86" t="n">
-        <v>128.4413461538462</v>
+        <v>167.2823076923077</v>
       </c>
       <c r="N86" t="n">
         <v>120</v>
       </c>
       <c r="O86" t="n">
-        <v>174</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="P86" t="n">
-        <v>182</v>
+        <v>182.99</v>
       </c>
       <c r="Q86" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="R86" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="S86" t="n">
         <v>99</v>
       </c>
       <c r="T86" t="n">
-        <v>136.5</v>
+        <v>190</v>
       </c>
       <c r="U86" t="n">
-        <v>0.5764077669902913</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V86" t="n">
-        <v>62</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W86" t="n">
-        <v>64.9375</v>
+        <v>62.2</v>
       </c>
       <c r="X86" t="n">
-        <v>65.62857142857142</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87">
@@ -6116,74 +6440,74 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>06/03/2024</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D87" t="n">
-        <v>143.1755102040816</v>
+        <v>157.4642857142857</v>
       </c>
       <c r="E87" t="n">
-        <v>150.515</v>
+        <v>155.6666666666667</v>
       </c>
       <c r="F87" t="n">
-        <v>150.8333333333333</v>
+        <v>148.25</v>
       </c>
       <c r="G87" t="n">
-        <v>151.125</v>
+        <v>141.5</v>
       </c>
       <c r="H87" t="n">
         <v>64.75</v>
       </c>
       <c r="I87" t="n">
-        <v>115.3198765432099</v>
+        <v>153.2423529411765</v>
       </c>
       <c r="J87" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K87" t="n">
-        <v>70.52352941176471</v>
+        <v>80.84529411764707</v>
       </c>
       <c r="L87" t="n">
-        <v>95.02445945945946</v>
+        <v>133.3383908045977</v>
       </c>
       <c r="M87" t="n">
-        <v>134.3290607734807</v>
+        <v>172.698</v>
       </c>
       <c r="N87" t="n">
         <v>120</v>
       </c>
       <c r="O87" t="n">
-        <v>174</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="P87" t="n">
-        <v>185.75</v>
+        <v>182.99</v>
       </c>
       <c r="Q87" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="R87" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="S87" t="n">
         <v>99</v>
       </c>
       <c r="T87" t="n">
-        <v>136.5</v>
+        <v>190</v>
       </c>
       <c r="U87" t="n">
-        <v>0.6796153846153846</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V87" t="n">
-        <v>62</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W87" t="n">
-        <v>64</v>
+        <v>62.2</v>
       </c>
       <c r="X87" t="n">
-        <v>66</v>
+        <v>63.63444444444445</v>
       </c>
     </row>
     <row r="88">
@@ -6192,74 +6516,74 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>05/02/2024</t>
+          <t>07/03/2024</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>99.7</v>
+        <v>111</v>
       </c>
       <c r="D88" t="n">
-        <v>158.7576315789474</v>
+        <v>160.0321428571428</v>
       </c>
       <c r="E88" t="n">
-        <v>160.18125</v>
+        <v>156</v>
       </c>
       <c r="F88" t="n">
-        <v>158.6125</v>
+        <v>148.25</v>
       </c>
       <c r="G88" t="n">
-        <v>160</v>
+        <v>141.5</v>
       </c>
       <c r="H88" t="n">
         <v>64.75</v>
       </c>
       <c r="I88" t="n">
-        <v>134.9989583333333</v>
+        <v>159.2897222222222</v>
       </c>
       <c r="J88" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K88" t="n">
-        <v>74.10395833333332</v>
+        <v>84.00399999999999</v>
       </c>
       <c r="L88" t="n">
-        <v>113.6128099173554</v>
+        <v>139.6338461538462</v>
       </c>
       <c r="M88" t="n">
-        <v>158.9619230769231</v>
+        <v>178.5269090909091</v>
       </c>
       <c r="N88" t="n">
         <v>120</v>
       </c>
       <c r="O88" t="n">
-        <v>197</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="P88" t="n">
-        <v>197</v>
+        <v>182.99</v>
       </c>
       <c r="Q88" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="R88" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="S88" t="n">
         <v>99</v>
       </c>
       <c r="T88" t="n">
-        <v>136.5</v>
+        <v>196.6</v>
       </c>
       <c r="U88" t="n">
-        <v>0.4512962962962963</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V88" t="n">
-        <v>60</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W88" t="n">
-        <v>63.5</v>
+        <v>61.8</v>
       </c>
       <c r="X88" t="n">
-        <v>68.14583333333333</v>
+        <v>63.63444444444445</v>
       </c>
     </row>
     <row r="89">
@@ -6268,74 +6592,74 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>06/02/2024</t>
+          <t>08/03/2024</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>116.8</v>
+        <v>111</v>
       </c>
       <c r="D89" t="n">
-        <v>175.6537704918033</v>
+        <v>166.861724137931</v>
       </c>
       <c r="E89" t="n">
-        <v>169.0621621621622</v>
+        <v>161.49</v>
       </c>
       <c r="F89" t="n">
-        <v>166.4045454545455</v>
+        <v>152.6666666666667</v>
       </c>
       <c r="G89" t="n">
-        <v>158</v>
+        <v>141.5</v>
       </c>
       <c r="H89" t="n">
         <v>64.75</v>
       </c>
       <c r="I89" t="n">
-        <v>166.6695726495726</v>
+        <v>166.5228947368421</v>
       </c>
       <c r="J89" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>76.63704918032786</v>
+        <v>87.36133333333333</v>
       </c>
       <c r="L89" t="n">
-        <v>146.1977659574468</v>
+        <v>148.5520792079208</v>
       </c>
       <c r="M89" t="n">
-        <v>184.10796875</v>
+        <v>187.1764285714286</v>
       </c>
       <c r="N89" t="n">
         <v>120</v>
       </c>
       <c r="O89" t="n">
-        <v>197</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="P89" t="n">
-        <v>197</v>
+        <v>182.99</v>
       </c>
       <c r="Q89" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="R89" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="S89" t="n">
         <v>99</v>
       </c>
       <c r="T89" t="n">
-        <v>200</v>
+        <v>196.6</v>
       </c>
       <c r="U89" t="n">
-        <v>0.6175757575757576</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V89" t="n">
-        <v>60</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W89" t="n">
-        <v>63.66666666666666</v>
+        <v>118.25</v>
       </c>
       <c r="X89" t="n">
-        <v>67.5</v>
+        <v>64.60909090909091</v>
       </c>
     </row>
     <row r="90">
@@ -6344,74 +6668,74 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>111</v>
       </c>
       <c r="D90" t="n">
-        <v>173.07</v>
+        <v>164.98</v>
       </c>
       <c r="E90" t="n">
-        <v>164.275</v>
+        <v>160.5</v>
       </c>
       <c r="F90" t="n">
-        <v>160</v>
+        <v>152.6666666666667</v>
       </c>
       <c r="G90" t="n">
-        <v>158</v>
+        <v>141.5</v>
       </c>
       <c r="H90" t="n">
         <v>64.75</v>
       </c>
       <c r="I90" t="n">
-        <v>157.9772093023256</v>
+        <v>165.7305555555556</v>
       </c>
       <c r="J90" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>73.33879999999999</v>
+        <v>85.56</v>
       </c>
       <c r="L90" t="n">
-        <v>140.0048905109489</v>
+        <v>146.7559302325581</v>
       </c>
       <c r="M90" t="n">
-        <v>179.4702197802198</v>
+        <v>186.7737777777778</v>
       </c>
       <c r="N90" t="n">
         <v>120</v>
       </c>
       <c r="O90" t="n">
-        <v>213</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="P90" t="n">
-        <v>197</v>
+        <v>182.99</v>
       </c>
       <c r="Q90" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="R90" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="S90" t="n">
         <v>99</v>
       </c>
       <c r="T90" t="n">
-        <v>200</v>
+        <v>196.6</v>
       </c>
       <c r="U90" t="n">
-        <v>0.5236585365853659</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="V90" t="n">
-        <v>60</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W90" t="n">
-        <v>63.33</v>
+        <v>118.25</v>
       </c>
       <c r="X90" t="n">
-        <v>65.752</v>
+        <v>64.1125</v>
       </c>
     </row>
     <row r="91">
@@ -6420,74 +6744,74 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>12/03/2024</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>111</v>
       </c>
       <c r="D91" t="n">
-        <v>168.5291111111111</v>
+        <v>165.7842857142857</v>
       </c>
       <c r="E91" t="n">
-        <v>158.3928571428571</v>
+        <v>159.5</v>
       </c>
       <c r="F91" t="n">
-        <v>155</v>
+        <v>152.6666666666667</v>
       </c>
       <c r="G91" t="n">
-        <v>155</v>
+        <v>146.5</v>
       </c>
       <c r="H91" t="n">
         <v>64.75</v>
       </c>
       <c r="I91" t="n">
-        <v>157.9139393939394</v>
+        <v>164.899</v>
       </c>
       <c r="J91" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>75.88549019607842</v>
+        <v>84.17470588235294</v>
       </c>
       <c r="L91" t="n">
-        <v>138.9766666666667</v>
+        <v>147.5442045454545</v>
       </c>
       <c r="M91" t="n">
-        <v>177.5528787878788</v>
+        <v>185.1758333333333</v>
       </c>
       <c r="N91" t="n">
         <v>120</v>
       </c>
       <c r="O91" t="n">
-        <v>213</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="P91" t="n">
-        <v>197</v>
+        <v>182.99</v>
       </c>
       <c r="Q91" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="R91" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="S91" t="n">
         <v>99</v>
       </c>
       <c r="T91" t="n">
-        <v>194.5</v>
+        <v>196.6</v>
       </c>
       <c r="U91" t="n">
         <v>0.3192307692307693</v>
       </c>
       <c r="V91" t="n">
-        <v>60</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="W91" t="n">
-        <v>63.69923076923077</v>
+        <v>118.25</v>
       </c>
       <c r="X91" t="n">
-        <v>65</v>
+        <v>63.85416666666666</v>
       </c>
     </row>
     <row r="92">
@@ -6496,62 +6820,62 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>13/03/2024</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>111</v>
       </c>
       <c r="D92" t="n">
-        <v>163.4818181818182</v>
+        <v>161.664</v>
       </c>
       <c r="E92" t="n">
-        <v>153.75</v>
+        <v>155.1</v>
       </c>
       <c r="F92" t="n">
-        <v>154</v>
+        <v>150.5</v>
       </c>
       <c r="G92" t="n">
-        <v>154.25</v>
+        <v>146.5</v>
       </c>
       <c r="H92" t="n">
         <v>64.75</v>
       </c>
       <c r="I92" t="n">
-        <v>154.9448148148148</v>
+        <v>160.9636363636364</v>
       </c>
       <c r="J92" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>74.9148275862069</v>
+        <v>83.52352941176471</v>
       </c>
       <c r="L92" t="n">
-        <v>135.4209433962264</v>
+        <v>144.0026923076923</v>
       </c>
       <c r="M92" t="n">
-        <v>174.2733333333333</v>
+        <v>179.7327272727273</v>
       </c>
       <c r="N92" t="n">
         <v>120</v>
       </c>
       <c r="O92" t="n">
-        <v>213</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="P92" t="n">
-        <v>197</v>
+        <v>182.99</v>
       </c>
       <c r="Q92" t="n">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="R92" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="S92" t="n">
         <v>99</v>
       </c>
       <c r="T92" t="n">
-        <v>194.5</v>
+        <v>196.6</v>
       </c>
       <c r="U92" t="n">
         <v>0.3192307692307693</v>
@@ -6560,10 +6884,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="W92" t="n">
-        <v>63.09111111111112</v>
+        <v>118.25</v>
       </c>
       <c r="X92" t="n">
-        <v>66.08333333333333</v>
+        <v>63.38888888888889</v>
       </c>
     </row>
     <row r="93">
@@ -6572,62 +6896,62 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>14/02/2024</t>
+          <t>14/03/2024</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>111</v>
       </c>
       <c r="D93" t="n">
-        <v>157.709375</v>
+        <v>157.59</v>
       </c>
       <c r="E93" t="n">
-        <v>148.875</v>
+        <v>154.5</v>
       </c>
       <c r="F93" t="n">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G93" t="n">
-        <v>154.25</v>
+        <v>147</v>
       </c>
       <c r="H93" t="n">
         <v>64.75</v>
       </c>
       <c r="I93" t="n">
-        <v>147.1722222222222</v>
+        <v>152.0756</v>
       </c>
       <c r="J93" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="K93" t="n">
-        <v>74.16111111111111</v>
+        <v>78.8</v>
       </c>
       <c r="L93" t="n">
-        <v>128.6016666666667</v>
+        <v>135.8812987012987</v>
       </c>
       <c r="M93" t="n">
-        <v>167.19046875</v>
+        <v>168.1711267605634</v>
       </c>
       <c r="N93" t="n">
         <v>120</v>
       </c>
       <c r="O93" t="n">
-        <v>213</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="P93" t="n">
-        <v>197</v>
+        <v>182.99</v>
       </c>
       <c r="Q93" t="n">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="R93" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="S93" t="n">
         <v>99</v>
       </c>
       <c r="T93" t="n">
-        <v>194.5</v>
+        <v>196.6</v>
       </c>
       <c r="U93" t="n">
         <v>0.3192307692307693</v>
@@ -6636,1150 +6960,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="W93" t="n">
-        <v>62.57000000000001</v>
+        <v>118.25</v>
       </c>
       <c r="X93" t="n">
-        <v>66.08333333333333</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>15/02/2024</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>111</v>
-      </c>
-      <c r="D94" t="n">
-        <v>167.3490566037736</v>
-      </c>
-      <c r="E94" t="n">
-        <v>158.1625</v>
-      </c>
-      <c r="F94" t="n">
-        <v>152</v>
-      </c>
-      <c r="G94" t="n">
-        <v>154.25</v>
-      </c>
-      <c r="H94" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I94" t="n">
-        <v>158.4319444444444</v>
-      </c>
-      <c r="J94" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K94" t="n">
-        <v>75.8592</v>
-      </c>
-      <c r="L94" t="n">
-        <v>136.0265100671141</v>
-      </c>
-      <c r="M94" t="n">
-        <v>179.9542857142857</v>
-      </c>
-      <c r="N94" t="n">
-        <v>120</v>
-      </c>
-      <c r="O94" t="n">
-        <v>213</v>
-      </c>
-      <c r="P94" t="n">
-        <v>197</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>199</v>
-      </c>
-      <c r="R94" t="n">
-        <v>174</v>
-      </c>
-      <c r="S94" t="n">
-        <v>99</v>
-      </c>
-      <c r="T94" t="n">
-        <v>194.5</v>
-      </c>
-      <c r="U94" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V94" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W94" t="n">
-        <v>63.33333333333334</v>
-      </c>
-      <c r="X94" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>16/02/2024</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>111</v>
-      </c>
-      <c r="D95" t="n">
-        <v>173.6476923076923</v>
-      </c>
-      <c r="E95" t="n">
-        <v>159.651</v>
-      </c>
-      <c r="F95" t="n">
-        <v>156.8</v>
-      </c>
-      <c r="G95" t="n">
-        <v>152</v>
-      </c>
-      <c r="H95" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I95" t="n">
-        <v>164.5596</v>
-      </c>
-      <c r="J95" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K95" t="n">
-        <v>77.45294117647059</v>
-      </c>
-      <c r="L95" t="n">
-        <v>146.2514503816794</v>
-      </c>
-      <c r="M95" t="n">
-        <v>186.4590909090909</v>
-      </c>
-      <c r="N95" t="n">
-        <v>120</v>
-      </c>
-      <c r="O95" t="n">
-        <v>209</v>
-      </c>
-      <c r="P95" t="n">
-        <v>197</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>199</v>
-      </c>
-      <c r="R95" t="n">
-        <v>174</v>
-      </c>
-      <c r="S95" t="n">
-        <v>99</v>
-      </c>
-      <c r="T95" t="n">
-        <v>194.5</v>
-      </c>
-      <c r="U95" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V95" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W95" t="n">
-        <v>62.58222222222222</v>
-      </c>
-      <c r="X95" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>19/02/2024</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>111</v>
-      </c>
-      <c r="D96" t="n">
-        <v>170.8975</v>
-      </c>
-      <c r="E96" t="n">
-        <v>159</v>
-      </c>
-      <c r="F96" t="n">
-        <v>153.75</v>
-      </c>
-      <c r="G96" t="n">
-        <v>152</v>
-      </c>
-      <c r="H96" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I96" t="n">
-        <v>159.7632</v>
-      </c>
-      <c r="J96" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K96" t="n">
-        <v>76.13925925925926</v>
-      </c>
-      <c r="L96" t="n">
-        <v>139.6658536585366</v>
-      </c>
-      <c r="M96" t="n">
-        <v>180.0119512195122</v>
-      </c>
-      <c r="N96" t="n">
-        <v>120</v>
-      </c>
-      <c r="O96" t="n">
-        <v>209</v>
-      </c>
-      <c r="P96" t="n">
-        <v>197</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>199</v>
-      </c>
-      <c r="R96" t="n">
-        <v>174</v>
-      </c>
-      <c r="S96" t="n">
-        <v>99</v>
-      </c>
-      <c r="T96" t="n">
-        <v>194.5</v>
-      </c>
-      <c r="U96" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V96" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W96" t="n">
-        <v>62.36142857142857</v>
-      </c>
-      <c r="X96" t="n">
-        <v>64.5</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>20/02/2024</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>111</v>
-      </c>
-      <c r="D97" t="n">
-        <v>171</v>
-      </c>
-      <c r="E97" t="n">
-        <v>158.125</v>
-      </c>
-      <c r="F97" t="n">
-        <v>153.75</v>
-      </c>
-      <c r="G97" t="n">
-        <v>152</v>
-      </c>
-      <c r="H97" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I97" t="n">
-        <v>162.12</v>
-      </c>
-      <c r="J97" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K97" t="n">
-        <v>76.6557142857143</v>
-      </c>
-      <c r="L97" t="n">
-        <v>140.4725925925926</v>
-      </c>
-      <c r="M97" t="n">
-        <v>182.1969444444445</v>
-      </c>
-      <c r="N97" t="n">
-        <v>120</v>
-      </c>
-      <c r="O97" t="n">
-        <v>209</v>
-      </c>
-      <c r="P97" t="n">
-        <v>197</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>199</v>
-      </c>
-      <c r="R97" t="n">
-        <v>174</v>
-      </c>
-      <c r="S97" t="n">
-        <v>99</v>
-      </c>
-      <c r="T97" t="n">
-        <v>194.5</v>
-      </c>
-      <c r="U97" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V97" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W97" t="n">
-        <v>65</v>
-      </c>
-      <c r="X97" t="n">
-        <v>64.125</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>21/02/2024</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>111</v>
-      </c>
-      <c r="D98" t="n">
-        <v>165.1740625</v>
-      </c>
-      <c r="E98" t="n">
-        <v>154.012</v>
-      </c>
-      <c r="F98" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="G98" t="n">
-        <v>152</v>
-      </c>
-      <c r="H98" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I98" t="n">
-        <v>153.6395833333333</v>
-      </c>
-      <c r="J98" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K98" t="n">
-        <v>74.26666666666667</v>
-      </c>
-      <c r="L98" t="n">
-        <v>134.1602608695652</v>
-      </c>
-      <c r="M98" t="n">
-        <v>174.3914457831325</v>
-      </c>
-      <c r="N98" t="n">
-        <v>120</v>
-      </c>
-      <c r="O98" t="n">
-        <v>209</v>
-      </c>
-      <c r="P98" t="n">
-        <v>197</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>199</v>
-      </c>
-      <c r="R98" t="n">
-        <v>174</v>
-      </c>
-      <c r="S98" t="n">
-        <v>99</v>
-      </c>
-      <c r="T98" t="n">
-        <v>194.5</v>
-      </c>
-      <c r="U98" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V98" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W98" t="n">
-        <v>62.13</v>
-      </c>
-      <c r="X98" t="n">
-        <v>63.11428571428571</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>22/02/2024</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>111</v>
-      </c>
-      <c r="D99" t="n">
-        <v>153.492027027027</v>
-      </c>
-      <c r="E99" t="n">
-        <v>146.1777777777778</v>
-      </c>
-      <c r="F99" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="G99" t="n">
-        <v>152</v>
-      </c>
-      <c r="H99" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I99" t="n">
-        <v>138.2097247706422</v>
-      </c>
-      <c r="J99" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K99" t="n">
-        <v>71.17588235294117</v>
-      </c>
-      <c r="L99" t="n">
-        <v>120.6092352941176</v>
-      </c>
-      <c r="M99" t="n">
-        <v>157.9024369747899</v>
-      </c>
-      <c r="N99" t="n">
-        <v>120</v>
-      </c>
-      <c r="O99" t="n">
-        <v>209</v>
-      </c>
-      <c r="P99" t="n">
-        <v>197</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>199</v>
-      </c>
-      <c r="R99" t="n">
-        <v>174</v>
-      </c>
-      <c r="S99" t="n">
-        <v>99</v>
-      </c>
-      <c r="T99" t="n">
-        <v>194.5</v>
-      </c>
-      <c r="U99" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V99" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W99" t="n">
-        <v>61.7</v>
-      </c>
-      <c r="X99" t="n">
-        <v>62.51</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>23/02/2024</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>111</v>
-      </c>
-      <c r="D100" t="n">
-        <v>152.2510447761194</v>
-      </c>
-      <c r="E100" t="n">
-        <v>149.1153846153846</v>
-      </c>
-      <c r="F100" t="n">
-        <v>145.5</v>
-      </c>
-      <c r="G100" t="n">
-        <v>144.75</v>
-      </c>
-      <c r="H100" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I100" t="n">
-        <v>140.6379411764706</v>
-      </c>
-      <c r="J100" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K100" t="n">
-        <v>72.4875</v>
-      </c>
-      <c r="L100" t="n">
-        <v>116.7217647058824</v>
-      </c>
-      <c r="M100" t="n">
-        <v>157.9007692307692</v>
-      </c>
-      <c r="N100" t="n">
-        <v>120</v>
-      </c>
-      <c r="O100" t="n">
-        <v>186.26</v>
-      </c>
-      <c r="P100" t="n">
-        <v>185</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>184</v>
-      </c>
-      <c r="R100" t="n">
-        <v>184</v>
-      </c>
-      <c r="S100" t="n">
-        <v>99</v>
-      </c>
-      <c r="T100" t="n">
-        <v>194.5</v>
-      </c>
-      <c r="U100" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V100" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W100" t="n">
-        <v>62</v>
-      </c>
-      <c r="X100" t="n">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>26/02/2024</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>111</v>
-      </c>
-      <c r="D101" t="n">
-        <v>148.9651724137931</v>
-      </c>
-      <c r="E101" t="n">
-        <v>146.75</v>
-      </c>
-      <c r="F101" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="G101" t="n">
-        <v>144.75</v>
-      </c>
-      <c r="H101" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I101" t="n">
-        <v>138.61</v>
-      </c>
-      <c r="J101" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K101" t="n">
-        <v>72.205</v>
-      </c>
-      <c r="L101" t="n">
-        <v>117.1116379310345</v>
-      </c>
-      <c r="M101" t="n">
-        <v>157.5224444444445</v>
-      </c>
-      <c r="N101" t="n">
-        <v>120</v>
-      </c>
-      <c r="O101" t="n">
-        <v>188</v>
-      </c>
-      <c r="P101" t="n">
-        <v>185</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>184</v>
-      </c>
-      <c r="R101" t="n">
-        <v>184</v>
-      </c>
-      <c r="S101" t="n">
-        <v>99</v>
-      </c>
-      <c r="T101" t="n">
-        <v>194.5</v>
-      </c>
-      <c r="U101" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V101" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W101" t="n">
-        <v>62.116</v>
-      </c>
-      <c r="X101" t="n">
-        <v>62.96666666666667</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>27/02/2024</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>111</v>
-      </c>
-      <c r="D102" t="n">
-        <v>153.6804761904762</v>
-      </c>
-      <c r="E102" t="n">
-        <v>149.7666666666667</v>
-      </c>
-      <c r="F102" t="n">
-        <v>148.875</v>
-      </c>
-      <c r="G102" t="n">
-        <v>145</v>
-      </c>
-      <c r="H102" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I102" t="n">
-        <v>145.7759259259259</v>
-      </c>
-      <c r="J102" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K102" t="n">
-        <v>75.36481481481481</v>
-      </c>
-      <c r="L102" t="n">
-        <v>124.7240909090909</v>
-      </c>
-      <c r="M102" t="n">
-        <v>165.749012345679</v>
-      </c>
-      <c r="N102" t="n">
-        <v>120</v>
-      </c>
-      <c r="O102" t="n">
-        <v>189</v>
-      </c>
-      <c r="P102" t="n">
-        <v>185</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>184</v>
-      </c>
-      <c r="R102" t="n">
-        <v>184</v>
-      </c>
-      <c r="S102" t="n">
-        <v>99</v>
-      </c>
-      <c r="T102" t="n">
-        <v>194.5</v>
-      </c>
-      <c r="U102" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V102" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W102" t="n">
-        <v>62.3175</v>
-      </c>
-      <c r="X102" t="n">
-        <v>66.18892857142858</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>28/02/2024</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>111</v>
-      </c>
-      <c r="D103" t="n">
-        <v>155.2923076923077</v>
-      </c>
-      <c r="E103" t="n">
-        <v>149.8333333333333</v>
-      </c>
-      <c r="F103" t="n">
-        <v>150</v>
-      </c>
-      <c r="G103" t="n">
-        <v>145</v>
-      </c>
-      <c r="H103" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I103" t="n">
-        <v>147.5516129032258</v>
-      </c>
-      <c r="J103" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K103" t="n">
-        <v>77.15555555555555</v>
-      </c>
-      <c r="L103" t="n">
-        <v>126.9850574712644</v>
-      </c>
-      <c r="M103" t="n">
-        <v>167.8631428571429</v>
-      </c>
-      <c r="N103" t="n">
-        <v>120</v>
-      </c>
-      <c r="O103" t="n">
-        <v>192</v>
-      </c>
-      <c r="P103" t="n">
-        <v>185</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>184</v>
-      </c>
-      <c r="R103" t="n">
-        <v>184</v>
-      </c>
-      <c r="S103" t="n">
-        <v>99</v>
-      </c>
-      <c r="T103" t="n">
-        <v>194.5</v>
-      </c>
-      <c r="U103" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V103" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W103" t="n">
-        <v>62.53571428571428</v>
-      </c>
-      <c r="X103" t="n">
-        <v>66.18607142857142</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>29/02/2024</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>111</v>
-      </c>
-      <c r="D104" t="n">
-        <v>158.4117647058823</v>
-      </c>
-      <c r="E104" t="n">
-        <v>152.2871428571429</v>
-      </c>
-      <c r="F104" t="n">
-        <v>150.5</v>
-      </c>
-      <c r="G104" t="n">
-        <v>145</v>
-      </c>
-      <c r="H104" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I104" t="n">
-        <v>151.2335294117647</v>
-      </c>
-      <c r="J104" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K104" t="n">
-        <v>79.78918918918919</v>
-      </c>
-      <c r="L104" t="n">
-        <v>130.3195161290323</v>
-      </c>
-      <c r="M104" t="n">
-        <v>171.5811111111111</v>
-      </c>
-      <c r="N104" t="n">
-        <v>120</v>
-      </c>
-      <c r="O104" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="P104" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>184</v>
-      </c>
-      <c r="R104" t="n">
-        <v>184</v>
-      </c>
-      <c r="S104" t="n">
-        <v>99</v>
-      </c>
-      <c r="T104" t="n">
-        <v>190</v>
-      </c>
-      <c r="U104" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V104" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W104" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="X104" t="n">
-        <v>66.3</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>01/03/2024</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>111</v>
-      </c>
-      <c r="D105" t="n">
-        <v>159.7727272727273</v>
-      </c>
-      <c r="E105" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="F105" t="n">
-        <v>148.8333333333333</v>
-      </c>
-      <c r="G105" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="H105" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I105" t="n">
-        <v>153.5968965517241</v>
-      </c>
-      <c r="J105" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K105" t="n">
-        <v>79.30921052631579</v>
-      </c>
-      <c r="L105" t="n">
-        <v>132.2443548387097</v>
-      </c>
-      <c r="M105" t="n">
-        <v>171.4761904761905</v>
-      </c>
-      <c r="N105" t="n">
-        <v>120</v>
-      </c>
-      <c r="O105" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="P105" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>184</v>
-      </c>
-      <c r="R105" t="n">
-        <v>184</v>
-      </c>
-      <c r="S105" t="n">
-        <v>99</v>
-      </c>
-      <c r="T105" t="n">
-        <v>190</v>
-      </c>
-      <c r="U105" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V105" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W105" t="n">
-        <v>117.67</v>
-      </c>
-      <c r="X105" t="n">
-        <v>65.41363636363636</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>04/03/2024</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>111</v>
-      </c>
-      <c r="D106" t="n">
-        <v>158.0625</v>
-      </c>
-      <c r="E106" t="n">
-        <v>156</v>
-      </c>
-      <c r="F106" t="n">
-        <v>148.8333333333333</v>
-      </c>
-      <c r="G106" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="H106" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I106" t="n">
-        <v>148.94</v>
-      </c>
-      <c r="J106" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K106" t="n">
-        <v>78.44533333333334</v>
-      </c>
-      <c r="L106" t="n">
-        <v>126.4451282051282</v>
-      </c>
-      <c r="M106" t="n">
-        <v>169.0246153846154</v>
-      </c>
-      <c r="N106" t="n">
-        <v>120</v>
-      </c>
-      <c r="O106" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="P106" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>184</v>
-      </c>
-      <c r="R106" t="n">
-        <v>184</v>
-      </c>
-      <c r="S106" t="n">
-        <v>99</v>
-      </c>
-      <c r="T106" t="n">
-        <v>190</v>
-      </c>
-      <c r="U106" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V106" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W106" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="X106" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>05/03/2024</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>111</v>
-      </c>
-      <c r="D107" t="n">
-        <v>154.9533333333333</v>
-      </c>
-      <c r="E107" t="n">
-        <v>152</v>
-      </c>
-      <c r="F107" t="n">
-        <v>148.25</v>
-      </c>
-      <c r="G107" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="H107" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I107" t="n">
-        <v>147.294375</v>
-      </c>
-      <c r="J107" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K107" t="n">
-        <v>79.29857142857144</v>
-      </c>
-      <c r="L107" t="n">
-        <v>126.9923684210526</v>
-      </c>
-      <c r="M107" t="n">
-        <v>167.2823076923077</v>
-      </c>
-      <c r="N107" t="n">
-        <v>120</v>
-      </c>
-      <c r="O107" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="P107" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>184</v>
-      </c>
-      <c r="R107" t="n">
-        <v>184</v>
-      </c>
-      <c r="S107" t="n">
-        <v>99</v>
-      </c>
-      <c r="T107" t="n">
-        <v>190</v>
-      </c>
-      <c r="U107" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V107" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W107" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="X107" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>06/03/2024</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>111</v>
-      </c>
-      <c r="D108" t="n">
-        <v>155</v>
-      </c>
-      <c r="E108" t="n">
-        <v>156</v>
-      </c>
-      <c r="F108" t="n">
-        <v>148.25</v>
-      </c>
-      <c r="G108" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="H108" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I108" t="n">
-        <v>152.3026315789474</v>
-      </c>
-      <c r="J108" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K108" t="n">
-        <v>80.81125</v>
-      </c>
-      <c r="L108" t="n">
-        <v>132.680701754386</v>
-      </c>
-      <c r="M108" t="n">
-        <v>171.5392156862745</v>
-      </c>
-      <c r="N108" t="n">
-        <v>120</v>
-      </c>
-      <c r="O108" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="P108" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>184</v>
-      </c>
-      <c r="R108" t="n">
-        <v>184</v>
-      </c>
-      <c r="S108" t="n">
-        <v>99</v>
-      </c>
-      <c r="T108" t="n">
-        <v>190</v>
-      </c>
-      <c r="U108" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V108" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W108" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="X108" t="n">
-        <v>63.5</v>
+        <v>63.36666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X93"/>
+  <dimension ref="A1:W79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,110 +441,105 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE CON ANU JAN/24 DEZ/24 - Preço Fixo</t>
+          <t>FEN - SE CON ANU JAN/25 DEZ/25 - Preço Fixo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE CON ANU JAN/25 DEZ/25 - Preço Fixo</t>
+          <t>FEN - SE CON ANU JAN/26 DEZ/26 - Preço Fixo</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE CON ANU JAN/26 DEZ/26 - Preço Fixo</t>
+          <t>FEN - SE CON ANU JAN/27 DEZ/27 - Preço Fixo</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE CON ANU JAN/27 DEZ/27 - Preço Fixo</t>
+          <t>FEN - SE CON ANU JAN/28 DEZ/28 - Preço Fixo</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE CON ANU JAN/28 DEZ/28 - Preço Fixo</t>
+          <t>FEN - SE CON SEM JAN/24 JUN/24 - Preço Fixo</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE CON SEM JAN/24 JUN/24 - Preço Fixo</t>
+          <t>FEN - SE CON SEM JUL/24 DEZ/24 - Preço Fixo</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE CON SEM JUL/24 DEZ/24 - Preço Fixo</t>
+          <t>FEN - SE CON TRI JAN/24 MAR/24 - Preço Fixo</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE CON TRI JAN/24 MAR/24 - Preço Fixo</t>
+          <t>FEN - SE CON TRI ABR/24 JUN/24 - Preço Fixo</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE CON TRI ABR/24 JUN/24 - Preço Fixo</t>
+          <t>FEN - SE CON TRI JUL/24 SET/24 - Preço Fixo</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE CON TRI JUL/24 SET/24 - Preço Fixo</t>
+          <t>FEN - SE CON TRI OUT/24 DEZ/24 - Preço Fixo</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE CON TRI OUT/24 DEZ/24 - Preço Fixo</t>
+          <t>FEN - SE I5 ANU JAN/24 DEZ/24 - Preço Fixo</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE I5 ANU JAN/24 DEZ/24 - Preço Fixo</t>
+          <t>FEN - SE I5 ANU JAN/25 DEZ/25 - Preço Fixo</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE I5 ANU JAN/25 DEZ/25 - Preço Fixo</t>
+          <t>FEN - SE I5 ANU JAN/26 DEZ/26 - Preço Fixo</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE I5 ANU JAN/26 DEZ/26 - Preço Fixo</t>
+          <t>FEN - SE I5 ANU JAN/27 DEZ/27 - Preço Fixo</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE I5 ANU JAN/27 DEZ/27 - Preço Fixo</t>
+          <t>FEN - SE I5 ANU JAN/28 DEZ/28 - Preço Fixo</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE I5 ANU JAN/28 DEZ/28 - Preço Fixo</t>
+          <t>FEN - SE I5 SEM JAN/24 JUN/24 - Preço Fixo</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE I5 SEM JAN/24 JUN/24 - Preço Fixo</t>
+          <t>FEN - SE I5 SEM JUL/24 DEZ/24 - Preço Fixo</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE I5 SEM JUL/24 DEZ/24 - Preço Fixo</t>
+          <t>FEN - SE CON MEN JAN/24 - Spread</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE CON MEN JAN/24 - Spread</t>
+          <t>FEN - SE CON MEN JAN/24 - Preço Fixo</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE CON MEN JAN/24 - Preço Fixo</t>
+          <t>FEN - SE CON MEN FEV/24 - Preço Fixo</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>FEN - SE CON MEN FEV/24 - Preço Fixo</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>FEN - SE CON MEN MAR/24 - Preço Fixo</t>
         </is>
@@ -556,30 +551,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/11/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>76.57142857142857</v>
-      </c>
-      <c r="D2" t="n">
-        <v>94.75</v>
-      </c>
-      <c r="E2" t="n">
-        <v>105</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>71.25</v>
-      </c>
-      <c r="I2" t="n">
-        <v>81.6875</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>105</v>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
@@ -587,12 +576,13 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>71.2</v>
+      </c>
       <c r="V2" t="n">
-        <v>72.75</v>
+        <v>73</v>
       </c>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -600,30 +590,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>03/11/2023</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>76.57142857142857</v>
-      </c>
-      <c r="D3" t="n">
-        <v>96</v>
-      </c>
-      <c r="E3" t="n">
-        <v>105</v>
-      </c>
+        <v>103.25</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>71.25</v>
-      </c>
-      <c r="I3" t="n">
-        <v>82.75</v>
-      </c>
+      <c r="G3" t="n">
+        <v>70</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>106.25</v>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -631,12 +617,13 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>72.36666666666666</v>
+      </c>
       <c r="V3" t="n">
-        <v>71.75</v>
+        <v>72.33333333333333</v>
       </c>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -644,36 +631,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>06/11/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
-      </c>
-      <c r="D4" t="n">
-        <v>96.875</v>
-      </c>
-      <c r="E4" t="n">
-        <v>106</v>
-      </c>
+        <v>103.5</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>116.5</v>
+        <v>125</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
-      </c>
-      <c r="H4" t="n">
-        <v>71.25</v>
-      </c>
-      <c r="I4" t="n">
-        <v>82.75</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+        <v>70</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>77</v>
+      </c>
+      <c r="L4" t="n">
+        <v>82</v>
+      </c>
+      <c r="M4" t="n">
+        <v>104.25</v>
+      </c>
       <c r="N4" t="n">
-        <v>109</v>
+        <v>132.75</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
@@ -681,12 +668,13 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>71.67</v>
+      </c>
       <c r="V4" t="n">
-        <v>71.75</v>
+        <v>72.33333333333333</v>
       </c>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -694,38 +682,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>76.83333333333333</v>
-      </c>
-      <c r="D5" t="n">
-        <v>97.66666666666667</v>
-      </c>
+        <v>105.3636363636364</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>108.5</v>
+        <v>124</v>
       </c>
       <c r="F5" t="n">
-        <v>117.5</v>
+        <v>125</v>
       </c>
       <c r="G5" t="n">
-        <v>120</v>
+        <v>69.25</v>
       </c>
       <c r="H5" t="n">
-        <v>72.75</v>
-      </c>
-      <c r="I5" t="n">
-        <v>84.75</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>79.33333333333333</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>66.5</v>
+      </c>
       <c r="K5" t="n">
-        <v>74</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+        <v>77</v>
+      </c>
+      <c r="L5" t="n">
+        <v>82</v>
+      </c>
+      <c r="M5" t="n">
+        <v>105.375</v>
+      </c>
       <c r="N5" t="n">
-        <v>110</v>
+        <v>132.75</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
@@ -733,12 +723,13 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>72.27692307692308</v>
+      </c>
       <c r="V5" t="n">
-        <v>71.75</v>
+        <v>72.33333333333333</v>
       </c>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -746,56 +737,57 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>08/11/2023</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>79.83631578947369</v>
+        <v>107.2142857142857</v>
       </c>
       <c r="D6" t="n">
-        <v>100.0777777777778</v>
+        <v>119</v>
       </c>
       <c r="E6" t="n">
-        <v>112.5</v>
+        <v>125</v>
       </c>
       <c r="F6" t="n">
-        <v>117.9333333333333</v>
+        <v>125</v>
       </c>
       <c r="G6" t="n">
-        <v>120</v>
+        <v>69.25</v>
       </c>
       <c r="H6" t="n">
-        <v>75.11125</v>
-      </c>
-      <c r="I6" t="n">
-        <v>85</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>79.75</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>67.5</v>
+      </c>
       <c r="K6" t="n">
-        <v>74</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+        <v>76</v>
+      </c>
+      <c r="L6" t="n">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>105.375</v>
+      </c>
       <c r="N6" t="n">
-        <v>111.7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>132.45</v>
-      </c>
+        <v>132.75</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>71.81526315789473</v>
+      </c>
       <c r="V6" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W6" t="n">
-        <v>77</v>
-      </c>
-      <c r="X6" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -804,56 +796,59 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>81.08333333333333</v>
+        <v>106.1</v>
       </c>
       <c r="D7" t="n">
-        <v>100.9821428571429</v>
+        <v>118.3333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>112.5</v>
+        <v>124</v>
       </c>
       <c r="F7" t="n">
-        <v>119.625</v>
+        <v>130</v>
       </c>
       <c r="G7" t="n">
-        <v>120</v>
+        <v>68.875</v>
       </c>
       <c r="H7" t="n">
-        <v>74.88499999999999</v>
-      </c>
-      <c r="I7" t="n">
-        <v>86.33333333333333</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>79</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>67.95</v>
+      </c>
       <c r="K7" t="n">
-        <v>74</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+        <v>76</v>
+      </c>
+      <c r="L7" t="n">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>104.25</v>
+      </c>
       <c r="N7" t="n">
-        <v>111.7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>132.45</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>118</v>
+      </c>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>70.21428571428571</v>
+      </c>
       <c r="V7" t="n">
-        <v>77</v>
+        <v>70.625</v>
       </c>
       <c r="W7" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="X7" t="n">
-        <v>77</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="8">
@@ -862,56 +857,59 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10/11/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>87.515</v>
+        <v>106.94</v>
       </c>
       <c r="D8" t="n">
-        <v>101.4</v>
+        <v>119.65</v>
       </c>
       <c r="E8" t="n">
-        <v>112.5</v>
+        <v>127.3</v>
       </c>
       <c r="F8" t="n">
-        <v>119.625</v>
+        <v>130</v>
       </c>
       <c r="G8" t="n">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="H8" t="n">
-        <v>74</v>
-      </c>
-      <c r="I8" t="n">
-        <v>86</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>79.66666666666667</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>68</v>
+      </c>
       <c r="K8" t="n">
-        <v>71</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+        <v>76</v>
+      </c>
+      <c r="L8" t="n">
+        <v>82</v>
+      </c>
+      <c r="M8" t="n">
+        <v>104.25</v>
+      </c>
       <c r="N8" t="n">
-        <v>114.78</v>
-      </c>
-      <c r="O8" t="n">
-        <v>132.45</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>110</v>
+      </c>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="U8" t="n">
+        <v>72.09736842105262</v>
+      </c>
       <c r="V8" t="n">
-        <v>77.7</v>
+        <v>71.75</v>
       </c>
       <c r="W8" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="X8" t="n">
-        <v>77</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="9">
@@ -920,56 +918,59 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13/11/2023</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>80.80500000000001</v>
+        <v>107.4222222222222</v>
       </c>
       <c r="D9" t="n">
-        <v>103.25</v>
+        <v>116</v>
       </c>
       <c r="E9" t="n">
-        <v>114.1666666666667</v>
+        <v>127.3</v>
       </c>
       <c r="F9" t="n">
-        <v>119.625</v>
+        <v>130</v>
       </c>
       <c r="G9" t="n">
-        <v>112</v>
+        <v>70.55</v>
       </c>
       <c r="H9" t="n">
-        <v>75.375</v>
-      </c>
-      <c r="I9" t="n">
-        <v>86</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>80.75</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>68</v>
+      </c>
       <c r="K9" t="n">
-        <v>71</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+        <v>76</v>
+      </c>
+      <c r="L9" t="n">
+        <v>82</v>
+      </c>
+      <c r="M9" t="n">
+        <v>106.5</v>
+      </c>
       <c r="N9" t="n">
-        <v>114.78</v>
-      </c>
-      <c r="O9" t="n">
-        <v>132.45</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>110</v>
+      </c>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+      <c r="U9" t="n">
+        <v>74.65890909090909</v>
+      </c>
       <c r="V9" t="n">
-        <v>77.7</v>
+        <v>73.5</v>
       </c>
       <c r="W9" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="X9" t="n">
-        <v>77</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="10">
@@ -978,56 +979,59 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14/11/2023</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>80.49666666666667</v>
+        <v>107.8316666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>104.84</v>
+        <v>120</v>
       </c>
       <c r="E10" t="n">
-        <v>115.84</v>
+        <v>127</v>
       </c>
       <c r="F10" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G10" t="n">
-        <v>122.58</v>
+        <v>70.25</v>
       </c>
       <c r="H10" t="n">
-        <v>74.515</v>
-      </c>
-      <c r="I10" t="n">
-        <v>85.85000000000001</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>69.5</v>
+      </c>
       <c r="K10" t="n">
-        <v>71</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+        <v>76</v>
+      </c>
+      <c r="L10" t="n">
+        <v>82</v>
+      </c>
+      <c r="M10" t="n">
+        <v>103.1333333333333</v>
+      </c>
       <c r="N10" t="n">
-        <v>114.78</v>
-      </c>
-      <c r="O10" t="n">
-        <v>132.45</v>
-      </c>
+        <v>141.5</v>
+      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>110</v>
+      </c>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>73.82222222222222</v>
+      </c>
       <c r="V10" t="n">
-        <v>77.7</v>
+        <v>73.5</v>
       </c>
       <c r="W10" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="X10" t="n">
-        <v>77</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="11">
@@ -1036,56 +1040,61 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16/11/2023</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>79.40000000000001</v>
+        <v>108.5</v>
       </c>
       <c r="D11" t="n">
-        <v>105.8823529411765</v>
+        <v>121</v>
       </c>
       <c r="E11" t="n">
-        <v>116.75</v>
+        <v>130</v>
       </c>
       <c r="F11" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="n">
-        <v>122.58</v>
+        <v>71</v>
       </c>
       <c r="H11" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I11" t="n">
-        <v>86</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J11" t="n">
+        <v>69.5</v>
+      </c>
       <c r="K11" t="n">
-        <v>70</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+        <v>76</v>
+      </c>
+      <c r="L11" t="n">
+        <v>82</v>
+      </c>
+      <c r="M11" t="n">
+        <v>102.325</v>
+      </c>
       <c r="N11" t="n">
-        <v>113.1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>132.45</v>
-      </c>
+        <v>141.5</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>110</v>
+      </c>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="U11" t="n">
+        <v>74.15833333333333</v>
+      </c>
       <c r="V11" t="n">
-        <v>76.75</v>
+        <v>73.5</v>
       </c>
       <c r="W11" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="X11" t="n">
-        <v>77</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="12">
@@ -1094,60 +1103,61 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17/11/2023</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>80.765</v>
+        <v>108.5</v>
       </c>
       <c r="D12" t="n">
-        <v>107.8775</v>
+        <v>121</v>
       </c>
       <c r="E12" t="n">
-        <v>116.41</v>
+        <v>130</v>
       </c>
       <c r="F12" t="n">
-        <v>122.95</v>
+        <v>130</v>
       </c>
       <c r="G12" t="n">
-        <v>122.58</v>
+        <v>71</v>
       </c>
       <c r="H12" t="n">
-        <v>74.32727272727273</v>
+        <v>82.5</v>
       </c>
       <c r="I12" t="n">
-        <v>87.625</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J12" t="n">
+        <v>69.5</v>
+      </c>
       <c r="K12" t="n">
-        <v>73</v>
+        <v>77.5</v>
       </c>
       <c r="L12" t="n">
-        <v>88</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="M12" t="n">
+        <v>102.325</v>
+      </c>
       <c r="N12" t="n">
-        <v>114.5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>132.45</v>
-      </c>
+        <v>154.2</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="n">
-        <v>122</v>
-      </c>
-      <c r="U12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>110</v>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="n">
+        <v>72.89999999999999</v>
+      </c>
       <c r="V12" t="n">
-        <v>78.09999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="W12" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="X12" t="n">
-        <v>77</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="13">
@@ -1156,60 +1166,61 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20/11/2023</t>
+          <t>18/12/2023</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>80.765</v>
+        <v>110.6818181818182</v>
       </c>
       <c r="D13" t="n">
-        <v>107.8775</v>
+        <v>123</v>
       </c>
       <c r="E13" t="n">
-        <v>116.41</v>
+        <v>130</v>
       </c>
       <c r="F13" t="n">
-        <v>122.95</v>
+        <v>130</v>
       </c>
       <c r="G13" t="n">
-        <v>122.58</v>
+        <v>71.46666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>77</v>
+        <v>84.5</v>
       </c>
       <c r="I13" t="n">
-        <v>87.625</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J13" t="n">
+        <v>68</v>
+      </c>
       <c r="K13" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L13" t="n">
-        <v>88</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="M13" t="n">
+        <v>102.325</v>
+      </c>
       <c r="N13" t="n">
-        <v>114.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>132.45</v>
-      </c>
+        <v>154.2</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="n">
-        <v>122</v>
-      </c>
-      <c r="U13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>110</v>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="n">
+        <v>76.56812499999999</v>
+      </c>
       <c r="V13" t="n">
-        <v>78.09999999999999</v>
+        <v>74.714</v>
       </c>
       <c r="W13" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="X13" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -1218,62 +1229,61 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21/11/2023</t>
+          <t>19/12/2023</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>79.16666666666667</v>
+        <v>107.5625</v>
       </c>
       <c r="D14" t="n">
-        <v>107.3125</v>
+        <v>122.9166666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>117.5</v>
+        <v>130</v>
       </c>
       <c r="F14" t="n">
-        <v>122.95</v>
+        <v>130</v>
       </c>
       <c r="G14" t="n">
-        <v>122.58</v>
+        <v>69.97777777777777</v>
       </c>
       <c r="H14" t="n">
-        <v>73.42</v>
+        <v>80.755</v>
       </c>
       <c r="I14" t="n">
-        <v>86</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J14" t="n">
+        <v>68</v>
+      </c>
       <c r="K14" t="n">
-        <v>71.5</v>
+        <v>77.96666666666667</v>
       </c>
       <c r="L14" t="n">
-        <v>88</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>84</v>
+      </c>
+      <c r="M14" t="n">
+        <v>102.325</v>
+      </c>
       <c r="N14" t="n">
-        <v>114.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>140</v>
-      </c>
-      <c r="P14" t="n">
-        <v>150</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>122</v>
-      </c>
-      <c r="U14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>110</v>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="n">
+        <v>71.16441176470589</v>
+      </c>
       <c r="V14" t="n">
-        <v>78.32857142857142</v>
+        <v>71.25</v>
       </c>
       <c r="W14" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="X14" t="n">
-        <v>72</v>
+        <v>70.41666666666667</v>
       </c>
     </row>
     <row r="15">
@@ -1282,62 +1292,61 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>20/12/2023</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>77.71666666666667</v>
+        <v>109.0555555555556</v>
       </c>
       <c r="D15" t="n">
-        <v>107.15</v>
+        <v>120.5</v>
       </c>
       <c r="E15" t="n">
-        <v>118.4</v>
+        <v>130</v>
       </c>
       <c r="F15" t="n">
-        <v>126.5</v>
+        <v>130</v>
       </c>
       <c r="G15" t="n">
-        <v>122.58</v>
+        <v>71.5</v>
       </c>
       <c r="H15" t="n">
-        <v>71.63888888888889</v>
+        <v>82.93625</v>
       </c>
       <c r="I15" t="n">
-        <v>84.55</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J15" t="n">
+        <v>68.88888888888889</v>
+      </c>
       <c r="K15" t="n">
-        <v>69.22857142857143</v>
+        <v>77.96666666666667</v>
       </c>
       <c r="L15" t="n">
         <v>84</v>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>107</v>
+      </c>
       <c r="N15" t="n">
-        <v>111.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>140</v>
-      </c>
-      <c r="P15" t="n">
-        <v>150</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="n">
-        <v>122</v>
-      </c>
-      <c r="U15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>110</v>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="n">
+        <v>72.9825</v>
+      </c>
       <c r="V15" t="n">
-        <v>77.06</v>
+        <v>72</v>
       </c>
       <c r="W15" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="X15" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -1346,62 +1355,61 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>23/11/2023</t>
+          <t>21/12/2023</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>74.31923076923077</v>
+        <v>106.3875</v>
       </c>
       <c r="D16" t="n">
-        <v>102.9266666666667</v>
+        <v>121.75</v>
       </c>
       <c r="E16" t="n">
-        <v>114.6</v>
+        <v>131</v>
       </c>
       <c r="F16" t="n">
-        <v>122.8333333333333</v>
+        <v>130</v>
       </c>
       <c r="G16" t="n">
-        <v>128.6666666666667</v>
+        <v>70.83333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>71.63888888888889</v>
+        <v>82.7</v>
       </c>
       <c r="I16" t="n">
-        <v>79.47666666666667</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J16" t="n">
+        <v>68.875</v>
+      </c>
       <c r="K16" t="n">
-        <v>67.5</v>
+        <v>80</v>
       </c>
       <c r="L16" t="n">
-        <v>79</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>84</v>
+      </c>
+      <c r="M16" t="n">
+        <v>107</v>
+      </c>
       <c r="N16" t="n">
-        <v>111.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>136.3333333333333</v>
-      </c>
-      <c r="P16" t="n">
-        <v>150</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="n">
-        <v>122</v>
-      </c>
-      <c r="U16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>110</v>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="n">
+        <v>72.28571428571429</v>
+      </c>
       <c r="V16" t="n">
-        <v>72.842</v>
+        <v>72</v>
       </c>
       <c r="W16" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="X16" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -1410,64 +1418,61 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>24/11/2023</t>
+          <t>22/12/2023</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>74.8125</v>
+        <v>106.4444444444444</v>
       </c>
       <c r="D17" t="n">
-        <v>100.3811764705882</v>
+        <v>118.5</v>
       </c>
       <c r="E17" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F17" t="n">
-        <v>122.0833333333333</v>
+        <v>130</v>
       </c>
       <c r="G17" t="n">
-        <v>129</v>
+        <v>70.83333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>70.26666666666667</v>
+        <v>83.47555555555556</v>
       </c>
       <c r="I17" t="n">
-        <v>79.065</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>71.5</v>
+        <v>69.16666666666667</v>
       </c>
       <c r="K17" t="n">
-        <v>67.2</v>
+        <v>79.75</v>
       </c>
       <c r="L17" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>84</v>
+      </c>
+      <c r="M17" t="n">
+        <v>107.5</v>
+      </c>
       <c r="N17" t="n">
-        <v>111.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>136.3333333333333</v>
-      </c>
-      <c r="P17" t="n">
-        <v>150</v>
-      </c>
+        <v>138.6</v>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="n">
-        <v>122</v>
-      </c>
-      <c r="U17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>110</v>
+      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="n">
+        <v>73.31588235294117</v>
+      </c>
       <c r="V17" t="n">
-        <v>74.59999999999999</v>
+        <v>71.75</v>
       </c>
       <c r="W17" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="X17" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -1476,66 +1481,61 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>27/11/2023</t>
+          <t>26/12/2023</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>74.578</v>
+        <v>106.4333333333333</v>
       </c>
       <c r="D18" t="n">
-        <v>101.4983333333333</v>
+        <v>117.4666666666667</v>
       </c>
       <c r="E18" t="n">
-        <v>114.5</v>
+        <v>121.8</v>
       </c>
       <c r="F18" t="n">
-        <v>123.5</v>
+        <v>130</v>
       </c>
       <c r="G18" t="n">
-        <v>129</v>
+        <v>70.83333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>70.5</v>
+        <v>83.995</v>
       </c>
       <c r="I18" t="n">
-        <v>79.098</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>71.5</v>
+        <v>69.16666666666667</v>
       </c>
       <c r="K18" t="n">
-        <v>68</v>
+        <v>79.75</v>
       </c>
       <c r="L18" t="n">
-        <v>77.33333333333333</v>
+        <v>84</v>
       </c>
       <c r="M18" t="n">
-        <v>80</v>
+        <v>107.5</v>
       </c>
       <c r="N18" t="n">
-        <v>111.5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>136.3333333333333</v>
-      </c>
-      <c r="P18" t="n">
-        <v>150</v>
-      </c>
+        <v>138.6</v>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="n">
-        <v>122</v>
-      </c>
-      <c r="U18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>110</v>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="n">
+        <v>73.16666666666667</v>
+      </c>
       <c r="V18" t="n">
-        <v>74.09999999999999</v>
+        <v>71.75</v>
       </c>
       <c r="W18" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="X18" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -1544,66 +1544,61 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>27/12/2023</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>74.30714285714285</v>
+        <v>105.9375</v>
       </c>
       <c r="D19" t="n">
-        <v>103.2833333333333</v>
+        <v>119.03</v>
       </c>
       <c r="E19" t="n">
-        <v>116</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="F19" t="n">
-        <v>123.5</v>
+        <v>130</v>
       </c>
       <c r="G19" t="n">
-        <v>127.285</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>70</v>
+        <v>83.995</v>
       </c>
       <c r="I19" t="n">
-        <v>79.25</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>71.5</v>
+        <v>69</v>
       </c>
       <c r="K19" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="L19" t="n">
-        <v>77.33333333333333</v>
+        <v>84</v>
       </c>
       <c r="M19" t="n">
-        <v>80</v>
+        <v>107.5</v>
       </c>
       <c r="N19" t="n">
-        <v>111.5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>136.3333333333333</v>
-      </c>
-      <c r="P19" t="n">
-        <v>150</v>
-      </c>
+        <v>138.6</v>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="n">
-        <v>122</v>
-      </c>
-      <c r="U19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>110</v>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="n">
+        <v>73.1875</v>
+      </c>
       <c r="V19" t="n">
-        <v>73.55499999999999</v>
+        <v>72.80769230769231</v>
       </c>
       <c r="W19" t="n">
-        <v>76</v>
-      </c>
-      <c r="X19" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -1612,66 +1607,61 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>29/11/2023</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>73.90833333333333</v>
+        <v>106</v>
       </c>
       <c r="D20" t="n">
-        <v>101.5</v>
+        <v>120.5</v>
       </c>
       <c r="E20" t="n">
-        <v>116</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="F20" t="n">
-        <v>123.5</v>
+        <v>130</v>
       </c>
       <c r="G20" t="n">
-        <v>127.285</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>70.625</v>
+        <v>83.995</v>
       </c>
       <c r="I20" t="n">
-        <v>79.25</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>71.5</v>
+        <v>69</v>
       </c>
       <c r="K20" t="n">
-        <v>68.5</v>
+        <v>79</v>
       </c>
       <c r="L20" t="n">
-        <v>77.33333333333333</v>
+        <v>84</v>
       </c>
       <c r="M20" t="n">
-        <v>80</v>
+        <v>107.5</v>
       </c>
       <c r="N20" t="n">
-        <v>107</v>
-      </c>
-      <c r="O20" t="n">
-        <v>134.5</v>
-      </c>
-      <c r="P20" t="n">
-        <v>150</v>
-      </c>
+        <v>138.6</v>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="n">
-        <v>122</v>
-      </c>
-      <c r="U20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>110</v>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="n">
+        <v>72.27000000000001</v>
+      </c>
       <c r="V20" t="n">
-        <v>71.62</v>
+        <v>72.125</v>
       </c>
       <c r="W20" t="n">
-        <v>71</v>
-      </c>
-      <c r="X20" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -1680,66 +1670,61 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>30/11/2023</t>
+          <t>29/12/2023</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>72.34999999999999</v>
+        <v>105</v>
       </c>
       <c r="D21" t="n">
-        <v>101.7285714285714</v>
+        <v>125</v>
       </c>
       <c r="E21" t="n">
-        <v>115</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="F21" t="n">
-        <v>123.5</v>
+        <v>116</v>
       </c>
       <c r="G21" t="n">
-        <v>127.285</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>70.625</v>
+        <v>83.995</v>
       </c>
       <c r="I21" t="n">
-        <v>77.995</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>72.5</v>
+        <v>69</v>
       </c>
       <c r="K21" t="n">
-        <v>68.16666666666667</v>
+        <v>79</v>
       </c>
       <c r="L21" t="n">
-        <v>76.5</v>
+        <v>84</v>
       </c>
       <c r="M21" t="n">
-        <v>80</v>
+        <v>107.5</v>
       </c>
       <c r="N21" t="n">
-        <v>107</v>
-      </c>
-      <c r="O21" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="P21" t="n">
-        <v>147.5</v>
-      </c>
+        <v>138.6</v>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="n">
-        <v>122</v>
-      </c>
-      <c r="U21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>110</v>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>71.33333333333333</v>
+      </c>
       <c r="V21" t="n">
-        <v>71.8</v>
+        <v>71.4375</v>
       </c>
       <c r="W21" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="X21" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -1748,66 +1733,61 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/01/2024</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>73.625</v>
+        <v>106.3</v>
       </c>
       <c r="D22" t="n">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E22" t="n">
-        <v>115</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="F22" t="n">
-        <v>123.5</v>
+        <v>135</v>
       </c>
       <c r="G22" t="n">
-        <v>127.285</v>
+        <v>69</v>
       </c>
       <c r="H22" t="n">
-        <v>70.625</v>
+        <v>83.125</v>
       </c>
       <c r="I22" t="n">
-        <v>77.995</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>72.5</v>
+        <v>68.39999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>68.16666666666667</v>
+        <v>79</v>
       </c>
       <c r="L22" t="n">
-        <v>76.5</v>
+        <v>84</v>
       </c>
       <c r="M22" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="N22" t="n">
-        <v>105</v>
-      </c>
-      <c r="O22" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="P22" t="n">
-        <v>147.5</v>
-      </c>
+        <v>138.6</v>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="n">
-        <v>122</v>
-      </c>
-      <c r="U22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>110</v>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="n">
+        <v>68.58888888888889</v>
+      </c>
       <c r="V22" t="n">
-        <v>71.2</v>
+        <v>69.551</v>
       </c>
       <c r="W22" t="n">
-        <v>73</v>
-      </c>
-      <c r="X22" t="n">
-        <v>73</v>
+        <v>69.25</v>
       </c>
     </row>
     <row r="23">
@@ -1816,66 +1796,61 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>03/01/2024</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>74.16666666666667</v>
+        <v>107.5726315789474</v>
       </c>
       <c r="D23" t="n">
-        <v>103.25</v>
+        <v>123.7</v>
       </c>
       <c r="E23" t="n">
-        <v>115</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="F23" t="n">
-        <v>123.5</v>
+        <v>135</v>
       </c>
       <c r="G23" t="n">
-        <v>127.285</v>
+        <v>69</v>
       </c>
       <c r="H23" t="n">
-        <v>70</v>
+        <v>84.11111111111111</v>
       </c>
       <c r="I23" t="n">
-        <v>77.995</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>72.5</v>
+        <v>64.5</v>
       </c>
       <c r="K23" t="n">
-        <v>68.16666666666667</v>
+        <v>79.40909090909091</v>
       </c>
       <c r="L23" t="n">
-        <v>76.5</v>
+        <v>84</v>
       </c>
       <c r="M23" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="N23" t="n">
-        <v>106.25</v>
-      </c>
-      <c r="O23" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="P23" t="n">
-        <v>147.5</v>
-      </c>
+        <v>138.6</v>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="n">
-        <v>122</v>
-      </c>
-      <c r="U23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>110</v>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="n">
+        <v>68.3625</v>
+      </c>
       <c r="V23" t="n">
-        <v>72.36666666666666</v>
+        <v>70.23888888888888</v>
       </c>
       <c r="W23" t="n">
-        <v>72.33333333333333</v>
-      </c>
-      <c r="X23" t="n">
-        <v>73</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="24">
@@ -1884,66 +1859,61 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>04/01/2024</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>76.31666666666666</v>
+        <v>110.1666666666667</v>
       </c>
       <c r="D24" t="n">
-        <v>103.5</v>
+        <v>127</v>
       </c>
       <c r="E24" t="n">
-        <v>115</v>
+        <v>133.25</v>
       </c>
       <c r="F24" t="n">
-        <v>123.5</v>
+        <v>135</v>
       </c>
       <c r="G24" t="n">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="H24" t="n">
-        <v>70</v>
+        <v>85.92999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>77.995</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>72.5</v>
+        <v>68.05500000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>66.5</v>
+        <v>80.79400000000001</v>
       </c>
       <c r="L24" t="n">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="M24" t="n">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="N24" t="n">
-        <v>104.25</v>
-      </c>
-      <c r="O24" t="n">
-        <v>132.75</v>
-      </c>
-      <c r="P24" t="n">
-        <v>147.5</v>
-      </c>
+        <v>138.6</v>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="n">
-        <v>122</v>
-      </c>
-      <c r="U24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>110</v>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="n">
+        <v>68.26875</v>
+      </c>
       <c r="V24" t="n">
-        <v>71.67</v>
+        <v>70.55</v>
       </c>
       <c r="W24" t="n">
-        <v>72.33333333333333</v>
-      </c>
-      <c r="X24" t="n">
-        <v>73</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="25">
@@ -1952,66 +1922,61 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>05/01/2024</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>74.19388888888889</v>
+        <v>110.7177272727273</v>
       </c>
       <c r="D25" t="n">
-        <v>105.3636363636364</v>
+        <v>126.6666666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>115</v>
+        <v>133.25</v>
       </c>
       <c r="F25" t="n">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G25" t="n">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="H25" t="n">
-        <v>69.25</v>
+        <v>86.98466666666667</v>
       </c>
       <c r="I25" t="n">
-        <v>79.33333333333333</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>72.5</v>
+        <v>68</v>
       </c>
       <c r="K25" t="n">
-        <v>66.5</v>
+        <v>81.3</v>
       </c>
       <c r="L25" t="n">
-        <v>77</v>
+        <v>94.25</v>
       </c>
       <c r="M25" t="n">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="N25" t="n">
-        <v>105.375</v>
-      </c>
-      <c r="O25" t="n">
-        <v>132.75</v>
-      </c>
-      <c r="P25" t="n">
-        <v>147.5</v>
-      </c>
+        <v>138.6</v>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="n">
-        <v>122</v>
-      </c>
-      <c r="U25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>110</v>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="n">
+        <v>67.01875</v>
+      </c>
       <c r="V25" t="n">
-        <v>72.27692307692308</v>
+        <v>69.00909090909092</v>
       </c>
       <c r="W25" t="n">
-        <v>72.33333333333333</v>
-      </c>
-      <c r="X25" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
@@ -2020,66 +1985,63 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>74.95</v>
+        <v>114.1496428571429</v>
       </c>
       <c r="D26" t="n">
-        <v>107.2142857142857</v>
+        <v>131</v>
       </c>
       <c r="E26" t="n">
-        <v>119</v>
+        <v>137.995</v>
       </c>
       <c r="F26" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G26" t="n">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="H26" t="n">
-        <v>69.25</v>
+        <v>88.643125</v>
       </c>
       <c r="I26" t="n">
-        <v>79.75</v>
+        <v>70</v>
       </c>
       <c r="J26" t="n">
-        <v>72.5</v>
+        <v>68</v>
       </c>
       <c r="K26" t="n">
-        <v>67.5</v>
+        <v>81</v>
       </c>
       <c r="L26" t="n">
-        <v>76</v>
+        <v>98.41416666666667</v>
       </c>
       <c r="M26" t="n">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="N26" t="n">
-        <v>105.375</v>
-      </c>
-      <c r="O26" t="n">
-        <v>132.75</v>
-      </c>
-      <c r="P26" t="n">
-        <v>147.5</v>
-      </c>
+        <v>138.6</v>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>110</v>
+      </c>
       <c r="T26" t="n">
-        <v>122</v>
-      </c>
-      <c r="U26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>68.37586206896552</v>
+      </c>
       <c r="V26" t="n">
-        <v>71.81526315789473</v>
+        <v>70.75473684210526</v>
       </c>
       <c r="W26" t="n">
-        <v>72</v>
-      </c>
-      <c r="X26" t="n">
-        <v>72</v>
+        <v>70.4375</v>
       </c>
     </row>
     <row r="27">
@@ -2088,66 +2050,63 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>74</v>
+        <v>123.7875</v>
       </c>
       <c r="D27" t="n">
-        <v>106.1</v>
+        <v>141</v>
       </c>
       <c r="E27" t="n">
-        <v>118.3333333333333</v>
+        <v>144.5</v>
       </c>
       <c r="F27" t="n">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G27" t="n">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="H27" t="n">
-        <v>68.875</v>
+        <v>95.61658536585367</v>
       </c>
       <c r="I27" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J27" t="n">
-        <v>72.5</v>
+        <v>70.40454545454546</v>
       </c>
       <c r="K27" t="n">
-        <v>67.95</v>
+        <v>84.95</v>
       </c>
       <c r="L27" t="n">
-        <v>76</v>
+        <v>105.2714285714286</v>
       </c>
       <c r="M27" t="n">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="N27" t="n">
-        <v>104.25</v>
-      </c>
-      <c r="O27" t="n">
-        <v>145</v>
-      </c>
-      <c r="P27" t="n">
-        <v>147.5</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>119.5</v>
+      </c>
       <c r="T27" t="n">
-        <v>118</v>
-      </c>
-      <c r="U27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>66.03888888888889</v>
+      </c>
       <c r="V27" t="n">
-        <v>70.21428571428571</v>
+        <v>71.17966666666666</v>
       </c>
       <c r="W27" t="n">
-        <v>70.625</v>
-      </c>
-      <c r="X27" t="n">
-        <v>70.5</v>
+        <v>70.4375</v>
       </c>
     </row>
     <row r="28">
@@ -2156,66 +2115,65 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>74.75</v>
+        <v>124.8271111111111</v>
       </c>
       <c r="D28" t="n">
-        <v>106.94</v>
+        <v>139.7652941176471</v>
       </c>
       <c r="E28" t="n">
-        <v>119.65</v>
+        <v>144.6666666666667</v>
       </c>
       <c r="F28" t="n">
-        <v>127.3</v>
+        <v>149.51</v>
       </c>
       <c r="G28" t="n">
-        <v>130</v>
+        <v>68.5</v>
       </c>
       <c r="H28" t="n">
+        <v>96.73131147540983</v>
+      </c>
+      <c r="I28" t="n">
         <v>70</v>
       </c>
-      <c r="I28" t="n">
-        <v>79.66666666666667</v>
-      </c>
       <c r="J28" t="n">
-        <v>72.5</v>
+        <v>70.9175</v>
       </c>
       <c r="K28" t="n">
-        <v>68</v>
+        <v>82.38</v>
       </c>
       <c r="L28" t="n">
-        <v>76</v>
+        <v>106.87375</v>
       </c>
       <c r="M28" t="n">
-        <v>82</v>
+        <v>159.325</v>
       </c>
       <c r="N28" t="n">
-        <v>104.25</v>
+        <v>174.825</v>
       </c>
       <c r="O28" t="n">
-        <v>145</v>
-      </c>
-      <c r="P28" t="n">
-        <v>147.5</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="S28" t="n">
+        <v>119.5</v>
+      </c>
       <c r="T28" t="n">
-        <v>110</v>
-      </c>
-      <c r="U28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>64.41089285714285</v>
+      </c>
       <c r="V28" t="n">
-        <v>72.09736842105262</v>
+        <v>69.38857142857142</v>
       </c>
       <c r="W28" t="n">
-        <v>71.75</v>
-      </c>
-      <c r="X28" t="n">
-        <v>70.5</v>
+        <v>69.13500000000001</v>
       </c>
     </row>
     <row r="29">
@@ -2224,66 +2182,67 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>75.21428571428571</v>
+        <v>117.5280769230769</v>
       </c>
       <c r="D29" t="n">
-        <v>107.4222222222222</v>
+        <v>136.9993333333333</v>
       </c>
       <c r="E29" t="n">
-        <v>116</v>
+        <v>141.8333333333333</v>
       </c>
       <c r="F29" t="n">
-        <v>127.3</v>
+        <v>145.5</v>
       </c>
       <c r="G29" t="n">
-        <v>130</v>
+        <v>68.5</v>
       </c>
       <c r="H29" t="n">
-        <v>70.55</v>
+        <v>90.24947368421053</v>
       </c>
       <c r="I29" t="n">
-        <v>80.75</v>
+        <v>70</v>
       </c>
       <c r="J29" t="n">
-        <v>72.5</v>
+        <v>69.05555555555556</v>
       </c>
       <c r="K29" t="n">
-        <v>68</v>
+        <v>79.57045454545454</v>
       </c>
       <c r="L29" t="n">
-        <v>76</v>
+        <v>100.9090909090909</v>
       </c>
       <c r="M29" t="n">
-        <v>82</v>
+        <v>159.325</v>
       </c>
       <c r="N29" t="n">
-        <v>106.5</v>
+        <v>174.825</v>
       </c>
       <c r="O29" t="n">
-        <v>141</v>
-      </c>
-      <c r="P29" t="n">
-        <v>147.5</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>99</v>
+      </c>
+      <c r="S29" t="n">
+        <v>120.8333333333333</v>
+      </c>
       <c r="T29" t="n">
-        <v>110</v>
-      </c>
-      <c r="U29" t="inlineStr"/>
+        <v>0.58125</v>
+      </c>
+      <c r="U29" t="n">
+        <v>64.58499999999999</v>
+      </c>
       <c r="V29" t="n">
-        <v>74.65890909090909</v>
+        <v>67.6837837837838</v>
       </c>
       <c r="W29" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="X29" t="n">
-        <v>70.5</v>
+        <v>68.1152</v>
       </c>
     </row>
     <row r="30">
@@ -2292,66 +2251,67 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>12/01/2024</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>75.5</v>
+        <v>123.0051282051282</v>
       </c>
       <c r="D30" t="n">
-        <v>107.8316666666667</v>
+        <v>138.6666666666667</v>
       </c>
       <c r="E30" t="n">
-        <v>120</v>
+        <v>141.8333333333333</v>
       </c>
       <c r="F30" t="n">
-        <v>127</v>
+        <v>145.5</v>
       </c>
       <c r="G30" t="n">
-        <v>130</v>
+        <v>68.5</v>
       </c>
       <c r="H30" t="n">
-        <v>70.25</v>
+        <v>93.6430303030303</v>
       </c>
       <c r="I30" t="n">
-        <v>81.40000000000001</v>
+        <v>70</v>
       </c>
       <c r="J30" t="n">
-        <v>72.5</v>
+        <v>69.6225</v>
       </c>
       <c r="K30" t="n">
-        <v>69.5</v>
+        <v>82.19090909090909</v>
       </c>
       <c r="L30" t="n">
-        <v>76</v>
+        <v>105.5</v>
       </c>
       <c r="M30" t="n">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="N30" t="n">
-        <v>103.1333333333333</v>
+        <v>153.5</v>
       </c>
       <c r="O30" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="P30" t="n">
-        <v>147.5</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>99</v>
+      </c>
+      <c r="S30" t="n">
+        <v>125</v>
+      </c>
       <c r="T30" t="n">
-        <v>110</v>
-      </c>
-      <c r="U30" t="inlineStr"/>
+        <v>0.6</v>
+      </c>
+      <c r="U30" t="n">
+        <v>64.52</v>
+      </c>
       <c r="V30" t="n">
-        <v>73.82222222222222</v>
+        <v>68.375</v>
       </c>
       <c r="W30" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="X30" t="n">
-        <v>70.5</v>
+        <v>68.73166666666667</v>
       </c>
     </row>
     <row r="31">
@@ -2360,66 +2320,67 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/01/2024</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>74.7475</v>
+        <v>122.6718181818182</v>
       </c>
       <c r="D31" t="n">
-        <v>108.5</v>
+        <v>140</v>
       </c>
       <c r="E31" t="n">
-        <v>121</v>
+        <v>141.8333333333333</v>
       </c>
       <c r="F31" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G31" t="n">
-        <v>130</v>
+        <v>68.5</v>
       </c>
       <c r="H31" t="n">
-        <v>71</v>
+        <v>93.85981818181818</v>
       </c>
       <c r="I31" t="n">
-        <v>83</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>72.59999999999999</v>
+        <v>69.34307692307692</v>
       </c>
       <c r="K31" t="n">
-        <v>69.5</v>
+        <v>82.565</v>
       </c>
       <c r="L31" t="n">
-        <v>76</v>
+        <v>105.5833333333333</v>
       </c>
       <c r="M31" t="n">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="N31" t="n">
-        <v>102.325</v>
+        <v>155</v>
       </c>
       <c r="O31" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="P31" t="n">
-        <v>147.5</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>99</v>
+      </c>
+      <c r="S31" t="n">
+        <v>125</v>
+      </c>
       <c r="T31" t="n">
-        <v>110</v>
-      </c>
-      <c r="U31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>64.56206896551724</v>
+      </c>
       <c r="V31" t="n">
-        <v>74.15833333333333</v>
+        <v>67.97999999999999</v>
       </c>
       <c r="W31" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="X31" t="n">
-        <v>70.5</v>
+        <v>68.22222222222223</v>
       </c>
     </row>
     <row r="32">
@@ -2428,66 +2389,67 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/01/2024</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>76</v>
+        <v>117.7789795918367</v>
       </c>
       <c r="D32" t="n">
-        <v>108.5</v>
+        <v>136.5833333333333</v>
       </c>
       <c r="E32" t="n">
-        <v>121</v>
+        <v>139.3333333333333</v>
       </c>
       <c r="F32" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G32" t="n">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="H32" t="n">
-        <v>71</v>
+        <v>89.77933333333334</v>
       </c>
       <c r="I32" t="n">
-        <v>82.5</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>72.59999999999999</v>
+        <v>67.46428571428571</v>
       </c>
       <c r="K32" t="n">
-        <v>69.5</v>
+        <v>80.7590625</v>
       </c>
       <c r="L32" t="n">
-        <v>77.5</v>
+        <v>99.41466666666666</v>
       </c>
       <c r="M32" t="n">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="N32" t="n">
-        <v>102.325</v>
+        <v>145</v>
       </c>
       <c r="O32" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="P32" t="n">
-        <v>147.5</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+      <c r="R32" t="n">
+        <v>99</v>
+      </c>
+      <c r="S32" t="n">
+        <v>119</v>
+      </c>
       <c r="T32" t="n">
-        <v>110</v>
-      </c>
-      <c r="U32" t="inlineStr"/>
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="U32" t="n">
+        <v>64.09027777777777</v>
+      </c>
       <c r="V32" t="n">
-        <v>72.89999999999999</v>
+        <v>66.19466666666668</v>
       </c>
       <c r="W32" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="X32" t="n">
-        <v>70.5</v>
+        <v>66.72851851851853</v>
       </c>
     </row>
     <row r="33">
@@ -2496,66 +2458,67 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>18/12/2023</t>
+          <t>17/01/2024</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>73</v>
+        <v>116.4174285714286</v>
       </c>
       <c r="D33" t="n">
-        <v>110.6818181818182</v>
+        <v>134.625</v>
       </c>
       <c r="E33" t="n">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="F33" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G33" t="n">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="H33" t="n">
-        <v>71.46666666666667</v>
+        <v>88.87617647058823</v>
       </c>
       <c r="I33" t="n">
-        <v>84.5</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>72.59999999999999</v>
+        <v>67.78571428571429</v>
       </c>
       <c r="K33" t="n">
-        <v>68</v>
+        <v>79.7769387755102</v>
       </c>
       <c r="L33" t="n">
-        <v>81</v>
+        <v>97.48</v>
       </c>
       <c r="M33" t="n">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="N33" t="n">
-        <v>102.325</v>
+        <v>150.5</v>
       </c>
       <c r="O33" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="P33" t="n">
-        <v>147.5</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>99</v>
+      </c>
+      <c r="S33" t="n">
+        <v>119</v>
+      </c>
       <c r="T33" t="n">
-        <v>110</v>
-      </c>
-      <c r="U33" t="inlineStr"/>
+        <v>0.67375</v>
+      </c>
+      <c r="U33" t="n">
+        <v>63.6355</v>
+      </c>
       <c r="V33" t="n">
-        <v>76.56812499999999</v>
+        <v>66.32871794871795</v>
       </c>
       <c r="W33" t="n">
-        <v>74.714</v>
-      </c>
-      <c r="X33" t="n">
-        <v>74</v>
+        <v>66.75833333333334</v>
       </c>
     </row>
     <row r="34">
@@ -2564,66 +2527,67 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>19/12/2023</t>
+          <t>18/01/2024</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>74.34</v>
+        <v>111.5074576271186</v>
       </c>
       <c r="D34" t="n">
-        <v>107.5625</v>
+        <v>130.9282608695652</v>
       </c>
       <c r="E34" t="n">
-        <v>122.9166666666667</v>
+        <v>136.0666666666667</v>
       </c>
       <c r="F34" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G34" t="n">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="H34" t="n">
-        <v>69.97777777777777</v>
+        <v>85.05632352941177</v>
       </c>
       <c r="I34" t="n">
-        <v>80.755</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>72.59999999999999</v>
+        <v>66.80833333333334</v>
       </c>
       <c r="K34" t="n">
-        <v>68</v>
+        <v>77.65283333333333</v>
       </c>
       <c r="L34" t="n">
-        <v>77.96666666666667</v>
+        <v>92.89999999999999</v>
       </c>
       <c r="M34" t="n">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="N34" t="n">
-        <v>102.325</v>
+        <v>145.9333333333333</v>
       </c>
       <c r="O34" t="n">
-        <v>141</v>
-      </c>
-      <c r="P34" t="n">
-        <v>147.5</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>99</v>
+      </c>
+      <c r="S34" t="n">
+        <v>119</v>
+      </c>
       <c r="T34" t="n">
-        <v>110</v>
-      </c>
-      <c r="U34" t="inlineStr"/>
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="U34" t="n">
+        <v>62.584375</v>
+      </c>
       <c r="V34" t="n">
-        <v>71.16441176470589</v>
+        <v>64.53727272727272</v>
       </c>
       <c r="W34" t="n">
-        <v>71.25</v>
-      </c>
-      <c r="X34" t="n">
-        <v>70.41666666666667</v>
+        <v>65.87709677419355</v>
       </c>
     </row>
     <row r="35">
@@ -2632,66 +2596,67 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>20/12/2023</t>
+          <t>19/01/2024</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>75.5</v>
+        <v>114.1885714285714</v>
       </c>
       <c r="D35" t="n">
-        <v>109.0555555555556</v>
+        <v>123.4</v>
       </c>
       <c r="E35" t="n">
-        <v>120.5</v>
+        <v>135</v>
       </c>
       <c r="F35" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G35" t="n">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="H35" t="n">
-        <v>71.5</v>
+        <v>86.12666666666668</v>
       </c>
       <c r="I35" t="n">
-        <v>82.93625</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>72.59999999999999</v>
+        <v>66.90416666666667</v>
       </c>
       <c r="K35" t="n">
-        <v>68.88888888888889</v>
+        <v>77.41666666666667</v>
       </c>
       <c r="L35" t="n">
-        <v>77.96666666666667</v>
+        <v>95.25</v>
       </c>
       <c r="M35" t="n">
-        <v>84</v>
+        <v>108.5</v>
       </c>
       <c r="N35" t="n">
-        <v>107</v>
+        <v>145.9333333333333</v>
       </c>
       <c r="O35" t="n">
-        <v>141</v>
-      </c>
-      <c r="P35" t="n">
-        <v>147.5</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>99</v>
+      </c>
+      <c r="S35" t="n">
+        <v>119</v>
+      </c>
       <c r="T35" t="n">
-        <v>110</v>
-      </c>
-      <c r="U35" t="inlineStr"/>
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="U35" t="n">
+        <v>62.15</v>
+      </c>
       <c r="V35" t="n">
-        <v>72.9825</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="W35" t="n">
-        <v>72</v>
-      </c>
-      <c r="X35" t="n">
-        <v>70</v>
+        <v>65.14285714285714</v>
       </c>
     </row>
     <row r="36">
@@ -2700,66 +2665,67 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>21/12/2023</t>
+          <t>22/01/2024</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>76.42857142857143</v>
+        <v>119.8415789473684</v>
       </c>
       <c r="D36" t="n">
-        <v>106.3875</v>
+        <v>135.5833333333333</v>
       </c>
       <c r="E36" t="n">
-        <v>121.75</v>
+        <v>140.5</v>
       </c>
       <c r="F36" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G36" t="n">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="H36" t="n">
-        <v>70.83333333333333</v>
+        <v>90.68212765957448</v>
       </c>
       <c r="I36" t="n">
-        <v>82.7</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>72.59999999999999</v>
+        <v>67.98076923076923</v>
       </c>
       <c r="K36" t="n">
-        <v>68.875</v>
+        <v>80.73218749999999</v>
       </c>
       <c r="L36" t="n">
-        <v>80</v>
+        <v>99.001875</v>
       </c>
       <c r="M36" t="n">
-        <v>84</v>
+        <v>108.5</v>
       </c>
       <c r="N36" t="n">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="O36" t="n">
-        <v>141</v>
-      </c>
-      <c r="P36" t="n">
-        <v>147.5</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>99</v>
+      </c>
+      <c r="S36" t="n">
+        <v>119</v>
+      </c>
       <c r="T36" t="n">
-        <v>110</v>
-      </c>
-      <c r="U36" t="inlineStr"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="U36" t="n">
+        <v>63</v>
+      </c>
       <c r="V36" t="n">
-        <v>72.28571428571429</v>
+        <v>64.60640000000001</v>
       </c>
       <c r="W36" t="n">
-        <v>72</v>
-      </c>
-      <c r="X36" t="n">
-        <v>70</v>
+        <v>65.69642857142857</v>
       </c>
     </row>
     <row r="37">
@@ -2768,66 +2734,67 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>22/12/2023</t>
+          <t>23/01/2024</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>76.8</v>
+        <v>123.84</v>
       </c>
       <c r="D37" t="n">
-        <v>106.4444444444444</v>
+        <v>139.1428571428571</v>
       </c>
       <c r="E37" t="n">
-        <v>118.5</v>
+        <v>141.5</v>
       </c>
       <c r="F37" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G37" t="n">
-        <v>130</v>
+        <v>68.5</v>
       </c>
       <c r="H37" t="n">
-        <v>70.83333333333333</v>
+        <v>96.72918367346938</v>
       </c>
       <c r="I37" t="n">
-        <v>83.47555555555556</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>72.59999999999999</v>
+        <v>68.72222222222223</v>
       </c>
       <c r="K37" t="n">
-        <v>69.16666666666667</v>
+        <v>84.36428571428571</v>
       </c>
       <c r="L37" t="n">
-        <v>79.75</v>
+        <v>107.1055172413793</v>
       </c>
       <c r="M37" t="n">
-        <v>84</v>
+        <v>108.5</v>
       </c>
       <c r="N37" t="n">
-        <v>107.5</v>
+        <v>158</v>
       </c>
       <c r="O37" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="P37" t="n">
-        <v>147.5</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>99</v>
+      </c>
+      <c r="S37" t="n">
+        <v>119</v>
+      </c>
       <c r="T37" t="n">
-        <v>110</v>
-      </c>
-      <c r="U37" t="inlineStr"/>
+        <v>0.7</v>
+      </c>
+      <c r="U37" t="n">
+        <v>62.17285714285714</v>
+      </c>
       <c r="V37" t="n">
-        <v>73.31588235294117</v>
+        <v>65.325</v>
       </c>
       <c r="W37" t="n">
-        <v>71.75</v>
-      </c>
-      <c r="X37" t="n">
-        <v>70</v>
+        <v>66.55833333333334</v>
       </c>
     </row>
     <row r="38">
@@ -2836,66 +2803,69 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>26/12/2023</t>
+          <t>24/01/2024</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>75.83333333333333</v>
+        <v>125.218125</v>
       </c>
       <c r="D38" t="n">
-        <v>106.4333333333333</v>
+        <v>140.8125</v>
       </c>
       <c r="E38" t="n">
-        <v>117.4666666666667</v>
+        <v>145</v>
       </c>
       <c r="F38" t="n">
-        <v>121.8</v>
+        <v>145</v>
       </c>
       <c r="G38" t="n">
-        <v>130</v>
+        <v>64.75</v>
       </c>
       <c r="H38" t="n">
-        <v>70.83333333333333</v>
+        <v>95.73343749999999</v>
       </c>
       <c r="I38" t="n">
-        <v>83.995</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J38" t="n">
-        <v>72.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="K38" t="n">
-        <v>69.16666666666667</v>
+        <v>83.93205128205128</v>
       </c>
       <c r="L38" t="n">
-        <v>79.75</v>
+        <v>107.6188888888889</v>
       </c>
       <c r="M38" t="n">
-        <v>84</v>
+        <v>108.5</v>
       </c>
       <c r="N38" t="n">
-        <v>107.5</v>
+        <v>158</v>
       </c>
       <c r="O38" t="n">
-        <v>138.6</v>
+        <v>174</v>
       </c>
       <c r="P38" t="n">
-        <v>147.5</v>
+        <v>181.25</v>
       </c>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>99</v>
+      </c>
+      <c r="S38" t="n">
+        <v>119</v>
+      </c>
       <c r="T38" t="n">
-        <v>110</v>
-      </c>
-      <c r="U38" t="inlineStr"/>
+        <v>0.625</v>
+      </c>
+      <c r="U38" t="n">
+        <v>61.98333333333333</v>
+      </c>
       <c r="V38" t="n">
-        <v>73.16666666666667</v>
+        <v>64.2</v>
       </c>
       <c r="W38" t="n">
-        <v>71.75</v>
-      </c>
-      <c r="X38" t="n">
-        <v>70</v>
+        <v>65.33333333333333</v>
       </c>
     </row>
     <row r="39">
@@ -2904,66 +2874,71 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>27/12/2023</t>
+          <t>25/01/2024</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>72</v>
+        <v>128.2357692307692</v>
       </c>
       <c r="D39" t="n">
-        <v>105.9375</v>
+        <v>142.1371428571429</v>
       </c>
       <c r="E39" t="n">
-        <v>119.03</v>
+        <v>143.5725</v>
       </c>
       <c r="F39" t="n">
-        <v>130.6666666666667</v>
+        <v>148.5166666666667</v>
       </c>
       <c r="G39" t="n">
-        <v>130</v>
+        <v>64.75</v>
       </c>
       <c r="H39" t="n">
-        <v>70.43000000000001</v>
+        <v>99.5244776119403</v>
       </c>
       <c r="I39" t="n">
-        <v>83.995</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>72.59999999999999</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="K39" t="n">
-        <v>69</v>
+        <v>85.8155</v>
       </c>
       <c r="L39" t="n">
-        <v>79</v>
+        <v>113.0117948717949</v>
       </c>
       <c r="M39" t="n">
-        <v>84</v>
+        <v>108.5</v>
       </c>
       <c r="N39" t="n">
-        <v>107.5</v>
+        <v>158</v>
       </c>
       <c r="O39" t="n">
-        <v>138.6</v>
+        <v>171</v>
       </c>
       <c r="P39" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
+        <v>173</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>174</v>
+      </c>
+      <c r="R39" t="n">
+        <v>99</v>
+      </c>
+      <c r="S39" t="n">
+        <v>119</v>
+      </c>
       <c r="T39" t="n">
-        <v>110</v>
-      </c>
-      <c r="U39" t="inlineStr"/>
+        <v>0.575</v>
+      </c>
+      <c r="U39" t="n">
+        <v>62</v>
+      </c>
       <c r="V39" t="n">
-        <v>73.1875</v>
+        <v>64.13333333333334</v>
       </c>
       <c r="W39" t="n">
-        <v>72.80769230769231</v>
-      </c>
-      <c r="X39" t="n">
-        <v>70</v>
+        <v>65.25</v>
       </c>
     </row>
     <row r="40">
@@ -2972,66 +2947,71 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>28/12/2023</t>
+          <t>26/01/2024</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>72</v>
+        <v>135.400985915493</v>
       </c>
       <c r="D40" t="n">
-        <v>106</v>
+        <v>148.9295238095238</v>
       </c>
       <c r="E40" t="n">
-        <v>120.5</v>
+        <v>152</v>
       </c>
       <c r="F40" t="n">
-        <v>130.6666666666667</v>
+        <v>152</v>
       </c>
       <c r="G40" t="n">
-        <v>130</v>
+        <v>64.75</v>
       </c>
       <c r="H40" t="n">
-        <v>70.43000000000001</v>
+        <v>111.2851572327044</v>
       </c>
       <c r="I40" t="n">
-        <v>83.995</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>72.59999999999999</v>
+        <v>69.905</v>
       </c>
       <c r="K40" t="n">
-        <v>69</v>
+        <v>91.09575757575757</v>
       </c>
       <c r="L40" t="n">
-        <v>79</v>
+        <v>125.8727884615385</v>
       </c>
       <c r="M40" t="n">
-        <v>84</v>
+        <v>108.5</v>
       </c>
       <c r="N40" t="n">
-        <v>107.5</v>
+        <v>168</v>
       </c>
       <c r="O40" t="n">
-        <v>138.6</v>
+        <v>183.25</v>
       </c>
       <c r="P40" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+        <v>173</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>174</v>
+      </c>
+      <c r="R40" t="n">
+        <v>99</v>
+      </c>
+      <c r="S40" t="n">
+        <v>119</v>
+      </c>
       <c r="T40" t="n">
-        <v>110</v>
-      </c>
-      <c r="U40" t="inlineStr"/>
+        <v>0.66875</v>
+      </c>
+      <c r="U40" t="n">
+        <v>62</v>
+      </c>
       <c r="V40" t="n">
-        <v>72.27000000000001</v>
+        <v>64.7</v>
       </c>
       <c r="W40" t="n">
-        <v>72.125</v>
-      </c>
-      <c r="X40" t="n">
-        <v>70</v>
+        <v>66.995</v>
       </c>
     </row>
     <row r="41">
@@ -3040,66 +3020,71 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>27/01/2024</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="D41" t="n">
-        <v>105</v>
+        <v>148.9295238095238</v>
       </c>
       <c r="E41" t="n">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="F41" t="n">
-        <v>130.6666666666667</v>
+        <v>152</v>
       </c>
       <c r="G41" t="n">
-        <v>116</v>
+        <v>64.75</v>
       </c>
       <c r="H41" t="n">
-        <v>70.43000000000001</v>
+        <v>111.2851572327044</v>
       </c>
       <c r="I41" t="n">
-        <v>83.995</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J41" t="n">
-        <v>72.59999999999999</v>
+        <v>69.905</v>
       </c>
       <c r="K41" t="n">
-        <v>69</v>
+        <v>91.09575757575757</v>
       </c>
       <c r="L41" t="n">
-        <v>79</v>
+        <v>125.8727884615385</v>
       </c>
       <c r="M41" t="n">
-        <v>84</v>
+        <v>108.5</v>
       </c>
       <c r="N41" t="n">
-        <v>107.5</v>
+        <v>168</v>
       </c>
       <c r="O41" t="n">
-        <v>138.6</v>
+        <v>183.25</v>
       </c>
       <c r="P41" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
+        <v>173</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>174</v>
+      </c>
+      <c r="R41" t="n">
+        <v>99</v>
+      </c>
+      <c r="S41" t="n">
+        <v>119</v>
+      </c>
       <c r="T41" t="n">
-        <v>110</v>
-      </c>
-      <c r="U41" t="inlineStr"/>
+        <v>0.66875</v>
+      </c>
+      <c r="U41" t="n">
+        <v>62</v>
+      </c>
       <c r="V41" t="n">
-        <v>71.33333333333333</v>
+        <v>64.7</v>
       </c>
       <c r="W41" t="n">
-        <v>71.4375</v>
-      </c>
-      <c r="X41" t="n">
-        <v>70</v>
+        <v>66.995</v>
       </c>
     </row>
     <row r="42">
@@ -3108,66 +3093,71 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>02/01/2024</t>
+          <t>29/01/2024</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>75.66666666666667</v>
+        <v>139.2049206349206</v>
       </c>
       <c r="D42" t="n">
-        <v>106.3</v>
+        <v>149.8333333333333</v>
       </c>
       <c r="E42" t="n">
-        <v>125</v>
+        <v>152.3</v>
       </c>
       <c r="F42" t="n">
-        <v>130.6666666666667</v>
+        <v>152</v>
       </c>
       <c r="G42" t="n">
-        <v>135</v>
+        <v>64.75</v>
       </c>
       <c r="H42" t="n">
-        <v>69</v>
+        <v>110.9675</v>
       </c>
       <c r="I42" t="n">
-        <v>83.125</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J42" t="n">
-        <v>72.59999999999999</v>
+        <v>69.94333333333334</v>
       </c>
       <c r="K42" t="n">
-        <v>68.39999999999999</v>
+        <v>92.2030303030303</v>
       </c>
       <c r="L42" t="n">
-        <v>79</v>
+        <v>130.7754716981132</v>
       </c>
       <c r="M42" t="n">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="N42" t="n">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="O42" t="n">
-        <v>138.6</v>
+        <v>185</v>
       </c>
       <c r="P42" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
+        <v>188</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>174</v>
+      </c>
+      <c r="R42" t="n">
+        <v>99</v>
+      </c>
+      <c r="S42" t="n">
+        <v>119</v>
+      </c>
       <c r="T42" t="n">
-        <v>110</v>
-      </c>
-      <c r="U42" t="inlineStr"/>
+        <v>0.6863636363636364</v>
+      </c>
+      <c r="U42" t="n">
+        <v>62.075</v>
+      </c>
       <c r="V42" t="n">
-        <v>68.58888888888889</v>
+        <v>64.64</v>
       </c>
       <c r="W42" t="n">
-        <v>69.551</v>
-      </c>
-      <c r="X42" t="n">
-        <v>69.25</v>
+        <v>66.02500000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3176,66 +3166,71 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>03/01/2024</t>
+          <t>30/01/2024</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>75.66666666666667</v>
+        <v>137.0495555555555</v>
       </c>
       <c r="D43" t="n">
-        <v>107.5726315789474</v>
+        <v>144.8125</v>
       </c>
       <c r="E43" t="n">
-        <v>123.7</v>
+        <v>148.125</v>
       </c>
       <c r="F43" t="n">
-        <v>130.6666666666667</v>
+        <v>152</v>
       </c>
       <c r="G43" t="n">
-        <v>135</v>
+        <v>64.75</v>
       </c>
       <c r="H43" t="n">
-        <v>69</v>
+        <v>107.7653947368421</v>
       </c>
       <c r="I43" t="n">
-        <v>84.11111111111111</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>72.59999999999999</v>
+        <v>69.15323529411765</v>
       </c>
       <c r="K43" t="n">
-        <v>64.5</v>
+        <v>88.65657142857143</v>
       </c>
       <c r="L43" t="n">
-        <v>79.40909090909091</v>
+        <v>127.7072413793103</v>
       </c>
       <c r="M43" t="n">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="N43" t="n">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="O43" t="n">
-        <v>138.6</v>
+        <v>185</v>
       </c>
       <c r="P43" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+        <v>188</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>174</v>
+      </c>
+      <c r="R43" t="n">
+        <v>99</v>
+      </c>
+      <c r="S43" t="n">
+        <v>119</v>
+      </c>
       <c r="T43" t="n">
-        <v>110</v>
-      </c>
-      <c r="U43" t="inlineStr"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="U43" t="n">
+        <v>62</v>
+      </c>
       <c r="V43" t="n">
-        <v>68.3625</v>
+        <v>63.73363636363637</v>
       </c>
       <c r="W43" t="n">
-        <v>70.23888888888888</v>
-      </c>
-      <c r="X43" t="n">
-        <v>68.8</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="44">
@@ -3244,66 +3239,71 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>04/01/2024</t>
+          <t>31/01/2024</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>76.58</v>
+        <v>136.2977272727273</v>
       </c>
       <c r="D44" t="n">
-        <v>110.1666666666667</v>
+        <v>146</v>
       </c>
       <c r="E44" t="n">
-        <v>127</v>
+        <v>148.3333333333333</v>
       </c>
       <c r="F44" t="n">
-        <v>133.25</v>
+        <v>150.0066666666667</v>
       </c>
       <c r="G44" t="n">
-        <v>135</v>
+        <v>64.75</v>
       </c>
       <c r="H44" t="n">
-        <v>69</v>
+        <v>106.7851219512195</v>
       </c>
       <c r="I44" t="n">
-        <v>85.92999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J44" t="n">
-        <v>72.59999999999999</v>
+        <v>68.97057142857142</v>
       </c>
       <c r="K44" t="n">
-        <v>68.05500000000001</v>
+        <v>88.10166666666667</v>
       </c>
       <c r="L44" t="n">
-        <v>80.79400000000001</v>
+        <v>126.2587804878049</v>
       </c>
       <c r="M44" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N44" t="n">
-        <v>97</v>
+        <v>170.75</v>
       </c>
       <c r="O44" t="n">
-        <v>138.6</v>
+        <v>185</v>
       </c>
       <c r="P44" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
+        <v>188</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>174</v>
+      </c>
+      <c r="R44" t="n">
+        <v>99</v>
+      </c>
+      <c r="S44" t="n">
+        <v>136.5</v>
+      </c>
       <c r="T44" t="n">
-        <v>110</v>
-      </c>
-      <c r="U44" t="inlineStr"/>
+        <v>0.6115625</v>
+      </c>
+      <c r="U44" t="n">
+        <v>63.06</v>
+      </c>
       <c r="V44" t="n">
-        <v>68.26875</v>
+        <v>64.26666666666667</v>
       </c>
       <c r="W44" t="n">
-        <v>70.55</v>
-      </c>
-      <c r="X44" t="n">
-        <v>70.5</v>
+        <v>66.42761904761905</v>
       </c>
     </row>
     <row r="45">
@@ -3312,66 +3312,71 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>05/01/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>77.02888888888889</v>
+        <v>137.2878947368421</v>
       </c>
       <c r="D45" t="n">
-        <v>110.7177272727273</v>
+        <v>135.5</v>
       </c>
       <c r="E45" t="n">
-        <v>126.6666666666667</v>
+        <v>148</v>
       </c>
       <c r="F45" t="n">
-        <v>133.25</v>
+        <v>150.0066666666667</v>
       </c>
       <c r="G45" t="n">
-        <v>135</v>
+        <v>64.75</v>
       </c>
       <c r="H45" t="n">
-        <v>69</v>
+        <v>109.2476811594203</v>
       </c>
       <c r="I45" t="n">
-        <v>86.98466666666667</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>72.59999999999999</v>
+        <v>70.49163265306123</v>
       </c>
       <c r="K45" t="n">
-        <v>68</v>
+        <v>89.99432432432432</v>
       </c>
       <c r="L45" t="n">
-        <v>81.3</v>
+        <v>128.4413461538462</v>
       </c>
       <c r="M45" t="n">
-        <v>94.25</v>
+        <v>120</v>
       </c>
       <c r="N45" t="n">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="O45" t="n">
-        <v>138.6</v>
+        <v>182</v>
       </c>
       <c r="P45" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+        <v>188</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>174</v>
+      </c>
+      <c r="R45" t="n">
+        <v>99</v>
+      </c>
+      <c r="S45" t="n">
+        <v>136.5</v>
+      </c>
       <c r="T45" t="n">
-        <v>110</v>
-      </c>
-      <c r="U45" t="inlineStr"/>
+        <v>0.5764077669902913</v>
+      </c>
+      <c r="U45" t="n">
+        <v>62</v>
+      </c>
       <c r="V45" t="n">
-        <v>67.01875</v>
+        <v>64.9375</v>
       </c>
       <c r="W45" t="n">
-        <v>69.00909090909092</v>
-      </c>
-      <c r="X45" t="n">
-        <v>68</v>
+        <v>65.62857142857142</v>
       </c>
     </row>
     <row r="46">
@@ -3380,68 +3385,71 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>02/02/2024</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>78.45</v>
+        <v>143.1755102040816</v>
       </c>
       <c r="D46" t="n">
-        <v>114.1496428571429</v>
+        <v>150.515</v>
       </c>
       <c r="E46" t="n">
-        <v>131</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="F46" t="n">
-        <v>137.995</v>
+        <v>151.125</v>
       </c>
       <c r="G46" t="n">
-        <v>135</v>
+        <v>64.75</v>
       </c>
       <c r="H46" t="n">
-        <v>69</v>
+        <v>115.3198765432099</v>
       </c>
       <c r="I46" t="n">
-        <v>88.643125</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>70</v>
+        <v>70.52352941176471</v>
       </c>
       <c r="K46" t="n">
-        <v>68</v>
+        <v>95.02445945945946</v>
       </c>
       <c r="L46" t="n">
-        <v>81</v>
+        <v>134.3290607734807</v>
       </c>
       <c r="M46" t="n">
-        <v>98.41416666666667</v>
+        <v>120</v>
       </c>
       <c r="N46" t="n">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="O46" t="n">
-        <v>138.6</v>
+        <v>185.75</v>
       </c>
       <c r="P46" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+        <v>188</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>174</v>
+      </c>
+      <c r="R46" t="n">
+        <v>99</v>
+      </c>
+      <c r="S46" t="n">
+        <v>136.5</v>
+      </c>
       <c r="T46" t="n">
-        <v>110</v>
+        <v>0.6796153846153846</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="V46" t="n">
-        <v>68.37586206896552</v>
+        <v>64</v>
       </c>
       <c r="W46" t="n">
-        <v>70.75473684210526</v>
-      </c>
-      <c r="X46" t="n">
-        <v>70.4375</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47">
@@ -3450,68 +3458,71 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>09/01/2024</t>
+          <t>05/02/2024</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>81.22071428571428</v>
+        <v>158.7576315789474</v>
       </c>
       <c r="D47" t="n">
-        <v>123.7875</v>
+        <v>160.18125</v>
       </c>
       <c r="E47" t="n">
-        <v>141</v>
+        <v>158.6125</v>
       </c>
       <c r="F47" t="n">
-        <v>144.5</v>
+        <v>160</v>
       </c>
       <c r="G47" t="n">
-        <v>135</v>
+        <v>64.75</v>
       </c>
       <c r="H47" t="n">
-        <v>69</v>
+        <v>134.9989583333333</v>
       </c>
       <c r="I47" t="n">
-        <v>95.61658536585367</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>70</v>
+        <v>74.10395833333332</v>
       </c>
       <c r="K47" t="n">
-        <v>70.40454545454546</v>
+        <v>113.6128099173554</v>
       </c>
       <c r="L47" t="n">
-        <v>84.95</v>
+        <v>158.9619230769231</v>
       </c>
       <c r="M47" t="n">
-        <v>105.2714285714286</v>
+        <v>120</v>
       </c>
       <c r="N47" t="n">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="O47" t="n">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="P47" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+        <v>199</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>174</v>
+      </c>
+      <c r="R47" t="n">
+        <v>99</v>
+      </c>
+      <c r="S47" t="n">
+        <v>136.5</v>
+      </c>
       <c r="T47" t="n">
-        <v>119.5</v>
+        <v>0.4512962962962963</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V47" t="n">
-        <v>66.03888888888889</v>
+        <v>63.5</v>
       </c>
       <c r="W47" t="n">
-        <v>71.17966666666666</v>
-      </c>
-      <c r="X47" t="n">
-        <v>70.4375</v>
+        <v>68.14583333333333</v>
       </c>
     </row>
     <row r="48">
@@ -3520,68 +3531,71 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>06/02/2024</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>81.19166666666666</v>
+        <v>175.6537704918033</v>
       </c>
       <c r="D48" t="n">
-        <v>124.8271111111111</v>
+        <v>169.0621621621622</v>
       </c>
       <c r="E48" t="n">
-        <v>139.7652941176471</v>
+        <v>166.4045454545455</v>
       </c>
       <c r="F48" t="n">
-        <v>144.6666666666667</v>
+        <v>158</v>
       </c>
       <c r="G48" t="n">
-        <v>149.51</v>
+        <v>64.75</v>
       </c>
       <c r="H48" t="n">
-        <v>68.5</v>
+        <v>166.6695726495726</v>
       </c>
       <c r="I48" t="n">
-        <v>96.73131147540983</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>70</v>
+        <v>76.63704918032786</v>
       </c>
       <c r="K48" t="n">
-        <v>70.9175</v>
+        <v>146.1977659574468</v>
       </c>
       <c r="L48" t="n">
-        <v>82.38</v>
+        <v>184.10796875</v>
       </c>
       <c r="M48" t="n">
-        <v>106.87375</v>
+        <v>120</v>
       </c>
       <c r="N48" t="n">
-        <v>159.325</v>
+        <v>197</v>
       </c>
       <c r="O48" t="n">
-        <v>174.825</v>
+        <v>197</v>
       </c>
       <c r="P48" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q48" t="n">
         <v>174</v>
       </c>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>99</v>
+      </c>
+      <c r="S48" t="n">
+        <v>200</v>
+      </c>
       <c r="T48" t="n">
-        <v>119.5</v>
+        <v>0.6175757575757576</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V48" t="n">
-        <v>64.41089285714285</v>
+        <v>63.66666666666666</v>
       </c>
       <c r="W48" t="n">
-        <v>69.38857142857142</v>
-      </c>
-      <c r="X48" t="n">
-        <v>69.13500000000001</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="49">
@@ -3590,70 +3604,71 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>07/02/2024</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>78.57142857142857</v>
+        <v>173.07</v>
       </c>
       <c r="D49" t="n">
-        <v>117.5280769230769</v>
+        <v>164.275</v>
       </c>
       <c r="E49" t="n">
-        <v>136.9993333333333</v>
+        <v>160</v>
       </c>
       <c r="F49" t="n">
-        <v>141.8333333333333</v>
+        <v>158</v>
       </c>
       <c r="G49" t="n">
-        <v>145.5</v>
+        <v>64.75</v>
       </c>
       <c r="H49" t="n">
-        <v>68.5</v>
+        <v>157.9772093023256</v>
       </c>
       <c r="I49" t="n">
-        <v>90.24947368421053</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>70</v>
+        <v>73.33879999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>69.05555555555556</v>
+        <v>140.0048905109489</v>
       </c>
       <c r="L49" t="n">
-        <v>79.57045454545454</v>
+        <v>179.4702197802198</v>
       </c>
       <c r="M49" t="n">
-        <v>100.9090909090909</v>
+        <v>120</v>
       </c>
       <c r="N49" t="n">
-        <v>159.325</v>
+        <v>213</v>
       </c>
       <c r="O49" t="n">
-        <v>174.825</v>
+        <v>197</v>
       </c>
       <c r="P49" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q49" t="n">
         <v>174</v>
       </c>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>99</v>
+      </c>
       <c r="S49" t="n">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="T49" t="n">
-        <v>120.8333333333333</v>
+        <v>0.5236585365853659</v>
       </c>
       <c r="U49" t="n">
-        <v>0.58125</v>
+        <v>60</v>
       </c>
       <c r="V49" t="n">
-        <v>64.58499999999999</v>
+        <v>63.33</v>
       </c>
       <c r="W49" t="n">
-        <v>67.6837837837838</v>
-      </c>
-      <c r="X49" t="n">
-        <v>68.1152</v>
+        <v>65.752</v>
       </c>
     </row>
     <row r="50">
@@ -3662,70 +3677,71 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12/01/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>80.16666666666667</v>
+        <v>168.5291111111111</v>
       </c>
       <c r="D50" t="n">
-        <v>123.0051282051282</v>
+        <v>158.3928571428571</v>
       </c>
       <c r="E50" t="n">
-        <v>138.6666666666667</v>
+        <v>155</v>
       </c>
       <c r="F50" t="n">
-        <v>141.8333333333333</v>
+        <v>155</v>
       </c>
       <c r="G50" t="n">
-        <v>145.5</v>
+        <v>64.75</v>
       </c>
       <c r="H50" t="n">
-        <v>68.5</v>
+        <v>157.9139393939394</v>
       </c>
       <c r="I50" t="n">
-        <v>93.6430303030303</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J50" t="n">
-        <v>70</v>
+        <v>75.88549019607842</v>
       </c>
       <c r="K50" t="n">
-        <v>69.6225</v>
+        <v>138.9766666666667</v>
       </c>
       <c r="L50" t="n">
-        <v>82.19090909090909</v>
+        <v>177.5528787878788</v>
       </c>
       <c r="M50" t="n">
-        <v>105.5</v>
+        <v>120</v>
       </c>
       <c r="N50" t="n">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="O50" t="n">
-        <v>153.5</v>
+        <v>197</v>
       </c>
       <c r="P50" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q50" t="n">
         <v>174</v>
       </c>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v>99</v>
+      </c>
       <c r="S50" t="n">
-        <v>99</v>
+        <v>194.5</v>
       </c>
       <c r="T50" t="n">
-        <v>125</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U50" t="n">
-        <v>0.6</v>
+        <v>60</v>
       </c>
       <c r="V50" t="n">
-        <v>64.52</v>
+        <v>63.69923076923077</v>
       </c>
       <c r="W50" t="n">
-        <v>68.375</v>
-      </c>
-      <c r="X50" t="n">
-        <v>68.73166666666667</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51">
@@ -3734,70 +3750,71 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>15/01/2024</t>
+          <t>09/02/2024</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>80.72375</v>
+        <v>163.4818181818182</v>
       </c>
       <c r="D51" t="n">
-        <v>122.6718181818182</v>
+        <v>153.75</v>
       </c>
       <c r="E51" t="n">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="F51" t="n">
-        <v>141.8333333333333</v>
+        <v>154.25</v>
       </c>
       <c r="G51" t="n">
-        <v>145</v>
+        <v>64.75</v>
       </c>
       <c r="H51" t="n">
-        <v>68.5</v>
+        <v>154.9448148148148</v>
       </c>
       <c r="I51" t="n">
-        <v>93.85981818181818</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>67.83799999999999</v>
+        <v>74.9148275862069</v>
       </c>
       <c r="K51" t="n">
-        <v>69.34307692307692</v>
+        <v>135.4209433962264</v>
       </c>
       <c r="L51" t="n">
-        <v>82.565</v>
+        <v>174.2733333333333</v>
       </c>
       <c r="M51" t="n">
-        <v>105.5833333333333</v>
+        <v>120</v>
       </c>
       <c r="N51" t="n">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="O51" t="n">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="P51" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q51" t="n">
         <v>174</v>
       </c>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>99</v>
+      </c>
       <c r="S51" t="n">
-        <v>99</v>
+        <v>194.5</v>
       </c>
       <c r="T51" t="n">
-        <v>125</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V51" t="n">
-        <v>64.56206896551724</v>
+        <v>63.09111111111112</v>
       </c>
       <c r="W51" t="n">
-        <v>67.97999999999999</v>
-      </c>
-      <c r="X51" t="n">
-        <v>68.22222222222223</v>
+        <v>66.08333333333333</v>
       </c>
     </row>
     <row r="52">
@@ -3806,70 +3823,71 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16/01/2024</t>
+          <t>14/02/2024</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>77.39749999999999</v>
+        <v>157.709375</v>
       </c>
       <c r="D52" t="n">
-        <v>117.7789795918367</v>
+        <v>148.875</v>
       </c>
       <c r="E52" t="n">
-        <v>136.5833333333333</v>
+        <v>154</v>
       </c>
       <c r="F52" t="n">
-        <v>139.3333333333333</v>
+        <v>154.25</v>
       </c>
       <c r="G52" t="n">
-        <v>145</v>
+        <v>64.75</v>
       </c>
       <c r="H52" t="n">
-        <v>66</v>
+        <v>147.1722222222222</v>
       </c>
       <c r="I52" t="n">
-        <v>89.77933333333334</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J52" t="n">
-        <v>67.83799999999999</v>
+        <v>74.16111111111111</v>
       </c>
       <c r="K52" t="n">
-        <v>67.46428571428571</v>
+        <v>128.6016666666667</v>
       </c>
       <c r="L52" t="n">
-        <v>80.7590625</v>
+        <v>167.19046875</v>
       </c>
       <c r="M52" t="n">
-        <v>99.41466666666666</v>
+        <v>120</v>
       </c>
       <c r="N52" t="n">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="O52" t="n">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="P52" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q52" t="n">
         <v>174</v>
       </c>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v>99</v>
+      </c>
       <c r="S52" t="n">
-        <v>99</v>
+        <v>194.5</v>
       </c>
       <c r="T52" t="n">
-        <v>119</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U52" t="n">
-        <v>0.5666666666666667</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V52" t="n">
-        <v>64.09027777777777</v>
+        <v>62.57000000000001</v>
       </c>
       <c r="W52" t="n">
-        <v>66.19466666666668</v>
-      </c>
-      <c r="X52" t="n">
-        <v>66.72851851851853</v>
+        <v>66.08333333333333</v>
       </c>
     </row>
     <row r="53">
@@ -3878,70 +3896,71 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>17/01/2024</t>
+          <t>15/02/2024</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>77.39749999999999</v>
+        <v>167.3490566037736</v>
       </c>
       <c r="D53" t="n">
-        <v>116.4174285714286</v>
+        <v>158.1625</v>
       </c>
       <c r="E53" t="n">
-        <v>134.625</v>
+        <v>152</v>
       </c>
       <c r="F53" t="n">
-        <v>140</v>
+        <v>154.25</v>
       </c>
       <c r="G53" t="n">
-        <v>145</v>
+        <v>64.75</v>
       </c>
       <c r="H53" t="n">
-        <v>67</v>
+        <v>158.4319444444444</v>
       </c>
       <c r="I53" t="n">
-        <v>88.87617647058823</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>67.83799999999999</v>
+        <v>75.8592</v>
       </c>
       <c r="K53" t="n">
-        <v>67.78571428571429</v>
+        <v>136.0265100671141</v>
       </c>
       <c r="L53" t="n">
-        <v>79.7769387755102</v>
+        <v>179.9542857142857</v>
       </c>
       <c r="M53" t="n">
-        <v>97.48</v>
+        <v>120</v>
       </c>
       <c r="N53" t="n">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="O53" t="n">
-        <v>150.5</v>
+        <v>197</v>
       </c>
       <c r="P53" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q53" t="n">
         <v>174</v>
       </c>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="n">
+        <v>99</v>
+      </c>
       <c r="S53" t="n">
-        <v>99</v>
+        <v>194.5</v>
       </c>
       <c r="T53" t="n">
-        <v>119</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U53" t="n">
-        <v>0.67375</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V53" t="n">
-        <v>63.6355</v>
+        <v>63.33333333333334</v>
       </c>
       <c r="W53" t="n">
-        <v>66.32871794871795</v>
-      </c>
-      <c r="X53" t="n">
-        <v>66.75833333333334</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54">
@@ -3950,70 +3969,71 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>18/01/2024</t>
+          <t>16/02/2024</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>75.75</v>
+        <v>173.6476923076923</v>
       </c>
       <c r="D54" t="n">
-        <v>111.5074576271186</v>
+        <v>159.651</v>
       </c>
       <c r="E54" t="n">
-        <v>130.9282608695652</v>
+        <v>156.8</v>
       </c>
       <c r="F54" t="n">
-        <v>136.0666666666667</v>
+        <v>152</v>
       </c>
       <c r="G54" t="n">
-        <v>145</v>
+        <v>64.75</v>
       </c>
       <c r="H54" t="n">
-        <v>67</v>
+        <v>164.5596</v>
       </c>
       <c r="I54" t="n">
-        <v>85.05632352941177</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J54" t="n">
-        <v>67.83799999999999</v>
+        <v>77.45294117647059</v>
       </c>
       <c r="K54" t="n">
-        <v>66.80833333333334</v>
+        <v>146.2514503816794</v>
       </c>
       <c r="L54" t="n">
-        <v>77.65283333333333</v>
+        <v>186.4590909090909</v>
       </c>
       <c r="M54" t="n">
-        <v>92.89999999999999</v>
+        <v>120</v>
       </c>
       <c r="N54" t="n">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="O54" t="n">
-        <v>145.9333333333333</v>
+        <v>197</v>
       </c>
       <c r="P54" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q54" t="n">
         <v>174</v>
       </c>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="n">
+        <v>99</v>
+      </c>
       <c r="S54" t="n">
-        <v>99</v>
+        <v>194.5</v>
       </c>
       <c r="T54" t="n">
-        <v>119</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U54" t="n">
-        <v>0.5555555555555556</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V54" t="n">
-        <v>62.584375</v>
+        <v>62.58222222222222</v>
       </c>
       <c r="W54" t="n">
-        <v>64.53727272727272</v>
-      </c>
-      <c r="X54" t="n">
-        <v>65.87709677419355</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55">
@@ -4022,70 +4042,71 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>19/01/2024</t>
+          <t>19/02/2024</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>75.75</v>
+        <v>170.8975</v>
       </c>
       <c r="D55" t="n">
-        <v>114.1885714285714</v>
+        <v>159</v>
       </c>
       <c r="E55" t="n">
-        <v>123.4</v>
+        <v>153.75</v>
       </c>
       <c r="F55" t="n">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="G55" t="n">
-        <v>145</v>
+        <v>64.75</v>
       </c>
       <c r="H55" t="n">
-        <v>67</v>
+        <v>159.7632</v>
       </c>
       <c r="I55" t="n">
-        <v>86.12666666666668</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>67.83799999999999</v>
+        <v>76.13925925925926</v>
       </c>
       <c r="K55" t="n">
-        <v>66.90416666666667</v>
+        <v>139.6658536585366</v>
       </c>
       <c r="L55" t="n">
-        <v>77.41666666666667</v>
+        <v>180.0119512195122</v>
       </c>
       <c r="M55" t="n">
-        <v>95.25</v>
+        <v>120</v>
       </c>
       <c r="N55" t="n">
-        <v>108.5</v>
+        <v>209</v>
       </c>
       <c r="O55" t="n">
-        <v>145.9333333333333</v>
+        <v>197</v>
       </c>
       <c r="P55" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q55" t="n">
         <v>174</v>
       </c>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="n">
+        <v>99</v>
+      </c>
       <c r="S55" t="n">
-        <v>99</v>
+        <v>194.5</v>
       </c>
       <c r="T55" t="n">
-        <v>119</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U55" t="n">
-        <v>0.4285714285714285</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V55" t="n">
-        <v>62.15</v>
+        <v>62.36142857142857</v>
       </c>
       <c r="W55" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="X55" t="n">
-        <v>65.14285714285714</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="56">
@@ -4094,70 +4115,71 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>22/01/2024</t>
+          <t>20/02/2024</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="D56" t="n">
-        <v>119.8415789473684</v>
+        <v>158.125</v>
       </c>
       <c r="E56" t="n">
-        <v>135.5833333333333</v>
+        <v>153.75</v>
       </c>
       <c r="F56" t="n">
-        <v>140.5</v>
+        <v>152</v>
       </c>
       <c r="G56" t="n">
-        <v>145</v>
+        <v>64.75</v>
       </c>
       <c r="H56" t="n">
-        <v>67</v>
+        <v>162.12</v>
       </c>
       <c r="I56" t="n">
-        <v>90.68212765957448</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>67.83799999999999</v>
+        <v>76.6557142857143</v>
       </c>
       <c r="K56" t="n">
-        <v>67.98076923076923</v>
+        <v>140.4725925925926</v>
       </c>
       <c r="L56" t="n">
-        <v>80.73218749999999</v>
+        <v>182.1969444444445</v>
       </c>
       <c r="M56" t="n">
-        <v>99.001875</v>
+        <v>120</v>
       </c>
       <c r="N56" t="n">
-        <v>108.5</v>
+        <v>209</v>
       </c>
       <c r="O56" t="n">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="P56" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q56" t="n">
         <v>174</v>
       </c>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>99</v>
+      </c>
       <c r="S56" t="n">
-        <v>99</v>
+        <v>194.5</v>
       </c>
       <c r="T56" t="n">
-        <v>119</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U56" t="n">
-        <v>0.6333333333333333</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V56" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="W56" t="n">
-        <v>64.60640000000001</v>
-      </c>
-      <c r="X56" t="n">
-        <v>65.69642857142857</v>
+        <v>64.125</v>
       </c>
     </row>
     <row r="57">
@@ -4166,70 +4188,71 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>23/01/2024</t>
+          <t>21/02/2024</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>81.33333333333333</v>
+        <v>165.1740625</v>
       </c>
       <c r="D57" t="n">
-        <v>123.84</v>
+        <v>154.012</v>
       </c>
       <c r="E57" t="n">
-        <v>139.1428571428571</v>
+        <v>153.4</v>
       </c>
       <c r="F57" t="n">
-        <v>141.5</v>
+        <v>152</v>
       </c>
       <c r="G57" t="n">
-        <v>145</v>
+        <v>64.75</v>
       </c>
       <c r="H57" t="n">
-        <v>68.5</v>
+        <v>153.6395833333333</v>
       </c>
       <c r="I57" t="n">
-        <v>96.72918367346938</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J57" t="n">
-        <v>67.83799999999999</v>
+        <v>74.26666666666667</v>
       </c>
       <c r="K57" t="n">
-        <v>68.72222222222223</v>
+        <v>134.1602608695652</v>
       </c>
       <c r="L57" t="n">
-        <v>84.36428571428571</v>
+        <v>174.3914457831325</v>
       </c>
       <c r="M57" t="n">
-        <v>107.1055172413793</v>
+        <v>120</v>
       </c>
       <c r="N57" t="n">
-        <v>108.5</v>
+        <v>209</v>
       </c>
       <c r="O57" t="n">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="P57" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q57" t="n">
         <v>174</v>
       </c>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="n">
+        <v>99</v>
+      </c>
       <c r="S57" t="n">
-        <v>99</v>
+        <v>194.5</v>
       </c>
       <c r="T57" t="n">
-        <v>119</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U57" t="n">
-        <v>0.7</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V57" t="n">
-        <v>62.17285714285714</v>
+        <v>62.13</v>
       </c>
       <c r="W57" t="n">
-        <v>65.325</v>
-      </c>
-      <c r="X57" t="n">
-        <v>66.55833333333334</v>
+        <v>63.11428571428571</v>
       </c>
     </row>
     <row r="58">
@@ -4238,72 +4261,71 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>24/01/2024</t>
+          <t>22/02/2024</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>80.75</v>
+        <v>153.492027027027</v>
       </c>
       <c r="D58" t="n">
-        <v>125.218125</v>
+        <v>146.1777777777778</v>
       </c>
       <c r="E58" t="n">
-        <v>140.8125</v>
+        <v>153.4</v>
       </c>
       <c r="F58" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G58" t="n">
-        <v>145</v>
+        <v>64.75</v>
       </c>
       <c r="H58" t="n">
-        <v>64.75</v>
+        <v>138.2097247706422</v>
       </c>
       <c r="I58" t="n">
-        <v>95.73343749999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J58" t="n">
-        <v>67.83799999999999</v>
+        <v>71.17588235294117</v>
       </c>
       <c r="K58" t="n">
-        <v>67</v>
+        <v>120.6092352941176</v>
       </c>
       <c r="L58" t="n">
-        <v>83.93205128205128</v>
+        <v>157.9024369747899</v>
       </c>
       <c r="M58" t="n">
-        <v>107.6188888888889</v>
+        <v>120</v>
       </c>
       <c r="N58" t="n">
-        <v>108.5</v>
+        <v>209</v>
       </c>
       <c r="O58" t="n">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="P58" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q58" t="n">
         <v>174</v>
       </c>
-      <c r="Q58" t="n">
-        <v>181.25</v>
-      </c>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="n">
+        <v>99</v>
+      </c>
       <c r="S58" t="n">
-        <v>99</v>
+        <v>194.5</v>
       </c>
       <c r="T58" t="n">
-        <v>119</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U58" t="n">
-        <v>0.625</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V58" t="n">
-        <v>61.98333333333333</v>
+        <v>61.7</v>
       </c>
       <c r="W58" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="X58" t="n">
-        <v>65.33333333333333</v>
+        <v>62.51</v>
       </c>
     </row>
     <row r="59">
@@ -4312,74 +4334,71 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>25/01/2024</t>
+          <t>23/02/2024</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>82.53333333333333</v>
+        <v>152.2510447761194</v>
       </c>
       <c r="D59" t="n">
-        <v>128.2357692307692</v>
+        <v>149.1153846153846</v>
       </c>
       <c r="E59" t="n">
-        <v>142.1371428571429</v>
+        <v>145.5</v>
       </c>
       <c r="F59" t="n">
-        <v>143.5725</v>
+        <v>144.75</v>
       </c>
       <c r="G59" t="n">
-        <v>148.5166666666667</v>
+        <v>64.75</v>
       </c>
       <c r="H59" t="n">
-        <v>64.75</v>
+        <v>140.6379411764706</v>
       </c>
       <c r="I59" t="n">
-        <v>99.5244776119403</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J59" t="n">
-        <v>67.83799999999999</v>
+        <v>72.4875</v>
       </c>
       <c r="K59" t="n">
-        <v>68.33333333333333</v>
+        <v>116.7217647058824</v>
       </c>
       <c r="L59" t="n">
-        <v>85.8155</v>
+        <v>157.9007692307692</v>
       </c>
       <c r="M59" t="n">
-        <v>113.0117948717949</v>
+        <v>120</v>
       </c>
       <c r="N59" t="n">
-        <v>108.5</v>
+        <v>186.26</v>
       </c>
       <c r="O59" t="n">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="P59" t="n">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="Q59" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="R59" t="n">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="S59" t="n">
-        <v>99</v>
+        <v>194.5</v>
       </c>
       <c r="T59" t="n">
-        <v>119</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U59" t="n">
-        <v>0.575</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V59" t="n">
         <v>62</v>
       </c>
       <c r="W59" t="n">
-        <v>64.13333333333334</v>
-      </c>
-      <c r="X59" t="n">
-        <v>65.25</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="60">
@@ -4388,74 +4407,71 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>26/01/2024</t>
+          <t>26/02/2024</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>84</v>
+        <v>148.9651724137931</v>
       </c>
       <c r="D60" t="n">
-        <v>135.400985915493</v>
+        <v>146.75</v>
       </c>
       <c r="E60" t="n">
-        <v>148.9295238095238</v>
+        <v>148.5</v>
       </c>
       <c r="F60" t="n">
-        <v>152</v>
+        <v>144.75</v>
       </c>
       <c r="G60" t="n">
-        <v>152</v>
+        <v>64.75</v>
       </c>
       <c r="H60" t="n">
-        <v>64.75</v>
+        <v>138.61</v>
       </c>
       <c r="I60" t="n">
-        <v>111.2851572327044</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J60" t="n">
-        <v>67.83799999999999</v>
+        <v>72.205</v>
       </c>
       <c r="K60" t="n">
-        <v>69.905</v>
+        <v>117.1116379310345</v>
       </c>
       <c r="L60" t="n">
-        <v>91.09575757575757</v>
+        <v>157.5224444444445</v>
       </c>
       <c r="M60" t="n">
-        <v>125.8727884615385</v>
+        <v>120</v>
       </c>
       <c r="N60" t="n">
-        <v>108.5</v>
+        <v>188</v>
       </c>
       <c r="O60" t="n">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="P60" t="n">
-        <v>183.25</v>
+        <v>184</v>
       </c>
       <c r="Q60" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="R60" t="n">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="S60" t="n">
-        <v>99</v>
+        <v>194.5</v>
       </c>
       <c r="T60" t="n">
-        <v>119</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U60" t="n">
-        <v>0.66875</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V60" t="n">
-        <v>62</v>
+        <v>62.116</v>
       </c>
       <c r="W60" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="X60" t="n">
-        <v>66.995</v>
+        <v>62.96666666666667</v>
       </c>
     </row>
     <row r="61">
@@ -4464,74 +4480,71 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>27/01/2024</t>
+          <t>27/02/2024</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>84</v>
+        <v>153.6804761904762</v>
       </c>
       <c r="D61" t="n">
-        <v>134</v>
+        <v>149.7666666666667</v>
       </c>
       <c r="E61" t="n">
-        <v>148.9295238095238</v>
+        <v>148.875</v>
       </c>
       <c r="F61" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G61" t="n">
-        <v>152</v>
+        <v>64.75</v>
       </c>
       <c r="H61" t="n">
-        <v>64.75</v>
+        <v>145.7759259259259</v>
       </c>
       <c r="I61" t="n">
-        <v>111.2851572327044</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J61" t="n">
-        <v>67.83799999999999</v>
+        <v>75.36481481481481</v>
       </c>
       <c r="K61" t="n">
-        <v>69.905</v>
+        <v>124.7240909090909</v>
       </c>
       <c r="L61" t="n">
-        <v>91.09575757575757</v>
+        <v>165.749012345679</v>
       </c>
       <c r="M61" t="n">
-        <v>125.8727884615385</v>
+        <v>120</v>
       </c>
       <c r="N61" t="n">
-        <v>108.5</v>
+        <v>189</v>
       </c>
       <c r="O61" t="n">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="P61" t="n">
-        <v>183.25</v>
+        <v>184</v>
       </c>
       <c r="Q61" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="R61" t="n">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="S61" t="n">
-        <v>99</v>
+        <v>194.5</v>
       </c>
       <c r="T61" t="n">
-        <v>119</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U61" t="n">
-        <v>0.66875</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V61" t="n">
-        <v>62</v>
+        <v>62.3175</v>
       </c>
       <c r="W61" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="X61" t="n">
-        <v>66.995</v>
+        <v>66.18892857142858</v>
       </c>
     </row>
     <row r="62">
@@ -4540,74 +4553,71 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>29/01/2024</t>
+          <t>28/02/2024</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>89.5</v>
+        <v>155.2923076923077</v>
       </c>
       <c r="D62" t="n">
-        <v>139.2049206349206</v>
+        <v>149.8333333333333</v>
       </c>
       <c r="E62" t="n">
-        <v>149.8333333333333</v>
+        <v>150</v>
       </c>
       <c r="F62" t="n">
-        <v>152.3</v>
+        <v>145</v>
       </c>
       <c r="G62" t="n">
-        <v>152</v>
+        <v>64.75</v>
       </c>
       <c r="H62" t="n">
-        <v>64.75</v>
+        <v>147.5516129032258</v>
       </c>
       <c r="I62" t="n">
-        <v>110.9675</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J62" t="n">
-        <v>67.83799999999999</v>
+        <v>77.15555555555555</v>
       </c>
       <c r="K62" t="n">
-        <v>69.94333333333334</v>
+        <v>126.9850574712644</v>
       </c>
       <c r="L62" t="n">
-        <v>92.2030303030303</v>
+        <v>167.8631428571429</v>
       </c>
       <c r="M62" t="n">
-        <v>130.7754716981132</v>
+        <v>120</v>
       </c>
       <c r="N62" t="n">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="O62" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="P62" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q62" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="R62" t="n">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="S62" t="n">
-        <v>99</v>
+        <v>194.5</v>
       </c>
       <c r="T62" t="n">
-        <v>119</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U62" t="n">
-        <v>0.6863636363636364</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V62" t="n">
-        <v>62.075</v>
+        <v>62.53571428571428</v>
       </c>
       <c r="W62" t="n">
-        <v>64.64</v>
-      </c>
-      <c r="X62" t="n">
-        <v>66.02500000000001</v>
+        <v>66.18607142857142</v>
       </c>
     </row>
     <row r="63">
@@ -4616,74 +4626,71 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>30/01/2024</t>
+          <t>29/02/2024</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>86.58</v>
+        <v>158.4117647058823</v>
       </c>
       <c r="D63" t="n">
-        <v>137.0495555555555</v>
+        <v>152.2871428571429</v>
       </c>
       <c r="E63" t="n">
-        <v>144.8125</v>
+        <v>150.5</v>
       </c>
       <c r="F63" t="n">
-        <v>148.125</v>
+        <v>145</v>
       </c>
       <c r="G63" t="n">
-        <v>152</v>
+        <v>64.75</v>
       </c>
       <c r="H63" t="n">
-        <v>64.75</v>
+        <v>151.2335294117647</v>
       </c>
       <c r="I63" t="n">
-        <v>107.7653947368421</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J63" t="n">
-        <v>67.83799999999999</v>
+        <v>79.78918918918919</v>
       </c>
       <c r="K63" t="n">
-        <v>69.15323529411765</v>
+        <v>130.3195161290323</v>
       </c>
       <c r="L63" t="n">
-        <v>88.65657142857143</v>
+        <v>171.5811111111111</v>
       </c>
       <c r="M63" t="n">
-        <v>127.7072413793103</v>
+        <v>120</v>
       </c>
       <c r="N63" t="n">
-        <v>120</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O63" t="n">
-        <v>175</v>
+        <v>182.99</v>
       </c>
       <c r="P63" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q63" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="R63" t="n">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="S63" t="n">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="T63" t="n">
-        <v>119</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U63" t="n">
-        <v>0.6333333333333333</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V63" t="n">
-        <v>62</v>
+        <v>65.5</v>
       </c>
       <c r="W63" t="n">
-        <v>63.73363636363637</v>
-      </c>
-      <c r="X63" t="n">
-        <v>66.5</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="64">
@@ -4692,74 +4699,71 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>31/01/2024</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>85.625</v>
+        <v>159.7727272727273</v>
       </c>
       <c r="D64" t="n">
-        <v>136.2977272727273</v>
+        <v>156.3</v>
       </c>
       <c r="E64" t="n">
-        <v>146</v>
+        <v>148.8333333333333</v>
       </c>
       <c r="F64" t="n">
-        <v>148.3333333333333</v>
+        <v>141.5</v>
       </c>
       <c r="G64" t="n">
-        <v>150.0066666666667</v>
+        <v>64.75</v>
       </c>
       <c r="H64" t="n">
-        <v>64.75</v>
+        <v>153.5968965517241</v>
       </c>
       <c r="I64" t="n">
-        <v>106.7851219512195</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J64" t="n">
-        <v>67.83799999999999</v>
+        <v>79.30921052631579</v>
       </c>
       <c r="K64" t="n">
-        <v>68.97057142857142</v>
+        <v>132.2443548387097</v>
       </c>
       <c r="L64" t="n">
-        <v>88.10166666666667</v>
+        <v>171.4761904761905</v>
       </c>
       <c r="M64" t="n">
-        <v>126.2587804878049</v>
+        <v>120</v>
       </c>
       <c r="N64" t="n">
-        <v>120</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O64" t="n">
-        <v>170.75</v>
+        <v>182.99</v>
       </c>
       <c r="P64" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q64" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="R64" t="n">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="S64" t="n">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="T64" t="n">
-        <v>136.5</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U64" t="n">
-        <v>0.6115625</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V64" t="n">
-        <v>63.06</v>
+        <v>117.67</v>
       </c>
       <c r="W64" t="n">
-        <v>64.26666666666667</v>
-      </c>
-      <c r="X64" t="n">
-        <v>66.42761904761905</v>
+        <v>65.41363636363636</v>
       </c>
     </row>
     <row r="65">
@@ -4768,74 +4772,71 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>04/03/2024</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>88.41666666666667</v>
+        <v>158.0625</v>
       </c>
       <c r="D65" t="n">
-        <v>137.2878947368421</v>
+        <v>156</v>
       </c>
       <c r="E65" t="n">
-        <v>135.5</v>
+        <v>148.8333333333333</v>
       </c>
       <c r="F65" t="n">
-        <v>148</v>
+        <v>141.5</v>
       </c>
       <c r="G65" t="n">
-        <v>150.0066666666667</v>
+        <v>64.75</v>
       </c>
       <c r="H65" t="n">
-        <v>64.75</v>
+        <v>148.94</v>
       </c>
       <c r="I65" t="n">
-        <v>109.2476811594203</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J65" t="n">
-        <v>67.83799999999999</v>
+        <v>78.44533333333334</v>
       </c>
       <c r="K65" t="n">
-        <v>70.49163265306123</v>
+        <v>126.4451282051282</v>
       </c>
       <c r="L65" t="n">
-        <v>89.99432432432432</v>
+        <v>169.0246153846154</v>
       </c>
       <c r="M65" t="n">
-        <v>128.4413461538462</v>
+        <v>120</v>
       </c>
       <c r="N65" t="n">
-        <v>120</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O65" t="n">
-        <v>174</v>
+        <v>182.99</v>
       </c>
       <c r="P65" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q65" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="R65" t="n">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="S65" t="n">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="T65" t="n">
-        <v>136.5</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U65" t="n">
-        <v>0.5764077669902913</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V65" t="n">
-        <v>62</v>
+        <v>62.2</v>
       </c>
       <c r="W65" t="n">
-        <v>64.9375</v>
-      </c>
-      <c r="X65" t="n">
-        <v>65.62857142857142</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66">
@@ -4844,74 +4845,71 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>05/03/2024</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>91</v>
+        <v>154.9533333333333</v>
       </c>
       <c r="D66" t="n">
-        <v>143.1755102040816</v>
+        <v>152</v>
       </c>
       <c r="E66" t="n">
-        <v>150.515</v>
+        <v>148.25</v>
       </c>
       <c r="F66" t="n">
-        <v>150.8333333333333</v>
+        <v>141.5</v>
       </c>
       <c r="G66" t="n">
-        <v>151.125</v>
+        <v>64.75</v>
       </c>
       <c r="H66" t="n">
-        <v>64.75</v>
+        <v>147.294375</v>
       </c>
       <c r="I66" t="n">
-        <v>115.3198765432099</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J66" t="n">
-        <v>67.83799999999999</v>
+        <v>79.29857142857144</v>
       </c>
       <c r="K66" t="n">
-        <v>70.52352941176471</v>
+        <v>126.9923684210526</v>
       </c>
       <c r="L66" t="n">
-        <v>95.02445945945946</v>
+        <v>167.2823076923077</v>
       </c>
       <c r="M66" t="n">
-        <v>134.3290607734807</v>
+        <v>120</v>
       </c>
       <c r="N66" t="n">
-        <v>120</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O66" t="n">
-        <v>174</v>
+        <v>182.99</v>
       </c>
       <c r="P66" t="n">
-        <v>185.75</v>
+        <v>184</v>
       </c>
       <c r="Q66" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="R66" t="n">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="S66" t="n">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="T66" t="n">
-        <v>136.5</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U66" t="n">
-        <v>0.6796153846153846</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V66" t="n">
-        <v>62</v>
+        <v>62.2</v>
       </c>
       <c r="W66" t="n">
-        <v>64</v>
-      </c>
-      <c r="X66" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67">
@@ -4920,74 +4918,71 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>05/02/2024</t>
+          <t>06/03/2024</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>99.7</v>
+        <v>157.4642857142857</v>
       </c>
       <c r="D67" t="n">
-        <v>158.7576315789474</v>
+        <v>155.6666666666667</v>
       </c>
       <c r="E67" t="n">
-        <v>160.18125</v>
+        <v>148.25</v>
       </c>
       <c r="F67" t="n">
-        <v>158.6125</v>
+        <v>141.5</v>
       </c>
       <c r="G67" t="n">
-        <v>160</v>
+        <v>64.75</v>
       </c>
       <c r="H67" t="n">
-        <v>64.75</v>
+        <v>153.2423529411765</v>
       </c>
       <c r="I67" t="n">
-        <v>134.9989583333333</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J67" t="n">
-        <v>67.83799999999999</v>
+        <v>80.84529411764707</v>
       </c>
       <c r="K67" t="n">
-        <v>74.10395833333332</v>
+        <v>133.3383908045977</v>
       </c>
       <c r="L67" t="n">
-        <v>113.6128099173554</v>
+        <v>172.698</v>
       </c>
       <c r="M67" t="n">
-        <v>158.9619230769231</v>
+        <v>120</v>
       </c>
       <c r="N67" t="n">
-        <v>120</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O67" t="n">
-        <v>197</v>
+        <v>182.99</v>
       </c>
       <c r="P67" t="n">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="Q67" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="R67" t="n">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="S67" t="n">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="T67" t="n">
-        <v>136.5</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U67" t="n">
-        <v>0.4512962962962963</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V67" t="n">
-        <v>60</v>
+        <v>62.2</v>
       </c>
       <c r="W67" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="X67" t="n">
-        <v>68.14583333333333</v>
+        <v>63.63444444444445</v>
       </c>
     </row>
     <row r="68">
@@ -4996,74 +4991,71 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>06/02/2024</t>
+          <t>07/03/2024</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>116.8</v>
+        <v>160.0321428571428</v>
       </c>
       <c r="D68" t="n">
-        <v>175.6537704918033</v>
+        <v>156</v>
       </c>
       <c r="E68" t="n">
-        <v>169.0621621621622</v>
+        <v>148.25</v>
       </c>
       <c r="F68" t="n">
-        <v>166.4045454545455</v>
+        <v>141.5</v>
       </c>
       <c r="G68" t="n">
-        <v>158</v>
+        <v>64.75</v>
       </c>
       <c r="H68" t="n">
-        <v>64.75</v>
+        <v>159.2897222222222</v>
       </c>
       <c r="I68" t="n">
-        <v>166.6695726495726</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J68" t="n">
-        <v>67.83799999999999</v>
+        <v>84.00399999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>76.63704918032786</v>
+        <v>139.6338461538462</v>
       </c>
       <c r="L68" t="n">
-        <v>146.1977659574468</v>
+        <v>178.5269090909091</v>
       </c>
       <c r="M68" t="n">
-        <v>184.10796875</v>
+        <v>120</v>
       </c>
       <c r="N68" t="n">
-        <v>120</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O68" t="n">
-        <v>197</v>
+        <v>182.99</v>
       </c>
       <c r="P68" t="n">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="Q68" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="R68" t="n">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="S68" t="n">
-        <v>99</v>
+        <v>196.6</v>
       </c>
       <c r="T68" t="n">
-        <v>200</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U68" t="n">
-        <v>0.6175757575757576</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V68" t="n">
-        <v>60</v>
+        <v>61.8</v>
       </c>
       <c r="W68" t="n">
-        <v>63.66666666666666</v>
-      </c>
-      <c r="X68" t="n">
-        <v>67.5</v>
+        <v>63.63444444444445</v>
       </c>
     </row>
     <row r="69">
@@ -5072,74 +5064,71 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>08/03/2024</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>111</v>
+        <v>166.861724137931</v>
       </c>
       <c r="D69" t="n">
-        <v>173.07</v>
+        <v>161.49</v>
       </c>
       <c r="E69" t="n">
-        <v>164.275</v>
+        <v>152.6666666666667</v>
       </c>
       <c r="F69" t="n">
-        <v>160</v>
+        <v>141.5</v>
       </c>
       <c r="G69" t="n">
-        <v>158</v>
+        <v>64.75</v>
       </c>
       <c r="H69" t="n">
-        <v>64.75</v>
+        <v>166.5228947368421</v>
       </c>
       <c r="I69" t="n">
-        <v>157.9772093023256</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J69" t="n">
-        <v>67.83799999999999</v>
+        <v>87.36133333333333</v>
       </c>
       <c r="K69" t="n">
-        <v>73.33879999999999</v>
+        <v>148.5520792079208</v>
       </c>
       <c r="L69" t="n">
-        <v>140.0048905109489</v>
+        <v>187.1764285714286</v>
       </c>
       <c r="M69" t="n">
-        <v>179.4702197802198</v>
+        <v>120</v>
       </c>
       <c r="N69" t="n">
-        <v>120</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O69" t="n">
-        <v>213</v>
+        <v>182.99</v>
       </c>
       <c r="P69" t="n">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="Q69" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="R69" t="n">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="S69" t="n">
-        <v>99</v>
+        <v>196.6</v>
       </c>
       <c r="T69" t="n">
-        <v>200</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U69" t="n">
-        <v>0.5236585365853659</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V69" t="n">
-        <v>60</v>
+        <v>118.25</v>
       </c>
       <c r="W69" t="n">
-        <v>63.33</v>
-      </c>
-      <c r="X69" t="n">
-        <v>65.752</v>
+        <v>64.60909090909091</v>
       </c>
     </row>
     <row r="70">
@@ -5148,74 +5137,71 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>111</v>
+        <v>164.98</v>
       </c>
       <c r="D70" t="n">
-        <v>168.5291111111111</v>
+        <v>160.5</v>
       </c>
       <c r="E70" t="n">
-        <v>158.3928571428571</v>
+        <v>152.6666666666667</v>
       </c>
       <c r="F70" t="n">
-        <v>155</v>
+        <v>141.5</v>
       </c>
       <c r="G70" t="n">
-        <v>155</v>
+        <v>64.75</v>
       </c>
       <c r="H70" t="n">
-        <v>64.75</v>
+        <v>165.7305555555556</v>
       </c>
       <c r="I70" t="n">
-        <v>157.9139393939394</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J70" t="n">
-        <v>67.83799999999999</v>
+        <v>85.56</v>
       </c>
       <c r="K70" t="n">
-        <v>75.88549019607842</v>
+        <v>146.7559302325581</v>
       </c>
       <c r="L70" t="n">
-        <v>138.9766666666667</v>
+        <v>186.7737777777778</v>
       </c>
       <c r="M70" t="n">
-        <v>177.5528787878788</v>
+        <v>120</v>
       </c>
       <c r="N70" t="n">
-        <v>120</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O70" t="n">
-        <v>213</v>
+        <v>182.99</v>
       </c>
       <c r="P70" t="n">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="Q70" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="R70" t="n">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="S70" t="n">
-        <v>99</v>
+        <v>196.6</v>
       </c>
       <c r="T70" t="n">
-        <v>194.5</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U70" t="n">
-        <v>0.3192307692307693</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V70" t="n">
-        <v>60</v>
+        <v>118.25</v>
       </c>
       <c r="W70" t="n">
-        <v>63.69923076923077</v>
-      </c>
-      <c r="X70" t="n">
-        <v>65</v>
+        <v>64.1125</v>
       </c>
     </row>
     <row r="71">
@@ -5224,74 +5210,71 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>12/03/2024</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>111</v>
+        <v>165.7842857142857</v>
       </c>
       <c r="D71" t="n">
-        <v>163.4818181818182</v>
+        <v>159.5</v>
       </c>
       <c r="E71" t="n">
-        <v>153.75</v>
+        <v>152.6666666666667</v>
       </c>
       <c r="F71" t="n">
-        <v>154</v>
+        <v>146.5</v>
       </c>
       <c r="G71" t="n">
-        <v>154.25</v>
+        <v>64.75</v>
       </c>
       <c r="H71" t="n">
-        <v>64.75</v>
+        <v>164.899</v>
       </c>
       <c r="I71" t="n">
-        <v>154.9448148148148</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J71" t="n">
-        <v>67.83799999999999</v>
+        <v>84.17470588235294</v>
       </c>
       <c r="K71" t="n">
-        <v>74.9148275862069</v>
+        <v>147.5442045454545</v>
       </c>
       <c r="L71" t="n">
-        <v>135.4209433962264</v>
+        <v>185.1758333333333</v>
       </c>
       <c r="M71" t="n">
-        <v>174.2733333333333</v>
+        <v>120</v>
       </c>
       <c r="N71" t="n">
-        <v>120</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O71" t="n">
-        <v>213</v>
+        <v>182.99</v>
       </c>
       <c r="P71" t="n">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="Q71" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="R71" t="n">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="S71" t="n">
-        <v>99</v>
+        <v>196.6</v>
       </c>
       <c r="T71" t="n">
-        <v>194.5</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U71" t="n">
-        <v>0.3192307692307693</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V71" t="n">
-        <v>64.48999999999999</v>
+        <v>118.25</v>
       </c>
       <c r="W71" t="n">
-        <v>63.09111111111112</v>
-      </c>
-      <c r="X71" t="n">
-        <v>66.08333333333333</v>
+        <v>63.85416666666666</v>
       </c>
     </row>
     <row r="72">
@@ -5300,74 +5283,71 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>14/02/2024</t>
+          <t>13/03/2024</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>111</v>
+        <v>161.664</v>
       </c>
       <c r="D72" t="n">
-        <v>157.709375</v>
+        <v>155.1</v>
       </c>
       <c r="E72" t="n">
-        <v>148.875</v>
+        <v>150.5</v>
       </c>
       <c r="F72" t="n">
-        <v>154</v>
+        <v>146.5</v>
       </c>
       <c r="G72" t="n">
-        <v>154.25</v>
+        <v>64.75</v>
       </c>
       <c r="H72" t="n">
-        <v>64.75</v>
+        <v>160.9636363636364</v>
       </c>
       <c r="I72" t="n">
-        <v>147.1722222222222</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J72" t="n">
-        <v>67.83799999999999</v>
+        <v>83.52352941176471</v>
       </c>
       <c r="K72" t="n">
-        <v>74.16111111111111</v>
+        <v>144.0026923076923</v>
       </c>
       <c r="L72" t="n">
-        <v>128.6016666666667</v>
+        <v>179.7327272727273</v>
       </c>
       <c r="M72" t="n">
-        <v>167.19046875</v>
+        <v>120</v>
       </c>
       <c r="N72" t="n">
-        <v>120</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O72" t="n">
-        <v>213</v>
+        <v>182.99</v>
       </c>
       <c r="P72" t="n">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="Q72" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="R72" t="n">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="S72" t="n">
-        <v>99</v>
+        <v>196.6</v>
       </c>
       <c r="T72" t="n">
-        <v>194.5</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U72" t="n">
-        <v>0.3192307692307693</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V72" t="n">
-        <v>64.48999999999999</v>
+        <v>118.25</v>
       </c>
       <c r="W72" t="n">
-        <v>62.57000000000001</v>
-      </c>
-      <c r="X72" t="n">
-        <v>66.08333333333333</v>
+        <v>63.38888888888889</v>
       </c>
     </row>
     <row r="73">
@@ -5376,74 +5356,71 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>15/02/2024</t>
+          <t>14/03/2024</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>111</v>
+        <v>155.6695</v>
       </c>
       <c r="D73" t="n">
-        <v>167.3490566037736</v>
+        <v>154.4166666666667</v>
       </c>
       <c r="E73" t="n">
-        <v>158.1625</v>
+        <v>149</v>
       </c>
       <c r="F73" t="n">
-        <v>152</v>
+        <v>147.5</v>
       </c>
       <c r="G73" t="n">
-        <v>154.25</v>
+        <v>64.75</v>
       </c>
       <c r="H73" t="n">
-        <v>64.75</v>
+        <v>151.9960714285714</v>
       </c>
       <c r="I73" t="n">
-        <v>158.4319444444444</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J73" t="n">
-        <v>67.83799999999999</v>
+        <v>78.83076923076922</v>
       </c>
       <c r="K73" t="n">
-        <v>75.8592</v>
+        <v>135.8840566037736</v>
       </c>
       <c r="L73" t="n">
-        <v>136.0265100671141</v>
+        <v>168.3448888888889</v>
       </c>
       <c r="M73" t="n">
-        <v>179.9542857142857</v>
+        <v>120</v>
       </c>
       <c r="N73" t="n">
-        <v>120</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O73" t="n">
-        <v>213</v>
+        <v>182.99</v>
       </c>
       <c r="P73" t="n">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="Q73" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="R73" t="n">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="S73" t="n">
-        <v>99</v>
+        <v>196.6</v>
       </c>
       <c r="T73" t="n">
-        <v>194.5</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U73" t="n">
-        <v>0.3192307692307693</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V73" t="n">
-        <v>64.48999999999999</v>
+        <v>118.25</v>
       </c>
       <c r="W73" t="n">
-        <v>63.33333333333334</v>
-      </c>
-      <c r="X73" t="n">
-        <v>65</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="74">
@@ -5452,74 +5429,71 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16/02/2024</t>
+          <t>15/03/2024</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>111</v>
+        <v>158.5266666666667</v>
       </c>
       <c r="D74" t="n">
-        <v>173.6476923076923</v>
+        <v>155.75</v>
       </c>
       <c r="E74" t="n">
-        <v>159.651</v>
+        <v>147</v>
       </c>
       <c r="F74" t="n">
-        <v>156.8</v>
+        <v>147</v>
       </c>
       <c r="G74" t="n">
-        <v>152</v>
+        <v>64.75</v>
       </c>
       <c r="H74" t="n">
-        <v>64.75</v>
+        <v>154.2833333333333</v>
       </c>
       <c r="I74" t="n">
-        <v>164.5596</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J74" t="n">
-        <v>67.83799999999999</v>
+        <v>78.58571428571429</v>
       </c>
       <c r="K74" t="n">
-        <v>77.45294117647059</v>
+        <v>137.5202857142857</v>
       </c>
       <c r="L74" t="n">
-        <v>146.2514503816794</v>
+        <v>171.2307272727273</v>
       </c>
       <c r="M74" t="n">
-        <v>186.4590909090909</v>
+        <v>120</v>
       </c>
       <c r="N74" t="n">
-        <v>120</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O74" t="n">
-        <v>209</v>
+        <v>191.5</v>
       </c>
       <c r="P74" t="n">
-        <v>197</v>
+        <v>184.5</v>
       </c>
       <c r="Q74" t="n">
-        <v>199</v>
+        <v>184.5</v>
       </c>
       <c r="R74" t="n">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="S74" t="n">
-        <v>99</v>
+        <v>196.6</v>
       </c>
       <c r="T74" t="n">
-        <v>194.5</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U74" t="n">
-        <v>0.3192307692307693</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V74" t="n">
-        <v>64.48999999999999</v>
+        <v>118.25</v>
       </c>
       <c r="W74" t="n">
-        <v>62.58222222222222</v>
-      </c>
-      <c r="X74" t="n">
-        <v>65</v>
+        <v>63.80166666666667</v>
       </c>
     </row>
     <row r="75">
@@ -5528,74 +5502,71 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>19/02/2024</t>
+          <t>18/03/2024</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>111</v>
+        <v>152.6221428571428</v>
       </c>
       <c r="D75" t="n">
-        <v>170.8975</v>
+        <v>154</v>
       </c>
       <c r="E75" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F75" t="n">
-        <v>153.75</v>
+        <v>147</v>
       </c>
       <c r="G75" t="n">
-        <v>152</v>
+        <v>64.75</v>
       </c>
       <c r="H75" t="n">
-        <v>64.75</v>
+        <v>144.8608695652174</v>
       </c>
       <c r="I75" t="n">
-        <v>159.7632</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J75" t="n">
-        <v>67.83799999999999</v>
+        <v>75.46428571428571</v>
       </c>
       <c r="K75" t="n">
-        <v>76.13925925925926</v>
+        <v>129.1692380952381</v>
       </c>
       <c r="L75" t="n">
-        <v>139.6658536585366</v>
+        <v>159.549358974359</v>
       </c>
       <c r="M75" t="n">
-        <v>180.0119512195122</v>
+        <v>120</v>
       </c>
       <c r="N75" t="n">
-        <v>120</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O75" t="n">
-        <v>209</v>
+        <v>191.5</v>
       </c>
       <c r="P75" t="n">
-        <v>197</v>
+        <v>184.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>199</v>
+        <v>184.5</v>
       </c>
       <c r="R75" t="n">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="S75" t="n">
-        <v>99</v>
+        <v>196.6</v>
       </c>
       <c r="T75" t="n">
-        <v>194.5</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U75" t="n">
-        <v>0.3192307692307693</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V75" t="n">
-        <v>64.48999999999999</v>
+        <v>118.25</v>
       </c>
       <c r="W75" t="n">
-        <v>62.36142857142857</v>
-      </c>
-      <c r="X75" t="n">
-        <v>64.5</v>
+        <v>63.42696428571428</v>
       </c>
     </row>
     <row r="76">
@@ -5604,74 +5575,71 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>20/02/2024</t>
+          <t>19/03/2024</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>111</v>
+        <v>147.4356451612903</v>
       </c>
       <c r="D76" t="n">
-        <v>171</v>
+        <v>146.5</v>
       </c>
       <c r="E76" t="n">
-        <v>158.125</v>
+        <v>140</v>
       </c>
       <c r="F76" t="n">
-        <v>153.75</v>
+        <v>142.5</v>
       </c>
       <c r="G76" t="n">
-        <v>152</v>
+        <v>64.75</v>
       </c>
       <c r="H76" t="n">
-        <v>64.75</v>
+        <v>132.5485</v>
       </c>
       <c r="I76" t="n">
-        <v>162.12</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J76" t="n">
-        <v>67.83799999999999</v>
+        <v>72</v>
       </c>
       <c r="K76" t="n">
-        <v>76.6557142857143</v>
+        <v>118.4378260869565</v>
       </c>
       <c r="L76" t="n">
-        <v>140.4725925925926</v>
+        <v>148.1596268656716</v>
       </c>
       <c r="M76" t="n">
-        <v>182.1969444444445</v>
+        <v>120</v>
       </c>
       <c r="N76" t="n">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="O76" t="n">
-        <v>209</v>
+        <v>191.5</v>
       </c>
       <c r="P76" t="n">
-        <v>197</v>
+        <v>184.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>199</v>
+        <v>184.5</v>
       </c>
       <c r="R76" t="n">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="S76" t="n">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="T76" t="n">
-        <v>194.5</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U76" t="n">
-        <v>0.3192307692307693</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V76" t="n">
-        <v>64.48999999999999</v>
+        <v>118.25</v>
       </c>
       <c r="W76" t="n">
-        <v>65</v>
-      </c>
-      <c r="X76" t="n">
-        <v>64.125</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77">
@@ -5680,74 +5648,71 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>21/02/2024</t>
+          <t>20/03/2024</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>111</v>
+        <v>137.5938235294118</v>
       </c>
       <c r="D77" t="n">
-        <v>165.1740625</v>
+        <v>140.125</v>
       </c>
       <c r="E77" t="n">
-        <v>154.012</v>
+        <v>140</v>
       </c>
       <c r="F77" t="n">
-        <v>153.4</v>
+        <v>141.9966666666667</v>
       </c>
       <c r="G77" t="n">
-        <v>152</v>
+        <v>64.75</v>
       </c>
       <c r="H77" t="n">
-        <v>64.75</v>
+        <v>120.143275862069</v>
       </c>
       <c r="I77" t="n">
-        <v>153.6395833333333</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J77" t="n">
-        <v>67.83799999999999</v>
+        <v>69.3</v>
       </c>
       <c r="K77" t="n">
-        <v>74.26666666666667</v>
+        <v>108.6959776536313</v>
       </c>
       <c r="L77" t="n">
-        <v>134.1602608695652</v>
+        <v>134.0439416058394</v>
       </c>
       <c r="M77" t="n">
-        <v>174.3914457831325</v>
+        <v>120</v>
       </c>
       <c r="N77" t="n">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="O77" t="n">
-        <v>209</v>
+        <v>191.5</v>
       </c>
       <c r="P77" t="n">
-        <v>197</v>
+        <v>184.5</v>
       </c>
       <c r="Q77" t="n">
-        <v>199</v>
+        <v>184.5</v>
       </c>
       <c r="R77" t="n">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="S77" t="n">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="T77" t="n">
-        <v>194.5</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U77" t="n">
-        <v>0.3192307692307693</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V77" t="n">
-        <v>64.48999999999999</v>
+        <v>118.25</v>
       </c>
       <c r="W77" t="n">
-        <v>62.13</v>
-      </c>
-      <c r="X77" t="n">
-        <v>63.11428571428571</v>
+        <v>63.63</v>
       </c>
     </row>
     <row r="78">
@@ -5756,74 +5721,71 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>22/02/2024</t>
+          <t>21/03/2024</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>111</v>
+        <v>143.8952380952381</v>
       </c>
       <c r="D78" t="n">
-        <v>153.492027027027</v>
+        <v>145.675</v>
       </c>
       <c r="E78" t="n">
-        <v>146.1777777777778</v>
+        <v>140</v>
       </c>
       <c r="F78" t="n">
-        <v>153.4</v>
+        <v>141.9966666666667</v>
       </c>
       <c r="G78" t="n">
-        <v>152</v>
+        <v>64.75</v>
       </c>
       <c r="H78" t="n">
-        <v>64.75</v>
+        <v>132.1272222222222</v>
       </c>
       <c r="I78" t="n">
-        <v>138.2097247706422</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J78" t="n">
-        <v>67.83799999999999</v>
+        <v>70.56066666666668</v>
       </c>
       <c r="K78" t="n">
-        <v>71.17588235294117</v>
+        <v>116.9838297872341</v>
       </c>
       <c r="L78" t="n">
-        <v>120.6092352941176</v>
+        <v>144.7827722772277</v>
       </c>
       <c r="M78" t="n">
-        <v>157.9024369747899</v>
+        <v>120</v>
       </c>
       <c r="N78" t="n">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="O78" t="n">
-        <v>209</v>
+        <v>191.5</v>
       </c>
       <c r="P78" t="n">
-        <v>197</v>
+        <v>184.5</v>
       </c>
       <c r="Q78" t="n">
-        <v>199</v>
+        <v>184.5</v>
       </c>
       <c r="R78" t="n">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="S78" t="n">
-        <v>99</v>
+        <v>164.6666666666667</v>
       </c>
       <c r="T78" t="n">
-        <v>194.5</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U78" t="n">
-        <v>0.3192307692307693</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V78" t="n">
-        <v>64.48999999999999</v>
+        <v>118.25</v>
       </c>
       <c r="W78" t="n">
-        <v>61.7</v>
-      </c>
-      <c r="X78" t="n">
-        <v>62.51</v>
+        <v>61.95</v>
       </c>
     </row>
     <row r="79">
@@ -5832,1138 +5794,71 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>23/02/2024</t>
+          <t>22/03/2024</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>111</v>
+        <v>149.2222222222222</v>
       </c>
       <c r="D79" t="n">
-        <v>152.2510447761194</v>
+        <v>148.3333333333333</v>
       </c>
       <c r="E79" t="n">
-        <v>149.1153846153846</v>
+        <v>140</v>
       </c>
       <c r="F79" t="n">
-        <v>145.5</v>
+        <v>141.9966666666667</v>
       </c>
       <c r="G79" t="n">
-        <v>144.75</v>
+        <v>64.75</v>
       </c>
       <c r="H79" t="n">
-        <v>64.75</v>
+        <v>139.5345</v>
       </c>
       <c r="I79" t="n">
-        <v>140.6379411764706</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J79" t="n">
-        <v>67.83799999999999</v>
+        <v>90.83333333333333</v>
       </c>
       <c r="K79" t="n">
-        <v>72.4875</v>
+        <v>125.8366197183098</v>
       </c>
       <c r="L79" t="n">
-        <v>116.7217647058824</v>
+        <v>156.0589795918367</v>
       </c>
       <c r="M79" t="n">
-        <v>157.9007692307692</v>
+        <v>120</v>
       </c>
       <c r="N79" t="n">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="O79" t="n">
-        <v>186.26</v>
+        <v>183</v>
       </c>
       <c r="P79" t="n">
-        <v>185</v>
+        <v>184.5</v>
       </c>
       <c r="Q79" t="n">
-        <v>184</v>
+        <v>184.5</v>
       </c>
       <c r="R79" t="n">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="S79" t="n">
-        <v>99</v>
+        <v>164.6666666666667</v>
       </c>
       <c r="T79" t="n">
-        <v>194.5</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U79" t="n">
-        <v>0.3192307692307693</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V79" t="n">
-        <v>64.48999999999999</v>
+        <v>118.25</v>
       </c>
       <c r="W79" t="n">
-        <v>62</v>
-      </c>
-      <c r="X79" t="n">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>26/02/2024</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>111</v>
-      </c>
-      <c r="D80" t="n">
-        <v>148.9651724137931</v>
-      </c>
-      <c r="E80" t="n">
-        <v>146.75</v>
-      </c>
-      <c r="F80" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="G80" t="n">
-        <v>144.75</v>
-      </c>
-      <c r="H80" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I80" t="n">
-        <v>138.61</v>
-      </c>
-      <c r="J80" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K80" t="n">
-        <v>72.205</v>
-      </c>
-      <c r="L80" t="n">
-        <v>117.1116379310345</v>
-      </c>
-      <c r="M80" t="n">
-        <v>157.5224444444445</v>
-      </c>
-      <c r="N80" t="n">
-        <v>120</v>
-      </c>
-      <c r="O80" t="n">
-        <v>188</v>
-      </c>
-      <c r="P80" t="n">
-        <v>185</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>184</v>
-      </c>
-      <c r="R80" t="n">
-        <v>184</v>
-      </c>
-      <c r="S80" t="n">
-        <v>99</v>
-      </c>
-      <c r="T80" t="n">
-        <v>194.5</v>
-      </c>
-      <c r="U80" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V80" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W80" t="n">
-        <v>62.116</v>
-      </c>
-      <c r="X80" t="n">
-        <v>62.96666666666667</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>27/02/2024</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>111</v>
-      </c>
-      <c r="D81" t="n">
-        <v>153.6804761904762</v>
-      </c>
-      <c r="E81" t="n">
-        <v>149.7666666666667</v>
-      </c>
-      <c r="F81" t="n">
-        <v>148.875</v>
-      </c>
-      <c r="G81" t="n">
-        <v>145</v>
-      </c>
-      <c r="H81" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I81" t="n">
-        <v>145.7759259259259</v>
-      </c>
-      <c r="J81" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K81" t="n">
-        <v>75.36481481481481</v>
-      </c>
-      <c r="L81" t="n">
-        <v>124.7240909090909</v>
-      </c>
-      <c r="M81" t="n">
-        <v>165.749012345679</v>
-      </c>
-      <c r="N81" t="n">
-        <v>120</v>
-      </c>
-      <c r="O81" t="n">
-        <v>189</v>
-      </c>
-      <c r="P81" t="n">
-        <v>185</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>184</v>
-      </c>
-      <c r="R81" t="n">
-        <v>184</v>
-      </c>
-      <c r="S81" t="n">
-        <v>99</v>
-      </c>
-      <c r="T81" t="n">
-        <v>194.5</v>
-      </c>
-      <c r="U81" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V81" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W81" t="n">
-        <v>62.3175</v>
-      </c>
-      <c r="X81" t="n">
-        <v>66.18892857142858</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>28/02/2024</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>111</v>
-      </c>
-      <c r="D82" t="n">
-        <v>155.2923076923077</v>
-      </c>
-      <c r="E82" t="n">
-        <v>149.8333333333333</v>
-      </c>
-      <c r="F82" t="n">
-        <v>150</v>
-      </c>
-      <c r="G82" t="n">
-        <v>145</v>
-      </c>
-      <c r="H82" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I82" t="n">
-        <v>147.5516129032258</v>
-      </c>
-      <c r="J82" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K82" t="n">
-        <v>77.15555555555555</v>
-      </c>
-      <c r="L82" t="n">
-        <v>126.9850574712644</v>
-      </c>
-      <c r="M82" t="n">
-        <v>167.8631428571429</v>
-      </c>
-      <c r="N82" t="n">
-        <v>120</v>
-      </c>
-      <c r="O82" t="n">
-        <v>192</v>
-      </c>
-      <c r="P82" t="n">
-        <v>185</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>184</v>
-      </c>
-      <c r="R82" t="n">
-        <v>184</v>
-      </c>
-      <c r="S82" t="n">
-        <v>99</v>
-      </c>
-      <c r="T82" t="n">
-        <v>194.5</v>
-      </c>
-      <c r="U82" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V82" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W82" t="n">
-        <v>62.53571428571428</v>
-      </c>
-      <c r="X82" t="n">
-        <v>66.18607142857142</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>29/02/2024</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>111</v>
-      </c>
-      <c r="D83" t="n">
-        <v>158.4117647058823</v>
-      </c>
-      <c r="E83" t="n">
-        <v>152.2871428571429</v>
-      </c>
-      <c r="F83" t="n">
-        <v>150.5</v>
-      </c>
-      <c r="G83" t="n">
-        <v>145</v>
-      </c>
-      <c r="H83" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I83" t="n">
-        <v>151.2335294117647</v>
-      </c>
-      <c r="J83" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K83" t="n">
-        <v>79.78918918918919</v>
-      </c>
-      <c r="L83" t="n">
-        <v>130.3195161290323</v>
-      </c>
-      <c r="M83" t="n">
-        <v>171.5811111111111</v>
-      </c>
-      <c r="N83" t="n">
-        <v>120</v>
-      </c>
-      <c r="O83" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="P83" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>184</v>
-      </c>
-      <c r="R83" t="n">
-        <v>184</v>
-      </c>
-      <c r="S83" t="n">
-        <v>99</v>
-      </c>
-      <c r="T83" t="n">
-        <v>190</v>
-      </c>
-      <c r="U83" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V83" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W83" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="X83" t="n">
-        <v>66.3</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>01/03/2024</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>111</v>
-      </c>
-      <c r="D84" t="n">
-        <v>159.7727272727273</v>
-      </c>
-      <c r="E84" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="F84" t="n">
-        <v>148.8333333333333</v>
-      </c>
-      <c r="G84" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="H84" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I84" t="n">
-        <v>153.5968965517241</v>
-      </c>
-      <c r="J84" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K84" t="n">
-        <v>79.30921052631579</v>
-      </c>
-      <c r="L84" t="n">
-        <v>132.2443548387097</v>
-      </c>
-      <c r="M84" t="n">
-        <v>171.4761904761905</v>
-      </c>
-      <c r="N84" t="n">
-        <v>120</v>
-      </c>
-      <c r="O84" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="P84" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>184</v>
-      </c>
-      <c r="R84" t="n">
-        <v>184</v>
-      </c>
-      <c r="S84" t="n">
-        <v>99</v>
-      </c>
-      <c r="T84" t="n">
-        <v>190</v>
-      </c>
-      <c r="U84" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V84" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W84" t="n">
-        <v>117.67</v>
-      </c>
-      <c r="X84" t="n">
-        <v>65.41363636363636</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>04/03/2024</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>111</v>
-      </c>
-      <c r="D85" t="n">
-        <v>158.0625</v>
-      </c>
-      <c r="E85" t="n">
-        <v>156</v>
-      </c>
-      <c r="F85" t="n">
-        <v>148.8333333333333</v>
-      </c>
-      <c r="G85" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="H85" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I85" t="n">
-        <v>148.94</v>
-      </c>
-      <c r="J85" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K85" t="n">
-        <v>78.44533333333334</v>
-      </c>
-      <c r="L85" t="n">
-        <v>126.4451282051282</v>
-      </c>
-      <c r="M85" t="n">
-        <v>169.0246153846154</v>
-      </c>
-      <c r="N85" t="n">
-        <v>120</v>
-      </c>
-      <c r="O85" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="P85" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>184</v>
-      </c>
-      <c r="R85" t="n">
-        <v>184</v>
-      </c>
-      <c r="S85" t="n">
-        <v>99</v>
-      </c>
-      <c r="T85" t="n">
-        <v>190</v>
-      </c>
-      <c r="U85" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V85" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W85" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="X85" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>05/03/2024</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>111</v>
-      </c>
-      <c r="D86" t="n">
-        <v>154.9533333333333</v>
-      </c>
-      <c r="E86" t="n">
-        <v>152</v>
-      </c>
-      <c r="F86" t="n">
-        <v>148.25</v>
-      </c>
-      <c r="G86" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="H86" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I86" t="n">
-        <v>147.294375</v>
-      </c>
-      <c r="J86" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K86" t="n">
-        <v>79.29857142857144</v>
-      </c>
-      <c r="L86" t="n">
-        <v>126.9923684210526</v>
-      </c>
-      <c r="M86" t="n">
-        <v>167.2823076923077</v>
-      </c>
-      <c r="N86" t="n">
-        <v>120</v>
-      </c>
-      <c r="O86" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="P86" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>184</v>
-      </c>
-      <c r="R86" t="n">
-        <v>184</v>
-      </c>
-      <c r="S86" t="n">
-        <v>99</v>
-      </c>
-      <c r="T86" t="n">
-        <v>190</v>
-      </c>
-      <c r="U86" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V86" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W86" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="X86" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>06/03/2024</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>111</v>
-      </c>
-      <c r="D87" t="n">
-        <v>157.4642857142857</v>
-      </c>
-      <c r="E87" t="n">
-        <v>155.6666666666667</v>
-      </c>
-      <c r="F87" t="n">
-        <v>148.25</v>
-      </c>
-      <c r="G87" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="H87" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I87" t="n">
-        <v>153.2423529411765</v>
-      </c>
-      <c r="J87" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K87" t="n">
-        <v>80.84529411764707</v>
-      </c>
-      <c r="L87" t="n">
-        <v>133.3383908045977</v>
-      </c>
-      <c r="M87" t="n">
-        <v>172.698</v>
-      </c>
-      <c r="N87" t="n">
-        <v>120</v>
-      </c>
-      <c r="O87" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="P87" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>184</v>
-      </c>
-      <c r="R87" t="n">
-        <v>184</v>
-      </c>
-      <c r="S87" t="n">
-        <v>99</v>
-      </c>
-      <c r="T87" t="n">
-        <v>190</v>
-      </c>
-      <c r="U87" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V87" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W87" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="X87" t="n">
-        <v>63.63444444444445</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>07/03/2024</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>111</v>
-      </c>
-      <c r="D88" t="n">
-        <v>160.0321428571428</v>
-      </c>
-      <c r="E88" t="n">
-        <v>156</v>
-      </c>
-      <c r="F88" t="n">
-        <v>148.25</v>
-      </c>
-      <c r="G88" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="H88" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I88" t="n">
-        <v>159.2897222222222</v>
-      </c>
-      <c r="J88" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K88" t="n">
-        <v>84.00399999999999</v>
-      </c>
-      <c r="L88" t="n">
-        <v>139.6338461538462</v>
-      </c>
-      <c r="M88" t="n">
-        <v>178.5269090909091</v>
-      </c>
-      <c r="N88" t="n">
-        <v>120</v>
-      </c>
-      <c r="O88" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="P88" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>184</v>
-      </c>
-      <c r="R88" t="n">
-        <v>184</v>
-      </c>
-      <c r="S88" t="n">
-        <v>99</v>
-      </c>
-      <c r="T88" t="n">
-        <v>196.6</v>
-      </c>
-      <c r="U88" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V88" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W88" t="n">
-        <v>61.8</v>
-      </c>
-      <c r="X88" t="n">
-        <v>63.63444444444445</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>08/03/2024</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>111</v>
-      </c>
-      <c r="D89" t="n">
-        <v>166.861724137931</v>
-      </c>
-      <c r="E89" t="n">
-        <v>161.49</v>
-      </c>
-      <c r="F89" t="n">
-        <v>152.6666666666667</v>
-      </c>
-      <c r="G89" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="H89" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I89" t="n">
-        <v>166.5228947368421</v>
-      </c>
-      <c r="J89" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K89" t="n">
-        <v>87.36133333333333</v>
-      </c>
-      <c r="L89" t="n">
-        <v>148.5520792079208</v>
-      </c>
-      <c r="M89" t="n">
-        <v>187.1764285714286</v>
-      </c>
-      <c r="N89" t="n">
-        <v>120</v>
-      </c>
-      <c r="O89" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="P89" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>184</v>
-      </c>
-      <c r="R89" t="n">
-        <v>184</v>
-      </c>
-      <c r="S89" t="n">
-        <v>99</v>
-      </c>
-      <c r="T89" t="n">
-        <v>196.6</v>
-      </c>
-      <c r="U89" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V89" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W89" t="n">
-        <v>118.25</v>
-      </c>
-      <c r="X89" t="n">
-        <v>64.60909090909091</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>11/03/2024</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>111</v>
-      </c>
-      <c r="D90" t="n">
-        <v>164.98</v>
-      </c>
-      <c r="E90" t="n">
-        <v>160.5</v>
-      </c>
-      <c r="F90" t="n">
-        <v>152.6666666666667</v>
-      </c>
-      <c r="G90" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="H90" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I90" t="n">
-        <v>165.7305555555556</v>
-      </c>
-      <c r="J90" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K90" t="n">
-        <v>85.56</v>
-      </c>
-      <c r="L90" t="n">
-        <v>146.7559302325581</v>
-      </c>
-      <c r="M90" t="n">
-        <v>186.7737777777778</v>
-      </c>
-      <c r="N90" t="n">
-        <v>120</v>
-      </c>
-      <c r="O90" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="P90" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>184</v>
-      </c>
-      <c r="R90" t="n">
-        <v>184</v>
-      </c>
-      <c r="S90" t="n">
-        <v>99</v>
-      </c>
-      <c r="T90" t="n">
-        <v>196.6</v>
-      </c>
-      <c r="U90" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V90" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W90" t="n">
-        <v>118.25</v>
-      </c>
-      <c r="X90" t="n">
-        <v>64.1125</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>12/03/2024</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>111</v>
-      </c>
-      <c r="D91" t="n">
-        <v>165.7842857142857</v>
-      </c>
-      <c r="E91" t="n">
-        <v>159.5</v>
-      </c>
-      <c r="F91" t="n">
-        <v>152.6666666666667</v>
-      </c>
-      <c r="G91" t="n">
-        <v>146.5</v>
-      </c>
-      <c r="H91" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I91" t="n">
-        <v>164.899</v>
-      </c>
-      <c r="J91" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K91" t="n">
-        <v>84.17470588235294</v>
-      </c>
-      <c r="L91" t="n">
-        <v>147.5442045454545</v>
-      </c>
-      <c r="M91" t="n">
-        <v>185.1758333333333</v>
-      </c>
-      <c r="N91" t="n">
-        <v>120</v>
-      </c>
-      <c r="O91" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="P91" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>184</v>
-      </c>
-      <c r="R91" t="n">
-        <v>184</v>
-      </c>
-      <c r="S91" t="n">
-        <v>99</v>
-      </c>
-      <c r="T91" t="n">
-        <v>196.6</v>
-      </c>
-      <c r="U91" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V91" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W91" t="n">
-        <v>118.25</v>
-      </c>
-      <c r="X91" t="n">
-        <v>63.85416666666666</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>13/03/2024</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>111</v>
-      </c>
-      <c r="D92" t="n">
-        <v>161.664</v>
-      </c>
-      <c r="E92" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="F92" t="n">
-        <v>150.5</v>
-      </c>
-      <c r="G92" t="n">
-        <v>146.5</v>
-      </c>
-      <c r="H92" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I92" t="n">
-        <v>160.9636363636364</v>
-      </c>
-      <c r="J92" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K92" t="n">
-        <v>83.52352941176471</v>
-      </c>
-      <c r="L92" t="n">
-        <v>144.0026923076923</v>
-      </c>
-      <c r="M92" t="n">
-        <v>179.7327272727273</v>
-      </c>
-      <c r="N92" t="n">
-        <v>120</v>
-      </c>
-      <c r="O92" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="P92" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>187</v>
-      </c>
-      <c r="R92" t="n">
-        <v>184</v>
-      </c>
-      <c r="S92" t="n">
-        <v>99</v>
-      </c>
-      <c r="T92" t="n">
-        <v>196.6</v>
-      </c>
-      <c r="U92" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V92" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W92" t="n">
-        <v>118.25</v>
-      </c>
-      <c r="X92" t="n">
-        <v>63.38888888888889</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>14/03/2024</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>111</v>
-      </c>
-      <c r="D93" t="n">
-        <v>157.59</v>
-      </c>
-      <c r="E93" t="n">
-        <v>154.5</v>
-      </c>
-      <c r="F93" t="n">
-        <v>147</v>
-      </c>
-      <c r="G93" t="n">
-        <v>147</v>
-      </c>
-      <c r="H93" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="I93" t="n">
-        <v>152.0756</v>
-      </c>
-      <c r="J93" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="K93" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="L93" t="n">
-        <v>135.8812987012987</v>
-      </c>
-      <c r="M93" t="n">
-        <v>168.1711267605634</v>
-      </c>
-      <c r="N93" t="n">
-        <v>120</v>
-      </c>
-      <c r="O93" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="P93" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>187</v>
-      </c>
-      <c r="R93" t="n">
-        <v>184</v>
-      </c>
-      <c r="S93" t="n">
-        <v>99</v>
-      </c>
-      <c r="T93" t="n">
-        <v>196.6</v>
-      </c>
-      <c r="U93" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="V93" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="W93" t="n">
-        <v>118.25</v>
-      </c>
-      <c r="X93" t="n">
-        <v>63.36666666666666</v>
+        <v>61.95</v>
       </c>
     </row>
   </sheetData>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W79"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,25 +551,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>02/01/2024</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>103</v>
+        <v>106.3</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>135</v>
+      </c>
+      <c r="G2" t="n">
+        <v>69</v>
+      </c>
+      <c r="H2" t="n">
+        <v>83.125</v>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>68.39999999999999</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>105</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>138.6</v>
+      </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -577,12 +587,14 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>71.2</v>
+        <v>68.58888888888889</v>
       </c>
       <c r="V2" t="n">
-        <v>73</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
+        <v>69.551</v>
+      </c>
+      <c r="W2" t="n">
+        <v>69.25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -590,27 +602,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>04/12/2023</t>
+          <t>03/01/2024</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>103.25</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>107.5726315789474</v>
+      </c>
+      <c r="D3" t="n">
+        <v>123.7</v>
+      </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>135</v>
+      </c>
       <c r="G3" t="n">
-        <v>70</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>69</v>
+      </c>
+      <c r="H3" t="n">
+        <v>84.11111111111111</v>
+      </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>79.40909090909091</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>106.25</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>105</v>
+      </c>
+      <c r="N3" t="n">
+        <v>138.6</v>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -618,12 +642,14 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>72.36666666666666</v>
+        <v>68.3625</v>
       </c>
       <c r="V3" t="n">
-        <v>72.33333333333333</v>
-      </c>
-      <c r="W3" t="inlineStr"/>
+        <v>70.23888888888888</v>
+      </c>
+      <c r="W3" t="n">
+        <v>68.8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -631,36 +657,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>05/12/2023</t>
+          <t>04/01/2024</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>103.5</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>110.1666666666667</v>
+      </c>
+      <c r="D4" t="n">
+        <v>127</v>
+      </c>
+      <c r="E4" t="n">
+        <v>133.25</v>
+      </c>
       <c r="F4" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G4" t="n">
-        <v>70</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>69</v>
+      </c>
+      <c r="H4" t="n">
+        <v>85.92999999999999</v>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>66.5</v>
+        <v>68.05500000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>77</v>
+        <v>80.79400000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="M4" t="n">
-        <v>104.25</v>
+        <v>97</v>
       </c>
       <c r="N4" t="n">
-        <v>132.75</v>
+        <v>138.6</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
@@ -669,12 +701,14 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>71.67</v>
+        <v>68.26875</v>
       </c>
       <c r="V4" t="n">
-        <v>72.33333333333333</v>
-      </c>
-      <c r="W4" t="inlineStr"/>
+        <v>70.55</v>
+      </c>
+      <c r="W4" t="n">
+        <v>70.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -682,40 +716,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>06/12/2023</t>
+          <t>05/01/2024</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>105.3636363636364</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>110.7177272727273</v>
+      </c>
+      <c r="D5" t="n">
+        <v>126.6666666666667</v>
+      </c>
       <c r="E5" t="n">
-        <v>124</v>
+        <v>133.25</v>
       </c>
       <c r="F5" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G5" t="n">
-        <v>69.25</v>
+        <v>69</v>
       </c>
       <c r="H5" t="n">
-        <v>79.33333333333333</v>
+        <v>86.98466666666667</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>66.5</v>
+        <v>68</v>
       </c>
       <c r="K5" t="n">
-        <v>77</v>
+        <v>81.3</v>
       </c>
       <c r="L5" t="n">
-        <v>82</v>
+        <v>94.25</v>
       </c>
       <c r="M5" t="n">
-        <v>105.375</v>
+        <v>97</v>
       </c>
       <c r="N5" t="n">
-        <v>132.75</v>
+        <v>138.6</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
@@ -724,12 +760,14 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>72.27692307692308</v>
+        <v>67.01875</v>
       </c>
       <c r="V5" t="n">
-        <v>72.33333333333333</v>
-      </c>
-      <c r="W5" t="inlineStr"/>
+        <v>69.00909090909092</v>
+      </c>
+      <c r="W5" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -737,57 +775,61 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>07/12/2023</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>107.2142857142857</v>
+        <v>114.1496428571429</v>
       </c>
       <c r="D6" t="n">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E6" t="n">
-        <v>125</v>
+        <v>137.995</v>
       </c>
       <c r="F6" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G6" t="n">
-        <v>69.25</v>
+        <v>69</v>
       </c>
       <c r="H6" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>88.643125</v>
+      </c>
+      <c r="I6" t="n">
+        <v>70</v>
+      </c>
       <c r="J6" t="n">
-        <v>67.5</v>
+        <v>68</v>
       </c>
       <c r="K6" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="n">
-        <v>82</v>
+        <v>98.41416666666667</v>
       </c>
       <c r="M6" t="n">
-        <v>105.375</v>
+        <v>97</v>
       </c>
       <c r="N6" t="n">
-        <v>132.75</v>
+        <v>138.6</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
       <c r="U6" t="n">
-        <v>71.81526315789473</v>
+        <v>68.37586206896552</v>
       </c>
       <c r="V6" t="n">
-        <v>72</v>
+        <v>70.75473684210526</v>
       </c>
       <c r="W6" t="n">
-        <v>72</v>
+        <v>70.4375</v>
       </c>
     </row>
     <row r="7">
@@ -796,59 +838,63 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>106.1</v>
+        <v>123.7875</v>
       </c>
       <c r="D7" t="n">
-        <v>118.3333333333333</v>
+        <v>141</v>
       </c>
       <c r="E7" t="n">
-        <v>124</v>
+        <v>144.5</v>
       </c>
       <c r="F7" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G7" t="n">
-        <v>68.875</v>
+        <v>69</v>
       </c>
       <c r="H7" t="n">
-        <v>79</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>95.61658536585367</v>
+      </c>
+      <c r="I7" t="n">
+        <v>70</v>
+      </c>
       <c r="J7" t="n">
-        <v>67.95</v>
+        <v>70.40454545454546</v>
       </c>
       <c r="K7" t="n">
-        <v>76</v>
+        <v>84.95</v>
       </c>
       <c r="L7" t="n">
-        <v>82</v>
+        <v>105.2714285714286</v>
       </c>
       <c r="M7" t="n">
-        <v>104.25</v>
+        <v>110</v>
       </c>
       <c r="N7" t="n">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>118</v>
-      </c>
-      <c r="T7" t="inlineStr"/>
+        <v>119.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
       <c r="U7" t="n">
-        <v>70.21428571428571</v>
+        <v>66.03888888888889</v>
       </c>
       <c r="V7" t="n">
-        <v>70.625</v>
+        <v>71.17966666666666</v>
       </c>
       <c r="W7" t="n">
-        <v>70.5</v>
+        <v>70.4375</v>
       </c>
     </row>
     <row r="8">
@@ -857,59 +903,65 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11/12/2023</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>106.94</v>
+        <v>124.8271111111111</v>
       </c>
       <c r="D8" t="n">
-        <v>119.65</v>
+        <v>139.7652941176471</v>
       </c>
       <c r="E8" t="n">
-        <v>127.3</v>
+        <v>144.6666666666667</v>
       </c>
       <c r="F8" t="n">
-        <v>130</v>
+        <v>149.51</v>
       </c>
       <c r="G8" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>96.73131147540983</v>
+      </c>
+      <c r="I8" t="n">
         <v>70</v>
       </c>
-      <c r="H8" t="n">
-        <v>79.66666666666667</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>68</v>
+        <v>70.9175</v>
       </c>
       <c r="K8" t="n">
-        <v>76</v>
+        <v>82.38</v>
       </c>
       <c r="L8" t="n">
-        <v>82</v>
+        <v>106.87375</v>
       </c>
       <c r="M8" t="n">
-        <v>104.25</v>
+        <v>159.325</v>
       </c>
       <c r="N8" t="n">
-        <v>145</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
+        <v>174.825</v>
+      </c>
+      <c r="O8" t="n">
+        <v>174</v>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>110</v>
-      </c>
-      <c r="T8" t="inlineStr"/>
+        <v>119.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
       <c r="U8" t="n">
-        <v>72.09736842105262</v>
+        <v>64.41089285714285</v>
       </c>
       <c r="V8" t="n">
-        <v>71.75</v>
+        <v>69.38857142857142</v>
       </c>
       <c r="W8" t="n">
-        <v>70.5</v>
+        <v>69.13500000000001</v>
       </c>
     </row>
     <row r="9">
@@ -918,59 +970,67 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12/12/2023</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>107.4222222222222</v>
+        <v>117.5280769230769</v>
       </c>
       <c r="D9" t="n">
-        <v>116</v>
+        <v>136.9993333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>127.3</v>
+        <v>141.8333333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>130</v>
+        <v>145.5</v>
       </c>
       <c r="G9" t="n">
-        <v>70.55</v>
+        <v>68.5</v>
       </c>
       <c r="H9" t="n">
-        <v>80.75</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>90.24947368421053</v>
+      </c>
+      <c r="I9" t="n">
+        <v>70</v>
+      </c>
       <c r="J9" t="n">
-        <v>68</v>
+        <v>69.05555555555556</v>
       </c>
       <c r="K9" t="n">
-        <v>76</v>
+        <v>79.57045454545454</v>
       </c>
       <c r="L9" t="n">
-        <v>82</v>
+        <v>100.9090909090909</v>
       </c>
       <c r="M9" t="n">
-        <v>106.5</v>
+        <v>159.325</v>
       </c>
       <c r="N9" t="n">
-        <v>141</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
+        <v>174.825</v>
+      </c>
+      <c r="O9" t="n">
+        <v>174</v>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>99</v>
+      </c>
       <c r="S9" t="n">
-        <v>110</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
+        <v>120.8333333333333</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.58125</v>
+      </c>
       <c r="U9" t="n">
-        <v>74.65890909090909</v>
+        <v>64.58499999999999</v>
       </c>
       <c r="V9" t="n">
-        <v>73.5</v>
+        <v>67.6837837837838</v>
       </c>
       <c r="W9" t="n">
-        <v>70.5</v>
+        <v>68.1152</v>
       </c>
     </row>
     <row r="10">
@@ -979,59 +1039,67 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13/12/2023</t>
+          <t>12/01/2024</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>107.8316666666667</v>
+        <v>123.0051282051282</v>
       </c>
       <c r="D10" t="n">
-        <v>120</v>
+        <v>138.6666666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>127</v>
+        <v>141.8333333333333</v>
       </c>
       <c r="F10" t="n">
-        <v>130</v>
+        <v>145.5</v>
       </c>
       <c r="G10" t="n">
-        <v>70.25</v>
+        <v>68.5</v>
       </c>
       <c r="H10" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>93.6430303030303</v>
+      </c>
+      <c r="I10" t="n">
+        <v>70</v>
+      </c>
       <c r="J10" t="n">
-        <v>69.5</v>
+        <v>69.6225</v>
       </c>
       <c r="K10" t="n">
-        <v>76</v>
+        <v>82.19090909090909</v>
       </c>
       <c r="L10" t="n">
-        <v>82</v>
+        <v>105.5</v>
       </c>
       <c r="M10" t="n">
-        <v>103.1333333333333</v>
+        <v>106</v>
       </c>
       <c r="N10" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="O10" t="inlineStr"/>
+        <v>153.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>174</v>
+      </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>99</v>
+      </c>
       <c r="S10" t="n">
-        <v>110</v>
-      </c>
-      <c r="T10" t="inlineStr"/>
+        <v>125</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.6</v>
+      </c>
       <c r="U10" t="n">
-        <v>73.82222222222222</v>
+        <v>64.52</v>
       </c>
       <c r="V10" t="n">
-        <v>73.5</v>
+        <v>68.375</v>
       </c>
       <c r="W10" t="n">
-        <v>70.5</v>
+        <v>68.73166666666667</v>
       </c>
     </row>
     <row r="11">
@@ -1040,61 +1108,67 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14/12/2023</t>
+          <t>15/01/2024</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>108.5</v>
+        <v>122.6718181818182</v>
       </c>
       <c r="D11" t="n">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="E11" t="n">
-        <v>130</v>
+        <v>141.8333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G11" t="n">
-        <v>71</v>
+        <v>68.5</v>
       </c>
       <c r="H11" t="n">
-        <v>83</v>
+        <v>93.85981818181818</v>
       </c>
       <c r="I11" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>69.5</v>
+        <v>69.34307692307692</v>
       </c>
       <c r="K11" t="n">
-        <v>76</v>
+        <v>82.565</v>
       </c>
       <c r="L11" t="n">
-        <v>82</v>
+        <v>105.5833333333333</v>
       </c>
       <c r="M11" t="n">
-        <v>102.325</v>
+        <v>106</v>
       </c>
       <c r="N11" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="O11" t="inlineStr"/>
+        <v>155</v>
+      </c>
+      <c r="O11" t="n">
+        <v>174</v>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>99</v>
+      </c>
       <c r="S11" t="n">
-        <v>110</v>
-      </c>
-      <c r="T11" t="inlineStr"/>
+        <v>125</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
       <c r="U11" t="n">
-        <v>74.15833333333333</v>
+        <v>64.56206896551724</v>
       </c>
       <c r="V11" t="n">
-        <v>73.5</v>
+        <v>67.97999999999999</v>
       </c>
       <c r="W11" t="n">
-        <v>70.5</v>
+        <v>68.22222222222223</v>
       </c>
     </row>
     <row r="12">
@@ -1103,61 +1177,67 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15/12/2023</t>
+          <t>16/01/2024</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>108.5</v>
+        <v>117.7789795918367</v>
       </c>
       <c r="D12" t="n">
-        <v>121</v>
+        <v>136.5833333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>130</v>
+        <v>139.3333333333333</v>
       </c>
       <c r="F12" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G12" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H12" t="n">
-        <v>82.5</v>
+        <v>89.77933333333334</v>
       </c>
       <c r="I12" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>69.5</v>
+        <v>67.46428571428571</v>
       </c>
       <c r="K12" t="n">
-        <v>77.5</v>
+        <v>80.7590625</v>
       </c>
       <c r="L12" t="n">
-        <v>82</v>
+        <v>99.41466666666666</v>
       </c>
       <c r="M12" t="n">
-        <v>102.325</v>
+        <v>111</v>
       </c>
       <c r="N12" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="O12" t="inlineStr"/>
+        <v>145</v>
+      </c>
+      <c r="O12" t="n">
+        <v>174</v>
+      </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>99</v>
+      </c>
       <c r="S12" t="n">
-        <v>110</v>
-      </c>
-      <c r="T12" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.5666666666666667</v>
+      </c>
       <c r="U12" t="n">
-        <v>72.89999999999999</v>
+        <v>64.09027777777777</v>
       </c>
       <c r="V12" t="n">
-        <v>73.5</v>
+        <v>66.19466666666668</v>
       </c>
       <c r="W12" t="n">
-        <v>70.5</v>
+        <v>66.72851851851853</v>
       </c>
     </row>
     <row r="13">
@@ -1166,61 +1246,67 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>18/12/2023</t>
+          <t>17/01/2024</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>110.6818181818182</v>
+        <v>116.4174285714286</v>
       </c>
       <c r="D13" t="n">
-        <v>123</v>
+        <v>134.625</v>
       </c>
       <c r="E13" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F13" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G13" t="n">
-        <v>71.46666666666667</v>
+        <v>67</v>
       </c>
       <c r="H13" t="n">
-        <v>84.5</v>
+        <v>88.87617647058823</v>
       </c>
       <c r="I13" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>68</v>
+        <v>67.78571428571429</v>
       </c>
       <c r="K13" t="n">
-        <v>81</v>
+        <v>79.7769387755102</v>
       </c>
       <c r="L13" t="n">
-        <v>82</v>
+        <v>97.48</v>
       </c>
       <c r="M13" t="n">
-        <v>102.325</v>
+        <v>111</v>
       </c>
       <c r="N13" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="O13" t="inlineStr"/>
+        <v>150.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>174</v>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>99</v>
+      </c>
       <c r="S13" t="n">
-        <v>110</v>
-      </c>
-      <c r="T13" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.67375</v>
+      </c>
       <c r="U13" t="n">
-        <v>76.56812499999999</v>
+        <v>63.6355</v>
       </c>
       <c r="V13" t="n">
-        <v>74.714</v>
+        <v>66.32871794871795</v>
       </c>
       <c r="W13" t="n">
-        <v>74</v>
+        <v>66.75833333333334</v>
       </c>
     </row>
     <row r="14">
@@ -1229,61 +1315,67 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>19/12/2023</t>
+          <t>18/01/2024</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>107.5625</v>
+        <v>111.5074576271186</v>
       </c>
       <c r="D14" t="n">
-        <v>122.9166666666667</v>
+        <v>130.9282608695652</v>
       </c>
       <c r="E14" t="n">
-        <v>130</v>
+        <v>136.0666666666667</v>
       </c>
       <c r="F14" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G14" t="n">
-        <v>69.97777777777777</v>
+        <v>67</v>
       </c>
       <c r="H14" t="n">
-        <v>80.755</v>
+        <v>85.05632352941177</v>
       </c>
       <c r="I14" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>68</v>
+        <v>66.80833333333334</v>
       </c>
       <c r="K14" t="n">
-        <v>77.96666666666667</v>
+        <v>77.65283333333333</v>
       </c>
       <c r="L14" t="n">
-        <v>84</v>
+        <v>92.89999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>102.325</v>
+        <v>103</v>
       </c>
       <c r="N14" t="n">
-        <v>141</v>
-      </c>
-      <c r="O14" t="inlineStr"/>
+        <v>145.9333333333333</v>
+      </c>
+      <c r="O14" t="n">
+        <v>174</v>
+      </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>99</v>
+      </c>
       <c r="S14" t="n">
-        <v>110</v>
-      </c>
-      <c r="T14" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.5555555555555556</v>
+      </c>
       <c r="U14" t="n">
-        <v>71.16441176470589</v>
+        <v>62.584375</v>
       </c>
       <c r="V14" t="n">
-        <v>71.25</v>
+        <v>64.53727272727272</v>
       </c>
       <c r="W14" t="n">
-        <v>70.41666666666667</v>
+        <v>65.87709677419355</v>
       </c>
     </row>
     <row r="15">
@@ -1292,61 +1384,67 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20/12/2023</t>
+          <t>19/01/2024</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>109.0555555555556</v>
+        <v>114.1885714285714</v>
       </c>
       <c r="D15" t="n">
-        <v>120.5</v>
+        <v>123.4</v>
       </c>
       <c r="E15" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F15" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G15" t="n">
-        <v>71.5</v>
+        <v>67</v>
       </c>
       <c r="H15" t="n">
-        <v>82.93625</v>
+        <v>86.12666666666668</v>
       </c>
       <c r="I15" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>68.88888888888889</v>
+        <v>66.90416666666667</v>
       </c>
       <c r="K15" t="n">
-        <v>77.96666666666667</v>
+        <v>77.41666666666667</v>
       </c>
       <c r="L15" t="n">
-        <v>84</v>
+        <v>95.25</v>
       </c>
       <c r="M15" t="n">
-        <v>107</v>
+        <v>108.5</v>
       </c>
       <c r="N15" t="n">
-        <v>141</v>
-      </c>
-      <c r="O15" t="inlineStr"/>
+        <v>145.9333333333333</v>
+      </c>
+      <c r="O15" t="n">
+        <v>174</v>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>99</v>
+      </c>
       <c r="S15" t="n">
-        <v>110</v>
-      </c>
-      <c r="T15" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.4285714285714285</v>
+      </c>
       <c r="U15" t="n">
-        <v>72.9825</v>
+        <v>62.15</v>
       </c>
       <c r="V15" t="n">
-        <v>72</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="W15" t="n">
-        <v>70</v>
+        <v>65.14285714285714</v>
       </c>
     </row>
     <row r="16">
@@ -1355,61 +1453,67 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21/12/2023</t>
+          <t>22/01/2024</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>106.3875</v>
+        <v>119.8415789473684</v>
       </c>
       <c r="D16" t="n">
-        <v>121.75</v>
+        <v>135.5833333333333</v>
       </c>
       <c r="E16" t="n">
-        <v>131</v>
+        <v>140.5</v>
       </c>
       <c r="F16" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G16" t="n">
-        <v>70.83333333333333</v>
+        <v>67</v>
       </c>
       <c r="H16" t="n">
-        <v>82.7</v>
+        <v>90.68212765957448</v>
       </c>
       <c r="I16" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>68.875</v>
+        <v>67.98076923076923</v>
       </c>
       <c r="K16" t="n">
-        <v>80</v>
+        <v>80.73218749999999</v>
       </c>
       <c r="L16" t="n">
-        <v>84</v>
+        <v>99.001875</v>
       </c>
       <c r="M16" t="n">
-        <v>107</v>
+        <v>108.5</v>
       </c>
       <c r="N16" t="n">
-        <v>141</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="O16" t="n">
+        <v>174</v>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>99</v>
+      </c>
       <c r="S16" t="n">
-        <v>110</v>
-      </c>
-      <c r="T16" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.6333333333333333</v>
+      </c>
       <c r="U16" t="n">
-        <v>72.28571428571429</v>
+        <v>63</v>
       </c>
       <c r="V16" t="n">
-        <v>72</v>
+        <v>64.60640000000001</v>
       </c>
       <c r="W16" t="n">
-        <v>70</v>
+        <v>65.69642857142857</v>
       </c>
     </row>
     <row r="17">
@@ -1418,61 +1522,67 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22/12/2023</t>
+          <t>23/01/2024</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>106.4444444444444</v>
+        <v>123.84</v>
       </c>
       <c r="D17" t="n">
-        <v>118.5</v>
+        <v>139.1428571428571</v>
       </c>
       <c r="E17" t="n">
-        <v>130</v>
+        <v>141.5</v>
       </c>
       <c r="F17" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G17" t="n">
-        <v>70.83333333333333</v>
+        <v>68.5</v>
       </c>
       <c r="H17" t="n">
-        <v>83.47555555555556</v>
+        <v>96.72918367346938</v>
       </c>
       <c r="I17" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>69.16666666666667</v>
+        <v>68.72222222222223</v>
       </c>
       <c r="K17" t="n">
-        <v>79.75</v>
+        <v>84.36428571428571</v>
       </c>
       <c r="L17" t="n">
-        <v>84</v>
+        <v>107.1055172413793</v>
       </c>
       <c r="M17" t="n">
-        <v>107.5</v>
+        <v>108.5</v>
       </c>
       <c r="N17" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
+        <v>158</v>
+      </c>
+      <c r="O17" t="n">
+        <v>174</v>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>99</v>
+      </c>
       <c r="S17" t="n">
-        <v>110</v>
-      </c>
-      <c r="T17" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.7</v>
+      </c>
       <c r="U17" t="n">
-        <v>73.31588235294117</v>
+        <v>62.17285714285714</v>
       </c>
       <c r="V17" t="n">
-        <v>71.75</v>
+        <v>65.325</v>
       </c>
       <c r="W17" t="n">
-        <v>70</v>
+        <v>66.55833333333334</v>
       </c>
     </row>
     <row r="18">
@@ -1481,61 +1591,69 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>26/12/2023</t>
+          <t>24/01/2024</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>106.4333333333333</v>
+        <v>125.218125</v>
       </c>
       <c r="D18" t="n">
-        <v>117.4666666666667</v>
+        <v>140.8125</v>
       </c>
       <c r="E18" t="n">
-        <v>121.8</v>
+        <v>145</v>
       </c>
       <c r="F18" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G18" t="n">
-        <v>70.83333333333333</v>
+        <v>64.75</v>
       </c>
       <c r="H18" t="n">
-        <v>83.995</v>
+        <v>95.73343749999999</v>
       </c>
       <c r="I18" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>69.16666666666667</v>
+        <v>67</v>
       </c>
       <c r="K18" t="n">
-        <v>79.75</v>
+        <v>83.93205128205128</v>
       </c>
       <c r="L18" t="n">
-        <v>84</v>
+        <v>107.6188888888889</v>
       </c>
       <c r="M18" t="n">
-        <v>107.5</v>
+        <v>108.5</v>
       </c>
       <c r="N18" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+        <v>158</v>
+      </c>
+      <c r="O18" t="n">
+        <v>174</v>
+      </c>
+      <c r="P18" t="n">
+        <v>181.25</v>
+      </c>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>99</v>
+      </c>
       <c r="S18" t="n">
-        <v>110</v>
-      </c>
-      <c r="T18" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.625</v>
+      </c>
       <c r="U18" t="n">
-        <v>73.16666666666667</v>
+        <v>61.98333333333333</v>
       </c>
       <c r="V18" t="n">
-        <v>71.75</v>
+        <v>64.2</v>
       </c>
       <c r="W18" t="n">
-        <v>70</v>
+        <v>65.33333333333333</v>
       </c>
     </row>
     <row r="19">
@@ -1544,61 +1662,71 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>27/12/2023</t>
+          <t>25/01/2024</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>105.9375</v>
+        <v>128.2357692307692</v>
       </c>
       <c r="D19" t="n">
-        <v>119.03</v>
+        <v>142.1371428571429</v>
       </c>
       <c r="E19" t="n">
-        <v>130.6666666666667</v>
+        <v>143.5725</v>
       </c>
       <c r="F19" t="n">
-        <v>130</v>
+        <v>148.5166666666667</v>
       </c>
       <c r="G19" t="n">
-        <v>70.43000000000001</v>
+        <v>64.75</v>
       </c>
       <c r="H19" t="n">
-        <v>83.995</v>
+        <v>99.5244776119403</v>
       </c>
       <c r="I19" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>69</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="K19" t="n">
-        <v>79</v>
+        <v>85.8155</v>
       </c>
       <c r="L19" t="n">
-        <v>84</v>
+        <v>113.0117948717949</v>
       </c>
       <c r="M19" t="n">
-        <v>107.5</v>
+        <v>108.5</v>
       </c>
       <c r="N19" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+        <v>158</v>
+      </c>
+      <c r="O19" t="n">
+        <v>171</v>
+      </c>
+      <c r="P19" t="n">
+        <v>173</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>174</v>
+      </c>
+      <c r="R19" t="n">
+        <v>99</v>
+      </c>
       <c r="S19" t="n">
-        <v>110</v>
-      </c>
-      <c r="T19" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.575</v>
+      </c>
       <c r="U19" t="n">
-        <v>73.1875</v>
+        <v>62</v>
       </c>
       <c r="V19" t="n">
-        <v>72.80769230769231</v>
+        <v>64.13333333333334</v>
       </c>
       <c r="W19" t="n">
-        <v>70</v>
+        <v>65.25</v>
       </c>
     </row>
     <row r="20">
@@ -1607,61 +1735,71 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>28/12/2023</t>
+          <t>26/01/2024</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>106</v>
+        <v>135.400985915493</v>
       </c>
       <c r="D20" t="n">
-        <v>120.5</v>
+        <v>148.9295238095238</v>
       </c>
       <c r="E20" t="n">
-        <v>130.6666666666667</v>
+        <v>152</v>
       </c>
       <c r="F20" t="n">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="G20" t="n">
-        <v>70.43000000000001</v>
+        <v>64.75</v>
       </c>
       <c r="H20" t="n">
-        <v>83.995</v>
+        <v>111.2851572327044</v>
       </c>
       <c r="I20" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>69</v>
+        <v>69.905</v>
       </c>
       <c r="K20" t="n">
-        <v>79</v>
+        <v>91.09575757575757</v>
       </c>
       <c r="L20" t="n">
-        <v>84</v>
+        <v>125.8727884615385</v>
       </c>
       <c r="M20" t="n">
-        <v>107.5</v>
+        <v>108.5</v>
       </c>
       <c r="N20" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+        <v>168</v>
+      </c>
+      <c r="O20" t="n">
+        <v>183.25</v>
+      </c>
+      <c r="P20" t="n">
+        <v>173</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>174</v>
+      </c>
+      <c r="R20" t="n">
+        <v>99</v>
+      </c>
       <c r="S20" t="n">
-        <v>110</v>
-      </c>
-      <c r="T20" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.66875</v>
+      </c>
       <c r="U20" t="n">
-        <v>72.27000000000001</v>
+        <v>62</v>
       </c>
       <c r="V20" t="n">
-        <v>72.125</v>
+        <v>64.7</v>
       </c>
       <c r="W20" t="n">
-        <v>70</v>
+        <v>66.995</v>
       </c>
     </row>
     <row r="21">
@@ -1670,61 +1808,71 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>29/12/2023</t>
+          <t>27/01/2024</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="D21" t="n">
-        <v>125</v>
+        <v>148.9295238095238</v>
       </c>
       <c r="E21" t="n">
-        <v>130.6666666666667</v>
+        <v>152</v>
       </c>
       <c r="F21" t="n">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="G21" t="n">
-        <v>70.43000000000001</v>
+        <v>64.75</v>
       </c>
       <c r="H21" t="n">
-        <v>83.995</v>
+        <v>111.2851572327044</v>
       </c>
       <c r="I21" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>69</v>
+        <v>69.905</v>
       </c>
       <c r="K21" t="n">
-        <v>79</v>
+        <v>91.09575757575757</v>
       </c>
       <c r="L21" t="n">
-        <v>84</v>
+        <v>125.8727884615385</v>
       </c>
       <c r="M21" t="n">
-        <v>107.5</v>
+        <v>108.5</v>
       </c>
       <c r="N21" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+        <v>168</v>
+      </c>
+      <c r="O21" t="n">
+        <v>183.25</v>
+      </c>
+      <c r="P21" t="n">
+        <v>173</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>174</v>
+      </c>
+      <c r="R21" t="n">
+        <v>99</v>
+      </c>
       <c r="S21" t="n">
-        <v>110</v>
-      </c>
-      <c r="T21" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.66875</v>
+      </c>
       <c r="U21" t="n">
-        <v>71.33333333333333</v>
+        <v>62</v>
       </c>
       <c r="V21" t="n">
-        <v>71.4375</v>
+        <v>64.7</v>
       </c>
       <c r="W21" t="n">
-        <v>70</v>
+        <v>66.995</v>
       </c>
     </row>
     <row r="22">
@@ -1733,61 +1881,71 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>02/01/2024</t>
+          <t>29/01/2024</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>106.3</v>
+        <v>139.2049206349206</v>
       </c>
       <c r="D22" t="n">
-        <v>125</v>
+        <v>149.8333333333333</v>
       </c>
       <c r="E22" t="n">
-        <v>130.6666666666667</v>
+        <v>152.3</v>
       </c>
       <c r="F22" t="n">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="G22" t="n">
-        <v>69</v>
+        <v>64.75</v>
       </c>
       <c r="H22" t="n">
-        <v>83.125</v>
+        <v>110.9675</v>
       </c>
       <c r="I22" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>68.39999999999999</v>
+        <v>69.94333333333334</v>
       </c>
       <c r="K22" t="n">
-        <v>79</v>
+        <v>92.2030303030303</v>
       </c>
       <c r="L22" t="n">
-        <v>84</v>
+        <v>130.7754716981132</v>
       </c>
       <c r="M22" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="N22" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+        <v>175</v>
+      </c>
+      <c r="O22" t="n">
+        <v>185</v>
+      </c>
+      <c r="P22" t="n">
+        <v>188</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>174</v>
+      </c>
+      <c r="R22" t="n">
+        <v>99</v>
+      </c>
       <c r="S22" t="n">
-        <v>110</v>
-      </c>
-      <c r="T22" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.6863636363636364</v>
+      </c>
       <c r="U22" t="n">
-        <v>68.58888888888889</v>
+        <v>62.075</v>
       </c>
       <c r="V22" t="n">
-        <v>69.551</v>
+        <v>64.64</v>
       </c>
       <c r="W22" t="n">
-        <v>69.25</v>
+        <v>66.02500000000001</v>
       </c>
     </row>
     <row r="23">
@@ -1796,61 +1954,71 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>03/01/2024</t>
+          <t>30/01/2024</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>107.5726315789474</v>
+        <v>137.0495555555555</v>
       </c>
       <c r="D23" t="n">
-        <v>123.7</v>
+        <v>144.8125</v>
       </c>
       <c r="E23" t="n">
-        <v>130.6666666666667</v>
+        <v>148.125</v>
       </c>
       <c r="F23" t="n">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="G23" t="n">
-        <v>69</v>
+        <v>64.75</v>
       </c>
       <c r="H23" t="n">
-        <v>84.11111111111111</v>
+        <v>107.7653947368421</v>
       </c>
       <c r="I23" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>64.5</v>
+        <v>69.15323529411765</v>
       </c>
       <c r="K23" t="n">
-        <v>79.40909090909091</v>
+        <v>88.65657142857143</v>
       </c>
       <c r="L23" t="n">
-        <v>84</v>
+        <v>127.7072413793103</v>
       </c>
       <c r="M23" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="N23" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+        <v>175</v>
+      </c>
+      <c r="O23" t="n">
+        <v>185</v>
+      </c>
+      <c r="P23" t="n">
+        <v>188</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>174</v>
+      </c>
+      <c r="R23" t="n">
+        <v>99</v>
+      </c>
       <c r="S23" t="n">
-        <v>110</v>
-      </c>
-      <c r="T23" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.6333333333333333</v>
+      </c>
       <c r="U23" t="n">
-        <v>68.3625</v>
+        <v>62</v>
       </c>
       <c r="V23" t="n">
-        <v>70.23888888888888</v>
+        <v>63.73363636363637</v>
       </c>
       <c r="W23" t="n">
-        <v>68.8</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="24">
@@ -1859,61 +2027,71 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>04/01/2024</t>
+          <t>31/01/2024</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>110.1666666666667</v>
+        <v>136.2977272727273</v>
       </c>
       <c r="D24" t="n">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="E24" t="n">
-        <v>133.25</v>
+        <v>148.3333333333333</v>
       </c>
       <c r="F24" t="n">
-        <v>135</v>
+        <v>150.0066666666667</v>
       </c>
       <c r="G24" t="n">
-        <v>69</v>
+        <v>64.75</v>
       </c>
       <c r="H24" t="n">
-        <v>85.92999999999999</v>
+        <v>106.7851219512195</v>
       </c>
       <c r="I24" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>68.05500000000001</v>
+        <v>68.97057142857142</v>
       </c>
       <c r="K24" t="n">
-        <v>80.79400000000001</v>
+        <v>88.10166666666667</v>
       </c>
       <c r="L24" t="n">
-        <v>90</v>
+        <v>126.2587804878049</v>
       </c>
       <c r="M24" t="n">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="N24" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+        <v>170.75</v>
+      </c>
+      <c r="O24" t="n">
+        <v>185</v>
+      </c>
+      <c r="P24" t="n">
+        <v>188</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>174</v>
+      </c>
+      <c r="R24" t="n">
+        <v>99</v>
+      </c>
       <c r="S24" t="n">
-        <v>110</v>
-      </c>
-      <c r="T24" t="inlineStr"/>
+        <v>136.5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.6115625</v>
+      </c>
       <c r="U24" t="n">
-        <v>68.26875</v>
+        <v>63.06</v>
       </c>
       <c r="V24" t="n">
-        <v>70.55</v>
+        <v>64.26666666666667</v>
       </c>
       <c r="W24" t="n">
-        <v>70.5</v>
+        <v>66.42761904761905</v>
       </c>
     </row>
     <row r="25">
@@ -1922,61 +2100,71 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>05/01/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>110.7177272727273</v>
+        <v>137.2878947368421</v>
       </c>
       <c r="D25" t="n">
-        <v>126.6666666666667</v>
+        <v>135.5</v>
       </c>
       <c r="E25" t="n">
-        <v>133.25</v>
+        <v>148</v>
       </c>
       <c r="F25" t="n">
-        <v>135</v>
+        <v>150.0066666666667</v>
       </c>
       <c r="G25" t="n">
-        <v>69</v>
+        <v>64.75</v>
       </c>
       <c r="H25" t="n">
-        <v>86.98466666666667</v>
+        <v>109.2476811594203</v>
       </c>
       <c r="I25" t="n">
-        <v>72.59999999999999</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>68</v>
+        <v>70.49163265306123</v>
       </c>
       <c r="K25" t="n">
-        <v>81.3</v>
+        <v>89.99432432432432</v>
       </c>
       <c r="L25" t="n">
-        <v>94.25</v>
+        <v>128.4413461538462</v>
       </c>
       <c r="M25" t="n">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="N25" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+        <v>174</v>
+      </c>
+      <c r="O25" t="n">
+        <v>182</v>
+      </c>
+      <c r="P25" t="n">
+        <v>188</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>174</v>
+      </c>
+      <c r="R25" t="n">
+        <v>99</v>
+      </c>
       <c r="S25" t="n">
-        <v>110</v>
-      </c>
-      <c r="T25" t="inlineStr"/>
+        <v>136.5</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.5764077669902913</v>
+      </c>
       <c r="U25" t="n">
-        <v>67.01875</v>
+        <v>62</v>
       </c>
       <c r="V25" t="n">
-        <v>69.00909090909092</v>
+        <v>64.9375</v>
       </c>
       <c r="W25" t="n">
-        <v>68</v>
+        <v>65.62857142857142</v>
       </c>
     </row>
     <row r="26">
@@ -1985,63 +2173,71 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>02/02/2024</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>114.1496428571429</v>
+        <v>143.1755102040816</v>
       </c>
       <c r="D26" t="n">
-        <v>131</v>
+        <v>150.515</v>
       </c>
       <c r="E26" t="n">
-        <v>137.995</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="F26" t="n">
-        <v>135</v>
+        <v>151.125</v>
       </c>
       <c r="G26" t="n">
-        <v>69</v>
+        <v>64.75</v>
       </c>
       <c r="H26" t="n">
-        <v>88.643125</v>
+        <v>115.3198765432099</v>
       </c>
       <c r="I26" t="n">
-        <v>70</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>68</v>
+        <v>70.52352941176471</v>
       </c>
       <c r="K26" t="n">
-        <v>81</v>
+        <v>95.02445945945946</v>
       </c>
       <c r="L26" t="n">
-        <v>98.41416666666667</v>
+        <v>134.3290607734807</v>
       </c>
       <c r="M26" t="n">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="N26" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+        <v>174</v>
+      </c>
+      <c r="O26" t="n">
+        <v>185.75</v>
+      </c>
+      <c r="P26" t="n">
+        <v>188</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>174</v>
+      </c>
+      <c r="R26" t="n">
+        <v>99</v>
+      </c>
       <c r="S26" t="n">
-        <v>110</v>
+        <v>136.5</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>0.6796153846153846</v>
       </c>
       <c r="U26" t="n">
-        <v>68.37586206896552</v>
+        <v>62</v>
       </c>
       <c r="V26" t="n">
-        <v>70.75473684210526</v>
+        <v>64</v>
       </c>
       <c r="W26" t="n">
-        <v>70.4375</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
@@ -2050,63 +2246,71 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>09/01/2024</t>
+          <t>05/02/2024</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>123.7875</v>
+        <v>158.7576315789474</v>
       </c>
       <c r="D27" t="n">
-        <v>141</v>
+        <v>160.18125</v>
       </c>
       <c r="E27" t="n">
-        <v>144.5</v>
+        <v>158.6125</v>
       </c>
       <c r="F27" t="n">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="G27" t="n">
-        <v>69</v>
+        <v>64.75</v>
       </c>
       <c r="H27" t="n">
-        <v>95.61658536585367</v>
+        <v>134.9989583333333</v>
       </c>
       <c r="I27" t="n">
-        <v>70</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J27" t="n">
-        <v>70.40454545454546</v>
+        <v>74.10395833333332</v>
       </c>
       <c r="K27" t="n">
-        <v>84.95</v>
+        <v>113.6128099173554</v>
       </c>
       <c r="L27" t="n">
-        <v>105.2714285714286</v>
+        <v>158.9619230769231</v>
       </c>
       <c r="M27" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="N27" t="n">
-        <v>151</v>
-      </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+        <v>197</v>
+      </c>
+      <c r="O27" t="n">
+        <v>197</v>
+      </c>
+      <c r="P27" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>174</v>
+      </c>
+      <c r="R27" t="n">
+        <v>99</v>
+      </c>
       <c r="S27" t="n">
-        <v>119.5</v>
+        <v>136.5</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>0.4512962962962963</v>
       </c>
       <c r="U27" t="n">
-        <v>66.03888888888889</v>
+        <v>60</v>
       </c>
       <c r="V27" t="n">
-        <v>71.17966666666666</v>
+        <v>63.5</v>
       </c>
       <c r="W27" t="n">
-        <v>70.4375</v>
+        <v>68.14583333333333</v>
       </c>
     </row>
     <row r="28">
@@ -2115,65 +2319,71 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>06/02/2024</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>124.8271111111111</v>
+        <v>175.6537704918033</v>
       </c>
       <c r="D28" t="n">
-        <v>139.7652941176471</v>
+        <v>169.0621621621622</v>
       </c>
       <c r="E28" t="n">
-        <v>144.6666666666667</v>
+        <v>166.4045454545455</v>
       </c>
       <c r="F28" t="n">
-        <v>149.51</v>
+        <v>158</v>
       </c>
       <c r="G28" t="n">
-        <v>68.5</v>
+        <v>64.75</v>
       </c>
       <c r="H28" t="n">
-        <v>96.73131147540983</v>
+        <v>166.6695726495726</v>
       </c>
       <c r="I28" t="n">
-        <v>70</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>70.9175</v>
+        <v>76.63704918032786</v>
       </c>
       <c r="K28" t="n">
-        <v>82.38</v>
+        <v>146.1977659574468</v>
       </c>
       <c r="L28" t="n">
-        <v>106.87375</v>
+        <v>184.10796875</v>
       </c>
       <c r="M28" t="n">
-        <v>159.325</v>
+        <v>120</v>
       </c>
       <c r="N28" t="n">
-        <v>174.825</v>
+        <v>197</v>
       </c>
       <c r="O28" t="n">
+        <v>197</v>
+      </c>
+      <c r="P28" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q28" t="n">
         <v>174</v>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>99</v>
+      </c>
       <c r="S28" t="n">
-        <v>119.5</v>
+        <v>200</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.6175757575757576</v>
       </c>
       <c r="U28" t="n">
-        <v>64.41089285714285</v>
+        <v>60</v>
       </c>
       <c r="V28" t="n">
-        <v>69.38857142857142</v>
+        <v>63.66666666666666</v>
       </c>
       <c r="W28" t="n">
-        <v>69.13500000000001</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="29">
@@ -2182,67 +2392,71 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>07/02/2024</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>117.5280769230769</v>
+        <v>173.07</v>
       </c>
       <c r="D29" t="n">
-        <v>136.9993333333333</v>
+        <v>164.275</v>
       </c>
       <c r="E29" t="n">
-        <v>141.8333333333333</v>
+        <v>160</v>
       </c>
       <c r="F29" t="n">
-        <v>145.5</v>
+        <v>158</v>
       </c>
       <c r="G29" t="n">
-        <v>68.5</v>
+        <v>64.75</v>
       </c>
       <c r="H29" t="n">
-        <v>90.24947368421053</v>
+        <v>157.9772093023256</v>
       </c>
       <c r="I29" t="n">
-        <v>70</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>69.05555555555556</v>
+        <v>73.33879999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>79.57045454545454</v>
+        <v>140.0048905109489</v>
       </c>
       <c r="L29" t="n">
-        <v>100.9090909090909</v>
+        <v>179.4702197802198</v>
       </c>
       <c r="M29" t="n">
-        <v>159.325</v>
+        <v>120</v>
       </c>
       <c r="N29" t="n">
-        <v>174.825</v>
+        <v>213</v>
       </c>
       <c r="O29" t="n">
+        <v>197</v>
+      </c>
+      <c r="P29" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q29" t="n">
         <v>174</v>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
         <v>99</v>
       </c>
       <c r="S29" t="n">
-        <v>120.8333333333333</v>
+        <v>200</v>
       </c>
       <c r="T29" t="n">
-        <v>0.58125</v>
+        <v>0.5236585365853659</v>
       </c>
       <c r="U29" t="n">
-        <v>64.58499999999999</v>
+        <v>60</v>
       </c>
       <c r="V29" t="n">
-        <v>67.6837837837838</v>
+        <v>63.33</v>
       </c>
       <c r="W29" t="n">
-        <v>68.1152</v>
+        <v>65.752</v>
       </c>
     </row>
     <row r="30">
@@ -2251,67 +2465,71 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>12/01/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>123.0051282051282</v>
+        <v>168.5291111111111</v>
       </c>
       <c r="D30" t="n">
-        <v>138.6666666666667</v>
+        <v>158.3928571428571</v>
       </c>
       <c r="E30" t="n">
-        <v>141.8333333333333</v>
+        <v>155</v>
       </c>
       <c r="F30" t="n">
-        <v>145.5</v>
+        <v>155</v>
       </c>
       <c r="G30" t="n">
-        <v>68.5</v>
+        <v>64.75</v>
       </c>
       <c r="H30" t="n">
-        <v>93.6430303030303</v>
+        <v>157.9139393939394</v>
       </c>
       <c r="I30" t="n">
-        <v>70</v>
+        <v>67.83799999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>69.6225</v>
+        <v>75.88549019607842</v>
       </c>
       <c r="K30" t="n">
-        <v>82.19090909090909</v>
+        <v>138.9766666666667</v>
       </c>
       <c r="L30" t="n">
-        <v>105.5</v>
+        <v>177.5528787878788</v>
       </c>
       <c r="M30" t="n">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="N30" t="n">
-        <v>153.5</v>
+        <v>213</v>
       </c>
       <c r="O30" t="n">
+        <v>197</v>
+      </c>
+      <c r="P30" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q30" t="n">
         <v>174</v>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
         <v>99</v>
       </c>
       <c r="S30" t="n">
-        <v>125</v>
+        <v>194.5</v>
       </c>
       <c r="T30" t="n">
-        <v>0.6</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U30" t="n">
-        <v>64.52</v>
+        <v>60</v>
       </c>
       <c r="V30" t="n">
-        <v>68.375</v>
+        <v>63.69923076923077</v>
       </c>
       <c r="W30" t="n">
-        <v>68.73166666666667</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31">
@@ -2320,67 +2538,71 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>15/01/2024</t>
+          <t>09/02/2024</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>122.6718181818182</v>
+        <v>163.4818181818182</v>
       </c>
       <c r="D31" t="n">
-        <v>140</v>
+        <v>153.75</v>
       </c>
       <c r="E31" t="n">
-        <v>141.8333333333333</v>
+        <v>154</v>
       </c>
       <c r="F31" t="n">
-        <v>145</v>
+        <v>154.25</v>
       </c>
       <c r="G31" t="n">
-        <v>68.5</v>
+        <v>64.75</v>
       </c>
       <c r="H31" t="n">
-        <v>93.85981818181818</v>
+        <v>154.9448148148148</v>
       </c>
       <c r="I31" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>69.34307692307692</v>
+        <v>74.9148275862069</v>
       </c>
       <c r="K31" t="n">
-        <v>82.565</v>
+        <v>135.4209433962264</v>
       </c>
       <c r="L31" t="n">
-        <v>105.5833333333333</v>
+        <v>174.2733333333333</v>
       </c>
       <c r="M31" t="n">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="N31" t="n">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="O31" t="n">
+        <v>197</v>
+      </c>
+      <c r="P31" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q31" t="n">
         <v>174</v>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
         <v>99</v>
       </c>
       <c r="S31" t="n">
-        <v>125</v>
+        <v>194.5</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U31" t="n">
-        <v>64.56206896551724</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V31" t="n">
-        <v>67.97999999999999</v>
+        <v>63.09111111111112</v>
       </c>
       <c r="W31" t="n">
-        <v>68.22222222222223</v>
+        <v>66.08333333333333</v>
       </c>
     </row>
     <row r="32">
@@ -2389,67 +2611,71 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16/01/2024</t>
+          <t>14/02/2024</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>117.7789795918367</v>
+        <v>157.709375</v>
       </c>
       <c r="D32" t="n">
-        <v>136.5833333333333</v>
+        <v>148.875</v>
       </c>
       <c r="E32" t="n">
-        <v>139.3333333333333</v>
+        <v>154</v>
       </c>
       <c r="F32" t="n">
-        <v>145</v>
+        <v>154.25</v>
       </c>
       <c r="G32" t="n">
-        <v>66</v>
+        <v>64.75</v>
       </c>
       <c r="H32" t="n">
-        <v>89.77933333333334</v>
+        <v>147.1722222222222</v>
       </c>
       <c r="I32" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>67.46428571428571</v>
+        <v>74.16111111111111</v>
       </c>
       <c r="K32" t="n">
-        <v>80.7590625</v>
+        <v>128.6016666666667</v>
       </c>
       <c r="L32" t="n">
-        <v>99.41466666666666</v>
+        <v>167.19046875</v>
       </c>
       <c r="M32" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="N32" t="n">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="O32" t="n">
+        <v>197</v>
+      </c>
+      <c r="P32" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q32" t="n">
         <v>174</v>
       </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
         <v>99</v>
       </c>
       <c r="S32" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="T32" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U32" t="n">
-        <v>64.09027777777777</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V32" t="n">
-        <v>66.19466666666668</v>
+        <v>62.57000000000001</v>
       </c>
       <c r="W32" t="n">
-        <v>66.72851851851853</v>
+        <v>66.08333333333333</v>
       </c>
     </row>
     <row r="33">
@@ -2458,67 +2684,71 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>17/01/2024</t>
+          <t>15/02/2024</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>116.4174285714286</v>
+        <v>167.3490566037736</v>
       </c>
       <c r="D33" t="n">
-        <v>134.625</v>
+        <v>158.1625</v>
       </c>
       <c r="E33" t="n">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="F33" t="n">
-        <v>145</v>
+        <v>154.25</v>
       </c>
       <c r="G33" t="n">
-        <v>67</v>
+        <v>64.75</v>
       </c>
       <c r="H33" t="n">
-        <v>88.87617647058823</v>
+        <v>158.4319444444444</v>
       </c>
       <c r="I33" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>67.78571428571429</v>
+        <v>75.8592</v>
       </c>
       <c r="K33" t="n">
-        <v>79.7769387755102</v>
+        <v>136.0265100671141</v>
       </c>
       <c r="L33" t="n">
-        <v>97.48</v>
+        <v>179.9542857142857</v>
       </c>
       <c r="M33" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="N33" t="n">
-        <v>150.5</v>
+        <v>213</v>
       </c>
       <c r="O33" t="n">
+        <v>197</v>
+      </c>
+      <c r="P33" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q33" t="n">
         <v>174</v>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
         <v>99</v>
       </c>
       <c r="S33" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="T33" t="n">
-        <v>0.67375</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U33" t="n">
-        <v>63.6355</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V33" t="n">
-        <v>66.32871794871795</v>
+        <v>63.33333333333334</v>
       </c>
       <c r="W33" t="n">
-        <v>66.75833333333334</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34">
@@ -2527,67 +2757,71 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>18/01/2024</t>
+          <t>16/02/2024</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>111.5074576271186</v>
+        <v>173.6476923076923</v>
       </c>
       <c r="D34" t="n">
-        <v>130.9282608695652</v>
+        <v>159.651</v>
       </c>
       <c r="E34" t="n">
-        <v>136.0666666666667</v>
+        <v>156.8</v>
       </c>
       <c r="F34" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G34" t="n">
-        <v>67</v>
+        <v>64.75</v>
       </c>
       <c r="H34" t="n">
-        <v>85.05632352941177</v>
+        <v>164.5596</v>
       </c>
       <c r="I34" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>66.80833333333334</v>
+        <v>77.45294117647059</v>
       </c>
       <c r="K34" t="n">
-        <v>77.65283333333333</v>
+        <v>146.2514503816794</v>
       </c>
       <c r="L34" t="n">
-        <v>92.89999999999999</v>
+        <v>186.4590909090909</v>
       </c>
       <c r="M34" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="N34" t="n">
-        <v>145.9333333333333</v>
+        <v>209</v>
       </c>
       <c r="O34" t="n">
+        <v>197</v>
+      </c>
+      <c r="P34" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q34" t="n">
         <v>174</v>
       </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="n">
         <v>99</v>
       </c>
       <c r="S34" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="T34" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U34" t="n">
-        <v>62.584375</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V34" t="n">
-        <v>64.53727272727272</v>
+        <v>62.58222222222222</v>
       </c>
       <c r="W34" t="n">
-        <v>65.87709677419355</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35">
@@ -2596,67 +2830,71 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>19/01/2024</t>
+          <t>19/02/2024</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>114.1885714285714</v>
+        <v>170.8975</v>
       </c>
       <c r="D35" t="n">
-        <v>123.4</v>
+        <v>159</v>
       </c>
       <c r="E35" t="n">
-        <v>135</v>
+        <v>153.75</v>
       </c>
       <c r="F35" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G35" t="n">
-        <v>67</v>
+        <v>64.75</v>
       </c>
       <c r="H35" t="n">
-        <v>86.12666666666668</v>
+        <v>159.7632</v>
       </c>
       <c r="I35" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>66.90416666666667</v>
+        <v>76.13925925925926</v>
       </c>
       <c r="K35" t="n">
-        <v>77.41666666666667</v>
+        <v>139.6658536585366</v>
       </c>
       <c r="L35" t="n">
-        <v>95.25</v>
+        <v>180.0119512195122</v>
       </c>
       <c r="M35" t="n">
-        <v>108.5</v>
+        <v>120</v>
       </c>
       <c r="N35" t="n">
-        <v>145.9333333333333</v>
+        <v>209</v>
       </c>
       <c r="O35" t="n">
+        <v>197</v>
+      </c>
+      <c r="P35" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q35" t="n">
         <v>174</v>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
         <v>99</v>
       </c>
       <c r="S35" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U35" t="n">
-        <v>62.15</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V35" t="n">
-        <v>64.09999999999999</v>
+        <v>62.36142857142857</v>
       </c>
       <c r="W35" t="n">
-        <v>65.14285714285714</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="36">
@@ -2665,67 +2903,71 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>22/01/2024</t>
+          <t>20/02/2024</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>119.8415789473684</v>
+        <v>171</v>
       </c>
       <c r="D36" t="n">
-        <v>135.5833333333333</v>
+        <v>158.125</v>
       </c>
       <c r="E36" t="n">
-        <v>140.5</v>
+        <v>153.75</v>
       </c>
       <c r="F36" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G36" t="n">
-        <v>67</v>
+        <v>64.75</v>
       </c>
       <c r="H36" t="n">
-        <v>90.68212765957448</v>
+        <v>162.12</v>
       </c>
       <c r="I36" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>67.98076923076923</v>
+        <v>76.6557142857143</v>
       </c>
       <c r="K36" t="n">
-        <v>80.73218749999999</v>
+        <v>140.4725925925926</v>
       </c>
       <c r="L36" t="n">
-        <v>99.001875</v>
+        <v>182.1969444444445</v>
       </c>
       <c r="M36" t="n">
-        <v>108.5</v>
+        <v>120</v>
       </c>
       <c r="N36" t="n">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="O36" t="n">
+        <v>197</v>
+      </c>
+      <c r="P36" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q36" t="n">
         <v>174</v>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
         <v>99</v>
       </c>
       <c r="S36" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="T36" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U36" t="n">
-        <v>63</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V36" t="n">
-        <v>64.60640000000001</v>
+        <v>65</v>
       </c>
       <c r="W36" t="n">
-        <v>65.69642857142857</v>
+        <v>64.125</v>
       </c>
     </row>
     <row r="37">
@@ -2734,67 +2976,71 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>23/01/2024</t>
+          <t>21/02/2024</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>123.84</v>
+        <v>165.1740625</v>
       </c>
       <c r="D37" t="n">
-        <v>139.1428571428571</v>
+        <v>154.012</v>
       </c>
       <c r="E37" t="n">
-        <v>141.5</v>
+        <v>153.4</v>
       </c>
       <c r="F37" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G37" t="n">
-        <v>68.5</v>
+        <v>64.75</v>
       </c>
       <c r="H37" t="n">
-        <v>96.72918367346938</v>
+        <v>153.6395833333333</v>
       </c>
       <c r="I37" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>68.72222222222223</v>
+        <v>74.26666666666667</v>
       </c>
       <c r="K37" t="n">
-        <v>84.36428571428571</v>
+        <v>134.1602608695652</v>
       </c>
       <c r="L37" t="n">
-        <v>107.1055172413793</v>
+        <v>174.3914457831325</v>
       </c>
       <c r="M37" t="n">
-        <v>108.5</v>
+        <v>120</v>
       </c>
       <c r="N37" t="n">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="O37" t="n">
+        <v>197</v>
+      </c>
+      <c r="P37" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q37" t="n">
         <v>174</v>
       </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
         <v>99</v>
       </c>
       <c r="S37" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U37" t="n">
-        <v>62.17285714285714</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V37" t="n">
-        <v>65.325</v>
+        <v>62.13</v>
       </c>
       <c r="W37" t="n">
-        <v>66.55833333333334</v>
+        <v>63.11428571428571</v>
       </c>
     </row>
     <row r="38">
@@ -2803,69 +3049,71 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>24/01/2024</t>
+          <t>22/02/2024</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>125.218125</v>
+        <v>153.492027027027</v>
       </c>
       <c r="D38" t="n">
-        <v>140.8125</v>
+        <v>146.1777777777778</v>
       </c>
       <c r="E38" t="n">
-        <v>145</v>
+        <v>153.4</v>
       </c>
       <c r="F38" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G38" t="n">
         <v>64.75</v>
       </c>
       <c r="H38" t="n">
-        <v>95.73343749999999</v>
+        <v>138.2097247706422</v>
       </c>
       <c r="I38" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J38" t="n">
-        <v>67</v>
+        <v>71.17588235294117</v>
       </c>
       <c r="K38" t="n">
-        <v>83.93205128205128</v>
+        <v>120.6092352941176</v>
       </c>
       <c r="L38" t="n">
-        <v>107.6188888888889</v>
+        <v>157.9024369747899</v>
       </c>
       <c r="M38" t="n">
-        <v>108.5</v>
+        <v>120</v>
       </c>
       <c r="N38" t="n">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="O38" t="n">
+        <v>197</v>
+      </c>
+      <c r="P38" t="n">
+        <v>199</v>
+      </c>
+      <c r="Q38" t="n">
         <v>174</v>
       </c>
-      <c r="P38" t="n">
-        <v>181.25</v>
-      </c>
-      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
         <v>99</v>
       </c>
       <c r="S38" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="T38" t="n">
-        <v>0.625</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U38" t="n">
-        <v>61.98333333333333</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V38" t="n">
-        <v>64.2</v>
+        <v>61.7</v>
       </c>
       <c r="W38" t="n">
-        <v>65.33333333333333</v>
+        <v>62.51</v>
       </c>
     </row>
     <row r="39">
@@ -2874,71 +3122,71 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>25/01/2024</t>
+          <t>23/02/2024</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>128.2357692307692</v>
+        <v>152.2510447761194</v>
       </c>
       <c r="D39" t="n">
-        <v>142.1371428571429</v>
+        <v>149.1153846153846</v>
       </c>
       <c r="E39" t="n">
-        <v>143.5725</v>
+        <v>145.5</v>
       </c>
       <c r="F39" t="n">
-        <v>148.5166666666667</v>
+        <v>144.75</v>
       </c>
       <c r="G39" t="n">
         <v>64.75</v>
       </c>
       <c r="H39" t="n">
-        <v>99.5244776119403</v>
+        <v>140.6379411764706</v>
       </c>
       <c r="I39" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>68.33333333333333</v>
+        <v>72.4875</v>
       </c>
       <c r="K39" t="n">
-        <v>85.8155</v>
+        <v>116.7217647058824</v>
       </c>
       <c r="L39" t="n">
-        <v>113.0117948717949</v>
+        <v>157.9007692307692</v>
       </c>
       <c r="M39" t="n">
-        <v>108.5</v>
+        <v>120</v>
       </c>
       <c r="N39" t="n">
-        <v>158</v>
+        <v>186.26</v>
       </c>
       <c r="O39" t="n">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="P39" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="Q39" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="R39" t="n">
         <v>99</v>
       </c>
       <c r="S39" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="T39" t="n">
-        <v>0.575</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U39" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V39" t="n">
         <v>62</v>
       </c>
-      <c r="V39" t="n">
-        <v>64.13333333333334</v>
-      </c>
       <c r="W39" t="n">
-        <v>65.25</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="40">
@@ -2947,71 +3195,71 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>26/01/2024</t>
+          <t>26/02/2024</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>135.400985915493</v>
+        <v>148.9651724137931</v>
       </c>
       <c r="D40" t="n">
-        <v>148.9295238095238</v>
+        <v>146.75</v>
       </c>
       <c r="E40" t="n">
-        <v>152</v>
+        <v>148.5</v>
       </c>
       <c r="F40" t="n">
-        <v>152</v>
+        <v>144.75</v>
       </c>
       <c r="G40" t="n">
         <v>64.75</v>
       </c>
       <c r="H40" t="n">
-        <v>111.2851572327044</v>
+        <v>138.61</v>
       </c>
       <c r="I40" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>69.905</v>
+        <v>72.205</v>
       </c>
       <c r="K40" t="n">
-        <v>91.09575757575757</v>
+        <v>117.1116379310345</v>
       </c>
       <c r="L40" t="n">
-        <v>125.8727884615385</v>
+        <v>157.5224444444445</v>
       </c>
       <c r="M40" t="n">
-        <v>108.5</v>
+        <v>120</v>
       </c>
       <c r="N40" t="n">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="O40" t="n">
-        <v>183.25</v>
+        <v>185</v>
       </c>
       <c r="P40" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="Q40" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="R40" t="n">
         <v>99</v>
       </c>
       <c r="S40" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="T40" t="n">
-        <v>0.66875</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U40" t="n">
-        <v>62</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V40" t="n">
-        <v>64.7</v>
+        <v>62.116</v>
       </c>
       <c r="W40" t="n">
-        <v>66.995</v>
+        <v>62.96666666666667</v>
       </c>
     </row>
     <row r="41">
@@ -3020,71 +3268,71 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>27/01/2024</t>
+          <t>27/02/2024</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>134</v>
+        <v>153.6804761904762</v>
       </c>
       <c r="D41" t="n">
-        <v>148.9295238095238</v>
+        <v>149.7666666666667</v>
       </c>
       <c r="E41" t="n">
-        <v>152</v>
+        <v>148.875</v>
       </c>
       <c r="F41" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G41" t="n">
         <v>64.75</v>
       </c>
       <c r="H41" t="n">
-        <v>111.2851572327044</v>
+        <v>145.7759259259259</v>
       </c>
       <c r="I41" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J41" t="n">
-        <v>69.905</v>
+        <v>75.36481481481481</v>
       </c>
       <c r="K41" t="n">
-        <v>91.09575757575757</v>
+        <v>124.7240909090909</v>
       </c>
       <c r="L41" t="n">
-        <v>125.8727884615385</v>
+        <v>165.749012345679</v>
       </c>
       <c r="M41" t="n">
-        <v>108.5</v>
+        <v>120</v>
       </c>
       <c r="N41" t="n">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="O41" t="n">
-        <v>183.25</v>
+        <v>185</v>
       </c>
       <c r="P41" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="Q41" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="R41" t="n">
         <v>99</v>
       </c>
       <c r="S41" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="T41" t="n">
-        <v>0.66875</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U41" t="n">
-        <v>62</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V41" t="n">
-        <v>64.7</v>
+        <v>62.3175</v>
       </c>
       <c r="W41" t="n">
-        <v>66.995</v>
+        <v>66.18892857142858</v>
       </c>
     </row>
     <row r="42">
@@ -3093,71 +3341,71 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>29/01/2024</t>
+          <t>28/02/2024</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>139.2049206349206</v>
+        <v>155.2923076923077</v>
       </c>
       <c r="D42" t="n">
         <v>149.8333333333333</v>
       </c>
       <c r="E42" t="n">
-        <v>152.3</v>
+        <v>150</v>
       </c>
       <c r="F42" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G42" t="n">
         <v>64.75</v>
       </c>
       <c r="H42" t="n">
-        <v>110.9675</v>
+        <v>147.5516129032258</v>
       </c>
       <c r="I42" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J42" t="n">
-        <v>69.94333333333334</v>
+        <v>77.15555555555555</v>
       </c>
       <c r="K42" t="n">
-        <v>92.2030303030303</v>
+        <v>126.9850574712644</v>
       </c>
       <c r="L42" t="n">
-        <v>130.7754716981132</v>
+        <v>167.8631428571429</v>
       </c>
       <c r="M42" t="n">
         <v>120</v>
       </c>
       <c r="N42" t="n">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="O42" t="n">
         <v>185</v>
       </c>
       <c r="P42" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q42" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="R42" t="n">
         <v>99</v>
       </c>
       <c r="S42" t="n">
-        <v>119</v>
+        <v>194.5</v>
       </c>
       <c r="T42" t="n">
-        <v>0.6863636363636364</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U42" t="n">
-        <v>62.075</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V42" t="n">
-        <v>64.64</v>
+        <v>62.53571428571428</v>
       </c>
       <c r="W42" t="n">
-        <v>66.02500000000001</v>
+        <v>66.18607142857142</v>
       </c>
     </row>
     <row r="43">
@@ -3166,71 +3414,71 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>30/01/2024</t>
+          <t>29/02/2024</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>137.0495555555555</v>
+        <v>158.4117647058823</v>
       </c>
       <c r="D43" t="n">
-        <v>144.8125</v>
+        <v>152.2871428571429</v>
       </c>
       <c r="E43" t="n">
-        <v>148.125</v>
+        <v>150.5</v>
       </c>
       <c r="F43" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G43" t="n">
         <v>64.75</v>
       </c>
       <c r="H43" t="n">
-        <v>107.7653947368421</v>
+        <v>151.2335294117647</v>
       </c>
       <c r="I43" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>69.15323529411765</v>
+        <v>79.78918918918919</v>
       </c>
       <c r="K43" t="n">
-        <v>88.65657142857143</v>
+        <v>130.3195161290323</v>
       </c>
       <c r="L43" t="n">
-        <v>127.7072413793103</v>
+        <v>171.5811111111111</v>
       </c>
       <c r="M43" t="n">
         <v>120</v>
       </c>
       <c r="N43" t="n">
-        <v>175</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O43" t="n">
-        <v>185</v>
+        <v>182.99</v>
       </c>
       <c r="P43" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q43" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="R43" t="n">
         <v>99</v>
       </c>
       <c r="S43" t="n">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="T43" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U43" t="n">
-        <v>62</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V43" t="n">
-        <v>63.73363636363637</v>
+        <v>65.5</v>
       </c>
       <c r="W43" t="n">
-        <v>66.5</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="44">
@@ -3239,71 +3487,71 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>31/01/2024</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>136.2977272727273</v>
+        <v>159.7727272727273</v>
       </c>
       <c r="D44" t="n">
-        <v>146</v>
+        <v>156.3</v>
       </c>
       <c r="E44" t="n">
-        <v>148.3333333333333</v>
+        <v>148.8333333333333</v>
       </c>
       <c r="F44" t="n">
-        <v>150.0066666666667</v>
+        <v>141.5</v>
       </c>
       <c r="G44" t="n">
         <v>64.75</v>
       </c>
       <c r="H44" t="n">
-        <v>106.7851219512195</v>
+        <v>153.5968965517241</v>
       </c>
       <c r="I44" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J44" t="n">
-        <v>68.97057142857142</v>
+        <v>79.30921052631579</v>
       </c>
       <c r="K44" t="n">
-        <v>88.10166666666667</v>
+        <v>132.2443548387097</v>
       </c>
       <c r="L44" t="n">
-        <v>126.2587804878049</v>
+        <v>171.4761904761905</v>
       </c>
       <c r="M44" t="n">
         <v>120</v>
       </c>
       <c r="N44" t="n">
-        <v>170.75</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O44" t="n">
-        <v>185</v>
+        <v>182.99</v>
       </c>
       <c r="P44" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q44" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="R44" t="n">
         <v>99</v>
       </c>
       <c r="S44" t="n">
-        <v>136.5</v>
+        <v>190</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6115625</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U44" t="n">
-        <v>63.06</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V44" t="n">
-        <v>64.26666666666667</v>
+        <v>117.67</v>
       </c>
       <c r="W44" t="n">
-        <v>66.42761904761905</v>
+        <v>65.41363636363636</v>
       </c>
     </row>
     <row r="45">
@@ -3312,71 +3560,71 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>04/03/2024</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>137.2878947368421</v>
+        <v>158.0625</v>
       </c>
       <c r="D45" t="n">
-        <v>135.5</v>
+        <v>156</v>
       </c>
       <c r="E45" t="n">
-        <v>148</v>
+        <v>148.8333333333333</v>
       </c>
       <c r="F45" t="n">
-        <v>150.0066666666667</v>
+        <v>141.5</v>
       </c>
       <c r="G45" t="n">
         <v>64.75</v>
       </c>
       <c r="H45" t="n">
-        <v>109.2476811594203</v>
+        <v>148.94</v>
       </c>
       <c r="I45" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>70.49163265306123</v>
+        <v>78.44533333333334</v>
       </c>
       <c r="K45" t="n">
-        <v>89.99432432432432</v>
+        <v>126.4451282051282</v>
       </c>
       <c r="L45" t="n">
-        <v>128.4413461538462</v>
+        <v>169.0246153846154</v>
       </c>
       <c r="M45" t="n">
         <v>120</v>
       </c>
       <c r="N45" t="n">
-        <v>174</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O45" t="n">
-        <v>182</v>
+        <v>182.99</v>
       </c>
       <c r="P45" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q45" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="R45" t="n">
         <v>99</v>
       </c>
       <c r="S45" t="n">
-        <v>136.5</v>
+        <v>190</v>
       </c>
       <c r="T45" t="n">
-        <v>0.5764077669902913</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U45" t="n">
-        <v>62</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V45" t="n">
-        <v>64.9375</v>
+        <v>62.2</v>
       </c>
       <c r="W45" t="n">
-        <v>65.62857142857142</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46">
@@ -3385,71 +3633,71 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>05/03/2024</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>143.1755102040816</v>
+        <v>154.9533333333333</v>
       </c>
       <c r="D46" t="n">
-        <v>150.515</v>
+        <v>152</v>
       </c>
       <c r="E46" t="n">
-        <v>150.8333333333333</v>
+        <v>148.25</v>
       </c>
       <c r="F46" t="n">
-        <v>151.125</v>
+        <v>141.5</v>
       </c>
       <c r="G46" t="n">
         <v>64.75</v>
       </c>
       <c r="H46" t="n">
-        <v>115.3198765432099</v>
+        <v>147.294375</v>
       </c>
       <c r="I46" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>70.52352941176471</v>
+        <v>79.29857142857144</v>
       </c>
       <c r="K46" t="n">
-        <v>95.02445945945946</v>
+        <v>126.9923684210526</v>
       </c>
       <c r="L46" t="n">
-        <v>134.3290607734807</v>
+        <v>167.2823076923077</v>
       </c>
       <c r="M46" t="n">
         <v>120</v>
       </c>
       <c r="N46" t="n">
-        <v>174</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O46" t="n">
-        <v>185.75</v>
+        <v>182.99</v>
       </c>
       <c r="P46" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q46" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="R46" t="n">
         <v>99</v>
       </c>
       <c r="S46" t="n">
-        <v>136.5</v>
+        <v>190</v>
       </c>
       <c r="T46" t="n">
-        <v>0.6796153846153846</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U46" t="n">
-        <v>62</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V46" t="n">
-        <v>64</v>
+        <v>62.2</v>
       </c>
       <c r="W46" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47">
@@ -3458,71 +3706,71 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>05/02/2024</t>
+          <t>06/03/2024</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>158.7576315789474</v>
+        <v>157.4642857142857</v>
       </c>
       <c r="D47" t="n">
-        <v>160.18125</v>
+        <v>155.6666666666667</v>
       </c>
       <c r="E47" t="n">
-        <v>158.6125</v>
+        <v>148.25</v>
       </c>
       <c r="F47" t="n">
-        <v>160</v>
+        <v>141.5</v>
       </c>
       <c r="G47" t="n">
         <v>64.75</v>
       </c>
       <c r="H47" t="n">
-        <v>134.9989583333333</v>
+        <v>153.2423529411765</v>
       </c>
       <c r="I47" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>74.10395833333332</v>
+        <v>80.84529411764707</v>
       </c>
       <c r="K47" t="n">
-        <v>113.6128099173554</v>
+        <v>133.3383908045977</v>
       </c>
       <c r="L47" t="n">
-        <v>158.9619230769231</v>
+        <v>172.698</v>
       </c>
       <c r="M47" t="n">
         <v>120</v>
       </c>
       <c r="N47" t="n">
-        <v>197</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O47" t="n">
-        <v>197</v>
+        <v>182.99</v>
       </c>
       <c r="P47" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="Q47" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="R47" t="n">
         <v>99</v>
       </c>
       <c r="S47" t="n">
-        <v>136.5</v>
+        <v>190</v>
       </c>
       <c r="T47" t="n">
-        <v>0.4512962962962963</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U47" t="n">
-        <v>60</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V47" t="n">
-        <v>63.5</v>
+        <v>62.2</v>
       </c>
       <c r="W47" t="n">
-        <v>68.14583333333333</v>
+        <v>63.63444444444445</v>
       </c>
     </row>
     <row r="48">
@@ -3531,71 +3779,71 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>06/02/2024</t>
+          <t>07/03/2024</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>175.6537704918033</v>
+        <v>160.0321428571428</v>
       </c>
       <c r="D48" t="n">
-        <v>169.0621621621622</v>
+        <v>156</v>
       </c>
       <c r="E48" t="n">
-        <v>166.4045454545455</v>
+        <v>148.25</v>
       </c>
       <c r="F48" t="n">
-        <v>158</v>
+        <v>141.5</v>
       </c>
       <c r="G48" t="n">
         <v>64.75</v>
       </c>
       <c r="H48" t="n">
-        <v>166.6695726495726</v>
+        <v>159.2897222222222</v>
       </c>
       <c r="I48" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>76.63704918032786</v>
+        <v>84.00399999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>146.1977659574468</v>
+        <v>139.6338461538462</v>
       </c>
       <c r="L48" t="n">
-        <v>184.10796875</v>
+        <v>178.5269090909091</v>
       </c>
       <c r="M48" t="n">
         <v>120</v>
       </c>
       <c r="N48" t="n">
-        <v>197</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O48" t="n">
-        <v>197</v>
+        <v>182.99</v>
       </c>
       <c r="P48" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="Q48" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="R48" t="n">
         <v>99</v>
       </c>
       <c r="S48" t="n">
-        <v>200</v>
+        <v>196.6</v>
       </c>
       <c r="T48" t="n">
-        <v>0.6175757575757576</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U48" t="n">
-        <v>60</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V48" t="n">
-        <v>63.66666666666666</v>
+        <v>61.8</v>
       </c>
       <c r="W48" t="n">
-        <v>67.5</v>
+        <v>63.63444444444445</v>
       </c>
     </row>
     <row r="49">
@@ -3604,71 +3852,71 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>08/03/2024</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>173.07</v>
+        <v>166.861724137931</v>
       </c>
       <c r="D49" t="n">
-        <v>164.275</v>
+        <v>161.49</v>
       </c>
       <c r="E49" t="n">
-        <v>160</v>
+        <v>152.6666666666667</v>
       </c>
       <c r="F49" t="n">
-        <v>158</v>
+        <v>141.5</v>
       </c>
       <c r="G49" t="n">
         <v>64.75</v>
       </c>
       <c r="H49" t="n">
-        <v>157.9772093023256</v>
+        <v>166.5228947368421</v>
       </c>
       <c r="I49" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>73.33879999999999</v>
+        <v>87.36133333333333</v>
       </c>
       <c r="K49" t="n">
-        <v>140.0048905109489</v>
+        <v>148.5520792079208</v>
       </c>
       <c r="L49" t="n">
-        <v>179.4702197802198</v>
+        <v>187.1764285714286</v>
       </c>
       <c r="M49" t="n">
         <v>120</v>
       </c>
       <c r="N49" t="n">
-        <v>213</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O49" t="n">
-        <v>197</v>
+        <v>182.99</v>
       </c>
       <c r="P49" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="Q49" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="R49" t="n">
         <v>99</v>
       </c>
       <c r="S49" t="n">
-        <v>200</v>
+        <v>196.6</v>
       </c>
       <c r="T49" t="n">
-        <v>0.5236585365853659</v>
+        <v>0.3192307692307693</v>
       </c>
       <c r="U49" t="n">
-        <v>60</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V49" t="n">
-        <v>63.33</v>
+        <v>118.25</v>
       </c>
       <c r="W49" t="n">
-        <v>65.752</v>
+        <v>64.60909090909091</v>
       </c>
     </row>
     <row r="50">
@@ -3677,71 +3925,71 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>168.5291111111111</v>
+        <v>164.98</v>
       </c>
       <c r="D50" t="n">
-        <v>158.3928571428571</v>
+        <v>160.5</v>
       </c>
       <c r="E50" t="n">
-        <v>155</v>
+        <v>152.6666666666667</v>
       </c>
       <c r="F50" t="n">
-        <v>155</v>
+        <v>141.5</v>
       </c>
       <c r="G50" t="n">
         <v>64.75</v>
       </c>
       <c r="H50" t="n">
-        <v>157.9139393939394</v>
+        <v>165.7305555555556</v>
       </c>
       <c r="I50" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J50" t="n">
-        <v>75.88549019607842</v>
+        <v>85.56</v>
       </c>
       <c r="K50" t="n">
-        <v>138.9766666666667</v>
+        <v>146.7559302325581</v>
       </c>
       <c r="L50" t="n">
-        <v>177.5528787878788</v>
+        <v>186.7737777777778</v>
       </c>
       <c r="M50" t="n">
         <v>120</v>
       </c>
       <c r="N50" t="n">
-        <v>213</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O50" t="n">
-        <v>197</v>
+        <v>182.99</v>
       </c>
       <c r="P50" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="Q50" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="R50" t="n">
         <v>99</v>
       </c>
       <c r="S50" t="n">
-        <v>194.5</v>
+        <v>196.6</v>
       </c>
       <c r="T50" t="n">
         <v>0.3192307692307693</v>
       </c>
       <c r="U50" t="n">
-        <v>60</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="V50" t="n">
-        <v>63.69923076923077</v>
+        <v>118.25</v>
       </c>
       <c r="W50" t="n">
-        <v>65</v>
+        <v>64.1125</v>
       </c>
     </row>
     <row r="51">
@@ -3750,59 +3998,59 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>12/03/2024</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>163.4818181818182</v>
+        <v>165.7842857142857</v>
       </c>
       <c r="D51" t="n">
-        <v>153.75</v>
+        <v>159.5</v>
       </c>
       <c r="E51" t="n">
-        <v>154</v>
+        <v>152.6666666666667</v>
       </c>
       <c r="F51" t="n">
-        <v>154.25</v>
+        <v>146.5</v>
       </c>
       <c r="G51" t="n">
         <v>64.75</v>
       </c>
       <c r="H51" t="n">
-        <v>154.9448148148148</v>
+        <v>164.899</v>
       </c>
       <c r="I51" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>74.9148275862069</v>
+        <v>84.17470588235294</v>
       </c>
       <c r="K51" t="n">
-        <v>135.4209433962264</v>
+        <v>147.5442045454545</v>
       </c>
       <c r="L51" t="n">
-        <v>174.2733333333333</v>
+        <v>185.1758333333333</v>
       </c>
       <c r="M51" t="n">
         <v>120</v>
       </c>
       <c r="N51" t="n">
-        <v>213</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O51" t="n">
-        <v>197</v>
+        <v>182.99</v>
       </c>
       <c r="P51" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="Q51" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="R51" t="n">
         <v>99</v>
       </c>
       <c r="S51" t="n">
-        <v>194.5</v>
+        <v>196.6</v>
       </c>
       <c r="T51" t="n">
         <v>0.3192307692307693</v>
@@ -3811,10 +4059,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V51" t="n">
-        <v>63.09111111111112</v>
+        <v>118.25</v>
       </c>
       <c r="W51" t="n">
-        <v>66.08333333333333</v>
+        <v>63.85416666666666</v>
       </c>
     </row>
     <row r="52">
@@ -3823,59 +4071,59 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>14/02/2024</t>
+          <t>13/03/2024</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>157.709375</v>
+        <v>161.664</v>
       </c>
       <c r="D52" t="n">
-        <v>148.875</v>
+        <v>155.1</v>
       </c>
       <c r="E52" t="n">
-        <v>154</v>
+        <v>150.5</v>
       </c>
       <c r="F52" t="n">
-        <v>154.25</v>
+        <v>146.5</v>
       </c>
       <c r="G52" t="n">
         <v>64.75</v>
       </c>
       <c r="H52" t="n">
-        <v>147.1722222222222</v>
+        <v>160.9636363636364</v>
       </c>
       <c r="I52" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J52" t="n">
-        <v>74.16111111111111</v>
+        <v>83.52352941176471</v>
       </c>
       <c r="K52" t="n">
-        <v>128.6016666666667</v>
+        <v>144.0026923076923</v>
       </c>
       <c r="L52" t="n">
-        <v>167.19046875</v>
+        <v>179.7327272727273</v>
       </c>
       <c r="M52" t="n">
         <v>120</v>
       </c>
       <c r="N52" t="n">
-        <v>213</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O52" t="n">
-        <v>197</v>
+        <v>182.99</v>
       </c>
       <c r="P52" t="n">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="Q52" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="R52" t="n">
         <v>99</v>
       </c>
       <c r="S52" t="n">
-        <v>194.5</v>
+        <v>196.6</v>
       </c>
       <c r="T52" t="n">
         <v>0.3192307692307693</v>
@@ -3884,10 +4132,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V52" t="n">
-        <v>62.57000000000001</v>
+        <v>118.25</v>
       </c>
       <c r="W52" t="n">
-        <v>66.08333333333333</v>
+        <v>63.38888888888889</v>
       </c>
     </row>
     <row r="53">
@@ -3896,59 +4144,59 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>15/02/2024</t>
+          <t>14/03/2024</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>167.3490566037736</v>
+        <v>155.6695</v>
       </c>
       <c r="D53" t="n">
-        <v>158.1625</v>
+        <v>154.4166666666667</v>
       </c>
       <c r="E53" t="n">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F53" t="n">
-        <v>154.25</v>
+        <v>147.5</v>
       </c>
       <c r="G53" t="n">
         <v>64.75</v>
       </c>
       <c r="H53" t="n">
-        <v>158.4319444444444</v>
+        <v>151.9960714285714</v>
       </c>
       <c r="I53" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>75.8592</v>
+        <v>78.83076923076922</v>
       </c>
       <c r="K53" t="n">
-        <v>136.0265100671141</v>
+        <v>135.8840566037736</v>
       </c>
       <c r="L53" t="n">
-        <v>179.9542857142857</v>
+        <v>168.3448888888889</v>
       </c>
       <c r="M53" t="n">
         <v>120</v>
       </c>
       <c r="N53" t="n">
-        <v>213</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O53" t="n">
-        <v>197</v>
+        <v>182.99</v>
       </c>
       <c r="P53" t="n">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="Q53" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="R53" t="n">
         <v>99</v>
       </c>
       <c r="S53" t="n">
-        <v>194.5</v>
+        <v>196.6</v>
       </c>
       <c r="T53" t="n">
         <v>0.3192307692307693</v>
@@ -3957,10 +4205,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V53" t="n">
-        <v>63.33333333333334</v>
+        <v>118.25</v>
       </c>
       <c r="W53" t="n">
-        <v>65</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="54">
@@ -3969,59 +4217,59 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16/02/2024</t>
+          <t>15/03/2024</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>173.6476923076923</v>
+        <v>158.5266666666667</v>
       </c>
       <c r="D54" t="n">
-        <v>159.651</v>
+        <v>155.75</v>
       </c>
       <c r="E54" t="n">
-        <v>156.8</v>
+        <v>147</v>
       </c>
       <c r="F54" t="n">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G54" t="n">
         <v>64.75</v>
       </c>
       <c r="H54" t="n">
-        <v>164.5596</v>
+        <v>154.2833333333333</v>
       </c>
       <c r="I54" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J54" t="n">
-        <v>77.45294117647059</v>
+        <v>78.58571428571429</v>
       </c>
       <c r="K54" t="n">
-        <v>146.2514503816794</v>
+        <v>137.5202857142857</v>
       </c>
       <c r="L54" t="n">
-        <v>186.4590909090909</v>
+        <v>171.2307272727273</v>
       </c>
       <c r="M54" t="n">
         <v>120</v>
       </c>
       <c r="N54" t="n">
-        <v>209</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O54" t="n">
-        <v>197</v>
+        <v>191.5</v>
       </c>
       <c r="P54" t="n">
-        <v>199</v>
+        <v>184.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>174</v>
+        <v>184.5</v>
       </c>
       <c r="R54" t="n">
         <v>99</v>
       </c>
       <c r="S54" t="n">
-        <v>194.5</v>
+        <v>196.6</v>
       </c>
       <c r="T54" t="n">
         <v>0.3192307692307693</v>
@@ -4030,10 +4278,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V54" t="n">
-        <v>62.58222222222222</v>
+        <v>118.25</v>
       </c>
       <c r="W54" t="n">
-        <v>65</v>
+        <v>63.80166666666667</v>
       </c>
     </row>
     <row r="55">
@@ -4042,59 +4290,59 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>19/02/2024</t>
+          <t>18/03/2024</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>170.8975</v>
+        <v>152.6221428571428</v>
       </c>
       <c r="D55" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E55" t="n">
-        <v>153.75</v>
+        <v>151</v>
       </c>
       <c r="F55" t="n">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G55" t="n">
         <v>64.75</v>
       </c>
       <c r="H55" t="n">
-        <v>159.7632</v>
+        <v>144.8608695652174</v>
       </c>
       <c r="I55" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>76.13925925925926</v>
+        <v>75.46428571428571</v>
       </c>
       <c r="K55" t="n">
-        <v>139.6658536585366</v>
+        <v>129.1692380952381</v>
       </c>
       <c r="L55" t="n">
-        <v>180.0119512195122</v>
+        <v>159.549358974359</v>
       </c>
       <c r="M55" t="n">
         <v>120</v>
       </c>
       <c r="N55" t="n">
-        <v>209</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O55" t="n">
-        <v>197</v>
+        <v>191.5</v>
       </c>
       <c r="P55" t="n">
-        <v>199</v>
+        <v>184.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>174</v>
+        <v>184.5</v>
       </c>
       <c r="R55" t="n">
         <v>99</v>
       </c>
       <c r="S55" t="n">
-        <v>194.5</v>
+        <v>196.6</v>
       </c>
       <c r="T55" t="n">
         <v>0.3192307692307693</v>
@@ -4103,10 +4351,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V55" t="n">
-        <v>62.36142857142857</v>
+        <v>118.25</v>
       </c>
       <c r="W55" t="n">
-        <v>64.5</v>
+        <v>63.42696428571428</v>
       </c>
     </row>
     <row r="56">
@@ -4115,59 +4363,59 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>20/02/2024</t>
+          <t>19/03/2024</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>171</v>
+        <v>147.4356451612903</v>
       </c>
       <c r="D56" t="n">
-        <v>158.125</v>
+        <v>146.5</v>
       </c>
       <c r="E56" t="n">
-        <v>153.75</v>
+        <v>140</v>
       </c>
       <c r="F56" t="n">
-        <v>152</v>
+        <v>142.5</v>
       </c>
       <c r="G56" t="n">
         <v>64.75</v>
       </c>
       <c r="H56" t="n">
-        <v>162.12</v>
+        <v>132.5485</v>
       </c>
       <c r="I56" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>76.6557142857143</v>
+        <v>72</v>
       </c>
       <c r="K56" t="n">
-        <v>140.4725925925926</v>
+        <v>118.4378260869565</v>
       </c>
       <c r="L56" t="n">
-        <v>182.1969444444445</v>
+        <v>148.1596268656716</v>
       </c>
       <c r="M56" t="n">
         <v>120</v>
       </c>
       <c r="N56" t="n">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="O56" t="n">
-        <v>197</v>
+        <v>191.5</v>
       </c>
       <c r="P56" t="n">
-        <v>199</v>
+        <v>184.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>174</v>
+        <v>184.5</v>
       </c>
       <c r="R56" t="n">
         <v>99</v>
       </c>
       <c r="S56" t="n">
-        <v>194.5</v>
+        <v>180</v>
       </c>
       <c r="T56" t="n">
         <v>0.3192307692307693</v>
@@ -4176,10 +4424,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V56" t="n">
-        <v>65</v>
+        <v>118.25</v>
       </c>
       <c r="W56" t="n">
-        <v>64.125</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57">
@@ -4188,59 +4436,59 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>21/02/2024</t>
+          <t>20/03/2024</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>165.1740625</v>
+        <v>137.5938235294118</v>
       </c>
       <c r="D57" t="n">
-        <v>154.012</v>
+        <v>140.125</v>
       </c>
       <c r="E57" t="n">
-        <v>153.4</v>
+        <v>140</v>
       </c>
       <c r="F57" t="n">
-        <v>152</v>
+        <v>141.9966666666667</v>
       </c>
       <c r="G57" t="n">
         <v>64.75</v>
       </c>
       <c r="H57" t="n">
-        <v>153.6395833333333</v>
+        <v>120.143275862069</v>
       </c>
       <c r="I57" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J57" t="n">
-        <v>74.26666666666667</v>
+        <v>69.3</v>
       </c>
       <c r="K57" t="n">
-        <v>134.1602608695652</v>
+        <v>108.6959776536313</v>
       </c>
       <c r="L57" t="n">
-        <v>174.3914457831325</v>
+        <v>134.0439416058394</v>
       </c>
       <c r="M57" t="n">
         <v>120</v>
       </c>
       <c r="N57" t="n">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="O57" t="n">
-        <v>197</v>
+        <v>191.5</v>
       </c>
       <c r="P57" t="n">
-        <v>199</v>
+        <v>184.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>174</v>
+        <v>184.5</v>
       </c>
       <c r="R57" t="n">
         <v>99</v>
       </c>
       <c r="S57" t="n">
-        <v>194.5</v>
+        <v>180</v>
       </c>
       <c r="T57" t="n">
         <v>0.3192307692307693</v>
@@ -4249,10 +4497,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V57" t="n">
-        <v>62.13</v>
+        <v>118.25</v>
       </c>
       <c r="W57" t="n">
-        <v>63.11428571428571</v>
+        <v>63.63</v>
       </c>
     </row>
     <row r="58">
@@ -4261,59 +4509,59 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>22/02/2024</t>
+          <t>21/03/2024</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>153.492027027027</v>
+        <v>143.8952380952381</v>
       </c>
       <c r="D58" t="n">
-        <v>146.1777777777778</v>
+        <v>145.675</v>
       </c>
       <c r="E58" t="n">
-        <v>153.4</v>
+        <v>140</v>
       </c>
       <c r="F58" t="n">
-        <v>152</v>
+        <v>141.9966666666667</v>
       </c>
       <c r="G58" t="n">
         <v>64.75</v>
       </c>
       <c r="H58" t="n">
-        <v>138.2097247706422</v>
+        <v>132.1272222222222</v>
       </c>
       <c r="I58" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J58" t="n">
-        <v>71.17588235294117</v>
+        <v>70.56066666666668</v>
       </c>
       <c r="K58" t="n">
-        <v>120.6092352941176</v>
+        <v>116.9838297872341</v>
       </c>
       <c r="L58" t="n">
-        <v>157.9024369747899</v>
+        <v>144.7827722772277</v>
       </c>
       <c r="M58" t="n">
         <v>120</v>
       </c>
       <c r="N58" t="n">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="O58" t="n">
-        <v>197</v>
+        <v>191.5</v>
       </c>
       <c r="P58" t="n">
-        <v>199</v>
+        <v>184.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>174</v>
+        <v>184.5</v>
       </c>
       <c r="R58" t="n">
         <v>99</v>
       </c>
       <c r="S58" t="n">
-        <v>194.5</v>
+        <v>164.6666666666667</v>
       </c>
       <c r="T58" t="n">
         <v>0.3192307692307693</v>
@@ -4322,10 +4570,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V58" t="n">
-        <v>61.7</v>
+        <v>118.25</v>
       </c>
       <c r="W58" t="n">
-        <v>62.51</v>
+        <v>61.95</v>
       </c>
     </row>
     <row r="59">
@@ -4334,59 +4582,59 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>23/02/2024</t>
+          <t>22/03/2024</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>152.2510447761194</v>
+        <v>148.9358823529412</v>
       </c>
       <c r="D59" t="n">
-        <v>149.1153846153846</v>
+        <v>149</v>
       </c>
       <c r="E59" t="n">
-        <v>145.5</v>
+        <v>140</v>
       </c>
       <c r="F59" t="n">
-        <v>144.75</v>
+        <v>143.25</v>
       </c>
       <c r="G59" t="n">
         <v>64.75</v>
       </c>
       <c r="H59" t="n">
-        <v>140.6379411764706</v>
+        <v>137.3836111111111</v>
       </c>
       <c r="I59" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J59" t="n">
-        <v>72.4875</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="K59" t="n">
-        <v>116.7217647058824</v>
+        <v>124.6596551724138</v>
       </c>
       <c r="L59" t="n">
-        <v>157.9007692307692</v>
+        <v>154.9871428571429</v>
       </c>
       <c r="M59" t="n">
         <v>120</v>
       </c>
       <c r="N59" t="n">
-        <v>186.26</v>
+        <v>187.5</v>
       </c>
       <c r="O59" t="n">
         <v>185</v>
       </c>
       <c r="P59" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q59" t="n">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="R59" t="n">
         <v>99</v>
       </c>
       <c r="S59" t="n">
-        <v>194.5</v>
+        <v>173.075</v>
       </c>
       <c r="T59" t="n">
         <v>0.3192307692307693</v>
@@ -4395,10 +4643,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V59" t="n">
-        <v>62</v>
+        <v>118.25</v>
       </c>
       <c r="W59" t="n">
-        <v>62.5</v>
+        <v>61.95</v>
       </c>
     </row>
     <row r="60">
@@ -4407,59 +4655,59 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>26/02/2024</t>
+          <t>25/03/2024</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>148.9651724137931</v>
+        <v>155.62</v>
       </c>
       <c r="D60" t="n">
-        <v>146.75</v>
+        <v>155.3</v>
       </c>
       <c r="E60" t="n">
-        <v>148.5</v>
+        <v>140</v>
       </c>
       <c r="F60" t="n">
-        <v>144.75</v>
+        <v>141.75</v>
       </c>
       <c r="G60" t="n">
         <v>64.75</v>
       </c>
       <c r="H60" t="n">
-        <v>138.61</v>
+        <v>150.1111111111111</v>
       </c>
       <c r="I60" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J60" t="n">
-        <v>72.205</v>
+        <v>75.84999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>117.1116379310345</v>
+        <v>133.880931372549</v>
       </c>
       <c r="L60" t="n">
-        <v>157.5224444444445</v>
+        <v>164.45</v>
       </c>
       <c r="M60" t="n">
         <v>120</v>
       </c>
       <c r="N60" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="O60" t="n">
         <v>188</v>
       </c>
-      <c r="O60" t="n">
-        <v>185</v>
-      </c>
       <c r="P60" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q60" t="n">
-        <v>184</v>
+        <v>175.5</v>
       </c>
       <c r="R60" t="n">
         <v>99</v>
       </c>
       <c r="S60" t="n">
-        <v>194.5</v>
+        <v>173.075</v>
       </c>
       <c r="T60" t="n">
         <v>0.3192307692307693</v>
@@ -4468,10 +4716,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V60" t="n">
-        <v>62.116</v>
+        <v>118.25</v>
       </c>
       <c r="W60" t="n">
-        <v>62.96666666666667</v>
+        <v>61.95</v>
       </c>
     </row>
     <row r="61">
@@ -4480,17 +4728,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>27/02/2024</t>
+          <t>26/03/2024</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>153.6804761904762</v>
+        <v>158.3285714285714</v>
       </c>
       <c r="D61" t="n">
-        <v>149.7666666666667</v>
+        <v>153</v>
       </c>
       <c r="E61" t="n">
-        <v>148.875</v>
+        <v>140</v>
       </c>
       <c r="F61" t="n">
         <v>145</v>
@@ -4499,40 +4747,40 @@
         <v>64.75</v>
       </c>
       <c r="H61" t="n">
-        <v>145.7759259259259</v>
+        <v>146.689</v>
       </c>
       <c r="I61" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J61" t="n">
-        <v>75.36481481481481</v>
+        <v>76</v>
       </c>
       <c r="K61" t="n">
-        <v>124.7240909090909</v>
+        <v>140.5012087912088</v>
       </c>
       <c r="L61" t="n">
-        <v>165.749012345679</v>
+        <v>168.1404819277109</v>
       </c>
       <c r="M61" t="n">
         <v>120</v>
       </c>
       <c r="N61" t="n">
-        <v>189</v>
+        <v>200.95</v>
       </c>
       <c r="O61" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P61" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q61" t="n">
-        <v>184</v>
+        <v>175.5</v>
       </c>
       <c r="R61" t="n">
         <v>99</v>
       </c>
       <c r="S61" t="n">
-        <v>194.5</v>
+        <v>187.95</v>
       </c>
       <c r="T61" t="n">
         <v>0.3192307692307693</v>
@@ -4541,10 +4789,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V61" t="n">
-        <v>62.3175</v>
+        <v>118.25</v>
       </c>
       <c r="W61" t="n">
-        <v>66.18892857142858</v>
+        <v>61.81666666666666</v>
       </c>
     </row>
     <row r="62">
@@ -4553,59 +4801,59 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>28/02/2024</t>
+          <t>27/03/2024</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>155.2923076923077</v>
+        <v>155.8</v>
       </c>
       <c r="D62" t="n">
-        <v>149.8333333333333</v>
+        <v>150.625</v>
       </c>
       <c r="E62" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F62" t="n">
-        <v>145</v>
+        <v>146.96</v>
       </c>
       <c r="G62" t="n">
         <v>64.75</v>
       </c>
       <c r="H62" t="n">
-        <v>147.5516129032258</v>
+        <v>147.3958333333333</v>
       </c>
       <c r="I62" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J62" t="n">
-        <v>77.15555555555555</v>
+        <v>73.16666666666667</v>
       </c>
       <c r="K62" t="n">
-        <v>126.9850574712644</v>
+        <v>136.437265625</v>
       </c>
       <c r="L62" t="n">
-        <v>167.8631428571429</v>
+        <v>161.0813580246914</v>
       </c>
       <c r="M62" t="n">
         <v>120</v>
       </c>
       <c r="N62" t="n">
-        <v>192</v>
+        <v>200.95</v>
       </c>
       <c r="O62" t="n">
-        <v>185</v>
+        <v>185.9</v>
       </c>
       <c r="P62" t="n">
-        <v>184</v>
+        <v>185.9</v>
       </c>
       <c r="Q62" t="n">
-        <v>184</v>
+        <v>175.5</v>
       </c>
       <c r="R62" t="n">
         <v>99</v>
       </c>
       <c r="S62" t="n">
-        <v>194.5</v>
+        <v>187.95</v>
       </c>
       <c r="T62" t="n">
         <v>0.3192307692307693</v>
@@ -4614,10 +4862,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V62" t="n">
-        <v>62.53571428571428</v>
+        <v>118.25</v>
       </c>
       <c r="W62" t="n">
-        <v>66.18607142857142</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="63">
@@ -4626,59 +4874,59 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>29/02/2024</t>
+          <t>28/03/2024</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>158.4117647058823</v>
+        <v>150.6666666666667</v>
       </c>
       <c r="D63" t="n">
-        <v>152.2871428571429</v>
+        <v>148.8333333333333</v>
       </c>
       <c r="E63" t="n">
-        <v>150.5</v>
+        <v>148</v>
       </c>
       <c r="F63" t="n">
-        <v>145</v>
+        <v>146.96</v>
       </c>
       <c r="G63" t="n">
         <v>64.75</v>
       </c>
       <c r="H63" t="n">
-        <v>151.2335294117647</v>
+        <v>138.41</v>
       </c>
       <c r="I63" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J63" t="n">
-        <v>79.78918918918919</v>
+        <v>73.16666666666667</v>
       </c>
       <c r="K63" t="n">
-        <v>130.3195161290323</v>
+        <v>127.2380991735537</v>
       </c>
       <c r="L63" t="n">
-        <v>171.5811111111111</v>
+        <v>149.9206666666666</v>
       </c>
       <c r="M63" t="n">
         <v>120</v>
       </c>
       <c r="N63" t="n">
-        <v>193.3266666666667</v>
+        <v>200.95</v>
       </c>
       <c r="O63" t="n">
-        <v>182.99</v>
+        <v>185.9</v>
       </c>
       <c r="P63" t="n">
-        <v>184</v>
+        <v>185.9</v>
       </c>
       <c r="Q63" t="n">
-        <v>184</v>
+        <v>175.5</v>
       </c>
       <c r="R63" t="n">
         <v>99</v>
       </c>
       <c r="S63" t="n">
-        <v>190</v>
+        <v>187.95</v>
       </c>
       <c r="T63" t="n">
         <v>0.3192307692307693</v>
@@ -4687,1178 +4935,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V63" t="n">
-        <v>65.5</v>
+        <v>118.25</v>
       </c>
       <c r="W63" t="n">
-        <v>66.3</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>01/03/2024</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>159.7727272727273</v>
-      </c>
-      <c r="D64" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="E64" t="n">
-        <v>148.8333333333333</v>
-      </c>
-      <c r="F64" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="G64" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="H64" t="n">
-        <v>153.5968965517241</v>
-      </c>
-      <c r="I64" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J64" t="n">
-        <v>79.30921052631579</v>
-      </c>
-      <c r="K64" t="n">
-        <v>132.2443548387097</v>
-      </c>
-      <c r="L64" t="n">
-        <v>171.4761904761905</v>
-      </c>
-      <c r="M64" t="n">
-        <v>120</v>
-      </c>
-      <c r="N64" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="O64" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P64" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>184</v>
-      </c>
-      <c r="R64" t="n">
-        <v>99</v>
-      </c>
-      <c r="S64" t="n">
-        <v>190</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="U64" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="V64" t="n">
-        <v>117.67</v>
-      </c>
-      <c r="W64" t="n">
-        <v>65.41363636363636</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>04/03/2024</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>158.0625</v>
-      </c>
-      <c r="D65" t="n">
-        <v>156</v>
-      </c>
-      <c r="E65" t="n">
-        <v>148.8333333333333</v>
-      </c>
-      <c r="F65" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="G65" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="H65" t="n">
-        <v>148.94</v>
-      </c>
-      <c r="I65" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J65" t="n">
-        <v>78.44533333333334</v>
-      </c>
-      <c r="K65" t="n">
-        <v>126.4451282051282</v>
-      </c>
-      <c r="L65" t="n">
-        <v>169.0246153846154</v>
-      </c>
-      <c r="M65" t="n">
-        <v>120</v>
-      </c>
-      <c r="N65" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="O65" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P65" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>184</v>
-      </c>
-      <c r="R65" t="n">
-        <v>99</v>
-      </c>
-      <c r="S65" t="n">
-        <v>190</v>
-      </c>
-      <c r="T65" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="U65" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="V65" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="W65" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>05/03/2024</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>154.9533333333333</v>
-      </c>
-      <c r="D66" t="n">
-        <v>152</v>
-      </c>
-      <c r="E66" t="n">
-        <v>148.25</v>
-      </c>
-      <c r="F66" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="G66" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="H66" t="n">
-        <v>147.294375</v>
-      </c>
-      <c r="I66" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J66" t="n">
-        <v>79.29857142857144</v>
-      </c>
-      <c r="K66" t="n">
-        <v>126.9923684210526</v>
-      </c>
-      <c r="L66" t="n">
-        <v>167.2823076923077</v>
-      </c>
-      <c r="M66" t="n">
-        <v>120</v>
-      </c>
-      <c r="N66" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="O66" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P66" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>184</v>
-      </c>
-      <c r="R66" t="n">
-        <v>99</v>
-      </c>
-      <c r="S66" t="n">
-        <v>190</v>
-      </c>
-      <c r="T66" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="U66" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="V66" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="W66" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>06/03/2024</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>157.4642857142857</v>
-      </c>
-      <c r="D67" t="n">
-        <v>155.6666666666667</v>
-      </c>
-      <c r="E67" t="n">
-        <v>148.25</v>
-      </c>
-      <c r="F67" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="G67" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="H67" t="n">
-        <v>153.2423529411765</v>
-      </c>
-      <c r="I67" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J67" t="n">
-        <v>80.84529411764707</v>
-      </c>
-      <c r="K67" t="n">
-        <v>133.3383908045977</v>
-      </c>
-      <c r="L67" t="n">
-        <v>172.698</v>
-      </c>
-      <c r="M67" t="n">
-        <v>120</v>
-      </c>
-      <c r="N67" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="O67" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P67" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>184</v>
-      </c>
-      <c r="R67" t="n">
-        <v>99</v>
-      </c>
-      <c r="S67" t="n">
-        <v>190</v>
-      </c>
-      <c r="T67" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="U67" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="V67" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="W67" t="n">
-        <v>63.63444444444445</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>07/03/2024</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>160.0321428571428</v>
-      </c>
-      <c r="D68" t="n">
-        <v>156</v>
-      </c>
-      <c r="E68" t="n">
-        <v>148.25</v>
-      </c>
-      <c r="F68" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="G68" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="H68" t="n">
-        <v>159.2897222222222</v>
-      </c>
-      <c r="I68" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J68" t="n">
-        <v>84.00399999999999</v>
-      </c>
-      <c r="K68" t="n">
-        <v>139.6338461538462</v>
-      </c>
-      <c r="L68" t="n">
-        <v>178.5269090909091</v>
-      </c>
-      <c r="M68" t="n">
-        <v>120</v>
-      </c>
-      <c r="N68" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="O68" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P68" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>184</v>
-      </c>
-      <c r="R68" t="n">
-        <v>99</v>
-      </c>
-      <c r="S68" t="n">
-        <v>196.6</v>
-      </c>
-      <c r="T68" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="U68" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="V68" t="n">
-        <v>61.8</v>
-      </c>
-      <c r="W68" t="n">
-        <v>63.63444444444445</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>08/03/2024</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>166.861724137931</v>
-      </c>
-      <c r="D69" t="n">
-        <v>161.49</v>
-      </c>
-      <c r="E69" t="n">
-        <v>152.6666666666667</v>
-      </c>
-      <c r="F69" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="G69" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="H69" t="n">
-        <v>166.5228947368421</v>
-      </c>
-      <c r="I69" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J69" t="n">
-        <v>87.36133333333333</v>
-      </c>
-      <c r="K69" t="n">
-        <v>148.5520792079208</v>
-      </c>
-      <c r="L69" t="n">
-        <v>187.1764285714286</v>
-      </c>
-      <c r="M69" t="n">
-        <v>120</v>
-      </c>
-      <c r="N69" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="O69" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P69" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>184</v>
-      </c>
-      <c r="R69" t="n">
-        <v>99</v>
-      </c>
-      <c r="S69" t="n">
-        <v>196.6</v>
-      </c>
-      <c r="T69" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="U69" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="V69" t="n">
-        <v>118.25</v>
-      </c>
-      <c r="W69" t="n">
-        <v>64.60909090909091</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>11/03/2024</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>164.98</v>
-      </c>
-      <c r="D70" t="n">
-        <v>160.5</v>
-      </c>
-      <c r="E70" t="n">
-        <v>152.6666666666667</v>
-      </c>
-      <c r="F70" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="G70" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="H70" t="n">
-        <v>165.7305555555556</v>
-      </c>
-      <c r="I70" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J70" t="n">
-        <v>85.56</v>
-      </c>
-      <c r="K70" t="n">
-        <v>146.7559302325581</v>
-      </c>
-      <c r="L70" t="n">
-        <v>186.7737777777778</v>
-      </c>
-      <c r="M70" t="n">
-        <v>120</v>
-      </c>
-      <c r="N70" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="O70" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P70" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>184</v>
-      </c>
-      <c r="R70" t="n">
-        <v>99</v>
-      </c>
-      <c r="S70" t="n">
-        <v>196.6</v>
-      </c>
-      <c r="T70" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="U70" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="V70" t="n">
-        <v>118.25</v>
-      </c>
-      <c r="W70" t="n">
-        <v>64.1125</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>12/03/2024</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>165.7842857142857</v>
-      </c>
-      <c r="D71" t="n">
-        <v>159.5</v>
-      </c>
-      <c r="E71" t="n">
-        <v>152.6666666666667</v>
-      </c>
-      <c r="F71" t="n">
-        <v>146.5</v>
-      </c>
-      <c r="G71" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="H71" t="n">
-        <v>164.899</v>
-      </c>
-      <c r="I71" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J71" t="n">
-        <v>84.17470588235294</v>
-      </c>
-      <c r="K71" t="n">
-        <v>147.5442045454545</v>
-      </c>
-      <c r="L71" t="n">
-        <v>185.1758333333333</v>
-      </c>
-      <c r="M71" t="n">
-        <v>120</v>
-      </c>
-      <c r="N71" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="O71" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P71" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>184</v>
-      </c>
-      <c r="R71" t="n">
-        <v>99</v>
-      </c>
-      <c r="S71" t="n">
-        <v>196.6</v>
-      </c>
-      <c r="T71" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="U71" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="V71" t="n">
-        <v>118.25</v>
-      </c>
-      <c r="W71" t="n">
-        <v>63.85416666666666</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>13/03/2024</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>161.664</v>
-      </c>
-      <c r="D72" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="E72" t="n">
-        <v>150.5</v>
-      </c>
-      <c r="F72" t="n">
-        <v>146.5</v>
-      </c>
-      <c r="G72" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="H72" t="n">
-        <v>160.9636363636364</v>
-      </c>
-      <c r="I72" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J72" t="n">
-        <v>83.52352941176471</v>
-      </c>
-      <c r="K72" t="n">
-        <v>144.0026923076923</v>
-      </c>
-      <c r="L72" t="n">
-        <v>179.7327272727273</v>
-      </c>
-      <c r="M72" t="n">
-        <v>120</v>
-      </c>
-      <c r="N72" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="O72" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P72" t="n">
-        <v>187</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>184</v>
-      </c>
-      <c r="R72" t="n">
-        <v>99</v>
-      </c>
-      <c r="S72" t="n">
-        <v>196.6</v>
-      </c>
-      <c r="T72" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="U72" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="V72" t="n">
-        <v>118.25</v>
-      </c>
-      <c r="W72" t="n">
-        <v>63.38888888888889</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>14/03/2024</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>155.6695</v>
-      </c>
-      <c r="D73" t="n">
-        <v>154.4166666666667</v>
-      </c>
-      <c r="E73" t="n">
-        <v>149</v>
-      </c>
-      <c r="F73" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="G73" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="H73" t="n">
-        <v>151.9960714285714</v>
-      </c>
-      <c r="I73" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J73" t="n">
-        <v>78.83076923076922</v>
-      </c>
-      <c r="K73" t="n">
-        <v>135.8840566037736</v>
-      </c>
-      <c r="L73" t="n">
-        <v>168.3448888888889</v>
-      </c>
-      <c r="M73" t="n">
-        <v>120</v>
-      </c>
-      <c r="N73" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="O73" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P73" t="n">
-        <v>187</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>184</v>
-      </c>
-      <c r="R73" t="n">
-        <v>99</v>
-      </c>
-      <c r="S73" t="n">
-        <v>196.6</v>
-      </c>
-      <c r="T73" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="U73" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="V73" t="n">
-        <v>118.25</v>
-      </c>
-      <c r="W73" t="n">
-        <v>63.35</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>15/03/2024</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>158.5266666666667</v>
-      </c>
-      <c r="D74" t="n">
-        <v>155.75</v>
-      </c>
-      <c r="E74" t="n">
-        <v>147</v>
-      </c>
-      <c r="F74" t="n">
-        <v>147</v>
-      </c>
-      <c r="G74" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="H74" t="n">
-        <v>154.2833333333333</v>
-      </c>
-      <c r="I74" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J74" t="n">
-        <v>78.58571428571429</v>
-      </c>
-      <c r="K74" t="n">
-        <v>137.5202857142857</v>
-      </c>
-      <c r="L74" t="n">
-        <v>171.2307272727273</v>
-      </c>
-      <c r="M74" t="n">
-        <v>120</v>
-      </c>
-      <c r="N74" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="O74" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="P74" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="R74" t="n">
-        <v>99</v>
-      </c>
-      <c r="S74" t="n">
-        <v>196.6</v>
-      </c>
-      <c r="T74" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="U74" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="V74" t="n">
-        <v>118.25</v>
-      </c>
-      <c r="W74" t="n">
-        <v>63.80166666666667</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>18/03/2024</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>152.6221428571428</v>
-      </c>
-      <c r="D75" t="n">
-        <v>154</v>
-      </c>
-      <c r="E75" t="n">
-        <v>151</v>
-      </c>
-      <c r="F75" t="n">
-        <v>147</v>
-      </c>
-      <c r="G75" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="H75" t="n">
-        <v>144.8608695652174</v>
-      </c>
-      <c r="I75" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J75" t="n">
-        <v>75.46428571428571</v>
-      </c>
-      <c r="K75" t="n">
-        <v>129.1692380952381</v>
-      </c>
-      <c r="L75" t="n">
-        <v>159.549358974359</v>
-      </c>
-      <c r="M75" t="n">
-        <v>120</v>
-      </c>
-      <c r="N75" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="O75" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="P75" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="R75" t="n">
-        <v>99</v>
-      </c>
-      <c r="S75" t="n">
-        <v>196.6</v>
-      </c>
-      <c r="T75" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="U75" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="V75" t="n">
-        <v>118.25</v>
-      </c>
-      <c r="W75" t="n">
-        <v>63.42696428571428</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>19/03/2024</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>147.4356451612903</v>
-      </c>
-      <c r="D76" t="n">
-        <v>146.5</v>
-      </c>
-      <c r="E76" t="n">
-        <v>140</v>
-      </c>
-      <c r="F76" t="n">
-        <v>142.5</v>
-      </c>
-      <c r="G76" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="H76" t="n">
-        <v>132.5485</v>
-      </c>
-      <c r="I76" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J76" t="n">
-        <v>72</v>
-      </c>
-      <c r="K76" t="n">
-        <v>118.4378260869565</v>
-      </c>
-      <c r="L76" t="n">
-        <v>148.1596268656716</v>
-      </c>
-      <c r="M76" t="n">
-        <v>120</v>
-      </c>
-      <c r="N76" t="n">
-        <v>189</v>
-      </c>
-      <c r="O76" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="P76" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="R76" t="n">
-        <v>99</v>
-      </c>
-      <c r="S76" t="n">
-        <v>180</v>
-      </c>
-      <c r="T76" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="U76" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="V76" t="n">
-        <v>118.25</v>
-      </c>
-      <c r="W76" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>20/03/2024</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>137.5938235294118</v>
-      </c>
-      <c r="D77" t="n">
-        <v>140.125</v>
-      </c>
-      <c r="E77" t="n">
-        <v>140</v>
-      </c>
-      <c r="F77" t="n">
-        <v>141.9966666666667</v>
-      </c>
-      <c r="G77" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="H77" t="n">
-        <v>120.143275862069</v>
-      </c>
-      <c r="I77" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J77" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="K77" t="n">
-        <v>108.6959776536313</v>
-      </c>
-      <c r="L77" t="n">
-        <v>134.0439416058394</v>
-      </c>
-      <c r="M77" t="n">
-        <v>120</v>
-      </c>
-      <c r="N77" t="n">
-        <v>189</v>
-      </c>
-      <c r="O77" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="P77" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="R77" t="n">
-        <v>99</v>
-      </c>
-      <c r="S77" t="n">
-        <v>180</v>
-      </c>
-      <c r="T77" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="U77" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="V77" t="n">
-        <v>118.25</v>
-      </c>
-      <c r="W77" t="n">
-        <v>63.63</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>21/03/2024</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>143.8952380952381</v>
-      </c>
-      <c r="D78" t="n">
-        <v>145.675</v>
-      </c>
-      <c r="E78" t="n">
-        <v>140</v>
-      </c>
-      <c r="F78" t="n">
-        <v>141.9966666666667</v>
-      </c>
-      <c r="G78" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="H78" t="n">
-        <v>132.1272222222222</v>
-      </c>
-      <c r="I78" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J78" t="n">
-        <v>70.56066666666668</v>
-      </c>
-      <c r="K78" t="n">
-        <v>116.9838297872341</v>
-      </c>
-      <c r="L78" t="n">
-        <v>144.7827722772277</v>
-      </c>
-      <c r="M78" t="n">
-        <v>120</v>
-      </c>
-      <c r="N78" t="n">
-        <v>185</v>
-      </c>
-      <c r="O78" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="P78" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="R78" t="n">
-        <v>99</v>
-      </c>
-      <c r="S78" t="n">
-        <v>164.6666666666667</v>
-      </c>
-      <c r="T78" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="U78" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="V78" t="n">
-        <v>118.25</v>
-      </c>
-      <c r="W78" t="n">
-        <v>61.95</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>22/03/2024</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>149.2222222222222</v>
-      </c>
-      <c r="D79" t="n">
-        <v>148.3333333333333</v>
-      </c>
-      <c r="E79" t="n">
-        <v>140</v>
-      </c>
-      <c r="F79" t="n">
-        <v>141.9966666666667</v>
-      </c>
-      <c r="G79" t="n">
-        <v>64.75</v>
-      </c>
-      <c r="H79" t="n">
-        <v>139.5345</v>
-      </c>
-      <c r="I79" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J79" t="n">
-        <v>90.83333333333333</v>
-      </c>
-      <c r="K79" t="n">
-        <v>125.8366197183098</v>
-      </c>
-      <c r="L79" t="n">
-        <v>156.0589795918367</v>
-      </c>
-      <c r="M79" t="n">
-        <v>120</v>
-      </c>
-      <c r="N79" t="n">
-        <v>188</v>
-      </c>
-      <c r="O79" t="n">
-        <v>183</v>
-      </c>
-      <c r="P79" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="R79" t="n">
-        <v>99</v>
-      </c>
-      <c r="S79" t="n">
-        <v>164.6666666666667</v>
-      </c>
-      <c r="T79" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="U79" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="V79" t="n">
-        <v>118.25</v>
-      </c>
-      <c r="W79" t="n">
-        <v>61.95</v>
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4865,7 +4865,7 @@
         <v>118.25</v>
       </c>
       <c r="W62" t="n">
-        <v>0.61</v>
+        <v>61.81666666666666</v>
       </c>
     </row>
     <row r="63">
@@ -4878,46 +4878,46 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>150.6666666666667</v>
+        <v>150.1111111111111</v>
       </c>
       <c r="D63" t="n">
-        <v>148.8333333333333</v>
+        <v>148.6666666666667</v>
       </c>
       <c r="E63" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F63" t="n">
-        <v>146.96</v>
+        <v>142</v>
       </c>
       <c r="G63" t="n">
         <v>64.75</v>
       </c>
       <c r="H63" t="n">
-        <v>138.41</v>
+        <v>136.0045833333333</v>
       </c>
       <c r="I63" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J63" t="n">
-        <v>73.16666666666667</v>
+        <v>69.5</v>
       </c>
       <c r="K63" t="n">
-        <v>127.2380991735537</v>
+        <v>126.7428313253012</v>
       </c>
       <c r="L63" t="n">
-        <v>149.9206666666666</v>
+        <v>149.7661111111111</v>
       </c>
       <c r="M63" t="n">
         <v>120</v>
       </c>
       <c r="N63" t="n">
-        <v>200.95</v>
+        <v>189</v>
       </c>
       <c r="O63" t="n">
-        <v>185.9</v>
+        <v>185.5</v>
       </c>
       <c r="P63" t="n">
-        <v>185.9</v>
+        <v>183</v>
       </c>
       <c r="Q63" t="n">
         <v>175.5</v>
@@ -4938,7 +4938,226 @@
         <v>118.25</v>
       </c>
       <c r="W63" t="n">
-        <v>0.61</v>
+        <v>61.81666666666666</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>138.248</v>
+      </c>
+      <c r="D64" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="E64" t="n">
+        <v>144.25</v>
+      </c>
+      <c r="F64" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="G64" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H64" t="n">
+        <v>123.84</v>
+      </c>
+      <c r="I64" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J64" t="n">
+        <v>70</v>
+      </c>
+      <c r="K64" t="n">
+        <v>112.9129113924051</v>
+      </c>
+      <c r="L64" t="n">
+        <v>137.6926582278481</v>
+      </c>
+      <c r="M64" t="n">
+        <v>120</v>
+      </c>
+      <c r="N64" t="n">
+        <v>189</v>
+      </c>
+      <c r="O64" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="P64" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>99</v>
+      </c>
+      <c r="S64" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U64" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V64" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W64" t="n">
+        <v>61.81666666666666</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>02/04/2024</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>141.21</v>
+      </c>
+      <c r="D65" t="n">
+        <v>143.71875</v>
+      </c>
+      <c r="E65" t="n">
+        <v>143.875</v>
+      </c>
+      <c r="F65" t="n">
+        <v>142.25</v>
+      </c>
+      <c r="G65" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H65" t="n">
+        <v>126.5884615384615</v>
+      </c>
+      <c r="I65" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J65" t="n">
+        <v>70</v>
+      </c>
+      <c r="K65" t="n">
+        <v>115.1426315789474</v>
+      </c>
+      <c r="L65" t="n">
+        <v>138.8971830985916</v>
+      </c>
+      <c r="M65" t="n">
+        <v>120</v>
+      </c>
+      <c r="N65" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="O65" t="n">
+        <v>180</v>
+      </c>
+      <c r="P65" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>99</v>
+      </c>
+      <c r="S65" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U65" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V65" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W65" t="n">
+        <v>61.92666666666667</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>03/04/2024</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>136.13</v>
+      </c>
+      <c r="D66" t="n">
+        <v>139.9583333333333</v>
+      </c>
+      <c r="E66" t="n">
+        <v>138.75</v>
+      </c>
+      <c r="F66" t="n">
+        <v>136</v>
+      </c>
+      <c r="G66" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H66" t="n">
+        <v>119.294375</v>
+      </c>
+      <c r="I66" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J66" t="n">
+        <v>65</v>
+      </c>
+      <c r="K66" t="n">
+        <v>106.9330817610063</v>
+      </c>
+      <c r="L66" t="n">
+        <v>131.8173394495413</v>
+      </c>
+      <c r="M66" t="n">
+        <v>120</v>
+      </c>
+      <c r="N66" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="O66" t="n">
+        <v>180</v>
+      </c>
+      <c r="P66" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>99</v>
+      </c>
+      <c r="S66" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U66" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V66" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W66" t="n">
+        <v>61.9175</v>
       </c>
     </row>
   </sheetData>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W66"/>
+  <dimension ref="A1:W90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,35 +551,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>02/01/2024</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>106.3</v>
+        <v>103</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>135</v>
-      </c>
-      <c r="G2" t="n">
-        <v>69</v>
-      </c>
-      <c r="H2" t="n">
-        <v>83.125</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
-        <v>68.39999999999999</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>105</v>
       </c>
-      <c r="N2" t="n">
-        <v>138.6</v>
-      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -587,14 +577,12 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>68.58888888888889</v>
+        <v>71.2</v>
       </c>
       <c r="V2" t="n">
-        <v>69.551</v>
-      </c>
-      <c r="W2" t="n">
-        <v>69.25</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -602,39 +590,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>03/01/2024</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>107.5726315789474</v>
-      </c>
-      <c r="D3" t="n">
-        <v>123.7</v>
-      </c>
+        <v>103.25</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>135</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>84.11111111111111</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>79.40909090909091</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>105</v>
-      </c>
-      <c r="N3" t="n">
-        <v>138.6</v>
-      </c>
+        <v>106.25</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -642,14 +618,12 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>68.3625</v>
+        <v>72.36666666666666</v>
       </c>
       <c r="V3" t="n">
-        <v>70.23888888888888</v>
-      </c>
-      <c r="W3" t="n">
-        <v>68.8</v>
-      </c>
+        <v>72.33333333333333</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -657,42 +631,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>04/01/2024</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>110.1666666666667</v>
-      </c>
-      <c r="D4" t="n">
-        <v>127</v>
-      </c>
-      <c r="E4" t="n">
-        <v>133.25</v>
-      </c>
+        <v>103.5</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G4" t="n">
-        <v>69</v>
-      </c>
-      <c r="H4" t="n">
-        <v>85.92999999999999</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>68.05500000000001</v>
+        <v>66.5</v>
       </c>
       <c r="K4" t="n">
-        <v>80.79400000000001</v>
+        <v>77</v>
       </c>
       <c r="L4" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="M4" t="n">
-        <v>97</v>
+        <v>104.25</v>
       </c>
       <c r="N4" t="n">
-        <v>138.6</v>
+        <v>132.75</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
@@ -701,14 +669,12 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>68.26875</v>
+        <v>71.67</v>
       </c>
       <c r="V4" t="n">
-        <v>70.55</v>
-      </c>
-      <c r="W4" t="n">
-        <v>70.5</v>
-      </c>
+        <v>72.33333333333333</v>
+      </c>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -716,42 +682,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>05/01/2024</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>110.7177272727273</v>
-      </c>
-      <c r="D5" t="n">
-        <v>126.6666666666667</v>
-      </c>
+        <v>105.3636363636364</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>133.25</v>
+        <v>124</v>
       </c>
       <c r="F5" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G5" t="n">
-        <v>69</v>
+        <v>69.25</v>
       </c>
       <c r="H5" t="n">
-        <v>86.98466666666667</v>
+        <v>79.33333333333333</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>68</v>
+        <v>66.5</v>
       </c>
       <c r="K5" t="n">
-        <v>81.3</v>
+        <v>77</v>
       </c>
       <c r="L5" t="n">
-        <v>94.25</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
-        <v>97</v>
+        <v>105.375</v>
       </c>
       <c r="N5" t="n">
-        <v>138.6</v>
+        <v>132.75</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
@@ -760,14 +724,12 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>67.01875</v>
+        <v>72.27692307692308</v>
       </c>
       <c r="V5" t="n">
-        <v>69.00909090909092</v>
-      </c>
-      <c r="W5" t="n">
-        <v>68</v>
-      </c>
+        <v>72.33333333333333</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -775,61 +737,57 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>114.1496428571429</v>
+        <v>107.2142857142857</v>
       </c>
       <c r="D6" t="n">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E6" t="n">
-        <v>137.995</v>
+        <v>125</v>
       </c>
       <c r="F6" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G6" t="n">
-        <v>69</v>
+        <v>69.25</v>
       </c>
       <c r="H6" t="n">
-        <v>88.643125</v>
-      </c>
-      <c r="I6" t="n">
-        <v>70</v>
-      </c>
+        <v>79.75</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>68</v>
+        <v>67.5</v>
       </c>
       <c r="K6" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L6" t="n">
-        <v>98.41416666666667</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
-        <v>97</v>
+        <v>105.375</v>
       </c>
       <c r="N6" t="n">
-        <v>138.6</v>
+        <v>132.75</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>68.37586206896552</v>
+        <v>71.81526315789473</v>
       </c>
       <c r="V6" t="n">
-        <v>70.75473684210526</v>
+        <v>72</v>
       </c>
       <c r="W6" t="n">
-        <v>70.4375</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -838,63 +796,59 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09/01/2024</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>123.7875</v>
+        <v>106.1</v>
       </c>
       <c r="D7" t="n">
-        <v>141</v>
+        <v>118.3333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>144.5</v>
+        <v>124</v>
       </c>
       <c r="F7" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G7" t="n">
-        <v>69</v>
+        <v>68.875</v>
       </c>
       <c r="H7" t="n">
-        <v>95.61658536585367</v>
-      </c>
-      <c r="I7" t="n">
-        <v>70</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>70.40454545454546</v>
+        <v>67.95</v>
       </c>
       <c r="K7" t="n">
-        <v>84.95</v>
+        <v>76</v>
       </c>
       <c r="L7" t="n">
-        <v>105.2714285714286</v>
+        <v>82</v>
       </c>
       <c r="M7" t="n">
-        <v>110</v>
+        <v>104.25</v>
       </c>
       <c r="N7" t="n">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>119.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>66.03888888888889</v>
+        <v>70.21428571428571</v>
       </c>
       <c r="V7" t="n">
-        <v>71.17966666666666</v>
+        <v>70.625</v>
       </c>
       <c r="W7" t="n">
-        <v>70.4375</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="8">
@@ -903,65 +857,59 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10/01/2024</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>124.8271111111111</v>
+        <v>106.94</v>
       </c>
       <c r="D8" t="n">
-        <v>139.7652941176471</v>
+        <v>119.65</v>
       </c>
       <c r="E8" t="n">
-        <v>144.6666666666667</v>
+        <v>127.3</v>
       </c>
       <c r="F8" t="n">
-        <v>149.51</v>
+        <v>130</v>
       </c>
       <c r="G8" t="n">
-        <v>68.5</v>
+        <v>70</v>
       </c>
       <c r="H8" t="n">
-        <v>96.73131147540983</v>
-      </c>
-      <c r="I8" t="n">
-        <v>70</v>
-      </c>
+        <v>79.66666666666667</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>70.9175</v>
+        <v>68</v>
       </c>
       <c r="K8" t="n">
-        <v>82.38</v>
+        <v>76</v>
       </c>
       <c r="L8" t="n">
-        <v>106.87375</v>
+        <v>82</v>
       </c>
       <c r="M8" t="n">
-        <v>159.325</v>
+        <v>104.25</v>
       </c>
       <c r="N8" t="n">
-        <v>174.825</v>
-      </c>
-      <c r="O8" t="n">
-        <v>174</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>119.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>64.41089285714285</v>
+        <v>72.09736842105262</v>
       </c>
       <c r="V8" t="n">
-        <v>69.38857142857142</v>
+        <v>71.75</v>
       </c>
       <c r="W8" t="n">
-        <v>69.13500000000001</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="9">
@@ -970,67 +918,59 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11/01/2024</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>117.5280769230769</v>
+        <v>107.4222222222222</v>
       </c>
       <c r="D9" t="n">
-        <v>136.9993333333333</v>
+        <v>116</v>
       </c>
       <c r="E9" t="n">
-        <v>141.8333333333333</v>
+        <v>127.3</v>
       </c>
       <c r="F9" t="n">
-        <v>145.5</v>
+        <v>130</v>
       </c>
       <c r="G9" t="n">
-        <v>68.5</v>
+        <v>70.55</v>
       </c>
       <c r="H9" t="n">
-        <v>90.24947368421053</v>
-      </c>
-      <c r="I9" t="n">
-        <v>70</v>
-      </c>
+        <v>80.75</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>69.05555555555556</v>
+        <v>68</v>
       </c>
       <c r="K9" t="n">
-        <v>79.57045454545454</v>
+        <v>76</v>
       </c>
       <c r="L9" t="n">
-        <v>100.9090909090909</v>
+        <v>82</v>
       </c>
       <c r="M9" t="n">
-        <v>159.325</v>
+        <v>106.5</v>
       </c>
       <c r="N9" t="n">
-        <v>174.825</v>
-      </c>
-      <c r="O9" t="n">
-        <v>174</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>99</v>
-      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>120.8333333333333</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.58125</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>64.58499999999999</v>
+        <v>74.65890909090909</v>
       </c>
       <c r="V9" t="n">
-        <v>67.6837837837838</v>
+        <v>73.5</v>
       </c>
       <c r="W9" t="n">
-        <v>68.1152</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="10">
@@ -1039,67 +979,59 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12/01/2024</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>123.0051282051282</v>
+        <v>107.8316666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>138.6666666666667</v>
+        <v>120</v>
       </c>
       <c r="E10" t="n">
-        <v>141.8333333333333</v>
+        <v>127</v>
       </c>
       <c r="F10" t="n">
-        <v>145.5</v>
+        <v>130</v>
       </c>
       <c r="G10" t="n">
-        <v>68.5</v>
+        <v>70.25</v>
       </c>
       <c r="H10" t="n">
-        <v>93.6430303030303</v>
-      </c>
-      <c r="I10" t="n">
-        <v>70</v>
-      </c>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>69.6225</v>
+        <v>69.5</v>
       </c>
       <c r="K10" t="n">
-        <v>82.19090909090909</v>
+        <v>76</v>
       </c>
       <c r="L10" t="n">
-        <v>105.5</v>
+        <v>82</v>
       </c>
       <c r="M10" t="n">
-        <v>106</v>
+        <v>103.1333333333333</v>
       </c>
       <c r="N10" t="n">
-        <v>153.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>174</v>
-      </c>
+        <v>141.5</v>
+      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="n">
-        <v>99</v>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>125</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.6</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>64.52</v>
+        <v>73.82222222222222</v>
       </c>
       <c r="V10" t="n">
-        <v>68.375</v>
+        <v>73.5</v>
       </c>
       <c r="W10" t="n">
-        <v>68.73166666666667</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="11">
@@ -1108,67 +1040,61 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15/01/2024</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>122.6718181818182</v>
+        <v>108.5</v>
       </c>
       <c r="D11" t="n">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E11" t="n">
-        <v>141.8333333333333</v>
+        <v>130</v>
       </c>
       <c r="F11" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G11" t="n">
-        <v>68.5</v>
+        <v>71</v>
       </c>
       <c r="H11" t="n">
-        <v>93.85981818181818</v>
+        <v>83</v>
       </c>
       <c r="I11" t="n">
-        <v>67.83799999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>69.34307692307692</v>
+        <v>69.5</v>
       </c>
       <c r="K11" t="n">
-        <v>82.565</v>
+        <v>76</v>
       </c>
       <c r="L11" t="n">
-        <v>105.5833333333333</v>
+        <v>82</v>
       </c>
       <c r="M11" t="n">
-        <v>106</v>
+        <v>102.325</v>
       </c>
       <c r="N11" t="n">
-        <v>155</v>
-      </c>
-      <c r="O11" t="n">
-        <v>174</v>
-      </c>
+        <v>141.5</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="n">
-        <v>99</v>
-      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>125</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>64.56206896551724</v>
+        <v>74.15833333333333</v>
       </c>
       <c r="V11" t="n">
-        <v>67.97999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="W11" t="n">
-        <v>68.22222222222223</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="12">
@@ -1177,67 +1103,61 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16/01/2024</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>117.7789795918367</v>
+        <v>108.5</v>
       </c>
       <c r="D12" t="n">
-        <v>136.5833333333333</v>
+        <v>121</v>
       </c>
       <c r="E12" t="n">
-        <v>139.3333333333333</v>
+        <v>130</v>
       </c>
       <c r="F12" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G12" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H12" t="n">
-        <v>89.77933333333334</v>
+        <v>82.5</v>
       </c>
       <c r="I12" t="n">
-        <v>67.83799999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>67.46428571428571</v>
+        <v>69.5</v>
       </c>
       <c r="K12" t="n">
-        <v>80.7590625</v>
+        <v>77.5</v>
       </c>
       <c r="L12" t="n">
-        <v>99.41466666666666</v>
+        <v>82</v>
       </c>
       <c r="M12" t="n">
-        <v>111</v>
+        <v>102.325</v>
       </c>
       <c r="N12" t="n">
-        <v>145</v>
-      </c>
-      <c r="O12" t="n">
-        <v>174</v>
-      </c>
+        <v>154.2</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="n">
-        <v>99</v>
-      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>119</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.5666666666666667</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>64.09027777777777</v>
+        <v>72.89999999999999</v>
       </c>
       <c r="V12" t="n">
-        <v>66.19466666666668</v>
+        <v>73.5</v>
       </c>
       <c r="W12" t="n">
-        <v>66.72851851851853</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="13">
@@ -1246,67 +1166,61 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>17/01/2024</t>
+          <t>18/12/2023</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>116.4174285714286</v>
+        <v>110.6818181818182</v>
       </c>
       <c r="D13" t="n">
-        <v>134.625</v>
+        <v>123</v>
       </c>
       <c r="E13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F13" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G13" t="n">
-        <v>67</v>
+        <v>71.46666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>88.87617647058823</v>
+        <v>84.5</v>
       </c>
       <c r="I13" t="n">
-        <v>67.83799999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>67.78571428571429</v>
+        <v>68</v>
       </c>
       <c r="K13" t="n">
-        <v>79.7769387755102</v>
+        <v>81</v>
       </c>
       <c r="L13" t="n">
-        <v>97.48</v>
+        <v>82</v>
       </c>
       <c r="M13" t="n">
-        <v>111</v>
+        <v>102.325</v>
       </c>
       <c r="N13" t="n">
-        <v>150.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>174</v>
-      </c>
+        <v>154.2</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="n">
-        <v>99</v>
-      </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>119</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.67375</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>63.6355</v>
+        <v>76.56812499999999</v>
       </c>
       <c r="V13" t="n">
-        <v>66.32871794871795</v>
+        <v>74.714</v>
       </c>
       <c r="W13" t="n">
-        <v>66.75833333333334</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -1315,67 +1229,61 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>18/01/2024</t>
+          <t>19/12/2023</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>111.5074576271186</v>
+        <v>107.5625</v>
       </c>
       <c r="D14" t="n">
-        <v>130.9282608695652</v>
+        <v>122.9166666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>136.0666666666667</v>
+        <v>130</v>
       </c>
       <c r="F14" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G14" t="n">
-        <v>67</v>
+        <v>69.97777777777777</v>
       </c>
       <c r="H14" t="n">
-        <v>85.05632352941177</v>
+        <v>80.755</v>
       </c>
       <c r="I14" t="n">
-        <v>67.83799999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>66.80833333333334</v>
+        <v>68</v>
       </c>
       <c r="K14" t="n">
-        <v>77.65283333333333</v>
+        <v>77.96666666666667</v>
       </c>
       <c r="L14" t="n">
-        <v>92.89999999999999</v>
+        <v>84</v>
       </c>
       <c r="M14" t="n">
-        <v>103</v>
+        <v>102.325</v>
       </c>
       <c r="N14" t="n">
-        <v>145.9333333333333</v>
-      </c>
-      <c r="O14" t="n">
-        <v>174</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="n">
-        <v>99</v>
-      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>119</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.5555555555555556</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>62.584375</v>
+        <v>71.16441176470589</v>
       </c>
       <c r="V14" t="n">
-        <v>64.53727272727272</v>
+        <v>71.25</v>
       </c>
       <c r="W14" t="n">
-        <v>65.87709677419355</v>
+        <v>70.41666666666667</v>
       </c>
     </row>
     <row r="15">
@@ -1384,67 +1292,61 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>19/01/2024</t>
+          <t>20/12/2023</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>114.1885714285714</v>
+        <v>109.0555555555556</v>
       </c>
       <c r="D15" t="n">
-        <v>123.4</v>
+        <v>120.5</v>
       </c>
       <c r="E15" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F15" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G15" t="n">
-        <v>67</v>
+        <v>71.5</v>
       </c>
       <c r="H15" t="n">
-        <v>86.12666666666668</v>
+        <v>82.93625</v>
       </c>
       <c r="I15" t="n">
-        <v>67.83799999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>66.90416666666667</v>
+        <v>68.88888888888889</v>
       </c>
       <c r="K15" t="n">
-        <v>77.41666666666667</v>
+        <v>77.96666666666667</v>
       </c>
       <c r="L15" t="n">
-        <v>95.25</v>
+        <v>84</v>
       </c>
       <c r="M15" t="n">
-        <v>108.5</v>
+        <v>107</v>
       </c>
       <c r="N15" t="n">
-        <v>145.9333333333333</v>
-      </c>
-      <c r="O15" t="n">
-        <v>174</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="n">
-        <v>99</v>
-      </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>119</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.4285714285714285</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>62.15</v>
+        <v>72.9825</v>
       </c>
       <c r="V15" t="n">
-        <v>64.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="W15" t="n">
-        <v>65.14285714285714</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -1453,67 +1355,61 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>22/01/2024</t>
+          <t>21/12/2023</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>119.8415789473684</v>
+        <v>106.3875</v>
       </c>
       <c r="D16" t="n">
-        <v>135.5833333333333</v>
+        <v>121.75</v>
       </c>
       <c r="E16" t="n">
-        <v>140.5</v>
+        <v>131</v>
       </c>
       <c r="F16" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G16" t="n">
-        <v>67</v>
+        <v>70.83333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>90.68212765957448</v>
+        <v>82.7</v>
       </c>
       <c r="I16" t="n">
-        <v>67.83799999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>67.98076923076923</v>
+        <v>68.875</v>
       </c>
       <c r="K16" t="n">
-        <v>80.73218749999999</v>
+        <v>80</v>
       </c>
       <c r="L16" t="n">
-        <v>99.001875</v>
+        <v>84</v>
       </c>
       <c r="M16" t="n">
-        <v>108.5</v>
+        <v>107</v>
       </c>
       <c r="N16" t="n">
-        <v>151</v>
-      </c>
-      <c r="O16" t="n">
-        <v>174</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="n">
-        <v>99</v>
-      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>119</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.6333333333333333</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>63</v>
+        <v>72.28571428571429</v>
       </c>
       <c r="V16" t="n">
-        <v>64.60640000000001</v>
+        <v>72</v>
       </c>
       <c r="W16" t="n">
-        <v>65.69642857142857</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -1522,67 +1418,61 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>23/01/2024</t>
+          <t>22/12/2023</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>123.84</v>
+        <v>106.4444444444444</v>
       </c>
       <c r="D17" t="n">
-        <v>139.1428571428571</v>
+        <v>118.5</v>
       </c>
       <c r="E17" t="n">
-        <v>141.5</v>
+        <v>130</v>
       </c>
       <c r="F17" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G17" t="n">
-        <v>68.5</v>
+        <v>70.83333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>96.72918367346938</v>
+        <v>83.47555555555556</v>
       </c>
       <c r="I17" t="n">
-        <v>67.83799999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>68.72222222222223</v>
+        <v>69.16666666666667</v>
       </c>
       <c r="K17" t="n">
-        <v>84.36428571428571</v>
+        <v>79.75</v>
       </c>
       <c r="L17" t="n">
-        <v>107.1055172413793</v>
+        <v>84</v>
       </c>
       <c r="M17" t="n">
-        <v>108.5</v>
+        <v>107.5</v>
       </c>
       <c r="N17" t="n">
-        <v>158</v>
-      </c>
-      <c r="O17" t="n">
-        <v>174</v>
-      </c>
+        <v>138.6</v>
+      </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="n">
-        <v>99</v>
-      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>119</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.7</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>62.17285714285714</v>
+        <v>73.31588235294117</v>
       </c>
       <c r="V17" t="n">
-        <v>65.325</v>
+        <v>71.75</v>
       </c>
       <c r="W17" t="n">
-        <v>66.55833333333334</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -1591,69 +1481,61 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>24/01/2024</t>
+          <t>26/12/2023</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>125.218125</v>
+        <v>106.4333333333333</v>
       </c>
       <c r="D18" t="n">
-        <v>140.8125</v>
+        <v>117.4666666666667</v>
       </c>
       <c r="E18" t="n">
-        <v>145</v>
+        <v>121.8</v>
       </c>
       <c r="F18" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G18" t="n">
-        <v>64.75</v>
+        <v>70.83333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>95.73343749999999</v>
+        <v>83.995</v>
       </c>
       <c r="I18" t="n">
-        <v>67.83799999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>67</v>
+        <v>69.16666666666667</v>
       </c>
       <c r="K18" t="n">
-        <v>83.93205128205128</v>
+        <v>79.75</v>
       </c>
       <c r="L18" t="n">
-        <v>107.6188888888889</v>
+        <v>84</v>
       </c>
       <c r="M18" t="n">
-        <v>108.5</v>
+        <v>107.5</v>
       </c>
       <c r="N18" t="n">
-        <v>158</v>
-      </c>
-      <c r="O18" t="n">
-        <v>174</v>
-      </c>
-      <c r="P18" t="n">
-        <v>181.25</v>
-      </c>
+        <v>138.6</v>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="n">
-        <v>99</v>
-      </c>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>119</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.625</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>61.98333333333333</v>
+        <v>73.16666666666667</v>
       </c>
       <c r="V18" t="n">
-        <v>64.2</v>
+        <v>71.75</v>
       </c>
       <c r="W18" t="n">
-        <v>65.33333333333333</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -1662,71 +1544,61 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>25/01/2024</t>
+          <t>27/12/2023</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>128.2357692307692</v>
+        <v>105.9375</v>
       </c>
       <c r="D19" t="n">
-        <v>142.1371428571429</v>
+        <v>119.03</v>
       </c>
       <c r="E19" t="n">
-        <v>143.5725</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="F19" t="n">
-        <v>148.5166666666667</v>
+        <v>130</v>
       </c>
       <c r="G19" t="n">
-        <v>64.75</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>99.5244776119403</v>
+        <v>83.995</v>
       </c>
       <c r="I19" t="n">
-        <v>67.83799999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>68.33333333333333</v>
+        <v>69</v>
       </c>
       <c r="K19" t="n">
-        <v>85.8155</v>
+        <v>79</v>
       </c>
       <c r="L19" t="n">
-        <v>113.0117948717949</v>
+        <v>84</v>
       </c>
       <c r="M19" t="n">
-        <v>108.5</v>
+        <v>107.5</v>
       </c>
       <c r="N19" t="n">
-        <v>158</v>
-      </c>
-      <c r="O19" t="n">
-        <v>171</v>
-      </c>
-      <c r="P19" t="n">
-        <v>173</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>174</v>
-      </c>
-      <c r="R19" t="n">
-        <v>99</v>
-      </c>
+        <v>138.6</v>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>119</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.575</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>62</v>
+        <v>73.1875</v>
       </c>
       <c r="V19" t="n">
-        <v>64.13333333333334</v>
+        <v>72.80769230769231</v>
       </c>
       <c r="W19" t="n">
-        <v>65.25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -1735,71 +1607,61 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>26/01/2024</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>135.400985915493</v>
+        <v>106</v>
       </c>
       <c r="D20" t="n">
-        <v>148.9295238095238</v>
+        <v>120.5</v>
       </c>
       <c r="E20" t="n">
-        <v>152</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="F20" t="n">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="G20" t="n">
-        <v>64.75</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>111.2851572327044</v>
+        <v>83.995</v>
       </c>
       <c r="I20" t="n">
-        <v>67.83799999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>69.905</v>
+        <v>69</v>
       </c>
       <c r="K20" t="n">
-        <v>91.09575757575757</v>
+        <v>79</v>
       </c>
       <c r="L20" t="n">
-        <v>125.8727884615385</v>
+        <v>84</v>
       </c>
       <c r="M20" t="n">
-        <v>108.5</v>
+        <v>107.5</v>
       </c>
       <c r="N20" t="n">
-        <v>168</v>
-      </c>
-      <c r="O20" t="n">
-        <v>183.25</v>
-      </c>
-      <c r="P20" t="n">
-        <v>173</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>174</v>
-      </c>
-      <c r="R20" t="n">
-        <v>99</v>
-      </c>
+        <v>138.6</v>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>119</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.66875</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>62</v>
+        <v>72.27000000000001</v>
       </c>
       <c r="V20" t="n">
-        <v>64.7</v>
+        <v>72.125</v>
       </c>
       <c r="W20" t="n">
-        <v>66.995</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -1808,71 +1670,61 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>27/01/2024</t>
+          <t>29/12/2023</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="D21" t="n">
-        <v>148.9295238095238</v>
+        <v>125</v>
       </c>
       <c r="E21" t="n">
-        <v>152</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="F21" t="n">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="G21" t="n">
-        <v>64.75</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>111.2851572327044</v>
+        <v>83.995</v>
       </c>
       <c r="I21" t="n">
-        <v>67.83799999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>69.905</v>
+        <v>69</v>
       </c>
       <c r="K21" t="n">
-        <v>91.09575757575757</v>
+        <v>79</v>
       </c>
       <c r="L21" t="n">
-        <v>125.8727884615385</v>
+        <v>84</v>
       </c>
       <c r="M21" t="n">
-        <v>108.5</v>
+        <v>107.5</v>
       </c>
       <c r="N21" t="n">
-        <v>168</v>
-      </c>
-      <c r="O21" t="n">
-        <v>183.25</v>
-      </c>
-      <c r="P21" t="n">
-        <v>173</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>174</v>
-      </c>
-      <c r="R21" t="n">
-        <v>99</v>
-      </c>
+        <v>138.6</v>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>119</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.66875</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>62</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V21" t="n">
-        <v>64.7</v>
+        <v>71.4375</v>
       </c>
       <c r="W21" t="n">
-        <v>66.995</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -1881,71 +1733,61 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>29/01/2024</t>
+          <t>02/01/2024</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>139.2049206349206</v>
+        <v>106.3</v>
       </c>
       <c r="D22" t="n">
-        <v>149.8333333333333</v>
+        <v>125</v>
       </c>
       <c r="E22" t="n">
-        <v>152.3</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="F22" t="n">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="G22" t="n">
-        <v>64.75</v>
+        <v>69</v>
       </c>
       <c r="H22" t="n">
-        <v>110.9675</v>
+        <v>83.125</v>
       </c>
       <c r="I22" t="n">
-        <v>67.83799999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>69.94333333333334</v>
+        <v>68.39999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>92.2030303030303</v>
+        <v>79</v>
       </c>
       <c r="L22" t="n">
-        <v>130.7754716981132</v>
+        <v>84</v>
       </c>
       <c r="M22" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="N22" t="n">
-        <v>175</v>
-      </c>
-      <c r="O22" t="n">
-        <v>185</v>
-      </c>
-      <c r="P22" t="n">
-        <v>188</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>174</v>
-      </c>
-      <c r="R22" t="n">
-        <v>99</v>
-      </c>
+        <v>138.6</v>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
-        <v>119</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.6863636363636364</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>62.075</v>
+        <v>68.58888888888889</v>
       </c>
       <c r="V22" t="n">
-        <v>64.64</v>
+        <v>69.551</v>
       </c>
       <c r="W22" t="n">
-        <v>66.02500000000001</v>
+        <v>69.25</v>
       </c>
     </row>
     <row r="23">
@@ -1954,71 +1796,61 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>30/01/2024</t>
+          <t>03/01/2024</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>137.0495555555555</v>
+        <v>107.5726315789474</v>
       </c>
       <c r="D23" t="n">
-        <v>144.8125</v>
+        <v>123.7</v>
       </c>
       <c r="E23" t="n">
-        <v>148.125</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="F23" t="n">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="G23" t="n">
-        <v>64.75</v>
+        <v>69</v>
       </c>
       <c r="H23" t="n">
-        <v>107.7653947368421</v>
+        <v>84.11111111111111</v>
       </c>
       <c r="I23" t="n">
-        <v>67.83799999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>69.15323529411765</v>
+        <v>64.5</v>
       </c>
       <c r="K23" t="n">
-        <v>88.65657142857143</v>
+        <v>79.40909090909091</v>
       </c>
       <c r="L23" t="n">
-        <v>127.7072413793103</v>
+        <v>84</v>
       </c>
       <c r="M23" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="N23" t="n">
-        <v>175</v>
-      </c>
-      <c r="O23" t="n">
-        <v>185</v>
-      </c>
-      <c r="P23" t="n">
-        <v>188</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>174</v>
-      </c>
-      <c r="R23" t="n">
-        <v>99</v>
-      </c>
+        <v>138.6</v>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>119</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.6333333333333333</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>62</v>
+        <v>68.3625</v>
       </c>
       <c r="V23" t="n">
-        <v>63.73363636363637</v>
+        <v>70.23888888888888</v>
       </c>
       <c r="W23" t="n">
-        <v>66.5</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="24">
@@ -2027,71 +1859,61 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>31/01/2024</t>
+          <t>04/01/2024</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>136.2977272727273</v>
+        <v>110.1666666666667</v>
       </c>
       <c r="D24" t="n">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E24" t="n">
-        <v>148.3333333333333</v>
+        <v>133.25</v>
       </c>
       <c r="F24" t="n">
-        <v>150.0066666666667</v>
+        <v>135</v>
       </c>
       <c r="G24" t="n">
-        <v>64.75</v>
+        <v>69</v>
       </c>
       <c r="H24" t="n">
-        <v>106.7851219512195</v>
+        <v>85.92999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>67.83799999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>68.97057142857142</v>
+        <v>68.05500000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>88.10166666666667</v>
+        <v>80.79400000000001</v>
       </c>
       <c r="L24" t="n">
-        <v>126.2587804878049</v>
+        <v>90</v>
       </c>
       <c r="M24" t="n">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="N24" t="n">
-        <v>170.75</v>
-      </c>
-      <c r="O24" t="n">
-        <v>185</v>
-      </c>
-      <c r="P24" t="n">
-        <v>188</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>174</v>
-      </c>
-      <c r="R24" t="n">
-        <v>99</v>
-      </c>
+        <v>138.6</v>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.6115625</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>63.06</v>
+        <v>68.26875</v>
       </c>
       <c r="V24" t="n">
-        <v>64.26666666666667</v>
+        <v>70.55</v>
       </c>
       <c r="W24" t="n">
-        <v>66.42761904761905</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="25">
@@ -2100,71 +1922,61 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>05/01/2024</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>137.2878947368421</v>
+        <v>110.7177272727273</v>
       </c>
       <c r="D25" t="n">
-        <v>135.5</v>
+        <v>126.6666666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>148</v>
+        <v>133.25</v>
       </c>
       <c r="F25" t="n">
-        <v>150.0066666666667</v>
+        <v>135</v>
       </c>
       <c r="G25" t="n">
-        <v>64.75</v>
+        <v>69</v>
       </c>
       <c r="H25" t="n">
-        <v>109.2476811594203</v>
+        <v>86.98466666666667</v>
       </c>
       <c r="I25" t="n">
-        <v>67.83799999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>70.49163265306123</v>
+        <v>68</v>
       </c>
       <c r="K25" t="n">
-        <v>89.99432432432432</v>
+        <v>81.3</v>
       </c>
       <c r="L25" t="n">
-        <v>128.4413461538462</v>
+        <v>94.25</v>
       </c>
       <c r="M25" t="n">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="N25" t="n">
-        <v>174</v>
-      </c>
-      <c r="O25" t="n">
-        <v>182</v>
-      </c>
-      <c r="P25" t="n">
-        <v>188</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>174</v>
-      </c>
-      <c r="R25" t="n">
-        <v>99</v>
-      </c>
+        <v>138.6</v>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.5764077669902913</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>62</v>
+        <v>67.01875</v>
       </c>
       <c r="V25" t="n">
-        <v>64.9375</v>
+        <v>69.00909090909092</v>
       </c>
       <c r="W25" t="n">
-        <v>65.62857142857142</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
@@ -2173,71 +1985,63 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>143.1755102040816</v>
+        <v>114.1496428571429</v>
       </c>
       <c r="D26" t="n">
-        <v>150.515</v>
+        <v>131</v>
       </c>
       <c r="E26" t="n">
-        <v>150.8333333333333</v>
+        <v>137.995</v>
       </c>
       <c r="F26" t="n">
-        <v>151.125</v>
+        <v>135</v>
       </c>
       <c r="G26" t="n">
-        <v>64.75</v>
+        <v>69</v>
       </c>
       <c r="H26" t="n">
-        <v>115.3198765432099</v>
+        <v>88.643125</v>
       </c>
       <c r="I26" t="n">
-        <v>67.83799999999999</v>
+        <v>70</v>
       </c>
       <c r="J26" t="n">
-        <v>70.52352941176471</v>
+        <v>68</v>
       </c>
       <c r="K26" t="n">
-        <v>95.02445945945946</v>
+        <v>81</v>
       </c>
       <c r="L26" t="n">
-        <v>134.3290607734807</v>
+        <v>98.41416666666667</v>
       </c>
       <c r="M26" t="n">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="N26" t="n">
-        <v>174</v>
-      </c>
-      <c r="O26" t="n">
-        <v>185.75</v>
-      </c>
-      <c r="P26" t="n">
-        <v>188</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>174</v>
-      </c>
-      <c r="R26" t="n">
-        <v>99</v>
-      </c>
+        <v>138.6</v>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>136.5</v>
+        <v>110</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6796153846153846</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>62</v>
+        <v>68.37586206896552</v>
       </c>
       <c r="V26" t="n">
-        <v>64</v>
+        <v>70.75473684210526</v>
       </c>
       <c r="W26" t="n">
-        <v>66</v>
+        <v>70.4375</v>
       </c>
     </row>
     <row r="27">
@@ -2246,71 +2050,63 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>05/02/2024</t>
+          <t>09/01/2024</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>158.7576315789474</v>
+        <v>123.7875</v>
       </c>
       <c r="D27" t="n">
-        <v>160.18125</v>
+        <v>141</v>
       </c>
       <c r="E27" t="n">
-        <v>158.6125</v>
+        <v>144.5</v>
       </c>
       <c r="F27" t="n">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="G27" t="n">
-        <v>64.75</v>
+        <v>69</v>
       </c>
       <c r="H27" t="n">
-        <v>134.9989583333333</v>
+        <v>95.61658536585367</v>
       </c>
       <c r="I27" t="n">
-        <v>67.83799999999999</v>
+        <v>70</v>
       </c>
       <c r="J27" t="n">
-        <v>74.10395833333332</v>
+        <v>70.40454545454546</v>
       </c>
       <c r="K27" t="n">
-        <v>113.6128099173554</v>
+        <v>84.95</v>
       </c>
       <c r="L27" t="n">
-        <v>158.9619230769231</v>
+        <v>105.2714285714286</v>
       </c>
       <c r="M27" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N27" t="n">
-        <v>197</v>
-      </c>
-      <c r="O27" t="n">
-        <v>197</v>
-      </c>
-      <c r="P27" t="n">
-        <v>199</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>174</v>
-      </c>
-      <c r="R27" t="n">
-        <v>99</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>136.5</v>
+        <v>119.5</v>
       </c>
       <c r="T27" t="n">
-        <v>0.4512962962962963</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>60</v>
+        <v>66.03888888888889</v>
       </c>
       <c r="V27" t="n">
-        <v>63.5</v>
+        <v>71.17966666666666</v>
       </c>
       <c r="W27" t="n">
-        <v>68.14583333333333</v>
+        <v>70.4375</v>
       </c>
     </row>
     <row r="28">
@@ -2319,71 +2115,65 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>06/02/2024</t>
+          <t>10/01/2024</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>175.6537704918033</v>
+        <v>124.8271111111111</v>
       </c>
       <c r="D28" t="n">
-        <v>169.0621621621622</v>
+        <v>139.7652941176471</v>
       </c>
       <c r="E28" t="n">
-        <v>166.4045454545455</v>
+        <v>144.6666666666667</v>
       </c>
       <c r="F28" t="n">
-        <v>158</v>
+        <v>149.51</v>
       </c>
       <c r="G28" t="n">
-        <v>64.75</v>
+        <v>68.5</v>
       </c>
       <c r="H28" t="n">
-        <v>166.6695726495726</v>
+        <v>96.73131147540983</v>
       </c>
       <c r="I28" t="n">
-        <v>67.83799999999999</v>
+        <v>70</v>
       </c>
       <c r="J28" t="n">
-        <v>76.63704918032786</v>
+        <v>70.9175</v>
       </c>
       <c r="K28" t="n">
-        <v>146.1977659574468</v>
+        <v>82.38</v>
       </c>
       <c r="L28" t="n">
-        <v>184.10796875</v>
+        <v>106.87375</v>
       </c>
       <c r="M28" t="n">
-        <v>120</v>
+        <v>159.325</v>
       </c>
       <c r="N28" t="n">
-        <v>197</v>
+        <v>174.825</v>
       </c>
       <c r="O28" t="n">
-        <v>197</v>
-      </c>
-      <c r="P28" t="n">
-        <v>199</v>
-      </c>
-      <c r="Q28" t="n">
         <v>174</v>
       </c>
-      <c r="R28" t="n">
-        <v>99</v>
-      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="n">
-        <v>200</v>
+        <v>119.5</v>
       </c>
       <c r="T28" t="n">
-        <v>0.6175757575757576</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>60</v>
+        <v>64.41089285714285</v>
       </c>
       <c r="V28" t="n">
-        <v>63.66666666666666</v>
+        <v>69.38857142857142</v>
       </c>
       <c r="W28" t="n">
-        <v>67.5</v>
+        <v>69.13500000000001</v>
       </c>
     </row>
     <row r="29">
@@ -2392,71 +2182,67 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>11/01/2024</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>173.07</v>
+        <v>117.5280769230769</v>
       </c>
       <c r="D29" t="n">
-        <v>164.275</v>
+        <v>136.9993333333333</v>
       </c>
       <c r="E29" t="n">
-        <v>160</v>
+        <v>141.8333333333333</v>
       </c>
       <c r="F29" t="n">
-        <v>158</v>
+        <v>145.5</v>
       </c>
       <c r="G29" t="n">
-        <v>64.75</v>
+        <v>68.5</v>
       </c>
       <c r="H29" t="n">
-        <v>157.9772093023256</v>
+        <v>90.24947368421053</v>
       </c>
       <c r="I29" t="n">
-        <v>67.83799999999999</v>
+        <v>70</v>
       </c>
       <c r="J29" t="n">
-        <v>73.33879999999999</v>
+        <v>69.05555555555556</v>
       </c>
       <c r="K29" t="n">
-        <v>140.0048905109489</v>
+        <v>79.57045454545454</v>
       </c>
       <c r="L29" t="n">
-        <v>179.4702197802198</v>
+        <v>100.9090909090909</v>
       </c>
       <c r="M29" t="n">
-        <v>120</v>
+        <v>159.325</v>
       </c>
       <c r="N29" t="n">
-        <v>213</v>
+        <v>174.825</v>
       </c>
       <c r="O29" t="n">
-        <v>197</v>
-      </c>
-      <c r="P29" t="n">
-        <v>199</v>
-      </c>
-      <c r="Q29" t="n">
         <v>174</v>
       </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
         <v>99</v>
       </c>
       <c r="S29" t="n">
-        <v>200</v>
+        <v>120.8333333333333</v>
       </c>
       <c r="T29" t="n">
-        <v>0.5236585365853659</v>
+        <v>0.58125</v>
       </c>
       <c r="U29" t="n">
-        <v>60</v>
+        <v>64.58499999999999</v>
       </c>
       <c r="V29" t="n">
-        <v>63.33</v>
+        <v>67.6837837837838</v>
       </c>
       <c r="W29" t="n">
-        <v>65.752</v>
+        <v>68.1152</v>
       </c>
     </row>
     <row r="30">
@@ -2465,71 +2251,67 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>12/01/2024</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>168.5291111111111</v>
+        <v>123.0051282051282</v>
       </c>
       <c r="D30" t="n">
-        <v>158.3928571428571</v>
+        <v>138.6666666666667</v>
       </c>
       <c r="E30" t="n">
-        <v>155</v>
+        <v>141.8333333333333</v>
       </c>
       <c r="F30" t="n">
-        <v>155</v>
+        <v>145.5</v>
       </c>
       <c r="G30" t="n">
-        <v>64.75</v>
+        <v>68.5</v>
       </c>
       <c r="H30" t="n">
-        <v>157.9139393939394</v>
+        <v>93.6430303030303</v>
       </c>
       <c r="I30" t="n">
-        <v>67.83799999999999</v>
+        <v>70</v>
       </c>
       <c r="J30" t="n">
-        <v>75.88549019607842</v>
+        <v>69.6225</v>
       </c>
       <c r="K30" t="n">
-        <v>138.9766666666667</v>
+        <v>82.19090909090909</v>
       </c>
       <c r="L30" t="n">
-        <v>177.5528787878788</v>
+        <v>105.5</v>
       </c>
       <c r="M30" t="n">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="N30" t="n">
-        <v>213</v>
+        <v>153.5</v>
       </c>
       <c r="O30" t="n">
-        <v>197</v>
-      </c>
-      <c r="P30" t="n">
-        <v>199</v>
-      </c>
-      <c r="Q30" t="n">
         <v>174</v>
       </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
         <v>99</v>
       </c>
       <c r="S30" t="n">
-        <v>194.5</v>
+        <v>125</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3192307692307693</v>
+        <v>0.6</v>
       </c>
       <c r="U30" t="n">
-        <v>60</v>
+        <v>64.52</v>
       </c>
       <c r="V30" t="n">
-        <v>63.69923076923077</v>
+        <v>68.375</v>
       </c>
       <c r="W30" t="n">
-        <v>65</v>
+        <v>68.73166666666667</v>
       </c>
     </row>
     <row r="31">
@@ -2538,71 +2320,67 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>15/01/2024</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>163.4818181818182</v>
+        <v>122.6718181818182</v>
       </c>
       <c r="D31" t="n">
-        <v>153.75</v>
+        <v>140</v>
       </c>
       <c r="E31" t="n">
-        <v>154</v>
+        <v>141.8333333333333</v>
       </c>
       <c r="F31" t="n">
-        <v>154.25</v>
+        <v>145</v>
       </c>
       <c r="G31" t="n">
-        <v>64.75</v>
+        <v>68.5</v>
       </c>
       <c r="H31" t="n">
-        <v>154.9448148148148</v>
+        <v>93.85981818181818</v>
       </c>
       <c r="I31" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>74.9148275862069</v>
+        <v>69.34307692307692</v>
       </c>
       <c r="K31" t="n">
-        <v>135.4209433962264</v>
+        <v>82.565</v>
       </c>
       <c r="L31" t="n">
-        <v>174.2733333333333</v>
+        <v>105.5833333333333</v>
       </c>
       <c r="M31" t="n">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="N31" t="n">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="O31" t="n">
-        <v>197</v>
-      </c>
-      <c r="P31" t="n">
-        <v>199</v>
-      </c>
-      <c r="Q31" t="n">
         <v>174</v>
       </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
         <v>99</v>
       </c>
       <c r="S31" t="n">
-        <v>194.5</v>
+        <v>125</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3192307692307693</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>64.48999999999999</v>
+        <v>64.56206896551724</v>
       </c>
       <c r="V31" t="n">
-        <v>63.09111111111112</v>
+        <v>67.97999999999999</v>
       </c>
       <c r="W31" t="n">
-        <v>66.08333333333333</v>
+        <v>68.22222222222223</v>
       </c>
     </row>
     <row r="32">
@@ -2611,71 +2389,67 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>14/02/2024</t>
+          <t>16/01/2024</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>157.709375</v>
+        <v>117.7789795918367</v>
       </c>
       <c r="D32" t="n">
-        <v>148.875</v>
+        <v>136.5833333333333</v>
       </c>
       <c r="E32" t="n">
-        <v>154</v>
+        <v>139.3333333333333</v>
       </c>
       <c r="F32" t="n">
-        <v>154.25</v>
+        <v>145</v>
       </c>
       <c r="G32" t="n">
-        <v>64.75</v>
+        <v>66</v>
       </c>
       <c r="H32" t="n">
-        <v>147.1722222222222</v>
+        <v>89.77933333333334</v>
       </c>
       <c r="I32" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>74.16111111111111</v>
+        <v>67.46428571428571</v>
       </c>
       <c r="K32" t="n">
-        <v>128.6016666666667</v>
+        <v>80.7590625</v>
       </c>
       <c r="L32" t="n">
-        <v>167.19046875</v>
+        <v>99.41466666666666</v>
       </c>
       <c r="M32" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="N32" t="n">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c r="O32" t="n">
-        <v>197</v>
-      </c>
-      <c r="P32" t="n">
-        <v>199</v>
-      </c>
-      <c r="Q32" t="n">
         <v>174</v>
       </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
         <v>99</v>
       </c>
       <c r="S32" t="n">
-        <v>194.5</v>
+        <v>119</v>
       </c>
       <c r="T32" t="n">
-        <v>0.3192307692307693</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="U32" t="n">
-        <v>64.48999999999999</v>
+        <v>64.09027777777777</v>
       </c>
       <c r="V32" t="n">
-        <v>62.57000000000001</v>
+        <v>66.19466666666668</v>
       </c>
       <c r="W32" t="n">
-        <v>66.08333333333333</v>
+        <v>66.72851851851853</v>
       </c>
     </row>
     <row r="33">
@@ -2684,71 +2458,67 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>15/02/2024</t>
+          <t>17/01/2024</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>167.3490566037736</v>
+        <v>116.4174285714286</v>
       </c>
       <c r="D33" t="n">
-        <v>158.1625</v>
+        <v>134.625</v>
       </c>
       <c r="E33" t="n">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F33" t="n">
-        <v>154.25</v>
+        <v>145</v>
       </c>
       <c r="G33" t="n">
-        <v>64.75</v>
+        <v>67</v>
       </c>
       <c r="H33" t="n">
-        <v>158.4319444444444</v>
+        <v>88.87617647058823</v>
       </c>
       <c r="I33" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>75.8592</v>
+        <v>67.78571428571429</v>
       </c>
       <c r="K33" t="n">
-        <v>136.0265100671141</v>
+        <v>79.7769387755102</v>
       </c>
       <c r="L33" t="n">
-        <v>179.9542857142857</v>
+        <v>97.48</v>
       </c>
       <c r="M33" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="N33" t="n">
-        <v>213</v>
+        <v>150.5</v>
       </c>
       <c r="O33" t="n">
-        <v>197</v>
-      </c>
-      <c r="P33" t="n">
-        <v>199</v>
-      </c>
-      <c r="Q33" t="n">
         <v>174</v>
       </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
         <v>99</v>
       </c>
       <c r="S33" t="n">
-        <v>194.5</v>
+        <v>119</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3192307692307693</v>
+        <v>0.67375</v>
       </c>
       <c r="U33" t="n">
-        <v>64.48999999999999</v>
+        <v>63.6355</v>
       </c>
       <c r="V33" t="n">
-        <v>63.33333333333334</v>
+        <v>66.32871794871795</v>
       </c>
       <c r="W33" t="n">
-        <v>65</v>
+        <v>66.75833333333334</v>
       </c>
     </row>
     <row r="34">
@@ -2757,71 +2527,67 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16/02/2024</t>
+          <t>18/01/2024</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>173.6476923076923</v>
+        <v>111.5074576271186</v>
       </c>
       <c r="D34" t="n">
-        <v>159.651</v>
+        <v>130.9282608695652</v>
       </c>
       <c r="E34" t="n">
-        <v>156.8</v>
+        <v>136.0666666666667</v>
       </c>
       <c r="F34" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G34" t="n">
-        <v>64.75</v>
+        <v>67</v>
       </c>
       <c r="H34" t="n">
-        <v>164.5596</v>
+        <v>85.05632352941177</v>
       </c>
       <c r="I34" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>77.45294117647059</v>
+        <v>66.80833333333334</v>
       </c>
       <c r="K34" t="n">
-        <v>146.2514503816794</v>
+        <v>77.65283333333333</v>
       </c>
       <c r="L34" t="n">
-        <v>186.4590909090909</v>
+        <v>92.89999999999999</v>
       </c>
       <c r="M34" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="N34" t="n">
-        <v>209</v>
+        <v>145.9333333333333</v>
       </c>
       <c r="O34" t="n">
-        <v>197</v>
-      </c>
-      <c r="P34" t="n">
-        <v>199</v>
-      </c>
-      <c r="Q34" t="n">
         <v>174</v>
       </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="n">
         <v>99</v>
       </c>
       <c r="S34" t="n">
-        <v>194.5</v>
+        <v>119</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3192307692307693</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="U34" t="n">
-        <v>64.48999999999999</v>
+        <v>62.584375</v>
       </c>
       <c r="V34" t="n">
-        <v>62.58222222222222</v>
+        <v>64.53727272727272</v>
       </c>
       <c r="W34" t="n">
-        <v>65</v>
+        <v>65.87709677419355</v>
       </c>
     </row>
     <row r="35">
@@ -2830,71 +2596,67 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>19/02/2024</t>
+          <t>19/01/2024</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>170.8975</v>
+        <v>114.1885714285714</v>
       </c>
       <c r="D35" t="n">
-        <v>159</v>
+        <v>123.4</v>
       </c>
       <c r="E35" t="n">
-        <v>153.75</v>
+        <v>135</v>
       </c>
       <c r="F35" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G35" t="n">
-        <v>64.75</v>
+        <v>67</v>
       </c>
       <c r="H35" t="n">
-        <v>159.7632</v>
+        <v>86.12666666666668</v>
       </c>
       <c r="I35" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>76.13925925925926</v>
+        <v>66.90416666666667</v>
       </c>
       <c r="K35" t="n">
-        <v>139.6658536585366</v>
+        <v>77.41666666666667</v>
       </c>
       <c r="L35" t="n">
-        <v>180.0119512195122</v>
+        <v>95.25</v>
       </c>
       <c r="M35" t="n">
-        <v>120</v>
+        <v>108.5</v>
       </c>
       <c r="N35" t="n">
-        <v>209</v>
+        <v>145.9333333333333</v>
       </c>
       <c r="O35" t="n">
-        <v>197</v>
-      </c>
-      <c r="P35" t="n">
-        <v>199</v>
-      </c>
-      <c r="Q35" t="n">
         <v>174</v>
       </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
         <v>99</v>
       </c>
       <c r="S35" t="n">
-        <v>194.5</v>
+        <v>119</v>
       </c>
       <c r="T35" t="n">
-        <v>0.3192307692307693</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="U35" t="n">
-        <v>64.48999999999999</v>
+        <v>62.15</v>
       </c>
       <c r="V35" t="n">
-        <v>62.36142857142857</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="W35" t="n">
-        <v>64.5</v>
+        <v>65.14285714285714</v>
       </c>
     </row>
     <row r="36">
@@ -2903,71 +2665,67 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>20/02/2024</t>
+          <t>22/01/2024</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>171</v>
+        <v>119.8415789473684</v>
       </c>
       <c r="D36" t="n">
-        <v>158.125</v>
+        <v>135.5833333333333</v>
       </c>
       <c r="E36" t="n">
-        <v>153.75</v>
+        <v>140.5</v>
       </c>
       <c r="F36" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G36" t="n">
-        <v>64.75</v>
+        <v>67</v>
       </c>
       <c r="H36" t="n">
-        <v>162.12</v>
+        <v>90.68212765957448</v>
       </c>
       <c r="I36" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>76.6557142857143</v>
+        <v>67.98076923076923</v>
       </c>
       <c r="K36" t="n">
-        <v>140.4725925925926</v>
+        <v>80.73218749999999</v>
       </c>
       <c r="L36" t="n">
-        <v>182.1969444444445</v>
+        <v>99.001875</v>
       </c>
       <c r="M36" t="n">
-        <v>120</v>
+        <v>108.5</v>
       </c>
       <c r="N36" t="n">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="O36" t="n">
-        <v>197</v>
-      </c>
-      <c r="P36" t="n">
-        <v>199</v>
-      </c>
-      <c r="Q36" t="n">
         <v>174</v>
       </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
         <v>99</v>
       </c>
       <c r="S36" t="n">
-        <v>194.5</v>
+        <v>119</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3192307692307693</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="U36" t="n">
-        <v>64.48999999999999</v>
+        <v>63</v>
       </c>
       <c r="V36" t="n">
-        <v>65</v>
+        <v>64.60640000000001</v>
       </c>
       <c r="W36" t="n">
-        <v>64.125</v>
+        <v>65.69642857142857</v>
       </c>
     </row>
     <row r="37">
@@ -2976,71 +2734,67 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>21/02/2024</t>
+          <t>23/01/2024</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>165.1740625</v>
+        <v>123.84</v>
       </c>
       <c r="D37" t="n">
-        <v>154.012</v>
+        <v>139.1428571428571</v>
       </c>
       <c r="E37" t="n">
-        <v>153.4</v>
+        <v>141.5</v>
       </c>
       <c r="F37" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G37" t="n">
-        <v>64.75</v>
+        <v>68.5</v>
       </c>
       <c r="H37" t="n">
-        <v>153.6395833333333</v>
+        <v>96.72918367346938</v>
       </c>
       <c r="I37" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>74.26666666666667</v>
+        <v>68.72222222222223</v>
       </c>
       <c r="K37" t="n">
-        <v>134.1602608695652</v>
+        <v>84.36428571428571</v>
       </c>
       <c r="L37" t="n">
-        <v>174.3914457831325</v>
+        <v>107.1055172413793</v>
       </c>
       <c r="M37" t="n">
-        <v>120</v>
+        <v>108.5</v>
       </c>
       <c r="N37" t="n">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="O37" t="n">
-        <v>197</v>
-      </c>
-      <c r="P37" t="n">
-        <v>199</v>
-      </c>
-      <c r="Q37" t="n">
         <v>174</v>
       </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
         <v>99</v>
       </c>
       <c r="S37" t="n">
-        <v>194.5</v>
+        <v>119</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3192307692307693</v>
+        <v>0.7</v>
       </c>
       <c r="U37" t="n">
-        <v>64.48999999999999</v>
+        <v>62.17285714285714</v>
       </c>
       <c r="V37" t="n">
-        <v>62.13</v>
+        <v>65.325</v>
       </c>
       <c r="W37" t="n">
-        <v>63.11428571428571</v>
+        <v>66.55833333333334</v>
       </c>
     </row>
     <row r="38">
@@ -3049,71 +2803,69 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>22/02/2024</t>
+          <t>24/01/2024</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>153.492027027027</v>
+        <v>125.218125</v>
       </c>
       <c r="D38" t="n">
-        <v>146.1777777777778</v>
+        <v>140.8125</v>
       </c>
       <c r="E38" t="n">
-        <v>153.4</v>
+        <v>145</v>
       </c>
       <c r="F38" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G38" t="n">
         <v>64.75</v>
       </c>
       <c r="H38" t="n">
-        <v>138.2097247706422</v>
+        <v>95.73343749999999</v>
       </c>
       <c r="I38" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J38" t="n">
-        <v>71.17588235294117</v>
+        <v>67</v>
       </c>
       <c r="K38" t="n">
-        <v>120.6092352941176</v>
+        <v>83.93205128205128</v>
       </c>
       <c r="L38" t="n">
-        <v>157.9024369747899</v>
+        <v>107.6188888888889</v>
       </c>
       <c r="M38" t="n">
-        <v>120</v>
+        <v>108.5</v>
       </c>
       <c r="N38" t="n">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="O38" t="n">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="P38" t="n">
-        <v>199</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>174</v>
-      </c>
+        <v>181.25</v>
+      </c>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
         <v>99</v>
       </c>
       <c r="S38" t="n">
-        <v>194.5</v>
+        <v>119</v>
       </c>
       <c r="T38" t="n">
-        <v>0.3192307692307693</v>
+        <v>0.625</v>
       </c>
       <c r="U38" t="n">
-        <v>64.48999999999999</v>
+        <v>61.98333333333333</v>
       </c>
       <c r="V38" t="n">
-        <v>61.7</v>
+        <v>64.2</v>
       </c>
       <c r="W38" t="n">
-        <v>62.51</v>
+        <v>65.33333333333333</v>
       </c>
     </row>
     <row r="39">
@@ -3122,71 +2874,71 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>23/02/2024</t>
+          <t>25/01/2024</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>152.2510447761194</v>
+        <v>128.2357692307692</v>
       </c>
       <c r="D39" t="n">
-        <v>149.1153846153846</v>
+        <v>142.1371428571429</v>
       </c>
       <c r="E39" t="n">
-        <v>145.5</v>
+        <v>143.5725</v>
       </c>
       <c r="F39" t="n">
-        <v>144.75</v>
+        <v>148.5166666666667</v>
       </c>
       <c r="G39" t="n">
         <v>64.75</v>
       </c>
       <c r="H39" t="n">
-        <v>140.6379411764706</v>
+        <v>99.5244776119403</v>
       </c>
       <c r="I39" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>72.4875</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="K39" t="n">
-        <v>116.7217647058824</v>
+        <v>85.8155</v>
       </c>
       <c r="L39" t="n">
-        <v>157.9007692307692</v>
+        <v>113.0117948717949</v>
       </c>
       <c r="M39" t="n">
-        <v>120</v>
+        <v>108.5</v>
       </c>
       <c r="N39" t="n">
-        <v>186.26</v>
+        <v>158</v>
       </c>
       <c r="O39" t="n">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="P39" t="n">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="Q39" t="n">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="R39" t="n">
         <v>99</v>
       </c>
       <c r="S39" t="n">
-        <v>194.5</v>
+        <v>119</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3192307692307693</v>
+        <v>0.575</v>
       </c>
       <c r="U39" t="n">
-        <v>64.48999999999999</v>
+        <v>62</v>
       </c>
       <c r="V39" t="n">
-        <v>62</v>
+        <v>64.13333333333334</v>
       </c>
       <c r="W39" t="n">
-        <v>62.5</v>
+        <v>65.25</v>
       </c>
     </row>
     <row r="40">
@@ -3195,71 +2947,71 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>26/02/2024</t>
+          <t>26/01/2024</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>148.9651724137931</v>
+        <v>135.400985915493</v>
       </c>
       <c r="D40" t="n">
-        <v>146.75</v>
+        <v>148.9295238095238</v>
       </c>
       <c r="E40" t="n">
-        <v>148.5</v>
+        <v>152</v>
       </c>
       <c r="F40" t="n">
-        <v>144.75</v>
+        <v>152</v>
       </c>
       <c r="G40" t="n">
         <v>64.75</v>
       </c>
       <c r="H40" t="n">
-        <v>138.61</v>
+        <v>111.2851572327044</v>
       </c>
       <c r="I40" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>72.205</v>
+        <v>69.905</v>
       </c>
       <c r="K40" t="n">
-        <v>117.1116379310345</v>
+        <v>91.09575757575757</v>
       </c>
       <c r="L40" t="n">
-        <v>157.5224444444445</v>
+        <v>125.8727884615385</v>
       </c>
       <c r="M40" t="n">
-        <v>120</v>
+        <v>108.5</v>
       </c>
       <c r="N40" t="n">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="O40" t="n">
-        <v>185</v>
+        <v>183.25</v>
       </c>
       <c r="P40" t="n">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="Q40" t="n">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="R40" t="n">
         <v>99</v>
       </c>
       <c r="S40" t="n">
-        <v>194.5</v>
+        <v>119</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3192307692307693</v>
+        <v>0.66875</v>
       </c>
       <c r="U40" t="n">
-        <v>64.48999999999999</v>
+        <v>62</v>
       </c>
       <c r="V40" t="n">
-        <v>62.116</v>
+        <v>64.7</v>
       </c>
       <c r="W40" t="n">
-        <v>62.96666666666667</v>
+        <v>66.995</v>
       </c>
     </row>
     <row r="41">
@@ -3268,71 +3020,71 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>27/02/2024</t>
+          <t>27/01/2024</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>153.6804761904762</v>
+        <v>134</v>
       </c>
       <c r="D41" t="n">
-        <v>149.7666666666667</v>
+        <v>148.9295238095238</v>
       </c>
       <c r="E41" t="n">
-        <v>148.875</v>
+        <v>152</v>
       </c>
       <c r="F41" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G41" t="n">
         <v>64.75</v>
       </c>
       <c r="H41" t="n">
-        <v>145.7759259259259</v>
+        <v>111.2851572327044</v>
       </c>
       <c r="I41" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J41" t="n">
-        <v>75.36481481481481</v>
+        <v>69.905</v>
       </c>
       <c r="K41" t="n">
-        <v>124.7240909090909</v>
+        <v>91.09575757575757</v>
       </c>
       <c r="L41" t="n">
-        <v>165.749012345679</v>
+        <v>125.8727884615385</v>
       </c>
       <c r="M41" t="n">
-        <v>120</v>
+        <v>108.5</v>
       </c>
       <c r="N41" t="n">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="O41" t="n">
-        <v>185</v>
+        <v>183.25</v>
       </c>
       <c r="P41" t="n">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="Q41" t="n">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="R41" t="n">
         <v>99</v>
       </c>
       <c r="S41" t="n">
-        <v>194.5</v>
+        <v>119</v>
       </c>
       <c r="T41" t="n">
-        <v>0.3192307692307693</v>
+        <v>0.66875</v>
       </c>
       <c r="U41" t="n">
-        <v>64.48999999999999</v>
+        <v>62</v>
       </c>
       <c r="V41" t="n">
-        <v>62.3175</v>
+        <v>64.7</v>
       </c>
       <c r="W41" t="n">
-        <v>66.18892857142858</v>
+        <v>66.995</v>
       </c>
     </row>
     <row r="42">
@@ -3341,71 +3093,71 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>28/02/2024</t>
+          <t>29/01/2024</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>155.2923076923077</v>
+        <v>139.2049206349206</v>
       </c>
       <c r="D42" t="n">
         <v>149.8333333333333</v>
       </c>
       <c r="E42" t="n">
-        <v>150</v>
+        <v>152.3</v>
       </c>
       <c r="F42" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G42" t="n">
         <v>64.75</v>
       </c>
       <c r="H42" t="n">
-        <v>147.5516129032258</v>
+        <v>110.9675</v>
       </c>
       <c r="I42" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J42" t="n">
-        <v>77.15555555555555</v>
+        <v>69.94333333333334</v>
       </c>
       <c r="K42" t="n">
-        <v>126.9850574712644</v>
+        <v>92.2030303030303</v>
       </c>
       <c r="L42" t="n">
-        <v>167.8631428571429</v>
+        <v>130.7754716981132</v>
       </c>
       <c r="M42" t="n">
         <v>120</v>
       </c>
       <c r="N42" t="n">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="O42" t="n">
         <v>185</v>
       </c>
       <c r="P42" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q42" t="n">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="R42" t="n">
         <v>99</v>
       </c>
       <c r="S42" t="n">
-        <v>194.5</v>
+        <v>119</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3192307692307693</v>
+        <v>0.6863636363636364</v>
       </c>
       <c r="U42" t="n">
-        <v>64.48999999999999</v>
+        <v>62.075</v>
       </c>
       <c r="V42" t="n">
-        <v>62.53571428571428</v>
+        <v>64.64</v>
       </c>
       <c r="W42" t="n">
-        <v>66.18607142857142</v>
+        <v>66.02500000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3414,71 +3166,71 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>29/02/2024</t>
+          <t>30/01/2024</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>158.4117647058823</v>
+        <v>137.0495555555555</v>
       </c>
       <c r="D43" t="n">
-        <v>152.2871428571429</v>
+        <v>144.8125</v>
       </c>
       <c r="E43" t="n">
-        <v>150.5</v>
+        <v>148.125</v>
       </c>
       <c r="F43" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G43" t="n">
         <v>64.75</v>
       </c>
       <c r="H43" t="n">
-        <v>151.2335294117647</v>
+        <v>107.7653947368421</v>
       </c>
       <c r="I43" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>79.78918918918919</v>
+        <v>69.15323529411765</v>
       </c>
       <c r="K43" t="n">
-        <v>130.3195161290323</v>
+        <v>88.65657142857143</v>
       </c>
       <c r="L43" t="n">
-        <v>171.5811111111111</v>
+        <v>127.7072413793103</v>
       </c>
       <c r="M43" t="n">
         <v>120</v>
       </c>
       <c r="N43" t="n">
-        <v>193.3266666666667</v>
+        <v>175</v>
       </c>
       <c r="O43" t="n">
-        <v>182.99</v>
+        <v>185</v>
       </c>
       <c r="P43" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q43" t="n">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="R43" t="n">
         <v>99</v>
       </c>
       <c r="S43" t="n">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3192307692307693</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="U43" t="n">
-        <v>64.48999999999999</v>
+        <v>62</v>
       </c>
       <c r="V43" t="n">
-        <v>65.5</v>
+        <v>63.73363636363637</v>
       </c>
       <c r="W43" t="n">
-        <v>66.3</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="44">
@@ -3487,71 +3239,71 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>31/01/2024</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>159.7727272727273</v>
+        <v>136.2977272727273</v>
       </c>
       <c r="D44" t="n">
-        <v>156.3</v>
+        <v>146</v>
       </c>
       <c r="E44" t="n">
-        <v>148.8333333333333</v>
+        <v>148.3333333333333</v>
       </c>
       <c r="F44" t="n">
-        <v>141.5</v>
+        <v>150.0066666666667</v>
       </c>
       <c r="G44" t="n">
         <v>64.75</v>
       </c>
       <c r="H44" t="n">
-        <v>153.5968965517241</v>
+        <v>106.7851219512195</v>
       </c>
       <c r="I44" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J44" t="n">
-        <v>79.30921052631579</v>
+        <v>68.97057142857142</v>
       </c>
       <c r="K44" t="n">
-        <v>132.2443548387097</v>
+        <v>88.10166666666667</v>
       </c>
       <c r="L44" t="n">
-        <v>171.4761904761905</v>
+        <v>126.2587804878049</v>
       </c>
       <c r="M44" t="n">
         <v>120</v>
       </c>
       <c r="N44" t="n">
-        <v>193.3266666666667</v>
+        <v>170.75</v>
       </c>
       <c r="O44" t="n">
-        <v>182.99</v>
+        <v>185</v>
       </c>
       <c r="P44" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q44" t="n">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="R44" t="n">
         <v>99</v>
       </c>
       <c r="S44" t="n">
-        <v>190</v>
+        <v>136.5</v>
       </c>
       <c r="T44" t="n">
-        <v>0.3192307692307693</v>
+        <v>0.6115625</v>
       </c>
       <c r="U44" t="n">
-        <v>64.48999999999999</v>
+        <v>63.06</v>
       </c>
       <c r="V44" t="n">
-        <v>117.67</v>
+        <v>64.26666666666667</v>
       </c>
       <c r="W44" t="n">
-        <v>65.41363636363636</v>
+        <v>66.42761904761905</v>
       </c>
     </row>
     <row r="45">
@@ -3560,71 +3312,71 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>04/03/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>158.0625</v>
+        <v>137.2878947368421</v>
       </c>
       <c r="D45" t="n">
-        <v>156</v>
+        <v>135.5</v>
       </c>
       <c r="E45" t="n">
-        <v>148.8333333333333</v>
+        <v>148</v>
       </c>
       <c r="F45" t="n">
-        <v>141.5</v>
+        <v>150.0066666666667</v>
       </c>
       <c r="G45" t="n">
         <v>64.75</v>
       </c>
       <c r="H45" t="n">
-        <v>148.94</v>
+        <v>109.2476811594203</v>
       </c>
       <c r="I45" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>78.44533333333334</v>
+        <v>70.49163265306123</v>
       </c>
       <c r="K45" t="n">
-        <v>126.4451282051282</v>
+        <v>89.99432432432432</v>
       </c>
       <c r="L45" t="n">
-        <v>169.0246153846154</v>
+        <v>128.4413461538462</v>
       </c>
       <c r="M45" t="n">
         <v>120</v>
       </c>
       <c r="N45" t="n">
-        <v>193.3266666666667</v>
+        <v>174</v>
       </c>
       <c r="O45" t="n">
-        <v>182.99</v>
+        <v>182</v>
       </c>
       <c r="P45" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q45" t="n">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="R45" t="n">
         <v>99</v>
       </c>
       <c r="S45" t="n">
-        <v>190</v>
+        <v>136.5</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3192307692307693</v>
+        <v>0.5764077669902913</v>
       </c>
       <c r="U45" t="n">
-        <v>64.48999999999999</v>
+        <v>62</v>
       </c>
       <c r="V45" t="n">
-        <v>62.2</v>
+        <v>64.9375</v>
       </c>
       <c r="W45" t="n">
-        <v>67</v>
+        <v>65.62857142857142</v>
       </c>
     </row>
     <row r="46">
@@ -3633,71 +3385,71 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>05/03/2024</t>
+          <t>02/02/2024</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>154.9533333333333</v>
+        <v>143.1755102040816</v>
       </c>
       <c r="D46" t="n">
-        <v>152</v>
+        <v>150.515</v>
       </c>
       <c r="E46" t="n">
-        <v>148.25</v>
+        <v>150.8333333333333</v>
       </c>
       <c r="F46" t="n">
-        <v>141.5</v>
+        <v>151.125</v>
       </c>
       <c r="G46" t="n">
         <v>64.75</v>
       </c>
       <c r="H46" t="n">
-        <v>147.294375</v>
+        <v>115.3198765432099</v>
       </c>
       <c r="I46" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>79.29857142857144</v>
+        <v>70.52352941176471</v>
       </c>
       <c r="K46" t="n">
-        <v>126.9923684210526</v>
+        <v>95.02445945945946</v>
       </c>
       <c r="L46" t="n">
-        <v>167.2823076923077</v>
+        <v>134.3290607734807</v>
       </c>
       <c r="M46" t="n">
         <v>120</v>
       </c>
       <c r="N46" t="n">
-        <v>193.3266666666667</v>
+        <v>174</v>
       </c>
       <c r="O46" t="n">
-        <v>182.99</v>
+        <v>185.75</v>
       </c>
       <c r="P46" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q46" t="n">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="R46" t="n">
         <v>99</v>
       </c>
       <c r="S46" t="n">
-        <v>190</v>
+        <v>136.5</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3192307692307693</v>
+        <v>0.6796153846153846</v>
       </c>
       <c r="U46" t="n">
-        <v>64.48999999999999</v>
+        <v>62</v>
       </c>
       <c r="V46" t="n">
-        <v>62.2</v>
+        <v>64</v>
       </c>
       <c r="W46" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47">
@@ -3706,71 +3458,71 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>06/03/2024</t>
+          <t>05/02/2024</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>157.4642857142857</v>
+        <v>158.7576315789474</v>
       </c>
       <c r="D47" t="n">
-        <v>155.6666666666667</v>
+        <v>160.18125</v>
       </c>
       <c r="E47" t="n">
-        <v>148.25</v>
+        <v>158.6125</v>
       </c>
       <c r="F47" t="n">
-        <v>141.5</v>
+        <v>160</v>
       </c>
       <c r="G47" t="n">
         <v>64.75</v>
       </c>
       <c r="H47" t="n">
-        <v>153.2423529411765</v>
+        <v>134.9989583333333</v>
       </c>
       <c r="I47" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>80.84529411764707</v>
+        <v>74.10395833333332</v>
       </c>
       <c r="K47" t="n">
-        <v>133.3383908045977</v>
+        <v>113.6128099173554</v>
       </c>
       <c r="L47" t="n">
-        <v>172.698</v>
+        <v>158.9619230769231</v>
       </c>
       <c r="M47" t="n">
         <v>120</v>
       </c>
       <c r="N47" t="n">
-        <v>193.3266666666667</v>
+        <v>197</v>
       </c>
       <c r="O47" t="n">
-        <v>182.99</v>
+        <v>197</v>
       </c>
       <c r="P47" t="n">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="Q47" t="n">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="R47" t="n">
         <v>99</v>
       </c>
       <c r="S47" t="n">
-        <v>190</v>
+        <v>136.5</v>
       </c>
       <c r="T47" t="n">
-        <v>0.3192307692307693</v>
+        <v>0.4512962962962963</v>
       </c>
       <c r="U47" t="n">
-        <v>64.48999999999999</v>
+        <v>60</v>
       </c>
       <c r="V47" t="n">
-        <v>62.2</v>
+        <v>63.5</v>
       </c>
       <c r="W47" t="n">
-        <v>63.63444444444445</v>
+        <v>68.14583333333333</v>
       </c>
     </row>
     <row r="48">
@@ -3779,71 +3531,71 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>07/03/2024</t>
+          <t>06/02/2024</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>160.0321428571428</v>
+        <v>175.6537704918033</v>
       </c>
       <c r="D48" t="n">
-        <v>156</v>
+        <v>169.0621621621622</v>
       </c>
       <c r="E48" t="n">
-        <v>148.25</v>
+        <v>166.4045454545455</v>
       </c>
       <c r="F48" t="n">
-        <v>141.5</v>
+        <v>158</v>
       </c>
       <c r="G48" t="n">
         <v>64.75</v>
       </c>
       <c r="H48" t="n">
-        <v>159.2897222222222</v>
+        <v>166.6695726495726</v>
       </c>
       <c r="I48" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>84.00399999999999</v>
+        <v>76.63704918032786</v>
       </c>
       <c r="K48" t="n">
-        <v>139.6338461538462</v>
+        <v>146.1977659574468</v>
       </c>
       <c r="L48" t="n">
-        <v>178.5269090909091</v>
+        <v>184.10796875</v>
       </c>
       <c r="M48" t="n">
         <v>120</v>
       </c>
       <c r="N48" t="n">
-        <v>193.3266666666667</v>
+        <v>197</v>
       </c>
       <c r="O48" t="n">
-        <v>182.99</v>
+        <v>197</v>
       </c>
       <c r="P48" t="n">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="Q48" t="n">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="R48" t="n">
         <v>99</v>
       </c>
       <c r="S48" t="n">
-        <v>196.6</v>
+        <v>200</v>
       </c>
       <c r="T48" t="n">
-        <v>0.3192307692307693</v>
+        <v>0.6175757575757576</v>
       </c>
       <c r="U48" t="n">
-        <v>64.48999999999999</v>
+        <v>60</v>
       </c>
       <c r="V48" t="n">
-        <v>61.8</v>
+        <v>63.66666666666666</v>
       </c>
       <c r="W48" t="n">
-        <v>63.63444444444445</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="49">
@@ -3852,71 +3604,71 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>08/03/2024</t>
+          <t>07/02/2024</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>166.861724137931</v>
+        <v>173.07</v>
       </c>
       <c r="D49" t="n">
-        <v>161.49</v>
+        <v>164.275</v>
       </c>
       <c r="E49" t="n">
-        <v>152.6666666666667</v>
+        <v>160</v>
       </c>
       <c r="F49" t="n">
-        <v>141.5</v>
+        <v>158</v>
       </c>
       <c r="G49" t="n">
         <v>64.75</v>
       </c>
       <c r="H49" t="n">
-        <v>166.5228947368421</v>
+        <v>157.9772093023256</v>
       </c>
       <c r="I49" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>87.36133333333333</v>
+        <v>73.33879999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>148.5520792079208</v>
+        <v>140.0048905109489</v>
       </c>
       <c r="L49" t="n">
-        <v>187.1764285714286</v>
+        <v>179.4702197802198</v>
       </c>
       <c r="M49" t="n">
         <v>120</v>
       </c>
       <c r="N49" t="n">
-        <v>193.3266666666667</v>
+        <v>213</v>
       </c>
       <c r="O49" t="n">
-        <v>182.99</v>
+        <v>197</v>
       </c>
       <c r="P49" t="n">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="Q49" t="n">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="R49" t="n">
         <v>99</v>
       </c>
       <c r="S49" t="n">
-        <v>196.6</v>
+        <v>200</v>
       </c>
       <c r="T49" t="n">
-        <v>0.3192307692307693</v>
+        <v>0.5236585365853659</v>
       </c>
       <c r="U49" t="n">
-        <v>64.48999999999999</v>
+        <v>60</v>
       </c>
       <c r="V49" t="n">
-        <v>118.25</v>
+        <v>63.33</v>
       </c>
       <c r="W49" t="n">
-        <v>64.60909090909091</v>
+        <v>65.752</v>
       </c>
     </row>
     <row r="50">
@@ -3925,71 +3677,71 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>08/02/2024</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>164.98</v>
+        <v>168.5291111111111</v>
       </c>
       <c r="D50" t="n">
-        <v>160.5</v>
+        <v>158.3928571428571</v>
       </c>
       <c r="E50" t="n">
-        <v>152.6666666666667</v>
+        <v>155</v>
       </c>
       <c r="F50" t="n">
-        <v>141.5</v>
+        <v>155</v>
       </c>
       <c r="G50" t="n">
         <v>64.75</v>
       </c>
       <c r="H50" t="n">
-        <v>165.7305555555556</v>
+        <v>157.9139393939394</v>
       </c>
       <c r="I50" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J50" t="n">
-        <v>85.56</v>
+        <v>75.88549019607842</v>
       </c>
       <c r="K50" t="n">
-        <v>146.7559302325581</v>
+        <v>138.9766666666667</v>
       </c>
       <c r="L50" t="n">
-        <v>186.7737777777778</v>
+        <v>177.5528787878788</v>
       </c>
       <c r="M50" t="n">
         <v>120</v>
       </c>
       <c r="N50" t="n">
-        <v>193.3266666666667</v>
+        <v>213</v>
       </c>
       <c r="O50" t="n">
-        <v>182.99</v>
+        <v>197</v>
       </c>
       <c r="P50" t="n">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="Q50" t="n">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="R50" t="n">
         <v>99</v>
       </c>
       <c r="S50" t="n">
-        <v>196.6</v>
+        <v>194.5</v>
       </c>
       <c r="T50" t="n">
         <v>0.3192307692307693</v>
       </c>
       <c r="U50" t="n">
-        <v>64.48999999999999</v>
+        <v>60</v>
       </c>
       <c r="V50" t="n">
-        <v>118.25</v>
+        <v>63.69923076923077</v>
       </c>
       <c r="W50" t="n">
-        <v>64.1125</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51">
@@ -3998,59 +3750,59 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>12/03/2024</t>
+          <t>09/02/2024</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>165.7842857142857</v>
+        <v>163.4818181818182</v>
       </c>
       <c r="D51" t="n">
-        <v>159.5</v>
+        <v>153.75</v>
       </c>
       <c r="E51" t="n">
-        <v>152.6666666666667</v>
+        <v>154</v>
       </c>
       <c r="F51" t="n">
-        <v>146.5</v>
+        <v>154.25</v>
       </c>
       <c r="G51" t="n">
         <v>64.75</v>
       </c>
       <c r="H51" t="n">
-        <v>164.899</v>
+        <v>154.9448148148148</v>
       </c>
       <c r="I51" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>84.17470588235294</v>
+        <v>74.9148275862069</v>
       </c>
       <c r="K51" t="n">
-        <v>147.5442045454545</v>
+        <v>135.4209433962264</v>
       </c>
       <c r="L51" t="n">
-        <v>185.1758333333333</v>
+        <v>174.2733333333333</v>
       </c>
       <c r="M51" t="n">
         <v>120</v>
       </c>
       <c r="N51" t="n">
-        <v>193.3266666666667</v>
+        <v>213</v>
       </c>
       <c r="O51" t="n">
-        <v>182.99</v>
+        <v>197</v>
       </c>
       <c r="P51" t="n">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="Q51" t="n">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="R51" t="n">
         <v>99</v>
       </c>
       <c r="S51" t="n">
-        <v>196.6</v>
+        <v>194.5</v>
       </c>
       <c r="T51" t="n">
         <v>0.3192307692307693</v>
@@ -4059,10 +3811,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V51" t="n">
-        <v>118.25</v>
+        <v>63.09111111111112</v>
       </c>
       <c r="W51" t="n">
-        <v>63.85416666666666</v>
+        <v>66.08333333333333</v>
       </c>
     </row>
     <row r="52">
@@ -4071,59 +3823,59 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>13/03/2024</t>
+          <t>14/02/2024</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>161.664</v>
+        <v>157.709375</v>
       </c>
       <c r="D52" t="n">
-        <v>155.1</v>
+        <v>148.875</v>
       </c>
       <c r="E52" t="n">
-        <v>150.5</v>
+        <v>154</v>
       </c>
       <c r="F52" t="n">
-        <v>146.5</v>
+        <v>154.25</v>
       </c>
       <c r="G52" t="n">
         <v>64.75</v>
       </c>
       <c r="H52" t="n">
-        <v>160.9636363636364</v>
+        <v>147.1722222222222</v>
       </c>
       <c r="I52" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J52" t="n">
-        <v>83.52352941176471</v>
+        <v>74.16111111111111</v>
       </c>
       <c r="K52" t="n">
-        <v>144.0026923076923</v>
+        <v>128.6016666666667</v>
       </c>
       <c r="L52" t="n">
-        <v>179.7327272727273</v>
+        <v>167.19046875</v>
       </c>
       <c r="M52" t="n">
         <v>120</v>
       </c>
       <c r="N52" t="n">
-        <v>193.3266666666667</v>
+        <v>213</v>
       </c>
       <c r="O52" t="n">
-        <v>182.99</v>
+        <v>197</v>
       </c>
       <c r="P52" t="n">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="Q52" t="n">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="R52" t="n">
         <v>99</v>
       </c>
       <c r="S52" t="n">
-        <v>196.6</v>
+        <v>194.5</v>
       </c>
       <c r="T52" t="n">
         <v>0.3192307692307693</v>
@@ -4132,10 +3884,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V52" t="n">
-        <v>118.25</v>
+        <v>62.57000000000001</v>
       </c>
       <c r="W52" t="n">
-        <v>63.38888888888889</v>
+        <v>66.08333333333333</v>
       </c>
     </row>
     <row r="53">
@@ -4144,59 +3896,59 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>14/03/2024</t>
+          <t>15/02/2024</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>155.6695</v>
+        <v>167.3490566037736</v>
       </c>
       <c r="D53" t="n">
-        <v>154.4166666666667</v>
+        <v>158.1625</v>
       </c>
       <c r="E53" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F53" t="n">
-        <v>147.5</v>
+        <v>154.25</v>
       </c>
       <c r="G53" t="n">
         <v>64.75</v>
       </c>
       <c r="H53" t="n">
-        <v>151.9960714285714</v>
+        <v>158.4319444444444</v>
       </c>
       <c r="I53" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>78.83076923076922</v>
+        <v>75.8592</v>
       </c>
       <c r="K53" t="n">
-        <v>135.8840566037736</v>
+        <v>136.0265100671141</v>
       </c>
       <c r="L53" t="n">
-        <v>168.3448888888889</v>
+        <v>179.9542857142857</v>
       </c>
       <c r="M53" t="n">
         <v>120</v>
       </c>
       <c r="N53" t="n">
-        <v>193.3266666666667</v>
+        <v>213</v>
       </c>
       <c r="O53" t="n">
-        <v>182.99</v>
+        <v>197</v>
       </c>
       <c r="P53" t="n">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="Q53" t="n">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="R53" t="n">
         <v>99</v>
       </c>
       <c r="S53" t="n">
-        <v>196.6</v>
+        <v>194.5</v>
       </c>
       <c r="T53" t="n">
         <v>0.3192307692307693</v>
@@ -4205,10 +3957,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V53" t="n">
-        <v>118.25</v>
+        <v>63.33333333333334</v>
       </c>
       <c r="W53" t="n">
-        <v>63.35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54">
@@ -4217,59 +3969,59 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>15/03/2024</t>
+          <t>16/02/2024</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>158.5266666666667</v>
+        <v>173.6476923076923</v>
       </c>
       <c r="D54" t="n">
-        <v>155.75</v>
+        <v>159.651</v>
       </c>
       <c r="E54" t="n">
-        <v>147</v>
+        <v>156.8</v>
       </c>
       <c r="F54" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G54" t="n">
         <v>64.75</v>
       </c>
       <c r="H54" t="n">
-        <v>154.2833333333333</v>
+        <v>164.5596</v>
       </c>
       <c r="I54" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J54" t="n">
-        <v>78.58571428571429</v>
+        <v>77.45294117647059</v>
       </c>
       <c r="K54" t="n">
-        <v>137.5202857142857</v>
+        <v>146.2514503816794</v>
       </c>
       <c r="L54" t="n">
-        <v>171.2307272727273</v>
+        <v>186.4590909090909</v>
       </c>
       <c r="M54" t="n">
         <v>120</v>
       </c>
       <c r="N54" t="n">
-        <v>193.3266666666667</v>
+        <v>209</v>
       </c>
       <c r="O54" t="n">
-        <v>191.5</v>
+        <v>197</v>
       </c>
       <c r="P54" t="n">
-        <v>184.5</v>
+        <v>199</v>
       </c>
       <c r="Q54" t="n">
-        <v>184.5</v>
+        <v>174</v>
       </c>
       <c r="R54" t="n">
         <v>99</v>
       </c>
       <c r="S54" t="n">
-        <v>196.6</v>
+        <v>194.5</v>
       </c>
       <c r="T54" t="n">
         <v>0.3192307692307693</v>
@@ -4278,10 +4030,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V54" t="n">
-        <v>118.25</v>
+        <v>62.58222222222222</v>
       </c>
       <c r="W54" t="n">
-        <v>63.80166666666667</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55">
@@ -4290,59 +4042,59 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>18/03/2024</t>
+          <t>19/02/2024</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>152.6221428571428</v>
+        <v>170.8975</v>
       </c>
       <c r="D55" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E55" t="n">
-        <v>151</v>
+        <v>153.75</v>
       </c>
       <c r="F55" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G55" t="n">
         <v>64.75</v>
       </c>
       <c r="H55" t="n">
-        <v>144.8608695652174</v>
+        <v>159.7632</v>
       </c>
       <c r="I55" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>75.46428571428571</v>
+        <v>76.13925925925926</v>
       </c>
       <c r="K55" t="n">
-        <v>129.1692380952381</v>
+        <v>139.6658536585366</v>
       </c>
       <c r="L55" t="n">
-        <v>159.549358974359</v>
+        <v>180.0119512195122</v>
       </c>
       <c r="M55" t="n">
         <v>120</v>
       </c>
       <c r="N55" t="n">
-        <v>193.3266666666667</v>
+        <v>209</v>
       </c>
       <c r="O55" t="n">
-        <v>191.5</v>
+        <v>197</v>
       </c>
       <c r="P55" t="n">
-        <v>184.5</v>
+        <v>199</v>
       </c>
       <c r="Q55" t="n">
-        <v>184.5</v>
+        <v>174</v>
       </c>
       <c r="R55" t="n">
         <v>99</v>
       </c>
       <c r="S55" t="n">
-        <v>196.6</v>
+        <v>194.5</v>
       </c>
       <c r="T55" t="n">
         <v>0.3192307692307693</v>
@@ -4351,10 +4103,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V55" t="n">
-        <v>118.25</v>
+        <v>62.36142857142857</v>
       </c>
       <c r="W55" t="n">
-        <v>63.42696428571428</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="56">
@@ -4363,59 +4115,59 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>19/03/2024</t>
+          <t>20/02/2024</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>147.4356451612903</v>
+        <v>171</v>
       </c>
       <c r="D56" t="n">
-        <v>146.5</v>
+        <v>158.125</v>
       </c>
       <c r="E56" t="n">
-        <v>140</v>
+        <v>153.75</v>
       </c>
       <c r="F56" t="n">
-        <v>142.5</v>
+        <v>152</v>
       </c>
       <c r="G56" t="n">
         <v>64.75</v>
       </c>
       <c r="H56" t="n">
-        <v>132.5485</v>
+        <v>162.12</v>
       </c>
       <c r="I56" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>72</v>
+        <v>76.6557142857143</v>
       </c>
       <c r="K56" t="n">
-        <v>118.4378260869565</v>
+        <v>140.4725925925926</v>
       </c>
       <c r="L56" t="n">
-        <v>148.1596268656716</v>
+        <v>182.1969444444445</v>
       </c>
       <c r="M56" t="n">
         <v>120</v>
       </c>
       <c r="N56" t="n">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="O56" t="n">
-        <v>191.5</v>
+        <v>197</v>
       </c>
       <c r="P56" t="n">
-        <v>184.5</v>
+        <v>199</v>
       </c>
       <c r="Q56" t="n">
-        <v>184.5</v>
+        <v>174</v>
       </c>
       <c r="R56" t="n">
         <v>99</v>
       </c>
       <c r="S56" t="n">
-        <v>180</v>
+        <v>194.5</v>
       </c>
       <c r="T56" t="n">
         <v>0.3192307692307693</v>
@@ -4424,10 +4176,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V56" t="n">
-        <v>118.25</v>
+        <v>65</v>
       </c>
       <c r="W56" t="n">
-        <v>63</v>
+        <v>64.125</v>
       </c>
     </row>
     <row r="57">
@@ -4436,59 +4188,59 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>20/03/2024</t>
+          <t>21/02/2024</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>137.5938235294118</v>
+        <v>165.1740625</v>
       </c>
       <c r="D57" t="n">
-        <v>140.125</v>
+        <v>154.012</v>
       </c>
       <c r="E57" t="n">
-        <v>140</v>
+        <v>153.4</v>
       </c>
       <c r="F57" t="n">
-        <v>141.9966666666667</v>
+        <v>152</v>
       </c>
       <c r="G57" t="n">
         <v>64.75</v>
       </c>
       <c r="H57" t="n">
-        <v>120.143275862069</v>
+        <v>153.6395833333333</v>
       </c>
       <c r="I57" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J57" t="n">
-        <v>69.3</v>
+        <v>74.26666666666667</v>
       </c>
       <c r="K57" t="n">
-        <v>108.6959776536313</v>
+        <v>134.1602608695652</v>
       </c>
       <c r="L57" t="n">
-        <v>134.0439416058394</v>
+        <v>174.3914457831325</v>
       </c>
       <c r="M57" t="n">
         <v>120</v>
       </c>
       <c r="N57" t="n">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="O57" t="n">
-        <v>191.5</v>
+        <v>197</v>
       </c>
       <c r="P57" t="n">
-        <v>184.5</v>
+        <v>199</v>
       </c>
       <c r="Q57" t="n">
-        <v>184.5</v>
+        <v>174</v>
       </c>
       <c r="R57" t="n">
         <v>99</v>
       </c>
       <c r="S57" t="n">
-        <v>180</v>
+        <v>194.5</v>
       </c>
       <c r="T57" t="n">
         <v>0.3192307692307693</v>
@@ -4497,10 +4249,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V57" t="n">
-        <v>118.25</v>
+        <v>62.13</v>
       </c>
       <c r="W57" t="n">
-        <v>63.63</v>
+        <v>63.11428571428571</v>
       </c>
     </row>
     <row r="58">
@@ -4509,59 +4261,59 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>21/03/2024</t>
+          <t>22/02/2024</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>143.8952380952381</v>
+        <v>153.492027027027</v>
       </c>
       <c r="D58" t="n">
-        <v>145.675</v>
+        <v>146.1777777777778</v>
       </c>
       <c r="E58" t="n">
-        <v>140</v>
+        <v>153.4</v>
       </c>
       <c r="F58" t="n">
-        <v>141.9966666666667</v>
+        <v>152</v>
       </c>
       <c r="G58" t="n">
         <v>64.75</v>
       </c>
       <c r="H58" t="n">
-        <v>132.1272222222222</v>
+        <v>138.2097247706422</v>
       </c>
       <c r="I58" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J58" t="n">
-        <v>70.56066666666668</v>
+        <v>71.17588235294117</v>
       </c>
       <c r="K58" t="n">
-        <v>116.9838297872341</v>
+        <v>120.6092352941176</v>
       </c>
       <c r="L58" t="n">
-        <v>144.7827722772277</v>
+        <v>157.9024369747899</v>
       </c>
       <c r="M58" t="n">
         <v>120</v>
       </c>
       <c r="N58" t="n">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="O58" t="n">
-        <v>191.5</v>
+        <v>197</v>
       </c>
       <c r="P58" t="n">
-        <v>184.5</v>
+        <v>199</v>
       </c>
       <c r="Q58" t="n">
-        <v>184.5</v>
+        <v>174</v>
       </c>
       <c r="R58" t="n">
         <v>99</v>
       </c>
       <c r="S58" t="n">
-        <v>164.6666666666667</v>
+        <v>194.5</v>
       </c>
       <c r="T58" t="n">
         <v>0.3192307692307693</v>
@@ -4570,10 +4322,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V58" t="n">
-        <v>118.25</v>
+        <v>61.7</v>
       </c>
       <c r="W58" t="n">
-        <v>61.95</v>
+        <v>62.51</v>
       </c>
     </row>
     <row r="59">
@@ -4582,59 +4334,59 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>22/03/2024</t>
+          <t>23/02/2024</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>148.9358823529412</v>
+        <v>152.2510447761194</v>
       </c>
       <c r="D59" t="n">
-        <v>149</v>
+        <v>149.1153846153846</v>
       </c>
       <c r="E59" t="n">
-        <v>140</v>
+        <v>145.5</v>
       </c>
       <c r="F59" t="n">
-        <v>143.25</v>
+        <v>144.75</v>
       </c>
       <c r="G59" t="n">
         <v>64.75</v>
       </c>
       <c r="H59" t="n">
-        <v>137.3836111111111</v>
+        <v>140.6379411764706</v>
       </c>
       <c r="I59" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J59" t="n">
-        <v>73.09999999999999</v>
+        <v>72.4875</v>
       </c>
       <c r="K59" t="n">
-        <v>124.6596551724138</v>
+        <v>116.7217647058824</v>
       </c>
       <c r="L59" t="n">
-        <v>154.9871428571429</v>
+        <v>157.9007692307692</v>
       </c>
       <c r="M59" t="n">
         <v>120</v>
       </c>
       <c r="N59" t="n">
-        <v>187.5</v>
+        <v>186.26</v>
       </c>
       <c r="O59" t="n">
         <v>185</v>
       </c>
       <c r="P59" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q59" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="R59" t="n">
         <v>99</v>
       </c>
       <c r="S59" t="n">
-        <v>173.075</v>
+        <v>194.5</v>
       </c>
       <c r="T59" t="n">
         <v>0.3192307692307693</v>
@@ -4643,10 +4395,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V59" t="n">
-        <v>118.25</v>
+        <v>62</v>
       </c>
       <c r="W59" t="n">
-        <v>61.95</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="60">
@@ -4655,59 +4407,59 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>25/03/2024</t>
+          <t>26/02/2024</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>155.62</v>
+        <v>148.9651724137931</v>
       </c>
       <c r="D60" t="n">
-        <v>155.3</v>
+        <v>146.75</v>
       </c>
       <c r="E60" t="n">
-        <v>140</v>
+        <v>148.5</v>
       </c>
       <c r="F60" t="n">
-        <v>141.75</v>
+        <v>144.75</v>
       </c>
       <c r="G60" t="n">
         <v>64.75</v>
       </c>
       <c r="H60" t="n">
-        <v>150.1111111111111</v>
+        <v>138.61</v>
       </c>
       <c r="I60" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J60" t="n">
-        <v>75.84999999999999</v>
+        <v>72.205</v>
       </c>
       <c r="K60" t="n">
-        <v>133.880931372549</v>
+        <v>117.1116379310345</v>
       </c>
       <c r="L60" t="n">
-        <v>164.45</v>
+        <v>157.5224444444445</v>
       </c>
       <c r="M60" t="n">
         <v>120</v>
       </c>
       <c r="N60" t="n">
-        <v>187.5</v>
+        <v>188</v>
       </c>
       <c r="O60" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P60" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q60" t="n">
-        <v>175.5</v>
+        <v>184</v>
       </c>
       <c r="R60" t="n">
         <v>99</v>
       </c>
       <c r="S60" t="n">
-        <v>173.075</v>
+        <v>194.5</v>
       </c>
       <c r="T60" t="n">
         <v>0.3192307692307693</v>
@@ -4716,10 +4468,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V60" t="n">
-        <v>118.25</v>
+        <v>62.116</v>
       </c>
       <c r="W60" t="n">
-        <v>61.95</v>
+        <v>62.96666666666667</v>
       </c>
     </row>
     <row r="61">
@@ -4728,17 +4480,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>26/03/2024</t>
+          <t>27/02/2024</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>158.3285714285714</v>
+        <v>153.6804761904762</v>
       </c>
       <c r="D61" t="n">
-        <v>153</v>
+        <v>149.7666666666667</v>
       </c>
       <c r="E61" t="n">
-        <v>140</v>
+        <v>148.875</v>
       </c>
       <c r="F61" t="n">
         <v>145</v>
@@ -4747,40 +4499,40 @@
         <v>64.75</v>
       </c>
       <c r="H61" t="n">
-        <v>146.689</v>
+        <v>145.7759259259259</v>
       </c>
       <c r="I61" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J61" t="n">
-        <v>76</v>
+        <v>75.36481481481481</v>
       </c>
       <c r="K61" t="n">
-        <v>140.5012087912088</v>
+        <v>124.7240909090909</v>
       </c>
       <c r="L61" t="n">
-        <v>168.1404819277109</v>
+        <v>165.749012345679</v>
       </c>
       <c r="M61" t="n">
         <v>120</v>
       </c>
       <c r="N61" t="n">
-        <v>200.95</v>
+        <v>189</v>
       </c>
       <c r="O61" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P61" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q61" t="n">
-        <v>175.5</v>
+        <v>184</v>
       </c>
       <c r="R61" t="n">
         <v>99</v>
       </c>
       <c r="S61" t="n">
-        <v>187.95</v>
+        <v>194.5</v>
       </c>
       <c r="T61" t="n">
         <v>0.3192307692307693</v>
@@ -4789,10 +4541,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V61" t="n">
-        <v>118.25</v>
+        <v>62.3175</v>
       </c>
       <c r="W61" t="n">
-        <v>61.81666666666666</v>
+        <v>66.18892857142858</v>
       </c>
     </row>
     <row r="62">
@@ -4801,59 +4553,59 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>27/03/2024</t>
+          <t>28/02/2024</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>155.8</v>
+        <v>155.2923076923077</v>
       </c>
       <c r="D62" t="n">
-        <v>150.625</v>
+        <v>149.8333333333333</v>
       </c>
       <c r="E62" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F62" t="n">
-        <v>146.96</v>
+        <v>145</v>
       </c>
       <c r="G62" t="n">
         <v>64.75</v>
       </c>
       <c r="H62" t="n">
-        <v>147.3958333333333</v>
+        <v>147.5516129032258</v>
       </c>
       <c r="I62" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J62" t="n">
-        <v>73.16666666666667</v>
+        <v>77.15555555555555</v>
       </c>
       <c r="K62" t="n">
-        <v>136.437265625</v>
+        <v>126.9850574712644</v>
       </c>
       <c r="L62" t="n">
-        <v>161.0813580246914</v>
+        <v>167.8631428571429</v>
       </c>
       <c r="M62" t="n">
         <v>120</v>
       </c>
       <c r="N62" t="n">
-        <v>200.95</v>
+        <v>192</v>
       </c>
       <c r="O62" t="n">
-        <v>185.9</v>
+        <v>185</v>
       </c>
       <c r="P62" t="n">
-        <v>185.9</v>
+        <v>184</v>
       </c>
       <c r="Q62" t="n">
-        <v>175.5</v>
+        <v>184</v>
       </c>
       <c r="R62" t="n">
         <v>99</v>
       </c>
       <c r="S62" t="n">
-        <v>187.95</v>
+        <v>194.5</v>
       </c>
       <c r="T62" t="n">
         <v>0.3192307692307693</v>
@@ -4862,10 +4614,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V62" t="n">
-        <v>118.25</v>
+        <v>62.53571428571428</v>
       </c>
       <c r="W62" t="n">
-        <v>61.81666666666666</v>
+        <v>66.18607142857142</v>
       </c>
     </row>
     <row r="63">
@@ -4874,59 +4626,59 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>28/03/2024</t>
+          <t>29/02/2024</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>150.1111111111111</v>
+        <v>158.4117647058823</v>
       </c>
       <c r="D63" t="n">
-        <v>148.6666666666667</v>
+        <v>152.2871428571429</v>
       </c>
       <c r="E63" t="n">
-        <v>146</v>
+        <v>150.5</v>
       </c>
       <c r="F63" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G63" t="n">
         <v>64.75</v>
       </c>
       <c r="H63" t="n">
-        <v>136.0045833333333</v>
+        <v>151.2335294117647</v>
       </c>
       <c r="I63" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J63" t="n">
-        <v>69.5</v>
+        <v>79.78918918918919</v>
       </c>
       <c r="K63" t="n">
-        <v>126.7428313253012</v>
+        <v>130.3195161290323</v>
       </c>
       <c r="L63" t="n">
-        <v>149.7661111111111</v>
+        <v>171.5811111111111</v>
       </c>
       <c r="M63" t="n">
         <v>120</v>
       </c>
       <c r="N63" t="n">
-        <v>189</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O63" t="n">
-        <v>185.5</v>
+        <v>182.99</v>
       </c>
       <c r="P63" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q63" t="n">
-        <v>175.5</v>
+        <v>184</v>
       </c>
       <c r="R63" t="n">
         <v>99</v>
       </c>
       <c r="S63" t="n">
-        <v>187.95</v>
+        <v>190</v>
       </c>
       <c r="T63" t="n">
         <v>0.3192307692307693</v>
@@ -4935,10 +4687,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V63" t="n">
-        <v>118.25</v>
+        <v>65.5</v>
       </c>
       <c r="W63" t="n">
-        <v>61.81666666666666</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="64">
@@ -4947,59 +4699,59 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>138.248</v>
+        <v>159.7727272727273</v>
       </c>
       <c r="D64" t="n">
-        <v>142.6</v>
+        <v>156.3</v>
       </c>
       <c r="E64" t="n">
-        <v>144.25</v>
+        <v>148.8333333333333</v>
       </c>
       <c r="F64" t="n">
-        <v>147.5</v>
+        <v>141.5</v>
       </c>
       <c r="G64" t="n">
         <v>64.75</v>
       </c>
       <c r="H64" t="n">
-        <v>123.84</v>
+        <v>153.5968965517241</v>
       </c>
       <c r="I64" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J64" t="n">
-        <v>70</v>
+        <v>79.30921052631579</v>
       </c>
       <c r="K64" t="n">
-        <v>112.9129113924051</v>
+        <v>132.2443548387097</v>
       </c>
       <c r="L64" t="n">
-        <v>137.6926582278481</v>
+        <v>171.4761904761905</v>
       </c>
       <c r="M64" t="n">
         <v>120</v>
       </c>
       <c r="N64" t="n">
-        <v>189</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O64" t="n">
-        <v>185.5</v>
+        <v>182.99</v>
       </c>
       <c r="P64" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q64" t="n">
-        <v>175.5</v>
+        <v>184</v>
       </c>
       <c r="R64" t="n">
         <v>99</v>
       </c>
       <c r="S64" t="n">
-        <v>187.95</v>
+        <v>190</v>
       </c>
       <c r="T64" t="n">
         <v>0.3192307692307693</v>
@@ -5008,10 +4760,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V64" t="n">
-        <v>118.25</v>
+        <v>117.67</v>
       </c>
       <c r="W64" t="n">
-        <v>61.81666666666666</v>
+        <v>65.41363636363636</v>
       </c>
     </row>
     <row r="65">
@@ -5020,59 +4772,59 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>02/04/2024</t>
+          <t>04/03/2024</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>141.21</v>
+        <v>158.0625</v>
       </c>
       <c r="D65" t="n">
-        <v>143.71875</v>
+        <v>156</v>
       </c>
       <c r="E65" t="n">
-        <v>143.875</v>
+        <v>148.8333333333333</v>
       </c>
       <c r="F65" t="n">
-        <v>142.25</v>
+        <v>141.5</v>
       </c>
       <c r="G65" t="n">
         <v>64.75</v>
       </c>
       <c r="H65" t="n">
-        <v>126.5884615384615</v>
+        <v>148.94</v>
       </c>
       <c r="I65" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J65" t="n">
-        <v>70</v>
+        <v>78.44533333333334</v>
       </c>
       <c r="K65" t="n">
-        <v>115.1426315789474</v>
+        <v>126.4451282051282</v>
       </c>
       <c r="L65" t="n">
-        <v>138.8971830985916</v>
+        <v>169.0246153846154</v>
       </c>
       <c r="M65" t="n">
         <v>120</v>
       </c>
       <c r="N65" t="n">
-        <v>178.5</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O65" t="n">
-        <v>180</v>
+        <v>182.99</v>
       </c>
       <c r="P65" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q65" t="n">
-        <v>175.5</v>
+        <v>184</v>
       </c>
       <c r="R65" t="n">
         <v>99</v>
       </c>
       <c r="S65" t="n">
-        <v>187.95</v>
+        <v>190</v>
       </c>
       <c r="T65" t="n">
         <v>0.3192307692307693</v>
@@ -5081,10 +4833,10 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V65" t="n">
-        <v>118.25</v>
+        <v>62.2</v>
       </c>
       <c r="W65" t="n">
-        <v>61.92666666666667</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66">
@@ -5093,59 +4845,59 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>03/04/2024</t>
+          <t>05/03/2024</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>136.13</v>
+        <v>154.9533333333333</v>
       </c>
       <c r="D66" t="n">
-        <v>139.9583333333333</v>
+        <v>152</v>
       </c>
       <c r="E66" t="n">
-        <v>138.75</v>
+        <v>148.25</v>
       </c>
       <c r="F66" t="n">
-        <v>136</v>
+        <v>141.5</v>
       </c>
       <c r="G66" t="n">
         <v>64.75</v>
       </c>
       <c r="H66" t="n">
-        <v>119.294375</v>
+        <v>147.294375</v>
       </c>
       <c r="I66" t="n">
         <v>67.83799999999999</v>
       </c>
       <c r="J66" t="n">
-        <v>65</v>
+        <v>79.29857142857144</v>
       </c>
       <c r="K66" t="n">
-        <v>106.9330817610063</v>
+        <v>126.9923684210526</v>
       </c>
       <c r="L66" t="n">
-        <v>131.8173394495413</v>
+        <v>167.2823076923077</v>
       </c>
       <c r="M66" t="n">
         <v>120</v>
       </c>
       <c r="N66" t="n">
-        <v>175.5</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O66" t="n">
-        <v>180</v>
+        <v>182.99</v>
       </c>
       <c r="P66" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q66" t="n">
-        <v>175.5</v>
+        <v>184</v>
       </c>
       <c r="R66" t="n">
         <v>99</v>
       </c>
       <c r="S66" t="n">
-        <v>187.95</v>
+        <v>190</v>
       </c>
       <c r="T66" t="n">
         <v>0.3192307692307693</v>
@@ -5154,10 +4906,1762 @@
         <v>64.48999999999999</v>
       </c>
       <c r="V66" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="W66" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>06/03/2024</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>157.4642857142857</v>
+      </c>
+      <c r="D67" t="n">
+        <v>155.6666666666667</v>
+      </c>
+      <c r="E67" t="n">
+        <v>148.25</v>
+      </c>
+      <c r="F67" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="G67" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H67" t="n">
+        <v>153.2423529411765</v>
+      </c>
+      <c r="I67" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J67" t="n">
+        <v>80.84529411764707</v>
+      </c>
+      <c r="K67" t="n">
+        <v>133.3383908045977</v>
+      </c>
+      <c r="L67" t="n">
+        <v>172.698</v>
+      </c>
+      <c r="M67" t="n">
+        <v>120</v>
+      </c>
+      <c r="N67" t="n">
+        <v>193.3266666666667</v>
+      </c>
+      <c r="O67" t="n">
+        <v>182.99</v>
+      </c>
+      <c r="P67" t="n">
+        <v>184</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>184</v>
+      </c>
+      <c r="R67" t="n">
+        <v>99</v>
+      </c>
+      <c r="S67" t="n">
+        <v>190</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U67" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V67" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="W67" t="n">
+        <v>63.63444444444445</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>07/03/2024</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>160.0321428571428</v>
+      </c>
+      <c r="D68" t="n">
+        <v>156</v>
+      </c>
+      <c r="E68" t="n">
+        <v>148.25</v>
+      </c>
+      <c r="F68" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="G68" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H68" t="n">
+        <v>159.2897222222222</v>
+      </c>
+      <c r="I68" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J68" t="n">
+        <v>84.00399999999999</v>
+      </c>
+      <c r="K68" t="n">
+        <v>139.6338461538462</v>
+      </c>
+      <c r="L68" t="n">
+        <v>178.5269090909091</v>
+      </c>
+      <c r="M68" t="n">
+        <v>120</v>
+      </c>
+      <c r="N68" t="n">
+        <v>193.3266666666667</v>
+      </c>
+      <c r="O68" t="n">
+        <v>182.99</v>
+      </c>
+      <c r="P68" t="n">
+        <v>184</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>184</v>
+      </c>
+      <c r="R68" t="n">
+        <v>99</v>
+      </c>
+      <c r="S68" t="n">
+        <v>196.6</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U68" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V68" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="W68" t="n">
+        <v>63.63444444444445</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>166.861724137931</v>
+      </c>
+      <c r="D69" t="n">
+        <v>161.49</v>
+      </c>
+      <c r="E69" t="n">
+        <v>152.6666666666667</v>
+      </c>
+      <c r="F69" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="G69" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H69" t="n">
+        <v>166.5228947368421</v>
+      </c>
+      <c r="I69" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J69" t="n">
+        <v>87.36133333333333</v>
+      </c>
+      <c r="K69" t="n">
+        <v>148.5520792079208</v>
+      </c>
+      <c r="L69" t="n">
+        <v>187.1764285714286</v>
+      </c>
+      <c r="M69" t="n">
+        <v>120</v>
+      </c>
+      <c r="N69" t="n">
+        <v>193.3266666666667</v>
+      </c>
+      <c r="O69" t="n">
+        <v>182.99</v>
+      </c>
+      <c r="P69" t="n">
+        <v>184</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>184</v>
+      </c>
+      <c r="R69" t="n">
+        <v>99</v>
+      </c>
+      <c r="S69" t="n">
+        <v>196.6</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U69" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V69" t="n">
         <v>118.25</v>
       </c>
-      <c r="W66" t="n">
+      <c r="W69" t="n">
+        <v>64.60909090909091</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>11/03/2024</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>164.98</v>
+      </c>
+      <c r="D70" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>152.6666666666667</v>
+      </c>
+      <c r="F70" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="G70" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H70" t="n">
+        <v>165.7305555555556</v>
+      </c>
+      <c r="I70" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J70" t="n">
+        <v>85.56</v>
+      </c>
+      <c r="K70" t="n">
+        <v>146.7559302325581</v>
+      </c>
+      <c r="L70" t="n">
+        <v>186.7737777777778</v>
+      </c>
+      <c r="M70" t="n">
+        <v>120</v>
+      </c>
+      <c r="N70" t="n">
+        <v>193.3266666666667</v>
+      </c>
+      <c r="O70" t="n">
+        <v>182.99</v>
+      </c>
+      <c r="P70" t="n">
+        <v>184</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>184</v>
+      </c>
+      <c r="R70" t="n">
+        <v>99</v>
+      </c>
+      <c r="S70" t="n">
+        <v>196.6</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U70" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V70" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W70" t="n">
+        <v>64.1125</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>12/03/2024</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>165.7842857142857</v>
+      </c>
+      <c r="D71" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>152.6666666666667</v>
+      </c>
+      <c r="F71" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="G71" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H71" t="n">
+        <v>164.899</v>
+      </c>
+      <c r="I71" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J71" t="n">
+        <v>84.17470588235294</v>
+      </c>
+      <c r="K71" t="n">
+        <v>147.5442045454545</v>
+      </c>
+      <c r="L71" t="n">
+        <v>185.1758333333333</v>
+      </c>
+      <c r="M71" t="n">
+        <v>120</v>
+      </c>
+      <c r="N71" t="n">
+        <v>193.3266666666667</v>
+      </c>
+      <c r="O71" t="n">
+        <v>182.99</v>
+      </c>
+      <c r="P71" t="n">
+        <v>184</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>184</v>
+      </c>
+      <c r="R71" t="n">
+        <v>99</v>
+      </c>
+      <c r="S71" t="n">
+        <v>196.6</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U71" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V71" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W71" t="n">
+        <v>63.85416666666666</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>13/03/2024</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>161.664</v>
+      </c>
+      <c r="D72" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="F72" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="G72" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H72" t="n">
+        <v>160.9636363636364</v>
+      </c>
+      <c r="I72" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J72" t="n">
+        <v>83.52352941176471</v>
+      </c>
+      <c r="K72" t="n">
+        <v>144.0026923076923</v>
+      </c>
+      <c r="L72" t="n">
+        <v>179.7327272727273</v>
+      </c>
+      <c r="M72" t="n">
+        <v>120</v>
+      </c>
+      <c r="N72" t="n">
+        <v>193.3266666666667</v>
+      </c>
+      <c r="O72" t="n">
+        <v>182.99</v>
+      </c>
+      <c r="P72" t="n">
+        <v>187</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>184</v>
+      </c>
+      <c r="R72" t="n">
+        <v>99</v>
+      </c>
+      <c r="S72" t="n">
+        <v>196.6</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U72" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V72" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W72" t="n">
+        <v>63.38888888888889</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>14/03/2024</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>155.6695</v>
+      </c>
+      <c r="D73" t="n">
+        <v>154.4166666666667</v>
+      </c>
+      <c r="E73" t="n">
+        <v>149</v>
+      </c>
+      <c r="F73" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="G73" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H73" t="n">
+        <v>151.9960714285714</v>
+      </c>
+      <c r="I73" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J73" t="n">
+        <v>78.83076923076922</v>
+      </c>
+      <c r="K73" t="n">
+        <v>135.8840566037736</v>
+      </c>
+      <c r="L73" t="n">
+        <v>168.3448888888889</v>
+      </c>
+      <c r="M73" t="n">
+        <v>120</v>
+      </c>
+      <c r="N73" t="n">
+        <v>193.3266666666667</v>
+      </c>
+      <c r="O73" t="n">
+        <v>182.99</v>
+      </c>
+      <c r="P73" t="n">
+        <v>187</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>184</v>
+      </c>
+      <c r="R73" t="n">
+        <v>99</v>
+      </c>
+      <c r="S73" t="n">
+        <v>196.6</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U73" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V73" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W73" t="n">
+        <v>63.35</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>15/03/2024</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>158.5266666666667</v>
+      </c>
+      <c r="D74" t="n">
+        <v>155.75</v>
+      </c>
+      <c r="E74" t="n">
+        <v>147</v>
+      </c>
+      <c r="F74" t="n">
+        <v>147</v>
+      </c>
+      <c r="G74" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H74" t="n">
+        <v>154.2833333333333</v>
+      </c>
+      <c r="I74" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J74" t="n">
+        <v>78.58571428571429</v>
+      </c>
+      <c r="K74" t="n">
+        <v>137.5202857142857</v>
+      </c>
+      <c r="L74" t="n">
+        <v>171.2307272727273</v>
+      </c>
+      <c r="M74" t="n">
+        <v>120</v>
+      </c>
+      <c r="N74" t="n">
+        <v>193.3266666666667</v>
+      </c>
+      <c r="O74" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="P74" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>99</v>
+      </c>
+      <c r="S74" t="n">
+        <v>196.6</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U74" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V74" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W74" t="n">
+        <v>63.80166666666667</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>18/03/2024</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>152.6221428571428</v>
+      </c>
+      <c r="D75" t="n">
+        <v>154</v>
+      </c>
+      <c r="E75" t="n">
+        <v>151</v>
+      </c>
+      <c r="F75" t="n">
+        <v>147</v>
+      </c>
+      <c r="G75" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H75" t="n">
+        <v>144.8608695652174</v>
+      </c>
+      <c r="I75" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J75" t="n">
+        <v>75.46428571428571</v>
+      </c>
+      <c r="K75" t="n">
+        <v>129.1692380952381</v>
+      </c>
+      <c r="L75" t="n">
+        <v>159.549358974359</v>
+      </c>
+      <c r="M75" t="n">
+        <v>120</v>
+      </c>
+      <c r="N75" t="n">
+        <v>193.3266666666667</v>
+      </c>
+      <c r="O75" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="P75" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>99</v>
+      </c>
+      <c r="S75" t="n">
+        <v>196.6</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U75" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V75" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W75" t="n">
+        <v>63.42696428571428</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>19/03/2024</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>147.4356451612903</v>
+      </c>
+      <c r="D76" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="E76" t="n">
+        <v>140</v>
+      </c>
+      <c r="F76" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="G76" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H76" t="n">
+        <v>132.5485</v>
+      </c>
+      <c r="I76" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J76" t="n">
+        <v>72</v>
+      </c>
+      <c r="K76" t="n">
+        <v>118.4378260869565</v>
+      </c>
+      <c r="L76" t="n">
+        <v>148.1596268656716</v>
+      </c>
+      <c r="M76" t="n">
+        <v>120</v>
+      </c>
+      <c r="N76" t="n">
+        <v>189</v>
+      </c>
+      <c r="O76" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="P76" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>99</v>
+      </c>
+      <c r="S76" t="n">
+        <v>180</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U76" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V76" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W76" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>20/03/2024</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>137.5938235294118</v>
+      </c>
+      <c r="D77" t="n">
+        <v>140.125</v>
+      </c>
+      <c r="E77" t="n">
+        <v>140</v>
+      </c>
+      <c r="F77" t="n">
+        <v>141.9966666666667</v>
+      </c>
+      <c r="G77" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H77" t="n">
+        <v>120.143275862069</v>
+      </c>
+      <c r="I77" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J77" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="K77" t="n">
+        <v>108.6959776536313</v>
+      </c>
+      <c r="L77" t="n">
+        <v>134.0439416058394</v>
+      </c>
+      <c r="M77" t="n">
+        <v>120</v>
+      </c>
+      <c r="N77" t="n">
+        <v>189</v>
+      </c>
+      <c r="O77" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="P77" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>99</v>
+      </c>
+      <c r="S77" t="n">
+        <v>180</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U77" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V77" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W77" t="n">
+        <v>63.63</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>21/03/2024</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>143.8952380952381</v>
+      </c>
+      <c r="D78" t="n">
+        <v>145.675</v>
+      </c>
+      <c r="E78" t="n">
+        <v>140</v>
+      </c>
+      <c r="F78" t="n">
+        <v>141.9966666666667</v>
+      </c>
+      <c r="G78" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H78" t="n">
+        <v>132.1272222222222</v>
+      </c>
+      <c r="I78" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J78" t="n">
+        <v>70.56066666666668</v>
+      </c>
+      <c r="K78" t="n">
+        <v>116.9838297872341</v>
+      </c>
+      <c r="L78" t="n">
+        <v>144.7827722772277</v>
+      </c>
+      <c r="M78" t="n">
+        <v>120</v>
+      </c>
+      <c r="N78" t="n">
+        <v>185</v>
+      </c>
+      <c r="O78" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="P78" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>99</v>
+      </c>
+      <c r="S78" t="n">
+        <v>164.6666666666667</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U78" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V78" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W78" t="n">
+        <v>61.95</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>22/03/2024</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>148.9358823529412</v>
+      </c>
+      <c r="D79" t="n">
+        <v>149</v>
+      </c>
+      <c r="E79" t="n">
+        <v>140</v>
+      </c>
+      <c r="F79" t="n">
+        <v>143.25</v>
+      </c>
+      <c r="G79" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H79" t="n">
+        <v>137.3836111111111</v>
+      </c>
+      <c r="I79" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J79" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="K79" t="n">
+        <v>124.6596551724138</v>
+      </c>
+      <c r="L79" t="n">
+        <v>154.9871428571429</v>
+      </c>
+      <c r="M79" t="n">
+        <v>120</v>
+      </c>
+      <c r="N79" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="O79" t="n">
+        <v>185</v>
+      </c>
+      <c r="P79" t="n">
+        <v>182</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>178</v>
+      </c>
+      <c r="R79" t="n">
+        <v>99</v>
+      </c>
+      <c r="S79" t="n">
+        <v>173.075</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U79" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V79" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W79" t="n">
+        <v>61.95</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>25/03/2024</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>155.62</v>
+      </c>
+      <c r="D80" t="n">
+        <v>155.3</v>
+      </c>
+      <c r="E80" t="n">
+        <v>140</v>
+      </c>
+      <c r="F80" t="n">
+        <v>141.75</v>
+      </c>
+      <c r="G80" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H80" t="n">
+        <v>150.1111111111111</v>
+      </c>
+      <c r="I80" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J80" t="n">
+        <v>75.84999999999999</v>
+      </c>
+      <c r="K80" t="n">
+        <v>133.880931372549</v>
+      </c>
+      <c r="L80" t="n">
+        <v>164.45</v>
+      </c>
+      <c r="M80" t="n">
+        <v>120</v>
+      </c>
+      <c r="N80" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="O80" t="n">
+        <v>188</v>
+      </c>
+      <c r="P80" t="n">
+        <v>182</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>99</v>
+      </c>
+      <c r="S80" t="n">
+        <v>173.075</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U80" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V80" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W80" t="n">
+        <v>61.95</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>26/03/2024</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>158.3285714285714</v>
+      </c>
+      <c r="D81" t="n">
+        <v>153</v>
+      </c>
+      <c r="E81" t="n">
+        <v>140</v>
+      </c>
+      <c r="F81" t="n">
+        <v>145</v>
+      </c>
+      <c r="G81" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H81" t="n">
+        <v>146.689</v>
+      </c>
+      <c r="I81" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J81" t="n">
+        <v>76</v>
+      </c>
+      <c r="K81" t="n">
+        <v>140.5012087912088</v>
+      </c>
+      <c r="L81" t="n">
+        <v>168.1404819277109</v>
+      </c>
+      <c r="M81" t="n">
+        <v>120</v>
+      </c>
+      <c r="N81" t="n">
+        <v>200.95</v>
+      </c>
+      <c r="O81" t="n">
+        <v>188</v>
+      </c>
+      <c r="P81" t="n">
+        <v>182</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>99</v>
+      </c>
+      <c r="S81" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U81" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V81" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W81" t="n">
+        <v>61.81666666666666</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>27/03/2024</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="D82" t="n">
+        <v>150.625</v>
+      </c>
+      <c r="E82" t="n">
+        <v>148</v>
+      </c>
+      <c r="F82" t="n">
+        <v>146.96</v>
+      </c>
+      <c r="G82" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H82" t="n">
+        <v>147.3958333333333</v>
+      </c>
+      <c r="I82" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J82" t="n">
+        <v>73.16666666666667</v>
+      </c>
+      <c r="K82" t="n">
+        <v>136.437265625</v>
+      </c>
+      <c r="L82" t="n">
+        <v>161.0813580246914</v>
+      </c>
+      <c r="M82" t="n">
+        <v>120</v>
+      </c>
+      <c r="N82" t="n">
+        <v>200.95</v>
+      </c>
+      <c r="O82" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="P82" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>99</v>
+      </c>
+      <c r="S82" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U82" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V82" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W82" t="n">
+        <v>61.81666666666666</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>28/03/2024</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>150.1111111111111</v>
+      </c>
+      <c r="D83" t="n">
+        <v>148.6666666666667</v>
+      </c>
+      <c r="E83" t="n">
+        <v>146</v>
+      </c>
+      <c r="F83" t="n">
+        <v>142</v>
+      </c>
+      <c r="G83" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H83" t="n">
+        <v>136.0045833333333</v>
+      </c>
+      <c r="I83" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J83" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>126.7428313253012</v>
+      </c>
+      <c r="L83" t="n">
+        <v>149.7661111111111</v>
+      </c>
+      <c r="M83" t="n">
+        <v>120</v>
+      </c>
+      <c r="N83" t="n">
+        <v>189</v>
+      </c>
+      <c r="O83" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="P83" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>99</v>
+      </c>
+      <c r="S83" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U83" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V83" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W83" t="n">
+        <v>61.81666666666666</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>138.248</v>
+      </c>
+      <c r="D84" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="E84" t="n">
+        <v>144.25</v>
+      </c>
+      <c r="F84" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="G84" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H84" t="n">
+        <v>123.84</v>
+      </c>
+      <c r="I84" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J84" t="n">
+        <v>70</v>
+      </c>
+      <c r="K84" t="n">
+        <v>112.9129113924051</v>
+      </c>
+      <c r="L84" t="n">
+        <v>137.6926582278481</v>
+      </c>
+      <c r="M84" t="n">
+        <v>120</v>
+      </c>
+      <c r="N84" t="n">
+        <v>189</v>
+      </c>
+      <c r="O84" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="P84" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>99</v>
+      </c>
+      <c r="S84" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U84" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V84" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W84" t="n">
+        <v>61.81666666666666</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>02/04/2024</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>141.21</v>
+      </c>
+      <c r="D85" t="n">
+        <v>143.71875</v>
+      </c>
+      <c r="E85" t="n">
+        <v>143.875</v>
+      </c>
+      <c r="F85" t="n">
+        <v>142.25</v>
+      </c>
+      <c r="G85" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H85" t="n">
+        <v>126.5884615384615</v>
+      </c>
+      <c r="I85" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J85" t="n">
+        <v>70</v>
+      </c>
+      <c r="K85" t="n">
+        <v>115.1426315789474</v>
+      </c>
+      <c r="L85" t="n">
+        <v>138.8971830985916</v>
+      </c>
+      <c r="M85" t="n">
+        <v>120</v>
+      </c>
+      <c r="N85" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="O85" t="n">
+        <v>180</v>
+      </c>
+      <c r="P85" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>99</v>
+      </c>
+      <c r="S85" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U85" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V85" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W85" t="n">
+        <v>61.92666666666667</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>03/04/2024</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>136.13</v>
+      </c>
+      <c r="D86" t="n">
+        <v>139.9583333333333</v>
+      </c>
+      <c r="E86" t="n">
+        <v>138.75</v>
+      </c>
+      <c r="F86" t="n">
+        <v>136</v>
+      </c>
+      <c r="G86" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H86" t="n">
+        <v>119.294375</v>
+      </c>
+      <c r="I86" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J86" t="n">
+        <v>65</v>
+      </c>
+      <c r="K86" t="n">
+        <v>106.9330817610063</v>
+      </c>
+      <c r="L86" t="n">
+        <v>131.8173394495413</v>
+      </c>
+      <c r="M86" t="n">
+        <v>120</v>
+      </c>
+      <c r="N86" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="O86" t="n">
+        <v>180</v>
+      </c>
+      <c r="P86" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>99</v>
+      </c>
+      <c r="S86" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U86" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V86" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W86" t="n">
         <v>61.9175</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>04/04/2024</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>131.6772727272727</v>
+      </c>
+      <c r="D87" t="n">
+        <v>136.8125</v>
+      </c>
+      <c r="E87" t="n">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="F87" t="n">
+        <v>136</v>
+      </c>
+      <c r="G87" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H87" t="n">
+        <v>110.4814814814815</v>
+      </c>
+      <c r="I87" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J87" t="n">
+        <v>64</v>
+      </c>
+      <c r="K87" t="n">
+        <v>100.590652173913</v>
+      </c>
+      <c r="L87" t="n">
+        <v>121.5054444444444</v>
+      </c>
+      <c r="M87" t="n">
+        <v>120</v>
+      </c>
+      <c r="N87" t="n">
+        <v>170</v>
+      </c>
+      <c r="O87" t="n">
+        <v>180</v>
+      </c>
+      <c r="P87" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>99</v>
+      </c>
+      <c r="S87" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U87" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V87" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W87" t="n">
+        <v>61.9175</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>05/04/2024</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>133.5607692307692</v>
+      </c>
+      <c r="D88" t="n">
+        <v>139.528</v>
+      </c>
+      <c r="E88" t="n">
+        <v>138</v>
+      </c>
+      <c r="F88" t="n">
+        <v>138</v>
+      </c>
+      <c r="G88" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H88" t="n">
+        <v>115.2333333333333</v>
+      </c>
+      <c r="I88" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J88" t="n">
+        <v>64</v>
+      </c>
+      <c r="K88" t="n">
+        <v>104.1882</v>
+      </c>
+      <c r="L88" t="n">
+        <v>127.91328125</v>
+      </c>
+      <c r="M88" t="n">
+        <v>120</v>
+      </c>
+      <c r="N88" t="n">
+        <v>173</v>
+      </c>
+      <c r="O88" t="n">
+        <v>180</v>
+      </c>
+      <c r="P88" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>99</v>
+      </c>
+      <c r="S88" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U88" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V88" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W88" t="n">
+        <v>61.9175</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>08/04/2024</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>120.6352380952381</v>
+      </c>
+      <c r="D89" t="n">
+        <v>132.1470588235294</v>
+      </c>
+      <c r="E89" t="n">
+        <v>131.6666666666667</v>
+      </c>
+      <c r="F89" t="n">
+        <v>134</v>
+      </c>
+      <c r="G89" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H89" t="n">
+        <v>93.10354838709678</v>
+      </c>
+      <c r="I89" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J89" t="n">
+        <v>64</v>
+      </c>
+      <c r="K89" t="n">
+        <v>83.29418439716312</v>
+      </c>
+      <c r="L89" t="n">
+        <v>102.9786861313869</v>
+      </c>
+      <c r="M89" t="n">
+        <v>120</v>
+      </c>
+      <c r="N89" t="n">
+        <v>173</v>
+      </c>
+      <c r="O89" t="n">
+        <v>180</v>
+      </c>
+      <c r="P89" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>99</v>
+      </c>
+      <c r="S89" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U89" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V89" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W89" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>09/04/2024</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>120.6352380952381</v>
+      </c>
+      <c r="D90" t="n">
+        <v>132.1470588235294</v>
+      </c>
+      <c r="E90" t="n">
+        <v>131.6666666666667</v>
+      </c>
+      <c r="F90" t="n">
+        <v>134</v>
+      </c>
+      <c r="G90" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H90" t="n">
+        <v>93.10354838709678</v>
+      </c>
+      <c r="I90" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J90" t="n">
+        <v>64</v>
+      </c>
+      <c r="K90" t="n">
+        <v>81.66666666666667</v>
+      </c>
+      <c r="L90" t="n">
+        <v>102.9786861313869</v>
+      </c>
+      <c r="M90" t="n">
+        <v>120</v>
+      </c>
+      <c r="N90" t="n">
+        <v>173</v>
+      </c>
+      <c r="O90" t="n">
+        <v>180</v>
+      </c>
+      <c r="P90" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>99</v>
+      </c>
+      <c r="S90" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U90" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V90" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W90" t="n">
+        <v>64.48999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W55"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4447,6 +4447,590 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>22/04/2024</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>120.943</v>
+      </c>
+      <c r="D56" t="n">
+        <v>135.061</v>
+      </c>
+      <c r="E56" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="F56" t="n">
+        <v>137</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>84.53714285714285</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>72.48352941176471</v>
+      </c>
+      <c r="L56" t="n">
+        <v>97.43596774193549</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="O56" t="n">
+        <v>173</v>
+      </c>
+      <c r="P56" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>131</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U56" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V56" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W56" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>23/04/2024</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>117.6409090909091</v>
+      </c>
+      <c r="D57" t="n">
+        <v>133.028</v>
+      </c>
+      <c r="E57" t="n">
+        <v>137</v>
+      </c>
+      <c r="F57" t="n">
+        <v>137</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>80</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>62</v>
+      </c>
+      <c r="K57" t="n">
+        <v>71</v>
+      </c>
+      <c r="L57" t="n">
+        <v>92.53148148148148</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="O57" t="n">
+        <v>173</v>
+      </c>
+      <c r="P57" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>131</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U57" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V57" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W57" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>24/04/2024</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>115.84</v>
+      </c>
+      <c r="D58" t="n">
+        <v>132.5375</v>
+      </c>
+      <c r="E58" t="n">
+        <v>134.45</v>
+      </c>
+      <c r="F58" t="n">
+        <v>138.525</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>80.75</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>62</v>
+      </c>
+      <c r="K58" t="n">
+        <v>70.55272727272728</v>
+      </c>
+      <c r="L58" t="n">
+        <v>91.18298701298701</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="O58" t="n">
+        <v>173</v>
+      </c>
+      <c r="P58" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>131</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U58" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V58" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W58" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>25/04/2024</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>119.1523529411765</v>
+      </c>
+      <c r="D59" t="n">
+        <v>135</v>
+      </c>
+      <c r="E59" t="n">
+        <v>135.75</v>
+      </c>
+      <c r="F59" t="n">
+        <v>136</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>82.25</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>62</v>
+      </c>
+      <c r="K59" t="n">
+        <v>71.05666666666667</v>
+      </c>
+      <c r="L59" t="n">
+        <v>96.35022222222223</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>154</v>
+      </c>
+      <c r="O59" t="n">
+        <v>173</v>
+      </c>
+      <c r="P59" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>131</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U59" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V59" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W59" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>119.3333333333333</v>
+      </c>
+      <c r="D60" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>135.75</v>
+      </c>
+      <c r="F60" t="n">
+        <v>136</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>81</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>62</v>
+      </c>
+      <c r="K60" t="n">
+        <v>71</v>
+      </c>
+      <c r="L60" t="n">
+        <v>93.69</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>154</v>
+      </c>
+      <c r="O60" t="n">
+        <v>173</v>
+      </c>
+      <c r="P60" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>131</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U60" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V60" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W60" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>29/04/2024</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>121.9357142857143</v>
+      </c>
+      <c r="D61" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>136</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>62</v>
+      </c>
+      <c r="K61" t="n">
+        <v>72.45833333333333</v>
+      </c>
+      <c r="L61" t="n">
+        <v>96.30311688311689</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>154</v>
+      </c>
+      <c r="O61" t="n">
+        <v>173</v>
+      </c>
+      <c r="P61" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>131</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U61" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V61" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W61" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>30/04/2024</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>124.3333333333333</v>
+      </c>
+      <c r="D62" t="n">
+        <v>136.9666666666667</v>
+      </c>
+      <c r="E62" t="n">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="F62" t="n">
+        <v>136</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>85</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>62</v>
+      </c>
+      <c r="K62" t="n">
+        <v>73.04625</v>
+      </c>
+      <c r="L62" t="n">
+        <v>97.96542372881356</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>154</v>
+      </c>
+      <c r="O62" t="n">
+        <v>173</v>
+      </c>
+      <c r="P62" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>131</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U62" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V62" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W62" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>02/05/2024</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>125.475</v>
+      </c>
+      <c r="D63" t="n">
+        <v>138</v>
+      </c>
+      <c r="E63" t="n">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="F63" t="n">
+        <v>136</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>85.23333333333333</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>62</v>
+      </c>
+      <c r="K63" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="L63" t="n">
+        <v>98.56724137931033</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>154</v>
+      </c>
+      <c r="O63" t="n">
+        <v>173</v>
+      </c>
+      <c r="P63" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>131</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U63" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V63" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W63" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:W99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,64 +551,44 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>137.2878947368421</v>
+        <v>94.75</v>
       </c>
       <c r="D2" t="n">
-        <v>135.5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>148</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>71.25</v>
       </c>
       <c r="H2" t="n">
-        <v>109.2476811594203</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>70.49163265306123</v>
-      </c>
-      <c r="K2" t="n">
-        <v>89.99432432432432</v>
-      </c>
-      <c r="L2" t="n">
-        <v>128.4413461538462</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>174</v>
-      </c>
-      <c r="O2" t="n">
-        <v>182</v>
-      </c>
+        <v>81.6875</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
-        <v>0.5764077669902913</v>
+        <v>78.5</v>
       </c>
       <c r="U2" t="n">
-        <v>62</v>
-      </c>
-      <c r="V2" t="n">
-        <v>64.9375</v>
-      </c>
-      <c r="W2" t="n">
-        <v>65.62857142857142</v>
-      </c>
+        <v>72.75</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -616,66 +596,44 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02/02/2024</t>
+          <t>03/11/2023</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>143.1755102040816</v>
+        <v>96</v>
       </c>
       <c r="D3" t="n">
-        <v>150.515</v>
-      </c>
-      <c r="E3" t="n">
-        <v>150.8333333333333</v>
-      </c>
-      <c r="F3" t="n">
-        <v>151.125</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>71.25</v>
       </c>
       <c r="H3" t="n">
-        <v>115.3198765432099</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>70.52352941176471</v>
-      </c>
-      <c r="K3" t="n">
-        <v>95.02445945945946</v>
-      </c>
-      <c r="L3" t="n">
-        <v>134.3290607734807</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>174</v>
-      </c>
-      <c r="O3" t="n">
-        <v>185.75</v>
-      </c>
+        <v>82.75</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
-        <v>0.6796153846153846</v>
+        <v>78.5</v>
       </c>
       <c r="U3" t="n">
-        <v>62</v>
-      </c>
-      <c r="V3" t="n">
-        <v>64</v>
-      </c>
-      <c r="W3" t="n">
-        <v>66</v>
-      </c>
+        <v>71.75</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -683,68 +641,50 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>05/02/2024</t>
+          <t>06/11/2023</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>158.7576315789474</v>
+        <v>96.875</v>
       </c>
       <c r="D4" t="n">
-        <v>160.18125</v>
+        <v>106</v>
       </c>
       <c r="E4" t="n">
-        <v>158.6125</v>
+        <v>116.5</v>
       </c>
       <c r="F4" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>71.25</v>
       </c>
       <c r="H4" t="n">
-        <v>134.9989583333333</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>74.10395833333332</v>
-      </c>
-      <c r="K4" t="n">
-        <v>113.6128099173554</v>
-      </c>
-      <c r="L4" t="n">
-        <v>158.9619230769231</v>
-      </c>
+        <v>82.75</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>197</v>
-      </c>
-      <c r="O4" t="n">
-        <v>197</v>
-      </c>
-      <c r="P4" t="n">
-        <v>199</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>0.4512962962962963</v>
+        <v>78.5</v>
       </c>
       <c r="U4" t="n">
-        <v>60</v>
-      </c>
-      <c r="V4" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>68.14583333333333</v>
-      </c>
+        <v>71.75</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -752,70 +692,52 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>06/02/2024</t>
+          <t>07/11/2023</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>175.6537704918033</v>
+        <v>97.66666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>169.0621621621622</v>
+        <v>108.5</v>
       </c>
       <c r="E5" t="n">
-        <v>166.4045454545455</v>
+        <v>117.5</v>
       </c>
       <c r="F5" t="n">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>72.75</v>
       </c>
       <c r="H5" t="n">
-        <v>166.6695726495726</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>84.75</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>76.63704918032786</v>
-      </c>
-      <c r="K5" t="n">
-        <v>146.1977659574468</v>
-      </c>
-      <c r="L5" t="n">
-        <v>184.10796875</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>197</v>
-      </c>
-      <c r="O5" t="n">
-        <v>197</v>
-      </c>
-      <c r="P5" t="n">
-        <v>199</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>200</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>0.6175757575757576</v>
+        <v>78.5</v>
       </c>
       <c r="U5" t="n">
-        <v>60</v>
-      </c>
-      <c r="V5" t="n">
-        <v>63.66666666666666</v>
-      </c>
-      <c r="W5" t="n">
-        <v>67.5</v>
-      </c>
+        <v>71.75</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -823,69 +745,57 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>07/02/2024</t>
+          <t>08/11/2023</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>173.07</v>
+        <v>100.0777777777778</v>
       </c>
       <c r="D6" t="n">
-        <v>164.275</v>
+        <v>112.5</v>
       </c>
       <c r="E6" t="n">
-        <v>160</v>
+        <v>117.9333333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>75.11125</v>
       </c>
       <c r="H6" t="n">
-        <v>157.9772093023256</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>73.33879999999999</v>
-      </c>
-      <c r="K6" t="n">
-        <v>140.0048905109489</v>
-      </c>
-      <c r="L6" t="n">
-        <v>179.4702197802198</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>111.7</v>
       </c>
       <c r="N6" t="n">
-        <v>213</v>
-      </c>
-      <c r="O6" t="n">
-        <v>197</v>
-      </c>
-      <c r="P6" t="n">
-        <v>199</v>
-      </c>
+        <v>132.45</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>200</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.5236585365853659</v>
+        <v>78.5</v>
       </c>
       <c r="U6" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="V6" t="n">
-        <v>63.33</v>
+        <v>77</v>
       </c>
       <c r="W6" t="n">
-        <v>65.752</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -894,69 +804,57 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>168.5291111111111</v>
+        <v>100.9821428571429</v>
       </c>
       <c r="D7" t="n">
-        <v>158.3928571428571</v>
+        <v>112.5</v>
       </c>
       <c r="E7" t="n">
-        <v>155</v>
+        <v>119.625</v>
       </c>
       <c r="F7" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>74.88499999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>157.9139393939394</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>86.33333333333333</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>75.88549019607842</v>
-      </c>
-      <c r="K7" t="n">
-        <v>138.9766666666667</v>
-      </c>
-      <c r="L7" t="n">
-        <v>177.5528787878788</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>111.7</v>
       </c>
       <c r="N7" t="n">
-        <v>213</v>
-      </c>
-      <c r="O7" t="n">
-        <v>197</v>
-      </c>
-      <c r="P7" t="n">
-        <v>199</v>
-      </c>
+        <v>132.45</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>194.5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U7" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="V7" t="n">
-        <v>63.69923076923077</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="W7" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -965,69 +863,57 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>09/02/2024</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>163.4818181818182</v>
+        <v>101.4</v>
       </c>
       <c r="D8" t="n">
-        <v>153.75</v>
+        <v>112.5</v>
       </c>
       <c r="E8" t="n">
-        <v>154</v>
+        <v>119.625</v>
       </c>
       <c r="F8" t="n">
-        <v>154.25</v>
+        <v>112</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="H8" t="n">
-        <v>154.9448148148148</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>74.9148275862069</v>
-      </c>
-      <c r="K8" t="n">
-        <v>135.4209433962264</v>
-      </c>
-      <c r="L8" t="n">
-        <v>174.2733333333333</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>114.78</v>
       </c>
       <c r="N8" t="n">
-        <v>213</v>
-      </c>
-      <c r="O8" t="n">
-        <v>197</v>
-      </c>
-      <c r="P8" t="n">
-        <v>199</v>
-      </c>
+        <v>132.45</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>194.5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U8" t="n">
-        <v>64.48999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="V8" t="n">
-        <v>63.09111111111112</v>
+        <v>77.7</v>
       </c>
       <c r="W8" t="n">
-        <v>66.08333333333333</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -1036,69 +922,57 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14/02/2024</t>
+          <t>13/11/2023</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>157.709375</v>
+        <v>103.25</v>
       </c>
       <c r="D9" t="n">
-        <v>148.875</v>
+        <v>114.1666666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>154</v>
+        <v>119.625</v>
       </c>
       <c r="F9" t="n">
-        <v>154.25</v>
+        <v>112</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>75.375</v>
       </c>
       <c r="H9" t="n">
-        <v>147.1722222222222</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>74.16111111111111</v>
-      </c>
-      <c r="K9" t="n">
-        <v>128.6016666666667</v>
-      </c>
-      <c r="L9" t="n">
-        <v>167.19046875</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>114.78</v>
       </c>
       <c r="N9" t="n">
-        <v>213</v>
-      </c>
-      <c r="O9" t="n">
-        <v>197</v>
-      </c>
-      <c r="P9" t="n">
-        <v>199</v>
-      </c>
+        <v>132.45</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>194.5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U9" t="n">
-        <v>64.48999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="V9" t="n">
-        <v>62.57000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="W9" t="n">
-        <v>66.08333333333333</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -1107,69 +981,57 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15/02/2024</t>
+          <t>14/11/2023</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>167.3490566037736</v>
+        <v>104.84</v>
       </c>
       <c r="D10" t="n">
-        <v>158.1625</v>
+        <v>115.84</v>
       </c>
       <c r="E10" t="n">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="F10" t="n">
-        <v>154.25</v>
+        <v>122.58</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>74.515</v>
       </c>
       <c r="H10" t="n">
-        <v>158.4319444444444</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>85.85000000000001</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>75.8592</v>
-      </c>
-      <c r="K10" t="n">
-        <v>136.0265100671141</v>
-      </c>
-      <c r="L10" t="n">
-        <v>179.9542857142857</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>114.78</v>
       </c>
       <c r="N10" t="n">
-        <v>213</v>
-      </c>
-      <c r="O10" t="n">
-        <v>197</v>
-      </c>
-      <c r="P10" t="n">
-        <v>199</v>
-      </c>
+        <v>132.45</v>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>194.5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U10" t="n">
-        <v>64.48999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="V10" t="n">
-        <v>63.33333333333334</v>
+        <v>77.7</v>
       </c>
       <c r="W10" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -1178,69 +1040,57 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16/02/2024</t>
+          <t>16/11/2023</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>173.6476923076923</v>
+        <v>105.8823529411765</v>
       </c>
       <c r="D11" t="n">
-        <v>159.651</v>
+        <v>116.75</v>
       </c>
       <c r="E11" t="n">
-        <v>156.8</v>
+        <v>120</v>
       </c>
       <c r="F11" t="n">
-        <v>152</v>
+        <v>122.58</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="H11" t="n">
-        <v>164.5596</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>77.45294117647059</v>
-      </c>
-      <c r="K11" t="n">
-        <v>146.2514503816794</v>
-      </c>
-      <c r="L11" t="n">
-        <v>186.4590909090909</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>113.1</v>
       </c>
       <c r="N11" t="n">
-        <v>209</v>
-      </c>
-      <c r="O11" t="n">
-        <v>197</v>
-      </c>
-      <c r="P11" t="n">
-        <v>199</v>
-      </c>
+        <v>132.45</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>194.5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U11" t="n">
-        <v>64.48999999999999</v>
+        <v>76.75</v>
       </c>
       <c r="V11" t="n">
-        <v>62.58222222222222</v>
+        <v>77.7</v>
       </c>
       <c r="W11" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -1249,69 +1099,61 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>19/02/2024</t>
+          <t>17/11/2023</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>170.8975</v>
+        <v>107.8775</v>
       </c>
       <c r="D12" t="n">
-        <v>159</v>
+        <v>116.41</v>
       </c>
       <c r="E12" t="n">
-        <v>153.75</v>
+        <v>122.95</v>
       </c>
       <c r="F12" t="n">
-        <v>152</v>
+        <v>122.58</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>74.32727272727273</v>
       </c>
       <c r="H12" t="n">
-        <v>159.7632</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>87.625</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>76.13925925925926</v>
+        <v>73</v>
       </c>
       <c r="K12" t="n">
-        <v>139.6658536585366</v>
-      </c>
-      <c r="L12" t="n">
-        <v>180.0119512195122</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>114.5</v>
       </c>
       <c r="N12" t="n">
-        <v>209</v>
-      </c>
-      <c r="O12" t="n">
-        <v>197</v>
-      </c>
-      <c r="P12" t="n">
-        <v>199</v>
-      </c>
+        <v>132.45</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S12" t="n">
-        <v>194.5</v>
+        <v>122</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U12" t="n">
-        <v>64.48999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="V12" t="n">
-        <v>62.36142857142857</v>
+        <v>77.7</v>
       </c>
       <c r="W12" t="n">
-        <v>64.5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -1320,69 +1162,61 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20/02/2024</t>
+          <t>20/11/2023</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>171</v>
+        <v>107.8775</v>
       </c>
       <c r="D13" t="n">
-        <v>158.125</v>
+        <v>116.41</v>
       </c>
       <c r="E13" t="n">
-        <v>153.75</v>
+        <v>122.95</v>
       </c>
       <c r="F13" t="n">
-        <v>152</v>
+        <v>122.58</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="H13" t="n">
-        <v>162.12</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>87.625</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>76.6557142857143</v>
+        <v>73</v>
       </c>
       <c r="K13" t="n">
-        <v>140.4725925925926</v>
-      </c>
-      <c r="L13" t="n">
-        <v>182.1969444444445</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>114.5</v>
       </c>
       <c r="N13" t="n">
-        <v>209</v>
-      </c>
-      <c r="O13" t="n">
-        <v>197</v>
-      </c>
-      <c r="P13" t="n">
-        <v>199</v>
-      </c>
+        <v>132.45</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S13" t="n">
-        <v>194.5</v>
+        <v>122</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U13" t="n">
-        <v>64.48999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="V13" t="n">
-        <v>65</v>
+        <v>77.7</v>
       </c>
       <c r="W13" t="n">
-        <v>64.125</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -1391,69 +1225,63 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21/02/2024</t>
+          <t>21/11/2023</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>165.1740625</v>
+        <v>107.3125</v>
       </c>
       <c r="D14" t="n">
-        <v>154.012</v>
+        <v>117.5</v>
       </c>
       <c r="E14" t="n">
-        <v>153.4</v>
+        <v>122.95</v>
       </c>
       <c r="F14" t="n">
-        <v>152</v>
+        <v>122.58</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>73.42</v>
       </c>
       <c r="H14" t="n">
-        <v>153.6395833333333</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>74.26666666666667</v>
+        <v>71.5</v>
       </c>
       <c r="K14" t="n">
-        <v>134.1602608695652</v>
-      </c>
-      <c r="L14" t="n">
-        <v>174.3914457831325</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>114.5</v>
       </c>
       <c r="N14" t="n">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="O14" t="n">
-        <v>197</v>
-      </c>
-      <c r="P14" t="n">
-        <v>199</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S14" t="n">
-        <v>194.5</v>
+        <v>122</v>
       </c>
       <c r="T14" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U14" t="n">
-        <v>64.48999999999999</v>
+        <v>78.32857142857142</v>
       </c>
       <c r="V14" t="n">
-        <v>62.13</v>
+        <v>77.7</v>
       </c>
       <c r="W14" t="n">
-        <v>63.11428571428571</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -1462,69 +1290,63 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22/02/2024</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>153.492027027027</v>
+        <v>107.15</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1777777777778</v>
+        <v>118.4</v>
       </c>
       <c r="E15" t="n">
-        <v>153.4</v>
+        <v>126.5</v>
       </c>
       <c r="F15" t="n">
-        <v>152</v>
+        <v>122.58</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>71.63888888888889</v>
       </c>
       <c r="H15" t="n">
-        <v>138.2097247706422</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>84.55</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>71.17588235294117</v>
+        <v>69.22857142857143</v>
       </c>
       <c r="K15" t="n">
-        <v>120.6092352941176</v>
-      </c>
-      <c r="L15" t="n">
-        <v>157.9024369747899</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>111.5</v>
       </c>
       <c r="N15" t="n">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="O15" t="n">
-        <v>197</v>
-      </c>
-      <c r="P15" t="n">
-        <v>199</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S15" t="n">
-        <v>194.5</v>
+        <v>122</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U15" t="n">
-        <v>64.48999999999999</v>
+        <v>77.06</v>
       </c>
       <c r="V15" t="n">
-        <v>61.7</v>
+        <v>77.7</v>
       </c>
       <c r="W15" t="n">
-        <v>62.51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -1533,71 +1355,63 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>23/02/2024</t>
+          <t>23/11/2023</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>152.2510447761194</v>
+        <v>102.9266666666667</v>
       </c>
       <c r="D16" t="n">
-        <v>149.1153846153846</v>
+        <v>114.6</v>
       </c>
       <c r="E16" t="n">
-        <v>145.5</v>
+        <v>122.8333333333333</v>
       </c>
       <c r="F16" t="n">
-        <v>144.75</v>
+        <v>128.6666666666667</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>71.63888888888889</v>
       </c>
       <c r="H16" t="n">
-        <v>140.6379411764706</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>79.47666666666667</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>72.4875</v>
+        <v>67.5</v>
       </c>
       <c r="K16" t="n">
-        <v>116.7217647058824</v>
-      </c>
-      <c r="L16" t="n">
-        <v>157.9007692307692</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>111.5</v>
       </c>
       <c r="N16" t="n">
-        <v>186.26</v>
+        <v>136.3333333333333</v>
       </c>
       <c r="O16" t="n">
-        <v>185</v>
-      </c>
-      <c r="P16" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>184</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S16" t="n">
-        <v>194.5</v>
+        <v>122</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U16" t="n">
-        <v>64.48999999999999</v>
+        <v>72.842</v>
       </c>
       <c r="V16" t="n">
-        <v>62</v>
+        <v>77.7</v>
       </c>
       <c r="W16" t="n">
-        <v>62.5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -1606,71 +1420,65 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>26/02/2024</t>
+          <t>24/11/2023</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>148.9651724137931</v>
+        <v>100.3811764705882</v>
       </c>
       <c r="D17" t="n">
-        <v>146.75</v>
+        <v>115</v>
       </c>
       <c r="E17" t="n">
-        <v>148.5</v>
+        <v>122.0833333333333</v>
       </c>
       <c r="F17" t="n">
-        <v>144.75</v>
+        <v>129</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>70.26666666666667</v>
       </c>
       <c r="H17" t="n">
-        <v>138.61</v>
+        <v>79.065</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>71.5</v>
       </c>
       <c r="J17" t="n">
-        <v>72.205</v>
+        <v>67.2</v>
       </c>
       <c r="K17" t="n">
-        <v>117.1116379310345</v>
-      </c>
-      <c r="L17" t="n">
-        <v>157.5224444444445</v>
-      </c>
+        <v>77.5</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>111.5</v>
       </c>
       <c r="N17" t="n">
-        <v>188</v>
+        <v>136.3333333333333</v>
       </c>
       <c r="O17" t="n">
-        <v>185</v>
-      </c>
-      <c r="P17" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>184</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S17" t="n">
-        <v>194.5</v>
+        <v>122</v>
       </c>
       <c r="T17" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U17" t="n">
-        <v>64.48999999999999</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="V17" t="n">
-        <v>62.116</v>
+        <v>77.7</v>
       </c>
       <c r="W17" t="n">
-        <v>62.96666666666667</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -1679,71 +1487,67 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>27/02/2024</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>153.6804761904762</v>
+        <v>101.4983333333333</v>
       </c>
       <c r="D18" t="n">
-        <v>149.7666666666667</v>
+        <v>114.5</v>
       </c>
       <c r="E18" t="n">
-        <v>148.875</v>
+        <v>123.5</v>
       </c>
       <c r="F18" t="n">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>70.5</v>
       </c>
       <c r="H18" t="n">
-        <v>145.7759259259259</v>
+        <v>79.098</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>71.5</v>
       </c>
       <c r="J18" t="n">
-        <v>75.36481481481481</v>
+        <v>68</v>
       </c>
       <c r="K18" t="n">
-        <v>124.7240909090909</v>
+        <v>77.33333333333333</v>
       </c>
       <c r="L18" t="n">
-        <v>165.749012345679</v>
+        <v>80</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>111.5</v>
       </c>
       <c r="N18" t="n">
-        <v>189</v>
+        <v>136.3333333333333</v>
       </c>
       <c r="O18" t="n">
-        <v>185</v>
-      </c>
-      <c r="P18" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>184</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S18" t="n">
-        <v>194.5</v>
+        <v>122</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U18" t="n">
-        <v>64.48999999999999</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="V18" t="n">
-        <v>62.3175</v>
+        <v>77.7</v>
       </c>
       <c r="W18" t="n">
-        <v>66.18892857142858</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
@@ -1752,71 +1556,67 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>28/02/2024</t>
+          <t>28/11/2023</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>155.2923076923077</v>
+        <v>103.2833333333333</v>
       </c>
       <c r="D19" t="n">
-        <v>149.8333333333333</v>
+        <v>116</v>
       </c>
       <c r="E19" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>127.285</v>
+      </c>
+      <c r="G19" t="n">
+        <v>70</v>
+      </c>
+      <c r="H19" t="n">
+        <v>79.25</v>
+      </c>
+      <c r="I19" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>68</v>
+      </c>
+      <c r="K19" t="n">
+        <v>77.33333333333333</v>
+      </c>
+      <c r="L19" t="n">
+        <v>80</v>
+      </c>
+      <c r="M19" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>136.3333333333333</v>
+      </c>
+      <c r="O19" t="n">
         <v>150</v>
       </c>
-      <c r="F19" t="n">
-        <v>145</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>147.5516129032258</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>77.15555555555555</v>
-      </c>
-      <c r="K19" t="n">
-        <v>126.9850574712644</v>
-      </c>
-      <c r="L19" t="n">
-        <v>167.8631428571429</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>192</v>
-      </c>
-      <c r="O19" t="n">
-        <v>185</v>
-      </c>
-      <c r="P19" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>184</v>
-      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S19" t="n">
-        <v>194.5</v>
+        <v>122</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U19" t="n">
-        <v>64.48999999999999</v>
+        <v>73.55499999999999</v>
       </c>
       <c r="V19" t="n">
-        <v>62.53571428571428</v>
+        <v>76</v>
       </c>
       <c r="W19" t="n">
-        <v>66.18607142857142</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
@@ -1825,71 +1625,67 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>29/02/2024</t>
+          <t>29/11/2023</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>158.4117647058823</v>
+        <v>101.5</v>
       </c>
       <c r="D20" t="n">
-        <v>152.2871428571429</v>
+        <v>116</v>
       </c>
       <c r="E20" t="n">
-        <v>150.5</v>
+        <v>123.5</v>
       </c>
       <c r="F20" t="n">
-        <v>145</v>
+        <v>127.285</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>70.625</v>
       </c>
       <c r="H20" t="n">
-        <v>151.2335294117647</v>
+        <v>79.25</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>71.5</v>
       </c>
       <c r="J20" t="n">
-        <v>79.78918918918919</v>
+        <v>68.5</v>
       </c>
       <c r="K20" t="n">
-        <v>130.3195161290323</v>
+        <v>77.33333333333333</v>
       </c>
       <c r="L20" t="n">
-        <v>171.5811111111111</v>
+        <v>80</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="N20" t="n">
-        <v>193.3266666666667</v>
+        <v>134.5</v>
       </c>
       <c r="O20" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P20" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>184</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S20" t="n">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="T20" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U20" t="n">
-        <v>64.48999999999999</v>
+        <v>71.62</v>
       </c>
       <c r="V20" t="n">
-        <v>65.5</v>
+        <v>71</v>
       </c>
       <c r="W20" t="n">
-        <v>66.3</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -1898,71 +1694,67 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>159.7727272727273</v>
+        <v>101.7285714285714</v>
       </c>
       <c r="D21" t="n">
-        <v>156.3</v>
+        <v>115</v>
       </c>
       <c r="E21" t="n">
-        <v>148.8333333333333</v>
+        <v>123.5</v>
       </c>
       <c r="F21" t="n">
-        <v>141.5</v>
+        <v>127.285</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>70.625</v>
       </c>
       <c r="H21" t="n">
-        <v>153.5968965517241</v>
+        <v>77.995</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>72.5</v>
       </c>
       <c r="J21" t="n">
-        <v>79.30921052631579</v>
+        <v>68.16666666666667</v>
       </c>
       <c r="K21" t="n">
-        <v>132.2443548387097</v>
+        <v>76.5</v>
       </c>
       <c r="L21" t="n">
-        <v>171.4761904761905</v>
+        <v>80</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="N21" t="n">
-        <v>193.3266666666667</v>
+        <v>132.5</v>
       </c>
       <c r="O21" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P21" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>184</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S21" t="n">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U21" t="n">
-        <v>64.48999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="V21" t="n">
-        <v>117.67</v>
+        <v>74.5</v>
       </c>
       <c r="W21" t="n">
-        <v>65.41363636363636</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -1971,71 +1763,67 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>04/03/2024</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>158.0625</v>
+        <v>103</v>
       </c>
       <c r="D22" t="n">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E22" t="n">
-        <v>148.8333333333333</v>
+        <v>123.5</v>
       </c>
       <c r="F22" t="n">
-        <v>141.5</v>
+        <v>127.285</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>70.625</v>
       </c>
       <c r="H22" t="n">
-        <v>148.94</v>
+        <v>77.995</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>72.5</v>
       </c>
       <c r="J22" t="n">
-        <v>78.44533333333334</v>
+        <v>68.16666666666667</v>
       </c>
       <c r="K22" t="n">
-        <v>126.4451282051282</v>
+        <v>76.5</v>
       </c>
       <c r="L22" t="n">
-        <v>169.0246153846154</v>
+        <v>80</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="N22" t="n">
-        <v>193.3266666666667</v>
+        <v>132.5</v>
       </c>
       <c r="O22" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P22" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>184</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S22" t="n">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U22" t="n">
-        <v>64.48999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="V22" t="n">
-        <v>62.2</v>
+        <v>73</v>
       </c>
       <c r="W22" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -2044,71 +1832,67 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>05/03/2024</t>
+          <t>04/12/2023</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>154.9533333333333</v>
+        <v>103.25</v>
       </c>
       <c r="D23" t="n">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="E23" t="n">
-        <v>148.25</v>
+        <v>123.5</v>
       </c>
       <c r="F23" t="n">
-        <v>141.5</v>
+        <v>127.285</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="H23" t="n">
-        <v>147.294375</v>
+        <v>77.995</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>72.5</v>
       </c>
       <c r="J23" t="n">
-        <v>79.29857142857144</v>
+        <v>68.16666666666667</v>
       </c>
       <c r="K23" t="n">
-        <v>126.9923684210526</v>
+        <v>76.5</v>
       </c>
       <c r="L23" t="n">
-        <v>167.2823076923077</v>
+        <v>80</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>106.25</v>
       </c>
       <c r="N23" t="n">
-        <v>193.3266666666667</v>
+        <v>132.5</v>
       </c>
       <c r="O23" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P23" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>184</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S23" t="n">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="T23" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U23" t="n">
-        <v>64.48999999999999</v>
+        <v>72.36666666666666</v>
       </c>
       <c r="V23" t="n">
-        <v>62.2</v>
+        <v>72.33333333333333</v>
       </c>
       <c r="W23" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -2117,71 +1901,67 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>06/03/2024</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>157.4642857142857</v>
+        <v>103.5</v>
       </c>
       <c r="D24" t="n">
-        <v>155.6666666666667</v>
+        <v>115</v>
       </c>
       <c r="E24" t="n">
-        <v>148.25</v>
+        <v>123.5</v>
       </c>
       <c r="F24" t="n">
-        <v>141.5</v>
+        <v>125</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="H24" t="n">
-        <v>153.2423529411765</v>
+        <v>77.995</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>72.5</v>
       </c>
       <c r="J24" t="n">
-        <v>80.84529411764707</v>
+        <v>66.5</v>
       </c>
       <c r="K24" t="n">
-        <v>133.3383908045977</v>
+        <v>77</v>
       </c>
       <c r="L24" t="n">
-        <v>172.698</v>
+        <v>82</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>104.25</v>
       </c>
       <c r="N24" t="n">
-        <v>193.3266666666667</v>
+        <v>132.75</v>
       </c>
       <c r="O24" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P24" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>184</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S24" t="n">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U24" t="n">
-        <v>64.48999999999999</v>
+        <v>71.67</v>
       </c>
       <c r="V24" t="n">
-        <v>62.2</v>
+        <v>72.33333333333333</v>
       </c>
       <c r="W24" t="n">
-        <v>63.63444444444445</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
@@ -2190,71 +1970,67 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>07/03/2024</t>
+          <t>06/12/2023</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>160.0321428571428</v>
+        <v>105.3636363636364</v>
       </c>
       <c r="D25" t="n">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E25" t="n">
-        <v>148.25</v>
+        <v>124</v>
       </c>
       <c r="F25" t="n">
-        <v>141.5</v>
+        <v>125</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>69.25</v>
       </c>
       <c r="H25" t="n">
-        <v>159.2897222222222</v>
+        <v>79.33333333333333</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>72.5</v>
       </c>
       <c r="J25" t="n">
-        <v>84.00399999999999</v>
+        <v>66.5</v>
       </c>
       <c r="K25" t="n">
-        <v>139.6338461538462</v>
+        <v>77</v>
       </c>
       <c r="L25" t="n">
-        <v>178.5269090909091</v>
+        <v>82</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>105.375</v>
       </c>
       <c r="N25" t="n">
-        <v>193.3266666666667</v>
+        <v>132.75</v>
       </c>
       <c r="O25" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P25" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>184</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S25" t="n">
-        <v>196.6</v>
+        <v>122</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U25" t="n">
-        <v>64.48999999999999</v>
+        <v>72.27692307692308</v>
       </c>
       <c r="V25" t="n">
-        <v>61.8</v>
+        <v>72.33333333333333</v>
       </c>
       <c r="W25" t="n">
-        <v>63.63444444444445</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
@@ -2263,71 +2039,67 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>08/03/2024</t>
+          <t>07/12/2023</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>166.861724137931</v>
+        <v>107.2142857142857</v>
       </c>
       <c r="D26" t="n">
-        <v>161.49</v>
+        <v>119</v>
       </c>
       <c r="E26" t="n">
-        <v>152.6666666666667</v>
+        <v>125</v>
       </c>
       <c r="F26" t="n">
-        <v>141.5</v>
+        <v>125</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>69.25</v>
       </c>
       <c r="H26" t="n">
-        <v>166.5228947368421</v>
+        <v>79.75</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>72.5</v>
       </c>
       <c r="J26" t="n">
-        <v>87.36133333333333</v>
+        <v>67.5</v>
       </c>
       <c r="K26" t="n">
-        <v>148.5520792079208</v>
+        <v>76</v>
       </c>
       <c r="L26" t="n">
-        <v>187.1764285714286</v>
+        <v>82</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>105.375</v>
       </c>
       <c r="N26" t="n">
-        <v>193.3266666666667</v>
+        <v>132.75</v>
       </c>
       <c r="O26" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P26" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>184</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S26" t="n">
-        <v>196.6</v>
+        <v>122</v>
       </c>
       <c r="T26" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U26" t="n">
-        <v>64.48999999999999</v>
+        <v>71.81526315789473</v>
       </c>
       <c r="V26" t="n">
-        <v>118.25</v>
+        <v>72</v>
       </c>
       <c r="W26" t="n">
-        <v>64.60909090909091</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
@@ -2336,71 +2108,67 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>11/03/2024</t>
+          <t>08/12/2023</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>164.98</v>
+        <v>106.1</v>
       </c>
       <c r="D27" t="n">
-        <v>160.5</v>
+        <v>118.3333333333333</v>
       </c>
       <c r="E27" t="n">
-        <v>152.6666666666667</v>
+        <v>124</v>
       </c>
       <c r="F27" t="n">
-        <v>141.5</v>
+        <v>130</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>68.875</v>
       </c>
       <c r="H27" t="n">
-        <v>165.7305555555556</v>
+        <v>79</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>72.5</v>
       </c>
       <c r="J27" t="n">
-        <v>85.56</v>
+        <v>67.95</v>
       </c>
       <c r="K27" t="n">
-        <v>146.7559302325581</v>
+        <v>76</v>
       </c>
       <c r="L27" t="n">
-        <v>186.7737777777778</v>
+        <v>82</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>104.25</v>
       </c>
       <c r="N27" t="n">
-        <v>193.3266666666667</v>
+        <v>145</v>
       </c>
       <c r="O27" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P27" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>184</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S27" t="n">
-        <v>196.6</v>
+        <v>118</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U27" t="n">
-        <v>64.48999999999999</v>
+        <v>70.21428571428571</v>
       </c>
       <c r="V27" t="n">
-        <v>118.25</v>
+        <v>70.625</v>
       </c>
       <c r="W27" t="n">
-        <v>64.1125</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="28">
@@ -2409,71 +2177,67 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>12/03/2024</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>165.7842857142857</v>
+        <v>106.94</v>
       </c>
       <c r="D28" t="n">
-        <v>159.5</v>
+        <v>119.65</v>
       </c>
       <c r="E28" t="n">
-        <v>152.6666666666667</v>
+        <v>127.3</v>
       </c>
       <c r="F28" t="n">
-        <v>146.5</v>
+        <v>130</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="H28" t="n">
-        <v>164.899</v>
+        <v>79.66666666666667</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>72.5</v>
       </c>
       <c r="J28" t="n">
-        <v>84.17470588235294</v>
+        <v>68</v>
       </c>
       <c r="K28" t="n">
-        <v>147.5442045454545</v>
+        <v>76</v>
       </c>
       <c r="L28" t="n">
-        <v>185.1758333333333</v>
+        <v>82</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>104.25</v>
       </c>
       <c r="N28" t="n">
-        <v>193.3266666666667</v>
+        <v>145</v>
       </c>
       <c r="O28" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P28" t="n">
-        <v>184</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>184</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S28" t="n">
-        <v>196.6</v>
+        <v>110</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U28" t="n">
-        <v>64.48999999999999</v>
+        <v>72.09736842105262</v>
       </c>
       <c r="V28" t="n">
-        <v>118.25</v>
+        <v>71.75</v>
       </c>
       <c r="W28" t="n">
-        <v>63.85416666666666</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="29">
@@ -2482,71 +2246,67 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>13/03/2024</t>
+          <t>12/12/2023</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>161.664</v>
+        <v>107.4222222222222</v>
       </c>
       <c r="D29" t="n">
-        <v>155.1</v>
+        <v>116</v>
       </c>
       <c r="E29" t="n">
-        <v>150.5</v>
+        <v>127.3</v>
       </c>
       <c r="F29" t="n">
-        <v>146.5</v>
+        <v>130</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>70.55</v>
       </c>
       <c r="H29" t="n">
-        <v>160.9636363636364</v>
+        <v>80.75</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>72.5</v>
       </c>
       <c r="J29" t="n">
-        <v>83.52352941176471</v>
+        <v>68</v>
       </c>
       <c r="K29" t="n">
-        <v>144.0026923076923</v>
+        <v>76</v>
       </c>
       <c r="L29" t="n">
-        <v>179.7327272727273</v>
+        <v>82</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>106.5</v>
       </c>
       <c r="N29" t="n">
-        <v>193.3266666666667</v>
+        <v>141</v>
       </c>
       <c r="O29" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P29" t="n">
-        <v>187</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>184</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S29" t="n">
-        <v>196.6</v>
+        <v>110</v>
       </c>
       <c r="T29" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U29" t="n">
-        <v>64.48999999999999</v>
+        <v>74.65890909090909</v>
       </c>
       <c r="V29" t="n">
-        <v>118.25</v>
+        <v>73.5</v>
       </c>
       <c r="W29" t="n">
-        <v>63.38888888888889</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="30">
@@ -2555,71 +2315,67 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>14/03/2024</t>
+          <t>13/12/2023</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>155.6695</v>
+        <v>107.8316666666667</v>
       </c>
       <c r="D30" t="n">
-        <v>154.4166666666667</v>
+        <v>120</v>
       </c>
       <c r="E30" t="n">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="F30" t="n">
+        <v>130</v>
+      </c>
+      <c r="G30" t="n">
+        <v>70.25</v>
+      </c>
+      <c r="H30" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="I30" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>76</v>
+      </c>
+      <c r="L30" t="n">
+        <v>82</v>
+      </c>
+      <c r="M30" t="n">
+        <v>103.1333333333333</v>
+      </c>
+      <c r="N30" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="O30" t="n">
         <v>147.5</v>
       </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>151.9960714285714</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>78.83076923076922</v>
-      </c>
-      <c r="K30" t="n">
-        <v>135.8840566037736</v>
-      </c>
-      <c r="L30" t="n">
-        <v>168.3448888888889</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="n">
-        <v>193.3266666666667</v>
-      </c>
-      <c r="O30" t="n">
-        <v>182.99</v>
-      </c>
-      <c r="P30" t="n">
-        <v>187</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>184</v>
-      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S30" t="n">
-        <v>196.6</v>
+        <v>110</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U30" t="n">
-        <v>64.48999999999999</v>
+        <v>73.82222222222222</v>
       </c>
       <c r="V30" t="n">
-        <v>118.25</v>
+        <v>73.5</v>
       </c>
       <c r="W30" t="n">
-        <v>63.35</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="31">
@@ -2628,71 +2384,67 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>15/03/2024</t>
+          <t>14/12/2023</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>158.5266666666667</v>
+        <v>108.5</v>
       </c>
       <c r="D31" t="n">
-        <v>155.75</v>
+        <v>121</v>
       </c>
       <c r="E31" t="n">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F31" t="n">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="H31" t="n">
-        <v>154.2833333333333</v>
+        <v>83</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>78.58571428571429</v>
+        <v>69.5</v>
       </c>
       <c r="K31" t="n">
-        <v>137.5202857142857</v>
+        <v>76</v>
       </c>
       <c r="L31" t="n">
-        <v>171.2307272727273</v>
+        <v>82</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>102.325</v>
       </c>
       <c r="N31" t="n">
-        <v>193.3266666666667</v>
+        <v>141.5</v>
       </c>
       <c r="O31" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="P31" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>184.5</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S31" t="n">
-        <v>196.6</v>
+        <v>110</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U31" t="n">
-        <v>64.48999999999999</v>
+        <v>74.15833333333333</v>
       </c>
       <c r="V31" t="n">
-        <v>118.25</v>
+        <v>73.5</v>
       </c>
       <c r="W31" t="n">
-        <v>63.80166666666667</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="32">
@@ -2701,71 +2453,67 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>18/03/2024</t>
+          <t>15/12/2023</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>152.6221428571428</v>
+        <v>108.5</v>
       </c>
       <c r="D32" t="n">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="E32" t="n">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F32" t="n">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="H32" t="n">
-        <v>144.8608695652174</v>
+        <v>82.5</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>75.46428571428571</v>
+        <v>69.5</v>
       </c>
       <c r="K32" t="n">
-        <v>129.1692380952381</v>
+        <v>77.5</v>
       </c>
       <c r="L32" t="n">
-        <v>159.549358974359</v>
+        <v>82</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>102.325</v>
       </c>
       <c r="N32" t="n">
-        <v>193.3266666666667</v>
+        <v>154.2</v>
       </c>
       <c r="O32" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="P32" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>184.5</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S32" t="n">
-        <v>196.6</v>
+        <v>110</v>
       </c>
       <c r="T32" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U32" t="n">
-        <v>64.48999999999999</v>
+        <v>72.89999999999999</v>
       </c>
       <c r="V32" t="n">
-        <v>118.25</v>
+        <v>73.5</v>
       </c>
       <c r="W32" t="n">
-        <v>63.42696428571428</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="33">
@@ -2774,71 +2522,67 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>19/03/2024</t>
+          <t>18/12/2023</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>147.4356451612903</v>
+        <v>110.6818181818182</v>
       </c>
       <c r="D33" t="n">
-        <v>146.5</v>
+        <v>123</v>
       </c>
       <c r="E33" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F33" t="n">
-        <v>142.5</v>
+        <v>130</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>71.46666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>132.5485</v>
+        <v>84.5</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K33" t="n">
-        <v>118.4378260869565</v>
+        <v>81</v>
       </c>
       <c r="L33" t="n">
-        <v>148.1596268656716</v>
+        <v>82</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>102.325</v>
       </c>
       <c r="N33" t="n">
-        <v>189</v>
+        <v>154.2</v>
       </c>
       <c r="O33" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="P33" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>184.5</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S33" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U33" t="n">
-        <v>64.48999999999999</v>
+        <v>76.56812499999999</v>
       </c>
       <c r="V33" t="n">
-        <v>118.25</v>
+        <v>74.714</v>
       </c>
       <c r="W33" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
@@ -2847,71 +2591,67 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>20/03/2024</t>
+          <t>19/12/2023</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>137.5938235294118</v>
+        <v>107.5625</v>
       </c>
       <c r="D34" t="n">
-        <v>140.125</v>
+        <v>122.9166666666667</v>
       </c>
       <c r="E34" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F34" t="n">
-        <v>141.9966666666667</v>
+        <v>130</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>69.97777777777777</v>
       </c>
       <c r="H34" t="n">
-        <v>120.143275862069</v>
+        <v>80.755</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>69.3</v>
+        <v>68</v>
       </c>
       <c r="K34" t="n">
-        <v>108.6959776536313</v>
+        <v>77.96666666666667</v>
       </c>
       <c r="L34" t="n">
-        <v>134.0439416058394</v>
+        <v>84</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>102.325</v>
       </c>
       <c r="N34" t="n">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="O34" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="P34" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>184.5</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S34" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U34" t="n">
-        <v>64.48999999999999</v>
+        <v>71.16441176470589</v>
       </c>
       <c r="V34" t="n">
-        <v>118.25</v>
+        <v>71.25</v>
       </c>
       <c r="W34" t="n">
-        <v>63.63</v>
+        <v>70.41666666666667</v>
       </c>
     </row>
     <row r="35">
@@ -2920,71 +2660,67 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>21/03/2024</t>
+          <t>20/12/2023</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>143.8952380952381</v>
+        <v>109.0555555555556</v>
       </c>
       <c r="D35" t="n">
-        <v>145.675</v>
+        <v>120.5</v>
       </c>
       <c r="E35" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F35" t="n">
-        <v>141.9966666666667</v>
+        <v>130</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>71.5</v>
       </c>
       <c r="H35" t="n">
-        <v>132.1272222222222</v>
+        <v>82.93625</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>70.56066666666668</v>
+        <v>68.88888888888889</v>
       </c>
       <c r="K35" t="n">
-        <v>116.9838297872341</v>
+        <v>77.96666666666667</v>
       </c>
       <c r="L35" t="n">
-        <v>144.7827722772277</v>
+        <v>84</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="N35" t="n">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="O35" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="P35" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>184.5</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S35" t="n">
-        <v>164.6666666666667</v>
+        <v>110</v>
       </c>
       <c r="T35" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U35" t="n">
-        <v>64.48999999999999</v>
+        <v>72.9825</v>
       </c>
       <c r="V35" t="n">
-        <v>118.25</v>
+        <v>72</v>
       </c>
       <c r="W35" t="n">
-        <v>61.95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
@@ -2993,71 +2729,67 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>22/03/2024</t>
+          <t>21/12/2023</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>148.9358823529412</v>
+        <v>106.3875</v>
       </c>
       <c r="D36" t="n">
-        <v>149</v>
+        <v>121.75</v>
       </c>
       <c r="E36" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F36" t="n">
-        <v>143.25</v>
+        <v>130</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>70.83333333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>137.3836111111111</v>
+        <v>82.7</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>73.09999999999999</v>
+        <v>68.875</v>
       </c>
       <c r="K36" t="n">
-        <v>124.6596551724138</v>
+        <v>80</v>
       </c>
       <c r="L36" t="n">
-        <v>154.9871428571429</v>
+        <v>84</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="N36" t="n">
-        <v>187.5</v>
+        <v>141</v>
       </c>
       <c r="O36" t="n">
-        <v>185</v>
-      </c>
-      <c r="P36" t="n">
-        <v>182</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>178</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S36" t="n">
-        <v>173.075</v>
+        <v>110</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U36" t="n">
-        <v>64.48999999999999</v>
+        <v>72.28571428571429</v>
       </c>
       <c r="V36" t="n">
-        <v>118.25</v>
+        <v>72</v>
       </c>
       <c r="W36" t="n">
-        <v>61.95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
@@ -3066,71 +2798,67 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>25/03/2024</t>
+          <t>22/12/2023</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>155.62</v>
+        <v>106.4444444444444</v>
       </c>
       <c r="D37" t="n">
-        <v>155.3</v>
+        <v>118.5</v>
       </c>
       <c r="E37" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F37" t="n">
-        <v>141.75</v>
+        <v>130</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>70.83333333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>150.1111111111111</v>
+        <v>83.47555555555556</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>75.84999999999999</v>
+        <v>69.16666666666667</v>
       </c>
       <c r="K37" t="n">
-        <v>133.880931372549</v>
+        <v>79.75</v>
       </c>
       <c r="L37" t="n">
-        <v>164.45</v>
+        <v>84</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N37" t="n">
-        <v>187.5</v>
+        <v>138.6</v>
       </c>
       <c r="O37" t="n">
-        <v>188</v>
-      </c>
-      <c r="P37" t="n">
-        <v>182</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>175.5</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S37" t="n">
-        <v>173.075</v>
+        <v>110</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U37" t="n">
-        <v>64.48999999999999</v>
+        <v>73.31588235294117</v>
       </c>
       <c r="V37" t="n">
-        <v>118.25</v>
+        <v>71.75</v>
       </c>
       <c r="W37" t="n">
-        <v>61.95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -3139,71 +2867,67 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>26/03/2024</t>
+          <t>26/12/2023</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>158.3285714285714</v>
+        <v>106.4333333333333</v>
       </c>
       <c r="D38" t="n">
-        <v>153</v>
+        <v>117.4666666666667</v>
       </c>
       <c r="E38" t="n">
-        <v>140</v>
+        <v>121.8</v>
       </c>
       <c r="F38" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>70.83333333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>146.689</v>
+        <v>83.995</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J38" t="n">
-        <v>76</v>
+        <v>69.16666666666667</v>
       </c>
       <c r="K38" t="n">
-        <v>140.5012087912088</v>
+        <v>79.75</v>
       </c>
       <c r="L38" t="n">
-        <v>168.1404819277109</v>
+        <v>84</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N38" t="n">
-        <v>200.95</v>
+        <v>138.6</v>
       </c>
       <c r="O38" t="n">
-        <v>188</v>
-      </c>
-      <c r="P38" t="n">
-        <v>182</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>175.5</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S38" t="n">
-        <v>187.95</v>
+        <v>110</v>
       </c>
       <c r="T38" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U38" t="n">
-        <v>64.48999999999999</v>
+        <v>73.16666666666667</v>
       </c>
       <c r="V38" t="n">
-        <v>118.25</v>
+        <v>71.75</v>
       </c>
       <c r="W38" t="n">
-        <v>61.81666666666666</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -3212,71 +2936,67 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>27/03/2024</t>
+          <t>27/12/2023</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>155.8</v>
+        <v>105.9375</v>
       </c>
       <c r="D39" t="n">
-        <v>150.625</v>
+        <v>119.03</v>
       </c>
       <c r="E39" t="n">
-        <v>148</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="F39" t="n">
-        <v>146.96</v>
+        <v>130</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>147.3958333333333</v>
+        <v>83.995</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>73.16666666666667</v>
+        <v>69</v>
       </c>
       <c r="K39" t="n">
-        <v>136.437265625</v>
+        <v>79</v>
       </c>
       <c r="L39" t="n">
-        <v>161.0813580246914</v>
+        <v>84</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N39" t="n">
-        <v>200.95</v>
+        <v>138.6</v>
       </c>
       <c r="O39" t="n">
-        <v>185.9</v>
-      </c>
-      <c r="P39" t="n">
-        <v>185.9</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>175.5</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S39" t="n">
-        <v>187.95</v>
+        <v>110</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U39" t="n">
-        <v>64.48999999999999</v>
+        <v>73.1875</v>
       </c>
       <c r="V39" t="n">
-        <v>118.25</v>
+        <v>72.80769230769231</v>
       </c>
       <c r="W39" t="n">
-        <v>61.81666666666666</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
@@ -3285,71 +3005,67 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>28/03/2024</t>
+          <t>28/12/2023</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>150.1111111111111</v>
+        <v>106</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6666666666667</v>
+        <v>120.5</v>
       </c>
       <c r="E40" t="n">
-        <v>146</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="F40" t="n">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>136.0045833333333</v>
+        <v>83.995</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>69.5</v>
+        <v>69</v>
       </c>
       <c r="K40" t="n">
-        <v>126.7428313253012</v>
+        <v>79</v>
       </c>
       <c r="L40" t="n">
-        <v>149.7661111111111</v>
+        <v>84</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N40" t="n">
-        <v>189</v>
+        <v>138.6</v>
       </c>
       <c r="O40" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="P40" t="n">
-        <v>183</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>175.5</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S40" t="n">
-        <v>187.95</v>
+        <v>110</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U40" t="n">
-        <v>64.48999999999999</v>
+        <v>72.27000000000001</v>
       </c>
       <c r="V40" t="n">
-        <v>118.25</v>
+        <v>72.125</v>
       </c>
       <c r="W40" t="n">
-        <v>61.81666666666666</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
@@ -3358,71 +3074,67 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>29/12/2023</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>138.248</v>
+        <v>105</v>
       </c>
       <c r="D41" t="n">
-        <v>142.6</v>
+        <v>125</v>
       </c>
       <c r="E41" t="n">
-        <v>144.25</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="F41" t="n">
+        <v>116</v>
+      </c>
+      <c r="G41" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H41" t="n">
+        <v>83.995</v>
+      </c>
+      <c r="I41" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J41" t="n">
+        <v>69</v>
+      </c>
+      <c r="K41" t="n">
+        <v>79</v>
+      </c>
+      <c r="L41" t="n">
+        <v>84</v>
+      </c>
+      <c r="M41" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N41" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="O41" t="n">
         <v>147.5</v>
       </c>
-      <c r="G41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>123.84</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>77</v>
+      </c>
+      <c r="S41" t="n">
+        <v>110</v>
+      </c>
+      <c r="T41" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U41" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V41" t="n">
+        <v>71.4375</v>
+      </c>
+      <c r="W41" t="n">
         <v>70</v>
-      </c>
-      <c r="K41" t="n">
-        <v>112.9129113924051</v>
-      </c>
-      <c r="L41" t="n">
-        <v>137.6926582278481</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="n">
-        <v>189</v>
-      </c>
-      <c r="O41" t="n">
-        <v>185.5</v>
-      </c>
-      <c r="P41" t="n">
-        <v>183</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1</v>
-      </c>
-      <c r="S41" t="n">
-        <v>187.95</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="U41" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="V41" t="n">
-        <v>118.25</v>
-      </c>
-      <c r="W41" t="n">
-        <v>61.81666666666666</v>
       </c>
     </row>
     <row r="42">
@@ -3431,71 +3143,67 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>02/04/2024</t>
+          <t>15/02/2024</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>141.21</v>
+        <v>167.3490566037736</v>
       </c>
       <c r="D42" t="n">
-        <v>143.71875</v>
+        <v>158.1625</v>
       </c>
       <c r="E42" t="n">
-        <v>143.875</v>
+        <v>152</v>
       </c>
       <c r="F42" t="n">
-        <v>142.25</v>
+        <v>116</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H42" t="n">
-        <v>126.5884615384615</v>
+        <v>158.4319444444444</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J42" t="n">
-        <v>70</v>
+        <v>75.8592</v>
       </c>
       <c r="K42" t="n">
-        <v>115.1426315789474</v>
+        <v>136.0265100671141</v>
       </c>
       <c r="L42" t="n">
-        <v>138.8971830985916</v>
+        <v>179.9542857142857</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N42" t="n">
-        <v>178.5</v>
+        <v>138.6</v>
       </c>
       <c r="O42" t="n">
-        <v>180</v>
-      </c>
-      <c r="P42" t="n">
-        <v>183</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>175.5</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S42" t="n">
-        <v>187.95</v>
+        <v>110</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U42" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V42" t="n">
-        <v>118.25</v>
+        <v>63.33333333333334</v>
       </c>
       <c r="W42" t="n">
-        <v>61.92666666666667</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43">
@@ -3504,71 +3212,67 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>03/04/2024</t>
+          <t>16/02/2024</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>136.13</v>
+        <v>173.6476923076923</v>
       </c>
       <c r="D43" t="n">
-        <v>139.9583333333333</v>
+        <v>159.651</v>
       </c>
       <c r="E43" t="n">
-        <v>138.75</v>
+        <v>156.8</v>
       </c>
       <c r="F43" t="n">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>119.294375</v>
+        <v>164.5596</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J43" t="n">
+        <v>77.45294117647059</v>
+      </c>
+      <c r="K43" t="n">
+        <v>146.2514503816794</v>
+      </c>
+      <c r="L43" t="n">
+        <v>186.4590909090909</v>
+      </c>
+      <c r="M43" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>209</v>
+      </c>
+      <c r="O43" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>77</v>
+      </c>
+      <c r="S43" t="n">
+        <v>110</v>
+      </c>
+      <c r="T43" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U43" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V43" t="n">
+        <v>62.58222222222222</v>
+      </c>
+      <c r="W43" t="n">
         <v>65</v>
-      </c>
-      <c r="K43" t="n">
-        <v>106.9330817610063</v>
-      </c>
-      <c r="L43" t="n">
-        <v>131.8173394495413</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="O43" t="n">
-        <v>180</v>
-      </c>
-      <c r="P43" t="n">
-        <v>183</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1</v>
-      </c>
-      <c r="S43" t="n">
-        <v>187.95</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0.3192307692307693</v>
-      </c>
-      <c r="U43" t="n">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="V43" t="n">
-        <v>118.25</v>
-      </c>
-      <c r="W43" t="n">
-        <v>61.9175</v>
       </c>
     </row>
     <row r="44">
@@ -3577,71 +3281,67 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>04/04/2024</t>
+          <t>19/02/2024</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>131.6772727272727</v>
+        <v>170.8975</v>
       </c>
       <c r="D44" t="n">
-        <v>136.8125</v>
+        <v>159</v>
       </c>
       <c r="E44" t="n">
-        <v>136.6666666666667</v>
+        <v>153.75</v>
       </c>
       <c r="F44" t="n">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>110.4814814814815</v>
+        <v>159.7632</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J44" t="n">
-        <v>64</v>
+        <v>76.13925925925926</v>
       </c>
       <c r="K44" t="n">
-        <v>100.590652173913</v>
+        <v>139.6658536585366</v>
       </c>
       <c r="L44" t="n">
-        <v>121.5054444444444</v>
+        <v>180.0119512195122</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N44" t="n">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="O44" t="n">
-        <v>180</v>
-      </c>
-      <c r="P44" t="n">
-        <v>183</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>175.5</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S44" t="n">
-        <v>187.95</v>
+        <v>110</v>
       </c>
       <c r="T44" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U44" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V44" t="n">
-        <v>118.25</v>
+        <v>62.36142857142857</v>
       </c>
       <c r="W44" t="n">
-        <v>61.9175</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="45">
@@ -3650,71 +3350,67 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>05/04/2024</t>
+          <t>20/02/2024</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>133.5607692307692</v>
+        <v>171</v>
       </c>
       <c r="D45" t="n">
-        <v>139.528</v>
+        <v>158.125</v>
       </c>
       <c r="E45" t="n">
-        <v>138</v>
+        <v>153.75</v>
       </c>
       <c r="F45" t="n">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>115.2333333333333</v>
+        <v>162.12</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>64</v>
+        <v>76.6557142857143</v>
       </c>
       <c r="K45" t="n">
-        <v>104.1882</v>
+        <v>140.4725925925926</v>
       </c>
       <c r="L45" t="n">
-        <v>127.91328125</v>
+        <v>182.1969444444445</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N45" t="n">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="O45" t="n">
-        <v>180</v>
-      </c>
-      <c r="P45" t="n">
-        <v>183</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>175.5</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S45" t="n">
-        <v>187.95</v>
+        <v>110</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U45" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V45" t="n">
-        <v>118.25</v>
+        <v>65</v>
       </c>
       <c r="W45" t="n">
-        <v>61.9175</v>
+        <v>64.125</v>
       </c>
     </row>
     <row r="46">
@@ -3723,71 +3419,67 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>08/04/2024</t>
+          <t>21/02/2024</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>120.6352380952381</v>
+        <v>165.1740625</v>
       </c>
       <c r="D46" t="n">
-        <v>132.1470588235294</v>
+        <v>154.012</v>
       </c>
       <c r="E46" t="n">
-        <v>131.6666666666667</v>
+        <v>153.4</v>
       </c>
       <c r="F46" t="n">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H46" t="n">
-        <v>93.10354838709678</v>
+        <v>153.6395833333333</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>64</v>
+        <v>74.26666666666667</v>
       </c>
       <c r="K46" t="n">
-        <v>83.29418439716312</v>
+        <v>134.1602608695652</v>
       </c>
       <c r="L46" t="n">
-        <v>102.9786861313869</v>
+        <v>174.3914457831325</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N46" t="n">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="O46" t="n">
-        <v>180</v>
-      </c>
-      <c r="P46" t="n">
-        <v>183</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>175.5</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S46" t="n">
-        <v>187.95</v>
+        <v>110</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U46" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V46" t="n">
-        <v>118.25</v>
+        <v>62.13</v>
       </c>
       <c r="W46" t="n">
-        <v>64.48999999999999</v>
+        <v>63.11428571428571</v>
       </c>
     </row>
     <row r="47">
@@ -3796,71 +3488,67 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>09/04/2024</t>
+          <t>22/02/2024</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>121.0475862068966</v>
+        <v>153.492027027027</v>
       </c>
       <c r="D47" t="n">
-        <v>135.9207692307692</v>
+        <v>146.1777777777778</v>
       </c>
       <c r="E47" t="n">
-        <v>135.9966666666667</v>
+        <v>153.4</v>
       </c>
       <c r="F47" t="n">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H47" t="n">
-        <v>90.99583333333334</v>
+        <v>138.2097247706422</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>64.32000000000001</v>
+        <v>71.17588235294117</v>
       </c>
       <c r="K47" t="n">
-        <v>80.6875</v>
+        <v>120.6092352941176</v>
       </c>
       <c r="L47" t="n">
-        <v>104.4654545454545</v>
+        <v>157.9024369747899</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N47" t="n">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="O47" t="n">
-        <v>180</v>
-      </c>
-      <c r="P47" t="n">
-        <v>183</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>175.5</v>
-      </c>
+        <v>147.5</v>
+      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S47" t="n">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="T47" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U47" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V47" t="n">
-        <v>118.25</v>
+        <v>61.7</v>
       </c>
       <c r="W47" t="n">
-        <v>64.48999999999999</v>
+        <v>62.51</v>
       </c>
     </row>
     <row r="48">
@@ -3869,71 +3557,71 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10/04/2024</t>
+          <t>23/02/2024</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>125.2</v>
+        <v>152.2510447761194</v>
       </c>
       <c r="D48" t="n">
-        <v>138</v>
+        <v>149.1153846153846</v>
       </c>
       <c r="E48" t="n">
-        <v>137.3333333333333</v>
+        <v>145.5</v>
       </c>
       <c r="F48" t="n">
-        <v>134</v>
+        <v>144.75</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>95.47499999999999</v>
+        <v>140.6379411764706</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>63.5875</v>
+        <v>72.4875</v>
       </c>
       <c r="K48" t="n">
-        <v>83.7021568627451</v>
+        <v>116.7217647058824</v>
       </c>
       <c r="L48" t="n">
-        <v>108.8416455696203</v>
+        <v>157.9007692307692</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N48" t="n">
-        <v>173</v>
+        <v>186.26</v>
       </c>
       <c r="O48" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P48" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q48" t="n">
-        <v>175.5</v>
+        <v>184</v>
       </c>
       <c r="R48" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S48" t="n">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="T48" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U48" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V48" t="n">
-        <v>118.25</v>
+        <v>62</v>
       </c>
       <c r="W48" t="n">
-        <v>64.48999999999999</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="49">
@@ -3942,71 +3630,71 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>11/04/2024</t>
+          <t>26/02/2024</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>122.5495</v>
+        <v>148.9651724137931</v>
       </c>
       <c r="D49" t="n">
-        <v>139.656</v>
+        <v>146.75</v>
       </c>
       <c r="E49" t="n">
-        <v>137</v>
+        <v>148.5</v>
       </c>
       <c r="F49" t="n">
-        <v>134</v>
+        <v>144.75</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>98.58500000000001</v>
+        <v>138.61</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>63.5</v>
+        <v>72.205</v>
       </c>
       <c r="K49" t="n">
-        <v>85.49795454545455</v>
+        <v>117.1116379310345</v>
       </c>
       <c r="L49" t="n">
-        <v>112.2051034482759</v>
+        <v>157.5224444444445</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N49" t="n">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="O49" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P49" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q49" t="n">
-        <v>175.5</v>
+        <v>184</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S49" t="n">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="T49" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U49" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V49" t="n">
-        <v>118.25</v>
+        <v>62.116</v>
       </c>
       <c r="W49" t="n">
-        <v>64.48999999999999</v>
+        <v>62.96666666666667</v>
       </c>
     </row>
     <row r="50">
@@ -4015,71 +3703,71 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12/04/2024</t>
+          <t>27/02/2024</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>130.011</v>
+        <v>153.6804761904762</v>
       </c>
       <c r="D50" t="n">
-        <v>139</v>
+        <v>149.7666666666667</v>
       </c>
       <c r="E50" t="n">
-        <v>138</v>
+        <v>148.875</v>
       </c>
       <c r="F50" t="n">
-        <v>139.5</v>
+        <v>145</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>102.9375</v>
+        <v>145.7759259259259</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J50" t="n">
-        <v>63.5</v>
+        <v>75.36481481481481</v>
       </c>
       <c r="K50" t="n">
-        <v>87.05344827586208</v>
+        <v>124.7240909090909</v>
       </c>
       <c r="L50" t="n">
-        <v>117.0603225806452</v>
+        <v>165.749012345679</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N50" t="n">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O50" t="n">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="P50" t="n">
-        <v>172.5</v>
+        <v>184</v>
       </c>
       <c r="Q50" t="n">
-        <v>171.5</v>
+        <v>184</v>
       </c>
       <c r="R50" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S50" t="n">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="T50" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U50" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V50" t="n">
-        <v>118.25</v>
+        <v>62.3175</v>
       </c>
       <c r="W50" t="n">
-        <v>64.48999999999999</v>
+        <v>66.18892857142858</v>
       </c>
     </row>
     <row r="51">
@@ -4088,71 +3776,71 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>15/04/2024</t>
+          <t>28/02/2024</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>125.4090909090909</v>
+        <v>155.2923076923077</v>
       </c>
       <c r="D51" t="n">
-        <v>137.3075</v>
+        <v>149.8333333333333</v>
       </c>
       <c r="E51" t="n">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F51" t="n">
-        <v>139.5</v>
+        <v>145</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H51" t="n">
-        <v>93</v>
+        <v>147.5516129032258</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>63.5</v>
+        <v>77.15555555555555</v>
       </c>
       <c r="K51" t="n">
-        <v>82.28060606060606</v>
+        <v>126.9850574712644</v>
       </c>
       <c r="L51" t="n">
-        <v>108.96</v>
+        <v>167.8631428571429</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N51" t="n">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="O51" t="n">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="P51" t="n">
-        <v>172.5</v>
+        <v>184</v>
       </c>
       <c r="Q51" t="n">
-        <v>171.5</v>
+        <v>184</v>
       </c>
       <c r="R51" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S51" t="n">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="T51" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U51" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V51" t="n">
-        <v>118.25</v>
+        <v>62.53571428571428</v>
       </c>
       <c r="W51" t="n">
-        <v>64.48999999999999</v>
+        <v>66.18607142857142</v>
       </c>
     </row>
     <row r="52">
@@ -4161,71 +3849,71 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16/04/2024</t>
+          <t>29/02/2024</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>121.6732352941177</v>
+        <v>158.4117647058823</v>
       </c>
       <c r="D52" t="n">
-        <v>134.6727272727273</v>
+        <v>152.2871428571429</v>
       </c>
       <c r="E52" t="n">
-        <v>134.6666666666667</v>
+        <v>150.5</v>
       </c>
       <c r="F52" t="n">
-        <v>139.5</v>
+        <v>145</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>91.66666666666667</v>
+        <v>151.2335294117647</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J52" t="n">
-        <v>62.875</v>
+        <v>79.78918918918919</v>
       </c>
       <c r="K52" t="n">
-        <v>78.26558823529412</v>
+        <v>130.3195161290323</v>
       </c>
       <c r="L52" t="n">
-        <v>103.9594117647059</v>
+        <v>171.5811111111111</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N52" t="n">
-        <v>159.5</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O52" t="n">
-        <v>173</v>
+        <v>182.99</v>
       </c>
       <c r="P52" t="n">
-        <v>172.5</v>
+        <v>184</v>
       </c>
       <c r="Q52" t="n">
-        <v>171.5</v>
+        <v>184</v>
       </c>
       <c r="R52" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S52" t="n">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="T52" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U52" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V52" t="n">
-        <v>118.25</v>
+        <v>65.5</v>
       </c>
       <c r="W52" t="n">
-        <v>64.48999999999999</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="53">
@@ -4234,71 +3922,71 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>17/04/2024</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>122.1666666666667</v>
+        <v>159.7727272727273</v>
       </c>
       <c r="D53" t="n">
-        <v>135.3571428571429</v>
+        <v>156.3</v>
       </c>
       <c r="E53" t="n">
-        <v>134.6666666666667</v>
+        <v>148.8333333333333</v>
       </c>
       <c r="F53" t="n">
-        <v>139.5</v>
+        <v>141.5</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>91.5</v>
+        <v>153.5968965517241</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>63</v>
+        <v>79.30921052631579</v>
       </c>
       <c r="K53" t="n">
-        <v>77.55</v>
+        <v>132.2443548387097</v>
       </c>
       <c r="L53" t="n">
-        <v>103.7788311688312</v>
+        <v>171.4761904761905</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N53" t="n">
-        <v>159.5</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O53" t="n">
-        <v>173</v>
+        <v>182.99</v>
       </c>
       <c r="P53" t="n">
-        <v>172.5</v>
+        <v>184</v>
       </c>
       <c r="Q53" t="n">
-        <v>171.5</v>
+        <v>184</v>
       </c>
       <c r="R53" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S53" t="n">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="T53" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U53" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V53" t="n">
-        <v>118.25</v>
+        <v>117.67</v>
       </c>
       <c r="W53" t="n">
-        <v>64.48999999999999</v>
+        <v>65.41363636363636</v>
       </c>
     </row>
     <row r="54">
@@ -4307,71 +3995,71 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>18/04/2024</t>
+          <t>04/03/2024</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>123.228125</v>
+        <v>158.0625</v>
       </c>
       <c r="D54" t="n">
-        <v>137.89375</v>
+        <v>156</v>
       </c>
       <c r="E54" t="n">
-        <v>137</v>
+        <v>148.8333333333333</v>
       </c>
       <c r="F54" t="n">
-        <v>139.5</v>
+        <v>141.5</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>90</v>
+        <v>148.94</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J54" t="n">
-        <v>63</v>
+        <v>78.44533333333334</v>
       </c>
       <c r="K54" t="n">
-        <v>76.53125</v>
+        <v>126.4451282051282</v>
       </c>
       <c r="L54" t="n">
-        <v>101.9594642857143</v>
+        <v>169.0246153846154</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N54" t="n">
-        <v>159.5</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O54" t="n">
-        <v>173</v>
+        <v>182.99</v>
       </c>
       <c r="P54" t="n">
-        <v>172.5</v>
+        <v>184</v>
       </c>
       <c r="Q54" t="n">
-        <v>171.5</v>
+        <v>184</v>
       </c>
       <c r="R54" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S54" t="n">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="T54" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U54" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V54" t="n">
-        <v>118.25</v>
+        <v>62.2</v>
       </c>
       <c r="W54" t="n">
-        <v>64.48999999999999</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55">
@@ -4380,71 +4068,71 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>19/04/2024</t>
+          <t>05/03/2024</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>123.228125</v>
+        <v>154.9533333333333</v>
       </c>
       <c r="D55" t="n">
-        <v>137.89375</v>
+        <v>152</v>
       </c>
       <c r="E55" t="n">
-        <v>137</v>
+        <v>148.25</v>
       </c>
       <c r="F55" t="n">
-        <v>139.5</v>
+        <v>141.5</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H55" t="n">
-        <v>88.75</v>
+        <v>147.294375</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>63</v>
+        <v>79.29857142857144</v>
       </c>
       <c r="K55" t="n">
-        <v>76.54615384615384</v>
+        <v>126.9923684210526</v>
       </c>
       <c r="L55" t="n">
-        <v>102.3636363636364</v>
+        <v>167.2823076923077</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N55" t="n">
-        <v>159.5</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O55" t="n">
-        <v>173</v>
+        <v>182.99</v>
       </c>
       <c r="P55" t="n">
-        <v>172.5</v>
+        <v>184</v>
       </c>
       <c r="Q55" t="n">
-        <v>171.5</v>
+        <v>184</v>
       </c>
       <c r="R55" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S55" t="n">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="T55" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U55" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V55" t="n">
-        <v>118.25</v>
+        <v>62.2</v>
       </c>
       <c r="W55" t="n">
-        <v>64.48999999999999</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56">
@@ -4453,71 +4141,71 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>22/04/2024</t>
+          <t>06/03/2024</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>120.943</v>
+        <v>157.4642857142857</v>
       </c>
       <c r="D56" t="n">
-        <v>135.061</v>
+        <v>155.6666666666667</v>
       </c>
       <c r="E56" t="n">
-        <v>136.5</v>
+        <v>148.25</v>
       </c>
       <c r="F56" t="n">
-        <v>137</v>
+        <v>141.5</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>84.53714285714285</v>
+        <v>153.2423529411765</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>62.5</v>
+        <v>80.84529411764707</v>
       </c>
       <c r="K56" t="n">
-        <v>72.48352941176471</v>
+        <v>133.3383908045977</v>
       </c>
       <c r="L56" t="n">
-        <v>97.43596774193549</v>
+        <v>172.698</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N56" t="n">
-        <v>159.5</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O56" t="n">
-        <v>173</v>
+        <v>182.99</v>
       </c>
       <c r="P56" t="n">
-        <v>172.5</v>
+        <v>184</v>
       </c>
       <c r="Q56" t="n">
-        <v>171.5</v>
+        <v>184</v>
       </c>
       <c r="R56" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S56" t="n">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="T56" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U56" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V56" t="n">
-        <v>118.25</v>
+        <v>62.2</v>
       </c>
       <c r="W56" t="n">
-        <v>64.48999999999999</v>
+        <v>63.63444444444445</v>
       </c>
     </row>
     <row r="57">
@@ -4526,71 +4214,71 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>23/04/2024</t>
+          <t>07/03/2024</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>117.6409090909091</v>
+        <v>160.0321428571428</v>
       </c>
       <c r="D57" t="n">
-        <v>133.028</v>
+        <v>156</v>
       </c>
       <c r="E57" t="n">
-        <v>137</v>
+        <v>148.25</v>
       </c>
       <c r="F57" t="n">
-        <v>137</v>
+        <v>141.5</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H57" t="n">
-        <v>80</v>
+        <v>159.2897222222222</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J57" t="n">
-        <v>62</v>
+        <v>84.00399999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>71</v>
+        <v>139.6338461538462</v>
       </c>
       <c r="L57" t="n">
-        <v>92.53148148148148</v>
+        <v>178.5269090909091</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N57" t="n">
-        <v>159.5</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O57" t="n">
-        <v>173</v>
+        <v>182.99</v>
       </c>
       <c r="P57" t="n">
-        <v>172.5</v>
+        <v>184</v>
       </c>
       <c r="Q57" t="n">
-        <v>171.5</v>
+        <v>184</v>
       </c>
       <c r="R57" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S57" t="n">
-        <v>131</v>
+        <v>196.6</v>
       </c>
       <c r="T57" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U57" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V57" t="n">
-        <v>118.25</v>
+        <v>61.8</v>
       </c>
       <c r="W57" t="n">
-        <v>64.48999999999999</v>
+        <v>63.63444444444445</v>
       </c>
     </row>
     <row r="58">
@@ -4599,71 +4287,71 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>24/04/2024</t>
+          <t>08/03/2024</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>115.84</v>
+        <v>166.861724137931</v>
       </c>
       <c r="D58" t="n">
-        <v>132.5375</v>
+        <v>161.49</v>
       </c>
       <c r="E58" t="n">
-        <v>134.45</v>
+        <v>152.6666666666667</v>
       </c>
       <c r="F58" t="n">
-        <v>138.525</v>
+        <v>141.5</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>80.75</v>
+        <v>166.5228947368421</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J58" t="n">
-        <v>62</v>
+        <v>87.36133333333333</v>
       </c>
       <c r="K58" t="n">
-        <v>70.55272727272728</v>
+        <v>148.5520792079208</v>
       </c>
       <c r="L58" t="n">
-        <v>91.18298701298701</v>
+        <v>187.1764285714286</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N58" t="n">
-        <v>159.5</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O58" t="n">
-        <v>173</v>
+        <v>182.99</v>
       </c>
       <c r="P58" t="n">
-        <v>172.5</v>
+        <v>184</v>
       </c>
       <c r="Q58" t="n">
-        <v>171.5</v>
+        <v>184</v>
       </c>
       <c r="R58" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S58" t="n">
-        <v>131</v>
+        <v>196.6</v>
       </c>
       <c r="T58" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U58" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V58" t="n">
         <v>118.25</v>
       </c>
       <c r="W58" t="n">
-        <v>64.48999999999999</v>
+        <v>64.60909090909091</v>
       </c>
     </row>
     <row r="59">
@@ -4672,71 +4360,71 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>25/04/2024</t>
+          <t>11/03/2024</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>119.1523529411765</v>
+        <v>164.98</v>
       </c>
       <c r="D59" t="n">
-        <v>135</v>
+        <v>160.5</v>
       </c>
       <c r="E59" t="n">
-        <v>135.75</v>
+        <v>152.6666666666667</v>
       </c>
       <c r="F59" t="n">
-        <v>136</v>
+        <v>141.5</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H59" t="n">
-        <v>82.25</v>
+        <v>165.7305555555556</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J59" t="n">
-        <v>62</v>
+        <v>85.56</v>
       </c>
       <c r="K59" t="n">
-        <v>71.05666666666667</v>
+        <v>146.7559302325581</v>
       </c>
       <c r="L59" t="n">
-        <v>96.35022222222223</v>
+        <v>186.7737777777778</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N59" t="n">
-        <v>154</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O59" t="n">
-        <v>173</v>
+        <v>182.99</v>
       </c>
       <c r="P59" t="n">
-        <v>172.5</v>
+        <v>184</v>
       </c>
       <c r="Q59" t="n">
-        <v>171.5</v>
+        <v>184</v>
       </c>
       <c r="R59" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S59" t="n">
-        <v>131</v>
+        <v>196.6</v>
       </c>
       <c r="T59" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U59" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V59" t="n">
         <v>118.25</v>
       </c>
       <c r="W59" t="n">
-        <v>64.48999999999999</v>
+        <v>64.1125</v>
       </c>
     </row>
     <row r="60">
@@ -4745,71 +4433,71 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>26/04/2024</t>
+          <t>12/03/2024</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>119.3333333333333</v>
+        <v>165.7842857142857</v>
       </c>
       <c r="D60" t="n">
-        <v>135.5</v>
+        <v>159.5</v>
       </c>
       <c r="E60" t="n">
-        <v>135.75</v>
+        <v>152.6666666666667</v>
       </c>
       <c r="F60" t="n">
-        <v>136</v>
+        <v>146.5</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H60" t="n">
-        <v>81</v>
+        <v>164.899</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J60" t="n">
-        <v>62</v>
+        <v>84.17470588235294</v>
       </c>
       <c r="K60" t="n">
-        <v>71</v>
+        <v>147.5442045454545</v>
       </c>
       <c r="L60" t="n">
-        <v>93.69</v>
+        <v>185.1758333333333</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N60" t="n">
-        <v>154</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O60" t="n">
-        <v>173</v>
+        <v>182.99</v>
       </c>
       <c r="P60" t="n">
-        <v>172.5</v>
+        <v>184</v>
       </c>
       <c r="Q60" t="n">
-        <v>171.5</v>
+        <v>184</v>
       </c>
       <c r="R60" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S60" t="n">
-        <v>131</v>
+        <v>196.6</v>
       </c>
       <c r="T60" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U60" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V60" t="n">
         <v>118.25</v>
       </c>
       <c r="W60" t="n">
-        <v>64.48999999999999</v>
+        <v>63.85416666666666</v>
       </c>
     </row>
     <row r="61">
@@ -4818,71 +4506,71 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>29/04/2024</t>
+          <t>13/03/2024</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>121.9357142857143</v>
+        <v>161.664</v>
       </c>
       <c r="D61" t="n">
-        <v>135.5</v>
+        <v>155.1</v>
       </c>
       <c r="E61" t="n">
-        <v>133.5</v>
+        <v>150.5</v>
       </c>
       <c r="F61" t="n">
-        <v>136</v>
+        <v>146.5</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H61" t="n">
-        <v>84.09999999999999</v>
+        <v>160.9636363636364</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J61" t="n">
-        <v>62</v>
+        <v>83.52352941176471</v>
       </c>
       <c r="K61" t="n">
-        <v>72.45833333333333</v>
+        <v>144.0026923076923</v>
       </c>
       <c r="L61" t="n">
-        <v>96.30311688311689</v>
+        <v>179.7327272727273</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N61" t="n">
-        <v>154</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O61" t="n">
-        <v>173</v>
+        <v>182.99</v>
       </c>
       <c r="P61" t="n">
-        <v>172.5</v>
+        <v>187</v>
       </c>
       <c r="Q61" t="n">
-        <v>171.5</v>
+        <v>184</v>
       </c>
       <c r="R61" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S61" t="n">
-        <v>131</v>
+        <v>196.6</v>
       </c>
       <c r="T61" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U61" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V61" t="n">
         <v>118.25</v>
       </c>
       <c r="W61" t="n">
-        <v>64.48999999999999</v>
+        <v>63.38888888888889</v>
       </c>
     </row>
     <row r="62">
@@ -4891,71 +4579,71 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>30/04/2024</t>
+          <t>14/03/2024</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>124.3333333333333</v>
+        <v>155.6695</v>
       </c>
       <c r="D62" t="n">
-        <v>136.9666666666667</v>
+        <v>154.4166666666667</v>
       </c>
       <c r="E62" t="n">
-        <v>136.6666666666667</v>
+        <v>149</v>
       </c>
       <c r="F62" t="n">
-        <v>136</v>
+        <v>147.5</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H62" t="n">
-        <v>85</v>
+        <v>151.9960714285714</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J62" t="n">
-        <v>62</v>
+        <v>78.83076923076922</v>
       </c>
       <c r="K62" t="n">
-        <v>73.04625</v>
+        <v>135.8840566037736</v>
       </c>
       <c r="L62" t="n">
-        <v>97.96542372881356</v>
+        <v>168.3448888888889</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N62" t="n">
-        <v>154</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O62" t="n">
-        <v>173</v>
+        <v>182.99</v>
       </c>
       <c r="P62" t="n">
-        <v>172.5</v>
+        <v>187</v>
       </c>
       <c r="Q62" t="n">
-        <v>171.5</v>
+        <v>184</v>
       </c>
       <c r="R62" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S62" t="n">
-        <v>131</v>
+        <v>196.6</v>
       </c>
       <c r="T62" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U62" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V62" t="n">
         <v>118.25</v>
       </c>
       <c r="W62" t="n">
-        <v>64.48999999999999</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="63">
@@ -4964,70 +4652,2698 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>02/05/2024</t>
+          <t>15/03/2024</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>125.475</v>
+        <v>158.5266666666667</v>
       </c>
       <c r="D63" t="n">
-        <v>138</v>
+        <v>155.75</v>
       </c>
       <c r="E63" t="n">
-        <v>136.6666666666667</v>
+        <v>147</v>
       </c>
       <c r="F63" t="n">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H63" t="n">
-        <v>85.23333333333333</v>
+        <v>154.2833333333333</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="J63" t="n">
-        <v>62</v>
+        <v>78.58571428571429</v>
       </c>
       <c r="K63" t="n">
-        <v>73.3</v>
+        <v>137.5202857142857</v>
       </c>
       <c r="L63" t="n">
-        <v>98.56724137931033</v>
+        <v>171.2307272727273</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>107.5</v>
       </c>
       <c r="N63" t="n">
-        <v>154</v>
+        <v>193.3266666666667</v>
       </c>
       <c r="O63" t="n">
-        <v>173</v>
+        <v>191.5</v>
       </c>
       <c r="P63" t="n">
-        <v>172.5</v>
+        <v>184.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>171.5</v>
+        <v>184.5</v>
       </c>
       <c r="R63" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="S63" t="n">
-        <v>131</v>
+        <v>196.6</v>
       </c>
       <c r="T63" t="n">
-        <v>0.3192307692307693</v>
+        <v>78.5</v>
       </c>
       <c r="U63" t="n">
-        <v>64.48999999999999</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="V63" t="n">
         <v>118.25</v>
       </c>
       <c r="W63" t="n">
+        <v>63.80166666666667</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>18/03/2024</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>152.6221428571428</v>
+      </c>
+      <c r="D64" t="n">
+        <v>154</v>
+      </c>
+      <c r="E64" t="n">
+        <v>151</v>
+      </c>
+      <c r="F64" t="n">
+        <v>147</v>
+      </c>
+      <c r="G64" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H64" t="n">
+        <v>144.8608695652174</v>
+      </c>
+      <c r="I64" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J64" t="n">
+        <v>75.46428571428571</v>
+      </c>
+      <c r="K64" t="n">
+        <v>129.1692380952381</v>
+      </c>
+      <c r="L64" t="n">
+        <v>159.549358974359</v>
+      </c>
+      <c r="M64" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N64" t="n">
+        <v>193.3266666666667</v>
+      </c>
+      <c r="O64" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="P64" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>77</v>
+      </c>
+      <c r="S64" t="n">
+        <v>196.6</v>
+      </c>
+      <c r="T64" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U64" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V64" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W64" t="n">
+        <v>63.42696428571428</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>19/03/2024</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>147.4356451612903</v>
+      </c>
+      <c r="D65" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>140</v>
+      </c>
+      <c r="F65" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="G65" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H65" t="n">
+        <v>132.5485</v>
+      </c>
+      <c r="I65" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J65" t="n">
+        <v>72</v>
+      </c>
+      <c r="K65" t="n">
+        <v>118.4378260869565</v>
+      </c>
+      <c r="L65" t="n">
+        <v>148.1596268656716</v>
+      </c>
+      <c r="M65" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N65" t="n">
+        <v>189</v>
+      </c>
+      <c r="O65" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="P65" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>77</v>
+      </c>
+      <c r="S65" t="n">
+        <v>180</v>
+      </c>
+      <c r="T65" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U65" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V65" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W65" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>20/03/2024</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>137.5938235294118</v>
+      </c>
+      <c r="D66" t="n">
+        <v>140.125</v>
+      </c>
+      <c r="E66" t="n">
+        <v>140</v>
+      </c>
+      <c r="F66" t="n">
+        <v>141.9966666666667</v>
+      </c>
+      <c r="G66" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H66" t="n">
+        <v>120.143275862069</v>
+      </c>
+      <c r="I66" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J66" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>108.6959776536313</v>
+      </c>
+      <c r="L66" t="n">
+        <v>134.0439416058394</v>
+      </c>
+      <c r="M66" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N66" t="n">
+        <v>189</v>
+      </c>
+      <c r="O66" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="P66" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>77</v>
+      </c>
+      <c r="S66" t="n">
+        <v>180</v>
+      </c>
+      <c r="T66" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U66" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V66" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W66" t="n">
+        <v>63.63</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>21/03/2024</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>143.8952380952381</v>
+      </c>
+      <c r="D67" t="n">
+        <v>145.675</v>
+      </c>
+      <c r="E67" t="n">
+        <v>140</v>
+      </c>
+      <c r="F67" t="n">
+        <v>141.9966666666667</v>
+      </c>
+      <c r="G67" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H67" t="n">
+        <v>132.1272222222222</v>
+      </c>
+      <c r="I67" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J67" t="n">
+        <v>70.56066666666668</v>
+      </c>
+      <c r="K67" t="n">
+        <v>116.9838297872341</v>
+      </c>
+      <c r="L67" t="n">
+        <v>144.7827722772277</v>
+      </c>
+      <c r="M67" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N67" t="n">
+        <v>185</v>
+      </c>
+      <c r="O67" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="P67" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>77</v>
+      </c>
+      <c r="S67" t="n">
+        <v>164.6666666666667</v>
+      </c>
+      <c r="T67" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U67" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V67" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W67" t="n">
+        <v>61.95</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>22/03/2024</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>148.9358823529412</v>
+      </c>
+      <c r="D68" t="n">
+        <v>149</v>
+      </c>
+      <c r="E68" t="n">
+        <v>140</v>
+      </c>
+      <c r="F68" t="n">
+        <v>143.25</v>
+      </c>
+      <c r="G68" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H68" t="n">
+        <v>137.3836111111111</v>
+      </c>
+      <c r="I68" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J68" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="K68" t="n">
+        <v>124.6596551724138</v>
+      </c>
+      <c r="L68" t="n">
+        <v>154.9871428571429</v>
+      </c>
+      <c r="M68" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N68" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="O68" t="n">
+        <v>185</v>
+      </c>
+      <c r="P68" t="n">
+        <v>182</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>178</v>
+      </c>
+      <c r="R68" t="n">
+        <v>77</v>
+      </c>
+      <c r="S68" t="n">
+        <v>173.075</v>
+      </c>
+      <c r="T68" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U68" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V68" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W68" t="n">
+        <v>61.95</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>25/03/2024</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>155.62</v>
+      </c>
+      <c r="D69" t="n">
+        <v>155.3</v>
+      </c>
+      <c r="E69" t="n">
+        <v>140</v>
+      </c>
+      <c r="F69" t="n">
+        <v>141.75</v>
+      </c>
+      <c r="G69" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H69" t="n">
+        <v>150.1111111111111</v>
+      </c>
+      <c r="I69" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J69" t="n">
+        <v>75.84999999999999</v>
+      </c>
+      <c r="K69" t="n">
+        <v>133.880931372549</v>
+      </c>
+      <c r="L69" t="n">
+        <v>164.45</v>
+      </c>
+      <c r="M69" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N69" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="O69" t="n">
+        <v>188</v>
+      </c>
+      <c r="P69" t="n">
+        <v>182</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>77</v>
+      </c>
+      <c r="S69" t="n">
+        <v>173.075</v>
+      </c>
+      <c r="T69" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U69" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V69" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W69" t="n">
+        <v>61.95</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>26/03/2024</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>158.3285714285714</v>
+      </c>
+      <c r="D70" t="n">
+        <v>153</v>
+      </c>
+      <c r="E70" t="n">
+        <v>140</v>
+      </c>
+      <c r="F70" t="n">
+        <v>145</v>
+      </c>
+      <c r="G70" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H70" t="n">
+        <v>146.689</v>
+      </c>
+      <c r="I70" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J70" t="n">
+        <v>76</v>
+      </c>
+      <c r="K70" t="n">
+        <v>140.5012087912088</v>
+      </c>
+      <c r="L70" t="n">
+        <v>168.1404819277109</v>
+      </c>
+      <c r="M70" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N70" t="n">
+        <v>200.95</v>
+      </c>
+      <c r="O70" t="n">
+        <v>188</v>
+      </c>
+      <c r="P70" t="n">
+        <v>182</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>77</v>
+      </c>
+      <c r="S70" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T70" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U70" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V70" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W70" t="n">
+        <v>61.81666666666666</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>27/03/2024</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="D71" t="n">
+        <v>150.625</v>
+      </c>
+      <c r="E71" t="n">
+        <v>148</v>
+      </c>
+      <c r="F71" t="n">
+        <v>146.96</v>
+      </c>
+      <c r="G71" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H71" t="n">
+        <v>147.3958333333333</v>
+      </c>
+      <c r="I71" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J71" t="n">
+        <v>73.16666666666667</v>
+      </c>
+      <c r="K71" t="n">
+        <v>136.437265625</v>
+      </c>
+      <c r="L71" t="n">
+        <v>161.0813580246914</v>
+      </c>
+      <c r="M71" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N71" t="n">
+        <v>200.95</v>
+      </c>
+      <c r="O71" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="P71" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>77</v>
+      </c>
+      <c r="S71" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T71" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U71" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V71" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W71" t="n">
+        <v>61.81666666666666</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>28/03/2024</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>150.1111111111111</v>
+      </c>
+      <c r="D72" t="n">
+        <v>148.6666666666667</v>
+      </c>
+      <c r="E72" t="n">
+        <v>146</v>
+      </c>
+      <c r="F72" t="n">
+        <v>142</v>
+      </c>
+      <c r="G72" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H72" t="n">
+        <v>136.0045833333333</v>
+      </c>
+      <c r="I72" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J72" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>126.7428313253012</v>
+      </c>
+      <c r="L72" t="n">
+        <v>149.7661111111111</v>
+      </c>
+      <c r="M72" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N72" t="n">
+        <v>189</v>
+      </c>
+      <c r="O72" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="P72" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>77</v>
+      </c>
+      <c r="S72" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T72" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U72" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V72" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W72" t="n">
+        <v>61.81666666666666</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>138.248</v>
+      </c>
+      <c r="D73" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="E73" t="n">
+        <v>144.25</v>
+      </c>
+      <c r="F73" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="G73" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H73" t="n">
+        <v>123.84</v>
+      </c>
+      <c r="I73" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J73" t="n">
+        <v>70</v>
+      </c>
+      <c r="K73" t="n">
+        <v>112.9129113924051</v>
+      </c>
+      <c r="L73" t="n">
+        <v>137.6926582278481</v>
+      </c>
+      <c r="M73" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N73" t="n">
+        <v>189</v>
+      </c>
+      <c r="O73" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="P73" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>77</v>
+      </c>
+      <c r="S73" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T73" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U73" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V73" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W73" t="n">
+        <v>61.81666666666666</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>02/04/2024</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>141.21</v>
+      </c>
+      <c r="D74" t="n">
+        <v>143.71875</v>
+      </c>
+      <c r="E74" t="n">
+        <v>143.875</v>
+      </c>
+      <c r="F74" t="n">
+        <v>142.25</v>
+      </c>
+      <c r="G74" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H74" t="n">
+        <v>126.5884615384615</v>
+      </c>
+      <c r="I74" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J74" t="n">
+        <v>70</v>
+      </c>
+      <c r="K74" t="n">
+        <v>115.1426315789474</v>
+      </c>
+      <c r="L74" t="n">
+        <v>138.8971830985916</v>
+      </c>
+      <c r="M74" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N74" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="O74" t="n">
+        <v>180</v>
+      </c>
+      <c r="P74" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>77</v>
+      </c>
+      <c r="S74" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T74" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U74" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V74" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W74" t="n">
+        <v>61.92666666666667</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>03/04/2024</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>136.13</v>
+      </c>
+      <c r="D75" t="n">
+        <v>139.9583333333333</v>
+      </c>
+      <c r="E75" t="n">
+        <v>138.75</v>
+      </c>
+      <c r="F75" t="n">
+        <v>136</v>
+      </c>
+      <c r="G75" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H75" t="n">
+        <v>119.294375</v>
+      </c>
+      <c r="I75" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J75" t="n">
+        <v>65</v>
+      </c>
+      <c r="K75" t="n">
+        <v>106.9330817610063</v>
+      </c>
+      <c r="L75" t="n">
+        <v>131.8173394495413</v>
+      </c>
+      <c r="M75" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N75" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="O75" t="n">
+        <v>180</v>
+      </c>
+      <c r="P75" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>77</v>
+      </c>
+      <c r="S75" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T75" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U75" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V75" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W75" t="n">
+        <v>61.9175</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>04/04/2024</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>131.6772727272727</v>
+      </c>
+      <c r="D76" t="n">
+        <v>136.8125</v>
+      </c>
+      <c r="E76" t="n">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="F76" t="n">
+        <v>136</v>
+      </c>
+      <c r="G76" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H76" t="n">
+        <v>110.4814814814815</v>
+      </c>
+      <c r="I76" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J76" t="n">
+        <v>64</v>
+      </c>
+      <c r="K76" t="n">
+        <v>100.590652173913</v>
+      </c>
+      <c r="L76" t="n">
+        <v>121.5054444444444</v>
+      </c>
+      <c r="M76" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N76" t="n">
+        <v>170</v>
+      </c>
+      <c r="O76" t="n">
+        <v>180</v>
+      </c>
+      <c r="P76" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>77</v>
+      </c>
+      <c r="S76" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T76" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U76" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V76" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W76" t="n">
+        <v>61.9175</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>05/04/2024</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>133.5607692307692</v>
+      </c>
+      <c r="D77" t="n">
+        <v>139.528</v>
+      </c>
+      <c r="E77" t="n">
+        <v>138</v>
+      </c>
+      <c r="F77" t="n">
+        <v>138</v>
+      </c>
+      <c r="G77" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H77" t="n">
+        <v>115.2333333333333</v>
+      </c>
+      <c r="I77" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J77" t="n">
+        <v>64</v>
+      </c>
+      <c r="K77" t="n">
+        <v>104.1882</v>
+      </c>
+      <c r="L77" t="n">
+        <v>127.91328125</v>
+      </c>
+      <c r="M77" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N77" t="n">
+        <v>173</v>
+      </c>
+      <c r="O77" t="n">
+        <v>180</v>
+      </c>
+      <c r="P77" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>77</v>
+      </c>
+      <c r="S77" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T77" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U77" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V77" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W77" t="n">
+        <v>61.9175</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>08/04/2024</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>120.6352380952381</v>
+      </c>
+      <c r="D78" t="n">
+        <v>132.1470588235294</v>
+      </c>
+      <c r="E78" t="n">
+        <v>131.6666666666667</v>
+      </c>
+      <c r="F78" t="n">
+        <v>134</v>
+      </c>
+      <c r="G78" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H78" t="n">
+        <v>93.10354838709678</v>
+      </c>
+      <c r="I78" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J78" t="n">
+        <v>64</v>
+      </c>
+      <c r="K78" t="n">
+        <v>83.29418439716312</v>
+      </c>
+      <c r="L78" t="n">
+        <v>102.9786861313869</v>
+      </c>
+      <c r="M78" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N78" t="n">
+        <v>173</v>
+      </c>
+      <c r="O78" t="n">
+        <v>180</v>
+      </c>
+      <c r="P78" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>77</v>
+      </c>
+      <c r="S78" t="n">
+        <v>187.95</v>
+      </c>
+      <c r="T78" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U78" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V78" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W78" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>09/04/2024</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>121.0475862068966</v>
+      </c>
+      <c r="D79" t="n">
+        <v>135.9207692307692</v>
+      </c>
+      <c r="E79" t="n">
+        <v>135.9966666666667</v>
+      </c>
+      <c r="F79" t="n">
+        <v>134</v>
+      </c>
+      <c r="G79" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H79" t="n">
+        <v>90.99583333333334</v>
+      </c>
+      <c r="I79" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J79" t="n">
+        <v>64.32000000000001</v>
+      </c>
+      <c r="K79" t="n">
+        <v>80.6875</v>
+      </c>
+      <c r="L79" t="n">
+        <v>104.4654545454545</v>
+      </c>
+      <c r="M79" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N79" t="n">
+        <v>173</v>
+      </c>
+      <c r="O79" t="n">
+        <v>180</v>
+      </c>
+      <c r="P79" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>77</v>
+      </c>
+      <c r="S79" t="n">
+        <v>131</v>
+      </c>
+      <c r="T79" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U79" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V79" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W79" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>10/04/2024</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>125.2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>138</v>
+      </c>
+      <c r="E80" t="n">
+        <v>137.3333333333333</v>
+      </c>
+      <c r="F80" t="n">
+        <v>134</v>
+      </c>
+      <c r="G80" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H80" t="n">
+        <v>95.47499999999999</v>
+      </c>
+      <c r="I80" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J80" t="n">
+        <v>63.5875</v>
+      </c>
+      <c r="K80" t="n">
+        <v>83.7021568627451</v>
+      </c>
+      <c r="L80" t="n">
+        <v>108.8416455696203</v>
+      </c>
+      <c r="M80" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N80" t="n">
+        <v>173</v>
+      </c>
+      <c r="O80" t="n">
+        <v>180</v>
+      </c>
+      <c r="P80" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>77</v>
+      </c>
+      <c r="S80" t="n">
+        <v>131</v>
+      </c>
+      <c r="T80" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U80" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V80" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W80" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>11/04/2024</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>122.5495</v>
+      </c>
+      <c r="D81" t="n">
+        <v>139.656</v>
+      </c>
+      <c r="E81" t="n">
+        <v>137</v>
+      </c>
+      <c r="F81" t="n">
+        <v>134</v>
+      </c>
+      <c r="G81" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H81" t="n">
+        <v>98.58500000000001</v>
+      </c>
+      <c r="I81" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J81" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>85.49795454545455</v>
+      </c>
+      <c r="L81" t="n">
+        <v>112.2051034482759</v>
+      </c>
+      <c r="M81" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N81" t="n">
+        <v>170</v>
+      </c>
+      <c r="O81" t="n">
+        <v>180</v>
+      </c>
+      <c r="P81" t="n">
+        <v>183</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>77</v>
+      </c>
+      <c r="S81" t="n">
+        <v>131</v>
+      </c>
+      <c r="T81" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U81" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V81" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W81" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>130.011</v>
+      </c>
+      <c r="D82" t="n">
+        <v>139</v>
+      </c>
+      <c r="E82" t="n">
+        <v>138</v>
+      </c>
+      <c r="F82" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="G82" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H82" t="n">
+        <v>102.9375</v>
+      </c>
+      <c r="I82" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J82" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>87.05344827586208</v>
+      </c>
+      <c r="L82" t="n">
+        <v>117.0603225806452</v>
+      </c>
+      <c r="M82" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N82" t="n">
+        <v>170</v>
+      </c>
+      <c r="O82" t="n">
+        <v>173</v>
+      </c>
+      <c r="P82" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>77</v>
+      </c>
+      <c r="S82" t="n">
+        <v>131</v>
+      </c>
+      <c r="T82" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U82" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V82" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W82" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>15/04/2024</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>125.4090909090909</v>
+      </c>
+      <c r="D83" t="n">
+        <v>137.3075</v>
+      </c>
+      <c r="E83" t="n">
+        <v>138</v>
+      </c>
+      <c r="F83" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="G83" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H83" t="n">
+        <v>93</v>
+      </c>
+      <c r="I83" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J83" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>82.28060606060606</v>
+      </c>
+      <c r="L83" t="n">
+        <v>108.96</v>
+      </c>
+      <c r="M83" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N83" t="n">
+        <v>170</v>
+      </c>
+      <c r="O83" t="n">
+        <v>173</v>
+      </c>
+      <c r="P83" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>77</v>
+      </c>
+      <c r="S83" t="n">
+        <v>131</v>
+      </c>
+      <c r="T83" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U83" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V83" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W83" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>121.6732352941177</v>
+      </c>
+      <c r="D84" t="n">
+        <v>134.6727272727273</v>
+      </c>
+      <c r="E84" t="n">
+        <v>134.6666666666667</v>
+      </c>
+      <c r="F84" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="G84" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H84" t="n">
+        <v>91.66666666666667</v>
+      </c>
+      <c r="I84" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J84" t="n">
+        <v>62.875</v>
+      </c>
+      <c r="K84" t="n">
+        <v>78.26558823529412</v>
+      </c>
+      <c r="L84" t="n">
+        <v>103.9594117647059</v>
+      </c>
+      <c r="M84" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N84" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="O84" t="n">
+        <v>173</v>
+      </c>
+      <c r="P84" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>77</v>
+      </c>
+      <c r="S84" t="n">
+        <v>131</v>
+      </c>
+      <c r="T84" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U84" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V84" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W84" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>17/04/2024</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>122.1666666666667</v>
+      </c>
+      <c r="D85" t="n">
+        <v>135.3571428571429</v>
+      </c>
+      <c r="E85" t="n">
+        <v>134.6666666666667</v>
+      </c>
+      <c r="F85" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="G85" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H85" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="I85" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J85" t="n">
+        <v>63</v>
+      </c>
+      <c r="K85" t="n">
+        <v>77.55</v>
+      </c>
+      <c r="L85" t="n">
+        <v>103.7788311688312</v>
+      </c>
+      <c r="M85" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N85" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="O85" t="n">
+        <v>173</v>
+      </c>
+      <c r="P85" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>77</v>
+      </c>
+      <c r="S85" t="n">
+        <v>131</v>
+      </c>
+      <c r="T85" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U85" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V85" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W85" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>18/04/2024</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>123.228125</v>
+      </c>
+      <c r="D86" t="n">
+        <v>137.89375</v>
+      </c>
+      <c r="E86" t="n">
+        <v>137</v>
+      </c>
+      <c r="F86" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="G86" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H86" t="n">
+        <v>90</v>
+      </c>
+      <c r="I86" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J86" t="n">
+        <v>63</v>
+      </c>
+      <c r="K86" t="n">
+        <v>76.53125</v>
+      </c>
+      <c r="L86" t="n">
+        <v>101.9594642857143</v>
+      </c>
+      <c r="M86" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N86" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="O86" t="n">
+        <v>173</v>
+      </c>
+      <c r="P86" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>77</v>
+      </c>
+      <c r="S86" t="n">
+        <v>131</v>
+      </c>
+      <c r="T86" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U86" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V86" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W86" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>19/04/2024</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>123.5571428571428</v>
+      </c>
+      <c r="D87" t="n">
+        <v>137</v>
+      </c>
+      <c r="E87" t="n">
+        <v>137</v>
+      </c>
+      <c r="F87" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="G87" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H87" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="I87" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J87" t="n">
+        <v>63</v>
+      </c>
+      <c r="K87" t="n">
+        <v>76.68333333333332</v>
+      </c>
+      <c r="L87" t="n">
+        <v>102.864347826087</v>
+      </c>
+      <c r="M87" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N87" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="O87" t="n">
+        <v>173</v>
+      </c>
+      <c r="P87" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>77</v>
+      </c>
+      <c r="S87" t="n">
+        <v>131</v>
+      </c>
+      <c r="T87" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U87" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V87" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W87" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>22/04/2024</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>120.943</v>
+      </c>
+      <c r="D88" t="n">
+        <v>135.061</v>
+      </c>
+      <c r="E88" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="F88" t="n">
+        <v>137</v>
+      </c>
+      <c r="G88" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H88" t="n">
+        <v>84.53714285714285</v>
+      </c>
+      <c r="I88" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J88" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>72.48352941176471</v>
+      </c>
+      <c r="L88" t="n">
+        <v>97.43596774193549</v>
+      </c>
+      <c r="M88" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N88" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="O88" t="n">
+        <v>173</v>
+      </c>
+      <c r="P88" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>77</v>
+      </c>
+      <c r="S88" t="n">
+        <v>131</v>
+      </c>
+      <c r="T88" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U88" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V88" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W88" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>23/04/2024</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>117.6409090909091</v>
+      </c>
+      <c r="D89" t="n">
+        <v>133.028</v>
+      </c>
+      <c r="E89" t="n">
+        <v>137</v>
+      </c>
+      <c r="F89" t="n">
+        <v>137</v>
+      </c>
+      <c r="G89" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H89" t="n">
+        <v>80</v>
+      </c>
+      <c r="I89" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J89" t="n">
+        <v>62</v>
+      </c>
+      <c r="K89" t="n">
+        <v>71</v>
+      </c>
+      <c r="L89" t="n">
+        <v>92.53148148148148</v>
+      </c>
+      <c r="M89" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N89" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="O89" t="n">
+        <v>173</v>
+      </c>
+      <c r="P89" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>77</v>
+      </c>
+      <c r="S89" t="n">
+        <v>131</v>
+      </c>
+      <c r="T89" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U89" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V89" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W89" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>24/04/2024</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>115.84</v>
+      </c>
+      <c r="D90" t="n">
+        <v>132.5375</v>
+      </c>
+      <c r="E90" t="n">
+        <v>134.45</v>
+      </c>
+      <c r="F90" t="n">
+        <v>138.525</v>
+      </c>
+      <c r="G90" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H90" t="n">
+        <v>80.75</v>
+      </c>
+      <c r="I90" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J90" t="n">
+        <v>62</v>
+      </c>
+      <c r="K90" t="n">
+        <v>70.55272727272728</v>
+      </c>
+      <c r="L90" t="n">
+        <v>91.18298701298701</v>
+      </c>
+      <c r="M90" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N90" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="O90" t="n">
+        <v>173</v>
+      </c>
+      <c r="P90" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>77</v>
+      </c>
+      <c r="S90" t="n">
+        <v>131</v>
+      </c>
+      <c r="T90" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U90" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V90" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W90" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>25/04/2024</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>119.1523529411765</v>
+      </c>
+      <c r="D91" t="n">
+        <v>135</v>
+      </c>
+      <c r="E91" t="n">
+        <v>135.75</v>
+      </c>
+      <c r="F91" t="n">
+        <v>136</v>
+      </c>
+      <c r="G91" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H91" t="n">
+        <v>82.25</v>
+      </c>
+      <c r="I91" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J91" t="n">
+        <v>62</v>
+      </c>
+      <c r="K91" t="n">
+        <v>71.05666666666667</v>
+      </c>
+      <c r="L91" t="n">
+        <v>96.35022222222223</v>
+      </c>
+      <c r="M91" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N91" t="n">
+        <v>154</v>
+      </c>
+      <c r="O91" t="n">
+        <v>173</v>
+      </c>
+      <c r="P91" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>77</v>
+      </c>
+      <c r="S91" t="n">
+        <v>131</v>
+      </c>
+      <c r="T91" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U91" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V91" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W91" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>119.3333333333333</v>
+      </c>
+      <c r="D92" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>135.75</v>
+      </c>
+      <c r="F92" t="n">
+        <v>136</v>
+      </c>
+      <c r="G92" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H92" t="n">
+        <v>81</v>
+      </c>
+      <c r="I92" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J92" t="n">
+        <v>62</v>
+      </c>
+      <c r="K92" t="n">
+        <v>71</v>
+      </c>
+      <c r="L92" t="n">
+        <v>93.69</v>
+      </c>
+      <c r="M92" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N92" t="n">
+        <v>154</v>
+      </c>
+      <c r="O92" t="n">
+        <v>173</v>
+      </c>
+      <c r="P92" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>77</v>
+      </c>
+      <c r="S92" t="n">
+        <v>131</v>
+      </c>
+      <c r="T92" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U92" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V92" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W92" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>29/04/2024</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>121.9357142857143</v>
+      </c>
+      <c r="D93" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>136</v>
+      </c>
+      <c r="G93" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H93" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="I93" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J93" t="n">
+        <v>62</v>
+      </c>
+      <c r="K93" t="n">
+        <v>72.45833333333333</v>
+      </c>
+      <c r="L93" t="n">
+        <v>96.30311688311689</v>
+      </c>
+      <c r="M93" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N93" t="n">
+        <v>154</v>
+      </c>
+      <c r="O93" t="n">
+        <v>173</v>
+      </c>
+      <c r="P93" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>77</v>
+      </c>
+      <c r="S93" t="n">
+        <v>131</v>
+      </c>
+      <c r="T93" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U93" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V93" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W93" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>30/04/2024</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>124.3333333333333</v>
+      </c>
+      <c r="D94" t="n">
+        <v>136.9666666666667</v>
+      </c>
+      <c r="E94" t="n">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="F94" t="n">
+        <v>136</v>
+      </c>
+      <c r="G94" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H94" t="n">
+        <v>85</v>
+      </c>
+      <c r="I94" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J94" t="n">
+        <v>62</v>
+      </c>
+      <c r="K94" t="n">
+        <v>73.04625</v>
+      </c>
+      <c r="L94" t="n">
+        <v>97.96542372881356</v>
+      </c>
+      <c r="M94" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N94" t="n">
+        <v>154</v>
+      </c>
+      <c r="O94" t="n">
+        <v>173</v>
+      </c>
+      <c r="P94" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>77</v>
+      </c>
+      <c r="S94" t="n">
+        <v>131</v>
+      </c>
+      <c r="T94" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U94" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V94" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W94" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>02/05/2024</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>127.0484210526316</v>
+      </c>
+      <c r="D95" t="n">
+        <v>138.1666666666667</v>
+      </c>
+      <c r="E95" t="n">
+        <v>137.6333333333333</v>
+      </c>
+      <c r="F95" t="n">
+        <v>136</v>
+      </c>
+      <c r="G95" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H95" t="n">
+        <v>86.11428571428571</v>
+      </c>
+      <c r="I95" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J95" t="n">
+        <v>62</v>
+      </c>
+      <c r="K95" t="n">
+        <v>73.98625</v>
+      </c>
+      <c r="L95" t="n">
+        <v>99.65230769230769</v>
+      </c>
+      <c r="M95" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N95" t="n">
+        <v>154</v>
+      </c>
+      <c r="O95" t="n">
+        <v>173</v>
+      </c>
+      <c r="P95" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>77</v>
+      </c>
+      <c r="S95" t="n">
+        <v>131</v>
+      </c>
+      <c r="T95" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U95" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V95" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W95" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>03/05/2024</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>125.5454545454545</v>
+      </c>
+      <c r="D96" t="n">
+        <v>138</v>
+      </c>
+      <c r="E96" t="n">
+        <v>138.3333333333333</v>
+      </c>
+      <c r="F96" t="n">
+        <v>137</v>
+      </c>
+      <c r="G96" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H96" t="n">
+        <v>83.50166666666667</v>
+      </c>
+      <c r="I96" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J96" t="n">
+        <v>62</v>
+      </c>
+      <c r="K96" t="n">
+        <v>72.02500000000001</v>
+      </c>
+      <c r="L96" t="n">
+        <v>96.85235294117648</v>
+      </c>
+      <c r="M96" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N96" t="n">
+        <v>154</v>
+      </c>
+      <c r="O96" t="n">
+        <v>173</v>
+      </c>
+      <c r="P96" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>77</v>
+      </c>
+      <c r="S96" t="n">
+        <v>131</v>
+      </c>
+      <c r="T96" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U96" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V96" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W96" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>06/05/2024</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>129.629</v>
+      </c>
+      <c r="D97" t="n">
+        <v>140.79875</v>
+      </c>
+      <c r="E97" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>137</v>
+      </c>
+      <c r="G97" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H97" t="n">
+        <v>85.16666666666667</v>
+      </c>
+      <c r="I97" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J97" t="n">
+        <v>62</v>
+      </c>
+      <c r="K97" t="n">
+        <v>73.69666666666667</v>
+      </c>
+      <c r="L97" t="n">
+        <v>100.9767938931298</v>
+      </c>
+      <c r="M97" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N97" t="n">
+        <v>154</v>
+      </c>
+      <c r="O97" t="n">
+        <v>173</v>
+      </c>
+      <c r="P97" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>77</v>
+      </c>
+      <c r="S97" t="n">
+        <v>124</v>
+      </c>
+      <c r="T97" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U97" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V97" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W97" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>07/05/2024</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>133.7555882352941</v>
+      </c>
+      <c r="D98" t="n">
+        <v>141.5808333333333</v>
+      </c>
+      <c r="E98" t="n">
+        <v>141.1944444444445</v>
+      </c>
+      <c r="F98" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="G98" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H98" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="I98" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J98" t="n">
+        <v>62</v>
+      </c>
+      <c r="K98" t="n">
+        <v>75.97592592592592</v>
+      </c>
+      <c r="L98" t="n">
+        <v>110.943052631579</v>
+      </c>
+      <c r="M98" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N98" t="n">
+        <v>154</v>
+      </c>
+      <c r="O98" t="n">
+        <v>173</v>
+      </c>
+      <c r="P98" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>77</v>
+      </c>
+      <c r="S98" t="n">
+        <v>124</v>
+      </c>
+      <c r="T98" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U98" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V98" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W98" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>08/05/2024</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>130.5625</v>
+      </c>
+      <c r="D99" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="E99" t="n">
+        <v>139</v>
+      </c>
+      <c r="F99" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="G99" t="n">
+        <v>70.43000000000001</v>
+      </c>
+      <c r="H99" t="n">
+        <v>90</v>
+      </c>
+      <c r="I99" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="n">
+        <v>75.13333333333334</v>
+      </c>
+      <c r="L99" t="n">
+        <v>109.5842857142857</v>
+      </c>
+      <c r="M99" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N99" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="O99" t="n">
+        <v>173</v>
+      </c>
+      <c r="P99" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>77</v>
+      </c>
+      <c r="S99" t="n">
+        <v>124</v>
+      </c>
+      <c r="T99" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="U99" t="n">
+        <v>71.33333333333333</v>
+      </c>
+      <c r="V99" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W99" t="n">
         <v>64.48999999999999</v>
       </c>
     </row>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W159"/>
+  <dimension ref="A1:W162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11179,6 +11179,225 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>21/05/2024</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>138.3942857142857</v>
+      </c>
+      <c r="D160" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="E160" t="n">
+        <v>142</v>
+      </c>
+      <c r="F160" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="G160" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H160" t="n">
+        <v>116.3833333333333</v>
+      </c>
+      <c r="I160" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J160" t="n">
+        <v>62</v>
+      </c>
+      <c r="K160" t="n">
+        <v>96.62193548387097</v>
+      </c>
+      <c r="L160" t="n">
+        <v>138.3665882352941</v>
+      </c>
+      <c r="M160" t="n">
+        <v>120</v>
+      </c>
+      <c r="N160" t="n">
+        <v>180</v>
+      </c>
+      <c r="O160" t="n">
+        <v>173</v>
+      </c>
+      <c r="P160" t="n">
+        <v>177.15</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R160" t="n">
+        <v>99</v>
+      </c>
+      <c r="S160" t="n">
+        <v>156</v>
+      </c>
+      <c r="T160" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U160" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V160" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W160" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>142</v>
+      </c>
+      <c r="D161" t="n">
+        <v>143</v>
+      </c>
+      <c r="E161" t="n">
+        <v>142</v>
+      </c>
+      <c r="F161" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="G161" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H161" t="n">
+        <v>122.125</v>
+      </c>
+      <c r="I161" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J161" t="n">
+        <v>62</v>
+      </c>
+      <c r="K161" t="n">
+        <v>102.6326923076923</v>
+      </c>
+      <c r="L161" t="n">
+        <v>143.8733333333333</v>
+      </c>
+      <c r="M161" t="n">
+        <v>120</v>
+      </c>
+      <c r="N161" t="n">
+        <v>180</v>
+      </c>
+      <c r="O161" t="n">
+        <v>173</v>
+      </c>
+      <c r="P161" t="n">
+        <v>177.15</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R161" t="n">
+        <v>99</v>
+      </c>
+      <c r="S161" t="n">
+        <v>156</v>
+      </c>
+      <c r="T161" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U161" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V161" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W161" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>23/05/2024</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>144</v>
+      </c>
+      <c r="D162" t="n">
+        <v>143</v>
+      </c>
+      <c r="E162" t="n">
+        <v>142</v>
+      </c>
+      <c r="F162" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="G162" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H162" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J162" t="n">
+        <v>62</v>
+      </c>
+      <c r="K162" t="n">
+        <v>106.2146875</v>
+      </c>
+      <c r="L162" t="n">
+        <v>144.5981538461538</v>
+      </c>
+      <c r="M162" t="n">
+        <v>120</v>
+      </c>
+      <c r="N162" t="n">
+        <v>180</v>
+      </c>
+      <c r="O162" t="n">
+        <v>173</v>
+      </c>
+      <c r="P162" t="n">
+        <v>177.15</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R162" t="n">
+        <v>99</v>
+      </c>
+      <c r="S162" t="n">
+        <v>156</v>
+      </c>
+      <c r="T162" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U162" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V162" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W162" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W162"/>
+  <dimension ref="A1:W165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11398,6 +11398,225 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>24/05/2024</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>147.155</v>
+      </c>
+      <c r="D163" t="n">
+        <v>146.7375</v>
+      </c>
+      <c r="E163" t="n">
+        <v>143</v>
+      </c>
+      <c r="F163" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="G163" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H163" t="n">
+        <v>132.4142857142857</v>
+      </c>
+      <c r="I163" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J163" t="n">
+        <v>62</v>
+      </c>
+      <c r="K163" t="n">
+        <v>116.925</v>
+      </c>
+      <c r="L163" t="n">
+        <v>152.126170212766</v>
+      </c>
+      <c r="M163" t="n">
+        <v>120</v>
+      </c>
+      <c r="N163" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="O163" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="P163" t="n">
+        <v>177.15</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="R163" t="n">
+        <v>99</v>
+      </c>
+      <c r="S163" t="n">
+        <v>156</v>
+      </c>
+      <c r="T163" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U163" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V163" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W163" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>27/05/2024</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>151.2021621621622</v>
+      </c>
+      <c r="D164" t="n">
+        <v>149.0714285714286</v>
+      </c>
+      <c r="E164" t="n">
+        <v>143.6666666666667</v>
+      </c>
+      <c r="F164" t="n">
+        <v>142</v>
+      </c>
+      <c r="G164" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H164" t="n">
+        <v>147.4166666666667</v>
+      </c>
+      <c r="I164" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J164" t="n">
+        <v>62</v>
+      </c>
+      <c r="K164" t="n">
+        <v>131.7718421052631</v>
+      </c>
+      <c r="L164" t="n">
+        <v>165.5733783783784</v>
+      </c>
+      <c r="M164" t="n">
+        <v>120</v>
+      </c>
+      <c r="N164" t="n">
+        <v>189.75</v>
+      </c>
+      <c r="O164" t="n">
+        <v>183.6666666666667</v>
+      </c>
+      <c r="P164" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R164" t="n">
+        <v>99</v>
+      </c>
+      <c r="S164" t="n">
+        <v>156</v>
+      </c>
+      <c r="T164" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U164" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V164" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W164" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>28/05/2024</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>157.23</v>
+      </c>
+      <c r="D165" t="n">
+        <v>152.3333333333333</v>
+      </c>
+      <c r="E165" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="F165" t="n">
+        <v>142</v>
+      </c>
+      <c r="G165" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H165" t="n">
+        <v>161.8733333333333</v>
+      </c>
+      <c r="I165" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J165" t="n">
+        <v>62</v>
+      </c>
+      <c r="K165" t="n">
+        <v>146.482</v>
+      </c>
+      <c r="L165" t="n">
+        <v>179.05864</v>
+      </c>
+      <c r="M165" t="n">
+        <v>120</v>
+      </c>
+      <c r="N165" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="O165" t="n">
+        <v>183.6666666666667</v>
+      </c>
+      <c r="P165" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R165" t="n">
+        <v>99</v>
+      </c>
+      <c r="S165" t="n">
+        <v>201</v>
+      </c>
+      <c r="T165" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U165" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V165" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W165" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W165"/>
+  <dimension ref="A1:W168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11617,6 +11617,225 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>29/05/2024</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>155.355</v>
+      </c>
+      <c r="D166" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="E166" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>142</v>
+      </c>
+      <c r="G166" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H166" t="n">
+        <v>153.1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J166" t="n">
+        <v>62</v>
+      </c>
+      <c r="K166" t="n">
+        <v>138.40625</v>
+      </c>
+      <c r="L166" t="n">
+        <v>172.09</v>
+      </c>
+      <c r="M166" t="n">
+        <v>120</v>
+      </c>
+      <c r="N166" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="O166" t="n">
+        <v>183.6666666666667</v>
+      </c>
+      <c r="P166" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R166" t="n">
+        <v>99</v>
+      </c>
+      <c r="S166" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="T166" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U166" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V166" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W166" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>31/05/2024</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>153.25</v>
+      </c>
+      <c r="D167" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="E167" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>142</v>
+      </c>
+      <c r="G167" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H167" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="I167" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J167" t="n">
+        <v>62</v>
+      </c>
+      <c r="K167" t="n">
+        <v>138.40625</v>
+      </c>
+      <c r="L167" t="n">
+        <v>173.9754545454545</v>
+      </c>
+      <c r="M167" t="n">
+        <v>120</v>
+      </c>
+      <c r="N167" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="O167" t="n">
+        <v>183.6666666666667</v>
+      </c>
+      <c r="P167" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R167" t="n">
+        <v>99</v>
+      </c>
+      <c r="S167" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="T167" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U167" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V167" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W167" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>03/06/2024</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>153.25</v>
+      </c>
+      <c r="D168" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="E168" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="F168" t="n">
+        <v>142</v>
+      </c>
+      <c r="G168" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H168" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="I168" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J168" t="n">
+        <v>62</v>
+      </c>
+      <c r="K168" t="n">
+        <v>138.40625</v>
+      </c>
+      <c r="L168" t="n">
+        <v>177.25</v>
+      </c>
+      <c r="M168" t="n">
+        <v>120</v>
+      </c>
+      <c r="N168" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="O168" t="n">
+        <v>183.6666666666667</v>
+      </c>
+      <c r="P168" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R168" t="n">
+        <v>99</v>
+      </c>
+      <c r="S168" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="T168" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U168" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V168" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W168" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W168"/>
+  <dimension ref="A1:W171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11836,6 +11836,225 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>04/06/2024</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>149.0444444444445</v>
+      </c>
+      <c r="D169" t="n">
+        <v>150</v>
+      </c>
+      <c r="E169" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>142</v>
+      </c>
+      <c r="G169" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H169" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="I169" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J169" t="n">
+        <v>62</v>
+      </c>
+      <c r="K169" t="n">
+        <v>131.8541666666667</v>
+      </c>
+      <c r="L169" t="n">
+        <v>162.1017045454546</v>
+      </c>
+      <c r="M169" t="n">
+        <v>120</v>
+      </c>
+      <c r="N169" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="O169" t="n">
+        <v>187</v>
+      </c>
+      <c r="P169" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R169" t="n">
+        <v>99</v>
+      </c>
+      <c r="S169" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="T169" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U169" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V169" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W169" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>05/06/2024</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>142.0503225806452</v>
+      </c>
+      <c r="D170" t="n">
+        <v>146</v>
+      </c>
+      <c r="E170" t="n">
+        <v>139.01</v>
+      </c>
+      <c r="F170" t="n">
+        <v>142</v>
+      </c>
+      <c r="G170" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H170" t="n">
+        <v>133</v>
+      </c>
+      <c r="I170" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J170" t="n">
+        <v>62</v>
+      </c>
+      <c r="K170" t="n">
+        <v>120.0948275862069</v>
+      </c>
+      <c r="L170" t="n">
+        <v>152.3421951219512</v>
+      </c>
+      <c r="M170" t="n">
+        <v>120</v>
+      </c>
+      <c r="N170" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="O170" t="n">
+        <v>187</v>
+      </c>
+      <c r="P170" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R170" t="n">
+        <v>99</v>
+      </c>
+      <c r="S170" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="T170" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U170" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V170" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W170" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>06/06/2024</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="E171" t="n">
+        <v>139.01</v>
+      </c>
+      <c r="F171" t="n">
+        <v>136</v>
+      </c>
+      <c r="G171" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H171" t="n">
+        <v>133</v>
+      </c>
+      <c r="I171" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J171" t="n">
+        <v>62</v>
+      </c>
+      <c r="K171" t="n">
+        <v>112.498</v>
+      </c>
+      <c r="L171" t="n">
+        <v>142.1202040816327</v>
+      </c>
+      <c r="M171" t="n">
+        <v>120</v>
+      </c>
+      <c r="N171" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="O171" t="n">
+        <v>187</v>
+      </c>
+      <c r="P171" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R171" t="n">
+        <v>99</v>
+      </c>
+      <c r="S171" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="T171" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U171" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V171" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W171" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W171"/>
+  <dimension ref="A1:W174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12055,6 +12055,225 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>07/06/2024</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>139.91</v>
+      </c>
+      <c r="D172" t="n">
+        <v>145</v>
+      </c>
+      <c r="E172" t="n">
+        <v>139.01</v>
+      </c>
+      <c r="F172" t="n">
+        <v>139</v>
+      </c>
+      <c r="G172" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H172" t="n">
+        <v>131</v>
+      </c>
+      <c r="I172" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J172" t="n">
+        <v>62</v>
+      </c>
+      <c r="K172" t="n">
+        <v>118.111875</v>
+      </c>
+      <c r="L172" t="n">
+        <v>147.0238983050847</v>
+      </c>
+      <c r="M172" t="n">
+        <v>120</v>
+      </c>
+      <c r="N172" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="O172" t="n">
+        <v>177</v>
+      </c>
+      <c r="P172" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R172" t="n">
+        <v>99</v>
+      </c>
+      <c r="S172" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="T172" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U172" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V172" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W172" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>10/06/2024</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>146.7846296296296</v>
+      </c>
+      <c r="D173" t="n">
+        <v>146.5685714285714</v>
+      </c>
+      <c r="E173" t="n">
+        <v>141.9444444444445</v>
+      </c>
+      <c r="F173" t="n">
+        <v>139</v>
+      </c>
+      <c r="G173" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H173" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="I173" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J173" t="n">
+        <v>62</v>
+      </c>
+      <c r="K173" t="n">
+        <v>135.2454545454545</v>
+      </c>
+      <c r="L173" t="n">
+        <v>165.1578616352201</v>
+      </c>
+      <c r="M173" t="n">
+        <v>120</v>
+      </c>
+      <c r="N173" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="O173" t="n">
+        <v>182</v>
+      </c>
+      <c r="P173" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R173" t="n">
+        <v>99</v>
+      </c>
+      <c r="S173" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="T173" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U173" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V173" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W173" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>11/06/2024</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>150.2227777777778</v>
+      </c>
+      <c r="D174" t="n">
+        <v>149.25</v>
+      </c>
+      <c r="E174" t="n">
+        <v>141.9444444444445</v>
+      </c>
+      <c r="F174" t="n">
+        <v>139</v>
+      </c>
+      <c r="G174" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H174" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="I174" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J174" t="n">
+        <v>62</v>
+      </c>
+      <c r="K174" t="n">
+        <v>138.5714285714286</v>
+      </c>
+      <c r="L174" t="n">
+        <v>172.7663492063492</v>
+      </c>
+      <c r="M174" t="n">
+        <v>120</v>
+      </c>
+      <c r="N174" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="O174" t="n">
+        <v>182</v>
+      </c>
+      <c r="P174" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R174" t="n">
+        <v>99</v>
+      </c>
+      <c r="S174" t="n">
+        <v>185</v>
+      </c>
+      <c r="T174" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U174" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V174" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W174" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W174"/>
+  <dimension ref="A1:W185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12274,6 +12274,809 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>12/06/2024</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>147.2666666666667</v>
+      </c>
+      <c r="D175" t="n">
+        <v>149</v>
+      </c>
+      <c r="E175" t="n">
+        <v>143</v>
+      </c>
+      <c r="F175" t="n">
+        <v>139</v>
+      </c>
+      <c r="G175" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H175" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="I175" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J175" t="n">
+        <v>62</v>
+      </c>
+      <c r="K175" t="n">
+        <v>133.3725</v>
+      </c>
+      <c r="L175" t="n">
+        <v>170.957</v>
+      </c>
+      <c r="M175" t="n">
+        <v>120</v>
+      </c>
+      <c r="N175" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="O175" t="n">
+        <v>182</v>
+      </c>
+      <c r="P175" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R175" t="n">
+        <v>99</v>
+      </c>
+      <c r="S175" t="n">
+        <v>185</v>
+      </c>
+      <c r="T175" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U175" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V175" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W175" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>13/06/2024</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>147.1538461538462</v>
+      </c>
+      <c r="D176" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="E176" t="n">
+        <v>143</v>
+      </c>
+      <c r="F176" t="n">
+        <v>140</v>
+      </c>
+      <c r="G176" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H176" t="n">
+        <v>150</v>
+      </c>
+      <c r="I176" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J176" t="n">
+        <v>62</v>
+      </c>
+      <c r="K176" t="n">
+        <v>131.0225</v>
+      </c>
+      <c r="L176" t="n">
+        <v>167.5376086956522</v>
+      </c>
+      <c r="M176" t="n">
+        <v>120</v>
+      </c>
+      <c r="N176" t="n">
+        <v>185</v>
+      </c>
+      <c r="O176" t="n">
+        <v>182</v>
+      </c>
+      <c r="P176" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R176" t="n">
+        <v>99</v>
+      </c>
+      <c r="S176" t="n">
+        <v>185</v>
+      </c>
+      <c r="T176" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U176" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V176" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W176" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>14/06/2024</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>151.2584375</v>
+      </c>
+      <c r="D177" t="n">
+        <v>150.4035714285714</v>
+      </c>
+      <c r="E177" t="n">
+        <v>144.1666666666667</v>
+      </c>
+      <c r="F177" t="n">
+        <v>141</v>
+      </c>
+      <c r="G177" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H177" t="n">
+        <v>122.75</v>
+      </c>
+      <c r="I177" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J177" t="n">
+        <v>62</v>
+      </c>
+      <c r="K177" t="n">
+        <v>138.31125</v>
+      </c>
+      <c r="L177" t="n">
+        <v>173.1102985074627</v>
+      </c>
+      <c r="M177" t="n">
+        <v>120</v>
+      </c>
+      <c r="N177" t="n">
+        <v>185</v>
+      </c>
+      <c r="O177" t="n">
+        <v>182</v>
+      </c>
+      <c r="P177" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R177" t="n">
+        <v>99</v>
+      </c>
+      <c r="S177" t="n">
+        <v>185</v>
+      </c>
+      <c r="T177" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U177" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V177" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W177" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>17/06/2024</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>156.4611111111111</v>
+      </c>
+      <c r="D178" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="F178" t="n">
+        <v>143</v>
+      </c>
+      <c r="G178" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H178" t="n">
+        <v>122.75</v>
+      </c>
+      <c r="I178" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J178" t="n">
+        <v>62</v>
+      </c>
+      <c r="K178" t="n">
+        <v>146.0454545454545</v>
+      </c>
+      <c r="L178" t="n">
+        <v>180.1802941176471</v>
+      </c>
+      <c r="M178" t="n">
+        <v>120</v>
+      </c>
+      <c r="N178" t="n">
+        <v>185</v>
+      </c>
+      <c r="O178" t="n">
+        <v>182</v>
+      </c>
+      <c r="P178" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R178" t="n">
+        <v>99</v>
+      </c>
+      <c r="S178" t="n">
+        <v>196</v>
+      </c>
+      <c r="T178" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U178" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V178" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W178" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>18/06/2024</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>157.6777777777778</v>
+      </c>
+      <c r="D179" t="n">
+        <v>152.5833333333333</v>
+      </c>
+      <c r="E179" t="n">
+        <v>146</v>
+      </c>
+      <c r="F179" t="n">
+        <v>143</v>
+      </c>
+      <c r="G179" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H179" t="n">
+        <v>164</v>
+      </c>
+      <c r="I179" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J179" t="n">
+        <v>62</v>
+      </c>
+      <c r="K179" t="n">
+        <v>146.0454545454545</v>
+      </c>
+      <c r="L179" t="n">
+        <v>181.1875</v>
+      </c>
+      <c r="M179" t="n">
+        <v>120</v>
+      </c>
+      <c r="N179" t="n">
+        <v>185</v>
+      </c>
+      <c r="O179" t="n">
+        <v>182</v>
+      </c>
+      <c r="P179" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R179" t="n">
+        <v>99</v>
+      </c>
+      <c r="S179" t="n">
+        <v>200</v>
+      </c>
+      <c r="T179" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U179" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V179" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W179" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>19/06/2024</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>155.6666666666667</v>
+      </c>
+      <c r="D180" t="n">
+        <v>152.5833333333333</v>
+      </c>
+      <c r="E180" t="n">
+        <v>146</v>
+      </c>
+      <c r="F180" t="n">
+        <v>143</v>
+      </c>
+      <c r="G180" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H180" t="n">
+        <v>164</v>
+      </c>
+      <c r="I180" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J180" t="n">
+        <v>62</v>
+      </c>
+      <c r="K180" t="n">
+        <v>146.0454545454545</v>
+      </c>
+      <c r="L180" t="n">
+        <v>177.555</v>
+      </c>
+      <c r="M180" t="n">
+        <v>120</v>
+      </c>
+      <c r="N180" t="n">
+        <v>185</v>
+      </c>
+      <c r="O180" t="n">
+        <v>182</v>
+      </c>
+      <c r="P180" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R180" t="n">
+        <v>99</v>
+      </c>
+      <c r="S180" t="n">
+        <v>200</v>
+      </c>
+      <c r="T180" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U180" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V180" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W180" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>20/06/2024</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>157.2</v>
+      </c>
+      <c r="D181" t="n">
+        <v>153</v>
+      </c>
+      <c r="E181" t="n">
+        <v>146</v>
+      </c>
+      <c r="F181" t="n">
+        <v>143</v>
+      </c>
+      <c r="G181" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H181" t="n">
+        <v>161</v>
+      </c>
+      <c r="I181" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J181" t="n">
+        <v>62</v>
+      </c>
+      <c r="K181" t="n">
+        <v>145.8333333333333</v>
+      </c>
+      <c r="L181" t="n">
+        <v>179.6538461538462</v>
+      </c>
+      <c r="M181" t="n">
+        <v>120</v>
+      </c>
+      <c r="N181" t="n">
+        <v>185</v>
+      </c>
+      <c r="O181" t="n">
+        <v>182</v>
+      </c>
+      <c r="P181" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R181" t="n">
+        <v>99</v>
+      </c>
+      <c r="S181" t="n">
+        <v>200</v>
+      </c>
+      <c r="T181" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U181" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V181" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W181" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>21/06/2024</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>160.7992857142857</v>
+      </c>
+      <c r="D182" t="n">
+        <v>158.024375</v>
+      </c>
+      <c r="E182" t="n">
+        <v>148.5555555555555</v>
+      </c>
+      <c r="F182" t="n">
+        <v>143</v>
+      </c>
+      <c r="G182" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H182" t="n">
+        <v>168.575</v>
+      </c>
+      <c r="I182" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J182" t="n">
+        <v>62</v>
+      </c>
+      <c r="K182" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="L182" t="n">
+        <v>187.3439285714286</v>
+      </c>
+      <c r="M182" t="n">
+        <v>120</v>
+      </c>
+      <c r="N182" t="n">
+        <v>196.8333333333333</v>
+      </c>
+      <c r="O182" t="n">
+        <v>182</v>
+      </c>
+      <c r="P182" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R182" t="n">
+        <v>99</v>
+      </c>
+      <c r="S182" t="n">
+        <v>205</v>
+      </c>
+      <c r="T182" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U182" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V182" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W182" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>24/06/2024</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>160.3684210526316</v>
+      </c>
+      <c r="D183" t="n">
+        <v>155.6666666666667</v>
+      </c>
+      <c r="E183" t="n">
+        <v>148.5555555555555</v>
+      </c>
+      <c r="F183" t="n">
+        <v>144</v>
+      </c>
+      <c r="G183" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H183" t="n">
+        <v>168.575</v>
+      </c>
+      <c r="I183" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J183" t="n">
+        <v>62</v>
+      </c>
+      <c r="K183" t="n">
+        <v>156.9166666666667</v>
+      </c>
+      <c r="L183" t="n">
+        <v>188.6785714285714</v>
+      </c>
+      <c r="M183" t="n">
+        <v>120</v>
+      </c>
+      <c r="N183" t="n">
+        <v>196.8333333333333</v>
+      </c>
+      <c r="O183" t="n">
+        <v>182</v>
+      </c>
+      <c r="P183" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R183" t="n">
+        <v>99</v>
+      </c>
+      <c r="S183" t="n">
+        <v>205</v>
+      </c>
+      <c r="T183" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U183" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V183" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W183" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>25/06/2024</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>161.9607142857143</v>
+      </c>
+      <c r="D184" t="n">
+        <v>156.8285714285714</v>
+      </c>
+      <c r="E184" t="n">
+        <v>147.1666666666667</v>
+      </c>
+      <c r="F184" t="n">
+        <v>143</v>
+      </c>
+      <c r="G184" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H184" t="n">
+        <v>168.575</v>
+      </c>
+      <c r="I184" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J184" t="n">
+        <v>62</v>
+      </c>
+      <c r="K184" t="n">
+        <v>155.3557142857143</v>
+      </c>
+      <c r="L184" t="n">
+        <v>190.9038333333333</v>
+      </c>
+      <c r="M184" t="n">
+        <v>120</v>
+      </c>
+      <c r="N184" t="n">
+        <v>196.8333333333333</v>
+      </c>
+      <c r="O184" t="n">
+        <v>182</v>
+      </c>
+      <c r="P184" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R184" t="n">
+        <v>99</v>
+      </c>
+      <c r="S184" t="n">
+        <v>210</v>
+      </c>
+      <c r="T184" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U184" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V184" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W184" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>26/06/2024</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>165.3409090909091</v>
+      </c>
+      <c r="D185" t="n">
+        <v>157.9666666666667</v>
+      </c>
+      <c r="E185" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="F185" t="n">
+        <v>142.75</v>
+      </c>
+      <c r="G185" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H185" t="n">
+        <v>174.35</v>
+      </c>
+      <c r="I185" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J185" t="n">
+        <v>62</v>
+      </c>
+      <c r="K185" t="n">
+        <v>158.15</v>
+      </c>
+      <c r="L185" t="n">
+        <v>193.7390322580645</v>
+      </c>
+      <c r="M185" t="n">
+        <v>120</v>
+      </c>
+      <c r="N185" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="O185" t="n">
+        <v>182</v>
+      </c>
+      <c r="P185" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R185" t="n">
+        <v>99</v>
+      </c>
+      <c r="S185" t="n">
+        <v>210</v>
+      </c>
+      <c r="T185" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U185" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V185" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W185" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W185"/>
+  <dimension ref="A1:W188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13077,6 +13077,225 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>27/06/2024</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>168.4538461538462</v>
+      </c>
+      <c r="D186" t="n">
+        <v>157.9561904761905</v>
+      </c>
+      <c r="E186" t="n">
+        <v>147.6088888888889</v>
+      </c>
+      <c r="F186" t="n">
+        <v>144</v>
+      </c>
+      <c r="G186" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H186" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="I186" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J186" t="n">
+        <v>62</v>
+      </c>
+      <c r="K186" t="n">
+        <v>165.6225</v>
+      </c>
+      <c r="L186" t="n">
+        <v>200.2866433566434</v>
+      </c>
+      <c r="M186" t="n">
+        <v>120</v>
+      </c>
+      <c r="N186" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="O186" t="n">
+        <v>182</v>
+      </c>
+      <c r="P186" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R186" t="n">
+        <v>99</v>
+      </c>
+      <c r="S186" t="n">
+        <v>210</v>
+      </c>
+      <c r="T186" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U186" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V186" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W186" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>28/06/2024</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>175.5611428571429</v>
+      </c>
+      <c r="D187" t="n">
+        <v>159.6709677419355</v>
+      </c>
+      <c r="E187" t="n">
+        <v>149.806875</v>
+      </c>
+      <c r="F187" t="n">
+        <v>146</v>
+      </c>
+      <c r="G187" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H187" t="n">
+        <v>195.375</v>
+      </c>
+      <c r="I187" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J187" t="n">
+        <v>62</v>
+      </c>
+      <c r="K187" t="n">
+        <v>180.5113333333333</v>
+      </c>
+      <c r="L187" t="n">
+        <v>212.731652173913</v>
+      </c>
+      <c r="M187" t="n">
+        <v>120</v>
+      </c>
+      <c r="N187" t="n">
+        <v>209.5</v>
+      </c>
+      <c r="O187" t="n">
+        <v>182</v>
+      </c>
+      <c r="P187" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R187" t="n">
+        <v>99</v>
+      </c>
+      <c r="S187" t="n">
+        <v>210</v>
+      </c>
+      <c r="T187" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U187" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V187" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W187" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>175.5611428571429</v>
+      </c>
+      <c r="D188" t="n">
+        <v>159.6709677419355</v>
+      </c>
+      <c r="E188" t="n">
+        <v>149.806875</v>
+      </c>
+      <c r="F188" t="n">
+        <v>146</v>
+      </c>
+      <c r="G188" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H188" t="n">
+        <v>195.375</v>
+      </c>
+      <c r="I188" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J188" t="n">
+        <v>62</v>
+      </c>
+      <c r="K188" t="n">
+        <v>180.5113333333333</v>
+      </c>
+      <c r="L188" t="n">
+        <v>208.6</v>
+      </c>
+      <c r="M188" t="n">
+        <v>120</v>
+      </c>
+      <c r="N188" t="n">
+        <v>209.5</v>
+      </c>
+      <c r="O188" t="n">
+        <v>182</v>
+      </c>
+      <c r="P188" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R188" t="n">
+        <v>99</v>
+      </c>
+      <c r="S188" t="n">
+        <v>210</v>
+      </c>
+      <c r="T188" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U188" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V188" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W188" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W188"/>
+  <dimension ref="A1:W191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13296,6 +13296,225 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>02/07/2024</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>161.38</v>
+      </c>
+      <c r="D189" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="E189" t="n">
+        <v>144.3333333333333</v>
+      </c>
+      <c r="F189" t="n">
+        <v>143</v>
+      </c>
+      <c r="G189" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H189" t="n">
+        <v>165</v>
+      </c>
+      <c r="I189" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J189" t="n">
+        <v>62</v>
+      </c>
+      <c r="K189" t="n">
+        <v>147.2233333333333</v>
+      </c>
+      <c r="L189" t="n">
+        <v>186.655045045045</v>
+      </c>
+      <c r="M189" t="n">
+        <v>120</v>
+      </c>
+      <c r="N189" t="n">
+        <v>196</v>
+      </c>
+      <c r="O189" t="n">
+        <v>182</v>
+      </c>
+      <c r="P189" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R189" t="n">
+        <v>99</v>
+      </c>
+      <c r="S189" t="n">
+        <v>210</v>
+      </c>
+      <c r="T189" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U189" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V189" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W189" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>03/07/2024</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>156.2358064516129</v>
+      </c>
+      <c r="D190" t="n">
+        <v>150.125</v>
+      </c>
+      <c r="E190" t="n">
+        <v>145</v>
+      </c>
+      <c r="F190" t="n">
+        <v>143</v>
+      </c>
+      <c r="G190" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H190" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="I190" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J190" t="n">
+        <v>62</v>
+      </c>
+      <c r="K190" t="n">
+        <v>128.575</v>
+      </c>
+      <c r="L190" t="n">
+        <v>173.6945185185185</v>
+      </c>
+      <c r="M190" t="n">
+        <v>120</v>
+      </c>
+      <c r="N190" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="O190" t="n">
+        <v>182</v>
+      </c>
+      <c r="P190" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R190" t="n">
+        <v>99</v>
+      </c>
+      <c r="S190" t="n">
+        <v>210</v>
+      </c>
+      <c r="T190" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U190" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V190" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W190" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>04/07/2024</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>162.0555555555555</v>
+      </c>
+      <c r="D191" t="n">
+        <v>155.1666666666667</v>
+      </c>
+      <c r="E191" t="n">
+        <v>147</v>
+      </c>
+      <c r="F191" t="n">
+        <v>143</v>
+      </c>
+      <c r="G191" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H191" t="n">
+        <v>100</v>
+      </c>
+      <c r="I191" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J191" t="n">
+        <v>62</v>
+      </c>
+      <c r="K191" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="L191" t="n">
+        <v>178.7997183098592</v>
+      </c>
+      <c r="M191" t="n">
+        <v>120</v>
+      </c>
+      <c r="N191" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="O191" t="n">
+        <v>182</v>
+      </c>
+      <c r="P191" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R191" t="n">
+        <v>99</v>
+      </c>
+      <c r="S191" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="T191" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U191" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V191" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W191" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W191"/>
+  <dimension ref="A1:W194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13515,6 +13515,225 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>05/07/2024</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>163.9661111111111</v>
+      </c>
+      <c r="D192" t="n">
+        <v>155.625</v>
+      </c>
+      <c r="E192" t="n">
+        <v>145.3333333333333</v>
+      </c>
+      <c r="F192" t="n">
+        <v>141</v>
+      </c>
+      <c r="G192" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H192" t="n">
+        <v>100</v>
+      </c>
+      <c r="I192" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J192" t="n">
+        <v>62</v>
+      </c>
+      <c r="K192" t="n">
+        <v>143.25</v>
+      </c>
+      <c r="L192" t="n">
+        <v>186.5268115942029</v>
+      </c>
+      <c r="M192" t="n">
+        <v>120</v>
+      </c>
+      <c r="N192" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="O192" t="n">
+        <v>182</v>
+      </c>
+      <c r="P192" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R192" t="n">
+        <v>99</v>
+      </c>
+      <c r="S192" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="T192" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U192" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V192" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W192" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>08/07/2024</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>160.68</v>
+      </c>
+      <c r="D193" t="n">
+        <v>154</v>
+      </c>
+      <c r="E193" t="n">
+        <v>145.25</v>
+      </c>
+      <c r="F193" t="n">
+        <v>142</v>
+      </c>
+      <c r="G193" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H193" t="n">
+        <v>156</v>
+      </c>
+      <c r="I193" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J193" t="n">
+        <v>62</v>
+      </c>
+      <c r="K193" t="n">
+        <v>132.6475</v>
+      </c>
+      <c r="L193" t="n">
+        <v>182.5274285714286</v>
+      </c>
+      <c r="M193" t="n">
+        <v>120</v>
+      </c>
+      <c r="N193" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="O193" t="n">
+        <v>182</v>
+      </c>
+      <c r="P193" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R193" t="n">
+        <v>99</v>
+      </c>
+      <c r="S193" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="T193" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U193" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V193" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W193" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>09/07/2024</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>156.6875</v>
+      </c>
+      <c r="D194" t="n">
+        <v>154</v>
+      </c>
+      <c r="E194" t="n">
+        <v>145.25</v>
+      </c>
+      <c r="F194" t="n">
+        <v>142</v>
+      </c>
+      <c r="G194" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H194" t="n">
+        <v>156</v>
+      </c>
+      <c r="I194" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J194" t="n">
+        <v>62</v>
+      </c>
+      <c r="K194" t="n">
+        <v>132.6475</v>
+      </c>
+      <c r="L194" t="n">
+        <v>168.4796226415094</v>
+      </c>
+      <c r="M194" t="n">
+        <v>120</v>
+      </c>
+      <c r="N194" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="O194" t="n">
+        <v>182</v>
+      </c>
+      <c r="P194" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R194" t="n">
+        <v>99</v>
+      </c>
+      <c r="S194" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="T194" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U194" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V194" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W194" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W194"/>
+  <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13734,6 +13734,517 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>10/07/2024</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>164.846</v>
+      </c>
+      <c r="D195" t="n">
+        <v>154</v>
+      </c>
+      <c r="E195" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>142</v>
+      </c>
+      <c r="G195" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H195" t="n">
+        <v>156</v>
+      </c>
+      <c r="I195" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J195" t="n">
+        <v>62</v>
+      </c>
+      <c r="K195" t="n">
+        <v>132.6475</v>
+      </c>
+      <c r="L195" t="n">
+        <v>179.078904109589</v>
+      </c>
+      <c r="M195" t="n">
+        <v>120</v>
+      </c>
+      <c r="N195" t="n">
+        <v>190</v>
+      </c>
+      <c r="O195" t="n">
+        <v>182</v>
+      </c>
+      <c r="P195" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R195" t="n">
+        <v>99</v>
+      </c>
+      <c r="S195" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="T195" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U195" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V195" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W195" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>11/07/2024</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>166.7863636363636</v>
+      </c>
+      <c r="D196" t="n">
+        <v>156.1666666666667</v>
+      </c>
+      <c r="E196" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="F196" t="n">
+        <v>142</v>
+      </c>
+      <c r="G196" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H196" t="n">
+        <v>162.7</v>
+      </c>
+      <c r="I196" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J196" t="n">
+        <v>62</v>
+      </c>
+      <c r="K196" t="n">
+        <v>134.75</v>
+      </c>
+      <c r="L196" t="n">
+        <v>190.1848214285714</v>
+      </c>
+      <c r="M196" t="n">
+        <v>120</v>
+      </c>
+      <c r="N196" t="n">
+        <v>202</v>
+      </c>
+      <c r="O196" t="n">
+        <v>182</v>
+      </c>
+      <c r="P196" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R196" t="n">
+        <v>99</v>
+      </c>
+      <c r="S196" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="T196" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U196" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V196" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W196" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>12/07/2024</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>164.8875</v>
+      </c>
+      <c r="D197" t="n">
+        <v>157</v>
+      </c>
+      <c r="E197" t="n">
+        <v>147</v>
+      </c>
+      <c r="F197" t="n">
+        <v>143</v>
+      </c>
+      <c r="G197" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H197" t="n">
+        <v>162.7</v>
+      </c>
+      <c r="I197" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J197" t="n">
+        <v>62</v>
+      </c>
+      <c r="K197" t="n">
+        <v>134.75</v>
+      </c>
+      <c r="L197" t="n">
+        <v>186.945</v>
+      </c>
+      <c r="M197" t="n">
+        <v>120</v>
+      </c>
+      <c r="N197" t="n">
+        <v>202</v>
+      </c>
+      <c r="O197" t="n">
+        <v>182</v>
+      </c>
+      <c r="P197" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R197" t="n">
+        <v>99</v>
+      </c>
+      <c r="S197" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="T197" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U197" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V197" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W197" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>15/07/2024</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>165.534347826087</v>
+      </c>
+      <c r="D198" t="n">
+        <v>155.75</v>
+      </c>
+      <c r="E198" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="F198" t="n">
+        <v>143</v>
+      </c>
+      <c r="G198" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H198" t="n">
+        <v>162.7</v>
+      </c>
+      <c r="I198" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J198" t="n">
+        <v>62</v>
+      </c>
+      <c r="K198" t="n">
+        <v>134.75</v>
+      </c>
+      <c r="L198" t="n">
+        <v>189.9260975609756</v>
+      </c>
+      <c r="M198" t="n">
+        <v>120</v>
+      </c>
+      <c r="N198" t="n">
+        <v>202</v>
+      </c>
+      <c r="O198" t="n">
+        <v>182</v>
+      </c>
+      <c r="P198" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R198" t="n">
+        <v>99</v>
+      </c>
+      <c r="S198" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="T198" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U198" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V198" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W198" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>16/07/2024</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>163.3846153846154</v>
+      </c>
+      <c r="D199" t="n">
+        <v>157</v>
+      </c>
+      <c r="E199" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="F199" t="n">
+        <v>143</v>
+      </c>
+      <c r="G199" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H199" t="n">
+        <v>154.6666666666667</v>
+      </c>
+      <c r="I199" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J199" t="n">
+        <v>62</v>
+      </c>
+      <c r="K199" t="n">
+        <v>134.75</v>
+      </c>
+      <c r="L199" t="n">
+        <v>181.9141333333333</v>
+      </c>
+      <c r="M199" t="n">
+        <v>120</v>
+      </c>
+      <c r="N199" t="n">
+        <v>198.676</v>
+      </c>
+      <c r="O199" t="n">
+        <v>182</v>
+      </c>
+      <c r="P199" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R199" t="n">
+        <v>99</v>
+      </c>
+      <c r="S199" t="n">
+        <v>185.07</v>
+      </c>
+      <c r="T199" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U199" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V199" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W199" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>17/07/2024</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>157.9270833333333</v>
+      </c>
+      <c r="D200" t="n">
+        <v>155</v>
+      </c>
+      <c r="E200" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="F200" t="n">
+        <v>143</v>
+      </c>
+      <c r="G200" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H200" t="n">
+        <v>100</v>
+      </c>
+      <c r="I200" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J200" t="n">
+        <v>62</v>
+      </c>
+      <c r="K200" t="n">
+        <v>124.25</v>
+      </c>
+      <c r="L200" t="n">
+        <v>176.5619696969697</v>
+      </c>
+      <c r="M200" t="n">
+        <v>120</v>
+      </c>
+      <c r="N200" t="n">
+        <v>196.375</v>
+      </c>
+      <c r="O200" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="P200" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R200" t="n">
+        <v>99</v>
+      </c>
+      <c r="S200" t="n">
+        <v>131</v>
+      </c>
+      <c r="T200" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U200" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V200" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W200" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>18/07/2024</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="D201" t="n">
+        <v>154</v>
+      </c>
+      <c r="E201" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="F201" t="n">
+        <v>143</v>
+      </c>
+      <c r="G201" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H201" t="n">
+        <v>100</v>
+      </c>
+      <c r="I201" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J201" t="n">
+        <v>62</v>
+      </c>
+      <c r="K201" t="n">
+        <v>124.25</v>
+      </c>
+      <c r="L201" t="n">
+        <v>168.191</v>
+      </c>
+      <c r="M201" t="n">
+        <v>120</v>
+      </c>
+      <c r="N201" t="n">
+        <v>196.375</v>
+      </c>
+      <c r="O201" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="P201" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R201" t="n">
+        <v>99</v>
+      </c>
+      <c r="S201" t="n">
+        <v>131</v>
+      </c>
+      <c r="T201" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U201" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V201" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W201" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W201"/>
+  <dimension ref="A1:W204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14245,6 +14245,225 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>19/07/2024</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>153.6522222222222</v>
+      </c>
+      <c r="D202" t="n">
+        <v>151.6666666666667</v>
+      </c>
+      <c r="E202" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>142</v>
+      </c>
+      <c r="G202" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H202" t="n">
+        <v>140</v>
+      </c>
+      <c r="I202" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J202" t="n">
+        <v>62</v>
+      </c>
+      <c r="K202" t="n">
+        <v>125</v>
+      </c>
+      <c r="L202" t="n">
+        <v>168.2432075471698</v>
+      </c>
+      <c r="M202" t="n">
+        <v>120</v>
+      </c>
+      <c r="N202" t="n">
+        <v>189.1666666666667</v>
+      </c>
+      <c r="O202" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="P202" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R202" t="n">
+        <v>99</v>
+      </c>
+      <c r="S202" t="n">
+        <v>176</v>
+      </c>
+      <c r="T202" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U202" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V202" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W202" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>22/07/2024</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>149.3103448275862</v>
+      </c>
+      <c r="D203" t="n">
+        <v>150.1666666666667</v>
+      </c>
+      <c r="E203" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="F203" t="n">
+        <v>142</v>
+      </c>
+      <c r="G203" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H203" t="n">
+        <v>140</v>
+      </c>
+      <c r="I203" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J203" t="n">
+        <v>62</v>
+      </c>
+      <c r="K203" t="n">
+        <v>125</v>
+      </c>
+      <c r="L203" t="n">
+        <v>158.7863829787234</v>
+      </c>
+      <c r="M203" t="n">
+        <v>120</v>
+      </c>
+      <c r="N203" t="n">
+        <v>183.3666666666667</v>
+      </c>
+      <c r="O203" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="P203" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R203" t="n">
+        <v>99</v>
+      </c>
+      <c r="S203" t="n">
+        <v>176</v>
+      </c>
+      <c r="T203" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U203" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V203" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W203" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>23/07/2024</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>144.1619047619048</v>
+      </c>
+      <c r="D204" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="E204" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="F204" t="n">
+        <v>139.55</v>
+      </c>
+      <c r="G204" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H204" t="n">
+        <v>120</v>
+      </c>
+      <c r="I204" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J204" t="n">
+        <v>62</v>
+      </c>
+      <c r="K204" t="n">
+        <v>125</v>
+      </c>
+      <c r="L204" t="n">
+        <v>145.9758974358975</v>
+      </c>
+      <c r="M204" t="n">
+        <v>120</v>
+      </c>
+      <c r="N204" t="n">
+        <v>183.3666666666667</v>
+      </c>
+      <c r="O204" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="P204" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R204" t="n">
+        <v>99</v>
+      </c>
+      <c r="S204" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="T204" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U204" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V204" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W204" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W204"/>
+  <dimension ref="A1:W210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14464,6 +14464,444 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>24/07/2024</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>146.473</v>
+      </c>
+      <c r="D205" t="n">
+        <v>147.9166666666667</v>
+      </c>
+      <c r="E205" t="n">
+        <v>144</v>
+      </c>
+      <c r="F205" t="n">
+        <v>143</v>
+      </c>
+      <c r="G205" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H205" t="n">
+        <v>120</v>
+      </c>
+      <c r="I205" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J205" t="n">
+        <v>62</v>
+      </c>
+      <c r="K205" t="n">
+        <v>125</v>
+      </c>
+      <c r="L205" t="n">
+        <v>153.6347272727273</v>
+      </c>
+      <c r="M205" t="n">
+        <v>120</v>
+      </c>
+      <c r="N205" t="n">
+        <v>183.0833333333333</v>
+      </c>
+      <c r="O205" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="P205" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R205" t="n">
+        <v>99</v>
+      </c>
+      <c r="S205" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="T205" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U205" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V205" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W205" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>25/07/2024</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>147.6153846153846</v>
+      </c>
+      <c r="D206" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="E206" t="n">
+        <v>144</v>
+      </c>
+      <c r="F206" t="n">
+        <v>140</v>
+      </c>
+      <c r="G206" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H206" t="n">
+        <v>130</v>
+      </c>
+      <c r="I206" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J206" t="n">
+        <v>62</v>
+      </c>
+      <c r="K206" t="n">
+        <v>125</v>
+      </c>
+      <c r="L206" t="n">
+        <v>147.8457894736842</v>
+      </c>
+      <c r="M206" t="n">
+        <v>120</v>
+      </c>
+      <c r="N206" t="n">
+        <v>181</v>
+      </c>
+      <c r="O206" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="P206" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R206" t="n">
+        <v>99</v>
+      </c>
+      <c r="S206" t="n">
+        <v>160</v>
+      </c>
+      <c r="T206" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U206" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V206" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W206" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>26/07/2024</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>151.641</v>
+      </c>
+      <c r="D207" t="n">
+        <v>149.2615384615385</v>
+      </c>
+      <c r="E207" t="n">
+        <v>144.3333333333333</v>
+      </c>
+      <c r="F207" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="G207" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H207" t="n">
+        <v>130</v>
+      </c>
+      <c r="I207" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J207" t="n">
+        <v>62</v>
+      </c>
+      <c r="K207" t="n">
+        <v>125</v>
+      </c>
+      <c r="L207" t="n">
+        <v>150.7041558441558</v>
+      </c>
+      <c r="M207" t="n">
+        <v>120</v>
+      </c>
+      <c r="N207" t="n">
+        <v>183.25</v>
+      </c>
+      <c r="O207" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="P207" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="R207" t="n">
+        <v>99</v>
+      </c>
+      <c r="S207" t="n">
+        <v>160</v>
+      </c>
+      <c r="T207" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U207" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V207" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W207" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>29/07/2024</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>157.7305263157895</v>
+      </c>
+      <c r="D208" t="n">
+        <v>150.5571428571429</v>
+      </c>
+      <c r="E208" t="n">
+        <v>145</v>
+      </c>
+      <c r="F208" t="n">
+        <v>141</v>
+      </c>
+      <c r="G208" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H208" t="n">
+        <v>130</v>
+      </c>
+      <c r="I208" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J208" t="n">
+        <v>62</v>
+      </c>
+      <c r="K208" t="n">
+        <v>125</v>
+      </c>
+      <c r="L208" t="n">
+        <v>158.0893</v>
+      </c>
+      <c r="M208" t="n">
+        <v>120</v>
+      </c>
+      <c r="N208" t="n">
+        <v>183.25</v>
+      </c>
+      <c r="O208" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="P208" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R208" t="n">
+        <v>99</v>
+      </c>
+      <c r="S208" t="n">
+        <v>160</v>
+      </c>
+      <c r="T208" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U208" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V208" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W208" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>158.81125</v>
+      </c>
+      <c r="D209" t="n">
+        <v>151</v>
+      </c>
+      <c r="E209" t="n">
+        <v>145.75</v>
+      </c>
+      <c r="F209" t="n">
+        <v>141</v>
+      </c>
+      <c r="G209" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H209" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="I209" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J209" t="n">
+        <v>62</v>
+      </c>
+      <c r="K209" t="n">
+        <v>125</v>
+      </c>
+      <c r="L209" t="n">
+        <v>158.9735714285714</v>
+      </c>
+      <c r="M209" t="n">
+        <v>120</v>
+      </c>
+      <c r="N209" t="n">
+        <v>190</v>
+      </c>
+      <c r="O209" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="P209" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R209" t="n">
+        <v>99</v>
+      </c>
+      <c r="S209" t="n">
+        <v>160</v>
+      </c>
+      <c r="T209" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U209" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V209" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W209" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>31/07/2024</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>158.7777777777778</v>
+      </c>
+      <c r="D210" t="n">
+        <v>151</v>
+      </c>
+      <c r="E210" t="n">
+        <v>145.75</v>
+      </c>
+      <c r="F210" t="n">
+        <v>141</v>
+      </c>
+      <c r="G210" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H210" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="I210" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J210" t="n">
+        <v>62</v>
+      </c>
+      <c r="K210" t="n">
+        <v>125</v>
+      </c>
+      <c r="L210" t="n">
+        <v>157.6703846153846</v>
+      </c>
+      <c r="M210" t="n">
+        <v>120</v>
+      </c>
+      <c r="N210" t="n">
+        <v>190</v>
+      </c>
+      <c r="O210" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="P210" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R210" t="n">
+        <v>99</v>
+      </c>
+      <c r="S210" t="n">
+        <v>160</v>
+      </c>
+      <c r="T210" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U210" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V210" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W210" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W210"/>
+  <dimension ref="A1:W215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14902,6 +14902,371 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>163.9234482758621</v>
+      </c>
+      <c r="D211" t="n">
+        <v>153.63</v>
+      </c>
+      <c r="E211" t="n">
+        <v>146</v>
+      </c>
+      <c r="F211" t="n">
+        <v>141</v>
+      </c>
+      <c r="G211" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H211" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="I211" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J211" t="n">
+        <v>62</v>
+      </c>
+      <c r="K211" t="n">
+        <v>125</v>
+      </c>
+      <c r="L211" t="n">
+        <v>165.5110679611651</v>
+      </c>
+      <c r="M211" t="n">
+        <v>120</v>
+      </c>
+      <c r="N211" t="n">
+        <v>195.1875</v>
+      </c>
+      <c r="O211" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="P211" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R211" t="n">
+        <v>99</v>
+      </c>
+      <c r="S211" t="n">
+        <v>160</v>
+      </c>
+      <c r="T211" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U211" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V211" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W211" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>02/08/2024</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>164.3692307692308</v>
+      </c>
+      <c r="D212" t="n">
+        <v>153.8333333333333</v>
+      </c>
+      <c r="E212" t="n">
+        <v>141.1666666666667</v>
+      </c>
+      <c r="F212" t="n">
+        <v>141</v>
+      </c>
+      <c r="G212" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H212" t="n">
+        <v>134</v>
+      </c>
+      <c r="I212" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J212" t="n">
+        <v>62</v>
+      </c>
+      <c r="K212" t="n">
+        <v>125</v>
+      </c>
+      <c r="L212" t="n">
+        <v>165.0608163265306</v>
+      </c>
+      <c r="M212" t="n">
+        <v>120</v>
+      </c>
+      <c r="N212" t="n">
+        <v>197.9166666666667</v>
+      </c>
+      <c r="O212" t="n">
+        <v>189.75</v>
+      </c>
+      <c r="P212" t="n">
+        <v>179.75</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R212" t="n">
+        <v>99</v>
+      </c>
+      <c r="S212" t="n">
+        <v>160</v>
+      </c>
+      <c r="T212" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U212" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V212" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W212" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>05/08/2024</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>169.2196666666667</v>
+      </c>
+      <c r="D213" t="n">
+        <v>155.9857142857143</v>
+      </c>
+      <c r="E213" t="n">
+        <v>146</v>
+      </c>
+      <c r="F213" t="n">
+        <v>141</v>
+      </c>
+      <c r="G213" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H213" t="n">
+        <v>134</v>
+      </c>
+      <c r="I213" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J213" t="n">
+        <v>62</v>
+      </c>
+      <c r="K213" t="n">
+        <v>125</v>
+      </c>
+      <c r="L213" t="n">
+        <v>178.2009848484848</v>
+      </c>
+      <c r="M213" t="n">
+        <v>120</v>
+      </c>
+      <c r="N213" t="n">
+        <v>190</v>
+      </c>
+      <c r="O213" t="n">
+        <v>189.75</v>
+      </c>
+      <c r="P213" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>175</v>
+      </c>
+      <c r="R213" t="n">
+        <v>99</v>
+      </c>
+      <c r="S213" t="n">
+        <v>160</v>
+      </c>
+      <c r="T213" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U213" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V213" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W213" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>06/08/2024</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>168.63125</v>
+      </c>
+      <c r="D214" t="n">
+        <v>155.1666666666667</v>
+      </c>
+      <c r="E214" t="n">
+        <v>147</v>
+      </c>
+      <c r="F214" t="n">
+        <v>144</v>
+      </c>
+      <c r="G214" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H214" t="n">
+        <v>134</v>
+      </c>
+      <c r="I214" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J214" t="n">
+        <v>62</v>
+      </c>
+      <c r="K214" t="n">
+        <v>125</v>
+      </c>
+      <c r="L214" t="n">
+        <v>180.3731707317073</v>
+      </c>
+      <c r="M214" t="n">
+        <v>120</v>
+      </c>
+      <c r="N214" t="n">
+        <v>204</v>
+      </c>
+      <c r="O214" t="n">
+        <v>189.75</v>
+      </c>
+      <c r="P214" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>175</v>
+      </c>
+      <c r="R214" t="n">
+        <v>99</v>
+      </c>
+      <c r="S214" t="n">
+        <v>160</v>
+      </c>
+      <c r="T214" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U214" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V214" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W214" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>07/08/2024</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>166.3333333333333</v>
+      </c>
+      <c r="D215" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="E215" t="n">
+        <v>147</v>
+      </c>
+      <c r="F215" t="n">
+        <v>142</v>
+      </c>
+      <c r="G215" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H215" t="n">
+        <v>134</v>
+      </c>
+      <c r="I215" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J215" t="n">
+        <v>62</v>
+      </c>
+      <c r="K215" t="n">
+        <v>125</v>
+      </c>
+      <c r="L215" t="n">
+        <v>178.2882352941176</v>
+      </c>
+      <c r="M215" t="n">
+        <v>120</v>
+      </c>
+      <c r="N215" t="n">
+        <v>204</v>
+      </c>
+      <c r="O215" t="n">
+        <v>189.75</v>
+      </c>
+      <c r="P215" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>175</v>
+      </c>
+      <c r="R215" t="n">
+        <v>99</v>
+      </c>
+      <c r="S215" t="n">
+        <v>160</v>
+      </c>
+      <c r="T215" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U215" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V215" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W215" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W215"/>
+  <dimension ref="A1:W216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15267,6 +15267,79 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>12/08/2024</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>168.525</v>
+      </c>
+      <c r="D216" t="n">
+        <v>156</v>
+      </c>
+      <c r="E216" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="F216" t="n">
+        <v>142</v>
+      </c>
+      <c r="G216" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H216" t="n">
+        <v>134</v>
+      </c>
+      <c r="I216" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J216" t="n">
+        <v>62</v>
+      </c>
+      <c r="K216" t="n">
+        <v>125</v>
+      </c>
+      <c r="L216" t="n">
+        <v>191.3539516129032</v>
+      </c>
+      <c r="M216" t="n">
+        <v>120</v>
+      </c>
+      <c r="N216" t="n">
+        <v>204</v>
+      </c>
+      <c r="O216" t="n">
+        <v>189.75</v>
+      </c>
+      <c r="P216" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>175</v>
+      </c>
+      <c r="R216" t="n">
+        <v>99</v>
+      </c>
+      <c r="S216" t="n">
+        <v>160</v>
+      </c>
+      <c r="T216" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U216" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V216" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W216" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W216"/>
+  <dimension ref="A1:W223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15340,6 +15340,517 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>13/08/2024</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>167.3</v>
+      </c>
+      <c r="D217" t="n">
+        <v>153.75</v>
+      </c>
+      <c r="E217" t="n">
+        <v>146.75</v>
+      </c>
+      <c r="F217" t="n">
+        <v>142</v>
+      </c>
+      <c r="G217" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H217" t="n">
+        <v>134</v>
+      </c>
+      <c r="I217" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J217" t="n">
+        <v>62</v>
+      </c>
+      <c r="K217" t="n">
+        <v>125</v>
+      </c>
+      <c r="L217" t="n">
+        <v>186.246875</v>
+      </c>
+      <c r="M217" t="n">
+        <v>120</v>
+      </c>
+      <c r="N217" t="n">
+        <v>204</v>
+      </c>
+      <c r="O217" t="n">
+        <v>189</v>
+      </c>
+      <c r="P217" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>175</v>
+      </c>
+      <c r="R217" t="n">
+        <v>99</v>
+      </c>
+      <c r="S217" t="n">
+        <v>160</v>
+      </c>
+      <c r="T217" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U217" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V217" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W217" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>14/08/2024</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>169.525</v>
+      </c>
+      <c r="D218" t="n">
+        <v>154.7871428571429</v>
+      </c>
+      <c r="E218" t="n">
+        <v>146.75</v>
+      </c>
+      <c r="F218" t="n">
+        <v>142</v>
+      </c>
+      <c r="G218" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H218" t="n">
+        <v>134</v>
+      </c>
+      <c r="I218" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J218" t="n">
+        <v>62</v>
+      </c>
+      <c r="K218" t="n">
+        <v>125</v>
+      </c>
+      <c r="L218" t="n">
+        <v>191.46225</v>
+      </c>
+      <c r="M218" t="n">
+        <v>120</v>
+      </c>
+      <c r="N218" t="n">
+        <v>204</v>
+      </c>
+      <c r="O218" t="n">
+        <v>189</v>
+      </c>
+      <c r="P218" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>175</v>
+      </c>
+      <c r="R218" t="n">
+        <v>99</v>
+      </c>
+      <c r="S218" t="n">
+        <v>160</v>
+      </c>
+      <c r="T218" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U218" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V218" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W218" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>15/08/2024</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>168.8555555555556</v>
+      </c>
+      <c r="D219" t="n">
+        <v>154.875</v>
+      </c>
+      <c r="E219" t="n">
+        <v>146</v>
+      </c>
+      <c r="F219" t="n">
+        <v>142</v>
+      </c>
+      <c r="G219" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H219" t="n">
+        <v>134</v>
+      </c>
+      <c r="I219" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J219" t="n">
+        <v>62</v>
+      </c>
+      <c r="K219" t="n">
+        <v>125</v>
+      </c>
+      <c r="L219" t="n">
+        <v>191.92</v>
+      </c>
+      <c r="M219" t="n">
+        <v>120</v>
+      </c>
+      <c r="N219" t="n">
+        <v>204</v>
+      </c>
+      <c r="O219" t="n">
+        <v>189</v>
+      </c>
+      <c r="P219" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>175</v>
+      </c>
+      <c r="R219" t="n">
+        <v>99</v>
+      </c>
+      <c r="S219" t="n">
+        <v>160</v>
+      </c>
+      <c r="T219" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U219" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V219" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W219" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>172.3835</v>
+      </c>
+      <c r="D220" t="n">
+        <v>156.58</v>
+      </c>
+      <c r="E220" t="n">
+        <v>147</v>
+      </c>
+      <c r="F220" t="n">
+        <v>142</v>
+      </c>
+      <c r="G220" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H220" t="n">
+        <v>134</v>
+      </c>
+      <c r="I220" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J220" t="n">
+        <v>62</v>
+      </c>
+      <c r="K220" t="n">
+        <v>125</v>
+      </c>
+      <c r="L220" t="n">
+        <v>200.1416666666667</v>
+      </c>
+      <c r="M220" t="n">
+        <v>120</v>
+      </c>
+      <c r="N220" t="n">
+        <v>204</v>
+      </c>
+      <c r="O220" t="n">
+        <v>189</v>
+      </c>
+      <c r="P220" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>175</v>
+      </c>
+      <c r="R220" t="n">
+        <v>99</v>
+      </c>
+      <c r="S220" t="n">
+        <v>160</v>
+      </c>
+      <c r="T220" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U220" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V220" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W220" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>19/08/2024</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>168.9684210526316</v>
+      </c>
+      <c r="D221" t="n">
+        <v>157</v>
+      </c>
+      <c r="E221" t="n">
+        <v>147</v>
+      </c>
+      <c r="F221" t="n">
+        <v>142</v>
+      </c>
+      <c r="G221" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H221" t="n">
+        <v>134</v>
+      </c>
+      <c r="I221" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J221" t="n">
+        <v>62</v>
+      </c>
+      <c r="K221" t="n">
+        <v>125</v>
+      </c>
+      <c r="L221" t="n">
+        <v>204.3462666666667</v>
+      </c>
+      <c r="M221" t="n">
+        <v>120</v>
+      </c>
+      <c r="N221" t="n">
+        <v>204</v>
+      </c>
+      <c r="O221" t="n">
+        <v>189</v>
+      </c>
+      <c r="P221" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>175</v>
+      </c>
+      <c r="R221" t="n">
+        <v>99</v>
+      </c>
+      <c r="S221" t="n">
+        <v>160</v>
+      </c>
+      <c r="T221" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U221" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V221" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W221" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>20/08/2024</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>174.65</v>
+      </c>
+      <c r="D222" t="n">
+        <v>159.88125</v>
+      </c>
+      <c r="E222" t="n">
+        <v>148.6666666666667</v>
+      </c>
+      <c r="F222" t="n">
+        <v>144.35</v>
+      </c>
+      <c r="G222" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H222" t="n">
+        <v>134</v>
+      </c>
+      <c r="I222" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J222" t="n">
+        <v>62</v>
+      </c>
+      <c r="K222" t="n">
+        <v>125</v>
+      </c>
+      <c r="L222" t="n">
+        <v>212.4650434782609</v>
+      </c>
+      <c r="M222" t="n">
+        <v>120</v>
+      </c>
+      <c r="N222" t="n">
+        <v>204</v>
+      </c>
+      <c r="O222" t="n">
+        <v>189</v>
+      </c>
+      <c r="P222" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>175</v>
+      </c>
+      <c r="R222" t="n">
+        <v>99</v>
+      </c>
+      <c r="S222" t="n">
+        <v>160</v>
+      </c>
+      <c r="T222" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U222" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V222" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W222" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>21/08/2024</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>178.5625</v>
+      </c>
+      <c r="D223" t="n">
+        <v>160</v>
+      </c>
+      <c r="E223" t="n">
+        <v>148.6666666666667</v>
+      </c>
+      <c r="F223" t="n">
+        <v>144.35</v>
+      </c>
+      <c r="G223" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H223" t="n">
+        <v>134</v>
+      </c>
+      <c r="I223" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J223" t="n">
+        <v>62</v>
+      </c>
+      <c r="K223" t="n">
+        <v>125</v>
+      </c>
+      <c r="L223" t="n">
+        <v>220.2709677419355</v>
+      </c>
+      <c r="M223" t="n">
+        <v>120</v>
+      </c>
+      <c r="N223" t="n">
+        <v>204</v>
+      </c>
+      <c r="O223" t="n">
+        <v>189</v>
+      </c>
+      <c r="P223" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>175</v>
+      </c>
+      <c r="R223" t="n">
+        <v>99</v>
+      </c>
+      <c r="S223" t="n">
+        <v>160</v>
+      </c>
+      <c r="T223" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U223" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V223" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W223" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W223"/>
+  <dimension ref="A1:W229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15851,6 +15851,444 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>22/08/2024</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>179.2964516129032</v>
+      </c>
+      <c r="D224" t="n">
+        <v>160.2333333333333</v>
+      </c>
+      <c r="E224" t="n">
+        <v>150.4</v>
+      </c>
+      <c r="F224" t="n">
+        <v>145</v>
+      </c>
+      <c r="G224" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H224" t="n">
+        <v>134</v>
+      </c>
+      <c r="I224" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J224" t="n">
+        <v>62</v>
+      </c>
+      <c r="K224" t="n">
+        <v>125</v>
+      </c>
+      <c r="L224" t="n">
+        <v>225.9642857142857</v>
+      </c>
+      <c r="M224" t="n">
+        <v>120</v>
+      </c>
+      <c r="N224" t="n">
+        <v>204</v>
+      </c>
+      <c r="O224" t="n">
+        <v>189</v>
+      </c>
+      <c r="P224" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>175</v>
+      </c>
+      <c r="R224" t="n">
+        <v>99</v>
+      </c>
+      <c r="S224" t="n">
+        <v>160</v>
+      </c>
+      <c r="T224" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U224" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V224" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W224" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>23/08/2024</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>179.2178571428572</v>
+      </c>
+      <c r="D225" t="n">
+        <v>158.9</v>
+      </c>
+      <c r="E225" t="n">
+        <v>149</v>
+      </c>
+      <c r="F225" t="n">
+        <v>145</v>
+      </c>
+      <c r="G225" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H225" t="n">
+        <v>134</v>
+      </c>
+      <c r="I225" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J225" t="n">
+        <v>62</v>
+      </c>
+      <c r="K225" t="n">
+        <v>125</v>
+      </c>
+      <c r="L225" t="n">
+        <v>228.7579268292683</v>
+      </c>
+      <c r="M225" t="n">
+        <v>120</v>
+      </c>
+      <c r="N225" t="n">
+        <v>204</v>
+      </c>
+      <c r="O225" t="n">
+        <v>189</v>
+      </c>
+      <c r="P225" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>175</v>
+      </c>
+      <c r="R225" t="n">
+        <v>99</v>
+      </c>
+      <c r="S225" t="n">
+        <v>160</v>
+      </c>
+      <c r="T225" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U225" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V225" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W225" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>26/08/2024</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>191.2041666666667</v>
+      </c>
+      <c r="D226" t="n">
+        <v>164.8733333333333</v>
+      </c>
+      <c r="E226" t="n">
+        <v>153.75</v>
+      </c>
+      <c r="F226" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="G226" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H226" t="n">
+        <v>134</v>
+      </c>
+      <c r="I226" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J226" t="n">
+        <v>62</v>
+      </c>
+      <c r="K226" t="n">
+        <v>125</v>
+      </c>
+      <c r="L226" t="n">
+        <v>265.57625</v>
+      </c>
+      <c r="M226" t="n">
+        <v>120</v>
+      </c>
+      <c r="N226" t="n">
+        <v>204</v>
+      </c>
+      <c r="O226" t="n">
+        <v>198</v>
+      </c>
+      <c r="P226" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>175</v>
+      </c>
+      <c r="R226" t="n">
+        <v>99</v>
+      </c>
+      <c r="S226" t="n">
+        <v>160</v>
+      </c>
+      <c r="T226" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U226" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V226" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W226" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>27/08/2024</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>195.6332352941176</v>
+      </c>
+      <c r="D227" t="n">
+        <v>167.6944444444445</v>
+      </c>
+      <c r="E227" t="n">
+        <v>156</v>
+      </c>
+      <c r="F227" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="G227" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H227" t="n">
+        <v>134</v>
+      </c>
+      <c r="I227" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J227" t="n">
+        <v>62</v>
+      </c>
+      <c r="K227" t="n">
+        <v>125</v>
+      </c>
+      <c r="L227" t="n">
+        <v>283.8175510204081</v>
+      </c>
+      <c r="M227" t="n">
+        <v>120</v>
+      </c>
+      <c r="N227" t="n">
+        <v>204</v>
+      </c>
+      <c r="O227" t="n">
+        <v>198</v>
+      </c>
+      <c r="P227" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>175</v>
+      </c>
+      <c r="R227" t="n">
+        <v>99</v>
+      </c>
+      <c r="S227" t="n">
+        <v>160</v>
+      </c>
+      <c r="T227" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U227" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V227" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W227" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>28/08/2024</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>198.6257692307692</v>
+      </c>
+      <c r="D228" t="n">
+        <v>168.3636363636364</v>
+      </c>
+      <c r="E228" t="n">
+        <v>157.5714285714286</v>
+      </c>
+      <c r="F228" t="n">
+        <v>147.05</v>
+      </c>
+      <c r="G228" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H228" t="n">
+        <v>134</v>
+      </c>
+      <c r="I228" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J228" t="n">
+        <v>62</v>
+      </c>
+      <c r="K228" t="n">
+        <v>125</v>
+      </c>
+      <c r="L228" t="n">
+        <v>288.5721951219512</v>
+      </c>
+      <c r="M228" t="n">
+        <v>120</v>
+      </c>
+      <c r="N228" t="n">
+        <v>204</v>
+      </c>
+      <c r="O228" t="n">
+        <v>198</v>
+      </c>
+      <c r="P228" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>175</v>
+      </c>
+      <c r="R228" t="n">
+        <v>99</v>
+      </c>
+      <c r="S228" t="n">
+        <v>160</v>
+      </c>
+      <c r="T228" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U228" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V228" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W228" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>29/08/2024</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>198.6257692307692</v>
+      </c>
+      <c r="D229" t="n">
+        <v>168.3636363636364</v>
+      </c>
+      <c r="E229" t="n">
+        <v>157.5714285714286</v>
+      </c>
+      <c r="F229" t="n">
+        <v>147.05</v>
+      </c>
+      <c r="G229" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H229" t="n">
+        <v>134</v>
+      </c>
+      <c r="I229" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J229" t="n">
+        <v>62</v>
+      </c>
+      <c r="K229" t="n">
+        <v>125</v>
+      </c>
+      <c r="L229" t="n">
+        <v>275.2</v>
+      </c>
+      <c r="M229" t="n">
+        <v>120</v>
+      </c>
+      <c r="N229" t="n">
+        <v>204</v>
+      </c>
+      <c r="O229" t="n">
+        <v>198</v>
+      </c>
+      <c r="P229" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>175</v>
+      </c>
+      <c r="R229" t="n">
+        <v>99</v>
+      </c>
+      <c r="S229" t="n">
+        <v>160</v>
+      </c>
+      <c r="T229" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U229" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V229" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W229" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W229"/>
+  <dimension ref="A1:W233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16289,6 +16289,298 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>30/08/2024</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>198.8278</v>
+      </c>
+      <c r="D230" t="n">
+        <v>166.375</v>
+      </c>
+      <c r="E230" t="n">
+        <v>156.1</v>
+      </c>
+      <c r="F230" t="n">
+        <v>148</v>
+      </c>
+      <c r="G230" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H230" t="n">
+        <v>134</v>
+      </c>
+      <c r="I230" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J230" t="n">
+        <v>62</v>
+      </c>
+      <c r="K230" t="n">
+        <v>125</v>
+      </c>
+      <c r="L230" t="n">
+        <v>299.4042307692308</v>
+      </c>
+      <c r="M230" t="n">
+        <v>120</v>
+      </c>
+      <c r="N230" t="n">
+        <v>235</v>
+      </c>
+      <c r="O230" t="n">
+        <v>198</v>
+      </c>
+      <c r="P230" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>175</v>
+      </c>
+      <c r="R230" t="n">
+        <v>99</v>
+      </c>
+      <c r="S230" t="n">
+        <v>160</v>
+      </c>
+      <c r="T230" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U230" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V230" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W230" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>02/09/2024</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>204.4669696969697</v>
+      </c>
+      <c r="D231" t="n">
+        <v>169.0714285714286</v>
+      </c>
+      <c r="E231" t="n">
+        <v>156.1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>148</v>
+      </c>
+      <c r="G231" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H231" t="n">
+        <v>134</v>
+      </c>
+      <c r="I231" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J231" t="n">
+        <v>62</v>
+      </c>
+      <c r="K231" t="n">
+        <v>125</v>
+      </c>
+      <c r="L231" t="n">
+        <v>324.19</v>
+      </c>
+      <c r="M231" t="n">
+        <v>120</v>
+      </c>
+      <c r="N231" t="n">
+        <v>239</v>
+      </c>
+      <c r="O231" t="n">
+        <v>198</v>
+      </c>
+      <c r="P231" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>175</v>
+      </c>
+      <c r="R231" t="n">
+        <v>99</v>
+      </c>
+      <c r="S231" t="n">
+        <v>160</v>
+      </c>
+      <c r="T231" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U231" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V231" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W231" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>03/09/2024</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>199.1529411764706</v>
+      </c>
+      <c r="D232" t="n">
+        <v>165.75</v>
+      </c>
+      <c r="E232" t="n">
+        <v>156.1</v>
+      </c>
+      <c r="F232" t="n">
+        <v>148</v>
+      </c>
+      <c r="G232" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H232" t="n">
+        <v>134</v>
+      </c>
+      <c r="I232" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J232" t="n">
+        <v>62</v>
+      </c>
+      <c r="K232" t="n">
+        <v>125</v>
+      </c>
+      <c r="L232" t="n">
+        <v>295.6018181818181</v>
+      </c>
+      <c r="M232" t="n">
+        <v>120</v>
+      </c>
+      <c r="N232" t="n">
+        <v>233.5</v>
+      </c>
+      <c r="O232" t="n">
+        <v>200</v>
+      </c>
+      <c r="P232" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>175</v>
+      </c>
+      <c r="R232" t="n">
+        <v>99</v>
+      </c>
+      <c r="S232" t="n">
+        <v>160</v>
+      </c>
+      <c r="T232" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U232" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V232" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W232" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>04/09/2024</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>198.3666666666667</v>
+      </c>
+      <c r="D233" t="n">
+        <v>166</v>
+      </c>
+      <c r="E233" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="F233" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="G233" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H233" t="n">
+        <v>134</v>
+      </c>
+      <c r="I233" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J233" t="n">
+        <v>62</v>
+      </c>
+      <c r="K233" t="n">
+        <v>125</v>
+      </c>
+      <c r="L233" t="n">
+        <v>298.6857142857143</v>
+      </c>
+      <c r="M233" t="n">
+        <v>120</v>
+      </c>
+      <c r="N233" t="n">
+        <v>233.5</v>
+      </c>
+      <c r="O233" t="n">
+        <v>200</v>
+      </c>
+      <c r="P233" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>175</v>
+      </c>
+      <c r="R233" t="n">
+        <v>99</v>
+      </c>
+      <c r="S233" t="n">
+        <v>160</v>
+      </c>
+      <c r="T233" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U233" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V233" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W233" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W233"/>
+  <dimension ref="A1:W245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16581,6 +16581,882 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>05/09/2024</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>201.8589285714286</v>
+      </c>
+      <c r="D234" t="n">
+        <v>168.1</v>
+      </c>
+      <c r="E234" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="F234" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="G234" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H234" t="n">
+        <v>134</v>
+      </c>
+      <c r="I234" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J234" t="n">
+        <v>62</v>
+      </c>
+      <c r="K234" t="n">
+        <v>125</v>
+      </c>
+      <c r="L234" t="n">
+        <v>324.7426666666667</v>
+      </c>
+      <c r="M234" t="n">
+        <v>120</v>
+      </c>
+      <c r="N234" t="n">
+        <v>233.5</v>
+      </c>
+      <c r="O234" t="n">
+        <v>200</v>
+      </c>
+      <c r="P234" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>175</v>
+      </c>
+      <c r="R234" t="n">
+        <v>99</v>
+      </c>
+      <c r="S234" t="n">
+        <v>160</v>
+      </c>
+      <c r="T234" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U234" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V234" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W234" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>06/09/2024</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>192.90625</v>
+      </c>
+      <c r="D235" t="n">
+        <v>166.25</v>
+      </c>
+      <c r="E235" t="n">
+        <v>155</v>
+      </c>
+      <c r="F235" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="G235" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H235" t="n">
+        <v>134</v>
+      </c>
+      <c r="I235" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J235" t="n">
+        <v>62</v>
+      </c>
+      <c r="K235" t="n">
+        <v>125</v>
+      </c>
+      <c r="L235" t="n">
+        <v>311.0625</v>
+      </c>
+      <c r="M235" t="n">
+        <v>120</v>
+      </c>
+      <c r="N235" t="n">
+        <v>233</v>
+      </c>
+      <c r="O235" t="n">
+        <v>200</v>
+      </c>
+      <c r="P235" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>175</v>
+      </c>
+      <c r="R235" t="n">
+        <v>99</v>
+      </c>
+      <c r="S235" t="n">
+        <v>160</v>
+      </c>
+      <c r="T235" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U235" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V235" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W235" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>07/09/2024</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>179.125</v>
+      </c>
+      <c r="D236" t="n">
+        <v>166.25</v>
+      </c>
+      <c r="E236" t="n">
+        <v>155</v>
+      </c>
+      <c r="F236" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="G236" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H236" t="n">
+        <v>134</v>
+      </c>
+      <c r="I236" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J236" t="n">
+        <v>62</v>
+      </c>
+      <c r="K236" t="n">
+        <v>125</v>
+      </c>
+      <c r="L236" t="n">
+        <v>311.0625</v>
+      </c>
+      <c r="M236" t="n">
+        <v>120</v>
+      </c>
+      <c r="N236" t="n">
+        <v>233</v>
+      </c>
+      <c r="O236" t="n">
+        <v>200</v>
+      </c>
+      <c r="P236" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>175</v>
+      </c>
+      <c r="R236" t="n">
+        <v>99</v>
+      </c>
+      <c r="S236" t="n">
+        <v>160</v>
+      </c>
+      <c r="T236" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U236" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V236" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W236" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>09/09/2024</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>196.2</v>
+      </c>
+      <c r="D237" t="n">
+        <v>165</v>
+      </c>
+      <c r="E237" t="n">
+        <v>155</v>
+      </c>
+      <c r="F237" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="G237" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H237" t="n">
+        <v>134</v>
+      </c>
+      <c r="I237" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J237" t="n">
+        <v>62</v>
+      </c>
+      <c r="K237" t="n">
+        <v>125</v>
+      </c>
+      <c r="L237" t="n">
+        <v>303.5</v>
+      </c>
+      <c r="M237" t="n">
+        <v>120</v>
+      </c>
+      <c r="N237" t="n">
+        <v>233</v>
+      </c>
+      <c r="O237" t="n">
+        <v>200</v>
+      </c>
+      <c r="P237" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>175</v>
+      </c>
+      <c r="R237" t="n">
+        <v>99</v>
+      </c>
+      <c r="S237" t="n">
+        <v>160</v>
+      </c>
+      <c r="T237" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U237" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V237" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W237" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>10/09/2024</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>195.94375</v>
+      </c>
+      <c r="D238" t="n">
+        <v>165.4</v>
+      </c>
+      <c r="E238" t="n">
+        <v>154</v>
+      </c>
+      <c r="F238" t="n">
+        <v>143</v>
+      </c>
+      <c r="G238" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H238" t="n">
+        <v>134</v>
+      </c>
+      <c r="I238" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J238" t="n">
+        <v>62</v>
+      </c>
+      <c r="K238" t="n">
+        <v>125</v>
+      </c>
+      <c r="L238" t="n">
+        <v>303.0357142857143</v>
+      </c>
+      <c r="M238" t="n">
+        <v>120</v>
+      </c>
+      <c r="N238" t="n">
+        <v>233</v>
+      </c>
+      <c r="O238" t="n">
+        <v>200</v>
+      </c>
+      <c r="P238" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>175</v>
+      </c>
+      <c r="R238" t="n">
+        <v>99</v>
+      </c>
+      <c r="S238" t="n">
+        <v>160</v>
+      </c>
+      <c r="T238" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U238" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V238" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W238" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>11/09/2024</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>187.0555555555555</v>
+      </c>
+      <c r="D239" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="E239" t="n">
+        <v>151</v>
+      </c>
+      <c r="F239" t="n">
+        <v>142</v>
+      </c>
+      <c r="G239" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H239" t="n">
+        <v>134</v>
+      </c>
+      <c r="I239" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J239" t="n">
+        <v>62</v>
+      </c>
+      <c r="K239" t="n">
+        <v>125</v>
+      </c>
+      <c r="L239" t="n">
+        <v>279.1953125</v>
+      </c>
+      <c r="M239" t="n">
+        <v>120</v>
+      </c>
+      <c r="N239" t="n">
+        <v>233</v>
+      </c>
+      <c r="O239" t="n">
+        <v>200</v>
+      </c>
+      <c r="P239" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>175</v>
+      </c>
+      <c r="R239" t="n">
+        <v>99</v>
+      </c>
+      <c r="S239" t="n">
+        <v>160</v>
+      </c>
+      <c r="T239" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U239" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V239" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W239" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>190</v>
+      </c>
+      <c r="D240" t="n">
+        <v>164</v>
+      </c>
+      <c r="E240" t="n">
+        <v>151</v>
+      </c>
+      <c r="F240" t="n">
+        <v>142</v>
+      </c>
+      <c r="G240" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H240" t="n">
+        <v>134</v>
+      </c>
+      <c r="I240" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J240" t="n">
+        <v>62</v>
+      </c>
+      <c r="K240" t="n">
+        <v>125</v>
+      </c>
+      <c r="L240" t="n">
+        <v>296.1666666666667</v>
+      </c>
+      <c r="M240" t="n">
+        <v>120</v>
+      </c>
+      <c r="N240" t="n">
+        <v>233</v>
+      </c>
+      <c r="O240" t="n">
+        <v>200</v>
+      </c>
+      <c r="P240" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>175</v>
+      </c>
+      <c r="R240" t="n">
+        <v>99</v>
+      </c>
+      <c r="S240" t="n">
+        <v>160</v>
+      </c>
+      <c r="T240" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U240" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V240" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W240" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>13/09/2024</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>192.8625</v>
+      </c>
+      <c r="D241" t="n">
+        <v>164</v>
+      </c>
+      <c r="E241" t="n">
+        <v>151</v>
+      </c>
+      <c r="F241" t="n">
+        <v>142</v>
+      </c>
+      <c r="G241" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H241" t="n">
+        <v>134</v>
+      </c>
+      <c r="I241" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J241" t="n">
+        <v>62</v>
+      </c>
+      <c r="K241" t="n">
+        <v>125</v>
+      </c>
+      <c r="L241" t="n">
+        <v>189.5875</v>
+      </c>
+      <c r="M241" t="n">
+        <v>120</v>
+      </c>
+      <c r="N241" t="n">
+        <v>233</v>
+      </c>
+      <c r="O241" t="n">
+        <v>200</v>
+      </c>
+      <c r="P241" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>175</v>
+      </c>
+      <c r="R241" t="n">
+        <v>99</v>
+      </c>
+      <c r="S241" t="n">
+        <v>160</v>
+      </c>
+      <c r="T241" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U241" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V241" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W241" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>16/09/2024</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>199.098</v>
+      </c>
+      <c r="D242" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="E242" t="n">
+        <v>151</v>
+      </c>
+      <c r="F242" t="n">
+        <v>142</v>
+      </c>
+      <c r="G242" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H242" t="n">
+        <v>134</v>
+      </c>
+      <c r="I242" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J242" t="n">
+        <v>62</v>
+      </c>
+      <c r="K242" t="n">
+        <v>125</v>
+      </c>
+      <c r="L242" t="n">
+        <v>331.9285714285714</v>
+      </c>
+      <c r="M242" t="n">
+        <v>120</v>
+      </c>
+      <c r="N242" t="n">
+        <v>233</v>
+      </c>
+      <c r="O242" t="n">
+        <v>200</v>
+      </c>
+      <c r="P242" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>175</v>
+      </c>
+      <c r="R242" t="n">
+        <v>99</v>
+      </c>
+      <c r="S242" t="n">
+        <v>160</v>
+      </c>
+      <c r="T242" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U242" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V242" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W242" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>17/09/2024</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>202.6674193548387</v>
+      </c>
+      <c r="D243" t="n">
+        <v>166.75</v>
+      </c>
+      <c r="E243" t="n">
+        <v>153</v>
+      </c>
+      <c r="F243" t="n">
+        <v>142</v>
+      </c>
+      <c r="G243" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H243" t="n">
+        <v>134</v>
+      </c>
+      <c r="I243" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J243" t="n">
+        <v>62</v>
+      </c>
+      <c r="K243" t="n">
+        <v>125</v>
+      </c>
+      <c r="L243" t="n">
+        <v>355.3846153846154</v>
+      </c>
+      <c r="M243" t="n">
+        <v>120</v>
+      </c>
+      <c r="N243" t="n">
+        <v>233</v>
+      </c>
+      <c r="O243" t="n">
+        <v>200</v>
+      </c>
+      <c r="P243" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>175</v>
+      </c>
+      <c r="R243" t="n">
+        <v>99</v>
+      </c>
+      <c r="S243" t="n">
+        <v>160</v>
+      </c>
+      <c r="T243" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U243" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V243" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W243" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>18/09/2024</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>197.3333333333333</v>
+      </c>
+      <c r="D244" t="n">
+        <v>155.9666666666667</v>
+      </c>
+      <c r="E244" t="n">
+        <v>153</v>
+      </c>
+      <c r="F244" t="n">
+        <v>142</v>
+      </c>
+      <c r="G244" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H244" t="n">
+        <v>134</v>
+      </c>
+      <c r="I244" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J244" t="n">
+        <v>62</v>
+      </c>
+      <c r="K244" t="n">
+        <v>125</v>
+      </c>
+      <c r="L244" t="n">
+        <v>349.75</v>
+      </c>
+      <c r="M244" t="n">
+        <v>120</v>
+      </c>
+      <c r="N244" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="O244" t="n">
+        <v>198</v>
+      </c>
+      <c r="P244" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>175</v>
+      </c>
+      <c r="R244" t="n">
+        <v>99</v>
+      </c>
+      <c r="S244" t="n">
+        <v>160</v>
+      </c>
+      <c r="T244" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U244" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V244" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W244" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>19/09/2024</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>197</v>
+      </c>
+      <c r="D245" t="n">
+        <v>164.125</v>
+      </c>
+      <c r="E245" t="n">
+        <v>152</v>
+      </c>
+      <c r="F245" t="n">
+        <v>142</v>
+      </c>
+      <c r="G245" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H245" t="n">
+        <v>134</v>
+      </c>
+      <c r="I245" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J245" t="n">
+        <v>62</v>
+      </c>
+      <c r="K245" t="n">
+        <v>125</v>
+      </c>
+      <c r="L245" t="n">
+        <v>347.598</v>
+      </c>
+      <c r="M245" t="n">
+        <v>120</v>
+      </c>
+      <c r="N245" t="n">
+        <v>226</v>
+      </c>
+      <c r="O245" t="n">
+        <v>198</v>
+      </c>
+      <c r="P245" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>175</v>
+      </c>
+      <c r="R245" t="n">
+        <v>99</v>
+      </c>
+      <c r="S245" t="n">
+        <v>160</v>
+      </c>
+      <c r="T245" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U245" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V245" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W245" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W245"/>
+  <dimension ref="A1:W248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17457,6 +17457,225 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>20/09/2024</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>199.65625</v>
+      </c>
+      <c r="D246" t="n">
+        <v>165.5625</v>
+      </c>
+      <c r="E246" t="n">
+        <v>153.85</v>
+      </c>
+      <c r="F246" t="n">
+        <v>142</v>
+      </c>
+      <c r="G246" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H246" t="n">
+        <v>134</v>
+      </c>
+      <c r="I246" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J246" t="n">
+        <v>62</v>
+      </c>
+      <c r="K246" t="n">
+        <v>125</v>
+      </c>
+      <c r="L246" t="n">
+        <v>361</v>
+      </c>
+      <c r="M246" t="n">
+        <v>120</v>
+      </c>
+      <c r="N246" t="n">
+        <v>230</v>
+      </c>
+      <c r="O246" t="n">
+        <v>196.75</v>
+      </c>
+      <c r="P246" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>175</v>
+      </c>
+      <c r="R246" t="n">
+        <v>99</v>
+      </c>
+      <c r="S246" t="n">
+        <v>160</v>
+      </c>
+      <c r="T246" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U246" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V246" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W246" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>23/09/2024</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>214.6934482758621</v>
+      </c>
+      <c r="D247" t="n">
+        <v>170.1916666666667</v>
+      </c>
+      <c r="E247" t="n">
+        <v>159</v>
+      </c>
+      <c r="F247" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="G247" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H247" t="n">
+        <v>134</v>
+      </c>
+      <c r="I247" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J247" t="n">
+        <v>62</v>
+      </c>
+      <c r="K247" t="n">
+        <v>125</v>
+      </c>
+      <c r="L247" t="n">
+        <v>407.8125</v>
+      </c>
+      <c r="M247" t="n">
+        <v>120</v>
+      </c>
+      <c r="N247" t="n">
+        <v>242</v>
+      </c>
+      <c r="O247" t="n">
+        <v>203</v>
+      </c>
+      <c r="P247" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>180</v>
+      </c>
+      <c r="R247" t="n">
+        <v>99</v>
+      </c>
+      <c r="S247" t="n">
+        <v>160</v>
+      </c>
+      <c r="T247" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U247" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V247" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W247" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>24/09/2024</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>226.6904761904762</v>
+      </c>
+      <c r="D248" t="n">
+        <v>173.4333333333333</v>
+      </c>
+      <c r="E248" t="n">
+        <v>157.9571428571429</v>
+      </c>
+      <c r="F248" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="G248" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H248" t="n">
+        <v>134</v>
+      </c>
+      <c r="I248" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J248" t="n">
+        <v>62</v>
+      </c>
+      <c r="K248" t="n">
+        <v>125</v>
+      </c>
+      <c r="L248" t="n">
+        <v>407.8125</v>
+      </c>
+      <c r="M248" t="n">
+        <v>120</v>
+      </c>
+      <c r="N248" t="n">
+        <v>242</v>
+      </c>
+      <c r="O248" t="n">
+        <v>203</v>
+      </c>
+      <c r="P248" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>180</v>
+      </c>
+      <c r="R248" t="n">
+        <v>99</v>
+      </c>
+      <c r="S248" t="n">
+        <v>160</v>
+      </c>
+      <c r="T248" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U248" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V248" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W248" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W248"/>
+  <dimension ref="A1:W250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17676,6 +17676,152 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>25/09/2024</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>226.0636363636363</v>
+      </c>
+      <c r="D249" t="n">
+        <v>173.3222222222222</v>
+      </c>
+      <c r="E249" t="n">
+        <v>158</v>
+      </c>
+      <c r="F249" t="n">
+        <v>147</v>
+      </c>
+      <c r="G249" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H249" t="n">
+        <v>134</v>
+      </c>
+      <c r="I249" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J249" t="n">
+        <v>62</v>
+      </c>
+      <c r="K249" t="n">
+        <v>125</v>
+      </c>
+      <c r="L249" t="n">
+        <v>407.8125</v>
+      </c>
+      <c r="M249" t="n">
+        <v>120</v>
+      </c>
+      <c r="N249" t="n">
+        <v>242</v>
+      </c>
+      <c r="O249" t="n">
+        <v>204</v>
+      </c>
+      <c r="P249" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>180</v>
+      </c>
+      <c r="R249" t="n">
+        <v>99</v>
+      </c>
+      <c r="S249" t="n">
+        <v>160</v>
+      </c>
+      <c r="T249" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U249" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V249" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W249" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>26/09/2024</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>233.8666666666667</v>
+      </c>
+      <c r="D250" t="n">
+        <v>174.7666666666667</v>
+      </c>
+      <c r="E250" t="n">
+        <v>155</v>
+      </c>
+      <c r="F250" t="n">
+        <v>144</v>
+      </c>
+      <c r="G250" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H250" t="n">
+        <v>134</v>
+      </c>
+      <c r="I250" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J250" t="n">
+        <v>62</v>
+      </c>
+      <c r="K250" t="n">
+        <v>125</v>
+      </c>
+      <c r="L250" t="n">
+        <v>514.5</v>
+      </c>
+      <c r="M250" t="n">
+        <v>120</v>
+      </c>
+      <c r="N250" t="n">
+        <v>260</v>
+      </c>
+      <c r="O250" t="n">
+        <v>204</v>
+      </c>
+      <c r="P250" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>180</v>
+      </c>
+      <c r="R250" t="n">
+        <v>99</v>
+      </c>
+      <c r="S250" t="n">
+        <v>160</v>
+      </c>
+      <c r="T250" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U250" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V250" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W250" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W250"/>
+  <dimension ref="A1:W256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17822,6 +17822,444 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>03/10/2024</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>208.4428571428571</v>
+      </c>
+      <c r="D251" t="n">
+        <v>162.75</v>
+      </c>
+      <c r="E251" t="n">
+        <v>155</v>
+      </c>
+      <c r="F251" t="n">
+        <v>144</v>
+      </c>
+      <c r="G251" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H251" t="n">
+        <v>134</v>
+      </c>
+      <c r="I251" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J251" t="n">
+        <v>62</v>
+      </c>
+      <c r="K251" t="n">
+        <v>125</v>
+      </c>
+      <c r="L251" t="n">
+        <v>175</v>
+      </c>
+      <c r="M251" t="n">
+        <v>120</v>
+      </c>
+      <c r="N251" t="n">
+        <v>244</v>
+      </c>
+      <c r="O251" t="n">
+        <v>201</v>
+      </c>
+      <c r="P251" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>180</v>
+      </c>
+      <c r="R251" t="n">
+        <v>99</v>
+      </c>
+      <c r="S251" t="n">
+        <v>160</v>
+      </c>
+      <c r="T251" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U251" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V251" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W251" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>04/10/2024</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>193.0386046511628</v>
+      </c>
+      <c r="D252" t="n">
+        <v>164.0071428571428</v>
+      </c>
+      <c r="E252" t="n">
+        <v>151.75</v>
+      </c>
+      <c r="F252" t="n">
+        <v>141</v>
+      </c>
+      <c r="G252" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H252" t="n">
+        <v>134</v>
+      </c>
+      <c r="I252" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J252" t="n">
+        <v>62</v>
+      </c>
+      <c r="K252" t="n">
+        <v>125</v>
+      </c>
+      <c r="L252" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="M252" t="n">
+        <v>120</v>
+      </c>
+      <c r="N252" t="n">
+        <v>244</v>
+      </c>
+      <c r="O252" t="n">
+        <v>199</v>
+      </c>
+      <c r="P252" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>180</v>
+      </c>
+      <c r="R252" t="n">
+        <v>99</v>
+      </c>
+      <c r="S252" t="n">
+        <v>160</v>
+      </c>
+      <c r="T252" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U252" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V252" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W252" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>07/10/2024</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>190.0625</v>
+      </c>
+      <c r="D253" t="n">
+        <v>163</v>
+      </c>
+      <c r="E253" t="n">
+        <v>151.75</v>
+      </c>
+      <c r="F253" t="n">
+        <v>141</v>
+      </c>
+      <c r="G253" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H253" t="n">
+        <v>134</v>
+      </c>
+      <c r="I253" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J253" t="n">
+        <v>62</v>
+      </c>
+      <c r="K253" t="n">
+        <v>125</v>
+      </c>
+      <c r="L253" t="n">
+        <v>384</v>
+      </c>
+      <c r="M253" t="n">
+        <v>120</v>
+      </c>
+      <c r="N253" t="n">
+        <v>244</v>
+      </c>
+      <c r="O253" t="n">
+        <v>199</v>
+      </c>
+      <c r="P253" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>180</v>
+      </c>
+      <c r="R253" t="n">
+        <v>99</v>
+      </c>
+      <c r="S253" t="n">
+        <v>160</v>
+      </c>
+      <c r="T253" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U253" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V253" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W253" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>08/10/2024</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>194.3315384615385</v>
+      </c>
+      <c r="D254" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="E254" t="n">
+        <v>151.75</v>
+      </c>
+      <c r="F254" t="n">
+        <v>141</v>
+      </c>
+      <c r="G254" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H254" t="n">
+        <v>134</v>
+      </c>
+      <c r="I254" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J254" t="n">
+        <v>62</v>
+      </c>
+      <c r="K254" t="n">
+        <v>125</v>
+      </c>
+      <c r="L254" t="n">
+        <v>407.1666666666667</v>
+      </c>
+      <c r="M254" t="n">
+        <v>120</v>
+      </c>
+      <c r="N254" t="n">
+        <v>244</v>
+      </c>
+      <c r="O254" t="n">
+        <v>199</v>
+      </c>
+      <c r="P254" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>180</v>
+      </c>
+      <c r="R254" t="n">
+        <v>99</v>
+      </c>
+      <c r="S254" t="n">
+        <v>160</v>
+      </c>
+      <c r="T254" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U254" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V254" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W254" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>09/10/2024</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>189.32</v>
+      </c>
+      <c r="D255" t="n">
+        <v>164</v>
+      </c>
+      <c r="E255" t="n">
+        <v>151.75</v>
+      </c>
+      <c r="F255" t="n">
+        <v>143</v>
+      </c>
+      <c r="G255" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H255" t="n">
+        <v>134</v>
+      </c>
+      <c r="I255" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J255" t="n">
+        <v>62</v>
+      </c>
+      <c r="K255" t="n">
+        <v>125</v>
+      </c>
+      <c r="L255" t="n">
+        <v>380</v>
+      </c>
+      <c r="M255" t="n">
+        <v>120</v>
+      </c>
+      <c r="N255" t="n">
+        <v>244</v>
+      </c>
+      <c r="O255" t="n">
+        <v>199</v>
+      </c>
+      <c r="P255" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>180</v>
+      </c>
+      <c r="R255" t="n">
+        <v>99</v>
+      </c>
+      <c r="S255" t="n">
+        <v>160</v>
+      </c>
+      <c r="T255" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U255" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V255" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W255" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>190</v>
+      </c>
+      <c r="D256" t="n">
+        <v>165.5</v>
+      </c>
+      <c r="E256" t="n">
+        <v>151.75</v>
+      </c>
+      <c r="F256" t="n">
+        <v>143</v>
+      </c>
+      <c r="G256" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H256" t="n">
+        <v>134</v>
+      </c>
+      <c r="I256" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J256" t="n">
+        <v>62</v>
+      </c>
+      <c r="K256" t="n">
+        <v>125</v>
+      </c>
+      <c r="L256" t="n">
+        <v>391.5</v>
+      </c>
+      <c r="M256" t="n">
+        <v>120</v>
+      </c>
+      <c r="N256" t="n">
+        <v>244</v>
+      </c>
+      <c r="O256" t="n">
+        <v>199</v>
+      </c>
+      <c r="P256" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>180</v>
+      </c>
+      <c r="R256" t="n">
+        <v>99</v>
+      </c>
+      <c r="S256" t="n">
+        <v>160</v>
+      </c>
+      <c r="T256" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U256" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V256" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W256" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W256"/>
+  <dimension ref="A1:W260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18260,6 +18260,298 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>11/10/2024</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>186.9455555555556</v>
+      </c>
+      <c r="D257" t="n">
+        <v>164.75</v>
+      </c>
+      <c r="E257" t="n">
+        <v>151.75</v>
+      </c>
+      <c r="F257" t="n">
+        <v>143</v>
+      </c>
+      <c r="G257" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H257" t="n">
+        <v>134</v>
+      </c>
+      <c r="I257" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J257" t="n">
+        <v>62</v>
+      </c>
+      <c r="K257" t="n">
+        <v>125</v>
+      </c>
+      <c r="L257" t="n">
+        <v>391.5</v>
+      </c>
+      <c r="M257" t="n">
+        <v>120</v>
+      </c>
+      <c r="N257" t="n">
+        <v>244</v>
+      </c>
+      <c r="O257" t="n">
+        <v>199</v>
+      </c>
+      <c r="P257" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>180</v>
+      </c>
+      <c r="R257" t="n">
+        <v>99</v>
+      </c>
+      <c r="S257" t="n">
+        <v>160</v>
+      </c>
+      <c r="T257" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U257" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V257" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W257" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>14/10/2024</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>177.8666666666667</v>
+      </c>
+      <c r="D258" t="n">
+        <v>158.6666666666667</v>
+      </c>
+      <c r="E258" t="n">
+        <v>151.75</v>
+      </c>
+      <c r="F258" t="n">
+        <v>143</v>
+      </c>
+      <c r="G258" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H258" t="n">
+        <v>134</v>
+      </c>
+      <c r="I258" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J258" t="n">
+        <v>62</v>
+      </c>
+      <c r="K258" t="n">
+        <v>125</v>
+      </c>
+      <c r="L258" t="n">
+        <v>360</v>
+      </c>
+      <c r="M258" t="n">
+        <v>120</v>
+      </c>
+      <c r="N258" t="n">
+        <v>244</v>
+      </c>
+      <c r="O258" t="n">
+        <v>199</v>
+      </c>
+      <c r="P258" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>180</v>
+      </c>
+      <c r="R258" t="n">
+        <v>99</v>
+      </c>
+      <c r="S258" t="n">
+        <v>160</v>
+      </c>
+      <c r="T258" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U258" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V258" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W258" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>15/10/2024</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>174.9</v>
+      </c>
+      <c r="D259" t="n">
+        <v>155.25</v>
+      </c>
+      <c r="E259" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="F259" t="n">
+        <v>143</v>
+      </c>
+      <c r="G259" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H259" t="n">
+        <v>134</v>
+      </c>
+      <c r="I259" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J259" t="n">
+        <v>62</v>
+      </c>
+      <c r="K259" t="n">
+        <v>125</v>
+      </c>
+      <c r="L259" t="n">
+        <v>353.5</v>
+      </c>
+      <c r="M259" t="n">
+        <v>120</v>
+      </c>
+      <c r="N259" t="n">
+        <v>244</v>
+      </c>
+      <c r="O259" t="n">
+        <v>199</v>
+      </c>
+      <c r="P259" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>180</v>
+      </c>
+      <c r="R259" t="n">
+        <v>99</v>
+      </c>
+      <c r="S259" t="n">
+        <v>160</v>
+      </c>
+      <c r="T259" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U259" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V259" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W259" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>16/10/2024</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>174.9</v>
+      </c>
+      <c r="D260" t="n">
+        <v>160</v>
+      </c>
+      <c r="E260" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="F260" t="n">
+        <v>143</v>
+      </c>
+      <c r="G260" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H260" t="n">
+        <v>134</v>
+      </c>
+      <c r="I260" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J260" t="n">
+        <v>62</v>
+      </c>
+      <c r="K260" t="n">
+        <v>125</v>
+      </c>
+      <c r="L260" t="n">
+        <v>353.5</v>
+      </c>
+      <c r="M260" t="n">
+        <v>120</v>
+      </c>
+      <c r="N260" t="n">
+        <v>244</v>
+      </c>
+      <c r="O260" t="n">
+        <v>199</v>
+      </c>
+      <c r="P260" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>180</v>
+      </c>
+      <c r="R260" t="n">
+        <v>99</v>
+      </c>
+      <c r="S260" t="n">
+        <v>160</v>
+      </c>
+      <c r="T260" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U260" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V260" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W260" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W260"/>
+  <dimension ref="A1:W264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18552,6 +18552,298 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>17/10/2024</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>170.3173913043478</v>
+      </c>
+      <c r="D261" t="n">
+        <v>158.875</v>
+      </c>
+      <c r="E261" t="n">
+        <v>150</v>
+      </c>
+      <c r="F261" t="n">
+        <v>143</v>
+      </c>
+      <c r="G261" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H261" t="n">
+        <v>134</v>
+      </c>
+      <c r="I261" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J261" t="n">
+        <v>62</v>
+      </c>
+      <c r="K261" t="n">
+        <v>125</v>
+      </c>
+      <c r="L261" t="n">
+        <v>353.5</v>
+      </c>
+      <c r="M261" t="n">
+        <v>120</v>
+      </c>
+      <c r="N261" t="n">
+        <v>244</v>
+      </c>
+      <c r="O261" t="n">
+        <v>199</v>
+      </c>
+      <c r="P261" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>180</v>
+      </c>
+      <c r="R261" t="n">
+        <v>99</v>
+      </c>
+      <c r="S261" t="n">
+        <v>160</v>
+      </c>
+      <c r="T261" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U261" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V261" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W261" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>18/10/2024</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>167.8636363636364</v>
+      </c>
+      <c r="D262" t="n">
+        <v>159.5714285714286</v>
+      </c>
+      <c r="E262" t="n">
+        <v>149</v>
+      </c>
+      <c r="F262" t="n">
+        <v>143</v>
+      </c>
+      <c r="G262" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H262" t="n">
+        <v>134</v>
+      </c>
+      <c r="I262" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J262" t="n">
+        <v>62</v>
+      </c>
+      <c r="K262" t="n">
+        <v>125</v>
+      </c>
+      <c r="L262" t="n">
+        <v>350</v>
+      </c>
+      <c r="M262" t="n">
+        <v>120</v>
+      </c>
+      <c r="N262" t="n">
+        <v>195.5</v>
+      </c>
+      <c r="O262" t="n">
+        <v>188</v>
+      </c>
+      <c r="P262" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>180</v>
+      </c>
+      <c r="R262" t="n">
+        <v>99</v>
+      </c>
+      <c r="S262" t="n">
+        <v>160</v>
+      </c>
+      <c r="T262" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U262" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V262" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W262" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>21/10/2024</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>164.225</v>
+      </c>
+      <c r="D263" t="n">
+        <v>158.625</v>
+      </c>
+      <c r="E263" t="n">
+        <v>148.21</v>
+      </c>
+      <c r="F263" t="n">
+        <v>143</v>
+      </c>
+      <c r="G263" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H263" t="n">
+        <v>134</v>
+      </c>
+      <c r="I263" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J263" t="n">
+        <v>62</v>
+      </c>
+      <c r="K263" t="n">
+        <v>125</v>
+      </c>
+      <c r="L263" t="n">
+        <v>350</v>
+      </c>
+      <c r="M263" t="n">
+        <v>120</v>
+      </c>
+      <c r="N263" t="n">
+        <v>195.5</v>
+      </c>
+      <c r="O263" t="n">
+        <v>188</v>
+      </c>
+      <c r="P263" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>180</v>
+      </c>
+      <c r="R263" t="n">
+        <v>99</v>
+      </c>
+      <c r="S263" t="n">
+        <v>160</v>
+      </c>
+      <c r="T263" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U263" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V263" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W263" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>22/10/2024</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>160.806</v>
+      </c>
+      <c r="D264" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="E264" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="F264" t="n">
+        <v>139.1666666666667</v>
+      </c>
+      <c r="G264" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H264" t="n">
+        <v>134</v>
+      </c>
+      <c r="I264" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J264" t="n">
+        <v>62</v>
+      </c>
+      <c r="K264" t="n">
+        <v>125</v>
+      </c>
+      <c r="L264" t="n">
+        <v>350</v>
+      </c>
+      <c r="M264" t="n">
+        <v>120</v>
+      </c>
+      <c r="N264" t="n">
+        <v>195.6666666666667</v>
+      </c>
+      <c r="O264" t="n">
+        <v>188</v>
+      </c>
+      <c r="P264" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>180</v>
+      </c>
+      <c r="R264" t="n">
+        <v>99</v>
+      </c>
+      <c r="S264" t="n">
+        <v>160</v>
+      </c>
+      <c r="T264" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U264" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V264" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W264" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W264"/>
+  <dimension ref="A1:W269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18844,6 +18844,371 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>151.0755</v>
+      </c>
+      <c r="D265" t="n">
+        <v>151.4191666666667</v>
+      </c>
+      <c r="E265" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="F265" t="n">
+        <v>139.25</v>
+      </c>
+      <c r="G265" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H265" t="n">
+        <v>134</v>
+      </c>
+      <c r="I265" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J265" t="n">
+        <v>62</v>
+      </c>
+      <c r="K265" t="n">
+        <v>125</v>
+      </c>
+      <c r="L265" t="n">
+        <v>383.3333333333333</v>
+      </c>
+      <c r="M265" t="n">
+        <v>120</v>
+      </c>
+      <c r="N265" t="n">
+        <v>195.6666666666667</v>
+      </c>
+      <c r="O265" t="n">
+        <v>188</v>
+      </c>
+      <c r="P265" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>180</v>
+      </c>
+      <c r="R265" t="n">
+        <v>99</v>
+      </c>
+      <c r="S265" t="n">
+        <v>160</v>
+      </c>
+      <c r="T265" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U265" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V265" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W265" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>143.2307692307692</v>
+      </c>
+      <c r="D266" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="E266" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="F266" t="n">
+        <v>139.25</v>
+      </c>
+      <c r="G266" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H266" t="n">
+        <v>134</v>
+      </c>
+      <c r="I266" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J266" t="n">
+        <v>62</v>
+      </c>
+      <c r="K266" t="n">
+        <v>125</v>
+      </c>
+      <c r="L266" t="n">
+        <v>383.3333333333333</v>
+      </c>
+      <c r="M266" t="n">
+        <v>120</v>
+      </c>
+      <c r="N266" t="n">
+        <v>195.6666666666667</v>
+      </c>
+      <c r="O266" t="n">
+        <v>188</v>
+      </c>
+      <c r="P266" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>180</v>
+      </c>
+      <c r="R266" t="n">
+        <v>99</v>
+      </c>
+      <c r="S266" t="n">
+        <v>160</v>
+      </c>
+      <c r="T266" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U266" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V266" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W266" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>25/10/2024</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="D267" t="n">
+        <v>150.5909090909091</v>
+      </c>
+      <c r="E267" t="n">
+        <v>145.8333333333333</v>
+      </c>
+      <c r="F267" t="n">
+        <v>139</v>
+      </c>
+      <c r="G267" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H267" t="n">
+        <v>134</v>
+      </c>
+      <c r="I267" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J267" t="n">
+        <v>62</v>
+      </c>
+      <c r="K267" t="n">
+        <v>125</v>
+      </c>
+      <c r="L267" t="n">
+        <v>293.5</v>
+      </c>
+      <c r="M267" t="n">
+        <v>120</v>
+      </c>
+      <c r="N267" t="n">
+        <v>170</v>
+      </c>
+      <c r="O267" t="n">
+        <v>188</v>
+      </c>
+      <c r="P267" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R267" t="n">
+        <v>99</v>
+      </c>
+      <c r="S267" t="n">
+        <v>160</v>
+      </c>
+      <c r="T267" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U267" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V267" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W267" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>28/10/2024</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>130.75625</v>
+      </c>
+      <c r="D268" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="E268" t="n">
+        <v>141.2666666666667</v>
+      </c>
+      <c r="F268" t="n">
+        <v>139</v>
+      </c>
+      <c r="G268" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H268" t="n">
+        <v>134</v>
+      </c>
+      <c r="I268" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J268" t="n">
+        <v>62</v>
+      </c>
+      <c r="K268" t="n">
+        <v>125</v>
+      </c>
+      <c r="L268" t="n">
+        <v>293.5</v>
+      </c>
+      <c r="M268" t="n">
+        <v>120</v>
+      </c>
+      <c r="N268" t="n">
+        <v>167</v>
+      </c>
+      <c r="O268" t="n">
+        <v>188</v>
+      </c>
+      <c r="P268" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R268" t="n">
+        <v>99</v>
+      </c>
+      <c r="S268" t="n">
+        <v>160</v>
+      </c>
+      <c r="T268" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U268" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V268" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W268" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>29/10/2024</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>134.4166666666667</v>
+      </c>
+      <c r="D269" t="n">
+        <v>151.2307692307692</v>
+      </c>
+      <c r="E269" t="n">
+        <v>141.2666666666667</v>
+      </c>
+      <c r="F269" t="n">
+        <v>139</v>
+      </c>
+      <c r="G269" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H269" t="n">
+        <v>134</v>
+      </c>
+      <c r="I269" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J269" t="n">
+        <v>62</v>
+      </c>
+      <c r="K269" t="n">
+        <v>125</v>
+      </c>
+      <c r="L269" t="n">
+        <v>293.5</v>
+      </c>
+      <c r="M269" t="n">
+        <v>120</v>
+      </c>
+      <c r="N269" t="n">
+        <v>167</v>
+      </c>
+      <c r="O269" t="n">
+        <v>188</v>
+      </c>
+      <c r="P269" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R269" t="n">
+        <v>99</v>
+      </c>
+      <c r="S269" t="n">
+        <v>160</v>
+      </c>
+      <c r="T269" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U269" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V269" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W269" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W269"/>
+  <dimension ref="A1:W279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19209,6 +19209,736 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>148.7428571428572</v>
+      </c>
+      <c r="D270" t="n">
+        <v>156.8384615384616</v>
+      </c>
+      <c r="E270" t="n">
+        <v>141.2666666666667</v>
+      </c>
+      <c r="F270" t="n">
+        <v>139</v>
+      </c>
+      <c r="G270" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H270" t="n">
+        <v>134</v>
+      </c>
+      <c r="I270" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J270" t="n">
+        <v>62</v>
+      </c>
+      <c r="K270" t="n">
+        <v>125</v>
+      </c>
+      <c r="L270" t="n">
+        <v>293.5</v>
+      </c>
+      <c r="M270" t="n">
+        <v>120</v>
+      </c>
+      <c r="N270" t="n">
+        <v>167</v>
+      </c>
+      <c r="O270" t="n">
+        <v>188</v>
+      </c>
+      <c r="P270" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R270" t="n">
+        <v>99</v>
+      </c>
+      <c r="S270" t="n">
+        <v>160</v>
+      </c>
+      <c r="T270" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U270" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V270" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W270" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>148.7428571428572</v>
+      </c>
+      <c r="D271" t="n">
+        <v>154.8333333333333</v>
+      </c>
+      <c r="E271" t="n">
+        <v>141.2666666666667</v>
+      </c>
+      <c r="F271" t="n">
+        <v>139</v>
+      </c>
+      <c r="G271" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H271" t="n">
+        <v>134</v>
+      </c>
+      <c r="I271" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J271" t="n">
+        <v>62</v>
+      </c>
+      <c r="K271" t="n">
+        <v>125</v>
+      </c>
+      <c r="L271" t="n">
+        <v>257</v>
+      </c>
+      <c r="M271" t="n">
+        <v>120</v>
+      </c>
+      <c r="N271" t="n">
+        <v>167</v>
+      </c>
+      <c r="O271" t="n">
+        <v>188</v>
+      </c>
+      <c r="P271" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R271" t="n">
+        <v>99</v>
+      </c>
+      <c r="S271" t="n">
+        <v>160</v>
+      </c>
+      <c r="T271" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U271" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V271" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W271" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>142.1666666666667</v>
+      </c>
+      <c r="D272" t="n">
+        <v>154</v>
+      </c>
+      <c r="E272" t="n">
+        <v>141.2666666666667</v>
+      </c>
+      <c r="F272" t="n">
+        <v>139</v>
+      </c>
+      <c r="G272" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H272" t="n">
+        <v>134</v>
+      </c>
+      <c r="I272" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J272" t="n">
+        <v>62</v>
+      </c>
+      <c r="K272" t="n">
+        <v>125</v>
+      </c>
+      <c r="L272" t="n">
+        <v>257</v>
+      </c>
+      <c r="M272" t="n">
+        <v>120</v>
+      </c>
+      <c r="N272" t="n">
+        <v>167</v>
+      </c>
+      <c r="O272" t="n">
+        <v>188</v>
+      </c>
+      <c r="P272" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R272" t="n">
+        <v>99</v>
+      </c>
+      <c r="S272" t="n">
+        <v>160</v>
+      </c>
+      <c r="T272" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U272" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V272" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W272" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>140.55</v>
+      </c>
+      <c r="D273" t="n">
+        <v>152</v>
+      </c>
+      <c r="E273" t="n">
+        <v>146</v>
+      </c>
+      <c r="F273" t="n">
+        <v>142</v>
+      </c>
+      <c r="G273" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H273" t="n">
+        <v>134</v>
+      </c>
+      <c r="I273" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J273" t="n">
+        <v>62</v>
+      </c>
+      <c r="K273" t="n">
+        <v>125</v>
+      </c>
+      <c r="L273" t="n">
+        <v>257</v>
+      </c>
+      <c r="M273" t="n">
+        <v>120</v>
+      </c>
+      <c r="N273" t="n">
+        <v>167</v>
+      </c>
+      <c r="O273" t="n">
+        <v>188</v>
+      </c>
+      <c r="P273" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R273" t="n">
+        <v>99</v>
+      </c>
+      <c r="S273" t="n">
+        <v>160</v>
+      </c>
+      <c r="T273" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U273" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V273" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W273" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>05/11/2024</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="D274" t="n">
+        <v>148.375</v>
+      </c>
+      <c r="E274" t="n">
+        <v>146</v>
+      </c>
+      <c r="F274" t="n">
+        <v>142</v>
+      </c>
+      <c r="G274" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H274" t="n">
+        <v>134</v>
+      </c>
+      <c r="I274" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J274" t="n">
+        <v>62</v>
+      </c>
+      <c r="K274" t="n">
+        <v>125</v>
+      </c>
+      <c r="L274" t="n">
+        <v>257</v>
+      </c>
+      <c r="M274" t="n">
+        <v>120</v>
+      </c>
+      <c r="N274" t="n">
+        <v>167</v>
+      </c>
+      <c r="O274" t="n">
+        <v>188</v>
+      </c>
+      <c r="P274" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R274" t="n">
+        <v>99</v>
+      </c>
+      <c r="S274" t="n">
+        <v>160</v>
+      </c>
+      <c r="T274" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U274" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V274" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W274" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>142.7883333333333</v>
+      </c>
+      <c r="D275" t="n">
+        <v>149.25</v>
+      </c>
+      <c r="E275" t="n">
+        <v>146</v>
+      </c>
+      <c r="F275" t="n">
+        <v>142</v>
+      </c>
+      <c r="G275" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H275" t="n">
+        <v>134</v>
+      </c>
+      <c r="I275" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J275" t="n">
+        <v>62</v>
+      </c>
+      <c r="K275" t="n">
+        <v>125</v>
+      </c>
+      <c r="L275" t="n">
+        <v>257</v>
+      </c>
+      <c r="M275" t="n">
+        <v>120</v>
+      </c>
+      <c r="N275" t="n">
+        <v>167</v>
+      </c>
+      <c r="O275" t="n">
+        <v>188</v>
+      </c>
+      <c r="P275" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R275" t="n">
+        <v>99</v>
+      </c>
+      <c r="S275" t="n">
+        <v>160</v>
+      </c>
+      <c r="T275" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U275" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V275" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W275" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>130.25</v>
+      </c>
+      <c r="D276" t="n">
+        <v>150</v>
+      </c>
+      <c r="E276" t="n">
+        <v>146</v>
+      </c>
+      <c r="F276" t="n">
+        <v>142</v>
+      </c>
+      <c r="G276" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H276" t="n">
+        <v>134</v>
+      </c>
+      <c r="I276" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J276" t="n">
+        <v>62</v>
+      </c>
+      <c r="K276" t="n">
+        <v>125</v>
+      </c>
+      <c r="L276" t="n">
+        <v>257</v>
+      </c>
+      <c r="M276" t="n">
+        <v>120</v>
+      </c>
+      <c r="N276" t="n">
+        <v>167</v>
+      </c>
+      <c r="O276" t="n">
+        <v>188</v>
+      </c>
+      <c r="P276" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R276" t="n">
+        <v>99</v>
+      </c>
+      <c r="S276" t="n">
+        <v>160</v>
+      </c>
+      <c r="T276" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U276" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V276" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W276" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>125.1107142857143</v>
+      </c>
+      <c r="D277" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="E277" t="n">
+        <v>144</v>
+      </c>
+      <c r="F277" t="n">
+        <v>142</v>
+      </c>
+      <c r="G277" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H277" t="n">
+        <v>134</v>
+      </c>
+      <c r="I277" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J277" t="n">
+        <v>62</v>
+      </c>
+      <c r="K277" t="n">
+        <v>125</v>
+      </c>
+      <c r="L277" t="n">
+        <v>257</v>
+      </c>
+      <c r="M277" t="n">
+        <v>120</v>
+      </c>
+      <c r="N277" t="n">
+        <v>157</v>
+      </c>
+      <c r="O277" t="n">
+        <v>188</v>
+      </c>
+      <c r="P277" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R277" t="n">
+        <v>99</v>
+      </c>
+      <c r="S277" t="n">
+        <v>160</v>
+      </c>
+      <c r="T277" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U277" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V277" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W277" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>118.7</v>
+      </c>
+      <c r="D278" t="n">
+        <v>144.66</v>
+      </c>
+      <c r="E278" t="n">
+        <v>142.3333333333333</v>
+      </c>
+      <c r="F278" t="n">
+        <v>142</v>
+      </c>
+      <c r="G278" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H278" t="n">
+        <v>134</v>
+      </c>
+      <c r="I278" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J278" t="n">
+        <v>62</v>
+      </c>
+      <c r="K278" t="n">
+        <v>125</v>
+      </c>
+      <c r="L278" t="n">
+        <v>257</v>
+      </c>
+      <c r="M278" t="n">
+        <v>120</v>
+      </c>
+      <c r="N278" t="n">
+        <v>151</v>
+      </c>
+      <c r="O278" t="n">
+        <v>188</v>
+      </c>
+      <c r="P278" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R278" t="n">
+        <v>99</v>
+      </c>
+      <c r="S278" t="n">
+        <v>160</v>
+      </c>
+      <c r="T278" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U278" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V278" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W278" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="D279" t="n">
+        <v>146</v>
+      </c>
+      <c r="E279" t="n">
+        <v>142.3333333333333</v>
+      </c>
+      <c r="F279" t="n">
+        <v>142</v>
+      </c>
+      <c r="G279" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H279" t="n">
+        <v>134</v>
+      </c>
+      <c r="I279" t="n">
+        <v>67.83799999999999</v>
+      </c>
+      <c r="J279" t="n">
+        <v>62</v>
+      </c>
+      <c r="K279" t="n">
+        <v>125</v>
+      </c>
+      <c r="L279" t="n">
+        <v>257</v>
+      </c>
+      <c r="M279" t="n">
+        <v>120</v>
+      </c>
+      <c r="N279" t="n">
+        <v>151</v>
+      </c>
+      <c r="O279" t="n">
+        <v>188</v>
+      </c>
+      <c r="P279" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R279" t="n">
+        <v>99</v>
+      </c>
+      <c r="S279" t="n">
+        <v>160</v>
+      </c>
+      <c r="T279" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U279" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V279" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W279" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W279"/>
+  <dimension ref="A1:W280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE CON TRI JAN/24 MAR/24 - Preço Fixo</t>
+          <t>FEN - SE CON TRI JAN/25 MAR/25 - Preço Fixo</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE CON TRI ABR/24 JUN/24 - Preço Fixo</t>
+          <t>FEN - SE CON TRI ABR/25 JUN/25 - Preço Fixo</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE CON TRI JUL/24 SET/24 - Preço Fixo</t>
+          <t>FEN - SE CON TRI JUL/25 SET/25 - Preço Fixo</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>FEN - SE CON TRI OUT/24 DEZ/24 - Preço Fixo</t>
+          <t>FEN - SE CON TRI OUT/25 DEZ/25 - Preço Fixo</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -700,9 +700,7 @@
         <v>78</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>73.90000000000001</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
@@ -751,9 +749,7 @@
         <v>89</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>77.3</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
@@ -806,9 +802,7 @@
         <v>84</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>76</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
@@ -861,9 +855,7 @@
         <v>84</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>76</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
@@ -916,10 +908,10 @@
         <v>84</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>76</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>99</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>106</v>
@@ -971,10 +963,10 @@
         <v>84</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>76</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>99</v>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>106</v>
@@ -1026,10 +1018,10 @@
         <v>80.2</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>76</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>99</v>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>111.25</v>
@@ -1081,10 +1073,10 @@
         <v>79.34999999999999</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>99</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>110</v>
@@ -1136,10 +1128,10 @@
         <v>79.5</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>69</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>99</v>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>109</v>
@@ -1191,11 +1183,13 @@
         <v>80.36142857142856</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>69</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>95</v>
+      </c>
+      <c r="L14" t="n">
+        <v>95</v>
+      </c>
       <c r="M14" t="n">
         <v>109</v>
       </c>
@@ -1248,11 +1242,13 @@
         <v>81.25</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>69</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>95</v>
+      </c>
+      <c r="L15" t="n">
+        <v>95</v>
+      </c>
       <c r="M15" t="n">
         <v>109</v>
       </c>
@@ -1305,11 +1301,13 @@
         <v>81.25</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>69</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>95</v>
+      </c>
+      <c r="L16" t="n">
+        <v>95</v>
+      </c>
       <c r="M16" t="n">
         <v>109</v>
       </c>
@@ -1362,11 +1360,13 @@
         <v>81.25</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>69</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>99</v>
+      </c>
+      <c r="L17" t="n">
+        <v>102</v>
+      </c>
       <c r="M17" t="n">
         <v>109</v>
       </c>
@@ -1419,11 +1419,13 @@
         <v>86.25</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>99</v>
+      </c>
+      <c r="L18" t="n">
+        <v>102</v>
+      </c>
       <c r="M18" t="n">
         <v>109</v>
       </c>
@@ -1476,11 +1478,13 @@
         <v>84.5</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>99</v>
+      </c>
+      <c r="L19" t="n">
+        <v>102</v>
+      </c>
       <c r="M19" t="n">
         <v>109</v>
       </c>
@@ -1533,11 +1537,13 @@
         <v>87.75</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>99</v>
+      </c>
+      <c r="L20" t="n">
+        <v>102</v>
+      </c>
       <c r="M20" t="n">
         <v>112.25</v>
       </c>
@@ -1590,11 +1596,13 @@
         <v>85</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>70</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>99</v>
+      </c>
+      <c r="L21" t="n">
+        <v>99</v>
+      </c>
       <c r="M21" t="n">
         <v>112.25</v>
       </c>
@@ -1647,11 +1655,13 @@
         <v>83.8</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>70</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>99</v>
+      </c>
+      <c r="L22" t="n">
+        <v>99</v>
+      </c>
       <c r="M22" t="n">
         <v>112.25</v>
       </c>
@@ -1704,11 +1714,13 @@
         <v>81.6875</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>70</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>100</v>
+      </c>
+      <c r="L23" t="n">
+        <v>99</v>
+      </c>
       <c r="M23" t="n">
         <v>112.25</v>
       </c>
@@ -1761,11 +1773,13 @@
         <v>82.75</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>70</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>100</v>
+      </c>
+      <c r="L24" t="n">
+        <v>99</v>
+      </c>
       <c r="M24" t="n">
         <v>112.25</v>
       </c>
@@ -1818,11 +1832,13 @@
         <v>82.75</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>70</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>100</v>
+      </c>
+      <c r="L25" t="n">
+        <v>99</v>
+      </c>
       <c r="M25" t="n">
         <v>109</v>
       </c>
@@ -1875,11 +1891,13 @@
         <v>84.75</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>74</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>100</v>
+      </c>
+      <c r="L26" t="n">
+        <v>99</v>
+      </c>
       <c r="M26" t="n">
         <v>110</v>
       </c>
@@ -1932,11 +1950,13 @@
         <v>85</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>74</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>100</v>
+      </c>
+      <c r="L27" t="n">
+        <v>99</v>
+      </c>
       <c r="M27" t="n">
         <v>111.7</v>
       </c>
@@ -1991,11 +2011,13 @@
         <v>86.33333333333333</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>74</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>100</v>
+      </c>
+      <c r="L28" t="n">
+        <v>99</v>
+      </c>
       <c r="M28" t="n">
         <v>111.7</v>
       </c>
@@ -2050,11 +2072,13 @@
         <v>86</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>71</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>100</v>
+      </c>
+      <c r="L29" t="n">
+        <v>99</v>
+      </c>
       <c r="M29" t="n">
         <v>114.78</v>
       </c>
@@ -2109,11 +2133,13 @@
         <v>86</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>71</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>100</v>
+      </c>
+      <c r="L30" t="n">
+        <v>99</v>
+      </c>
       <c r="M30" t="n">
         <v>114.78</v>
       </c>
@@ -2168,11 +2194,13 @@
         <v>85.85000000000001</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>71</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>100</v>
+      </c>
+      <c r="L31" t="n">
+        <v>99</v>
+      </c>
       <c r="M31" t="n">
         <v>114.78</v>
       </c>
@@ -2227,11 +2255,13 @@
         <v>86</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>70</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>100</v>
+      </c>
+      <c r="L32" t="n">
+        <v>99</v>
+      </c>
       <c r="M32" t="n">
         <v>113.1</v>
       </c>
@@ -2286,13 +2316,13 @@
         <v>87.625</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>73</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>88</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="L33" t="n">
+        <v>99</v>
+      </c>
       <c r="M33" t="n">
         <v>114.5</v>
       </c>
@@ -2347,13 +2377,13 @@
         <v>87.625</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>73</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>88</v>
-      </c>
-      <c r="L34" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="L34" t="n">
+        <v>99</v>
+      </c>
       <c r="M34" t="n">
         <v>114.5</v>
       </c>
@@ -2408,13 +2438,13 @@
         <v>86</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>71.5</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>88</v>
-      </c>
-      <c r="L35" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="L35" t="n">
+        <v>99</v>
+      </c>
       <c r="M35" t="n">
         <v>114.5</v>
       </c>
@@ -2469,13 +2499,13 @@
         <v>84.55</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>69.22857142857143</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>84</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="L36" t="n">
+        <v>99</v>
+      </c>
       <c r="M36" t="n">
         <v>111.5</v>
       </c>
@@ -2530,13 +2560,13 @@
         <v>79.47666666666667</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>67.5</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>79</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="L37" t="n">
+        <v>99</v>
+      </c>
       <c r="M37" t="n">
         <v>111.5</v>
       </c>
@@ -2590,16 +2620,14 @@
       <c r="H38" t="n">
         <v>79.065</v>
       </c>
-      <c r="I38" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>67.2</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="L38" t="n">
+        <v>99</v>
+      </c>
       <c r="M38" t="n">
         <v>111.5</v>
       </c>
@@ -2653,17 +2681,13 @@
       <c r="H39" t="n">
         <v>79.098</v>
       </c>
-      <c r="I39" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>68</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>77.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L39" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="M39" t="n">
         <v>111.5</v>
@@ -2718,17 +2742,13 @@
       <c r="H40" t="n">
         <v>79.25</v>
       </c>
-      <c r="I40" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="J40" t="n">
-        <v>68</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>77.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L40" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="M40" t="n">
         <v>111.5</v>
@@ -2783,17 +2803,13 @@
       <c r="H41" t="n">
         <v>79.25</v>
       </c>
-      <c r="I41" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>68.5</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>77.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L41" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="M41" t="n">
         <v>107</v>
@@ -2848,17 +2864,13 @@
       <c r="H42" t="n">
         <v>77.995</v>
       </c>
-      <c r="I42" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>68.16666666666667</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>76.5</v>
+        <v>100</v>
       </c>
       <c r="L42" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="M42" t="n">
         <v>107</v>
@@ -2913,17 +2925,13 @@
       <c r="H43" t="n">
         <v>77.995</v>
       </c>
-      <c r="I43" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>68.16666666666667</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>76.5</v>
+        <v>100</v>
       </c>
       <c r="L43" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="M43" t="n">
         <v>105</v>
@@ -2978,17 +2986,13 @@
       <c r="H44" t="n">
         <v>77.995</v>
       </c>
-      <c r="I44" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>68.16666666666667</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>76.5</v>
+        <v>100</v>
       </c>
       <c r="L44" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="M44" t="n">
         <v>106.25</v>
@@ -3043,17 +3047,13 @@
       <c r="H45" t="n">
         <v>77.995</v>
       </c>
-      <c r="I45" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="J45" t="n">
-        <v>66.5</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="L45" t="n">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="M45" t="n">
         <v>104.25</v>
@@ -3108,17 +3108,13 @@
       <c r="H46" t="n">
         <v>79.33333333333333</v>
       </c>
-      <c r="I46" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>66.5</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="L46" t="n">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="M46" t="n">
         <v>105.375</v>
@@ -3173,17 +3169,13 @@
       <c r="H47" t="n">
         <v>79.75</v>
       </c>
-      <c r="I47" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>67.5</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="L47" t="n">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="M47" t="n">
         <v>105.375</v>
@@ -3238,17 +3230,13 @@
       <c r="H48" t="n">
         <v>79</v>
       </c>
-      <c r="I48" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>67.95</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="L48" t="n">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="M48" t="n">
         <v>104.25</v>
@@ -3303,17 +3291,13 @@
       <c r="H49" t="n">
         <v>79.66666666666667</v>
       </c>
-      <c r="I49" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>68</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="L49" t="n">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="M49" t="n">
         <v>104.25</v>
@@ -3369,16 +3353,14 @@
         <v>80.75</v>
       </c>
       <c r="I50" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>68</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="L50" t="n">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="M50" t="n">
         <v>106.5</v>
@@ -3434,16 +3416,14 @@
         <v>81.40000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="J51" t="n">
-        <v>69.5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="M51" t="n">
         <v>103.1333333333333</v>
@@ -3499,16 +3479,14 @@
         <v>83</v>
       </c>
       <c r="I52" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J52" t="n">
-        <v>69.5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="M52" t="n">
         <v>102.325</v>
@@ -3564,16 +3542,14 @@
         <v>82.5</v>
       </c>
       <c r="I53" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J53" t="n">
-        <v>69.5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>77.5</v>
+        <v>100</v>
       </c>
       <c r="L53" t="n">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="M53" t="n">
         <v>102.325</v>
@@ -3629,16 +3605,14 @@
         <v>84.5</v>
       </c>
       <c r="I54" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J54" t="n">
-        <v>68</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="L54" t="n">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="M54" t="n">
         <v>102.325</v>
@@ -3694,16 +3668,14 @@
         <v>80.755</v>
       </c>
       <c r="I55" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J55" t="n">
-        <v>68</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>77.96666666666667</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="M55" t="n">
         <v>102.325</v>
@@ -3759,16 +3731,14 @@
         <v>82.93625</v>
       </c>
       <c r="I56" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J56" t="n">
-        <v>68.88888888888889</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>77.96666666666667</v>
+        <v>100</v>
       </c>
       <c r="L56" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="M56" t="n">
         <v>107</v>
@@ -3824,16 +3794,14 @@
         <v>82.7</v>
       </c>
       <c r="I57" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J57" t="n">
-        <v>68.875</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L57" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="M57" t="n">
         <v>107</v>
@@ -3889,16 +3857,14 @@
         <v>83.47555555555556</v>
       </c>
       <c r="I58" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J58" t="n">
-        <v>69.16666666666667</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>79.75</v>
+        <v>100</v>
       </c>
       <c r="L58" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="M58" t="n">
         <v>107.5</v>
@@ -3954,16 +3920,14 @@
         <v>83.995</v>
       </c>
       <c r="I59" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J59" t="n">
-        <v>69.16666666666667</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>79.75</v>
+        <v>100</v>
       </c>
       <c r="L59" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="M59" t="n">
         <v>107.5</v>
@@ -4019,16 +3983,14 @@
         <v>83.995</v>
       </c>
       <c r="I60" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J60" t="n">
-        <v>69</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="L60" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="M60" t="n">
         <v>107.5</v>
@@ -4084,16 +4046,14 @@
         <v>83.995</v>
       </c>
       <c r="I61" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J61" t="n">
-        <v>69</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="L61" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="M61" t="n">
         <v>107.5</v>
@@ -4149,16 +4109,14 @@
         <v>83.995</v>
       </c>
       <c r="I62" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J62" t="n">
-        <v>69</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="L62" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="M62" t="n">
         <v>107.5</v>
@@ -4214,16 +4172,14 @@
         <v>83.125</v>
       </c>
       <c r="I63" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J63" t="n">
-        <v>68.39999999999999</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="L63" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="M63" t="n">
         <v>105</v>
@@ -4279,16 +4235,14 @@
         <v>84.11111111111111</v>
       </c>
       <c r="I64" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J64" t="n">
-        <v>64.5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>79.40909090909091</v>
+        <v>100</v>
       </c>
       <c r="L64" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="M64" t="n">
         <v>105</v>
@@ -4344,16 +4298,14 @@
         <v>85.92999999999999</v>
       </c>
       <c r="I65" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J65" t="n">
-        <v>68.05500000000001</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>80.79400000000001</v>
+        <v>100</v>
       </c>
       <c r="L65" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="M65" t="n">
         <v>97</v>
@@ -4409,16 +4361,14 @@
         <v>86.98466666666667</v>
       </c>
       <c r="I66" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J66" t="n">
-        <v>68</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>81.3</v>
+        <v>100</v>
       </c>
       <c r="L66" t="n">
-        <v>94.25</v>
+        <v>115</v>
       </c>
       <c r="M66" t="n">
         <v>97</v>
@@ -4474,16 +4424,14 @@
         <v>88.643125</v>
       </c>
       <c r="I67" t="n">
-        <v>70</v>
-      </c>
-      <c r="J67" t="n">
-        <v>68</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="L67" t="n">
-        <v>98.41416666666667</v>
+        <v>115</v>
       </c>
       <c r="M67" t="n">
         <v>97</v>
@@ -4541,16 +4489,14 @@
         <v>95.61658536585367</v>
       </c>
       <c r="I68" t="n">
-        <v>70</v>
-      </c>
-      <c r="J68" t="n">
-        <v>70.40454545454546</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>84.95</v>
+        <v>100</v>
       </c>
       <c r="L68" t="n">
-        <v>105.2714285714286</v>
+        <v>115</v>
       </c>
       <c r="M68" t="n">
         <v>110</v>
@@ -4608,16 +4554,14 @@
         <v>96.73131147540983</v>
       </c>
       <c r="I69" t="n">
-        <v>70</v>
-      </c>
-      <c r="J69" t="n">
-        <v>70.9175</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>82.38</v>
+        <v>100</v>
       </c>
       <c r="L69" t="n">
-        <v>106.87375</v>
+        <v>115</v>
       </c>
       <c r="M69" t="n">
         <v>159.325</v>
@@ -4675,16 +4619,14 @@
         <v>90.24947368421053</v>
       </c>
       <c r="I70" t="n">
-        <v>70</v>
-      </c>
-      <c r="J70" t="n">
-        <v>69.05555555555556</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>79.57045454545454</v>
+        <v>100</v>
       </c>
       <c r="L70" t="n">
-        <v>100.9090909090909</v>
+        <v>115</v>
       </c>
       <c r="M70" t="n">
         <v>159.325</v>
@@ -4744,16 +4686,14 @@
         <v>93.6430303030303</v>
       </c>
       <c r="I71" t="n">
-        <v>70</v>
-      </c>
-      <c r="J71" t="n">
-        <v>69.6225</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>82.19090909090909</v>
+        <v>100</v>
       </c>
       <c r="L71" t="n">
-        <v>105.5</v>
+        <v>115</v>
       </c>
       <c r="M71" t="n">
         <v>106</v>
@@ -4813,16 +4753,14 @@
         <v>93.85981818181818</v>
       </c>
       <c r="I72" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J72" t="n">
-        <v>69.34307692307692</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>82.565</v>
+        <v>100</v>
       </c>
       <c r="L72" t="n">
-        <v>105.5833333333333</v>
+        <v>115</v>
       </c>
       <c r="M72" t="n">
         <v>106</v>
@@ -4882,16 +4820,14 @@
         <v>89.77933333333334</v>
       </c>
       <c r="I73" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J73" t="n">
-        <v>67.46428571428571</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>80.7590625</v>
+        <v>100</v>
       </c>
       <c r="L73" t="n">
-        <v>99.41466666666666</v>
+        <v>115</v>
       </c>
       <c r="M73" t="n">
         <v>111</v>
@@ -4951,16 +4887,14 @@
         <v>88.87617647058823</v>
       </c>
       <c r="I74" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J74" t="n">
-        <v>67.78571428571429</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>79.7769387755102</v>
+        <v>100</v>
       </c>
       <c r="L74" t="n">
-        <v>97.48</v>
+        <v>115</v>
       </c>
       <c r="M74" t="n">
         <v>111</v>
@@ -5020,16 +4954,14 @@
         <v>85.05632352941177</v>
       </c>
       <c r="I75" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J75" t="n">
-        <v>66.80833333333334</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>77.65283333333333</v>
+        <v>100</v>
       </c>
       <c r="L75" t="n">
-        <v>92.89999999999999</v>
+        <v>115</v>
       </c>
       <c r="M75" t="n">
         <v>103</v>
@@ -5089,16 +5021,14 @@
         <v>86.12666666666668</v>
       </c>
       <c r="I76" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J76" t="n">
-        <v>66.90416666666667</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>77.41666666666667</v>
+        <v>100</v>
       </c>
       <c r="L76" t="n">
-        <v>95.25</v>
+        <v>115</v>
       </c>
       <c r="M76" t="n">
         <v>108.5</v>
@@ -5158,16 +5088,14 @@
         <v>90.68212765957448</v>
       </c>
       <c r="I77" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J77" t="n">
-        <v>67.98076923076923</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>80.73218749999999</v>
+        <v>100</v>
       </c>
       <c r="L77" t="n">
-        <v>99.001875</v>
+        <v>115</v>
       </c>
       <c r="M77" t="n">
         <v>108.5</v>
@@ -5227,16 +5155,14 @@
         <v>96.72918367346938</v>
       </c>
       <c r="I78" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J78" t="n">
-        <v>68.72222222222223</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>84.36428571428571</v>
+        <v>100</v>
       </c>
       <c r="L78" t="n">
-        <v>107.1055172413793</v>
+        <v>115</v>
       </c>
       <c r="M78" t="n">
         <v>108.5</v>
@@ -5296,16 +5222,14 @@
         <v>95.73343749999999</v>
       </c>
       <c r="I79" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J79" t="n">
-        <v>67</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>83.93205128205128</v>
+        <v>100</v>
       </c>
       <c r="L79" t="n">
-        <v>107.6188888888889</v>
+        <v>115</v>
       </c>
       <c r="M79" t="n">
         <v>108.5</v>
@@ -5367,16 +5291,14 @@
         <v>99.5244776119403</v>
       </c>
       <c r="I80" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J80" t="n">
-        <v>68.33333333333333</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>85.8155</v>
+        <v>100</v>
       </c>
       <c r="L80" t="n">
-        <v>113.0117948717949</v>
+        <v>115</v>
       </c>
       <c r="M80" t="n">
         <v>108.5</v>
@@ -5440,16 +5362,14 @@
         <v>111.2851572327044</v>
       </c>
       <c r="I81" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J81" t="n">
-        <v>69.905</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>91.09575757575757</v>
+        <v>100</v>
       </c>
       <c r="L81" t="n">
-        <v>125.8727884615385</v>
+        <v>115</v>
       </c>
       <c r="M81" t="n">
         <v>108.5</v>
@@ -5513,16 +5433,14 @@
         <v>111.2851572327044</v>
       </c>
       <c r="I82" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J82" t="n">
-        <v>69.905</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>91.09575757575757</v>
+        <v>100</v>
       </c>
       <c r="L82" t="n">
-        <v>125.8727884615385</v>
+        <v>115</v>
       </c>
       <c r="M82" t="n">
         <v>108.5</v>
@@ -5586,16 +5504,14 @@
         <v>110.9675</v>
       </c>
       <c r="I83" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J83" t="n">
-        <v>69.94333333333334</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>92.2030303030303</v>
+        <v>100</v>
       </c>
       <c r="L83" t="n">
-        <v>130.7754716981132</v>
+        <v>115</v>
       </c>
       <c r="M83" t="n">
         <v>120</v>
@@ -5659,16 +5575,14 @@
         <v>107.7653947368421</v>
       </c>
       <c r="I84" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J84" t="n">
-        <v>69.15323529411765</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>88.65657142857143</v>
+        <v>100</v>
       </c>
       <c r="L84" t="n">
-        <v>127.7072413793103</v>
+        <v>115</v>
       </c>
       <c r="M84" t="n">
         <v>120</v>
@@ -5732,16 +5646,14 @@
         <v>106.7851219512195</v>
       </c>
       <c r="I85" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J85" t="n">
-        <v>68.97057142857142</v>
-      </c>
+        <v>130.6933333333334</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>88.10166666666667</v>
+        <v>100</v>
       </c>
       <c r="L85" t="n">
-        <v>126.2587804878049</v>
+        <v>115</v>
       </c>
       <c r="M85" t="n">
         <v>120</v>
@@ -5805,16 +5717,14 @@
         <v>109.2476811594203</v>
       </c>
       <c r="I86" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J86" t="n">
-        <v>70.49163265306123</v>
-      </c>
+        <v>130.6933333333334</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>89.99432432432432</v>
+        <v>100</v>
       </c>
       <c r="L86" t="n">
-        <v>128.4413461538462</v>
+        <v>115</v>
       </c>
       <c r="M86" t="n">
         <v>120</v>
@@ -5878,16 +5788,14 @@
         <v>115.3198765432099</v>
       </c>
       <c r="I87" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J87" t="n">
-        <v>70.52352941176471</v>
-      </c>
+        <v>130.6933333333334</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>95.02445945945946</v>
+        <v>100</v>
       </c>
       <c r="L87" t="n">
-        <v>134.3290607734807</v>
+        <v>115</v>
       </c>
       <c r="M87" t="n">
         <v>120</v>
@@ -5951,16 +5859,14 @@
         <v>134.9989583333333</v>
       </c>
       <c r="I88" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J88" t="n">
-        <v>74.10395833333332</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>113.6128099173554</v>
+        <v>100</v>
       </c>
       <c r="L88" t="n">
-        <v>158.9619230769231</v>
+        <v>115</v>
       </c>
       <c r="M88" t="n">
         <v>120</v>
@@ -6024,16 +5930,14 @@
         <v>166.6695726495726</v>
       </c>
       <c r="I89" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J89" t="n">
-        <v>76.63704918032786</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>146.1977659574468</v>
+        <v>100</v>
       </c>
       <c r="L89" t="n">
-        <v>184.10796875</v>
+        <v>191.005</v>
       </c>
       <c r="M89" t="n">
         <v>120</v>
@@ -6097,16 +6001,14 @@
         <v>157.9772093023256</v>
       </c>
       <c r="I90" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J90" t="n">
-        <v>73.33879999999999</v>
-      </c>
+        <v>185.1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>140.0048905109489</v>
+        <v>100</v>
       </c>
       <c r="L90" t="n">
-        <v>179.4702197802198</v>
+        <v>191.005</v>
       </c>
       <c r="M90" t="n">
         <v>120</v>
@@ -6170,16 +6072,14 @@
         <v>157.9139393939394</v>
       </c>
       <c r="I91" t="n">
-        <v>67.83799999999999</v>
-      </c>
-      <c r="J91" t="n">
-        <v>75.88549019607842</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>138.9766666666667</v>
+        <v>100</v>
       </c>
       <c r="L91" t="n">
-        <v>177.5528787878788</v>
+        <v>177.325</v>
       </c>
       <c r="M91" t="n">
         <v>120</v>
@@ -6243,16 +6143,16 @@
         <v>154.9448148148148</v>
       </c>
       <c r="I92" t="n">
-        <v>67.83799999999999</v>
+        <v>165</v>
       </c>
       <c r="J92" t="n">
-        <v>74.9148275862069</v>
+        <v>140</v>
       </c>
       <c r="K92" t="n">
-        <v>135.4209433962264</v>
+        <v>100</v>
       </c>
       <c r="L92" t="n">
-        <v>174.2733333333333</v>
+        <v>177.325</v>
       </c>
       <c r="M92" t="n">
         <v>120</v>
@@ -6316,16 +6216,16 @@
         <v>147.1722222222222</v>
       </c>
       <c r="I93" t="n">
-        <v>67.83799999999999</v>
+        <v>150</v>
       </c>
       <c r="J93" t="n">
-        <v>74.16111111111111</v>
+        <v>140</v>
       </c>
       <c r="K93" t="n">
-        <v>128.6016666666667</v>
+        <v>100</v>
       </c>
       <c r="L93" t="n">
-        <v>167.19046875</v>
+        <v>177.325</v>
       </c>
       <c r="M93" t="n">
         <v>120</v>
@@ -6389,16 +6289,16 @@
         <v>158.4319444444444</v>
       </c>
       <c r="I94" t="n">
-        <v>67.83799999999999</v>
+        <v>150</v>
       </c>
       <c r="J94" t="n">
-        <v>75.8592</v>
+        <v>140</v>
       </c>
       <c r="K94" t="n">
-        <v>136.0265100671141</v>
+        <v>100</v>
       </c>
       <c r="L94" t="n">
-        <v>179.9542857142857</v>
+        <v>177.325</v>
       </c>
       <c r="M94" t="n">
         <v>120</v>
@@ -6462,16 +6362,16 @@
         <v>164.5596</v>
       </c>
       <c r="I95" t="n">
-        <v>67.83799999999999</v>
+        <v>150</v>
       </c>
       <c r="J95" t="n">
-        <v>77.45294117647059</v>
+        <v>140</v>
       </c>
       <c r="K95" t="n">
-        <v>146.2514503816794</v>
+        <v>100</v>
       </c>
       <c r="L95" t="n">
-        <v>186.4590909090909</v>
+        <v>177.325</v>
       </c>
       <c r="M95" t="n">
         <v>120</v>
@@ -6535,16 +6435,16 @@
         <v>159.7632</v>
       </c>
       <c r="I96" t="n">
-        <v>67.83799999999999</v>
+        <v>150</v>
       </c>
       <c r="J96" t="n">
-        <v>76.13925925925926</v>
+        <v>140</v>
       </c>
       <c r="K96" t="n">
-        <v>139.6658536585366</v>
+        <v>100</v>
       </c>
       <c r="L96" t="n">
-        <v>180.0119512195122</v>
+        <v>177.325</v>
       </c>
       <c r="M96" t="n">
         <v>120</v>
@@ -6608,16 +6508,16 @@
         <v>162.12</v>
       </c>
       <c r="I97" t="n">
-        <v>67.83799999999999</v>
+        <v>150</v>
       </c>
       <c r="J97" t="n">
-        <v>76.6557142857143</v>
+        <v>140</v>
       </c>
       <c r="K97" t="n">
-        <v>140.4725925925926</v>
+        <v>100</v>
       </c>
       <c r="L97" t="n">
-        <v>182.1969444444445</v>
+        <v>177.325</v>
       </c>
       <c r="M97" t="n">
         <v>120</v>
@@ -6681,16 +6581,16 @@
         <v>153.6395833333333</v>
       </c>
       <c r="I98" t="n">
-        <v>67.83799999999999</v>
+        <v>157.5</v>
       </c>
       <c r="J98" t="n">
-        <v>74.26666666666667</v>
+        <v>140</v>
       </c>
       <c r="K98" t="n">
-        <v>134.1602608695652</v>
+        <v>100</v>
       </c>
       <c r="L98" t="n">
-        <v>174.3914457831325</v>
+        <v>177.325</v>
       </c>
       <c r="M98" t="n">
         <v>120</v>
@@ -6754,16 +6654,16 @@
         <v>138.2097247706422</v>
       </c>
       <c r="I99" t="n">
-        <v>67.83799999999999</v>
+        <v>145</v>
       </c>
       <c r="J99" t="n">
-        <v>71.17588235294117</v>
+        <v>140</v>
       </c>
       <c r="K99" t="n">
-        <v>120.6092352941176</v>
+        <v>100</v>
       </c>
       <c r="L99" t="n">
-        <v>157.9024369747899</v>
+        <v>177.325</v>
       </c>
       <c r="M99" t="n">
         <v>120</v>
@@ -6827,16 +6727,16 @@
         <v>140.6379411764706</v>
       </c>
       <c r="I100" t="n">
-        <v>67.83799999999999</v>
+        <v>145</v>
       </c>
       <c r="J100" t="n">
-        <v>72.4875</v>
+        <v>140</v>
       </c>
       <c r="K100" t="n">
-        <v>116.7217647058824</v>
+        <v>100</v>
       </c>
       <c r="L100" t="n">
-        <v>157.9007692307692</v>
+        <v>177.325</v>
       </c>
       <c r="M100" t="n">
         <v>120</v>
@@ -6900,16 +6800,16 @@
         <v>138.61</v>
       </c>
       <c r="I101" t="n">
-        <v>67.83799999999999</v>
+        <v>139.75</v>
       </c>
       <c r="J101" t="n">
-        <v>72.205</v>
+        <v>140</v>
       </c>
       <c r="K101" t="n">
-        <v>117.1116379310345</v>
+        <v>100</v>
       </c>
       <c r="L101" t="n">
-        <v>157.5224444444445</v>
+        <v>177.325</v>
       </c>
       <c r="M101" t="n">
         <v>120</v>
@@ -6973,16 +6873,16 @@
         <v>147.6166666666667</v>
       </c>
       <c r="I102" t="n">
-        <v>67.83799999999999</v>
+        <v>139.75</v>
       </c>
       <c r="J102" t="n">
-        <v>74.73333333333333</v>
+        <v>140</v>
       </c>
       <c r="K102" t="n">
-        <v>126.287037037037</v>
+        <v>100</v>
       </c>
       <c r="L102" t="n">
-        <v>169.3</v>
+        <v>177.325</v>
       </c>
       <c r="M102" t="n">
         <v>120</v>
@@ -7046,16 +6946,16 @@
         <v>147.5516129032258</v>
       </c>
       <c r="I103" t="n">
-        <v>67.83799999999999</v>
+        <v>152</v>
       </c>
       <c r="J103" t="n">
-        <v>77.15555555555555</v>
+        <v>140</v>
       </c>
       <c r="K103" t="n">
-        <v>126.9850574712644</v>
+        <v>100</v>
       </c>
       <c r="L103" t="n">
-        <v>167.8631428571429</v>
+        <v>177.325</v>
       </c>
       <c r="M103" t="n">
         <v>120</v>
@@ -7119,16 +7019,16 @@
         <v>151.2335294117647</v>
       </c>
       <c r="I104" t="n">
-        <v>67.83799999999999</v>
+        <v>155.625</v>
       </c>
       <c r="J104" t="n">
-        <v>79.78918918918919</v>
+        <v>140</v>
       </c>
       <c r="K104" t="n">
-        <v>130.3195161290323</v>
+        <v>100</v>
       </c>
       <c r="L104" t="n">
-        <v>171.5811111111111</v>
+        <v>177.325</v>
       </c>
       <c r="M104" t="n">
         <v>120</v>
@@ -7192,16 +7092,16 @@
         <v>153.5968965517241</v>
       </c>
       <c r="I105" t="n">
-        <v>67.83799999999999</v>
+        <v>151</v>
       </c>
       <c r="J105" t="n">
-        <v>79.30921052631579</v>
+        <v>140</v>
       </c>
       <c r="K105" t="n">
-        <v>132.2443548387097</v>
+        <v>100</v>
       </c>
       <c r="L105" t="n">
-        <v>171.4761904761905</v>
+        <v>177.325</v>
       </c>
       <c r="M105" t="n">
         <v>120</v>
@@ -7265,16 +7165,16 @@
         <v>148.94</v>
       </c>
       <c r="I106" t="n">
-        <v>67.83799999999999</v>
+        <v>150</v>
       </c>
       <c r="J106" t="n">
-        <v>78.44533333333334</v>
+        <v>140</v>
       </c>
       <c r="K106" t="n">
-        <v>126.4451282051282</v>
+        <v>100</v>
       </c>
       <c r="L106" t="n">
-        <v>169.0246153846154</v>
+        <v>177.325</v>
       </c>
       <c r="M106" t="n">
         <v>120</v>
@@ -7338,16 +7238,16 @@
         <v>147.294375</v>
       </c>
       <c r="I107" t="n">
-        <v>67.83799999999999</v>
+        <v>149</v>
       </c>
       <c r="J107" t="n">
-        <v>79.29857142857144</v>
+        <v>140</v>
       </c>
       <c r="K107" t="n">
-        <v>126.9923684210526</v>
+        <v>100</v>
       </c>
       <c r="L107" t="n">
-        <v>167.2823076923077</v>
+        <v>177.325</v>
       </c>
       <c r="M107" t="n">
         <v>120</v>
@@ -7411,16 +7311,16 @@
         <v>153.2423529411765</v>
       </c>
       <c r="I108" t="n">
-        <v>67.83799999999999</v>
+        <v>149</v>
       </c>
       <c r="J108" t="n">
-        <v>80.84529411764707</v>
+        <v>140</v>
       </c>
       <c r="K108" t="n">
-        <v>133.3383908045977</v>
+        <v>100</v>
       </c>
       <c r="L108" t="n">
-        <v>172.698</v>
+        <v>177.325</v>
       </c>
       <c r="M108" t="n">
         <v>120</v>
@@ -7484,16 +7384,16 @@
         <v>159.2897222222222</v>
       </c>
       <c r="I109" t="n">
-        <v>67.83799999999999</v>
+        <v>154.75</v>
       </c>
       <c r="J109" t="n">
-        <v>84.00399999999999</v>
+        <v>140</v>
       </c>
       <c r="K109" t="n">
-        <v>139.6338461538462</v>
+        <v>100</v>
       </c>
       <c r="L109" t="n">
-        <v>178.5269090909091</v>
+        <v>177.325</v>
       </c>
       <c r="M109" t="n">
         <v>120</v>
@@ -7557,16 +7457,16 @@
         <v>166.5228947368421</v>
       </c>
       <c r="I110" t="n">
-        <v>67.83799999999999</v>
+        <v>162</v>
       </c>
       <c r="J110" t="n">
-        <v>87.36133333333333</v>
+        <v>140</v>
       </c>
       <c r="K110" t="n">
-        <v>148.5520792079208</v>
+        <v>100</v>
       </c>
       <c r="L110" t="n">
-        <v>187.1764285714286</v>
+        <v>177.325</v>
       </c>
       <c r="M110" t="n">
         <v>120</v>
@@ -7630,16 +7530,16 @@
         <v>165.7305555555556</v>
       </c>
       <c r="I111" t="n">
-        <v>67.83799999999999</v>
+        <v>162</v>
       </c>
       <c r="J111" t="n">
-        <v>85.56</v>
+        <v>140</v>
       </c>
       <c r="K111" t="n">
-        <v>146.7559302325581</v>
+        <v>100</v>
       </c>
       <c r="L111" t="n">
-        <v>186.7737777777778</v>
+        <v>177.325</v>
       </c>
       <c r="M111" t="n">
         <v>120</v>
@@ -7703,16 +7603,16 @@
         <v>164.899</v>
       </c>
       <c r="I112" t="n">
-        <v>67.83799999999999</v>
+        <v>162</v>
       </c>
       <c r="J112" t="n">
-        <v>84.17470588235294</v>
+        <v>140</v>
       </c>
       <c r="K112" t="n">
-        <v>147.5442045454545</v>
+        <v>100</v>
       </c>
       <c r="L112" t="n">
-        <v>185.1758333333333</v>
+        <v>177.325</v>
       </c>
       <c r="M112" t="n">
         <v>120</v>
@@ -7776,16 +7676,16 @@
         <v>160.9636363636364</v>
       </c>
       <c r="I113" t="n">
-        <v>67.83799999999999</v>
+        <v>162</v>
       </c>
       <c r="J113" t="n">
-        <v>83.52352941176471</v>
+        <v>140</v>
       </c>
       <c r="K113" t="n">
-        <v>144.0026923076923</v>
+        <v>100</v>
       </c>
       <c r="L113" t="n">
-        <v>179.7327272727273</v>
+        <v>177.325</v>
       </c>
       <c r="M113" t="n">
         <v>120</v>
@@ -7849,16 +7749,16 @@
         <v>151.9960714285714</v>
       </c>
       <c r="I114" t="n">
-        <v>67.83799999999999</v>
+        <v>162</v>
       </c>
       <c r="J114" t="n">
-        <v>78.83076923076922</v>
+        <v>140</v>
       </c>
       <c r="K114" t="n">
-        <v>135.8840566037736</v>
+        <v>100</v>
       </c>
       <c r="L114" t="n">
-        <v>168.3448888888889</v>
+        <v>177.325</v>
       </c>
       <c r="M114" t="n">
         <v>120</v>
@@ -7922,16 +7822,16 @@
         <v>154.2833333333333</v>
       </c>
       <c r="I115" t="n">
-        <v>67.83799999999999</v>
+        <v>162</v>
       </c>
       <c r="J115" t="n">
-        <v>78.58571428571429</v>
+        <v>140</v>
       </c>
       <c r="K115" t="n">
-        <v>137.5202857142857</v>
+        <v>100</v>
       </c>
       <c r="L115" t="n">
-        <v>171.2307272727273</v>
+        <v>177.325</v>
       </c>
       <c r="M115" t="n">
         <v>120</v>
@@ -7995,16 +7895,16 @@
         <v>144.8608695652174</v>
       </c>
       <c r="I116" t="n">
-        <v>67.83799999999999</v>
+        <v>145</v>
       </c>
       <c r="J116" t="n">
-        <v>75.46428571428571</v>
+        <v>140</v>
       </c>
       <c r="K116" t="n">
-        <v>129.1692380952381</v>
+        <v>100</v>
       </c>
       <c r="L116" t="n">
-        <v>159.549358974359</v>
+        <v>177.325</v>
       </c>
       <c r="M116" t="n">
         <v>120</v>
@@ -8068,16 +7968,16 @@
         <v>132.5485</v>
       </c>
       <c r="I117" t="n">
-        <v>67.83799999999999</v>
+        <v>145</v>
       </c>
       <c r="J117" t="n">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="K117" t="n">
-        <v>118.4378260869565</v>
+        <v>100</v>
       </c>
       <c r="L117" t="n">
-        <v>148.1596268656716</v>
+        <v>177.325</v>
       </c>
       <c r="M117" t="n">
         <v>120</v>
@@ -8141,16 +8041,16 @@
         <v>120.143275862069</v>
       </c>
       <c r="I118" t="n">
-        <v>67.83799999999999</v>
+        <v>131.198</v>
       </c>
       <c r="J118" t="n">
-        <v>69.3</v>
+        <v>109.5</v>
       </c>
       <c r="K118" t="n">
-        <v>108.6959776536313</v>
+        <v>100</v>
       </c>
       <c r="L118" t="n">
-        <v>134.0439416058394</v>
+        <v>177.325</v>
       </c>
       <c r="M118" t="n">
         <v>120</v>
@@ -8214,16 +8114,16 @@
         <v>132.1272222222222</v>
       </c>
       <c r="I119" t="n">
-        <v>67.83799999999999</v>
+        <v>137.3333333333333</v>
       </c>
       <c r="J119" t="n">
-        <v>70.56066666666668</v>
+        <v>109.5</v>
       </c>
       <c r="K119" t="n">
-        <v>116.9838297872341</v>
+        <v>100</v>
       </c>
       <c r="L119" t="n">
-        <v>144.7827722772277</v>
+        <v>177.325</v>
       </c>
       <c r="M119" t="n">
         <v>120</v>
@@ -8287,16 +8187,16 @@
         <v>137.3836111111111</v>
       </c>
       <c r="I120" t="n">
-        <v>67.83799999999999</v>
+        <v>142</v>
       </c>
       <c r="J120" t="n">
-        <v>73.09999999999999</v>
+        <v>109.5</v>
       </c>
       <c r="K120" t="n">
-        <v>124.6596551724138</v>
+        <v>100</v>
       </c>
       <c r="L120" t="n">
-        <v>154.9871428571429</v>
+        <v>177.325</v>
       </c>
       <c r="M120" t="n">
         <v>120</v>
@@ -8360,16 +8260,16 @@
         <v>150.1111111111111</v>
       </c>
       <c r="I121" t="n">
-        <v>67.83799999999999</v>
+        <v>144</v>
       </c>
       <c r="J121" t="n">
-        <v>75.84999999999999</v>
+        <v>109.5</v>
       </c>
       <c r="K121" t="n">
-        <v>133.880931372549</v>
+        <v>100</v>
       </c>
       <c r="L121" t="n">
-        <v>164.45</v>
+        <v>177.325</v>
       </c>
       <c r="M121" t="n">
         <v>120</v>
@@ -8433,16 +8333,16 @@
         <v>146.689</v>
       </c>
       <c r="I122" t="n">
-        <v>67.83799999999999</v>
+        <v>144</v>
       </c>
       <c r="J122" t="n">
-        <v>76</v>
+        <v>109.5</v>
       </c>
       <c r="K122" t="n">
-        <v>140.5012087912088</v>
+        <v>100</v>
       </c>
       <c r="L122" t="n">
-        <v>168.1404819277109</v>
+        <v>177.325</v>
       </c>
       <c r="M122" t="n">
         <v>120</v>
@@ -8506,16 +8406,16 @@
         <v>147.3958333333333</v>
       </c>
       <c r="I123" t="n">
-        <v>67.83799999999999</v>
+        <v>152.5</v>
       </c>
       <c r="J123" t="n">
-        <v>73.16666666666667</v>
+        <v>109.5</v>
       </c>
       <c r="K123" t="n">
-        <v>136.437265625</v>
+        <v>100</v>
       </c>
       <c r="L123" t="n">
-        <v>161.0813580246914</v>
+        <v>177.325</v>
       </c>
       <c r="M123" t="n">
         <v>120</v>
@@ -8579,16 +8479,16 @@
         <v>136.0045833333333</v>
       </c>
       <c r="I124" t="n">
-        <v>67.83799999999999</v>
+        <v>140</v>
       </c>
       <c r="J124" t="n">
-        <v>69.5</v>
+        <v>109.5</v>
       </c>
       <c r="K124" t="n">
-        <v>126.7428313253012</v>
+        <v>100</v>
       </c>
       <c r="L124" t="n">
-        <v>149.7661111111111</v>
+        <v>177.325</v>
       </c>
       <c r="M124" t="n">
         <v>120</v>
@@ -8652,16 +8552,16 @@
         <v>123.84</v>
       </c>
       <c r="I125" t="n">
-        <v>67.83799999999999</v>
+        <v>140</v>
       </c>
       <c r="J125" t="n">
-        <v>70</v>
+        <v>109.5</v>
       </c>
       <c r="K125" t="n">
-        <v>112.9129113924051</v>
+        <v>100</v>
       </c>
       <c r="L125" t="n">
-        <v>137.6926582278481</v>
+        <v>177.325</v>
       </c>
       <c r="M125" t="n">
         <v>120</v>
@@ -8725,16 +8625,16 @@
         <v>126.5884615384615</v>
       </c>
       <c r="I126" t="n">
-        <v>67.83799999999999</v>
+        <v>140</v>
       </c>
       <c r="J126" t="n">
-        <v>70</v>
+        <v>114.25</v>
       </c>
       <c r="K126" t="n">
-        <v>115.1426315789474</v>
+        <v>100</v>
       </c>
       <c r="L126" t="n">
-        <v>138.8971830985916</v>
+        <v>177.325</v>
       </c>
       <c r="M126" t="n">
         <v>120</v>
@@ -8798,16 +8698,16 @@
         <v>119.294375</v>
       </c>
       <c r="I127" t="n">
-        <v>67.83799999999999</v>
+        <v>129.625</v>
       </c>
       <c r="J127" t="n">
-        <v>65</v>
+        <v>114.25</v>
       </c>
       <c r="K127" t="n">
-        <v>106.9330817610063</v>
+        <v>100</v>
       </c>
       <c r="L127" t="n">
-        <v>131.8173394495413</v>
+        <v>177.325</v>
       </c>
       <c r="M127" t="n">
         <v>120</v>
@@ -8871,16 +8771,16 @@
         <v>110.4814814814815</v>
       </c>
       <c r="I128" t="n">
-        <v>67.83799999999999</v>
+        <v>126.1666666666667</v>
       </c>
       <c r="J128" t="n">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="K128" t="n">
-        <v>100.590652173913</v>
+        <v>100</v>
       </c>
       <c r="L128" t="n">
-        <v>121.5054444444444</v>
+        <v>177.325</v>
       </c>
       <c r="M128" t="n">
         <v>120</v>
@@ -8944,16 +8844,16 @@
         <v>115.2333333333333</v>
       </c>
       <c r="I129" t="n">
-        <v>67.83799999999999</v>
+        <v>132</v>
       </c>
       <c r="J129" t="n">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="K129" t="n">
-        <v>104.1882</v>
+        <v>100</v>
       </c>
       <c r="L129" t="n">
-        <v>127.91328125</v>
+        <v>177.325</v>
       </c>
       <c r="M129" t="n">
         <v>120</v>
@@ -9017,16 +8917,16 @@
         <v>93.10354838709678</v>
       </c>
       <c r="I130" t="n">
-        <v>67.83799999999999</v>
+        <v>112.75</v>
       </c>
       <c r="J130" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="K130" t="n">
-        <v>83.29418439716312</v>
+        <v>100</v>
       </c>
       <c r="L130" t="n">
-        <v>102.9786861313869</v>
+        <v>177.325</v>
       </c>
       <c r="M130" t="n">
         <v>120</v>
@@ -9090,16 +8990,16 @@
         <v>90.99583333333334</v>
       </c>
       <c r="I131" t="n">
-        <v>67.83799999999999</v>
+        <v>115.6875</v>
       </c>
       <c r="J131" t="n">
-        <v>64.32000000000001</v>
+        <v>96</v>
       </c>
       <c r="K131" t="n">
-        <v>80.6875</v>
+        <v>100</v>
       </c>
       <c r="L131" t="n">
-        <v>104.4654545454545</v>
+        <v>177.325</v>
       </c>
       <c r="M131" t="n">
         <v>120</v>
@@ -9163,16 +9063,16 @@
         <v>95.47499999999999</v>
       </c>
       <c r="I132" t="n">
-        <v>67.83799999999999</v>
+        <v>121.6</v>
       </c>
       <c r="J132" t="n">
-        <v>63.5875</v>
+        <v>100</v>
       </c>
       <c r="K132" t="n">
-        <v>83.7021568627451</v>
+        <v>100</v>
       </c>
       <c r="L132" t="n">
-        <v>108.8416455696203</v>
+        <v>177.325</v>
       </c>
       <c r="M132" t="n">
         <v>120</v>
@@ -9236,16 +9136,16 @@
         <v>98.58500000000001</v>
       </c>
       <c r="I133" t="n">
-        <v>67.83799999999999</v>
+        <v>125.3583333333333</v>
       </c>
       <c r="J133" t="n">
-        <v>63.5</v>
+        <v>100</v>
       </c>
       <c r="K133" t="n">
-        <v>85.49795454545455</v>
+        <v>100</v>
       </c>
       <c r="L133" t="n">
-        <v>112.2051034482759</v>
+        <v>177.325</v>
       </c>
       <c r="M133" t="n">
         <v>120</v>
@@ -9309,16 +9209,16 @@
         <v>102.9375</v>
       </c>
       <c r="I134" t="n">
-        <v>67.83799999999999</v>
+        <v>126.5</v>
       </c>
       <c r="J134" t="n">
-        <v>63.5</v>
+        <v>102</v>
       </c>
       <c r="K134" t="n">
-        <v>87.05344827586208</v>
+        <v>100</v>
       </c>
       <c r="L134" t="n">
-        <v>117.0603225806452</v>
+        <v>146</v>
       </c>
       <c r="M134" t="n">
         <v>120</v>
@@ -9382,16 +9282,16 @@
         <v>93</v>
       </c>
       <c r="I135" t="n">
-        <v>67.83799999999999</v>
+        <v>122</v>
       </c>
       <c r="J135" t="n">
-        <v>63.5</v>
+        <v>98</v>
       </c>
       <c r="K135" t="n">
-        <v>82.28060606060606</v>
+        <v>100</v>
       </c>
       <c r="L135" t="n">
-        <v>108.96</v>
+        <v>146</v>
       </c>
       <c r="M135" t="n">
         <v>120</v>
@@ -9455,16 +9355,16 @@
         <v>91.66666666666667</v>
       </c>
       <c r="I136" t="n">
-        <v>67.83799999999999</v>
+        <v>115.375</v>
       </c>
       <c r="J136" t="n">
-        <v>62.875</v>
+        <v>94</v>
       </c>
       <c r="K136" t="n">
-        <v>78.26558823529412</v>
+        <v>100</v>
       </c>
       <c r="L136" t="n">
-        <v>103.9594117647059</v>
+        <v>146</v>
       </c>
       <c r="M136" t="n">
         <v>120</v>
@@ -9528,16 +9428,16 @@
         <v>91.5</v>
       </c>
       <c r="I137" t="n">
-        <v>67.83799999999999</v>
+        <v>114.8571428571429</v>
       </c>
       <c r="J137" t="n">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="K137" t="n">
-        <v>77.55</v>
+        <v>100</v>
       </c>
       <c r="L137" t="n">
-        <v>103.7788311688312</v>
+        <v>146</v>
       </c>
       <c r="M137" t="n">
         <v>120</v>
@@ -9601,16 +9501,16 @@
         <v>90</v>
       </c>
       <c r="I138" t="n">
-        <v>67.83799999999999</v>
+        <v>116.1</v>
       </c>
       <c r="J138" t="n">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="K138" t="n">
-        <v>76.53125</v>
+        <v>100</v>
       </c>
       <c r="L138" t="n">
-        <v>101.9594642857143</v>
+        <v>146</v>
       </c>
       <c r="M138" t="n">
         <v>120</v>
@@ -9674,16 +9574,16 @@
         <v>88.75</v>
       </c>
       <c r="I139" t="n">
-        <v>67.83799999999999</v>
+        <v>116.1</v>
       </c>
       <c r="J139" t="n">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="K139" t="n">
-        <v>76.68333333333332</v>
+        <v>100</v>
       </c>
       <c r="L139" t="n">
-        <v>102.864347826087</v>
+        <v>146</v>
       </c>
       <c r="M139" t="n">
         <v>120</v>
@@ -9747,16 +9647,16 @@
         <v>84.53714285714285</v>
       </c>
       <c r="I140" t="n">
-        <v>67.83799999999999</v>
+        <v>111.6546153846154</v>
       </c>
       <c r="J140" t="n">
-        <v>62.5</v>
+        <v>94</v>
       </c>
       <c r="K140" t="n">
-        <v>72.48352941176471</v>
+        <v>100</v>
       </c>
       <c r="L140" t="n">
-        <v>97.43596774193549</v>
+        <v>146</v>
       </c>
       <c r="M140" t="n">
         <v>120</v>
@@ -9820,16 +9720,16 @@
         <v>80</v>
       </c>
       <c r="I141" t="n">
-        <v>67.83799999999999</v>
+        <v>108.0177777777778</v>
       </c>
       <c r="J141" t="n">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="K141" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="L141" t="n">
-        <v>92.53148148148148</v>
+        <v>146</v>
       </c>
       <c r="M141" t="n">
         <v>120</v>
@@ -9893,16 +9793,16 @@
         <v>80.75</v>
       </c>
       <c r="I142" t="n">
-        <v>67.83799999999999</v>
+        <v>108.45</v>
       </c>
       <c r="J142" t="n">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="K142" t="n">
-        <v>70.55272727272728</v>
+        <v>100</v>
       </c>
       <c r="L142" t="n">
-        <v>91.18298701298701</v>
+        <v>146</v>
       </c>
       <c r="M142" t="n">
         <v>120</v>
@@ -9966,16 +9866,16 @@
         <v>82.25</v>
       </c>
       <c r="I143" t="n">
-        <v>67.83799999999999</v>
+        <v>111.4444444444444</v>
       </c>
       <c r="J143" t="n">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="K143" t="n">
-        <v>71.05666666666667</v>
+        <v>100</v>
       </c>
       <c r="L143" t="n">
-        <v>96.35022222222223</v>
+        <v>146</v>
       </c>
       <c r="M143" t="n">
         <v>120</v>
@@ -10039,16 +9939,16 @@
         <v>81</v>
       </c>
       <c r="I144" t="n">
-        <v>67.83799999999999</v>
+        <v>111.5</v>
       </c>
       <c r="J144" t="n">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="K144" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="L144" t="n">
-        <v>93.69</v>
+        <v>146</v>
       </c>
       <c r="M144" t="n">
         <v>120</v>
@@ -10112,16 +10012,16 @@
         <v>84.09999999999999</v>
       </c>
       <c r="I145" t="n">
-        <v>67.83799999999999</v>
+        <v>115</v>
       </c>
       <c r="J145" t="n">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="K145" t="n">
-        <v>72.45833333333333</v>
+        <v>100</v>
       </c>
       <c r="L145" t="n">
-        <v>96.30311688311689</v>
+        <v>146</v>
       </c>
       <c r="M145" t="n">
         <v>120</v>
@@ -10185,16 +10085,16 @@
         <v>85</v>
       </c>
       <c r="I146" t="n">
-        <v>67.83799999999999</v>
+        <v>115.5</v>
       </c>
       <c r="J146" t="n">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="K146" t="n">
-        <v>73.04625</v>
+        <v>100</v>
       </c>
       <c r="L146" t="n">
-        <v>97.96542372881356</v>
+        <v>146</v>
       </c>
       <c r="M146" t="n">
         <v>120</v>
@@ -10258,16 +10158,16 @@
         <v>86.11428571428571</v>
       </c>
       <c r="I147" t="n">
-        <v>67.83799999999999</v>
+        <v>119.8</v>
       </c>
       <c r="J147" t="n">
-        <v>62</v>
+        <v>101.375</v>
       </c>
       <c r="K147" t="n">
-        <v>73.98625</v>
+        <v>100</v>
       </c>
       <c r="L147" t="n">
-        <v>99.65230769230769</v>
+        <v>146</v>
       </c>
       <c r="M147" t="n">
         <v>120</v>
@@ -10331,16 +10231,16 @@
         <v>83.50166666666667</v>
       </c>
       <c r="I148" t="n">
-        <v>67.83799999999999</v>
+        <v>119.8</v>
       </c>
       <c r="J148" t="n">
-        <v>62</v>
+        <v>101.375</v>
       </c>
       <c r="K148" t="n">
-        <v>72.02500000000001</v>
+        <v>100</v>
       </c>
       <c r="L148" t="n">
-        <v>96.85235294117648</v>
+        <v>146</v>
       </c>
       <c r="M148" t="n">
         <v>120</v>
@@ -10404,16 +10304,16 @@
         <v>85.16666666666667</v>
       </c>
       <c r="I149" t="n">
-        <v>67.83799999999999</v>
+        <v>123.2</v>
       </c>
       <c r="J149" t="n">
-        <v>62</v>
+        <v>101.375</v>
       </c>
       <c r="K149" t="n">
-        <v>73.69666666666667</v>
+        <v>100</v>
       </c>
       <c r="L149" t="n">
-        <v>100.9767938931298</v>
+        <v>146</v>
       </c>
       <c r="M149" t="n">
         <v>120</v>
@@ -10477,16 +10377,16 @@
         <v>93.45</v>
       </c>
       <c r="I150" t="n">
-        <v>67.83799999999999</v>
+        <v>130.18</v>
       </c>
       <c r="J150" t="n">
-        <v>62</v>
+        <v>101.375</v>
       </c>
       <c r="K150" t="n">
-        <v>75.97592592592592</v>
+        <v>100</v>
       </c>
       <c r="L150" t="n">
-        <v>110.943052631579</v>
+        <v>146</v>
       </c>
       <c r="M150" t="n">
         <v>120</v>
@@ -10550,16 +10450,16 @@
         <v>90.5</v>
       </c>
       <c r="I151" t="n">
-        <v>67.83799999999999</v>
+        <v>125</v>
       </c>
       <c r="J151" t="n">
-        <v>62</v>
+        <v>101.375</v>
       </c>
       <c r="K151" t="n">
-        <v>74.36666666666666</v>
+        <v>100</v>
       </c>
       <c r="L151" t="n">
-        <v>109.0183636363636</v>
+        <v>146</v>
       </c>
       <c r="M151" t="n">
         <v>120</v>
@@ -10623,16 +10523,16 @@
         <v>93.75</v>
       </c>
       <c r="I152" t="n">
-        <v>67.83799999999999</v>
+        <v>130</v>
       </c>
       <c r="J152" t="n">
-        <v>62</v>
+        <v>101.375</v>
       </c>
       <c r="K152" t="n">
-        <v>75.93478260869566</v>
+        <v>100</v>
       </c>
       <c r="L152" t="n">
-        <v>114.0591549295775</v>
+        <v>146</v>
       </c>
       <c r="M152" t="n">
         <v>120</v>
@@ -10696,16 +10596,16 @@
         <v>96</v>
       </c>
       <c r="I153" t="n">
-        <v>67.83799999999999</v>
+        <v>129.6666666666667</v>
       </c>
       <c r="J153" t="n">
-        <v>62</v>
+        <v>101.375</v>
       </c>
       <c r="K153" t="n">
-        <v>75.69615384615385</v>
+        <v>100</v>
       </c>
       <c r="L153" t="n">
-        <v>115.1767415730337</v>
+        <v>146</v>
       </c>
       <c r="M153" t="n">
         <v>120</v>
@@ -10769,16 +10669,16 @@
         <v>97.25</v>
       </c>
       <c r="I154" t="n">
-        <v>67.83799999999999</v>
+        <v>134.4105555555556</v>
       </c>
       <c r="J154" t="n">
-        <v>62</v>
+        <v>104.2142857142857</v>
       </c>
       <c r="K154" t="n">
-        <v>78.13951219512195</v>
+        <v>100</v>
       </c>
       <c r="L154" t="n">
-        <v>119.1068508287293</v>
+        <v>146</v>
       </c>
       <c r="M154" t="n">
         <v>120</v>
@@ -10842,16 +10742,16 @@
         <v>106.7853571428572</v>
       </c>
       <c r="I155" t="n">
-        <v>67.83799999999999</v>
+        <v>137.9</v>
       </c>
       <c r="J155" t="n">
-        <v>62</v>
+        <v>106.15</v>
       </c>
       <c r="K155" t="n">
-        <v>87.74199999999999</v>
+        <v>100</v>
       </c>
       <c r="L155" t="n">
-        <v>128.8343023255814</v>
+        <v>146</v>
       </c>
       <c r="M155" t="n">
         <v>120</v>
@@ -10915,16 +10815,16 @@
         <v>114.4877777777778</v>
       </c>
       <c r="I156" t="n">
-        <v>67.83799999999999</v>
+        <v>138.7333333333333</v>
       </c>
       <c r="J156" t="n">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="K156" t="n">
-        <v>95.45717391304348</v>
+        <v>157.5</v>
       </c>
       <c r="L156" t="n">
-        <v>139.983431372549</v>
+        <v>146</v>
       </c>
       <c r="M156" t="n">
         <v>120</v>
@@ -10988,16 +10888,16 @@
         <v>107.8316666666667</v>
       </c>
       <c r="I157" t="n">
-        <v>67.83799999999999</v>
+        <v>138.75</v>
       </c>
       <c r="J157" t="n">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="K157" t="n">
-        <v>88.66499999999999</v>
+        <v>157.5</v>
       </c>
       <c r="L157" t="n">
-        <v>129.0558518518519</v>
+        <v>146</v>
       </c>
       <c r="M157" t="n">
         <v>120</v>
@@ -11061,16 +10961,16 @@
         <v>108.5</v>
       </c>
       <c r="I158" t="n">
-        <v>67.83799999999999</v>
+        <v>138.75</v>
       </c>
       <c r="J158" t="n">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="K158" t="n">
-        <v>89.31100000000001</v>
+        <v>157.5</v>
       </c>
       <c r="L158" t="n">
-        <v>133.023552631579</v>
+        <v>146</v>
       </c>
       <c r="M158" t="n">
         <v>120</v>
@@ -11134,16 +11034,16 @@
         <v>108.5</v>
       </c>
       <c r="I159" t="n">
-        <v>67.83799999999999</v>
+        <v>138.75</v>
       </c>
       <c r="J159" t="n">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="K159" t="n">
-        <v>91.5</v>
+        <v>157.5</v>
       </c>
       <c r="L159" t="n">
-        <v>132.8782222222222</v>
+        <v>146</v>
       </c>
       <c r="M159" t="n">
         <v>120</v>
@@ -11207,16 +11107,16 @@
         <v>116.3833333333333</v>
       </c>
       <c r="I160" t="n">
-        <v>67.83799999999999</v>
+        <v>139.5</v>
       </c>
       <c r="J160" t="n">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="K160" t="n">
-        <v>96.62193548387097</v>
+        <v>157.5</v>
       </c>
       <c r="L160" t="n">
-        <v>138.3665882352941</v>
+        <v>146</v>
       </c>
       <c r="M160" t="n">
         <v>120</v>
@@ -11280,16 +11180,16 @@
         <v>122.125</v>
       </c>
       <c r="I161" t="n">
-        <v>67.83799999999999</v>
+        <v>139.5</v>
       </c>
       <c r="J161" t="n">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="K161" t="n">
-        <v>102.6326923076923</v>
+        <v>157.5</v>
       </c>
       <c r="L161" t="n">
-        <v>143.8733333333333</v>
+        <v>146</v>
       </c>
       <c r="M161" t="n">
         <v>120</v>
@@ -11353,16 +11253,16 @@
         <v>126.1</v>
       </c>
       <c r="I162" t="n">
-        <v>67.83799999999999</v>
+        <v>139.5</v>
       </c>
       <c r="J162" t="n">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="K162" t="n">
-        <v>106.2146875</v>
+        <v>157.5</v>
       </c>
       <c r="L162" t="n">
-        <v>144.5981538461538</v>
+        <v>146</v>
       </c>
       <c r="M162" t="n">
         <v>120</v>
@@ -11426,16 +11326,16 @@
         <v>132.4142857142857</v>
       </c>
       <c r="I163" t="n">
-        <v>67.83799999999999</v>
+        <v>149.975</v>
       </c>
       <c r="J163" t="n">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="K163" t="n">
-        <v>116.925</v>
+        <v>157.5</v>
       </c>
       <c r="L163" t="n">
-        <v>152.126170212766</v>
+        <v>146</v>
       </c>
       <c r="M163" t="n">
         <v>120</v>
@@ -11499,16 +11399,16 @@
         <v>147.4166666666667</v>
       </c>
       <c r="I164" t="n">
-        <v>67.83799999999999</v>
+        <v>156.8070967741936</v>
       </c>
       <c r="J164" t="n">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="K164" t="n">
-        <v>131.7718421052631</v>
+        <v>157.5</v>
       </c>
       <c r="L164" t="n">
-        <v>165.5733783783784</v>
+        <v>146</v>
       </c>
       <c r="M164" t="n">
         <v>120</v>
@@ -11572,16 +11472,16 @@
         <v>161.8733333333333</v>
       </c>
       <c r="I165" t="n">
-        <v>67.83799999999999</v>
+        <v>163.5157894736842</v>
       </c>
       <c r="J165" t="n">
-        <v>62</v>
+        <v>118.01</v>
       </c>
       <c r="K165" t="n">
-        <v>146.482</v>
+        <v>157.5</v>
       </c>
       <c r="L165" t="n">
-        <v>179.05864</v>
+        <v>146</v>
       </c>
       <c r="M165" t="n">
         <v>120</v>
@@ -11645,16 +11545,16 @@
         <v>153.1</v>
       </c>
       <c r="I166" t="n">
-        <v>67.83799999999999</v>
+        <v>161.8571428571429</v>
       </c>
       <c r="J166" t="n">
-        <v>62</v>
+        <v>118.01</v>
       </c>
       <c r="K166" t="n">
-        <v>138.40625</v>
+        <v>157.5</v>
       </c>
       <c r="L166" t="n">
-        <v>172.09</v>
+        <v>146</v>
       </c>
       <c r="M166" t="n">
         <v>120</v>
@@ -11718,16 +11618,16 @@
         <v>155.8</v>
       </c>
       <c r="I167" t="n">
-        <v>67.83799999999999</v>
+        <v>161.8571428571429</v>
       </c>
       <c r="J167" t="n">
-        <v>62</v>
+        <v>118.01</v>
       </c>
       <c r="K167" t="n">
-        <v>138.40625</v>
+        <v>157.5</v>
       </c>
       <c r="L167" t="n">
-        <v>173.9754545454545</v>
+        <v>146</v>
       </c>
       <c r="M167" t="n">
         <v>120</v>
@@ -11791,16 +11691,16 @@
         <v>155.8</v>
       </c>
       <c r="I168" t="n">
-        <v>67.83799999999999</v>
+        <v>161.8571428571429</v>
       </c>
       <c r="J168" t="n">
-        <v>62</v>
+        <v>118.01</v>
       </c>
       <c r="K168" t="n">
-        <v>138.40625</v>
+        <v>157.5</v>
       </c>
       <c r="L168" t="n">
-        <v>177.25</v>
+        <v>146</v>
       </c>
       <c r="M168" t="n">
         <v>120</v>
@@ -11864,16 +11764,16 @@
         <v>143.5</v>
       </c>
       <c r="I169" t="n">
-        <v>67.83799999999999</v>
+        <v>161.8571428571429</v>
       </c>
       <c r="J169" t="n">
-        <v>62</v>
+        <v>118.01</v>
       </c>
       <c r="K169" t="n">
-        <v>131.8541666666667</v>
+        <v>157.5</v>
       </c>
       <c r="L169" t="n">
-        <v>162.1017045454546</v>
+        <v>146</v>
       </c>
       <c r="M169" t="n">
         <v>120</v>
@@ -11937,16 +11837,16 @@
         <v>133</v>
       </c>
       <c r="I170" t="n">
-        <v>67.83799999999999</v>
+        <v>161.8571428571429</v>
       </c>
       <c r="J170" t="n">
-        <v>62</v>
+        <v>118.01</v>
       </c>
       <c r="K170" t="n">
-        <v>120.0948275862069</v>
+        <v>157.5</v>
       </c>
       <c r="L170" t="n">
-        <v>152.3421951219512</v>
+        <v>146</v>
       </c>
       <c r="M170" t="n">
         <v>120</v>
@@ -12010,16 +11910,16 @@
         <v>133</v>
       </c>
       <c r="I171" t="n">
-        <v>67.83799999999999</v>
+        <v>131</v>
       </c>
       <c r="J171" t="n">
-        <v>62</v>
+        <v>118.01</v>
       </c>
       <c r="K171" t="n">
-        <v>112.498</v>
+        <v>157.5</v>
       </c>
       <c r="L171" t="n">
-        <v>142.1202040816327</v>
+        <v>146</v>
       </c>
       <c r="M171" t="n">
         <v>120</v>
@@ -12083,16 +11983,16 @@
         <v>131</v>
       </c>
       <c r="I172" t="n">
-        <v>67.83799999999999</v>
+        <v>145</v>
       </c>
       <c r="J172" t="n">
-        <v>62</v>
+        <v>118.01</v>
       </c>
       <c r="K172" t="n">
-        <v>118.111875</v>
+        <v>157.5</v>
       </c>
       <c r="L172" t="n">
-        <v>147.0238983050847</v>
+        <v>146</v>
       </c>
       <c r="M172" t="n">
         <v>120</v>
@@ -12156,16 +12056,16 @@
         <v>148.65</v>
       </c>
       <c r="I173" t="n">
-        <v>67.83799999999999</v>
+        <v>151.5852380952381</v>
       </c>
       <c r="J173" t="n">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="K173" t="n">
-        <v>135.2454545454545</v>
+        <v>157.5</v>
       </c>
       <c r="L173" t="n">
-        <v>165.1578616352201</v>
+        <v>146</v>
       </c>
       <c r="M173" t="n">
         <v>120</v>
@@ -12229,16 +12129,16 @@
         <v>148.65</v>
       </c>
       <c r="I174" t="n">
-        <v>67.83799999999999</v>
+        <v>158.2861904761905</v>
       </c>
       <c r="J174" t="n">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="K174" t="n">
-        <v>138.5714285714286</v>
+        <v>157.5</v>
       </c>
       <c r="L174" t="n">
-        <v>172.7663492063492</v>
+        <v>146</v>
       </c>
       <c r="M174" t="n">
         <v>120</v>
@@ -12302,16 +12202,16 @@
         <v>148.4</v>
       </c>
       <c r="I175" t="n">
-        <v>67.83799999999999</v>
+        <v>155.2142857142857</v>
       </c>
       <c r="J175" t="n">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="K175" t="n">
-        <v>133.3725</v>
+        <v>157.5</v>
       </c>
       <c r="L175" t="n">
-        <v>170.957</v>
+        <v>146</v>
       </c>
       <c r="M175" t="n">
         <v>120</v>
@@ -12375,16 +12275,16 @@
         <v>150</v>
       </c>
       <c r="I176" t="n">
-        <v>67.83799999999999</v>
+        <v>154.5625</v>
       </c>
       <c r="J176" t="n">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="K176" t="n">
-        <v>131.0225</v>
+        <v>157.5</v>
       </c>
       <c r="L176" t="n">
-        <v>167.5376086956522</v>
+        <v>146</v>
       </c>
       <c r="M176" t="n">
         <v>120</v>
@@ -12448,16 +12348,16 @@
         <v>122.75</v>
       </c>
       <c r="I177" t="n">
-        <v>67.83799999999999</v>
+        <v>162.59</v>
       </c>
       <c r="J177" t="n">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="K177" t="n">
-        <v>138.31125</v>
+        <v>157.5</v>
       </c>
       <c r="L177" t="n">
-        <v>173.1102985074627</v>
+        <v>146</v>
       </c>
       <c r="M177" t="n">
         <v>120</v>
@@ -12521,16 +12421,16 @@
         <v>122.75</v>
       </c>
       <c r="I178" t="n">
-        <v>67.83799999999999</v>
+        <v>166.25</v>
       </c>
       <c r="J178" t="n">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="K178" t="n">
-        <v>146.0454545454545</v>
+        <v>157.5</v>
       </c>
       <c r="L178" t="n">
-        <v>180.1802941176471</v>
+        <v>146</v>
       </c>
       <c r="M178" t="n">
         <v>120</v>
@@ -12594,16 +12494,16 @@
         <v>164</v>
       </c>
       <c r="I179" t="n">
-        <v>67.83799999999999</v>
+        <v>166.65</v>
       </c>
       <c r="J179" t="n">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="K179" t="n">
-        <v>146.0454545454545</v>
+        <v>157.5</v>
       </c>
       <c r="L179" t="n">
-        <v>181.1875</v>
+        <v>146</v>
       </c>
       <c r="M179" t="n">
         <v>120</v>
@@ -12667,16 +12567,16 @@
         <v>164</v>
       </c>
       <c r="I180" t="n">
-        <v>67.83799999999999</v>
+        <v>165</v>
       </c>
       <c r="J180" t="n">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="K180" t="n">
-        <v>146.0454545454545</v>
+        <v>157.5</v>
       </c>
       <c r="L180" t="n">
-        <v>177.555</v>
+        <v>146</v>
       </c>
       <c r="M180" t="n">
         <v>120</v>
@@ -12740,16 +12640,16 @@
         <v>161</v>
       </c>
       <c r="I181" t="n">
-        <v>67.83799999999999</v>
+        <v>165</v>
       </c>
       <c r="J181" t="n">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="K181" t="n">
-        <v>145.8333333333333</v>
+        <v>157.5</v>
       </c>
       <c r="L181" t="n">
-        <v>179.6538461538462</v>
+        <v>146</v>
       </c>
       <c r="M181" t="n">
         <v>120</v>
@@ -12813,16 +12713,16 @@
         <v>168.575</v>
       </c>
       <c r="I182" t="n">
-        <v>67.83799999999999</v>
+        <v>171.8110344827586</v>
       </c>
       <c r="J182" t="n">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="K182" t="n">
-        <v>155.5</v>
+        <v>157.5</v>
       </c>
       <c r="L182" t="n">
-        <v>187.3439285714286</v>
+        <v>146</v>
       </c>
       <c r="M182" t="n">
         <v>120</v>
@@ -12886,16 +12786,16 @@
         <v>168.575</v>
       </c>
       <c r="I183" t="n">
-        <v>67.83799999999999</v>
+        <v>171.4833333333333</v>
       </c>
       <c r="J183" t="n">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="K183" t="n">
-        <v>156.9166666666667</v>
+        <v>157.5</v>
       </c>
       <c r="L183" t="n">
-        <v>188.6785714285714</v>
+        <v>146</v>
       </c>
       <c r="M183" t="n">
         <v>120</v>
@@ -12959,16 +12859,16 @@
         <v>168.575</v>
       </c>
       <c r="I184" t="n">
-        <v>67.83799999999999</v>
+        <v>173.8225</v>
       </c>
       <c r="J184" t="n">
-        <v>62</v>
+        <v>114.5</v>
       </c>
       <c r="K184" t="n">
-        <v>155.3557142857143</v>
+        <v>157.5</v>
       </c>
       <c r="L184" t="n">
-        <v>190.9038333333333</v>
+        <v>146</v>
       </c>
       <c r="M184" t="n">
         <v>120</v>
@@ -13032,16 +12932,16 @@
         <v>174.35</v>
       </c>
       <c r="I185" t="n">
-        <v>67.83799999999999</v>
+        <v>177.2222222222222</v>
       </c>
       <c r="J185" t="n">
-        <v>62</v>
+        <v>114.5</v>
       </c>
       <c r="K185" t="n">
-        <v>158.15</v>
+        <v>157.5</v>
       </c>
       <c r="L185" t="n">
-        <v>193.7390322580645</v>
+        <v>146</v>
       </c>
       <c r="M185" t="n">
         <v>120</v>
@@ -13105,16 +13005,16 @@
         <v>182.2</v>
       </c>
       <c r="I186" t="n">
-        <v>67.83799999999999</v>
+        <v>180.9705555555556</v>
       </c>
       <c r="J186" t="n">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="K186" t="n">
-        <v>165.6225</v>
+        <v>157.5</v>
       </c>
       <c r="L186" t="n">
-        <v>200.2866433566434</v>
+        <v>146</v>
       </c>
       <c r="M186" t="n">
         <v>120</v>
@@ -13178,16 +13078,16 @@
         <v>195.375</v>
       </c>
       <c r="I187" t="n">
-        <v>67.83799999999999</v>
+        <v>190.025</v>
       </c>
       <c r="J187" t="n">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="K187" t="n">
-        <v>180.5113333333333</v>
+        <v>157.5</v>
       </c>
       <c r="L187" t="n">
-        <v>212.731652173913</v>
+        <v>182</v>
       </c>
       <c r="M187" t="n">
         <v>120</v>
@@ -13251,16 +13151,16 @@
         <v>195.375</v>
       </c>
       <c r="I188" t="n">
-        <v>67.83799999999999</v>
+        <v>190.025</v>
       </c>
       <c r="J188" t="n">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="K188" t="n">
-        <v>180.5113333333333</v>
+        <v>157.5</v>
       </c>
       <c r="L188" t="n">
-        <v>208.6</v>
+        <v>182</v>
       </c>
       <c r="M188" t="n">
         <v>120</v>
@@ -13324,16 +13224,16 @@
         <v>165</v>
       </c>
       <c r="I189" t="n">
-        <v>67.83799999999999</v>
+        <v>172.0909090909091</v>
       </c>
       <c r="J189" t="n">
-        <v>62</v>
+        <v>110.2</v>
       </c>
       <c r="K189" t="n">
-        <v>147.2233333333333</v>
+        <v>157.5</v>
       </c>
       <c r="L189" t="n">
-        <v>186.655045045045</v>
+        <v>182</v>
       </c>
       <c r="M189" t="n">
         <v>120</v>
@@ -13397,16 +13297,16 @@
         <v>145.2</v>
       </c>
       <c r="I190" t="n">
-        <v>67.83799999999999</v>
+        <v>162.3478260869565</v>
       </c>
       <c r="J190" t="n">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="K190" t="n">
-        <v>128.575</v>
+        <v>157.5</v>
       </c>
       <c r="L190" t="n">
-        <v>173.6945185185185</v>
+        <v>182</v>
       </c>
       <c r="M190" t="n">
         <v>120</v>
@@ -13470,16 +13370,16 @@
         <v>100</v>
       </c>
       <c r="I191" t="n">
-        <v>67.83799999999999</v>
+        <v>172.5625</v>
       </c>
       <c r="J191" t="n">
-        <v>62</v>
+        <v>105.5</v>
       </c>
       <c r="K191" t="n">
-        <v>140.5</v>
+        <v>157.5</v>
       </c>
       <c r="L191" t="n">
-        <v>178.7997183098592</v>
+        <v>182</v>
       </c>
       <c r="M191" t="n">
         <v>120</v>
@@ -13543,16 +13443,16 @@
         <v>100</v>
       </c>
       <c r="I192" t="n">
-        <v>67.83799999999999</v>
+        <v>172.4125</v>
       </c>
       <c r="J192" t="n">
-        <v>62</v>
+        <v>105.5</v>
       </c>
       <c r="K192" t="n">
-        <v>143.25</v>
+        <v>157.5</v>
       </c>
       <c r="L192" t="n">
-        <v>186.5268115942029</v>
+        <v>182</v>
       </c>
       <c r="M192" t="n">
         <v>120</v>
@@ -13616,16 +13516,16 @@
         <v>156</v>
       </c>
       <c r="I193" t="n">
-        <v>67.83799999999999</v>
+        <v>167.5</v>
       </c>
       <c r="J193" t="n">
-        <v>62</v>
+        <v>105.5</v>
       </c>
       <c r="K193" t="n">
-        <v>132.6475</v>
+        <v>157.5</v>
       </c>
       <c r="L193" t="n">
-        <v>182.5274285714286</v>
+        <v>182</v>
       </c>
       <c r="M193" t="n">
         <v>120</v>
@@ -13689,16 +13589,16 @@
         <v>156</v>
       </c>
       <c r="I194" t="n">
-        <v>67.83799999999999</v>
+        <v>164.25</v>
       </c>
       <c r="J194" t="n">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="K194" t="n">
-        <v>132.6475</v>
+        <v>157.5</v>
       </c>
       <c r="L194" t="n">
-        <v>168.4796226415094</v>
+        <v>182</v>
       </c>
       <c r="M194" t="n">
         <v>120</v>
@@ -13762,16 +13662,16 @@
         <v>156</v>
       </c>
       <c r="I195" t="n">
-        <v>67.83799999999999</v>
+        <v>173.3</v>
       </c>
       <c r="J195" t="n">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K195" t="n">
-        <v>132.6475</v>
+        <v>157.5</v>
       </c>
       <c r="L195" t="n">
-        <v>179.078904109589</v>
+        <v>182</v>
       </c>
       <c r="M195" t="n">
         <v>120</v>
@@ -13835,16 +13735,16 @@
         <v>162.7</v>
       </c>
       <c r="I196" t="n">
-        <v>67.83799999999999</v>
+        <v>179.6538461538462</v>
       </c>
       <c r="J196" t="n">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="K196" t="n">
-        <v>134.75</v>
+        <v>157.5</v>
       </c>
       <c r="L196" t="n">
-        <v>190.1848214285714</v>
+        <v>182</v>
       </c>
       <c r="M196" t="n">
         <v>120</v>
@@ -13908,16 +13808,16 @@
         <v>162.7</v>
       </c>
       <c r="I197" t="n">
-        <v>67.83799999999999</v>
+        <v>177.25</v>
       </c>
       <c r="J197" t="n">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="K197" t="n">
-        <v>134.75</v>
+        <v>179</v>
       </c>
       <c r="L197" t="n">
-        <v>186.945</v>
+        <v>182</v>
       </c>
       <c r="M197" t="n">
         <v>120</v>
@@ -13981,16 +13881,16 @@
         <v>162.7</v>
       </c>
       <c r="I198" t="n">
-        <v>67.83799999999999</v>
+        <v>178.4285714285714</v>
       </c>
       <c r="J198" t="n">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="K198" t="n">
-        <v>134.75</v>
+        <v>179</v>
       </c>
       <c r="L198" t="n">
-        <v>189.9260975609756</v>
+        <v>182</v>
       </c>
       <c r="M198" t="n">
         <v>120</v>
@@ -14054,16 +13954,16 @@
         <v>154.6666666666667</v>
       </c>
       <c r="I199" t="n">
-        <v>67.83799999999999</v>
+        <v>172.4</v>
       </c>
       <c r="J199" t="n">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="K199" t="n">
-        <v>134.75</v>
+        <v>168.35</v>
       </c>
       <c r="L199" t="n">
-        <v>181.9141333333333</v>
+        <v>176</v>
       </c>
       <c r="M199" t="n">
         <v>120</v>
@@ -14127,16 +14027,16 @@
         <v>100</v>
       </c>
       <c r="I200" t="n">
-        <v>67.83799999999999</v>
+        <v>170</v>
       </c>
       <c r="J200" t="n">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="K200" t="n">
-        <v>124.25</v>
+        <v>168.35</v>
       </c>
       <c r="L200" t="n">
-        <v>176.5619696969697</v>
+        <v>176</v>
       </c>
       <c r="M200" t="n">
         <v>120</v>
@@ -14200,16 +14100,16 @@
         <v>100</v>
       </c>
       <c r="I201" t="n">
-        <v>67.83799999999999</v>
+        <v>163.3</v>
       </c>
       <c r="J201" t="n">
-        <v>62</v>
+        <v>106.5</v>
       </c>
       <c r="K201" t="n">
-        <v>124.25</v>
+        <v>168.35</v>
       </c>
       <c r="L201" t="n">
-        <v>168.191</v>
+        <v>176</v>
       </c>
       <c r="M201" t="n">
         <v>120</v>
@@ -14273,16 +14173,16 @@
         <v>140</v>
       </c>
       <c r="I202" t="n">
-        <v>67.83799999999999</v>
+        <v>159.5</v>
       </c>
       <c r="J202" t="n">
-        <v>62</v>
+        <v>106.5</v>
       </c>
       <c r="K202" t="n">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="L202" t="n">
-        <v>168.2432075471698</v>
+        <v>170</v>
       </c>
       <c r="M202" t="n">
         <v>120</v>
@@ -14346,16 +14246,16 @@
         <v>140</v>
       </c>
       <c r="I203" t="n">
-        <v>67.83799999999999</v>
+        <v>152.788</v>
       </c>
       <c r="J203" t="n">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="K203" t="n">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="L203" t="n">
-        <v>158.7863829787234</v>
+        <v>170</v>
       </c>
       <c r="M203" t="n">
         <v>120</v>
@@ -14419,16 +14319,16 @@
         <v>120</v>
       </c>
       <c r="I204" t="n">
-        <v>67.83799999999999</v>
+        <v>140.01</v>
       </c>
       <c r="J204" t="n">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="K204" t="n">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="L204" t="n">
-        <v>145.9758974358975</v>
+        <v>170</v>
       </c>
       <c r="M204" t="n">
         <v>120</v>
@@ -14492,16 +14392,16 @@
         <v>120</v>
       </c>
       <c r="I205" t="n">
-        <v>67.83799999999999</v>
+        <v>153.5833333333333</v>
       </c>
       <c r="J205" t="n">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="K205" t="n">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="L205" t="n">
-        <v>153.6347272727273</v>
+        <v>170</v>
       </c>
       <c r="M205" t="n">
         <v>120</v>
@@ -14565,16 +14465,16 @@
         <v>130</v>
       </c>
       <c r="I206" t="n">
-        <v>67.83799999999999</v>
+        <v>147.7</v>
       </c>
       <c r="J206" t="n">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="K206" t="n">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="L206" t="n">
-        <v>147.8457894736842</v>
+        <v>170</v>
       </c>
       <c r="M206" t="n">
         <v>120</v>
@@ -14638,16 +14538,16 @@
         <v>130</v>
       </c>
       <c r="I207" t="n">
-        <v>67.83799999999999</v>
+        <v>151.899</v>
       </c>
       <c r="J207" t="n">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="K207" t="n">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="L207" t="n">
-        <v>150.7041558441558</v>
+        <v>170</v>
       </c>
       <c r="M207" t="n">
         <v>120</v>
@@ -14711,16 +14611,16 @@
         <v>130</v>
       </c>
       <c r="I208" t="n">
-        <v>67.83799999999999</v>
+        <v>161.25</v>
       </c>
       <c r="J208" t="n">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="K208" t="n">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="L208" t="n">
-        <v>158.0893</v>
+        <v>171</v>
       </c>
       <c r="M208" t="n">
         <v>120</v>
@@ -14784,16 +14684,16 @@
         <v>129.9</v>
       </c>
       <c r="I209" t="n">
-        <v>67.83799999999999</v>
+        <v>163.5</v>
       </c>
       <c r="J209" t="n">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="K209" t="n">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="L209" t="n">
-        <v>158.9735714285714</v>
+        <v>173</v>
       </c>
       <c r="M209" t="n">
         <v>120</v>
@@ -14857,16 +14757,16 @@
         <v>129.9</v>
       </c>
       <c r="I210" t="n">
-        <v>67.83799999999999</v>
+        <v>165.25</v>
       </c>
       <c r="J210" t="n">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="K210" t="n">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="L210" t="n">
-        <v>157.6703846153846</v>
+        <v>173</v>
       </c>
       <c r="M210" t="n">
         <v>120</v>
@@ -14930,16 +14830,16 @@
         <v>129.9</v>
       </c>
       <c r="I211" t="n">
-        <v>67.83799999999999</v>
+        <v>170.25</v>
       </c>
       <c r="J211" t="n">
-        <v>62</v>
+        <v>105.5</v>
       </c>
       <c r="K211" t="n">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="L211" t="n">
-        <v>165.5110679611651</v>
+        <v>173</v>
       </c>
       <c r="M211" t="n">
         <v>120</v>
@@ -15003,16 +14903,16 @@
         <v>134</v>
       </c>
       <c r="I212" t="n">
-        <v>67.83799999999999</v>
+        <v>170.1428571428571</v>
       </c>
       <c r="J212" t="n">
-        <v>62</v>
+        <v>105.5</v>
       </c>
       <c r="K212" t="n">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="L212" t="n">
-        <v>165.0608163265306</v>
+        <v>173</v>
       </c>
       <c r="M212" t="n">
         <v>120</v>
@@ -15076,16 +14976,16 @@
         <v>134</v>
       </c>
       <c r="I213" t="n">
-        <v>67.83799999999999</v>
+        <v>177.125</v>
       </c>
       <c r="J213" t="n">
-        <v>62</v>
+        <v>105.5</v>
       </c>
       <c r="K213" t="n">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="L213" t="n">
-        <v>178.2009848484848</v>
+        <v>173</v>
       </c>
       <c r="M213" t="n">
         <v>120</v>
@@ -15149,16 +15049,16 @@
         <v>134</v>
       </c>
       <c r="I214" t="n">
-        <v>67.83799999999999</v>
+        <v>175.7</v>
       </c>
       <c r="J214" t="n">
-        <v>62</v>
+        <v>105.5</v>
       </c>
       <c r="K214" t="n">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="L214" t="n">
-        <v>180.3731707317073</v>
+        <v>173</v>
       </c>
       <c r="M214" t="n">
         <v>120</v>
@@ -15222,16 +15122,16 @@
         <v>134</v>
       </c>
       <c r="I215" t="n">
-        <v>67.83799999999999</v>
+        <v>174</v>
       </c>
       <c r="J215" t="n">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="K215" t="n">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="L215" t="n">
-        <v>178.2882352941176</v>
+        <v>173</v>
       </c>
       <c r="M215" t="n">
         <v>120</v>
@@ -15295,16 +15195,16 @@
         <v>134</v>
       </c>
       <c r="I216" t="n">
-        <v>67.83799999999999</v>
+        <v>177.375</v>
       </c>
       <c r="J216" t="n">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="K216" t="n">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="L216" t="n">
-        <v>191.3539516129032</v>
+        <v>173</v>
       </c>
       <c r="M216" t="n">
         <v>120</v>
@@ -15368,16 +15268,16 @@
         <v>134</v>
       </c>
       <c r="I217" t="n">
-        <v>67.83799999999999</v>
+        <v>177.375</v>
       </c>
       <c r="J217" t="n">
-        <v>62</v>
+        <v>112.5</v>
       </c>
       <c r="K217" t="n">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="L217" t="n">
-        <v>186.246875</v>
+        <v>173</v>
       </c>
       <c r="M217" t="n">
         <v>120</v>
@@ -15441,16 +15341,16 @@
         <v>134</v>
       </c>
       <c r="I218" t="n">
-        <v>67.83799999999999</v>
+        <v>175.4</v>
       </c>
       <c r="J218" t="n">
-        <v>62</v>
+        <v>112.5</v>
       </c>
       <c r="K218" t="n">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="L218" t="n">
-        <v>191.46225</v>
+        <v>173</v>
       </c>
       <c r="M218" t="n">
         <v>120</v>
@@ -15514,16 +15414,16 @@
         <v>134</v>
       </c>
       <c r="I219" t="n">
-        <v>67.83799999999999</v>
+        <v>176.8571428571429</v>
       </c>
       <c r="J219" t="n">
-        <v>62</v>
+        <v>112.5</v>
       </c>
       <c r="K219" t="n">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="L219" t="n">
-        <v>191.92</v>
+        <v>173</v>
       </c>
       <c r="M219" t="n">
         <v>120</v>
@@ -15587,16 +15487,16 @@
         <v>134</v>
       </c>
       <c r="I220" t="n">
-        <v>67.83799999999999</v>
+        <v>181.21</v>
       </c>
       <c r="J220" t="n">
-        <v>62</v>
+        <v>112.5</v>
       </c>
       <c r="K220" t="n">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="L220" t="n">
-        <v>200.1416666666667</v>
+        <v>173</v>
       </c>
       <c r="M220" t="n">
         <v>120</v>
@@ -15660,16 +15560,16 @@
         <v>134</v>
       </c>
       <c r="I221" t="n">
-        <v>67.83799999999999</v>
+        <v>181.55</v>
       </c>
       <c r="J221" t="n">
-        <v>62</v>
+        <v>112.5</v>
       </c>
       <c r="K221" t="n">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="L221" t="n">
-        <v>204.3462666666667</v>
+        <v>173</v>
       </c>
       <c r="M221" t="n">
         <v>120</v>
@@ -15733,16 +15633,16 @@
         <v>134</v>
       </c>
       <c r="I222" t="n">
-        <v>67.83799999999999</v>
+        <v>184.9307692307692</v>
       </c>
       <c r="J222" t="n">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="K222" t="n">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="L222" t="n">
-        <v>212.4650434782609</v>
+        <v>173</v>
       </c>
       <c r="M222" t="n">
         <v>120</v>
@@ -15806,16 +15706,16 @@
         <v>134</v>
       </c>
       <c r="I223" t="n">
-        <v>67.83799999999999</v>
+        <v>188.6666666666667</v>
       </c>
       <c r="J223" t="n">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="K223" t="n">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="L223" t="n">
-        <v>220.2709677419355</v>
+        <v>173</v>
       </c>
       <c r="M223" t="n">
         <v>120</v>
@@ -15879,16 +15779,16 @@
         <v>134</v>
       </c>
       <c r="I224" t="n">
-        <v>67.83799999999999</v>
+        <v>190.406</v>
       </c>
       <c r="J224" t="n">
-        <v>62</v>
+        <v>122.25</v>
       </c>
       <c r="K224" t="n">
-        <v>125</v>
+        <v>200.5</v>
       </c>
       <c r="L224" t="n">
-        <v>225.9642857142857</v>
+        <v>173</v>
       </c>
       <c r="M224" t="n">
         <v>120</v>
@@ -15952,16 +15852,16 @@
         <v>134</v>
       </c>
       <c r="I225" t="n">
-        <v>67.83799999999999</v>
+        <v>189.0477777777778</v>
       </c>
       <c r="J225" t="n">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="K225" t="n">
-        <v>125</v>
+        <v>200.5</v>
       </c>
       <c r="L225" t="n">
-        <v>228.7579268292683</v>
+        <v>173</v>
       </c>
       <c r="M225" t="n">
         <v>120</v>
@@ -16025,16 +15925,16 @@
         <v>134</v>
       </c>
       <c r="I226" t="n">
-        <v>67.83799999999999</v>
+        <v>205.6793103448276</v>
       </c>
       <c r="J226" t="n">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="K226" t="n">
-        <v>125</v>
+        <v>200.5</v>
       </c>
       <c r="L226" t="n">
-        <v>265.57625</v>
+        <v>200</v>
       </c>
       <c r="M226" t="n">
         <v>120</v>
@@ -16098,16 +15998,16 @@
         <v>134</v>
       </c>
       <c r="I227" t="n">
-        <v>67.83799999999999</v>
+        <v>220.3058695652174</v>
       </c>
       <c r="J227" t="n">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="K227" t="n">
-        <v>125</v>
+        <v>200.5</v>
       </c>
       <c r="L227" t="n">
-        <v>283.8175510204081</v>
+        <v>200</v>
       </c>
       <c r="M227" t="n">
         <v>120</v>
@@ -16171,16 +16071,16 @@
         <v>134</v>
       </c>
       <c r="I228" t="n">
-        <v>67.83799999999999</v>
+        <v>222.0785714285714</v>
       </c>
       <c r="J228" t="n">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K228" t="n">
-        <v>125</v>
+        <v>218.5</v>
       </c>
       <c r="L228" t="n">
-        <v>288.5721951219512</v>
+        <v>220</v>
       </c>
       <c r="M228" t="n">
         <v>120</v>
@@ -16244,16 +16144,16 @@
         <v>134</v>
       </c>
       <c r="I229" t="n">
-        <v>67.83799999999999</v>
+        <v>222.0785714285714</v>
       </c>
       <c r="J229" t="n">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K229" t="n">
-        <v>125</v>
+        <v>218.5</v>
       </c>
       <c r="L229" t="n">
-        <v>275.2</v>
+        <v>220</v>
       </c>
       <c r="M229" t="n">
         <v>120</v>
@@ -16317,16 +16217,16 @@
         <v>134</v>
       </c>
       <c r="I230" t="n">
-        <v>67.83799999999999</v>
+        <v>223.3230188679245</v>
       </c>
       <c r="J230" t="n">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K230" t="n">
-        <v>125</v>
+        <v>218.6</v>
       </c>
       <c r="L230" t="n">
-        <v>299.4042307692308</v>
+        <v>220</v>
       </c>
       <c r="M230" t="n">
         <v>120</v>
@@ -16390,16 +16290,16 @@
         <v>134</v>
       </c>
       <c r="I231" t="n">
-        <v>67.83799999999999</v>
+        <v>230.9314285714286</v>
       </c>
       <c r="J231" t="n">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="K231" t="n">
-        <v>125</v>
+        <v>218.6</v>
       </c>
       <c r="L231" t="n">
-        <v>324.19</v>
+        <v>220</v>
       </c>
       <c r="M231" t="n">
         <v>120</v>
@@ -16463,16 +16363,16 @@
         <v>134</v>
       </c>
       <c r="I232" t="n">
-        <v>67.83799999999999</v>
+        <v>217.7864285714286</v>
       </c>
       <c r="J232" t="n">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="K232" t="n">
-        <v>125</v>
+        <v>218.6</v>
       </c>
       <c r="L232" t="n">
-        <v>295.6018181818181</v>
+        <v>220</v>
       </c>
       <c r="M232" t="n">
         <v>120</v>
@@ -16536,16 +16436,16 @@
         <v>134</v>
       </c>
       <c r="I233" t="n">
-        <v>67.83799999999999</v>
+        <v>218.7307692307692</v>
       </c>
       <c r="J233" t="n">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="K233" t="n">
-        <v>125</v>
+        <v>218.6</v>
       </c>
       <c r="L233" t="n">
-        <v>298.6857142857143</v>
+        <v>220</v>
       </c>
       <c r="M233" t="n">
         <v>120</v>
@@ -16609,16 +16509,16 @@
         <v>134</v>
       </c>
       <c r="I234" t="n">
-        <v>67.83799999999999</v>
+        <v>228.1357142857143</v>
       </c>
       <c r="J234" t="n">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="K234" t="n">
-        <v>125</v>
+        <v>218.6</v>
       </c>
       <c r="L234" t="n">
-        <v>324.7426666666667</v>
+        <v>220</v>
       </c>
       <c r="M234" t="n">
         <v>120</v>
@@ -16682,16 +16582,16 @@
         <v>134</v>
       </c>
       <c r="I235" t="n">
-        <v>67.83799999999999</v>
+        <v>219.8214285714286</v>
       </c>
       <c r="J235" t="n">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="K235" t="n">
-        <v>125</v>
+        <v>218.6</v>
       </c>
       <c r="L235" t="n">
-        <v>311.0625</v>
+        <v>220</v>
       </c>
       <c r="M235" t="n">
         <v>120</v>
@@ -16755,16 +16655,16 @@
         <v>134</v>
       </c>
       <c r="I236" t="n">
-        <v>67.83799999999999</v>
+        <v>219.8214285714286</v>
       </c>
       <c r="J236" t="n">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="K236" t="n">
-        <v>125</v>
+        <v>218.6</v>
       </c>
       <c r="L236" t="n">
-        <v>311.0625</v>
+        <v>220</v>
       </c>
       <c r="M236" t="n">
         <v>120</v>
@@ -16828,16 +16728,16 @@
         <v>134</v>
       </c>
       <c r="I237" t="n">
-        <v>67.83799999999999</v>
+        <v>220.6666666666667</v>
       </c>
       <c r="J237" t="n">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="K237" t="n">
-        <v>125</v>
+        <v>218.6</v>
       </c>
       <c r="L237" t="n">
-        <v>303.5</v>
+        <v>220</v>
       </c>
       <c r="M237" t="n">
         <v>120</v>
@@ -16901,16 +16801,16 @@
         <v>134</v>
       </c>
       <c r="I238" t="n">
-        <v>67.83799999999999</v>
+        <v>217.8006666666667</v>
       </c>
       <c r="J238" t="n">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="K238" t="n">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="L238" t="n">
-        <v>303.0357142857143</v>
+        <v>220</v>
       </c>
       <c r="M238" t="n">
         <v>120</v>
@@ -16974,16 +16874,16 @@
         <v>134</v>
       </c>
       <c r="I239" t="n">
-        <v>67.83799999999999</v>
+        <v>203</v>
       </c>
       <c r="J239" t="n">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="K239" t="n">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="L239" t="n">
-        <v>279.1953125</v>
+        <v>220</v>
       </c>
       <c r="M239" t="n">
         <v>120</v>
@@ -17047,16 +16947,16 @@
         <v>134</v>
       </c>
       <c r="I240" t="n">
-        <v>67.83799999999999</v>
+        <v>215</v>
       </c>
       <c r="J240" t="n">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="K240" t="n">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="L240" t="n">
-        <v>296.1666666666667</v>
+        <v>220</v>
       </c>
       <c r="M240" t="n">
         <v>120</v>
@@ -17120,16 +17020,16 @@
         <v>134</v>
       </c>
       <c r="I241" t="n">
-        <v>67.83799999999999</v>
+        <v>212.5714285714286</v>
       </c>
       <c r="J241" t="n">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="K241" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="L241" t="n">
-        <v>189.5875</v>
+        <v>220</v>
       </c>
       <c r="M241" t="n">
         <v>120</v>
@@ -17193,16 +17093,16 @@
         <v>134</v>
       </c>
       <c r="I242" t="n">
-        <v>67.83799999999999</v>
+        <v>223.0295454545454</v>
       </c>
       <c r="J242" t="n">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="K242" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="L242" t="n">
-        <v>331.9285714285714</v>
+        <v>220</v>
       </c>
       <c r="M242" t="n">
         <v>120</v>
@@ -17266,16 +17166,16 @@
         <v>134</v>
       </c>
       <c r="I243" t="n">
-        <v>67.83799999999999</v>
+        <v>227.1452830188679</v>
       </c>
       <c r="J243" t="n">
-        <v>62</v>
+        <v>123.5</v>
       </c>
       <c r="K243" t="n">
-        <v>125</v>
+        <v>223.5</v>
       </c>
       <c r="L243" t="n">
-        <v>355.3846153846154</v>
+        <v>220</v>
       </c>
       <c r="M243" t="n">
         <v>120</v>
@@ -17339,16 +17239,16 @@
         <v>134</v>
       </c>
       <c r="I244" t="n">
-        <v>67.83799999999999</v>
+        <v>219.75</v>
       </c>
       <c r="J244" t="n">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="K244" t="n">
-        <v>125</v>
+        <v>223.5</v>
       </c>
       <c r="L244" t="n">
-        <v>349.75</v>
+        <v>220</v>
       </c>
       <c r="M244" t="n">
         <v>120</v>
@@ -17412,16 +17312,16 @@
         <v>134</v>
       </c>
       <c r="I245" t="n">
-        <v>67.83799999999999</v>
+        <v>220.4022222222222</v>
       </c>
       <c r="J245" t="n">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="K245" t="n">
-        <v>125</v>
+        <v>223.5</v>
       </c>
       <c r="L245" t="n">
-        <v>347.598</v>
+        <v>220</v>
       </c>
       <c r="M245" t="n">
         <v>120</v>
@@ -17485,16 +17385,16 @@
         <v>134</v>
       </c>
       <c r="I246" t="n">
-        <v>67.83799999999999</v>
+        <v>223.1277777777778</v>
       </c>
       <c r="J246" t="n">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="K246" t="n">
-        <v>125</v>
+        <v>223.5</v>
       </c>
       <c r="L246" t="n">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="M246" t="n">
         <v>120</v>
@@ -17558,16 +17458,16 @@
         <v>134</v>
       </c>
       <c r="I247" t="n">
-        <v>67.83799999999999</v>
+        <v>245.8727272727273</v>
       </c>
       <c r="J247" t="n">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="K247" t="n">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="L247" t="n">
-        <v>407.8125</v>
+        <v>220</v>
       </c>
       <c r="M247" t="n">
         <v>120</v>
@@ -17631,16 +17531,16 @@
         <v>134</v>
       </c>
       <c r="I248" t="n">
-        <v>67.83799999999999</v>
+        <v>267.1972222222223</v>
       </c>
       <c r="J248" t="n">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="K248" t="n">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="L248" t="n">
-        <v>407.8125</v>
+        <v>220</v>
       </c>
       <c r="M248" t="n">
         <v>120</v>
@@ -17704,16 +17604,16 @@
         <v>134</v>
       </c>
       <c r="I249" t="n">
-        <v>67.83799999999999</v>
+        <v>266.2368421052632</v>
       </c>
       <c r="J249" t="n">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="K249" t="n">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="L249" t="n">
-        <v>407.8125</v>
+        <v>220</v>
       </c>
       <c r="M249" t="n">
         <v>120</v>
@@ -17777,16 +17677,16 @@
         <v>134</v>
       </c>
       <c r="I250" t="n">
-        <v>67.83799999999999</v>
+        <v>283.3473913043478</v>
       </c>
       <c r="J250" t="n">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="K250" t="n">
-        <v>125</v>
+        <v>260</v>
       </c>
       <c r="L250" t="n">
-        <v>514.5</v>
+        <v>220</v>
       </c>
       <c r="M250" t="n">
         <v>120</v>
@@ -17850,16 +17750,16 @@
         <v>134</v>
       </c>
       <c r="I251" t="n">
-        <v>67.83799999999999</v>
+        <v>245</v>
       </c>
       <c r="J251" t="n">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="K251" t="n">
-        <v>125</v>
+        <v>260</v>
       </c>
       <c r="L251" t="n">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="M251" t="n">
         <v>120</v>
@@ -17923,16 +17823,16 @@
         <v>134</v>
       </c>
       <c r="I252" t="n">
-        <v>67.83799999999999</v>
+        <v>189.2571428571428</v>
       </c>
       <c r="J252" t="n">
-        <v>62</v>
+        <v>114.975</v>
       </c>
       <c r="K252" t="n">
-        <v>125</v>
+        <v>260</v>
       </c>
       <c r="L252" t="n">
-        <v>363.5</v>
+        <v>220</v>
       </c>
       <c r="M252" t="n">
         <v>120</v>
@@ -17996,16 +17896,16 @@
         <v>134</v>
       </c>
       <c r="I253" t="n">
-        <v>67.83799999999999</v>
+        <v>196.66375</v>
       </c>
       <c r="J253" t="n">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="K253" t="n">
-        <v>125</v>
+        <v>260</v>
       </c>
       <c r="L253" t="n">
-        <v>384</v>
+        <v>220</v>
       </c>
       <c r="M253" t="n">
         <v>120</v>
@@ -18069,16 +17969,16 @@
         <v>134</v>
       </c>
       <c r="I254" t="n">
-        <v>67.83799999999999</v>
+        <v>203.46</v>
       </c>
       <c r="J254" t="n">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="K254" t="n">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="L254" t="n">
-        <v>407.1666666666667</v>
+        <v>220</v>
       </c>
       <c r="M254" t="n">
         <v>120</v>
@@ -18142,16 +18042,16 @@
         <v>134</v>
       </c>
       <c r="I255" t="n">
-        <v>67.83799999999999</v>
+        <v>194.75</v>
       </c>
       <c r="J255" t="n">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="K255" t="n">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="L255" t="n">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="M255" t="n">
         <v>120</v>
@@ -18215,16 +18115,16 @@
         <v>134</v>
       </c>
       <c r="I256" t="n">
-        <v>67.83799999999999</v>
+        <v>198.6241666666666</v>
       </c>
       <c r="J256" t="n">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="K256" t="n">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="L256" t="n">
-        <v>391.5</v>
+        <v>220</v>
       </c>
       <c r="M256" t="n">
         <v>120</v>
@@ -18288,16 +18188,16 @@
         <v>134</v>
       </c>
       <c r="I257" t="n">
-        <v>67.83799999999999</v>
+        <v>196</v>
       </c>
       <c r="J257" t="n">
-        <v>62</v>
+        <v>116.2</v>
       </c>
       <c r="K257" t="n">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="L257" t="n">
-        <v>391.5</v>
+        <v>220</v>
       </c>
       <c r="M257" t="n">
         <v>120</v>
@@ -18361,16 +18261,16 @@
         <v>134</v>
       </c>
       <c r="I258" t="n">
-        <v>67.83799999999999</v>
+        <v>173.046875</v>
       </c>
       <c r="J258" t="n">
-        <v>62</v>
+        <v>110.8333333333333</v>
       </c>
       <c r="K258" t="n">
-        <v>125</v>
+        <v>210.5</v>
       </c>
       <c r="L258" t="n">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="M258" t="n">
         <v>120</v>
@@ -18434,16 +18334,16 @@
         <v>134</v>
       </c>
       <c r="I259" t="n">
-        <v>67.83799999999999</v>
+        <v>171.66</v>
       </c>
       <c r="J259" t="n">
-        <v>62</v>
+        <v>110.905</v>
       </c>
       <c r="K259" t="n">
-        <v>125</v>
+        <v>210.5</v>
       </c>
       <c r="L259" t="n">
-        <v>353.5</v>
+        <v>220</v>
       </c>
       <c r="M259" t="n">
         <v>120</v>
@@ -18507,16 +18407,16 @@
         <v>134</v>
       </c>
       <c r="I260" t="n">
-        <v>67.83799999999999</v>
+        <v>171.66</v>
       </c>
       <c r="J260" t="n">
-        <v>62</v>
+        <v>110.905</v>
       </c>
       <c r="K260" t="n">
-        <v>125</v>
+        <v>210.5</v>
       </c>
       <c r="L260" t="n">
-        <v>353.5</v>
+        <v>220</v>
       </c>
       <c r="M260" t="n">
         <v>120</v>
@@ -18580,16 +18480,16 @@
         <v>134</v>
       </c>
       <c r="I261" t="n">
-        <v>67.83799999999999</v>
+        <v>164.675</v>
       </c>
       <c r="J261" t="n">
-        <v>62</v>
+        <v>111.7772727272727</v>
       </c>
       <c r="K261" t="n">
-        <v>125</v>
+        <v>210.5</v>
       </c>
       <c r="L261" t="n">
-        <v>353.5</v>
+        <v>220</v>
       </c>
       <c r="M261" t="n">
         <v>120</v>
@@ -18653,16 +18553,16 @@
         <v>134</v>
       </c>
       <c r="I262" t="n">
-        <v>67.83799999999999</v>
+        <v>165.6964285714286</v>
       </c>
       <c r="J262" t="n">
-        <v>62</v>
+        <v>112.5</v>
       </c>
       <c r="K262" t="n">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="L262" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="M262" t="n">
         <v>120</v>
@@ -18726,16 +18626,16 @@
         <v>134</v>
       </c>
       <c r="I263" t="n">
-        <v>67.83799999999999</v>
+        <v>160.75</v>
       </c>
       <c r="J263" t="n">
-        <v>62</v>
+        <v>111.0066666666667</v>
       </c>
       <c r="K263" t="n">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="L263" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="M263" t="n">
         <v>120</v>
@@ -18799,16 +18699,16 @@
         <v>134</v>
       </c>
       <c r="I264" t="n">
-        <v>67.83799999999999</v>
+        <v>153.96875</v>
       </c>
       <c r="J264" t="n">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="K264" t="n">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="L264" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="M264" t="n">
         <v>120</v>
@@ -18872,16 +18772,16 @@
         <v>134</v>
       </c>
       <c r="I265" t="n">
-        <v>67.83799999999999</v>
+        <v>137.305352112676</v>
       </c>
       <c r="J265" t="n">
-        <v>62</v>
+        <v>103.416</v>
       </c>
       <c r="K265" t="n">
-        <v>125</v>
+        <v>174.375</v>
       </c>
       <c r="L265" t="n">
-        <v>383.3333333333333</v>
+        <v>220</v>
       </c>
       <c r="M265" t="n">
         <v>120</v>
@@ -18945,16 +18845,16 @@
         <v>134</v>
       </c>
       <c r="I266" t="n">
-        <v>67.83799999999999</v>
+        <v>128.5096153846154</v>
       </c>
       <c r="J266" t="n">
-        <v>62</v>
+        <v>102.0833333333333</v>
       </c>
       <c r="K266" t="n">
-        <v>125</v>
+        <v>174.375</v>
       </c>
       <c r="L266" t="n">
-        <v>383.3333333333333</v>
+        <v>169</v>
       </c>
       <c r="M266" t="n">
         <v>120</v>
@@ -19018,16 +18918,16 @@
         <v>134</v>
       </c>
       <c r="I267" t="n">
-        <v>67.83799999999999</v>
+        <v>128.004347826087</v>
       </c>
       <c r="J267" t="n">
-        <v>62</v>
+        <v>103.18</v>
       </c>
       <c r="K267" t="n">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="L267" t="n">
-        <v>293.5</v>
+        <v>169</v>
       </c>
       <c r="M267" t="n">
         <v>120</v>
@@ -19091,16 +18991,16 @@
         <v>134</v>
       </c>
       <c r="I268" t="n">
-        <v>67.83799999999999</v>
+        <v>119.2471428571428</v>
       </c>
       <c r="J268" t="n">
-        <v>62</v>
+        <v>99.715</v>
       </c>
       <c r="K268" t="n">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="L268" t="n">
-        <v>293.5</v>
+        <v>169</v>
       </c>
       <c r="M268" t="n">
         <v>120</v>
@@ -19164,16 +19064,16 @@
         <v>134</v>
       </c>
       <c r="I269" t="n">
-        <v>67.83799999999999</v>
+        <v>130.6392857142857</v>
       </c>
       <c r="J269" t="n">
-        <v>62</v>
+        <v>99.715</v>
       </c>
       <c r="K269" t="n">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="L269" t="n">
-        <v>293.5</v>
+        <v>169</v>
       </c>
       <c r="M269" t="n">
         <v>120</v>
@@ -19237,16 +19137,16 @@
         <v>134</v>
       </c>
       <c r="I270" t="n">
-        <v>67.83799999999999</v>
+        <v>155.4347826086957</v>
       </c>
       <c r="J270" t="n">
-        <v>62</v>
+        <v>107.75</v>
       </c>
       <c r="K270" t="n">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="L270" t="n">
-        <v>293.5</v>
+        <v>169</v>
       </c>
       <c r="M270" t="n">
         <v>120</v>
@@ -19310,16 +19210,16 @@
         <v>134</v>
       </c>
       <c r="I271" t="n">
-        <v>67.83799999999999</v>
+        <v>148.775</v>
       </c>
       <c r="J271" t="n">
-        <v>62</v>
+        <v>107.5</v>
       </c>
       <c r="K271" t="n">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="L271" t="n">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="M271" t="n">
         <v>120</v>
@@ -19383,16 +19283,16 @@
         <v>134</v>
       </c>
       <c r="I272" t="n">
-        <v>67.83799999999999</v>
+        <v>145</v>
       </c>
       <c r="J272" t="n">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="K272" t="n">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="L272" t="n">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="M272" t="n">
         <v>120</v>
@@ -19456,16 +19356,16 @@
         <v>134</v>
       </c>
       <c r="I273" t="n">
-        <v>67.83799999999999</v>
+        <v>127.6</v>
       </c>
       <c r="J273" t="n">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="K273" t="n">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="L273" t="n">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="M273" t="n">
         <v>120</v>
@@ -19529,16 +19429,16 @@
         <v>134</v>
       </c>
       <c r="I274" t="n">
-        <v>67.83799999999999</v>
+        <v>118.1204347826087</v>
       </c>
       <c r="J274" t="n">
-        <v>62</v>
+        <v>103.545</v>
       </c>
       <c r="K274" t="n">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="L274" t="n">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="M274" t="n">
         <v>120</v>
@@ -19602,16 +19502,16 @@
         <v>134</v>
       </c>
       <c r="I275" t="n">
-        <v>67.83799999999999</v>
+        <v>117.1857142857143</v>
       </c>
       <c r="J275" t="n">
-        <v>62</v>
+        <v>100.7</v>
       </c>
       <c r="K275" t="n">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="L275" t="n">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="M275" t="n">
         <v>120</v>
@@ -19675,16 +19575,16 @@
         <v>134</v>
       </c>
       <c r="I276" t="n">
-        <v>67.83799999999999</v>
+        <v>119.375</v>
       </c>
       <c r="J276" t="n">
-        <v>62</v>
+        <v>99.5</v>
       </c>
       <c r="K276" t="n">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="L276" t="n">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="M276" t="n">
         <v>120</v>
@@ -19748,16 +19648,16 @@
         <v>134</v>
       </c>
       <c r="I277" t="n">
-        <v>67.83799999999999</v>
+        <v>112.93875</v>
       </c>
       <c r="J277" t="n">
-        <v>62</v>
+        <v>98.25</v>
       </c>
       <c r="K277" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="L277" t="n">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="M277" t="n">
         <v>120</v>
@@ -19821,16 +19721,16 @@
         <v>134</v>
       </c>
       <c r="I278" t="n">
-        <v>67.83799999999999</v>
+        <v>102.2</v>
       </c>
       <c r="J278" t="n">
-        <v>62</v>
+        <v>96.685</v>
       </c>
       <c r="K278" t="n">
-        <v>125</v>
+        <v>138.495</v>
       </c>
       <c r="L278" t="n">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="M278" t="n">
         <v>120</v>
@@ -19894,16 +19794,16 @@
         <v>134</v>
       </c>
       <c r="I279" t="n">
-        <v>67.83799999999999</v>
+        <v>104</v>
       </c>
       <c r="J279" t="n">
-        <v>62</v>
+        <v>96.685</v>
       </c>
       <c r="K279" t="n">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="L279" t="n">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="M279" t="n">
         <v>120</v>
@@ -19936,6 +19836,79 @@
         <v>118.25</v>
       </c>
       <c r="W279" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>121.9411764705882</v>
+      </c>
+      <c r="D280" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="E280" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="F280" t="n">
+        <v>139</v>
+      </c>
+      <c r="G280" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H280" t="n">
+        <v>134</v>
+      </c>
+      <c r="I280" t="n">
+        <v>110.6153846153846</v>
+      </c>
+      <c r="J280" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="K280" t="n">
+        <v>142</v>
+      </c>
+      <c r="L280" t="n">
+        <v>169</v>
+      </c>
+      <c r="M280" t="n">
+        <v>120</v>
+      </c>
+      <c r="N280" t="n">
+        <v>155</v>
+      </c>
+      <c r="O280" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="P280" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R280" t="n">
+        <v>99</v>
+      </c>
+      <c r="S280" t="n">
+        <v>160</v>
+      </c>
+      <c r="T280" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U280" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V280" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W280" t="n">
         <v>64.48999999999999</v>
       </c>
     </row>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W280"/>
+  <dimension ref="A1:W283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19912,6 +19912,225 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="D281" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="E281" t="n">
+        <v>145.0833333333333</v>
+      </c>
+      <c r="F281" t="n">
+        <v>139</v>
+      </c>
+      <c r="G281" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H281" t="n">
+        <v>134</v>
+      </c>
+      <c r="I281" t="n">
+        <v>112.98</v>
+      </c>
+      <c r="J281" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="K281" t="n">
+        <v>153.25</v>
+      </c>
+      <c r="L281" t="n">
+        <v>169</v>
+      </c>
+      <c r="M281" t="n">
+        <v>120</v>
+      </c>
+      <c r="N281" t="n">
+        <v>155</v>
+      </c>
+      <c r="O281" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="P281" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R281" t="n">
+        <v>99</v>
+      </c>
+      <c r="S281" t="n">
+        <v>160</v>
+      </c>
+      <c r="T281" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U281" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V281" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W281" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>138</v>
+      </c>
+      <c r="D282" t="n">
+        <v>153</v>
+      </c>
+      <c r="E282" t="n">
+        <v>145.0833333333333</v>
+      </c>
+      <c r="F282" t="n">
+        <v>139</v>
+      </c>
+      <c r="G282" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H282" t="n">
+        <v>134</v>
+      </c>
+      <c r="I282" t="n">
+        <v>120</v>
+      </c>
+      <c r="J282" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="K282" t="n">
+        <v>153.25</v>
+      </c>
+      <c r="L282" t="n">
+        <v>169</v>
+      </c>
+      <c r="M282" t="n">
+        <v>120</v>
+      </c>
+      <c r="N282" t="n">
+        <v>155</v>
+      </c>
+      <c r="O282" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="P282" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R282" t="n">
+        <v>99</v>
+      </c>
+      <c r="S282" t="n">
+        <v>160</v>
+      </c>
+      <c r="T282" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U282" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V282" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W282" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>19/11/2024</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>141</v>
+      </c>
+      <c r="D283" t="n">
+        <v>153</v>
+      </c>
+      <c r="E283" t="n">
+        <v>145.0833333333333</v>
+      </c>
+      <c r="F283" t="n">
+        <v>139</v>
+      </c>
+      <c r="G283" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H283" t="n">
+        <v>134</v>
+      </c>
+      <c r="I283" t="n">
+        <v>126</v>
+      </c>
+      <c r="J283" t="n">
+        <v>105</v>
+      </c>
+      <c r="K283" t="n">
+        <v>153.25</v>
+      </c>
+      <c r="L283" t="n">
+        <v>169</v>
+      </c>
+      <c r="M283" t="n">
+        <v>120</v>
+      </c>
+      <c r="N283" t="n">
+        <v>155</v>
+      </c>
+      <c r="O283" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="P283" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R283" t="n">
+        <v>99</v>
+      </c>
+      <c r="S283" t="n">
+        <v>160</v>
+      </c>
+      <c r="T283" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U283" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V283" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W283" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W283"/>
+  <dimension ref="A1:W286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20131,6 +20131,225 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="D284" t="n">
+        <v>152.8230769230769</v>
+      </c>
+      <c r="E284" t="n">
+        <v>145.0833333333333</v>
+      </c>
+      <c r="F284" t="n">
+        <v>139</v>
+      </c>
+      <c r="G284" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H284" t="n">
+        <v>134</v>
+      </c>
+      <c r="I284" t="n">
+        <v>121.1428571428571</v>
+      </c>
+      <c r="J284" t="n">
+        <v>101</v>
+      </c>
+      <c r="K284" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="L284" t="n">
+        <v>169</v>
+      </c>
+      <c r="M284" t="n">
+        <v>120</v>
+      </c>
+      <c r="N284" t="n">
+        <v>175</v>
+      </c>
+      <c r="O284" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="P284" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R284" t="n">
+        <v>99</v>
+      </c>
+      <c r="S284" t="n">
+        <v>160</v>
+      </c>
+      <c r="T284" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U284" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V284" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W284" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>134</v>
+      </c>
+      <c r="D285" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="E285" t="n">
+        <v>145.0833333333333</v>
+      </c>
+      <c r="F285" t="n">
+        <v>139</v>
+      </c>
+      <c r="G285" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H285" t="n">
+        <v>134</v>
+      </c>
+      <c r="I285" t="n">
+        <v>116.55</v>
+      </c>
+      <c r="J285" t="n">
+        <v>98.83333333333333</v>
+      </c>
+      <c r="K285" t="n">
+        <v>160</v>
+      </c>
+      <c r="L285" t="n">
+        <v>160</v>
+      </c>
+      <c r="M285" t="n">
+        <v>120</v>
+      </c>
+      <c r="N285" t="n">
+        <v>170</v>
+      </c>
+      <c r="O285" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="P285" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R285" t="n">
+        <v>99</v>
+      </c>
+      <c r="S285" t="n">
+        <v>160</v>
+      </c>
+      <c r="T285" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U285" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V285" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W285" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>134</v>
+      </c>
+      <c r="D286" t="n">
+        <v>153</v>
+      </c>
+      <c r="E286" t="n">
+        <v>145.0833333333333</v>
+      </c>
+      <c r="F286" t="n">
+        <v>139</v>
+      </c>
+      <c r="G286" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H286" t="n">
+        <v>134</v>
+      </c>
+      <c r="I286" t="n">
+        <v>115.275</v>
+      </c>
+      <c r="J286" t="n">
+        <v>98.83333333333333</v>
+      </c>
+      <c r="K286" t="n">
+        <v>163</v>
+      </c>
+      <c r="L286" t="n">
+        <v>160</v>
+      </c>
+      <c r="M286" t="n">
+        <v>120</v>
+      </c>
+      <c r="N286" t="n">
+        <v>170</v>
+      </c>
+      <c r="O286" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="P286" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R286" t="n">
+        <v>99</v>
+      </c>
+      <c r="S286" t="n">
+        <v>160</v>
+      </c>
+      <c r="T286" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U286" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V286" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W286" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W286"/>
+  <dimension ref="A1:W297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20350,6 +20350,809 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>26/11/2024</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>131.5882352941177</v>
+      </c>
+      <c r="D287" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="E287" t="n">
+        <v>145.0833333333333</v>
+      </c>
+      <c r="F287" t="n">
+        <v>139</v>
+      </c>
+      <c r="G287" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H287" t="n">
+        <v>134</v>
+      </c>
+      <c r="I287" t="n">
+        <v>106.5071428571429</v>
+      </c>
+      <c r="J287" t="n">
+        <v>96.62625</v>
+      </c>
+      <c r="K287" t="n">
+        <v>155</v>
+      </c>
+      <c r="L287" t="n">
+        <v>163</v>
+      </c>
+      <c r="M287" t="n">
+        <v>120</v>
+      </c>
+      <c r="N287" t="n">
+        <v>163</v>
+      </c>
+      <c r="O287" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="P287" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R287" t="n">
+        <v>99</v>
+      </c>
+      <c r="S287" t="n">
+        <v>160</v>
+      </c>
+      <c r="T287" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U287" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V287" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W287" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="D288" t="n">
+        <v>150</v>
+      </c>
+      <c r="E288" t="n">
+        <v>145.0833333333333</v>
+      </c>
+      <c r="F288" t="n">
+        <v>140</v>
+      </c>
+      <c r="G288" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H288" t="n">
+        <v>134</v>
+      </c>
+      <c r="I288" t="n">
+        <v>105.7777777777778</v>
+      </c>
+      <c r="J288" t="n">
+        <v>98.10166666666667</v>
+      </c>
+      <c r="K288" t="n">
+        <v>160.75</v>
+      </c>
+      <c r="L288" t="n">
+        <v>163</v>
+      </c>
+      <c r="M288" t="n">
+        <v>120</v>
+      </c>
+      <c r="N288" t="n">
+        <v>163</v>
+      </c>
+      <c r="O288" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="P288" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R288" t="n">
+        <v>99</v>
+      </c>
+      <c r="S288" t="n">
+        <v>160</v>
+      </c>
+      <c r="T288" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U288" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V288" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W288" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>28/11/2024</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>137.475</v>
+      </c>
+      <c r="D289" t="n">
+        <v>150.6666666666667</v>
+      </c>
+      <c r="E289" t="n">
+        <v>146.75</v>
+      </c>
+      <c r="F289" t="n">
+        <v>140</v>
+      </c>
+      <c r="G289" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H289" t="n">
+        <v>134</v>
+      </c>
+      <c r="I289" t="n">
+        <v>110.0909090909091</v>
+      </c>
+      <c r="J289" t="n">
+        <v>100</v>
+      </c>
+      <c r="K289" t="n">
+        <v>170.3333333333333</v>
+      </c>
+      <c r="L289" t="n">
+        <v>163</v>
+      </c>
+      <c r="M289" t="n">
+        <v>120</v>
+      </c>
+      <c r="N289" t="n">
+        <v>172</v>
+      </c>
+      <c r="O289" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="P289" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R289" t="n">
+        <v>99</v>
+      </c>
+      <c r="S289" t="n">
+        <v>160</v>
+      </c>
+      <c r="T289" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U289" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V289" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W289" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>141</v>
+      </c>
+      <c r="D290" t="n">
+        <v>152.7375</v>
+      </c>
+      <c r="E290" t="n">
+        <v>146.75</v>
+      </c>
+      <c r="F290" t="n">
+        <v>140</v>
+      </c>
+      <c r="G290" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H290" t="n">
+        <v>134</v>
+      </c>
+      <c r="I290" t="n">
+        <v>116.25</v>
+      </c>
+      <c r="J290" t="n">
+        <v>102.1666666666667</v>
+      </c>
+      <c r="K290" t="n">
+        <v>170.3333333333333</v>
+      </c>
+      <c r="L290" t="n">
+        <v>163</v>
+      </c>
+      <c r="M290" t="n">
+        <v>120</v>
+      </c>
+      <c r="N290" t="n">
+        <v>172</v>
+      </c>
+      <c r="O290" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="P290" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R290" t="n">
+        <v>99</v>
+      </c>
+      <c r="S290" t="n">
+        <v>160</v>
+      </c>
+      <c r="T290" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U290" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V290" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W290" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>139.6666666666667</v>
+      </c>
+      <c r="D291" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="E291" t="n">
+        <v>146.75</v>
+      </c>
+      <c r="F291" t="n">
+        <v>140</v>
+      </c>
+      <c r="G291" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H291" t="n">
+        <v>134</v>
+      </c>
+      <c r="I291" t="n">
+        <v>125.6666666666667</v>
+      </c>
+      <c r="J291" t="n">
+        <v>104</v>
+      </c>
+      <c r="K291" t="n">
+        <v>170.3333333333333</v>
+      </c>
+      <c r="L291" t="n">
+        <v>163</v>
+      </c>
+      <c r="M291" t="n">
+        <v>120</v>
+      </c>
+      <c r="N291" t="n">
+        <v>172</v>
+      </c>
+      <c r="O291" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="P291" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R291" t="n">
+        <v>99</v>
+      </c>
+      <c r="S291" t="n">
+        <v>160</v>
+      </c>
+      <c r="T291" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U291" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V291" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W291" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>03/12/2024</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>143.3333333333333</v>
+      </c>
+      <c r="D292" t="n">
+        <v>154.75</v>
+      </c>
+      <c r="E292" t="n">
+        <v>146.75</v>
+      </c>
+      <c r="F292" t="n">
+        <v>140</v>
+      </c>
+      <c r="G292" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H292" t="n">
+        <v>134</v>
+      </c>
+      <c r="I292" t="n">
+        <v>128.3333333333333</v>
+      </c>
+      <c r="J292" t="n">
+        <v>104</v>
+      </c>
+      <c r="K292" t="n">
+        <v>170.3333333333333</v>
+      </c>
+      <c r="L292" t="n">
+        <v>163</v>
+      </c>
+      <c r="M292" t="n">
+        <v>120</v>
+      </c>
+      <c r="N292" t="n">
+        <v>172</v>
+      </c>
+      <c r="O292" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="P292" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R292" t="n">
+        <v>99</v>
+      </c>
+      <c r="S292" t="n">
+        <v>160</v>
+      </c>
+      <c r="T292" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U292" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V292" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W292" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>04/12/2024</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>155</v>
+      </c>
+      <c r="D293" t="n">
+        <v>152.32</v>
+      </c>
+      <c r="E293" t="n">
+        <v>119.8333333333333</v>
+      </c>
+      <c r="F293" t="n">
+        <v>142</v>
+      </c>
+      <c r="G293" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H293" t="n">
+        <v>134</v>
+      </c>
+      <c r="I293" t="n">
+        <v>136.1111111111111</v>
+      </c>
+      <c r="J293" t="n">
+        <v>104</v>
+      </c>
+      <c r="K293" t="n">
+        <v>185</v>
+      </c>
+      <c r="L293" t="n">
+        <v>163</v>
+      </c>
+      <c r="M293" t="n">
+        <v>120</v>
+      </c>
+      <c r="N293" t="n">
+        <v>172</v>
+      </c>
+      <c r="O293" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="P293" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R293" t="n">
+        <v>99</v>
+      </c>
+      <c r="S293" t="n">
+        <v>160</v>
+      </c>
+      <c r="T293" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U293" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V293" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W293" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>05/12/2024</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>153.835</v>
+      </c>
+      <c r="D294" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="E294" t="n">
+        <v>153</v>
+      </c>
+      <c r="F294" t="n">
+        <v>140</v>
+      </c>
+      <c r="G294" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H294" t="n">
+        <v>134</v>
+      </c>
+      <c r="I294" t="n">
+        <v>134.3541666666667</v>
+      </c>
+      <c r="J294" t="n">
+        <v>104</v>
+      </c>
+      <c r="K294" t="n">
+        <v>185</v>
+      </c>
+      <c r="L294" t="n">
+        <v>163</v>
+      </c>
+      <c r="M294" t="n">
+        <v>120</v>
+      </c>
+      <c r="N294" t="n">
+        <v>172</v>
+      </c>
+      <c r="O294" t="n">
+        <v>189</v>
+      </c>
+      <c r="P294" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R294" t="n">
+        <v>99</v>
+      </c>
+      <c r="S294" t="n">
+        <v>160</v>
+      </c>
+      <c r="T294" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U294" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V294" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W294" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>06/12/2024</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>150</v>
+      </c>
+      <c r="D295" t="n">
+        <v>160.625</v>
+      </c>
+      <c r="E295" t="n">
+        <v>153</v>
+      </c>
+      <c r="F295" t="n">
+        <v>140</v>
+      </c>
+      <c r="G295" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H295" t="n">
+        <v>134</v>
+      </c>
+      <c r="I295" t="n">
+        <v>128.525</v>
+      </c>
+      <c r="J295" t="n">
+        <v>104</v>
+      </c>
+      <c r="K295" t="n">
+        <v>185</v>
+      </c>
+      <c r="L295" t="n">
+        <v>163</v>
+      </c>
+      <c r="M295" t="n">
+        <v>120</v>
+      </c>
+      <c r="N295" t="n">
+        <v>172</v>
+      </c>
+      <c r="O295" t="n">
+        <v>189</v>
+      </c>
+      <c r="P295" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R295" t="n">
+        <v>99</v>
+      </c>
+      <c r="S295" t="n">
+        <v>160</v>
+      </c>
+      <c r="T295" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U295" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V295" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W295" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>143.625</v>
+      </c>
+      <c r="D296" t="n">
+        <v>157.781</v>
+      </c>
+      <c r="E296" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="F296" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="G296" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H296" t="n">
+        <v>134</v>
+      </c>
+      <c r="I296" t="n">
+        <v>118.840625</v>
+      </c>
+      <c r="J296" t="n">
+        <v>103.8333333333333</v>
+      </c>
+      <c r="K296" t="n">
+        <v>178.875</v>
+      </c>
+      <c r="L296" t="n">
+        <v>163</v>
+      </c>
+      <c r="M296" t="n">
+        <v>120</v>
+      </c>
+      <c r="N296" t="n">
+        <v>172</v>
+      </c>
+      <c r="O296" t="n">
+        <v>189</v>
+      </c>
+      <c r="P296" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R296" t="n">
+        <v>99</v>
+      </c>
+      <c r="S296" t="n">
+        <v>160</v>
+      </c>
+      <c r="T296" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U296" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V296" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W296" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>10/12/2024</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>139</v>
+      </c>
+      <c r="D297" t="n">
+        <v>154.7142857142857</v>
+      </c>
+      <c r="E297" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="F297" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="G297" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H297" t="n">
+        <v>134</v>
+      </c>
+      <c r="I297" t="n">
+        <v>105.1536842105263</v>
+      </c>
+      <c r="J297" t="n">
+        <v>101.25</v>
+      </c>
+      <c r="K297" t="n">
+        <v>170.6666666666667</v>
+      </c>
+      <c r="L297" t="n">
+        <v>179</v>
+      </c>
+      <c r="M297" t="n">
+        <v>120</v>
+      </c>
+      <c r="N297" t="n">
+        <v>172</v>
+      </c>
+      <c r="O297" t="n">
+        <v>189</v>
+      </c>
+      <c r="P297" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R297" t="n">
+        <v>99</v>
+      </c>
+      <c r="S297" t="n">
+        <v>160</v>
+      </c>
+      <c r="T297" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U297" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V297" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W297" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W297"/>
+  <dimension ref="A1:W302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21153,6 +21153,371 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>11/12/2024</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>138.9583333333333</v>
+      </c>
+      <c r="D298" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="E298" t="n">
+        <v>147.57</v>
+      </c>
+      <c r="F298" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="G298" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H298" t="n">
+        <v>134</v>
+      </c>
+      <c r="I298" t="n">
+        <v>100.3333333333333</v>
+      </c>
+      <c r="J298" t="n">
+        <v>100.7964285714286</v>
+      </c>
+      <c r="K298" t="n">
+        <v>165.6666666666667</v>
+      </c>
+      <c r="L298" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="M298" t="n">
+        <v>120</v>
+      </c>
+      <c r="N298" t="n">
+        <v>172</v>
+      </c>
+      <c r="O298" t="n">
+        <v>189</v>
+      </c>
+      <c r="P298" t="n">
+        <v>181</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R298" t="n">
+        <v>99</v>
+      </c>
+      <c r="S298" t="n">
+        <v>160</v>
+      </c>
+      <c r="T298" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U298" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V298" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W298" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>12/12/2024</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>132.7222222222222</v>
+      </c>
+      <c r="D299" t="n">
+        <v>154.2871428571429</v>
+      </c>
+      <c r="E299" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="F299" t="n">
+        <v>142</v>
+      </c>
+      <c r="G299" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H299" t="n">
+        <v>134</v>
+      </c>
+      <c r="I299" t="n">
+        <v>94.49857142857142</v>
+      </c>
+      <c r="J299" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="K299" t="n">
+        <v>157.25</v>
+      </c>
+      <c r="L299" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="M299" t="n">
+        <v>120</v>
+      </c>
+      <c r="N299" t="n">
+        <v>172</v>
+      </c>
+      <c r="O299" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="P299" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R299" t="n">
+        <v>99</v>
+      </c>
+      <c r="S299" t="n">
+        <v>160</v>
+      </c>
+      <c r="T299" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U299" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V299" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W299" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>13/12/2024</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>135</v>
+      </c>
+      <c r="D300" t="n">
+        <v>161.6666666666667</v>
+      </c>
+      <c r="E300" t="n">
+        <v>147.25</v>
+      </c>
+      <c r="F300" t="n">
+        <v>142</v>
+      </c>
+      <c r="G300" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H300" t="n">
+        <v>134</v>
+      </c>
+      <c r="I300" t="n">
+        <v>97.75</v>
+      </c>
+      <c r="J300" t="n">
+        <v>101.6666666666667</v>
+      </c>
+      <c r="K300" t="n">
+        <v>164</v>
+      </c>
+      <c r="L300" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="M300" t="n">
+        <v>120</v>
+      </c>
+      <c r="N300" t="n">
+        <v>172</v>
+      </c>
+      <c r="O300" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="P300" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R300" t="n">
+        <v>99</v>
+      </c>
+      <c r="S300" t="n">
+        <v>160</v>
+      </c>
+      <c r="T300" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U300" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V300" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W300" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>16/12/2024</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>130.0625</v>
+      </c>
+      <c r="D301" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="E301" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="F301" t="n">
+        <v>141</v>
+      </c>
+      <c r="G301" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H301" t="n">
+        <v>134</v>
+      </c>
+      <c r="I301" t="n">
+        <v>88.63047619047619</v>
+      </c>
+      <c r="J301" t="n">
+        <v>99.366</v>
+      </c>
+      <c r="K301" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="L301" t="n">
+        <v>165</v>
+      </c>
+      <c r="M301" t="n">
+        <v>120</v>
+      </c>
+      <c r="N301" t="n">
+        <v>172</v>
+      </c>
+      <c r="O301" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="P301" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R301" t="n">
+        <v>99</v>
+      </c>
+      <c r="S301" t="n">
+        <v>160</v>
+      </c>
+      <c r="T301" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U301" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V301" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W301" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>17/12/2024</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>128</v>
+      </c>
+      <c r="D302" t="n">
+        <v>152.875</v>
+      </c>
+      <c r="E302" t="n">
+        <v>145.4285714285714</v>
+      </c>
+      <c r="F302" t="n">
+        <v>141</v>
+      </c>
+      <c r="G302" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H302" t="n">
+        <v>134</v>
+      </c>
+      <c r="I302" t="n">
+        <v>82.71428571428571</v>
+      </c>
+      <c r="J302" t="n">
+        <v>97.90909090909091</v>
+      </c>
+      <c r="K302" t="n">
+        <v>159</v>
+      </c>
+      <c r="L302" t="n">
+        <v>163.75</v>
+      </c>
+      <c r="M302" t="n">
+        <v>120</v>
+      </c>
+      <c r="N302" t="n">
+        <v>162.3333333333333</v>
+      </c>
+      <c r="O302" t="n">
+        <v>187</v>
+      </c>
+      <c r="P302" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R302" t="n">
+        <v>99</v>
+      </c>
+      <c r="S302" t="n">
+        <v>160</v>
+      </c>
+      <c r="T302" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U302" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V302" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W302" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W302"/>
+  <dimension ref="A1:W306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21518,6 +21518,298 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>18/12/2024</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>128</v>
+      </c>
+      <c r="D303" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="E303" t="n">
+        <v>145.4285714285714</v>
+      </c>
+      <c r="F303" t="n">
+        <v>141</v>
+      </c>
+      <c r="G303" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H303" t="n">
+        <v>134</v>
+      </c>
+      <c r="I303" t="n">
+        <v>82.71428571428571</v>
+      </c>
+      <c r="J303" t="n">
+        <v>100.1666666666667</v>
+      </c>
+      <c r="K303" t="n">
+        <v>159</v>
+      </c>
+      <c r="L303" t="n">
+        <v>165</v>
+      </c>
+      <c r="M303" t="n">
+        <v>120</v>
+      </c>
+      <c r="N303" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="O303" t="n">
+        <v>193</v>
+      </c>
+      <c r="P303" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="R303" t="n">
+        <v>99</v>
+      </c>
+      <c r="S303" t="n">
+        <v>160</v>
+      </c>
+      <c r="T303" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U303" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V303" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W303" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>19/12/2024</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>130</v>
+      </c>
+      <c r="D304" t="n">
+        <v>155.15</v>
+      </c>
+      <c r="E304" t="n">
+        <v>145.3333333333333</v>
+      </c>
+      <c r="F304" t="n">
+        <v>141</v>
+      </c>
+      <c r="G304" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H304" t="n">
+        <v>134</v>
+      </c>
+      <c r="I304" t="n">
+        <v>82.71428571428571</v>
+      </c>
+      <c r="J304" t="n">
+        <v>102.8333333333333</v>
+      </c>
+      <c r="K304" t="n">
+        <v>159</v>
+      </c>
+      <c r="L304" t="n">
+        <v>165</v>
+      </c>
+      <c r="M304" t="n">
+        <v>120</v>
+      </c>
+      <c r="N304" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="O304" t="n">
+        <v>188</v>
+      </c>
+      <c r="P304" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>174</v>
+      </c>
+      <c r="R304" t="n">
+        <v>99</v>
+      </c>
+      <c r="S304" t="n">
+        <v>160</v>
+      </c>
+      <c r="T304" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U304" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V304" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W304" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>20/12/2024</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>132.3285714285714</v>
+      </c>
+      <c r="D305" t="n">
+        <v>155</v>
+      </c>
+      <c r="E305" t="n">
+        <v>146</v>
+      </c>
+      <c r="F305" t="n">
+        <v>141</v>
+      </c>
+      <c r="G305" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H305" t="n">
+        <v>134</v>
+      </c>
+      <c r="I305" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="J305" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="K305" t="n">
+        <v>159</v>
+      </c>
+      <c r="L305" t="n">
+        <v>165</v>
+      </c>
+      <c r="M305" t="n">
+        <v>120</v>
+      </c>
+      <c r="N305" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="O305" t="n">
+        <v>188</v>
+      </c>
+      <c r="P305" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>174</v>
+      </c>
+      <c r="R305" t="n">
+        <v>99</v>
+      </c>
+      <c r="S305" t="n">
+        <v>160</v>
+      </c>
+      <c r="T305" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U305" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V305" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W305" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>23/12/2024</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>130.3333333333333</v>
+      </c>
+      <c r="D306" t="n">
+        <v>156</v>
+      </c>
+      <c r="E306" t="n">
+        <v>146</v>
+      </c>
+      <c r="F306" t="n">
+        <v>141</v>
+      </c>
+      <c r="G306" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H306" t="n">
+        <v>134</v>
+      </c>
+      <c r="I306" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="J306" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="K306" t="n">
+        <v>159</v>
+      </c>
+      <c r="L306" t="n">
+        <v>165</v>
+      </c>
+      <c r="M306" t="n">
+        <v>120</v>
+      </c>
+      <c r="N306" t="n">
+        <v>162</v>
+      </c>
+      <c r="O306" t="n">
+        <v>188</v>
+      </c>
+      <c r="P306" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>174</v>
+      </c>
+      <c r="R306" t="n">
+        <v>99</v>
+      </c>
+      <c r="S306" t="n">
+        <v>160</v>
+      </c>
+      <c r="T306" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U306" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V306" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W306" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W306"/>
+  <dimension ref="A1:W318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21810,6 +21810,882 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>26/12/2024</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>138.125</v>
+      </c>
+      <c r="D307" t="n">
+        <v>158.5</v>
+      </c>
+      <c r="E307" t="n">
+        <v>146</v>
+      </c>
+      <c r="F307" t="n">
+        <v>141</v>
+      </c>
+      <c r="G307" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H307" t="n">
+        <v>134</v>
+      </c>
+      <c r="I307" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="J307" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="K307" t="n">
+        <v>159</v>
+      </c>
+      <c r="L307" t="n">
+        <v>165</v>
+      </c>
+      <c r="M307" t="n">
+        <v>120</v>
+      </c>
+      <c r="N307" t="n">
+        <v>173</v>
+      </c>
+      <c r="O307" t="n">
+        <v>188</v>
+      </c>
+      <c r="P307" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>174</v>
+      </c>
+      <c r="R307" t="n">
+        <v>99</v>
+      </c>
+      <c r="S307" t="n">
+        <v>160</v>
+      </c>
+      <c r="T307" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U307" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V307" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W307" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>27/12/2024</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="D308" t="n">
+        <v>158.5</v>
+      </c>
+      <c r="E308" t="n">
+        <v>147</v>
+      </c>
+      <c r="F308" t="n">
+        <v>141</v>
+      </c>
+      <c r="G308" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H308" t="n">
+        <v>134</v>
+      </c>
+      <c r="I308" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="J308" t="n">
+        <v>104</v>
+      </c>
+      <c r="K308" t="n">
+        <v>159</v>
+      </c>
+      <c r="L308" t="n">
+        <v>165</v>
+      </c>
+      <c r="M308" t="n">
+        <v>120</v>
+      </c>
+      <c r="N308" t="n">
+        <v>173</v>
+      </c>
+      <c r="O308" t="n">
+        <v>188</v>
+      </c>
+      <c r="P308" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>174</v>
+      </c>
+      <c r="R308" t="n">
+        <v>99</v>
+      </c>
+      <c r="S308" t="n">
+        <v>160</v>
+      </c>
+      <c r="T308" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U308" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V308" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W308" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>30/12/2024</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="D309" t="n">
+        <v>147</v>
+      </c>
+      <c r="E309" t="n">
+        <v>147</v>
+      </c>
+      <c r="F309" t="n">
+        <v>141</v>
+      </c>
+      <c r="G309" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H309" t="n">
+        <v>134</v>
+      </c>
+      <c r="I309" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="J309" t="n">
+        <v>98</v>
+      </c>
+      <c r="K309" t="n">
+        <v>159</v>
+      </c>
+      <c r="L309" t="n">
+        <v>165</v>
+      </c>
+      <c r="M309" t="n">
+        <v>120</v>
+      </c>
+      <c r="N309" t="n">
+        <v>173</v>
+      </c>
+      <c r="O309" t="n">
+        <v>188</v>
+      </c>
+      <c r="P309" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>174</v>
+      </c>
+      <c r="R309" t="n">
+        <v>99</v>
+      </c>
+      <c r="S309" t="n">
+        <v>160</v>
+      </c>
+      <c r="T309" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U309" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V309" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W309" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>02/01/2025</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>139</v>
+      </c>
+      <c r="D310" t="n">
+        <v>161.1666666666667</v>
+      </c>
+      <c r="E310" t="n">
+        <v>147</v>
+      </c>
+      <c r="F310" t="n">
+        <v>141</v>
+      </c>
+      <c r="G310" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H310" t="n">
+        <v>134</v>
+      </c>
+      <c r="I310" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="J310" t="n">
+        <v>104.75</v>
+      </c>
+      <c r="K310" t="n">
+        <v>159</v>
+      </c>
+      <c r="L310" t="n">
+        <v>165</v>
+      </c>
+      <c r="M310" t="n">
+        <v>120</v>
+      </c>
+      <c r="N310" t="n">
+        <v>173</v>
+      </c>
+      <c r="O310" t="n">
+        <v>188</v>
+      </c>
+      <c r="P310" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>174</v>
+      </c>
+      <c r="R310" t="n">
+        <v>99</v>
+      </c>
+      <c r="S310" t="n">
+        <v>160</v>
+      </c>
+      <c r="T310" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U310" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V310" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W310" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>03/01/2025</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>139</v>
+      </c>
+      <c r="D311" t="n">
+        <v>162</v>
+      </c>
+      <c r="E311" t="n">
+        <v>147</v>
+      </c>
+      <c r="F311" t="n">
+        <v>141</v>
+      </c>
+      <c r="G311" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H311" t="n">
+        <v>134</v>
+      </c>
+      <c r="I311" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="J311" t="n">
+        <v>106.25</v>
+      </c>
+      <c r="K311" t="n">
+        <v>159</v>
+      </c>
+      <c r="L311" t="n">
+        <v>165</v>
+      </c>
+      <c r="M311" t="n">
+        <v>120</v>
+      </c>
+      <c r="N311" t="n">
+        <v>173</v>
+      </c>
+      <c r="O311" t="n">
+        <v>188</v>
+      </c>
+      <c r="P311" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>174</v>
+      </c>
+      <c r="R311" t="n">
+        <v>99</v>
+      </c>
+      <c r="S311" t="n">
+        <v>160</v>
+      </c>
+      <c r="T311" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U311" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V311" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W311" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>06/01/2025</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>139</v>
+      </c>
+      <c r="D312" t="n">
+        <v>158</v>
+      </c>
+      <c r="E312" t="n">
+        <v>147</v>
+      </c>
+      <c r="F312" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="G312" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H312" t="n">
+        <v>134</v>
+      </c>
+      <c r="I312" t="n">
+        <v>79</v>
+      </c>
+      <c r="J312" t="n">
+        <v>100.9375</v>
+      </c>
+      <c r="K312" t="n">
+        <v>189</v>
+      </c>
+      <c r="L312" t="n">
+        <v>165</v>
+      </c>
+      <c r="M312" t="n">
+        <v>120</v>
+      </c>
+      <c r="N312" t="n">
+        <v>173</v>
+      </c>
+      <c r="O312" t="n">
+        <v>188</v>
+      </c>
+      <c r="P312" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>174</v>
+      </c>
+      <c r="R312" t="n">
+        <v>99</v>
+      </c>
+      <c r="S312" t="n">
+        <v>160</v>
+      </c>
+      <c r="T312" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U312" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V312" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W312" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>07/01/2025</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>135.1666666666667</v>
+      </c>
+      <c r="D313" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="E313" t="n">
+        <v>147</v>
+      </c>
+      <c r="F313" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="G313" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H313" t="n">
+        <v>134</v>
+      </c>
+      <c r="I313" t="n">
+        <v>74</v>
+      </c>
+      <c r="J313" t="n">
+        <v>99.73214285714286</v>
+      </c>
+      <c r="K313" t="n">
+        <v>184</v>
+      </c>
+      <c r="L313" t="n">
+        <v>165</v>
+      </c>
+      <c r="M313" t="n">
+        <v>120</v>
+      </c>
+      <c r="N313" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="O313" t="n">
+        <v>188</v>
+      </c>
+      <c r="P313" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>174</v>
+      </c>
+      <c r="R313" t="n">
+        <v>99</v>
+      </c>
+      <c r="S313" t="n">
+        <v>160</v>
+      </c>
+      <c r="T313" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U313" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V313" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W313" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>08/01/2025</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="D314" t="n">
+        <v>160.72</v>
+      </c>
+      <c r="E314" t="n">
+        <v>148.25</v>
+      </c>
+      <c r="F314" t="n">
+        <v>143</v>
+      </c>
+      <c r="G314" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H314" t="n">
+        <v>134</v>
+      </c>
+      <c r="I314" t="n">
+        <v>73.53999999999999</v>
+      </c>
+      <c r="J314" t="n">
+        <v>100.6666666666667</v>
+      </c>
+      <c r="K314" t="n">
+        <v>188.8571428571429</v>
+      </c>
+      <c r="L314" t="n">
+        <v>165</v>
+      </c>
+      <c r="M314" t="n">
+        <v>120</v>
+      </c>
+      <c r="N314" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="O314" t="n">
+        <v>188</v>
+      </c>
+      <c r="P314" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>174</v>
+      </c>
+      <c r="R314" t="n">
+        <v>99</v>
+      </c>
+      <c r="S314" t="n">
+        <v>160</v>
+      </c>
+      <c r="T314" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U314" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V314" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W314" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>09/01/2025</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>136.75</v>
+      </c>
+      <c r="D315" t="n">
+        <v>161</v>
+      </c>
+      <c r="E315" t="n">
+        <v>148.25</v>
+      </c>
+      <c r="F315" t="n">
+        <v>143</v>
+      </c>
+      <c r="G315" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H315" t="n">
+        <v>134</v>
+      </c>
+      <c r="I315" t="n">
+        <v>73</v>
+      </c>
+      <c r="J315" t="n">
+        <v>99.56874999999999</v>
+      </c>
+      <c r="K315" t="n">
+        <v>189</v>
+      </c>
+      <c r="L315" t="n">
+        <v>192.75</v>
+      </c>
+      <c r="M315" t="n">
+        <v>120</v>
+      </c>
+      <c r="N315" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="O315" t="n">
+        <v>188</v>
+      </c>
+      <c r="P315" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>174</v>
+      </c>
+      <c r="R315" t="n">
+        <v>99</v>
+      </c>
+      <c r="S315" t="n">
+        <v>160</v>
+      </c>
+      <c r="T315" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U315" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V315" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W315" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>10/01/2025</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>149.042</v>
+      </c>
+      <c r="D316" t="n">
+        <v>164</v>
+      </c>
+      <c r="E316" t="n">
+        <v>149</v>
+      </c>
+      <c r="F316" t="n">
+        <v>143</v>
+      </c>
+      <c r="G316" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H316" t="n">
+        <v>134</v>
+      </c>
+      <c r="I316" t="n">
+        <v>85</v>
+      </c>
+      <c r="J316" t="n">
+        <v>100.6666666666667</v>
+      </c>
+      <c r="K316" t="n">
+        <v>193</v>
+      </c>
+      <c r="L316" t="n">
+        <v>192.75</v>
+      </c>
+      <c r="M316" t="n">
+        <v>120</v>
+      </c>
+      <c r="N316" t="n">
+        <v>166.25</v>
+      </c>
+      <c r="O316" t="n">
+        <v>188</v>
+      </c>
+      <c r="P316" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>174</v>
+      </c>
+      <c r="R316" t="n">
+        <v>99</v>
+      </c>
+      <c r="S316" t="n">
+        <v>160</v>
+      </c>
+      <c r="T316" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U316" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V316" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W316" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>151</v>
+      </c>
+      <c r="D317" t="n">
+        <v>168.35</v>
+      </c>
+      <c r="E317" t="n">
+        <v>154</v>
+      </c>
+      <c r="F317" t="n">
+        <v>143.95</v>
+      </c>
+      <c r="G317" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H317" t="n">
+        <v>134</v>
+      </c>
+      <c r="I317" t="n">
+        <v>85</v>
+      </c>
+      <c r="J317" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="K317" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="L317" t="n">
+        <v>213</v>
+      </c>
+      <c r="M317" t="n">
+        <v>120</v>
+      </c>
+      <c r="N317" t="n">
+        <v>166.25</v>
+      </c>
+      <c r="O317" t="n">
+        <v>188</v>
+      </c>
+      <c r="P317" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>174</v>
+      </c>
+      <c r="R317" t="n">
+        <v>99</v>
+      </c>
+      <c r="S317" t="n">
+        <v>160</v>
+      </c>
+      <c r="T317" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U317" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V317" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W317" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>14/01/2025</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>158.9833333333333</v>
+      </c>
+      <c r="D318" t="n">
+        <v>174.5628571428571</v>
+      </c>
+      <c r="E318" t="n">
+        <v>159.2222222222222</v>
+      </c>
+      <c r="F318" t="n">
+        <v>150</v>
+      </c>
+      <c r="G318" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H318" t="n">
+        <v>134</v>
+      </c>
+      <c r="I318" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="J318" t="n">
+        <v>115.4</v>
+      </c>
+      <c r="K318" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="L318" t="n">
+        <v>235</v>
+      </c>
+      <c r="M318" t="n">
+        <v>120</v>
+      </c>
+      <c r="N318" t="n">
+        <v>166.25</v>
+      </c>
+      <c r="O318" t="n">
+        <v>188</v>
+      </c>
+      <c r="P318" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>174</v>
+      </c>
+      <c r="R318" t="n">
+        <v>99</v>
+      </c>
+      <c r="S318" t="n">
+        <v>160</v>
+      </c>
+      <c r="T318" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U318" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V318" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W318" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W318"/>
+  <dimension ref="A1:W320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22686,6 +22686,152 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>15/01/2025</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>160</v>
+      </c>
+      <c r="D319" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="E319" t="n">
+        <v>159</v>
+      </c>
+      <c r="F319" t="n">
+        <v>147</v>
+      </c>
+      <c r="G319" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H319" t="n">
+        <v>134</v>
+      </c>
+      <c r="I319" t="n">
+        <v>72</v>
+      </c>
+      <c r="J319" t="n">
+        <v>115.6088235294118</v>
+      </c>
+      <c r="K319" t="n">
+        <v>220</v>
+      </c>
+      <c r="L319" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="M319" t="n">
+        <v>120</v>
+      </c>
+      <c r="N319" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="O319" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="P319" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>174</v>
+      </c>
+      <c r="R319" t="n">
+        <v>99</v>
+      </c>
+      <c r="S319" t="n">
+        <v>160</v>
+      </c>
+      <c r="T319" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U319" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V319" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W319" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>16/01/2025</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>104.875</v>
+      </c>
+      <c r="D320" t="n">
+        <v>171.7</v>
+      </c>
+      <c r="E320" t="n">
+        <v>156.8166666666667</v>
+      </c>
+      <c r="F320" t="n">
+        <v>147</v>
+      </c>
+      <c r="G320" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H320" t="n">
+        <v>134</v>
+      </c>
+      <c r="I320" t="n">
+        <v>68.05</v>
+      </c>
+      <c r="J320" t="n">
+        <v>113.5833333333333</v>
+      </c>
+      <c r="K320" t="n">
+        <v>209</v>
+      </c>
+      <c r="L320" t="n">
+        <v>226</v>
+      </c>
+      <c r="M320" t="n">
+        <v>120</v>
+      </c>
+      <c r="N320" t="n">
+        <v>185</v>
+      </c>
+      <c r="O320" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="P320" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>174</v>
+      </c>
+      <c r="R320" t="n">
+        <v>99</v>
+      </c>
+      <c r="S320" t="n">
+        <v>160</v>
+      </c>
+      <c r="T320" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U320" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V320" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W320" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W320"/>
+  <dimension ref="A1:W323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22832,6 +22832,225 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>17/01/2025</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>150</v>
+      </c>
+      <c r="D321" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="E321" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="F321" t="n">
+        <v>145</v>
+      </c>
+      <c r="G321" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H321" t="n">
+        <v>134</v>
+      </c>
+      <c r="I321" t="n">
+        <v>68.05</v>
+      </c>
+      <c r="J321" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="K321" t="n">
+        <v>209</v>
+      </c>
+      <c r="L321" t="n">
+        <v>226</v>
+      </c>
+      <c r="M321" t="n">
+        <v>120</v>
+      </c>
+      <c r="N321" t="n">
+        <v>181</v>
+      </c>
+      <c r="O321" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="P321" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>174</v>
+      </c>
+      <c r="R321" t="n">
+        <v>99</v>
+      </c>
+      <c r="S321" t="n">
+        <v>160</v>
+      </c>
+      <c r="T321" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U321" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V321" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W321" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>150</v>
+      </c>
+      <c r="D322" t="n">
+        <v>173</v>
+      </c>
+      <c r="E322" t="n">
+        <v>160</v>
+      </c>
+      <c r="F322" t="n">
+        <v>145</v>
+      </c>
+      <c r="G322" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H322" t="n">
+        <v>134</v>
+      </c>
+      <c r="I322" t="n">
+        <v>68.05</v>
+      </c>
+      <c r="J322" t="n">
+        <v>119.9</v>
+      </c>
+      <c r="K322" t="n">
+        <v>203</v>
+      </c>
+      <c r="L322" t="n">
+        <v>226</v>
+      </c>
+      <c r="M322" t="n">
+        <v>120</v>
+      </c>
+      <c r="N322" t="n">
+        <v>181</v>
+      </c>
+      <c r="O322" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="P322" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>174</v>
+      </c>
+      <c r="R322" t="n">
+        <v>99</v>
+      </c>
+      <c r="S322" t="n">
+        <v>160</v>
+      </c>
+      <c r="T322" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U322" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V322" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W322" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>153.3333333333333</v>
+      </c>
+      <c r="D323" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="E323" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="F323" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="G323" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H323" t="n">
+        <v>134</v>
+      </c>
+      <c r="I323" t="n">
+        <v>77</v>
+      </c>
+      <c r="J323" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="K323" t="n">
+        <v>210.3333333333333</v>
+      </c>
+      <c r="L323" t="n">
+        <v>216</v>
+      </c>
+      <c r="M323" t="n">
+        <v>120</v>
+      </c>
+      <c r="N323" t="n">
+        <v>181</v>
+      </c>
+      <c r="O323" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="P323" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>174</v>
+      </c>
+      <c r="R323" t="n">
+        <v>99</v>
+      </c>
+      <c r="S323" t="n">
+        <v>160</v>
+      </c>
+      <c r="T323" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U323" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V323" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W323" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W323"/>
+  <dimension ref="A1:W326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23051,6 +23051,225 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>22/01/2025</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>150</v>
+      </c>
+      <c r="D324" t="n">
+        <v>169.4642857142857</v>
+      </c>
+      <c r="E324" t="n">
+        <v>155.875</v>
+      </c>
+      <c r="F324" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="G324" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H324" t="n">
+        <v>134</v>
+      </c>
+      <c r="I324" t="n">
+        <v>105</v>
+      </c>
+      <c r="J324" t="n">
+        <v>109.11</v>
+      </c>
+      <c r="K324" t="n">
+        <v>204.25</v>
+      </c>
+      <c r="L324" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="M324" t="n">
+        <v>120</v>
+      </c>
+      <c r="N324" t="n">
+        <v>181</v>
+      </c>
+      <c r="O324" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="P324" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>183</v>
+      </c>
+      <c r="R324" t="n">
+        <v>99</v>
+      </c>
+      <c r="S324" t="n">
+        <v>160</v>
+      </c>
+      <c r="T324" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U324" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V324" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W324" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>23/01/2025</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>150</v>
+      </c>
+      <c r="D325" t="n">
+        <v>172.8333333333333</v>
+      </c>
+      <c r="E325" t="n">
+        <v>160</v>
+      </c>
+      <c r="F325" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="G325" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H325" t="n">
+        <v>134</v>
+      </c>
+      <c r="I325" t="n">
+        <v>105</v>
+      </c>
+      <c r="J325" t="n">
+        <v>117.9266666666667</v>
+      </c>
+      <c r="K325" t="n">
+        <v>212</v>
+      </c>
+      <c r="L325" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="M325" t="n">
+        <v>120</v>
+      </c>
+      <c r="N325" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="O325" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="P325" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>183</v>
+      </c>
+      <c r="R325" t="n">
+        <v>99</v>
+      </c>
+      <c r="S325" t="n">
+        <v>160</v>
+      </c>
+      <c r="T325" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U325" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V325" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W325" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>150</v>
+      </c>
+      <c r="D326" t="n">
+        <v>172.8333333333333</v>
+      </c>
+      <c r="E326" t="n">
+        <v>160</v>
+      </c>
+      <c r="F326" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="G326" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H326" t="n">
+        <v>134</v>
+      </c>
+      <c r="I326" t="n">
+        <v>105</v>
+      </c>
+      <c r="J326" t="n">
+        <v>117.9266666666667</v>
+      </c>
+      <c r="K326" t="n">
+        <v>212</v>
+      </c>
+      <c r="L326" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="M326" t="n">
+        <v>120</v>
+      </c>
+      <c r="N326" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="O326" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="P326" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>183</v>
+      </c>
+      <c r="R326" t="n">
+        <v>99</v>
+      </c>
+      <c r="S326" t="n">
+        <v>160</v>
+      </c>
+      <c r="T326" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U326" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V326" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W326" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W326"/>
+  <dimension ref="A1:W327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23270,6 +23270,79 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>150</v>
+      </c>
+      <c r="D327" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="E327" t="n">
+        <v>160</v>
+      </c>
+      <c r="F327" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="G327" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H327" t="n">
+        <v>134</v>
+      </c>
+      <c r="I327" t="n">
+        <v>105</v>
+      </c>
+      <c r="J327" t="n">
+        <v>117.9266666666667</v>
+      </c>
+      <c r="K327" t="n">
+        <v>212</v>
+      </c>
+      <c r="L327" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="M327" t="n">
+        <v>120</v>
+      </c>
+      <c r="N327" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="O327" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="P327" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>183</v>
+      </c>
+      <c r="R327" t="n">
+        <v>99</v>
+      </c>
+      <c r="S327" t="n">
+        <v>160</v>
+      </c>
+      <c r="T327" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U327" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V327" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W327" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W327"/>
+  <dimension ref="A1:W328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23280,16 +23280,16 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D327" t="n">
-        <v>173.5</v>
+        <v>173.875</v>
       </c>
       <c r="E327" t="n">
-        <v>160</v>
+        <v>155.5</v>
       </c>
       <c r="F327" t="n">
-        <v>149.5</v>
+        <v>150.5</v>
       </c>
       <c r="G327" t="n">
         <v>64.75</v>
@@ -23301,25 +23301,25 @@
         <v>105</v>
       </c>
       <c r="J327" t="n">
-        <v>117.9266666666667</v>
+        <v>126.5</v>
       </c>
       <c r="K327" t="n">
-        <v>212</v>
+        <v>216.8571428571429</v>
       </c>
       <c r="L327" t="n">
-        <v>211.5</v>
+        <v>226</v>
       </c>
       <c r="M327" t="n">
         <v>120</v>
       </c>
       <c r="N327" t="n">
-        <v>178.5</v>
+        <v>170.75</v>
       </c>
       <c r="O327" t="n">
         <v>203.5</v>
       </c>
       <c r="P327" t="n">
-        <v>176</v>
+        <v>189.5</v>
       </c>
       <c r="Q327" t="n">
         <v>183</v>
@@ -23340,6 +23340,79 @@
         <v>118.25</v>
       </c>
       <c r="W327" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>28/01/2025</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>149</v>
+      </c>
+      <c r="D328" t="n">
+        <v>173.4</v>
+      </c>
+      <c r="E328" t="n">
+        <v>159.3333333333333</v>
+      </c>
+      <c r="F328" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="G328" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H328" t="n">
+        <v>134</v>
+      </c>
+      <c r="I328" t="n">
+        <v>75</v>
+      </c>
+      <c r="J328" t="n">
+        <v>124.2</v>
+      </c>
+      <c r="K328" t="n">
+        <v>216.8571428571429</v>
+      </c>
+      <c r="L328" t="n">
+        <v>226</v>
+      </c>
+      <c r="M328" t="n">
+        <v>120</v>
+      </c>
+      <c r="N328" t="n">
+        <v>170.75</v>
+      </c>
+      <c r="O328" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="P328" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>183</v>
+      </c>
+      <c r="R328" t="n">
+        <v>99</v>
+      </c>
+      <c r="S328" t="n">
+        <v>160</v>
+      </c>
+      <c r="T328" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U328" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V328" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W328" t="n">
         <v>64.48999999999999</v>
       </c>
     </row>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W328"/>
+  <dimension ref="A1:W334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23416,6 +23416,444 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>29/01/2025</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>151.75</v>
+      </c>
+      <c r="D329" t="n">
+        <v>174.7875</v>
+      </c>
+      <c r="E329" t="n">
+        <v>161.75</v>
+      </c>
+      <c r="F329" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="G329" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H329" t="n">
+        <v>134</v>
+      </c>
+      <c r="I329" t="n">
+        <v>75</v>
+      </c>
+      <c r="J329" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="K329" t="n">
+        <v>215.3333333333333</v>
+      </c>
+      <c r="L329" t="n">
+        <v>227.3333333333333</v>
+      </c>
+      <c r="M329" t="n">
+        <v>120</v>
+      </c>
+      <c r="N329" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="O329" t="n">
+        <v>206</v>
+      </c>
+      <c r="P329" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>183</v>
+      </c>
+      <c r="R329" t="n">
+        <v>99</v>
+      </c>
+      <c r="S329" t="n">
+        <v>160</v>
+      </c>
+      <c r="T329" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U329" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V329" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W329" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>30/01/2025</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>160</v>
+      </c>
+      <c r="D330" t="n">
+        <v>177</v>
+      </c>
+      <c r="E330" t="n">
+        <v>163</v>
+      </c>
+      <c r="F330" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="G330" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H330" t="n">
+        <v>134</v>
+      </c>
+      <c r="I330" t="n">
+        <v>75</v>
+      </c>
+      <c r="J330" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="K330" t="n">
+        <v>220.05</v>
+      </c>
+      <c r="L330" t="n">
+        <v>229.6666666666667</v>
+      </c>
+      <c r="M330" t="n">
+        <v>120</v>
+      </c>
+      <c r="N330" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="O330" t="n">
+        <v>206</v>
+      </c>
+      <c r="P330" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>183</v>
+      </c>
+      <c r="R330" t="n">
+        <v>99</v>
+      </c>
+      <c r="S330" t="n">
+        <v>160</v>
+      </c>
+      <c r="T330" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U330" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V330" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W330" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>31/01/2025</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>167</v>
+      </c>
+      <c r="D331" t="n">
+        <v>180.0923076923077</v>
+      </c>
+      <c r="E331" t="n">
+        <v>163</v>
+      </c>
+      <c r="F331" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="G331" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H331" t="n">
+        <v>134</v>
+      </c>
+      <c r="I331" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J331" t="n">
+        <v>135.7631578947368</v>
+      </c>
+      <c r="K331" t="n">
+        <v>231.75</v>
+      </c>
+      <c r="L331" t="n">
+        <v>240</v>
+      </c>
+      <c r="M331" t="n">
+        <v>120</v>
+      </c>
+      <c r="N331" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="O331" t="n">
+        <v>206</v>
+      </c>
+      <c r="P331" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>183</v>
+      </c>
+      <c r="R331" t="n">
+        <v>99</v>
+      </c>
+      <c r="S331" t="n">
+        <v>160</v>
+      </c>
+      <c r="T331" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U331" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V331" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W331" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>167</v>
+      </c>
+      <c r="D332" t="n">
+        <v>182</v>
+      </c>
+      <c r="E332" t="n">
+        <v>163</v>
+      </c>
+      <c r="F332" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="G332" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H332" t="n">
+        <v>134</v>
+      </c>
+      <c r="I332" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J332" t="n">
+        <v>138.3157894736842</v>
+      </c>
+      <c r="K332" t="n">
+        <v>234.5</v>
+      </c>
+      <c r="L332" t="n">
+        <v>240</v>
+      </c>
+      <c r="M332" t="n">
+        <v>120</v>
+      </c>
+      <c r="N332" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="O332" t="n">
+        <v>206</v>
+      </c>
+      <c r="P332" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>183</v>
+      </c>
+      <c r="R332" t="n">
+        <v>99</v>
+      </c>
+      <c r="S332" t="n">
+        <v>160</v>
+      </c>
+      <c r="T332" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U332" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V332" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W332" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>04/02/2025</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>165</v>
+      </c>
+      <c r="D333" t="n">
+        <v>178.8</v>
+      </c>
+      <c r="E333" t="n">
+        <v>163</v>
+      </c>
+      <c r="F333" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="G333" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H333" t="n">
+        <v>134</v>
+      </c>
+      <c r="I333" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J333" t="n">
+        <v>131.5555555555555</v>
+      </c>
+      <c r="K333" t="n">
+        <v>228</v>
+      </c>
+      <c r="L333" t="n">
+        <v>240</v>
+      </c>
+      <c r="M333" t="n">
+        <v>120</v>
+      </c>
+      <c r="N333" t="n">
+        <v>195</v>
+      </c>
+      <c r="O333" t="n">
+        <v>206</v>
+      </c>
+      <c r="P333" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>183</v>
+      </c>
+      <c r="R333" t="n">
+        <v>99</v>
+      </c>
+      <c r="S333" t="n">
+        <v>160</v>
+      </c>
+      <c r="T333" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U333" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V333" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W333" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>05/02/2025</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>122.05</v>
+      </c>
+      <c r="D334" t="n">
+        <v>176.6545454545455</v>
+      </c>
+      <c r="E334" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="F334" t="n">
+        <v>146.9666666666667</v>
+      </c>
+      <c r="G334" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H334" t="n">
+        <v>134</v>
+      </c>
+      <c r="I334" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J334" t="n">
+        <v>131.6666666666667</v>
+      </c>
+      <c r="K334" t="n">
+        <v>225</v>
+      </c>
+      <c r="L334" t="n">
+        <v>240</v>
+      </c>
+      <c r="M334" t="n">
+        <v>120</v>
+      </c>
+      <c r="N334" t="n">
+        <v>190</v>
+      </c>
+      <c r="O334" t="n">
+        <v>211</v>
+      </c>
+      <c r="P334" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>183</v>
+      </c>
+      <c r="R334" t="n">
+        <v>99</v>
+      </c>
+      <c r="S334" t="n">
+        <v>160</v>
+      </c>
+      <c r="T334" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U334" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V334" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W334" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W334"/>
+  <dimension ref="A1:W339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23854,6 +23854,371 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>06/02/2025</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>122.05</v>
+      </c>
+      <c r="D335" t="n">
+        <v>179.8125</v>
+      </c>
+      <c r="E335" t="n">
+        <v>160.3333333333333</v>
+      </c>
+      <c r="F335" t="n">
+        <v>151</v>
+      </c>
+      <c r="G335" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H335" t="n">
+        <v>134</v>
+      </c>
+      <c r="I335" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J335" t="n">
+        <v>140.7076923076923</v>
+      </c>
+      <c r="K335" t="n">
+        <v>232</v>
+      </c>
+      <c r="L335" t="n">
+        <v>240</v>
+      </c>
+      <c r="M335" t="n">
+        <v>120</v>
+      </c>
+      <c r="N335" t="n">
+        <v>190</v>
+      </c>
+      <c r="O335" t="n">
+        <v>211</v>
+      </c>
+      <c r="P335" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>183</v>
+      </c>
+      <c r="R335" t="n">
+        <v>99</v>
+      </c>
+      <c r="S335" t="n">
+        <v>160</v>
+      </c>
+      <c r="T335" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U335" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V335" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W335" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="D336" t="n">
+        <v>181.9375</v>
+      </c>
+      <c r="E336" t="n">
+        <v>161.45</v>
+      </c>
+      <c r="F336" t="n">
+        <v>153</v>
+      </c>
+      <c r="G336" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H336" t="n">
+        <v>134</v>
+      </c>
+      <c r="I336" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J336" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="K336" t="n">
+        <v>237</v>
+      </c>
+      <c r="L336" t="n">
+        <v>255</v>
+      </c>
+      <c r="M336" t="n">
+        <v>120</v>
+      </c>
+      <c r="N336" t="n">
+        <v>190</v>
+      </c>
+      <c r="O336" t="n">
+        <v>211</v>
+      </c>
+      <c r="P336" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>183</v>
+      </c>
+      <c r="R336" t="n">
+        <v>99</v>
+      </c>
+      <c r="S336" t="n">
+        <v>160</v>
+      </c>
+      <c r="T336" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U336" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V336" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W336" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>154</v>
+      </c>
+      <c r="D337" t="n">
+        <v>189.6205882352941</v>
+      </c>
+      <c r="E337" t="n">
+        <v>165</v>
+      </c>
+      <c r="F337" t="n">
+        <v>155</v>
+      </c>
+      <c r="G337" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H337" t="n">
+        <v>134</v>
+      </c>
+      <c r="I337" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J337" t="n">
+        <v>178.1740740740741</v>
+      </c>
+      <c r="K337" t="n">
+        <v>260.25</v>
+      </c>
+      <c r="L337" t="n">
+        <v>255</v>
+      </c>
+      <c r="M337" t="n">
+        <v>120</v>
+      </c>
+      <c r="N337" t="n">
+        <v>190</v>
+      </c>
+      <c r="O337" t="n">
+        <v>211</v>
+      </c>
+      <c r="P337" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>183</v>
+      </c>
+      <c r="R337" t="n">
+        <v>99</v>
+      </c>
+      <c r="S337" t="n">
+        <v>160</v>
+      </c>
+      <c r="T337" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U337" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V337" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W337" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>11/02/2025</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>154</v>
+      </c>
+      <c r="D338" t="n">
+        <v>192.5384615384615</v>
+      </c>
+      <c r="E338" t="n">
+        <v>166</v>
+      </c>
+      <c r="F338" t="n">
+        <v>155</v>
+      </c>
+      <c r="G338" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H338" t="n">
+        <v>134</v>
+      </c>
+      <c r="I338" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J338" t="n">
+        <v>179.5852173913044</v>
+      </c>
+      <c r="K338" t="n">
+        <v>260.25</v>
+      </c>
+      <c r="L338" t="n">
+        <v>275</v>
+      </c>
+      <c r="M338" t="n">
+        <v>120</v>
+      </c>
+      <c r="N338" t="n">
+        <v>190</v>
+      </c>
+      <c r="O338" t="n">
+        <v>211</v>
+      </c>
+      <c r="P338" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>183</v>
+      </c>
+      <c r="R338" t="n">
+        <v>99</v>
+      </c>
+      <c r="S338" t="n">
+        <v>160</v>
+      </c>
+      <c r="T338" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U338" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V338" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W338" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>12/02/2025</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>154</v>
+      </c>
+      <c r="D339" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="E339" t="n">
+        <v>166</v>
+      </c>
+      <c r="F339" t="n">
+        <v>155</v>
+      </c>
+      <c r="G339" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H339" t="n">
+        <v>134</v>
+      </c>
+      <c r="I339" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J339" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="K339" t="n">
+        <v>260.25</v>
+      </c>
+      <c r="L339" t="n">
+        <v>275</v>
+      </c>
+      <c r="M339" t="n">
+        <v>120</v>
+      </c>
+      <c r="N339" t="n">
+        <v>190</v>
+      </c>
+      <c r="O339" t="n">
+        <v>211</v>
+      </c>
+      <c r="P339" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>183</v>
+      </c>
+      <c r="R339" t="n">
+        <v>99</v>
+      </c>
+      <c r="S339" t="n">
+        <v>160</v>
+      </c>
+      <c r="T339" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U339" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V339" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W339" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W339"/>
+  <dimension ref="A1:W347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24219,6 +24219,590 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>13/02/2025</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>154</v>
+      </c>
+      <c r="D340" t="n">
+        <v>172.7915789473684</v>
+      </c>
+      <c r="E340" t="n">
+        <v>162.125</v>
+      </c>
+      <c r="F340" t="n">
+        <v>155</v>
+      </c>
+      <c r="G340" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H340" t="n">
+        <v>134</v>
+      </c>
+      <c r="I340" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J340" t="n">
+        <v>162.375</v>
+      </c>
+      <c r="K340" t="n">
+        <v>260.25</v>
+      </c>
+      <c r="L340" t="n">
+        <v>275</v>
+      </c>
+      <c r="M340" t="n">
+        <v>120</v>
+      </c>
+      <c r="N340" t="n">
+        <v>190</v>
+      </c>
+      <c r="O340" t="n">
+        <v>211</v>
+      </c>
+      <c r="P340" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>183</v>
+      </c>
+      <c r="R340" t="n">
+        <v>99</v>
+      </c>
+      <c r="S340" t="n">
+        <v>160</v>
+      </c>
+      <c r="T340" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U340" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V340" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W340" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>154</v>
+      </c>
+      <c r="D341" t="n">
+        <v>186.1833333333333</v>
+      </c>
+      <c r="E341" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="F341" t="n">
+        <v>155</v>
+      </c>
+      <c r="G341" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H341" t="n">
+        <v>134</v>
+      </c>
+      <c r="I341" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J341" t="n">
+        <v>164.1666666666667</v>
+      </c>
+      <c r="K341" t="n">
+        <v>238</v>
+      </c>
+      <c r="L341" t="n">
+        <v>275</v>
+      </c>
+      <c r="M341" t="n">
+        <v>120</v>
+      </c>
+      <c r="N341" t="n">
+        <v>190</v>
+      </c>
+      <c r="O341" t="n">
+        <v>217</v>
+      </c>
+      <c r="P341" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>183</v>
+      </c>
+      <c r="R341" t="n">
+        <v>99</v>
+      </c>
+      <c r="S341" t="n">
+        <v>160</v>
+      </c>
+      <c r="T341" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U341" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V341" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W341" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>17/02/2025</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>154</v>
+      </c>
+      <c r="D342" t="n">
+        <v>190.9977777777778</v>
+      </c>
+      <c r="E342" t="n">
+        <v>164</v>
+      </c>
+      <c r="F342" t="n">
+        <v>155</v>
+      </c>
+      <c r="G342" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H342" t="n">
+        <v>134</v>
+      </c>
+      <c r="I342" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J342" t="n">
+        <v>181.4333333333333</v>
+      </c>
+      <c r="K342" t="n">
+        <v>260.8557142857143</v>
+      </c>
+      <c r="L342" t="n">
+        <v>275</v>
+      </c>
+      <c r="M342" t="n">
+        <v>120</v>
+      </c>
+      <c r="N342" t="n">
+        <v>190</v>
+      </c>
+      <c r="O342" t="n">
+        <v>217</v>
+      </c>
+      <c r="P342" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>183</v>
+      </c>
+      <c r="R342" t="n">
+        <v>99</v>
+      </c>
+      <c r="S342" t="n">
+        <v>160</v>
+      </c>
+      <c r="T342" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U342" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V342" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W342" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>18/02/2025</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>154</v>
+      </c>
+      <c r="D343" t="n">
+        <v>189.0714285714286</v>
+      </c>
+      <c r="E343" t="n">
+        <v>164</v>
+      </c>
+      <c r="F343" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="G343" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H343" t="n">
+        <v>134</v>
+      </c>
+      <c r="I343" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J343" t="n">
+        <v>181.4333333333333</v>
+      </c>
+      <c r="K343" t="n">
+        <v>258</v>
+      </c>
+      <c r="L343" t="n">
+        <v>269</v>
+      </c>
+      <c r="M343" t="n">
+        <v>120</v>
+      </c>
+      <c r="N343" t="n">
+        <v>190</v>
+      </c>
+      <c r="O343" t="n">
+        <v>222</v>
+      </c>
+      <c r="P343" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>183</v>
+      </c>
+      <c r="R343" t="n">
+        <v>99</v>
+      </c>
+      <c r="S343" t="n">
+        <v>160</v>
+      </c>
+      <c r="T343" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U343" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V343" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W343" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>19/02/2025</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>154</v>
+      </c>
+      <c r="D344" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="E344" t="n">
+        <v>164</v>
+      </c>
+      <c r="F344" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="G344" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H344" t="n">
+        <v>134</v>
+      </c>
+      <c r="I344" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J344" t="n">
+        <v>184.7625</v>
+      </c>
+      <c r="K344" t="n">
+        <v>258</v>
+      </c>
+      <c r="L344" t="n">
+        <v>268</v>
+      </c>
+      <c r="M344" t="n">
+        <v>120</v>
+      </c>
+      <c r="N344" t="n">
+        <v>190</v>
+      </c>
+      <c r="O344" t="n">
+        <v>222</v>
+      </c>
+      <c r="P344" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>183</v>
+      </c>
+      <c r="R344" t="n">
+        <v>99</v>
+      </c>
+      <c r="S344" t="n">
+        <v>160</v>
+      </c>
+      <c r="T344" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U344" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V344" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W344" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>20/02/2025</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>154</v>
+      </c>
+      <c r="D345" t="n">
+        <v>194.2222222222222</v>
+      </c>
+      <c r="E345" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="F345" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="G345" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H345" t="n">
+        <v>134</v>
+      </c>
+      <c r="I345" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J345" t="n">
+        <v>199.75</v>
+      </c>
+      <c r="K345" t="n">
+        <v>258</v>
+      </c>
+      <c r="L345" t="n">
+        <v>280.3285714285714</v>
+      </c>
+      <c r="M345" t="n">
+        <v>120</v>
+      </c>
+      <c r="N345" t="n">
+        <v>190</v>
+      </c>
+      <c r="O345" t="n">
+        <v>222</v>
+      </c>
+      <c r="P345" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>183</v>
+      </c>
+      <c r="R345" t="n">
+        <v>99</v>
+      </c>
+      <c r="S345" t="n">
+        <v>160</v>
+      </c>
+      <c r="T345" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U345" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V345" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W345" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>21/02/2025</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>154</v>
+      </c>
+      <c r="D346" t="n">
+        <v>201.1388888888889</v>
+      </c>
+      <c r="E346" t="n">
+        <v>169.25</v>
+      </c>
+      <c r="F346" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="G346" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H346" t="n">
+        <v>134</v>
+      </c>
+      <c r="I346" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J346" t="n">
+        <v>236.67</v>
+      </c>
+      <c r="K346" t="n">
+        <v>290.7857142857143</v>
+      </c>
+      <c r="L346" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="M346" t="n">
+        <v>120</v>
+      </c>
+      <c r="N346" t="n">
+        <v>190</v>
+      </c>
+      <c r="O346" t="n">
+        <v>222</v>
+      </c>
+      <c r="P346" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>183</v>
+      </c>
+      <c r="R346" t="n">
+        <v>99</v>
+      </c>
+      <c r="S346" t="n">
+        <v>160</v>
+      </c>
+      <c r="T346" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U346" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V346" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W346" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>24/02/2025</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>154</v>
+      </c>
+      <c r="D347" t="n">
+        <v>202.5346428571429</v>
+      </c>
+      <c r="E347" t="n">
+        <v>179.6444444444444</v>
+      </c>
+      <c r="F347" t="n">
+        <v>160</v>
+      </c>
+      <c r="G347" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H347" t="n">
+        <v>134</v>
+      </c>
+      <c r="I347" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J347" t="n">
+        <v>304.9363636363636</v>
+      </c>
+      <c r="K347" t="n">
+        <v>329.5</v>
+      </c>
+      <c r="L347" t="n">
+        <v>336</v>
+      </c>
+      <c r="M347" t="n">
+        <v>120</v>
+      </c>
+      <c r="N347" t="n">
+        <v>190</v>
+      </c>
+      <c r="O347" t="n">
+        <v>222</v>
+      </c>
+      <c r="P347" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>183</v>
+      </c>
+      <c r="R347" t="n">
+        <v>99</v>
+      </c>
+      <c r="S347" t="n">
+        <v>160</v>
+      </c>
+      <c r="T347" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U347" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V347" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W347" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W347"/>
+  <dimension ref="A1:W350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24803,6 +24803,225 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>25/02/2025</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>154</v>
+      </c>
+      <c r="D348" t="n">
+        <v>209</v>
+      </c>
+      <c r="E348" t="n">
+        <v>175</v>
+      </c>
+      <c r="F348" t="n">
+        <v>150</v>
+      </c>
+      <c r="G348" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H348" t="n">
+        <v>134</v>
+      </c>
+      <c r="I348" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J348" t="n">
+        <v>283.86</v>
+      </c>
+      <c r="K348" t="n">
+        <v>311</v>
+      </c>
+      <c r="L348" t="n">
+        <v>320</v>
+      </c>
+      <c r="M348" t="n">
+        <v>120</v>
+      </c>
+      <c r="N348" t="n">
+        <v>190</v>
+      </c>
+      <c r="O348" t="n">
+        <v>243.11</v>
+      </c>
+      <c r="P348" t="n">
+        <v>208.07</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>183.15</v>
+      </c>
+      <c r="R348" t="n">
+        <v>99</v>
+      </c>
+      <c r="S348" t="n">
+        <v>160</v>
+      </c>
+      <c r="T348" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U348" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V348" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W348" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>26/02/2025</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>154</v>
+      </c>
+      <c r="D349" t="n">
+        <v>205.65</v>
+      </c>
+      <c r="E349" t="n">
+        <v>175.1666666666667</v>
+      </c>
+      <c r="F349" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="G349" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H349" t="n">
+        <v>134</v>
+      </c>
+      <c r="I349" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J349" t="n">
+        <v>271.0833333333333</v>
+      </c>
+      <c r="K349" t="n">
+        <v>308.0416666666667</v>
+      </c>
+      <c r="L349" t="n">
+        <v>315</v>
+      </c>
+      <c r="M349" t="n">
+        <v>120</v>
+      </c>
+      <c r="N349" t="n">
+        <v>190</v>
+      </c>
+      <c r="O349" t="n">
+        <v>243.11</v>
+      </c>
+      <c r="P349" t="n">
+        <v>208.07</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>183.15</v>
+      </c>
+      <c r="R349" t="n">
+        <v>99</v>
+      </c>
+      <c r="S349" t="n">
+        <v>160</v>
+      </c>
+      <c r="T349" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U349" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V349" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W349" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>27/02/2025</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>154</v>
+      </c>
+      <c r="D350" t="n">
+        <v>204</v>
+      </c>
+      <c r="E350" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="F350" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="G350" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H350" t="n">
+        <v>134</v>
+      </c>
+      <c r="I350" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J350" t="n">
+        <v>235.6666666666667</v>
+      </c>
+      <c r="K350" t="n">
+        <v>286.25</v>
+      </c>
+      <c r="L350" t="n">
+        <v>295</v>
+      </c>
+      <c r="M350" t="n">
+        <v>120</v>
+      </c>
+      <c r="N350" t="n">
+        <v>190</v>
+      </c>
+      <c r="O350" t="n">
+        <v>230.25</v>
+      </c>
+      <c r="P350" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>183.15</v>
+      </c>
+      <c r="R350" t="n">
+        <v>99</v>
+      </c>
+      <c r="S350" t="n">
+        <v>160</v>
+      </c>
+      <c r="T350" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U350" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V350" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W350" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W350"/>
+  <dimension ref="A1:W356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25022,6 +25022,444 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>28/02/2025</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>154</v>
+      </c>
+      <c r="D351" t="n">
+        <v>200</v>
+      </c>
+      <c r="E351" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="F351" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="G351" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H351" t="n">
+        <v>134</v>
+      </c>
+      <c r="I351" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J351" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="K351" t="n">
+        <v>302.75</v>
+      </c>
+      <c r="L351" t="n">
+        <v>295</v>
+      </c>
+      <c r="M351" t="n">
+        <v>120</v>
+      </c>
+      <c r="N351" t="n">
+        <v>190</v>
+      </c>
+      <c r="O351" t="n">
+        <v>230.25</v>
+      </c>
+      <c r="P351" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>183.15</v>
+      </c>
+      <c r="R351" t="n">
+        <v>99</v>
+      </c>
+      <c r="S351" t="n">
+        <v>160</v>
+      </c>
+      <c r="T351" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U351" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V351" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W351" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>154</v>
+      </c>
+      <c r="D352" t="n">
+        <v>205</v>
+      </c>
+      <c r="E352" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="F352" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="G352" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H352" t="n">
+        <v>134</v>
+      </c>
+      <c r="I352" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J352" t="n">
+        <v>270</v>
+      </c>
+      <c r="K352" t="n">
+        <v>316.25</v>
+      </c>
+      <c r="L352" t="n">
+        <v>295</v>
+      </c>
+      <c r="M352" t="n">
+        <v>120</v>
+      </c>
+      <c r="N352" t="n">
+        <v>190</v>
+      </c>
+      <c r="O352" t="n">
+        <v>230.25</v>
+      </c>
+      <c r="P352" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>183.15</v>
+      </c>
+      <c r="R352" t="n">
+        <v>99</v>
+      </c>
+      <c r="S352" t="n">
+        <v>160</v>
+      </c>
+      <c r="T352" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U352" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V352" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W352" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>06/03/2025</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>154</v>
+      </c>
+      <c r="D353" t="n">
+        <v>202.25</v>
+      </c>
+      <c r="E353" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="F353" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="G353" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H353" t="n">
+        <v>134</v>
+      </c>
+      <c r="I353" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J353" t="n">
+        <v>269</v>
+      </c>
+      <c r="K353" t="n">
+        <v>314.3333333333333</v>
+      </c>
+      <c r="L353" t="n">
+        <v>295</v>
+      </c>
+      <c r="M353" t="n">
+        <v>120</v>
+      </c>
+      <c r="N353" t="n">
+        <v>190</v>
+      </c>
+      <c r="O353" t="n">
+        <v>230.25</v>
+      </c>
+      <c r="P353" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>183.15</v>
+      </c>
+      <c r="R353" t="n">
+        <v>99</v>
+      </c>
+      <c r="S353" t="n">
+        <v>160</v>
+      </c>
+      <c r="T353" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U353" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V353" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W353" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>07/03/2025</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>154</v>
+      </c>
+      <c r="D354" t="n">
+        <v>203.3333333333333</v>
+      </c>
+      <c r="E354" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="F354" t="n">
+        <v>153</v>
+      </c>
+      <c r="G354" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H354" t="n">
+        <v>134</v>
+      </c>
+      <c r="I354" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J354" t="n">
+        <v>269</v>
+      </c>
+      <c r="K354" t="n">
+        <v>319.495</v>
+      </c>
+      <c r="L354" t="n">
+        <v>312</v>
+      </c>
+      <c r="M354" t="n">
+        <v>120</v>
+      </c>
+      <c r="N354" t="n">
+        <v>190</v>
+      </c>
+      <c r="O354" t="n">
+        <v>231</v>
+      </c>
+      <c r="P354" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>183.15</v>
+      </c>
+      <c r="R354" t="n">
+        <v>99</v>
+      </c>
+      <c r="S354" t="n">
+        <v>160</v>
+      </c>
+      <c r="T354" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U354" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V354" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W354" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>154</v>
+      </c>
+      <c r="D355" t="n">
+        <v>212.5714285714286</v>
+      </c>
+      <c r="E355" t="n">
+        <v>173</v>
+      </c>
+      <c r="F355" t="n">
+        <v>158</v>
+      </c>
+      <c r="G355" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H355" t="n">
+        <v>134</v>
+      </c>
+      <c r="I355" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J355" t="n">
+        <v>301.4333333333333</v>
+      </c>
+      <c r="K355" t="n">
+        <v>327</v>
+      </c>
+      <c r="L355" t="n">
+        <v>325</v>
+      </c>
+      <c r="M355" t="n">
+        <v>120</v>
+      </c>
+      <c r="N355" t="n">
+        <v>190</v>
+      </c>
+      <c r="O355" t="n">
+        <v>243</v>
+      </c>
+      <c r="P355" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>183.15</v>
+      </c>
+      <c r="R355" t="n">
+        <v>99</v>
+      </c>
+      <c r="S355" t="n">
+        <v>160</v>
+      </c>
+      <c r="T355" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U355" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V355" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W355" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>154</v>
+      </c>
+      <c r="D356" t="n">
+        <v>212.4285714285714</v>
+      </c>
+      <c r="E356" t="n">
+        <v>173</v>
+      </c>
+      <c r="F356" t="n">
+        <v>158</v>
+      </c>
+      <c r="G356" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H356" t="n">
+        <v>134</v>
+      </c>
+      <c r="I356" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J356" t="n">
+        <v>293.375</v>
+      </c>
+      <c r="K356" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="L356" t="n">
+        <v>325</v>
+      </c>
+      <c r="M356" t="n">
+        <v>120</v>
+      </c>
+      <c r="N356" t="n">
+        <v>190</v>
+      </c>
+      <c r="O356" t="n">
+        <v>243</v>
+      </c>
+      <c r="P356" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>183.15</v>
+      </c>
+      <c r="R356" t="n">
+        <v>99</v>
+      </c>
+      <c r="S356" t="n">
+        <v>160</v>
+      </c>
+      <c r="T356" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U356" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V356" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W356" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W356"/>
+  <dimension ref="A1:W362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25460,6 +25460,444 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>204.48</v>
+      </c>
+      <c r="D357" t="n">
+        <v>218.4833333333333</v>
+      </c>
+      <c r="E357" t="n">
+        <v>178.6666666666667</v>
+      </c>
+      <c r="F357" t="n">
+        <v>158</v>
+      </c>
+      <c r="G357" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H357" t="n">
+        <v>134</v>
+      </c>
+      <c r="I357" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J357" t="n">
+        <v>302.45</v>
+      </c>
+      <c r="K357" t="n">
+        <v>343.3333333333333</v>
+      </c>
+      <c r="L357" t="n">
+        <v>335.5</v>
+      </c>
+      <c r="M357" t="n">
+        <v>120</v>
+      </c>
+      <c r="N357" t="n">
+        <v>190</v>
+      </c>
+      <c r="O357" t="n">
+        <v>243</v>
+      </c>
+      <c r="P357" t="n">
+        <v>190</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>183.15</v>
+      </c>
+      <c r="R357" t="n">
+        <v>99</v>
+      </c>
+      <c r="S357" t="n">
+        <v>160</v>
+      </c>
+      <c r="T357" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U357" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V357" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W357" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>13/03/2025</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>204.48</v>
+      </c>
+      <c r="D358" t="n">
+        <v>224.7368421052632</v>
+      </c>
+      <c r="E358" t="n">
+        <v>183</v>
+      </c>
+      <c r="F358" t="n">
+        <v>160</v>
+      </c>
+      <c r="G358" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H358" t="n">
+        <v>134</v>
+      </c>
+      <c r="I358" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J358" t="n">
+        <v>311.8571428571428</v>
+      </c>
+      <c r="K358" t="n">
+        <v>372.0428571428571</v>
+      </c>
+      <c r="L358" t="n">
+        <v>350.75</v>
+      </c>
+      <c r="M358" t="n">
+        <v>120</v>
+      </c>
+      <c r="N358" t="n">
+        <v>190</v>
+      </c>
+      <c r="O358" t="n">
+        <v>253.08</v>
+      </c>
+      <c r="P358" t="n">
+        <v>207.6</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>187</v>
+      </c>
+      <c r="R358" t="n">
+        <v>99</v>
+      </c>
+      <c r="S358" t="n">
+        <v>160</v>
+      </c>
+      <c r="T358" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U358" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V358" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W358" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>14/03/2025</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>204.48</v>
+      </c>
+      <c r="D359" t="n">
+        <v>225.6625</v>
+      </c>
+      <c r="E359" t="n">
+        <v>182.6666666666667</v>
+      </c>
+      <c r="F359" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="G359" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H359" t="n">
+        <v>134</v>
+      </c>
+      <c r="I359" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J359" t="n">
+        <v>316.8333333333333</v>
+      </c>
+      <c r="K359" t="n">
+        <v>354.625</v>
+      </c>
+      <c r="L359" t="n">
+        <v>355</v>
+      </c>
+      <c r="M359" t="n">
+        <v>120</v>
+      </c>
+      <c r="N359" t="n">
+        <v>190</v>
+      </c>
+      <c r="O359" t="n">
+        <v>253.08</v>
+      </c>
+      <c r="P359" t="n">
+        <v>207.6</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>187</v>
+      </c>
+      <c r="R359" t="n">
+        <v>99</v>
+      </c>
+      <c r="S359" t="n">
+        <v>160</v>
+      </c>
+      <c r="T359" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U359" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V359" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W359" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>17/03/2025</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>204.48</v>
+      </c>
+      <c r="D360" t="n">
+        <v>231.6271428571429</v>
+      </c>
+      <c r="E360" t="n">
+        <v>187.4485714285714</v>
+      </c>
+      <c r="F360" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="G360" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H360" t="n">
+        <v>134</v>
+      </c>
+      <c r="I360" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J360" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="K360" t="n">
+        <v>378.6</v>
+      </c>
+      <c r="L360" t="n">
+        <v>361</v>
+      </c>
+      <c r="M360" t="n">
+        <v>120</v>
+      </c>
+      <c r="N360" t="n">
+        <v>190</v>
+      </c>
+      <c r="O360" t="n">
+        <v>239.14</v>
+      </c>
+      <c r="P360" t="n">
+        <v>203.61</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>187.55</v>
+      </c>
+      <c r="R360" t="n">
+        <v>99</v>
+      </c>
+      <c r="S360" t="n">
+        <v>160</v>
+      </c>
+      <c r="T360" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U360" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V360" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W360" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>18/03/2025</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>204.48</v>
+      </c>
+      <c r="D361" t="n">
+        <v>232.34</v>
+      </c>
+      <c r="E361" t="n">
+        <v>189.2857142857143</v>
+      </c>
+      <c r="F361" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="G361" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H361" t="n">
+        <v>134</v>
+      </c>
+      <c r="I361" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J361" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="K361" t="n">
+        <v>378.6</v>
+      </c>
+      <c r="L361" t="n">
+        <v>354.1428571428572</v>
+      </c>
+      <c r="M361" t="n">
+        <v>120</v>
+      </c>
+      <c r="N361" t="n">
+        <v>190</v>
+      </c>
+      <c r="O361" t="n">
+        <v>239.14</v>
+      </c>
+      <c r="P361" t="n">
+        <v>203.61</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>187.55</v>
+      </c>
+      <c r="R361" t="n">
+        <v>99</v>
+      </c>
+      <c r="S361" t="n">
+        <v>160</v>
+      </c>
+      <c r="T361" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U361" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V361" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W361" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>19/03/2025</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>204.48</v>
+      </c>
+      <c r="D362" t="n">
+        <v>234.5</v>
+      </c>
+      <c r="E362" t="n">
+        <v>191</v>
+      </c>
+      <c r="F362" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="G362" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H362" t="n">
+        <v>134</v>
+      </c>
+      <c r="I362" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J362" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="K362" t="n">
+        <v>378.6</v>
+      </c>
+      <c r="L362" t="n">
+        <v>354.1428571428572</v>
+      </c>
+      <c r="M362" t="n">
+        <v>120</v>
+      </c>
+      <c r="N362" t="n">
+        <v>190</v>
+      </c>
+      <c r="O362" t="n">
+        <v>239.14</v>
+      </c>
+      <c r="P362" t="n">
+        <v>203.61</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>187.55</v>
+      </c>
+      <c r="R362" t="n">
+        <v>99</v>
+      </c>
+      <c r="S362" t="n">
+        <v>160</v>
+      </c>
+      <c r="T362" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U362" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V362" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W362" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/me3.xlsx
+++ b/assets/me3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W362"/>
+  <dimension ref="A1:W368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25898,6 +25898,444 @@
         <v>64.48999999999999</v>
       </c>
     </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>20/03/2025</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>204.48</v>
+      </c>
+      <c r="D363" t="n">
+        <v>247.3048387096774</v>
+      </c>
+      <c r="E363" t="n">
+        <v>195.6666666666667</v>
+      </c>
+      <c r="F363" t="n">
+        <v>167.6666666666667</v>
+      </c>
+      <c r="G363" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H363" t="n">
+        <v>134</v>
+      </c>
+      <c r="I363" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J363" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="K363" t="n">
+        <v>403.1666666666667</v>
+      </c>
+      <c r="L363" t="n">
+        <v>367.3571428571428</v>
+      </c>
+      <c r="M363" t="n">
+        <v>120</v>
+      </c>
+      <c r="N363" t="n">
+        <v>190</v>
+      </c>
+      <c r="O363" t="n">
+        <v>239.14</v>
+      </c>
+      <c r="P363" t="n">
+        <v>203.61</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>187.55</v>
+      </c>
+      <c r="R363" t="n">
+        <v>99</v>
+      </c>
+      <c r="S363" t="n">
+        <v>160</v>
+      </c>
+      <c r="T363" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U363" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V363" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W363" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>21/03/2025</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>204.48</v>
+      </c>
+      <c r="D364" t="n">
+        <v>248.5714285714286</v>
+      </c>
+      <c r="E364" t="n">
+        <v>195.6666666666667</v>
+      </c>
+      <c r="F364" t="n">
+        <v>167.6666666666667</v>
+      </c>
+      <c r="G364" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H364" t="n">
+        <v>134</v>
+      </c>
+      <c r="I364" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J364" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="K364" t="n">
+        <v>403.5</v>
+      </c>
+      <c r="L364" t="n">
+        <v>365.66</v>
+      </c>
+      <c r="M364" t="n">
+        <v>120</v>
+      </c>
+      <c r="N364" t="n">
+        <v>190</v>
+      </c>
+      <c r="O364" t="n">
+        <v>239.14</v>
+      </c>
+      <c r="P364" t="n">
+        <v>226</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>187.55</v>
+      </c>
+      <c r="R364" t="n">
+        <v>99</v>
+      </c>
+      <c r="S364" t="n">
+        <v>160</v>
+      </c>
+      <c r="T364" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U364" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V364" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W364" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>24/03/2025</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>204.48</v>
+      </c>
+      <c r="D365" t="n">
+        <v>245</v>
+      </c>
+      <c r="E365" t="n">
+        <v>195</v>
+      </c>
+      <c r="F365" t="n">
+        <v>170</v>
+      </c>
+      <c r="G365" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H365" t="n">
+        <v>134</v>
+      </c>
+      <c r="I365" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J365" t="n">
+        <v>285</v>
+      </c>
+      <c r="K365" t="n">
+        <v>389.544</v>
+      </c>
+      <c r="L365" t="n">
+        <v>355.2625</v>
+      </c>
+      <c r="M365" t="n">
+        <v>120</v>
+      </c>
+      <c r="N365" t="n">
+        <v>190</v>
+      </c>
+      <c r="O365" t="n">
+        <v>239.14</v>
+      </c>
+      <c r="P365" t="n">
+        <v>226</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>187.55</v>
+      </c>
+      <c r="R365" t="n">
+        <v>99</v>
+      </c>
+      <c r="S365" t="n">
+        <v>160</v>
+      </c>
+      <c r="T365" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U365" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V365" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W365" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>25/03/2025</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>204.48</v>
+      </c>
+      <c r="D366" t="n">
+        <v>245.0416666666667</v>
+      </c>
+      <c r="E366" t="n">
+        <v>195</v>
+      </c>
+      <c r="F366" t="n">
+        <v>170</v>
+      </c>
+      <c r="G366" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H366" t="n">
+        <v>134</v>
+      </c>
+      <c r="I366" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J366" t="n">
+        <v>285</v>
+      </c>
+      <c r="K366" t="n">
+        <v>395</v>
+      </c>
+      <c r="L366" t="n">
+        <v>355.2625</v>
+      </c>
+      <c r="M366" t="n">
+        <v>120</v>
+      </c>
+      <c r="N366" t="n">
+        <v>190</v>
+      </c>
+      <c r="O366" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="P366" t="n">
+        <v>226</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>187.55</v>
+      </c>
+      <c r="R366" t="n">
+        <v>99</v>
+      </c>
+      <c r="S366" t="n">
+        <v>160</v>
+      </c>
+      <c r="T366" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U366" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V366" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W366" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>204.48</v>
+      </c>
+      <c r="D367" t="n">
+        <v>238.7</v>
+      </c>
+      <c r="E367" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="F367" t="n">
+        <v>170</v>
+      </c>
+      <c r="G367" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H367" t="n">
+        <v>134</v>
+      </c>
+      <c r="I367" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J367" t="n">
+        <v>277</v>
+      </c>
+      <c r="K367" t="n">
+        <v>377.15</v>
+      </c>
+      <c r="L367" t="n">
+        <v>343.0888235294118</v>
+      </c>
+      <c r="M367" t="n">
+        <v>120</v>
+      </c>
+      <c r="N367" t="n">
+        <v>190</v>
+      </c>
+      <c r="O367" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="P367" t="n">
+        <v>226</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>187.55</v>
+      </c>
+      <c r="R367" t="n">
+        <v>99</v>
+      </c>
+      <c r="S367" t="n">
+        <v>160</v>
+      </c>
+      <c r="T367" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U367" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V367" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W367" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>27/03/2025</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>204.48</v>
+      </c>
+      <c r="D368" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="E368" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="F368" t="n">
+        <v>170</v>
+      </c>
+      <c r="G368" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="H368" t="n">
+        <v>134</v>
+      </c>
+      <c r="I368" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J368" t="n">
+        <v>277</v>
+      </c>
+      <c r="K368" t="n">
+        <v>367.608</v>
+      </c>
+      <c r="L368" t="n">
+        <v>343.0888235294118</v>
+      </c>
+      <c r="M368" t="n">
+        <v>120</v>
+      </c>
+      <c r="N368" t="n">
+        <v>190</v>
+      </c>
+      <c r="O368" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="P368" t="n">
+        <v>226</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>187.55</v>
+      </c>
+      <c r="R368" t="n">
+        <v>99</v>
+      </c>
+      <c r="S368" t="n">
+        <v>160</v>
+      </c>
+      <c r="T368" t="n">
+        <v>0.3192307692307693</v>
+      </c>
+      <c r="U368" t="n">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="V368" t="n">
+        <v>118.25</v>
+      </c>
+      <c r="W368" t="n">
+        <v>64.48999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
